--- a/data/menu_dinner.xlsx
+++ b/data/menu_dinner.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowHeight="14800" tabRatio="500" activeTab="1"/>
+    <workbookView windowHeight="23820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
     <t>images/product/food/辣子鸡.jpg</t>
   </si>
   <si>
-    <t>Chicken leg meat / Special spices</t>
+    <t>Chicken leg meat/Special spices</t>
   </si>
   <si>
     <t>鸡腿肉/特制香辛料</t>
@@ -609,7 +609,7 @@
     <t>限时优惠</t>
   </si>
   <si>
-    <t>Beef fillet /Red and yellow pepper/Black Pepper</t>
+    <t>Beef fillet/Red and yellow pepper/Black Pepper</t>
   </si>
   <si>
     <t>牛脊肉/红黄彩椒/黑胡椒</t>
@@ -795,7 +795,7 @@
     <t>images/product/food/香肠拼盘.jpg</t>
   </si>
   <si>
-    <t>German sausage /Potato fillet/Seasonal vegetable salad</t>
+    <t>German sausage/Potato fillet/Seasonal vegetable salad</t>
   </si>
   <si>
     <t>德式香肠/土豆角/时蔬沙拉</t>
@@ -852,7 +852,7 @@
     <t>alcoholic drink</t>
   </si>
   <si>
-    <t>images/product/cocktail/Cyber pink.png</t>
+    <t>images/product/cocktail/Cyber_pink.png</t>
   </si>
   <si>
     <t>Sweet+Sour</t>
@@ -873,7 +873,7 @@
     <t>迷恋</t>
   </si>
   <si>
-    <t>images/product/cocktail/Lost in.png</t>
+    <t>images/product/cocktail/Lost_in.png</t>
   </si>
   <si>
     <t>Osmanthus milu/Croft sherry/ST-Germain liqueur/Bob's bitter</t>
@@ -891,7 +891,7 @@
     <t>满载的莓果车</t>
   </si>
   <si>
-    <t>images/product/cocktail/Berry larry.png</t>
+    <t>images/product/cocktail/Berry_larry.png</t>
   </si>
   <si>
     <t>Beefeater Gin/Coffee liqueur/Monin raspberry/Cranberry juice/lemon juice/Raspberry puree</t>
@@ -924,7 +924,7 @@
     <t>长江冰茶</t>
   </si>
   <si>
-    <t>images/product/cocktail/saltied_duck.png</t>
+    <t>images/product/cocktail/Long_riverr_ice_tea.png</t>
   </si>
   <si>
     <t>Homemade Chrysanthemum Gin/Homemade Wolfberry Osmanthus syrup/Lemon juice/Grapefruit juice</t>
@@ -939,7 +939,7 @@
     <t>雷蒙金菲士</t>
   </si>
   <si>
-    <t>images/product/cocktail/Long riverr ice tea.png</t>
+    <t>images/product/cocktail/Ramonth_Gin fizz.png</t>
   </si>
   <si>
     <t>Salted duck</t>
@@ -978,7 +978,7 @@
     <t>98/Glass</t>
   </si>
   <si>
-    <t>images/product/cocktail/RT Negroni.png</t>
+    <t>images/product/cocktail/RT_Negroni.png</t>
   </si>
   <si>
     <t>Sweet+Bitter</t>
@@ -996,7 +996,7 @@
     <t>复制</t>
   </si>
   <si>
-    <t>images/product/cocktail/Control C.png</t>
+    <t>images/product/cocktail/Control_C.png</t>
   </si>
   <si>
     <t>Bacardi Rum 8Y/Campari/Frangelico liqueur/Angostura bitter/Lemon juice</t>
@@ -1011,7 +1011,7 @@
     <t>粘贴</t>
   </si>
   <si>
-    <t>images/product/cocktail/Control V.png</t>
+    <t>images/product/cocktail/Control_V.png</t>
   </si>
   <si>
     <t>Laphroaig 10Y/Suze liqueur/Prucia liqueur/lemon juice</t>
@@ -1195,7 +1195,7 @@
     <t>古典</t>
   </si>
   <si>
-    <t>Maker’s mark  Whiskey /Rittenhouse rye /Angostura bitters/Orange bitters</t>
+    <t>Maker’s mark  Whiskey/Rittenhouse rye /Angostura bitters/Orange bitters</t>
   </si>
   <si>
     <t>美格威士忌/瑞顿房黑麦威士忌/安歌苦酒/橙味苦酒</t>
@@ -1213,7 +1213,7 @@
     <t>86/Glass</t>
   </si>
   <si>
-    <t>Maker’s mark  Whiskey /lemon juice/Angostura bitters</t>
+    <t>Maker’s mark  Whiskey/lemon juice/Angostura bitters</t>
   </si>
   <si>
     <t>美格威士忌/柠檬汁/安歌苦酒</t>
@@ -1228,7 +1228,7 @@
     <t>教父</t>
   </si>
   <si>
-    <t>Talisker 10Y /Johnnie walker/Disaronno</t>
+    <t>Talisker 10Y/Johnnie walker/Disaronno</t>
   </si>
   <si>
     <t xml:space="preserve">泰斯卡10年/黑方/帝萨诺利口酒
@@ -1294,7 +1294,7 @@
     <t>萝西塔</t>
   </si>
   <si>
-    <t>Olmeca silver Tequila/ Dolin sweet vermouth/Dolin dry vermouth/Campari/Angostura bitters</t>
+    <t>Olmeca silver Tequila/Dolin sweet vermouth/Dolin dry vermouth/Campari/Angostura bitters</t>
   </si>
   <si>
     <t>奥美加银龙舌兰/杜林甜味美思/杜林干味美思/金巴利/安歌苦酒</t>
@@ -2756,7 +2756,7 @@
     <t>soft drink</t>
   </si>
   <si>
-    <t>images/product/Mocktail/Miss molly.png</t>
+    <t>images/product/Cocktail/Miss_molly.png</t>
   </si>
   <si>
     <t>Jasmine tea/Fresh guava juice/lemon juice</t>
@@ -2774,7 +2774,7 @@
     <t>嘿！</t>
   </si>
   <si>
-    <t>images/product/Mocktail/Hey ！.png</t>
+    <t>images/product/Cocktail/Hey_！.png</t>
   </si>
   <si>
     <t>Oolong tea/Lemon juice/Apple juice/Brown sugar</t>
@@ -2792,7 +2792,7 @@
     <t>怦然心动</t>
   </si>
   <si>
-    <t>images/product/Mocktail/Flipped.png</t>
+    <t>images/product/Cocktail/Flipped.png</t>
   </si>
   <si>
     <t>Orange juice/Lemon juice/Passion fruit syrup/Fresh passion fruit</t>
@@ -2810,7 +2810,7 @@
     <t>植物乐园</t>
   </si>
   <si>
-    <t>images/product/Mocktail/Plant Paradise.png</t>
+    <t>images/product/Cocktail/Plant_Paradise.png</t>
   </si>
   <si>
     <t>カルピス/Coconut juice/Coconut milk/Topsoda</t>
@@ -2828,7 +2828,7 @@
     <t>丑小鸭</t>
   </si>
   <si>
-    <t>images/product/Mocktail/Ugly duckling.png</t>
+    <t>images/product/Cocktail/Ugly_duckling.png</t>
   </si>
   <si>
     <t>Litchi puree/Lemon juice/Apple juice/Jasmine tea/Coconut juice/Pomegranate syrup</t>
@@ -3627,7 +3627,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3725,9 +3725,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4060,770 +4057,774 @@
   <sheetPr/>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="11.5178571428571" style="37"/>
-    <col min="3" max="3" width="41.6607142857143" style="37" customWidth="1"/>
-    <col min="4" max="4" width="37.1785714285714" style="37" customWidth="1"/>
-    <col min="5" max="5" width="59.4732142857143" style="37" customWidth="1"/>
-    <col min="6" max="6" width="22.3571428571429" style="38" customWidth="1"/>
-    <col min="7" max="7" width="11.5178571428571" style="38"/>
-    <col min="8" max="8" width="16.2589285714286" style="37" customWidth="1"/>
-    <col min="9" max="9" width="18.1964285714286" style="37" customWidth="1"/>
+    <col min="1" max="2" width="11.5178571428571" style="36"/>
+    <col min="3" max="3" width="41.6607142857143" style="36" customWidth="1"/>
+    <col min="4" max="4" width="37.1785714285714" style="36" customWidth="1"/>
+    <col min="5" max="5" width="59.4732142857143" style="36" customWidth="1"/>
+    <col min="6" max="6" width="22.3571428571429" style="37" customWidth="1"/>
+    <col min="7" max="7" width="11.5178571428571" style="37"/>
+    <col min="8" max="8" width="16.2589285714286" style="36" customWidth="1"/>
+    <col min="9" max="9" width="18.1964285714286" style="36" customWidth="1"/>
     <col min="10" max="1025" width="11.5178571428571"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
-      <c r="A1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40" t="s">
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="38" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="39">
+      <c r="A2" s="38">
         <v>1</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="38">
         <v>1</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="42" t="b">
+      <c r="F2" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="G2" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
+      <c r="G2" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="40">
+      <c r="A3" s="39">
         <v>11</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="38">
         <v>2</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="42" t="b">
+      <c r="E3" s="38"/>
+      <c r="F3" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
+      <c r="G3" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="4" customHeight="1" spans="1:9">
-      <c r="A4" s="39">
+      <c r="A4" s="38">
         <v>12</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="38">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="42" t="b">
+      <c r="E4" s="38"/>
+      <c r="F4" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
+      <c r="G4" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
     </row>
     <row r="5" customHeight="1" spans="1:9">
-      <c r="A5" s="39">
+      <c r="A5" s="38">
         <v>13</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="38">
         <v>2</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="42" t="b">
+      <c r="E5" s="38"/>
+      <c r="F5" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
+      <c r="G5" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
     </row>
     <row r="6" customHeight="1" spans="1:9">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="38">
         <v>2</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="42" t="b">
+      <c r="E6" s="38"/>
+      <c r="F6" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="G6" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
+      <c r="G6" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
     </row>
     <row r="7" customHeight="1" spans="1:9">
-      <c r="A7" s="39">
+      <c r="A7" s="38">
         <v>2</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="38">
         <v>1</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="42" t="b">
+      <c r="F7" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="G7" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
+      <c r="G7" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
     </row>
     <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="39">
+      <c r="A8" s="38">
         <v>21</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="38">
         <v>2</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="42" t="b">
+      <c r="E8" s="38"/>
+      <c r="F8" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="G8" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
+      <c r="G8" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
     </row>
     <row r="9" customHeight="1" spans="1:9">
-      <c r="A9" s="39">
+      <c r="A9" s="38">
         <v>22</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="38">
         <v>2</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
     </row>
     <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="39">
+      <c r="A10" s="38">
         <v>24</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="38">
         <v>2</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
     </row>
     <row r="11" customHeight="1" spans="1:9">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
     </row>
     <row r="12" customHeight="1" spans="1:9">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
     </row>
     <row r="13" customHeight="1" spans="1:9">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
     </row>
     <row r="14" customHeight="1" spans="1:9">
-      <c r="A14" s="39">
+      <c r="A14" s="38">
         <v>25</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="38">
         <v>2</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="42" t="b">
+      <c r="E14" s="38"/>
+      <c r="F14" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="H14" s="39" t="s">
+      <c r="H14" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="39"/>
+      <c r="I14" s="38"/>
     </row>
     <row r="15" customHeight="1" spans="1:9">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="38">
         <v>3</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
     </row>
     <row r="16" customHeight="1" spans="1:9">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="39">
+      <c r="B16" s="38">
         <v>3</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
     </row>
     <row r="17" customHeight="1" spans="1:9">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="39">
+      <c r="B17" s="38">
         <v>3</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
     </row>
     <row r="18" customHeight="1" spans="1:9">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
     </row>
     <row r="19" customHeight="1" spans="1:9">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
     </row>
     <row r="20" customHeight="1" spans="1:9">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
     </row>
     <row r="21" customHeight="1" spans="1:9">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
     </row>
     <row r="22" customHeight="1" spans="1:9">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="39">
+      <c r="B22" s="38">
         <v>2</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
     </row>
     <row r="23" customHeight="1" spans="1:9">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="39">
+      <c r="B23" s="38">
         <v>2</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
     </row>
     <row r="24" customHeight="1" spans="1:9">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="39">
+      <c r="B24" s="38">
         <v>2</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
     </row>
     <row r="25" customHeight="1" spans="1:9">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="39">
+      <c r="B25" s="38">
         <v>2</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
     </row>
     <row r="26" customHeight="1" spans="1:9">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="39">
+      <c r="B26" s="38">
         <v>2</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="39"/>
-      <c r="F26" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
     </row>
     <row r="27" customHeight="1" spans="1:9">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="39">
+      <c r="B27" s="38">
         <v>1</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="41" t="s">
+      <c r="E27" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="42" t="b">
+      <c r="F27" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="G27" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
+      <c r="G27" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
     </row>
     <row r="28" customHeight="1" spans="1:9">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="39">
+      <c r="B28" s="38">
         <v>2</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="42" t="b">
+      <c r="E28" s="38"/>
+      <c r="F28" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="G28" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
+      <c r="G28" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
     </row>
     <row r="29" customHeight="1" spans="1:9">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="39"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
     </row>
     <row r="30" customHeight="1" spans="1:9">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="39">
+      <c r="B30" s="38">
         <v>2</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
     </row>
     <row r="31" customHeight="1" spans="1:9">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="39">
+      <c r="B31" s="38">
         <v>1</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="41" t="s">
+      <c r="E31" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="F31" s="42" t="b">
+      <c r="F31" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="G31" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
+      <c r="G31" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
     </row>
     <row r="32" customHeight="1" spans="1:9">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="39" t="s">
+      <c r="D32" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="39"/>
-      <c r="F32" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G32" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.02430555555556" bottom="1.02430555555556" header="0.7875" footer="0.7875"/>
@@ -4840,8 +4841,8 @@
   <sheetPr/>
   <dimension ref="A1:BD241"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="G175" workbookViewId="0">
+      <selection activeCell="I204" sqref="I204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -4854,9 +4855,9 @@
     <col min="8" max="8" width="11.5178571428571" style="3"/>
     <col min="9" max="9" width="17.0625" style="3" customWidth="1"/>
     <col min="10" max="10" width="13.6339285714286" style="1" customWidth="1"/>
-    <col min="11" max="11" width="39.1607142857143" style="1" customWidth="1"/>
+    <col min="11" max="11" width="105.508928571429" style="1" customWidth="1"/>
     <col min="12" max="12" width="30.8214285714286" style="1" customWidth="1"/>
-    <col min="13" max="13" width="86.9017857142857" style="1" customWidth="1"/>
+    <col min="13" max="13" width="117.107142857143" style="1" customWidth="1"/>
     <col min="14" max="14" width="50.5982142857143" style="1" customWidth="1"/>
     <col min="15" max="16" width="11.5178571428571" style="1"/>
     <col min="17" max="17" width="11.5178571428571" style="3"/>
@@ -14374,9 +14375,15 @@
       <c r="L197" s="8"/>
       <c r="M197" s="17"/>
       <c r="N197" s="8"/>
-      <c r="O197" s="8"/>
-      <c r="P197" s="12"/>
-      <c r="Q197" s="36"/>
+      <c r="O197" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="P197" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q197" s="33" t="s">
+        <v>126</v>
+      </c>
       <c r="R197" s="16"/>
     </row>
     <row r="198" customHeight="1" spans="1:18">
@@ -14414,9 +14421,15 @@
       <c r="L198" s="8"/>
       <c r="M198" s="17"/>
       <c r="N198" s="8"/>
-      <c r="O198" s="8"/>
-      <c r="P198" s="12"/>
-      <c r="Q198" s="36"/>
+      <c r="O198" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="P198" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q198" s="33" t="s">
+        <v>126</v>
+      </c>
       <c r="R198" s="16"/>
     </row>
     <row r="199" customHeight="1" spans="1:1">

--- a/data/menu_dinner.xlsx
+++ b/data/menu_dinner.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowHeight="23820" tabRatio="500"/>
+    <workbookView windowWidth="25600" windowHeight="23820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -948,7 +948,7 @@
     <t>咸水鸭</t>
   </si>
   <si>
-    <t>images/product/cocktail/saltied duck.png</t>
+    <t>images/product/cocktail/saltied_duck.png</t>
   </si>
   <si>
     <t>Salty</t>
@@ -2756,7 +2756,7 @@
     <t>soft drink</t>
   </si>
   <si>
-    <t>images/product/Cocktail/Miss_molly.png</t>
+    <t>images/product/Mocktail/Miss_molly.png</t>
   </si>
   <si>
     <t>Jasmine tea/Fresh guava juice/lemon juice</t>
@@ -2774,7 +2774,7 @@
     <t>嘿！</t>
   </si>
   <si>
-    <t>images/product/Cocktail/Hey_！.png</t>
+    <t>images/product/Mocktail/Hey_！.png</t>
   </si>
   <si>
     <t>Oolong tea/Lemon juice/Apple juice/Brown sugar</t>
@@ -2792,7 +2792,7 @@
     <t>怦然心动</t>
   </si>
   <si>
-    <t>images/product/Cocktail/Flipped.png</t>
+    <t>images/product/Mocktail/Flipped.png</t>
   </si>
   <si>
     <t>Orange juice/Lemon juice/Passion fruit syrup/Fresh passion fruit</t>
@@ -2810,7 +2810,7 @@
     <t>植物乐园</t>
   </si>
   <si>
-    <t>images/product/Cocktail/Plant_Paradise.png</t>
+    <t>images/product/Mocktail/Plant_Paradise.png</t>
   </si>
   <si>
     <t>カルピス/Coconut juice/Coconut milk/Topsoda</t>
@@ -2828,7 +2828,7 @@
     <t>丑小鸭</t>
   </si>
   <si>
-    <t>images/product/Cocktail/Ugly_duckling.png</t>
+    <t>images/product/Mocktail/Ugly_duckling.png</t>
   </si>
   <si>
     <t>Litchi puree/Lemon juice/Apple juice/Jasmine tea/Coconut juice/Pomegranate syrup</t>
@@ -2956,10 +2956,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -3016,22 +3016,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3047,9 +3070,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3061,13 +3084,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -3076,7 +3092,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3091,7 +3115,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3105,17 +3129,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3131,31 +3146,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3168,7 +3168,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3180,7 +3192,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3192,13 +3222,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3210,43 +3264,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3258,25 +3306,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3288,13 +3318,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3312,43 +3336,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3405,7 +3405,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3414,7 +3414,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3435,16 +3465,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3459,168 +3489,138 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -4057,8 +4057,8 @@
   <sheetPr/>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A29" sqref="$A29:$XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -4841,8 +4841,8 @@
   <sheetPr/>
   <dimension ref="A1:BD241"/>
   <sheetViews>
-    <sheetView topLeftCell="G175" workbookViewId="0">
-      <selection activeCell="I204" sqref="I204"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>

--- a/data/menu_dinner.xlsx
+++ b/data/menu_dinner.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="23820" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="25600" windowHeight="11020" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975">
   <si>
     <t>id</t>
   </si>
@@ -372,10 +372,10 @@
     <t>RMB</t>
   </si>
   <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>228/份</t>
+    <t>258</t>
+  </si>
+  <si>
+    <t>258/份</t>
   </si>
   <si>
     <t>food</t>
@@ -1437,9 +1437,6 @@
   </si>
   <si>
     <t>松露猎人阿斯蒂莫斯卡托低醇低泡甜白起泡酒</t>
-  </si>
-  <si>
-    <t>258</t>
   </si>
   <si>
     <t>258/Bottle</t>
@@ -2956,11 +2953,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -3029,8 +3026,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3046,21 +3066,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -3068,31 +3073,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3106,39 +3096,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3154,6 +3121,36 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3180,7 +3177,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3192,7 +3189,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3204,25 +3231,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3234,25 +3261,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3264,13 +3315,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3282,61 +3333,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3348,7 +3345,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3410,15 +3407,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3430,6 +3418,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3449,17 +3446,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3479,142 +3472,146 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4841,8 +4838,8 @@
   <sheetPr/>
   <dimension ref="A1:BD241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -8059,10 +8056,10 @@
         <v>117</v>
       </c>
       <c r="F61" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G61" s="11" t="s">
         <v>472</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>473</v>
       </c>
       <c r="H61" s="12" t="b">
         <v>0</v>
@@ -8090,13 +8087,13 @@
     </row>
     <row r="62" customHeight="1" spans="1:18">
       <c r="A62" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="C62" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>467</v>
@@ -8105,10 +8102,10 @@
         <v>117</v>
       </c>
       <c r="F62" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="G62" s="11" t="s">
         <v>477</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>478</v>
       </c>
       <c r="H62" s="12" t="b">
         <v>0</v>
@@ -8136,13 +8133,13 @@
     </row>
     <row r="63" customHeight="1" spans="1:18">
       <c r="A63" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>481</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>467</v>
@@ -8151,10 +8148,10 @@
         <v>117</v>
       </c>
       <c r="F63" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="G63" s="11" t="s">
         <v>482</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>483</v>
       </c>
       <c r="H63" s="12" t="b">
         <v>0</v>
@@ -8182,13 +8179,13 @@
     </row>
     <row r="64" customHeight="1" spans="1:18">
       <c r="A64" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="C64" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>467</v>
@@ -8197,10 +8194,10 @@
         <v>117</v>
       </c>
       <c r="F64" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="G64" s="11" t="s">
         <v>487</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>488</v>
       </c>
       <c r="H64" s="12" t="b">
         <v>0</v>
@@ -8228,13 +8225,13 @@
     </row>
     <row r="65" customHeight="1" spans="1:18">
       <c r="A65" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B65" s="21" t="s">
         <v>489</v>
       </c>
-      <c r="B65" s="21" t="s">
+      <c r="C65" s="22" t="s">
         <v>490</v>
-      </c>
-      <c r="C65" s="22" t="s">
-        <v>491</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>43</v>
@@ -8246,7 +8243,7 @@
         <v>860</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H65" s="12" t="b">
         <v>0</v>
@@ -8274,13 +8271,13 @@
     </row>
     <row r="66" customHeight="1" spans="1:18">
       <c r="A66" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="B66" s="21" t="s">
         <v>493</v>
       </c>
-      <c r="B66" s="21" t="s">
+      <c r="C66" s="22" t="s">
         <v>494</v>
-      </c>
-      <c r="C66" s="22" t="s">
-        <v>495</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>43</v>
@@ -8292,7 +8289,7 @@
         <v>960</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H66" s="12" t="b">
         <v>0</v>
@@ -8320,13 +8317,13 @@
     </row>
     <row r="67" customHeight="1" spans="1:18">
       <c r="A67" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="B67" s="21" t="s">
         <v>497</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="C67" s="22" t="s">
         <v>498</v>
-      </c>
-      <c r="C67" s="22" t="s">
-        <v>499</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>43</v>
@@ -8338,7 +8335,7 @@
         <v>860</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H67" s="12" t="b">
         <v>0</v>
@@ -8366,13 +8363,13 @@
     </row>
     <row r="68" customHeight="1" spans="1:18">
       <c r="A68" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B68" s="21" t="s">
         <v>500</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="C68" s="22" t="s">
         <v>501</v>
-      </c>
-      <c r="C68" s="22" t="s">
-        <v>502</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>43</v>
@@ -8384,7 +8381,7 @@
         <v>1080</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H68" s="12" t="b">
         <v>0</v>
@@ -8415,10 +8412,10 @@
         <v>145</v>
       </c>
       <c r="B69" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="C69" s="22" t="s">
         <v>504</v>
-      </c>
-      <c r="C69" s="22" t="s">
-        <v>505</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>43</v>
@@ -8430,7 +8427,7 @@
         <v>1180</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H69" s="12" t="b">
         <v>0</v>
@@ -8458,13 +8455,13 @@
     </row>
     <row r="70" customHeight="1" spans="1:18">
       <c r="A70" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="B70" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B70" s="21" t="s">
+      <c r="C70" s="22" t="s">
         <v>508</v>
-      </c>
-      <c r="C70" s="22" t="s">
-        <v>509</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>43</v>
@@ -8476,7 +8473,7 @@
         <v>1080</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H70" s="12" t="b">
         <v>0</v>
@@ -8507,10 +8504,10 @@
         <v>348</v>
       </c>
       <c r="B71" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="C71" s="22" t="s">
         <v>511</v>
-      </c>
-      <c r="C71" s="22" t="s">
-        <v>512</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>43</v>
@@ -8522,7 +8519,7 @@
         <v>1100</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H71" s="12" t="b">
         <v>0</v>
@@ -8550,16 +8547,16 @@
     </row>
     <row r="72" customHeight="1" spans="1:18">
       <c r="A72" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B72" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="B72" s="21" t="s">
+      <c r="C72" s="22" t="s">
         <v>515</v>
       </c>
-      <c r="C72" s="22" t="s">
+      <c r="D72" s="8" t="s">
         <v>516</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>517</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>117</v>
@@ -8568,7 +8565,7 @@
         <v>1100</v>
       </c>
       <c r="G72" s="25" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H72" s="12" t="b">
         <v>0</v>
@@ -8596,13 +8593,13 @@
     </row>
     <row r="73" customHeight="1" spans="1:18">
       <c r="A73" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="B73" s="21" t="s">
         <v>518</v>
       </c>
-      <c r="B73" s="21" t="s">
+      <c r="C73" s="22" t="s">
         <v>519</v>
-      </c>
-      <c r="C73" s="22" t="s">
-        <v>520</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>43</v>
@@ -8614,7 +8611,7 @@
         <v>1100</v>
       </c>
       <c r="G73" s="25" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H73" s="12" t="b">
         <v>0</v>
@@ -8642,13 +8639,13 @@
     </row>
     <row r="74" customHeight="1" spans="1:18">
       <c r="A74" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="B74" s="21" t="s">
         <v>521</v>
       </c>
-      <c r="B74" s="21" t="s">
+      <c r="C74" s="22" t="s">
         <v>522</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>523</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>43</v>
@@ -8660,7 +8657,7 @@
         <v>1180</v>
       </c>
       <c r="G74" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H74" s="12" t="b">
         <v>0</v>
@@ -8688,13 +8685,13 @@
     </row>
     <row r="75" customHeight="1" spans="1:18">
       <c r="A75" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="B75" s="21" t="s">
         <v>524</v>
       </c>
-      <c r="B75" s="21" t="s">
+      <c r="C75" s="22" t="s">
         <v>525</v>
-      </c>
-      <c r="C75" s="22" t="s">
-        <v>526</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>43</v>
@@ -8706,7 +8703,7 @@
         <v>880</v>
       </c>
       <c r="G75" s="25" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H75" s="12" t="b">
         <v>0</v>
@@ -8734,13 +8731,13 @@
     </row>
     <row r="76" customHeight="1" spans="1:18">
       <c r="A76" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="B76" s="21" t="s">
         <v>528</v>
       </c>
-      <c r="B76" s="21" t="s">
+      <c r="C76" s="22" t="s">
         <v>529</v>
-      </c>
-      <c r="C76" s="22" t="s">
-        <v>530</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>43</v>
@@ -8752,7 +8749,7 @@
         <v>1280</v>
       </c>
       <c r="G76" s="25" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H76" s="12" t="b">
         <v>0</v>
@@ -8780,16 +8777,16 @@
     </row>
     <row r="77" customHeight="1" spans="1:18">
       <c r="A77" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="B77" s="21" t="s">
         <v>532</v>
       </c>
-      <c r="B77" s="21" t="s">
+      <c r="C77" s="21" t="s">
         <v>533</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="D77" s="8" t="s">
         <v>534</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>535</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>117</v>
@@ -8798,7 +8795,7 @@
         <v>880</v>
       </c>
       <c r="G77" s="21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H77" s="12" t="b">
         <v>0</v>
@@ -8826,13 +8823,13 @@
     </row>
     <row r="78" customHeight="1" spans="1:18">
       <c r="A78" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="B78" s="21" t="s">
         <v>537</v>
       </c>
-      <c r="B78" s="21" t="s">
+      <c r="C78" s="21" t="s">
         <v>538</v>
-      </c>
-      <c r="C78" s="21" t="s">
-        <v>539</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>46</v>
@@ -8844,7 +8841,7 @@
         <v>1100</v>
       </c>
       <c r="G78" s="21" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H78" s="12" t="b">
         <v>0</v>
@@ -8875,10 +8872,10 @@
         <v>360</v>
       </c>
       <c r="B79" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="C79" s="21" t="s">
         <v>541</v>
-      </c>
-      <c r="C79" s="21" t="s">
-        <v>542</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>46</v>
@@ -8890,7 +8887,7 @@
         <v>2650</v>
       </c>
       <c r="G79" s="26" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H79" s="12" t="b">
         <v>0</v>
@@ -8918,13 +8915,13 @@
     </row>
     <row r="80" customHeight="1" spans="1:18">
       <c r="A80" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="B80" s="21" t="s">
         <v>544</v>
       </c>
-      <c r="B80" s="21" t="s">
+      <c r="C80" s="21" t="s">
         <v>545</v>
-      </c>
-      <c r="C80" s="21" t="s">
-        <v>546</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>46</v>
@@ -8936,7 +8933,7 @@
         <v>880</v>
       </c>
       <c r="G80" s="21" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H80" s="12" t="b">
         <v>0</v>
@@ -8967,10 +8964,10 @@
         <v>336</v>
       </c>
       <c r="B81" s="21" t="s">
+        <v>547</v>
+      </c>
+      <c r="C81" s="21" t="s">
         <v>548</v>
-      </c>
-      <c r="C81" s="21" t="s">
-        <v>549</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>46</v>
@@ -8982,7 +8979,7 @@
         <v>1050</v>
       </c>
       <c r="G81" s="21" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H81" s="12" t="b">
         <v>0</v>
@@ -9010,13 +9007,13 @@
     </row>
     <row r="82" customHeight="1" spans="1:18">
       <c r="A82" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="B82" s="21" t="s">
         <v>551</v>
       </c>
-      <c r="B82" s="21" t="s">
+      <c r="C82" s="21" t="s">
         <v>552</v>
-      </c>
-      <c r="C82" s="21" t="s">
-        <v>553</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>46</v>
@@ -9028,7 +9025,7 @@
         <v>880</v>
       </c>
       <c r="G82" s="21" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H82" s="12" t="b">
         <v>0</v>
@@ -9056,13 +9053,13 @@
     </row>
     <row r="83" customHeight="1" spans="1:18">
       <c r="A83" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="B83" s="21" t="s">
         <v>555</v>
       </c>
-      <c r="B83" s="21" t="s">
+      <c r="C83" s="21" t="s">
         <v>556</v>
-      </c>
-      <c r="C83" s="21" t="s">
-        <v>557</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>46</v>
@@ -9074,7 +9071,7 @@
         <v>1700</v>
       </c>
       <c r="G83" s="21" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H83" s="12" t="b">
         <v>0</v>
@@ -9102,13 +9099,13 @@
     </row>
     <row r="84" customHeight="1" spans="1:18">
       <c r="A84" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="B84" s="21" t="s">
         <v>559</v>
       </c>
-      <c r="B84" s="21" t="s">
+      <c r="C84" s="21" t="s">
         <v>560</v>
-      </c>
-      <c r="C84" s="21" t="s">
-        <v>561</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>49</v>
@@ -9120,7 +9117,7 @@
         <v>880</v>
       </c>
       <c r="G84" s="21" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H84" s="12" t="b">
         <v>0</v>
@@ -9148,13 +9145,13 @@
     </row>
     <row r="85" customHeight="1" spans="1:18">
       <c r="A85" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="B85" s="21" t="s">
         <v>562</v>
       </c>
-      <c r="B85" s="21" t="s">
+      <c r="C85" s="21" t="s">
         <v>563</v>
-      </c>
-      <c r="C85" s="21" t="s">
-        <v>564</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>49</v>
@@ -9166,7 +9163,7 @@
         <v>1400</v>
       </c>
       <c r="G85" s="21" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H85" s="12" t="b">
         <v>0</v>
@@ -9194,13 +9191,13 @@
     </row>
     <row r="86" customHeight="1" spans="1:18">
       <c r="A86" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="B86" s="23" t="s">
         <v>566</v>
       </c>
-      <c r="B86" s="23" t="s">
+      <c r="C86" s="21" t="s">
         <v>567</v>
-      </c>
-      <c r="C86" s="21" t="s">
-        <v>568</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>49</v>
@@ -9212,7 +9209,7 @@
         <v>1800</v>
       </c>
       <c r="G86" s="21" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H86" s="12" t="b">
         <v>0</v>
@@ -9240,13 +9237,13 @@
     </row>
     <row r="87" customHeight="1" spans="1:18">
       <c r="A87" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="B87" s="23" t="s">
         <v>570</v>
       </c>
-      <c r="B87" s="23" t="s">
+      <c r="C87" s="21" t="s">
         <v>571</v>
-      </c>
-      <c r="C87" s="21" t="s">
-        <v>572</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>49</v>
@@ -9258,7 +9255,7 @@
         <v>1080</v>
       </c>
       <c r="G87" s="21" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H87" s="12" t="b">
         <v>0</v>
@@ -9286,13 +9283,13 @@
     </row>
     <row r="88" customHeight="1" spans="1:18">
       <c r="A88" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="B88" s="23" t="s">
         <v>574</v>
       </c>
-      <c r="B88" s="23" t="s">
+      <c r="C88" s="21" t="s">
         <v>575</v>
-      </c>
-      <c r="C88" s="21" t="s">
-        <v>576</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>49</v>
@@ -9304,7 +9301,7 @@
         <v>1550</v>
       </c>
       <c r="G88" s="21" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H88" s="12" t="b">
         <v>0</v>
@@ -9335,10 +9332,10 @@
         <v>256</v>
       </c>
       <c r="B89" s="23" t="s">
+        <v>577</v>
+      </c>
+      <c r="C89" s="21" t="s">
         <v>578</v>
-      </c>
-      <c r="C89" s="21" t="s">
-        <v>579</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>49</v>
@@ -9350,7 +9347,7 @@
         <v>2050</v>
       </c>
       <c r="G89" s="21" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H89" s="12" t="b">
         <v>0</v>
@@ -9378,13 +9375,13 @@
     </row>
     <row r="90" customHeight="1" spans="1:18">
       <c r="A90" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="B90" s="23" t="s">
         <v>581</v>
       </c>
-      <c r="B90" s="23" t="s">
+      <c r="C90" s="21" t="s">
         <v>582</v>
-      </c>
-      <c r="C90" s="21" t="s">
-        <v>583</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>49</v>
@@ -9396,7 +9393,7 @@
         <v>2850</v>
       </c>
       <c r="G90" s="21" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H90" s="12" t="b">
         <v>0</v>
@@ -9427,10 +9424,10 @@
         <v>385</v>
       </c>
       <c r="B91" s="23" t="s">
+        <v>584</v>
+      </c>
+      <c r="C91" s="24" t="s">
         <v>585</v>
-      </c>
-      <c r="C91" s="24" t="s">
-        <v>586</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>49</v>
@@ -9442,7 +9439,7 @@
         <v>900</v>
       </c>
       <c r="G91" s="21" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H91" s="12" t="b">
         <v>0</v>
@@ -9470,13 +9467,13 @@
     </row>
     <row r="92" customHeight="1" spans="1:18">
       <c r="A92" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="B92" s="23" t="s">
         <v>588</v>
       </c>
-      <c r="B92" s="23" t="s">
+      <c r="C92" s="21" t="s">
         <v>589</v>
-      </c>
-      <c r="C92" s="21" t="s">
-        <v>590</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>49</v>
@@ -9488,7 +9485,7 @@
         <v>1650</v>
       </c>
       <c r="G92" s="21" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H92" s="12" t="b">
         <v>0</v>
@@ -9516,13 +9513,13 @@
     </row>
     <row r="93" customHeight="1" spans="1:18">
       <c r="A93" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="B93" s="23" t="s">
         <v>592</v>
       </c>
-      <c r="B93" s="23" t="s">
+      <c r="C93" s="21" t="s">
         <v>593</v>
-      </c>
-      <c r="C93" s="21" t="s">
-        <v>594</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>49</v>
@@ -9534,7 +9531,7 @@
         <v>2350</v>
       </c>
       <c r="G93" s="21" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H93" s="12" t="b">
         <v>0</v>
@@ -9562,13 +9559,13 @@
     </row>
     <row r="94" customHeight="1" spans="1:18">
       <c r="A94" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="B94" s="23" t="s">
         <v>596</v>
       </c>
-      <c r="B94" s="23" t="s">
+      <c r="C94" s="21" t="s">
         <v>597</v>
-      </c>
-      <c r="C94" s="21" t="s">
-        <v>598</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>49</v>
@@ -9580,7 +9577,7 @@
         <v>2180</v>
       </c>
       <c r="G94" s="21" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H94" s="12" t="b">
         <v>0</v>
@@ -9608,13 +9605,13 @@
     </row>
     <row r="95" customHeight="1" spans="1:18">
       <c r="A95" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B95" s="23" t="s">
         <v>600</v>
       </c>
-      <c r="B95" s="23" t="s">
+      <c r="C95" s="21" t="s">
         <v>601</v>
-      </c>
-      <c r="C95" s="21" t="s">
-        <v>602</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>49</v>
@@ -9626,7 +9623,7 @@
         <v>4980</v>
       </c>
       <c r="G95" s="21" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H95" s="12" t="b">
         <v>0</v>
@@ -9654,13 +9651,13 @@
     </row>
     <row r="96" customHeight="1" spans="1:18">
       <c r="A96" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="B96" s="23" t="s">
         <v>604</v>
       </c>
-      <c r="B96" s="23" t="s">
+      <c r="C96" s="21" t="s">
         <v>605</v>
-      </c>
-      <c r="C96" s="21" t="s">
-        <v>606</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>49</v>
@@ -9669,10 +9666,10 @@
         <v>117</v>
       </c>
       <c r="F96" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="G96" s="21" t="s">
         <v>607</v>
-      </c>
-      <c r="G96" s="21" t="s">
-        <v>608</v>
       </c>
       <c r="H96" s="12" t="b">
         <v>0</v>
@@ -9700,13 +9697,13 @@
     </row>
     <row r="97" customHeight="1" spans="1:18">
       <c r="A97" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="B97" s="23" t="s">
         <v>609</v>
       </c>
-      <c r="B97" s="23" t="s">
+      <c r="C97" s="21" t="s">
         <v>610</v>
-      </c>
-      <c r="C97" s="21" t="s">
-        <v>611</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>49</v>
@@ -9718,7 +9715,7 @@
         <v>2080</v>
       </c>
       <c r="G97" s="21" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H97" s="12" t="b">
         <v>0</v>
@@ -9746,13 +9743,13 @@
     </row>
     <row r="98" customHeight="1" spans="1:18">
       <c r="A98" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B98" s="23" t="s">
         <v>613</v>
       </c>
-      <c r="B98" s="23" t="s">
+      <c r="C98" s="21" t="s">
         <v>614</v>
-      </c>
-      <c r="C98" s="21" t="s">
-        <v>615</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>49</v>
@@ -9764,7 +9761,7 @@
         <v>4880</v>
       </c>
       <c r="G98" s="21" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H98" s="12" t="b">
         <v>0</v>
@@ -9795,10 +9792,10 @@
         <v>318</v>
       </c>
       <c r="B99" s="23" t="s">
+        <v>616</v>
+      </c>
+      <c r="C99" s="21" t="s">
         <v>617</v>
-      </c>
-      <c r="C99" s="21" t="s">
-        <v>618</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>49</v>
@@ -9807,10 +9804,10 @@
         <v>117</v>
       </c>
       <c r="F99" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="G99" s="21" t="s">
         <v>607</v>
-      </c>
-      <c r="G99" s="21" t="s">
-        <v>608</v>
       </c>
       <c r="H99" s="12" t="b">
         <v>0</v>
@@ -9838,13 +9835,13 @@
     </row>
     <row r="100" customHeight="1" spans="1:18">
       <c r="A100" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="B100" s="23" t="s">
         <v>619</v>
       </c>
-      <c r="B100" s="23" t="s">
+      <c r="C100" s="21" t="s">
         <v>620</v>
-      </c>
-      <c r="C100" s="21" t="s">
-        <v>621</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>49</v>
@@ -9856,7 +9853,7 @@
         <v>2180</v>
       </c>
       <c r="G100" s="21" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H100" s="12" t="b">
         <v>0</v>
@@ -9884,13 +9881,13 @@
     </row>
     <row r="101" customHeight="1" spans="1:18">
       <c r="A101" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="B101" s="23" t="s">
         <v>623</v>
       </c>
-      <c r="B101" s="23" t="s">
+      <c r="C101" s="21" t="s">
         <v>624</v>
-      </c>
-      <c r="C101" s="21" t="s">
-        <v>625</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>49</v>
@@ -9899,10 +9896,10 @@
         <v>117</v>
       </c>
       <c r="F101" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="G101" s="21" t="s">
         <v>607</v>
-      </c>
-      <c r="G101" s="21" t="s">
-        <v>608</v>
       </c>
       <c r="H101" s="12" t="b">
         <v>0</v>
@@ -9930,13 +9927,13 @@
     </row>
     <row r="102" customHeight="1" spans="1:18">
       <c r="A102" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="B102" s="23" t="s">
         <v>626</v>
       </c>
-      <c r="B102" s="23" t="s">
+      <c r="C102" s="21" t="s">
         <v>627</v>
-      </c>
-      <c r="C102" s="21" t="s">
-        <v>628</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>49</v>
@@ -9945,10 +9942,10 @@
         <v>117</v>
       </c>
       <c r="F102" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="G102" s="21" t="s">
         <v>607</v>
-      </c>
-      <c r="G102" s="21" t="s">
-        <v>608</v>
       </c>
       <c r="H102" s="12" t="b">
         <v>0</v>
@@ -9976,13 +9973,13 @@
     </row>
     <row r="103" customHeight="1" spans="1:18">
       <c r="A103" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="B103" s="23" t="s">
         <v>629</v>
       </c>
-      <c r="B103" s="23" t="s">
+      <c r="C103" s="21" t="s">
         <v>630</v>
-      </c>
-      <c r="C103" s="21" t="s">
-        <v>631</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>49</v>
@@ -9994,7 +9991,7 @@
         <v>2080</v>
       </c>
       <c r="G103" s="21" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H103" s="12" t="b">
         <v>0</v>
@@ -10022,13 +10019,13 @@
     </row>
     <row r="104" customHeight="1" spans="1:18">
       <c r="A104" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="B104" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="B104" s="23" t="s">
+      <c r="C104" s="21" t="s">
         <v>633</v>
-      </c>
-      <c r="C104" s="21" t="s">
-        <v>634</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>49</v>
@@ -10037,10 +10034,10 @@
         <v>117</v>
       </c>
       <c r="F104" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="G104" s="21" t="s">
         <v>607</v>
-      </c>
-      <c r="G104" s="21" t="s">
-        <v>608</v>
       </c>
       <c r="H104" s="12" t="b">
         <v>0</v>
@@ -10068,16 +10065,16 @@
     </row>
     <row r="105" customHeight="1" spans="1:18">
       <c r="A105" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="B105" s="21" t="s">
         <v>635</v>
       </c>
-      <c r="B105" s="21" t="s">
+      <c r="C105" s="21" t="s">
         <v>636</v>
       </c>
-      <c r="C105" s="21" t="s">
+      <c r="D105" s="8" t="s">
         <v>637</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>638</v>
       </c>
       <c r="E105" s="8" t="s">
         <v>117</v>
@@ -10086,7 +10083,7 @@
         <v>1080</v>
       </c>
       <c r="G105" s="21" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H105" s="12" t="b">
         <v>0</v>
@@ -10114,13 +10111,13 @@
     </row>
     <row r="106" customHeight="1" spans="1:18">
       <c r="A106" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="B106" s="23" t="s">
         <v>640</v>
       </c>
-      <c r="B106" s="23" t="s">
+      <c r="C106" s="21" t="s">
         <v>641</v>
-      </c>
-      <c r="C106" s="21" t="s">
-        <v>642</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>52</v>
@@ -10132,7 +10129,7 @@
         <v>980</v>
       </c>
       <c r="G106" s="21" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H106" s="12" t="b">
         <v>0</v>
@@ -10160,13 +10157,13 @@
     </row>
     <row r="107" customHeight="1" spans="1:18">
       <c r="A107" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="B107" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="B107" s="23" t="s">
+      <c r="C107" s="21" t="s">
         <v>645</v>
-      </c>
-      <c r="C107" s="21" t="s">
-        <v>646</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>52</v>
@@ -10178,7 +10175,7 @@
         <v>1180</v>
       </c>
       <c r="G107" s="21" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H107" s="12" t="b">
         <v>0</v>
@@ -10206,13 +10203,13 @@
     </row>
     <row r="108" customHeight="1" spans="1:18">
       <c r="A108" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="B108" s="23" t="s">
         <v>648</v>
       </c>
-      <c r="B108" s="23" t="s">
+      <c r="C108" s="21" t="s">
         <v>649</v>
-      </c>
-      <c r="C108" s="21" t="s">
-        <v>650</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>52</v>
@@ -10224,7 +10221,7 @@
         <v>1280</v>
       </c>
       <c r="G108" s="21" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H108" s="12" t="b">
         <v>0</v>
@@ -10252,13 +10249,13 @@
     </row>
     <row r="109" customHeight="1" spans="1:18">
       <c r="A109" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="B109" s="23" t="s">
         <v>652</v>
       </c>
-      <c r="B109" s="23" t="s">
+      <c r="C109" s="21" t="s">
         <v>653</v>
-      </c>
-      <c r="C109" s="21" t="s">
-        <v>654</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>52</v>
@@ -10270,7 +10267,7 @@
         <v>2400</v>
       </c>
       <c r="G109" s="21" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H109" s="12" t="b">
         <v>0</v>
@@ -10298,13 +10295,13 @@
     </row>
     <row r="110" customHeight="1" spans="1:18">
       <c r="A110" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="B110" s="23" t="s">
         <v>656</v>
       </c>
-      <c r="B110" s="23" t="s">
+      <c r="C110" s="21" t="s">
         <v>657</v>
-      </c>
-      <c r="C110" s="21" t="s">
-        <v>658</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>52</v>
@@ -10316,7 +10313,7 @@
         <v>3880</v>
       </c>
       <c r="G110" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H110" s="12" t="b">
         <v>0</v>
@@ -10344,13 +10341,13 @@
     </row>
     <row r="111" customHeight="1" spans="1:18">
       <c r="A111" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="B111" s="23" t="s">
         <v>660</v>
       </c>
-      <c r="B111" s="23" t="s">
+      <c r="C111" s="21" t="s">
         <v>661</v>
-      </c>
-      <c r="C111" s="21" t="s">
-        <v>662</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>52</v>
@@ -10362,7 +10359,7 @@
         <v>980</v>
       </c>
       <c r="G111" s="21" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H111" s="12" t="b">
         <v>0</v>
@@ -10390,13 +10387,13 @@
     </row>
     <row r="112" customHeight="1" spans="1:18">
       <c r="A112" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="B112" s="23" t="s">
         <v>663</v>
       </c>
-      <c r="B112" s="23" t="s">
+      <c r="C112" s="21" t="s">
         <v>664</v>
-      </c>
-      <c r="C112" s="21" t="s">
-        <v>665</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>52</v>
@@ -10408,7 +10405,7 @@
         <v>1180</v>
       </c>
       <c r="G112" s="21" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H112" s="12" t="b">
         <v>0</v>
@@ -10436,13 +10433,13 @@
     </row>
     <row r="113" customHeight="1" spans="1:18">
       <c r="A113" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="B113" s="23" t="s">
         <v>666</v>
       </c>
-      <c r="B113" s="23" t="s">
+      <c r="C113" s="21" t="s">
         <v>667</v>
-      </c>
-      <c r="C113" s="21" t="s">
-        <v>668</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>52</v>
@@ -10454,7 +10451,7 @@
         <v>880</v>
       </c>
       <c r="G113" s="21" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H113" s="12" t="b">
         <v>0</v>
@@ -10482,13 +10479,13 @@
     </row>
     <row r="114" customHeight="1" spans="1:18">
       <c r="A114" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="B114" s="23" t="s">
         <v>670</v>
       </c>
-      <c r="B114" s="23" t="s">
+      <c r="C114" s="21" t="s">
         <v>671</v>
-      </c>
-      <c r="C114" s="21" t="s">
-        <v>672</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>52</v>
@@ -10500,7 +10497,7 @@
         <v>1480</v>
       </c>
       <c r="G114" s="21" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H114" s="12" t="b">
         <v>0</v>
@@ -10528,13 +10525,13 @@
     </row>
     <row r="115" customHeight="1" spans="1:18">
       <c r="A115" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="B115" s="23" t="s">
         <v>674</v>
       </c>
-      <c r="B115" s="23" t="s">
+      <c r="C115" s="21" t="s">
         <v>675</v>
-      </c>
-      <c r="C115" s="21" t="s">
-        <v>676</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>52</v>
@@ -10546,7 +10543,7 @@
         <v>3680</v>
       </c>
       <c r="G115" s="21" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H115" s="12" t="b">
         <v>0</v>
@@ -10574,13 +10571,13 @@
     </row>
     <row r="116" customHeight="1" spans="1:18">
       <c r="A116" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="B116" s="23" t="s">
         <v>678</v>
       </c>
-      <c r="B116" s="23" t="s">
+      <c r="C116" s="21" t="s">
         <v>679</v>
-      </c>
-      <c r="C116" s="21" t="s">
-        <v>680</v>
       </c>
       <c r="D116" s="8" t="s">
         <v>52</v>
@@ -10592,7 +10589,7 @@
         <v>1180</v>
       </c>
       <c r="G116" s="21" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H116" s="12" t="b">
         <v>0</v>
@@ -10620,13 +10617,13 @@
     </row>
     <row r="117" customHeight="1" spans="1:18">
       <c r="A117" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="B117" s="23" t="s">
         <v>681</v>
       </c>
-      <c r="B117" s="23" t="s">
+      <c r="C117" s="21" t="s">
         <v>682</v>
-      </c>
-      <c r="C117" s="21" t="s">
-        <v>683</v>
       </c>
       <c r="D117" s="8" t="s">
         <v>52</v>
@@ -10638,7 +10635,7 @@
         <v>2380</v>
       </c>
       <c r="G117" s="21" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H117" s="12" t="b">
         <v>0</v>
@@ -10666,13 +10663,13 @@
     </row>
     <row r="118" customHeight="1" spans="1:18">
       <c r="A118" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="B118" s="23" t="s">
         <v>685</v>
       </c>
-      <c r="B118" s="23" t="s">
+      <c r="C118" s="21" t="s">
         <v>686</v>
-      </c>
-      <c r="C118" s="21" t="s">
-        <v>687</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>55</v>
@@ -10684,7 +10681,7 @@
         <v>1380</v>
       </c>
       <c r="G118" s="21" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H118" s="12" t="b">
         <v>0</v>
@@ -10712,13 +10709,13 @@
     </row>
     <row r="119" customHeight="1" spans="1:18">
       <c r="A119" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="B119" s="23" t="s">
         <v>689</v>
       </c>
-      <c r="B119" s="23" t="s">
+      <c r="C119" s="21" t="s">
         <v>690</v>
-      </c>
-      <c r="C119" s="21" t="s">
-        <v>691</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>55</v>
@@ -10730,7 +10727,7 @@
         <v>1180</v>
       </c>
       <c r="G119" s="21" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H119" s="12" t="b">
         <v>0</v>
@@ -10758,13 +10755,13 @@
     </row>
     <row r="120" customHeight="1" spans="1:18">
       <c r="A120" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="B120" s="23" t="s">
         <v>692</v>
       </c>
-      <c r="B120" s="23" t="s">
+      <c r="C120" s="21" t="s">
         <v>693</v>
-      </c>
-      <c r="C120" s="21" t="s">
-        <v>694</v>
       </c>
       <c r="D120" s="8" t="s">
         <v>55</v>
@@ -10776,7 +10773,7 @@
         <v>1680</v>
       </c>
       <c r="G120" s="21" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H120" s="12" t="b">
         <v>0</v>
@@ -10804,13 +10801,13 @@
     </row>
     <row r="121" customHeight="1" spans="1:18">
       <c r="A121" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="B121" s="23" t="s">
         <v>696</v>
       </c>
-      <c r="B121" s="23" t="s">
+      <c r="C121" s="21" t="s">
         <v>697</v>
-      </c>
-      <c r="C121" s="21" t="s">
-        <v>698</v>
       </c>
       <c r="D121" s="8" t="s">
         <v>55</v>
@@ -10822,7 +10819,7 @@
         <v>2180</v>
       </c>
       <c r="G121" s="21" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H121" s="12" t="b">
         <v>0</v>
@@ -10850,13 +10847,13 @@
     </row>
     <row r="122" customHeight="1" spans="1:18">
       <c r="A122" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="B122" s="23" t="s">
         <v>699</v>
       </c>
-      <c r="B122" s="23" t="s">
+      <c r="C122" s="21" t="s">
         <v>700</v>
-      </c>
-      <c r="C122" s="21" t="s">
-        <v>701</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>55</v>
@@ -10868,7 +10865,7 @@
         <v>980</v>
       </c>
       <c r="G122" s="21" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H122" s="12" t="b">
         <v>0</v>
@@ -10896,13 +10893,13 @@
     </row>
     <row r="123" customHeight="1" spans="1:18">
       <c r="A123" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="B123" s="23" t="s">
         <v>702</v>
       </c>
-      <c r="B123" s="23" t="s">
+      <c r="C123" s="21" t="s">
         <v>703</v>
-      </c>
-      <c r="C123" s="21" t="s">
-        <v>704</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>55</v>
@@ -10914,7 +10911,7 @@
         <v>1280</v>
       </c>
       <c r="G123" s="21" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H123" s="12" t="b">
         <v>0</v>
@@ -10942,13 +10939,13 @@
     </row>
     <row r="124" customHeight="1" spans="1:18">
       <c r="A124" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="B124" s="21" t="s">
         <v>706</v>
       </c>
-      <c r="B124" s="21" t="s">
+      <c r="C124" s="21" t="s">
         <v>707</v>
-      </c>
-      <c r="C124" s="21" t="s">
-        <v>708</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>55</v>
@@ -10960,7 +10957,7 @@
         <v>1080</v>
       </c>
       <c r="G124" s="21" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H124" s="12" t="b">
         <v>0</v>
@@ -10988,13 +10985,13 @@
     </row>
     <row r="125" customHeight="1" spans="1:18">
       <c r="A125" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="B125" s="21" t="s">
         <v>709</v>
       </c>
-      <c r="B125" s="21" t="s">
+      <c r="C125" s="21" t="s">
         <v>710</v>
-      </c>
-      <c r="C125" s="21" t="s">
-        <v>711</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>55</v>
@@ -11006,7 +11003,7 @@
         <v>1880</v>
       </c>
       <c r="G125" s="21" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H125" s="12" t="b">
         <v>0</v>
@@ -11034,13 +11031,13 @@
     </row>
     <row r="126" customHeight="1" spans="1:18">
       <c r="A126" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="B126" s="21" t="s">
         <v>713</v>
       </c>
-      <c r="B126" s="21" t="s">
+      <c r="C126" s="21" t="s">
         <v>714</v>
-      </c>
-      <c r="C126" s="21" t="s">
-        <v>715</v>
       </c>
       <c r="D126" s="8" t="s">
         <v>55</v>
@@ -11052,7 +11049,7 @@
         <v>2680</v>
       </c>
       <c r="G126" s="21" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H126" s="12" t="b">
         <v>0</v>
@@ -11080,13 +11077,13 @@
     </row>
     <row r="127" customHeight="1" spans="1:18">
       <c r="A127" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="B127" s="23" t="s">
         <v>717</v>
       </c>
-      <c r="B127" s="23" t="s">
+      <c r="C127" s="21" t="s">
         <v>718</v>
-      </c>
-      <c r="C127" s="21" t="s">
-        <v>719</v>
       </c>
       <c r="D127" s="8" t="s">
         <v>55</v>
@@ -11098,7 +11095,7 @@
         <v>1380</v>
       </c>
       <c r="G127" s="21" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H127" s="12" t="b">
         <v>0</v>
@@ -11126,13 +11123,13 @@
     </row>
     <row r="128" customHeight="1" spans="1:18">
       <c r="A128" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="B128" s="23" t="s">
         <v>721</v>
       </c>
-      <c r="B128" s="23" t="s">
+      <c r="C128" s="21" t="s">
         <v>722</v>
-      </c>
-      <c r="C128" s="21" t="s">
-        <v>723</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>55</v>
@@ -11144,7 +11141,7 @@
         <v>1480</v>
       </c>
       <c r="G128" s="21" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H128" s="12" t="b">
         <v>0</v>
@@ -11172,13 +11169,13 @@
     </row>
     <row r="129" customHeight="1" spans="1:18">
       <c r="A129" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="B129" s="23" t="s">
         <v>725</v>
       </c>
-      <c r="B129" s="23" t="s">
+      <c r="C129" s="21" t="s">
         <v>726</v>
-      </c>
-      <c r="C129" s="21" t="s">
-        <v>727</v>
       </c>
       <c r="D129" s="27" t="s">
         <v>58</v>
@@ -11190,7 +11187,7 @@
         <v>1580</v>
       </c>
       <c r="G129" s="21" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H129" s="12" t="b">
         <v>0</v>
@@ -11218,13 +11215,13 @@
     </row>
     <row r="130" customHeight="1" spans="1:18">
       <c r="A130" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="B130" s="23" t="s">
         <v>729</v>
       </c>
-      <c r="B130" s="23" t="s">
+      <c r="C130" s="21" t="s">
         <v>730</v>
-      </c>
-      <c r="C130" s="21" t="s">
-        <v>731</v>
       </c>
       <c r="D130" s="27" t="s">
         <v>58</v>
@@ -11236,7 +11233,7 @@
         <v>880</v>
       </c>
       <c r="G130" s="21" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H130" s="12" t="b">
         <v>0</v>
@@ -11264,13 +11261,13 @@
     </row>
     <row r="131" customHeight="1" spans="1:18">
       <c r="A131" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="B131" s="23" t="s">
         <v>732</v>
       </c>
-      <c r="B131" s="23" t="s">
+      <c r="C131" s="21" t="s">
         <v>733</v>
-      </c>
-      <c r="C131" s="21" t="s">
-        <v>734</v>
       </c>
       <c r="D131" s="27" t="s">
         <v>58</v>
@@ -11282,7 +11279,7 @@
         <v>1380</v>
       </c>
       <c r="G131" s="21" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H131" s="12" t="b">
         <v>0</v>
@@ -11310,13 +11307,13 @@
     </row>
     <row r="132" customHeight="1" spans="1:18">
       <c r="A132" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="B132" s="23" t="s">
         <v>736</v>
       </c>
-      <c r="B132" s="23" t="s">
+      <c r="C132" s="21" t="s">
         <v>737</v>
-      </c>
-      <c r="C132" s="21" t="s">
-        <v>738</v>
       </c>
       <c r="D132" s="27" t="s">
         <v>58</v>
@@ -11328,7 +11325,7 @@
         <v>1580</v>
       </c>
       <c r="G132" s="21" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H132" s="12" t="b">
         <v>0</v>
@@ -11356,13 +11353,13 @@
     </row>
     <row r="133" customHeight="1" spans="1:18">
       <c r="A133" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="B133" s="23" t="s">
         <v>740</v>
       </c>
-      <c r="B133" s="23" t="s">
+      <c r="C133" s="21" t="s">
         <v>741</v>
-      </c>
-      <c r="C133" s="21" t="s">
-        <v>742</v>
       </c>
       <c r="D133" s="27" t="s">
         <v>58</v>
@@ -11374,7 +11371,7 @@
         <v>880</v>
       </c>
       <c r="G133" s="21" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H133" s="12" t="b">
         <v>0</v>
@@ -11402,13 +11399,13 @@
     </row>
     <row r="134" customHeight="1" spans="1:18">
       <c r="A134" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="B134" s="23" t="s">
         <v>743</v>
       </c>
-      <c r="B134" s="23" t="s">
+      <c r="C134" s="21" t="s">
         <v>744</v>
-      </c>
-      <c r="C134" s="21" t="s">
-        <v>745</v>
       </c>
       <c r="D134" s="27" t="s">
         <v>58</v>
@@ -11420,7 +11417,7 @@
         <v>2380</v>
       </c>
       <c r="G134" s="21" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H134" s="12" t="b">
         <v>0</v>
@@ -11448,13 +11445,13 @@
     </row>
     <row r="135" customHeight="1" spans="1:18">
       <c r="A135" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="B135" s="21" t="s">
         <v>746</v>
       </c>
-      <c r="B135" s="21" t="s">
+      <c r="C135" s="21" t="s">
         <v>747</v>
-      </c>
-      <c r="C135" s="21" t="s">
-        <v>748</v>
       </c>
       <c r="D135" s="27" t="s">
         <v>61</v>
@@ -11466,7 +11463,7 @@
         <v>880</v>
       </c>
       <c r="G135" s="21" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H135" s="12" t="b">
         <v>0</v>
@@ -11494,13 +11491,13 @@
     </row>
     <row r="136" customHeight="1" spans="1:18">
       <c r="A136" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="B136" s="21" t="s">
         <v>749</v>
       </c>
-      <c r="B136" s="21" t="s">
+      <c r="C136" s="21" t="s">
         <v>750</v>
-      </c>
-      <c r="C136" s="21" t="s">
-        <v>751</v>
       </c>
       <c r="D136" s="27" t="s">
         <v>61</v>
@@ -11512,7 +11509,7 @@
         <v>780</v>
       </c>
       <c r="G136" s="21" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H136" s="12" t="b">
         <v>0</v>
@@ -11540,13 +11537,13 @@
     </row>
     <row r="137" customHeight="1" spans="1:18">
       <c r="A137" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="B137" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="B137" s="21" t="s">
+      <c r="C137" s="21" t="s">
         <v>754</v>
-      </c>
-      <c r="C137" s="21" t="s">
-        <v>755</v>
       </c>
       <c r="D137" s="27" t="s">
         <v>61</v>
@@ -11558,7 +11555,7 @@
         <v>780</v>
       </c>
       <c r="G137" s="21" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H137" s="12" t="b">
         <v>0</v>
@@ -11586,13 +11583,13 @@
     </row>
     <row r="138" customHeight="1" spans="1:18">
       <c r="A138" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="B138" s="21" t="s">
         <v>756</v>
       </c>
-      <c r="B138" s="21" t="s">
+      <c r="C138" s="21" t="s">
         <v>757</v>
-      </c>
-      <c r="C138" s="21" t="s">
-        <v>758</v>
       </c>
       <c r="D138" s="27" t="s">
         <v>61</v>
@@ -11604,7 +11601,7 @@
         <v>880</v>
       </c>
       <c r="G138" s="21" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H138" s="12" t="b">
         <v>0</v>
@@ -11632,13 +11629,13 @@
     </row>
     <row r="139" customHeight="1" spans="1:18">
       <c r="A139" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="B139" s="21" t="s">
         <v>759</v>
       </c>
-      <c r="B139" s="21" t="s">
+      <c r="C139" s="21" t="s">
         <v>760</v>
-      </c>
-      <c r="C139" s="21" t="s">
-        <v>761</v>
       </c>
       <c r="D139" s="27" t="s">
         <v>61</v>
@@ -11650,7 +11647,7 @@
         <v>1280</v>
       </c>
       <c r="G139" s="21" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H139" s="12" t="b">
         <v>0</v>
@@ -11678,13 +11675,13 @@
     </row>
     <row r="140" customHeight="1" spans="1:18">
       <c r="A140" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="B140" s="21" t="s">
         <v>762</v>
       </c>
-      <c r="B140" s="21" t="s">
+      <c r="C140" s="21" t="s">
         <v>763</v>
-      </c>
-      <c r="C140" s="21" t="s">
-        <v>764</v>
       </c>
       <c r="D140" s="27" t="s">
         <v>61</v>
@@ -11696,7 +11693,7 @@
         <v>1780</v>
       </c>
       <c r="G140" s="21" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H140" s="12" t="b">
         <v>0</v>
@@ -11724,13 +11721,13 @@
     </row>
     <row r="141" customHeight="1" spans="1:18">
       <c r="A141" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B141" s="21" t="s">
         <v>766</v>
       </c>
-      <c r="B141" s="21" t="s">
+      <c r="C141" s="21" t="s">
         <v>767</v>
-      </c>
-      <c r="C141" s="21" t="s">
-        <v>768</v>
       </c>
       <c r="D141" s="27" t="s">
         <v>61</v>
@@ -11742,7 +11739,7 @@
         <v>1180</v>
       </c>
       <c r="G141" s="21" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H141" s="12" t="b">
         <v>0</v>
@@ -11770,13 +11767,13 @@
     </row>
     <row r="142" customHeight="1" spans="1:18">
       <c r="A142" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="B142" s="21" t="s">
         <v>769</v>
       </c>
-      <c r="B142" s="21" t="s">
+      <c r="C142" s="21" t="s">
         <v>770</v>
-      </c>
-      <c r="C142" s="21" t="s">
-        <v>771</v>
       </c>
       <c r="D142" s="27" t="s">
         <v>61</v>
@@ -11788,7 +11785,7 @@
         <v>1280</v>
       </c>
       <c r="G142" s="21" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H142" s="12" t="b">
         <v>0</v>
@@ -11816,13 +11813,13 @@
     </row>
     <row r="143" customHeight="1" spans="1:18">
       <c r="A143" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="B143" s="21" t="s">
         <v>772</v>
       </c>
-      <c r="B143" s="21" t="s">
+      <c r="C143" s="21" t="s">
         <v>773</v>
-      </c>
-      <c r="C143" s="21" t="s">
-        <v>774</v>
       </c>
       <c r="D143" s="27" t="s">
         <v>61</v>
@@ -11834,7 +11831,7 @@
         <v>1780</v>
       </c>
       <c r="G143" s="21" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H143" s="12" t="b">
         <v>0</v>
@@ -11862,13 +11859,13 @@
     </row>
     <row r="144" customHeight="1" spans="1:18">
       <c r="A144" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="B144" s="21" t="s">
         <v>776</v>
       </c>
-      <c r="B144" s="21" t="s">
+      <c r="C144" s="21" t="s">
         <v>777</v>
-      </c>
-      <c r="C144" s="21" t="s">
-        <v>778</v>
       </c>
       <c r="D144" s="27" t="s">
         <v>61</v>
@@ -11880,7 +11877,7 @@
         <v>2480</v>
       </c>
       <c r="G144" s="21" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H144" s="12" t="b">
         <v>0</v>
@@ -11908,13 +11905,13 @@
     </row>
     <row r="145" customHeight="1" spans="1:18">
       <c r="A145" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="B145" s="23" t="s">
         <v>780</v>
       </c>
-      <c r="B145" s="23" t="s">
+      <c r="C145" s="21" t="s">
         <v>781</v>
-      </c>
-      <c r="C145" s="21" t="s">
-        <v>782</v>
       </c>
       <c r="D145" s="27" t="s">
         <v>61</v>
@@ -11926,7 +11923,7 @@
         <v>1180</v>
       </c>
       <c r="G145" s="21" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H145" s="12" t="b">
         <v>0</v>
@@ -11954,13 +11951,13 @@
     </row>
     <row r="146" customHeight="1" spans="1:18">
       <c r="A146" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="B146" s="23" t="s">
         <v>783</v>
       </c>
-      <c r="B146" s="23" t="s">
+      <c r="C146" s="21" t="s">
         <v>784</v>
-      </c>
-      <c r="C146" s="21" t="s">
-        <v>785</v>
       </c>
       <c r="D146" s="27" t="s">
         <v>61</v>
@@ -11972,7 +11969,7 @@
         <v>980</v>
       </c>
       <c r="G146" s="21" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H146" s="12" t="b">
         <v>0</v>
@@ -12000,13 +11997,13 @@
     </row>
     <row r="147" customHeight="1" spans="1:18">
       <c r="A147" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="B147" s="23" t="s">
         <v>786</v>
       </c>
-      <c r="B147" s="23" t="s">
+      <c r="C147" s="21" t="s">
         <v>787</v>
-      </c>
-      <c r="C147" s="21" t="s">
-        <v>788</v>
       </c>
       <c r="D147" s="27" t="s">
         <v>61</v>
@@ -12018,7 +12015,7 @@
         <v>1650</v>
       </c>
       <c r="G147" s="21" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H147" s="12" t="b">
         <v>0</v>
@@ -12046,13 +12043,13 @@
     </row>
     <row r="148" customHeight="1" spans="1:18">
       <c r="A148" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="B148" s="23" t="s">
         <v>790</v>
       </c>
-      <c r="B148" s="23" t="s">
+      <c r="C148" s="21" t="s">
         <v>791</v>
-      </c>
-      <c r="C148" s="21" t="s">
-        <v>792</v>
       </c>
       <c r="D148" s="27" t="s">
         <v>61</v>
@@ -12064,7 +12061,7 @@
         <v>1100</v>
       </c>
       <c r="G148" s="21" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H148" s="12" t="b">
         <v>0</v>
@@ -12092,13 +12089,13 @@
     </row>
     <row r="149" customHeight="1" spans="1:18">
       <c r="A149" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="B149" s="23" t="s">
         <v>794</v>
       </c>
-      <c r="B149" s="23" t="s">
+      <c r="C149" s="21" t="s">
         <v>795</v>
-      </c>
-      <c r="C149" s="21" t="s">
-        <v>796</v>
       </c>
       <c r="D149" s="27" t="s">
         <v>61</v>
@@ -12110,7 +12107,7 @@
         <v>980</v>
       </c>
       <c r="G149" s="21" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H149" s="12" t="b">
         <v>0</v>
@@ -12138,13 +12135,13 @@
     </row>
     <row r="150" customHeight="1" spans="1:18">
       <c r="A150" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="B150" s="23" t="s">
         <v>797</v>
       </c>
-      <c r="B150" s="23" t="s">
+      <c r="C150" s="21" t="s">
         <v>798</v>
-      </c>
-      <c r="C150" s="21" t="s">
-        <v>799</v>
       </c>
       <c r="D150" s="27" t="s">
         <v>61</v>
@@ -12156,7 +12153,7 @@
         <v>1080</v>
       </c>
       <c r="G150" s="21" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H150" s="12" t="b">
         <v>0</v>
@@ -12184,13 +12181,13 @@
     </row>
     <row r="151" customHeight="1" spans="1:18">
       <c r="A151" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="B151" s="23" t="s">
         <v>800</v>
       </c>
-      <c r="B151" s="23" t="s">
+      <c r="C151" s="21" t="s">
         <v>801</v>
-      </c>
-      <c r="C151" s="21" t="s">
-        <v>802</v>
       </c>
       <c r="D151" s="27" t="s">
         <v>61</v>
@@ -12202,7 +12199,7 @@
         <v>1680</v>
       </c>
       <c r="G151" s="21" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H151" s="12" t="b">
         <v>0</v>
@@ -12230,13 +12227,13 @@
     </row>
     <row r="152" customHeight="1" spans="1:18">
       <c r="A152" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="B152" s="23" t="s">
         <v>804</v>
       </c>
-      <c r="B152" s="23" t="s">
+      <c r="C152" s="21" t="s">
         <v>805</v>
-      </c>
-      <c r="C152" s="21" t="s">
-        <v>806</v>
       </c>
       <c r="D152" s="27" t="s">
         <v>61</v>
@@ -12248,7 +12245,7 @@
         <v>980</v>
       </c>
       <c r="G152" s="21" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H152" s="12" t="b">
         <v>0</v>
@@ -12276,13 +12273,13 @@
     </row>
     <row r="153" customHeight="1" spans="1:18">
       <c r="A153" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="B153" s="23" t="s">
         <v>807</v>
       </c>
-      <c r="B153" s="23" t="s">
+      <c r="C153" s="21" t="s">
         <v>808</v>
-      </c>
-      <c r="C153" s="21" t="s">
-        <v>809</v>
       </c>
       <c r="D153" s="27" t="s">
         <v>61</v>
@@ -12294,7 +12291,7 @@
         <v>1080</v>
       </c>
       <c r="G153" s="21" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H153" s="12" t="b">
         <v>0</v>
@@ -12322,13 +12319,13 @@
     </row>
     <row r="154" customHeight="1" spans="1:18">
       <c r="A154" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="B154" s="23" t="s">
         <v>811</v>
       </c>
-      <c r="B154" s="23" t="s">
+      <c r="C154" s="21" t="s">
         <v>812</v>
-      </c>
-      <c r="C154" s="21" t="s">
-        <v>813</v>
       </c>
       <c r="D154" s="27" t="s">
         <v>61</v>
@@ -12340,7 +12337,7 @@
         <v>1480</v>
       </c>
       <c r="G154" s="21" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H154" s="12" t="b">
         <v>0</v>
@@ -12368,13 +12365,13 @@
     </row>
     <row r="155" customHeight="1" spans="1:18">
       <c r="A155" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="B155" s="23" t="s">
         <v>815</v>
       </c>
-      <c r="B155" s="23" t="s">
+      <c r="C155" s="21" t="s">
         <v>816</v>
-      </c>
-      <c r="C155" s="21" t="s">
-        <v>817</v>
       </c>
       <c r="D155" s="27" t="s">
         <v>61</v>
@@ -12386,7 +12383,7 @@
         <v>3480</v>
       </c>
       <c r="G155" s="21" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H155" s="12" t="b">
         <v>0</v>
@@ -12414,13 +12411,13 @@
     </row>
     <row r="156" customHeight="1" spans="1:18">
       <c r="A156" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="B156" s="23" t="s">
         <v>819</v>
       </c>
-      <c r="B156" s="23" t="s">
+      <c r="C156" s="21" t="s">
         <v>820</v>
-      </c>
-      <c r="C156" s="21" t="s">
-        <v>821</v>
       </c>
       <c r="D156" s="27" t="s">
         <v>61</v>
@@ -12432,7 +12429,7 @@
         <v>1280</v>
       </c>
       <c r="G156" s="21" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H156" s="12" t="b">
         <v>0</v>
@@ -12460,13 +12457,13 @@
     </row>
     <row r="157" customHeight="1" spans="1:18">
       <c r="A157" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="B157" s="23" t="s">
         <v>822</v>
       </c>
-      <c r="B157" s="23" t="s">
+      <c r="C157" s="21" t="s">
         <v>823</v>
-      </c>
-      <c r="C157" s="21" t="s">
-        <v>824</v>
       </c>
       <c r="D157" s="27" t="s">
         <v>61</v>
@@ -12478,7 +12475,7 @@
         <v>1680</v>
       </c>
       <c r="G157" s="21" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H157" s="12" t="b">
         <v>0</v>
@@ -12506,13 +12503,13 @@
     </row>
     <row r="158" customHeight="1" spans="1:18">
       <c r="A158" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="B158" s="23" t="s">
         <v>825</v>
       </c>
-      <c r="B158" s="23" t="s">
+      <c r="C158" s="21" t="s">
         <v>826</v>
-      </c>
-      <c r="C158" s="21" t="s">
-        <v>827</v>
       </c>
       <c r="D158" s="27" t="s">
         <v>61</v>
@@ -12524,7 +12521,7 @@
         <v>2680</v>
       </c>
       <c r="G158" s="21" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H158" s="12" t="b">
         <v>0</v>
@@ -12555,10 +12552,10 @@
         <v>137</v>
       </c>
       <c r="B159" s="23" t="s">
+        <v>827</v>
+      </c>
+      <c r="C159" s="21" t="s">
         <v>828</v>
-      </c>
-      <c r="C159" s="21" t="s">
-        <v>829</v>
       </c>
       <c r="D159" s="27" t="s">
         <v>61</v>
@@ -12570,7 +12567,7 @@
         <v>3680</v>
       </c>
       <c r="G159" s="21" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H159" s="12" t="b">
         <v>0</v>
@@ -12598,13 +12595,13 @@
     </row>
     <row r="160" customHeight="1" spans="1:18">
       <c r="A160" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="B160" s="23" t="s">
         <v>831</v>
       </c>
-      <c r="B160" s="23" t="s">
+      <c r="C160" s="21" t="s">
         <v>832</v>
-      </c>
-      <c r="C160" s="21" t="s">
-        <v>833</v>
       </c>
       <c r="D160" s="27" t="s">
         <v>61</v>
@@ -12616,7 +12613,7 @@
         <v>1080</v>
       </c>
       <c r="G160" s="21" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H160" s="12" t="b">
         <v>0</v>
@@ -12644,13 +12641,13 @@
     </row>
     <row r="161" customHeight="1" spans="1:18">
       <c r="A161" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="B161" s="28" t="s">
         <v>834</v>
       </c>
-      <c r="B161" s="28" t="s">
+      <c r="C161" s="28" t="s">
         <v>835</v>
-      </c>
-      <c r="C161" s="28" t="s">
-        <v>836</v>
       </c>
       <c r="D161" s="8" t="s">
         <v>64</v>
@@ -12659,10 +12656,10 @@
         <v>117</v>
       </c>
       <c r="F161" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="G161" s="11" t="s">
         <v>837</v>
-      </c>
-      <c r="G161" s="11" t="s">
-        <v>838</v>
       </c>
       <c r="H161" s="12" t="b">
         <v>0</v>
@@ -12690,13 +12687,13 @@
     </row>
     <row r="162" customHeight="1" spans="1:18">
       <c r="A162" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="B162" s="29" t="s">
         <v>839</v>
       </c>
-      <c r="B162" s="29" t="s">
+      <c r="C162" s="27" t="s">
         <v>840</v>
-      </c>
-      <c r="C162" s="27" t="s">
-        <v>841</v>
       </c>
       <c r="D162" s="8" t="s">
         <v>64</v>
@@ -12705,10 +12702,10 @@
         <v>117</v>
       </c>
       <c r="F162" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="G162" s="11" t="s">
         <v>837</v>
-      </c>
-      <c r="G162" s="11" t="s">
-        <v>838</v>
       </c>
       <c r="H162" s="12" t="b">
         <v>0</v>
@@ -12736,13 +12733,13 @@
     </row>
     <row r="163" customHeight="1" spans="1:18">
       <c r="A163" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="B163" s="27" t="s">
         <v>842</v>
       </c>
-      <c r="B163" s="27" t="s">
+      <c r="C163" s="30" t="s">
         <v>843</v>
-      </c>
-      <c r="C163" s="30" t="s">
-        <v>844</v>
       </c>
       <c r="D163" s="8" t="s">
         <v>64</v>
@@ -12751,10 +12748,10 @@
         <v>117</v>
       </c>
       <c r="F163" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="G163" s="11" t="s">
         <v>837</v>
-      </c>
-      <c r="G163" s="11" t="s">
-        <v>838</v>
       </c>
       <c r="H163" s="12" t="b">
         <v>0</v>
@@ -12782,13 +12779,13 @@
     </row>
     <row r="164" customHeight="1" spans="1:18">
       <c r="A164" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="B164" s="27" t="s">
         <v>845</v>
       </c>
-      <c r="B164" s="27" t="s">
+      <c r="C164" s="27" t="s">
         <v>846</v>
-      </c>
-      <c r="C164" s="27" t="s">
-        <v>847</v>
       </c>
       <c r="D164" s="8" t="s">
         <v>64</v>
@@ -12797,10 +12794,10 @@
         <v>117</v>
       </c>
       <c r="F164" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="G164" s="11" t="s">
         <v>837</v>
-      </c>
-      <c r="G164" s="11" t="s">
-        <v>838</v>
       </c>
       <c r="H164" s="12" t="b">
         <v>0</v>
@@ -12828,13 +12825,13 @@
     </row>
     <row r="165" customHeight="1" spans="1:18">
       <c r="A165" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="B165" s="29" t="s">
         <v>848</v>
       </c>
-      <c r="B165" s="29" t="s">
+      <c r="C165" s="30" t="s">
         <v>849</v>
-      </c>
-      <c r="C165" s="30" t="s">
-        <v>850</v>
       </c>
       <c r="D165" s="8" t="s">
         <v>64</v>
@@ -12843,10 +12840,10 @@
         <v>117</v>
       </c>
       <c r="F165" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="G165" s="11" t="s">
         <v>837</v>
-      </c>
-      <c r="G165" s="11" t="s">
-        <v>838</v>
       </c>
       <c r="H165" s="12" t="b">
         <v>0</v>
@@ -12874,13 +12871,13 @@
     </row>
     <row r="166" customHeight="1" spans="1:18">
       <c r="A166" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="B166" s="23" t="s">
         <v>851</v>
       </c>
-      <c r="B166" s="23" t="s">
+      <c r="C166" s="21" t="s">
         <v>852</v>
-      </c>
-      <c r="C166" s="21" t="s">
-        <v>853</v>
       </c>
       <c r="D166" s="27" t="s">
         <v>67</v>
@@ -12892,7 +12889,7 @@
         <v>880</v>
       </c>
       <c r="G166" s="21" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H166" s="12" t="b">
         <v>0</v>
@@ -12920,13 +12917,13 @@
     </row>
     <row r="167" customHeight="1" spans="1:18">
       <c r="A167" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="B167" s="21" t="s">
         <v>855</v>
       </c>
-      <c r="B167" s="21" t="s">
+      <c r="C167" s="21" t="s">
         <v>856</v>
-      </c>
-      <c r="C167" s="21" t="s">
-        <v>857</v>
       </c>
       <c r="D167" s="27" t="s">
         <v>67</v>
@@ -12938,7 +12935,7 @@
         <v>1280</v>
       </c>
       <c r="G167" s="21" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H167" s="12" t="b">
         <v>0</v>
@@ -12966,13 +12963,13 @@
     </row>
     <row r="168" customHeight="1" spans="1:18">
       <c r="A168" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="B168" s="23" t="s">
         <v>859</v>
       </c>
-      <c r="B168" s="23" t="s">
+      <c r="C168" s="21" t="s">
         <v>860</v>
-      </c>
-      <c r="C168" s="21" t="s">
-        <v>861</v>
       </c>
       <c r="D168" s="27" t="s">
         <v>67</v>
@@ -12984,7 +12981,7 @@
         <v>2580</v>
       </c>
       <c r="G168" s="21" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H168" s="12" t="b">
         <v>0</v>
@@ -13015,10 +13012,10 @@
         <v>129</v>
       </c>
       <c r="B169" s="21" t="s">
+        <v>862</v>
+      </c>
+      <c r="C169" s="21" t="s">
         <v>863</v>
-      </c>
-      <c r="C169" s="21" t="s">
-        <v>864</v>
       </c>
       <c r="D169" s="27" t="s">
         <v>67</v>
@@ -13030,7 +13027,7 @@
         <v>3680</v>
       </c>
       <c r="G169" s="21" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H169" s="12" t="b">
         <v>0</v>
@@ -13058,13 +13055,13 @@
     </row>
     <row r="170" customHeight="1" spans="1:18">
       <c r="A170" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="B170" s="21" t="s">
         <v>866</v>
       </c>
-      <c r="B170" s="21" t="s">
+      <c r="C170" s="21" t="s">
         <v>867</v>
-      </c>
-      <c r="C170" s="21" t="s">
-        <v>868</v>
       </c>
       <c r="D170" s="27" t="s">
         <v>67</v>
@@ -13076,7 +13073,7 @@
         <v>3880</v>
       </c>
       <c r="G170" s="21" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H170" s="12" t="b">
         <v>0</v>
@@ -13104,13 +13101,13 @@
     </row>
     <row r="171" customHeight="1" spans="1:18">
       <c r="A171" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="B171" s="29" t="s">
         <v>870</v>
       </c>
-      <c r="B171" s="29" t="s">
+      <c r="C171" s="30" t="s">
         <v>871</v>
-      </c>
-      <c r="C171" s="30" t="s">
-        <v>872</v>
       </c>
       <c r="D171" s="8" t="s">
         <v>70</v>
@@ -13119,10 +13116,10 @@
         <v>117</v>
       </c>
       <c r="F171" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="G171" s="11" t="s">
         <v>837</v>
-      </c>
-      <c r="G171" s="11" t="s">
-        <v>838</v>
       </c>
       <c r="H171" s="12" t="b">
         <v>0</v>
@@ -13150,13 +13147,13 @@
     </row>
     <row r="172" customHeight="1" spans="1:18">
       <c r="A172" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="B172" s="27" t="s">
         <v>873</v>
       </c>
-      <c r="B172" s="27" t="s">
+      <c r="C172" s="30" t="s">
         <v>874</v>
-      </c>
-      <c r="C172" s="30" t="s">
-        <v>875</v>
       </c>
       <c r="D172" s="8" t="s">
         <v>70</v>
@@ -13165,10 +13162,10 @@
         <v>117</v>
       </c>
       <c r="F172" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="G172" s="11" t="s">
         <v>837</v>
-      </c>
-      <c r="G172" s="11" t="s">
-        <v>838</v>
       </c>
       <c r="H172" s="12" t="b">
         <v>0</v>
@@ -13196,13 +13193,13 @@
     </row>
     <row r="173" customHeight="1" spans="1:18">
       <c r="A173" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="B173" s="31" t="s">
         <v>876</v>
       </c>
-      <c r="B173" s="31" t="s">
+      <c r="C173" s="30" t="s">
         <v>877</v>
-      </c>
-      <c r="C173" s="30" t="s">
-        <v>878</v>
       </c>
       <c r="D173" s="8" t="s">
         <v>70</v>
@@ -13211,10 +13208,10 @@
         <v>117</v>
       </c>
       <c r="F173" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="G173" s="11" t="s">
         <v>837</v>
-      </c>
-      <c r="G173" s="11" t="s">
-        <v>838</v>
       </c>
       <c r="H173" s="12" t="b">
         <v>0</v>
@@ -13242,13 +13239,13 @@
     </row>
     <row r="174" customHeight="1" spans="1:18">
       <c r="A174" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="B174" s="31" t="s">
         <v>879</v>
       </c>
-      <c r="B174" s="31" t="s">
+      <c r="C174" s="30" t="s">
         <v>880</v>
-      </c>
-      <c r="C174" s="30" t="s">
-        <v>881</v>
       </c>
       <c r="D174" s="8" t="s">
         <v>73</v>
@@ -13257,10 +13254,10 @@
         <v>117</v>
       </c>
       <c r="F174" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="G174" s="11" t="s">
         <v>837</v>
-      </c>
-      <c r="G174" s="11" t="s">
-        <v>838</v>
       </c>
       <c r="H174" s="12" t="b">
         <v>0</v>
@@ -13288,13 +13285,13 @@
     </row>
     <row r="175" customHeight="1" spans="1:18">
       <c r="A175" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="B175" s="27" t="s">
         <v>882</v>
       </c>
-      <c r="B175" s="27" t="s">
+      <c r="C175" s="30" t="s">
         <v>883</v>
-      </c>
-      <c r="C175" s="30" t="s">
-        <v>884</v>
       </c>
       <c r="D175" s="8" t="s">
         <v>73</v>
@@ -13303,10 +13300,10 @@
         <v>117</v>
       </c>
       <c r="F175" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="G175" s="11" t="s">
         <v>837</v>
-      </c>
-      <c r="G175" s="11" t="s">
-        <v>838</v>
       </c>
       <c r="H175" s="12" t="b">
         <v>0</v>
@@ -13334,13 +13331,13 @@
     </row>
     <row r="176" customHeight="1" spans="1:18">
       <c r="A176" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="B176" s="27" t="s">
         <v>885</v>
       </c>
-      <c r="B176" s="27" t="s">
+      <c r="C176" s="30" t="s">
         <v>886</v>
-      </c>
-      <c r="C176" s="30" t="s">
-        <v>887</v>
       </c>
       <c r="D176" s="8" t="s">
         <v>73</v>
@@ -13349,10 +13346,10 @@
         <v>117</v>
       </c>
       <c r="F176" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="G176" s="11" t="s">
         <v>837</v>
-      </c>
-      <c r="G176" s="11" t="s">
-        <v>838</v>
       </c>
       <c r="H176" s="12" t="b">
         <v>0</v>
@@ -13380,13 +13377,13 @@
     </row>
     <row r="177" customHeight="1" spans="1:18">
       <c r="A177" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="B177" s="27" t="s">
         <v>888</v>
       </c>
-      <c r="B177" s="27" t="s">
+      <c r="C177" s="30" t="s">
         <v>889</v>
-      </c>
-      <c r="C177" s="30" t="s">
-        <v>890</v>
       </c>
       <c r="D177" s="8" t="s">
         <v>73</v>
@@ -13395,10 +13392,10 @@
         <v>117</v>
       </c>
       <c r="F177" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="G177" s="11" t="s">
         <v>837</v>
-      </c>
-      <c r="G177" s="11" t="s">
-        <v>838</v>
       </c>
       <c r="H177" s="12" t="b">
         <v>0</v>
@@ -13426,13 +13423,13 @@
     </row>
     <row r="178" customHeight="1" spans="1:18">
       <c r="A178" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="B178" s="27" t="s">
         <v>891</v>
       </c>
-      <c r="B178" s="27" t="s">
+      <c r="C178" s="30" t="s">
         <v>892</v>
-      </c>
-      <c r="C178" s="30" t="s">
-        <v>893</v>
       </c>
       <c r="D178" s="8" t="s">
         <v>73</v>
@@ -13441,10 +13438,10 @@
         <v>117</v>
       </c>
       <c r="F178" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="G178" s="11" t="s">
         <v>837</v>
-      </c>
-      <c r="G178" s="11" t="s">
-        <v>838</v>
       </c>
       <c r="H178" s="12" t="b">
         <v>0</v>
@@ -13472,13 +13469,13 @@
     </row>
     <row r="179" customHeight="1" spans="1:18">
       <c r="A179" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="B179" s="30" t="s">
         <v>894</v>
       </c>
-      <c r="B179" s="30" t="s">
+      <c r="C179" s="27" t="s">
         <v>895</v>
-      </c>
-      <c r="C179" s="27" t="s">
-        <v>896</v>
       </c>
       <c r="D179" s="8" t="s">
         <v>76</v>
@@ -13487,10 +13484,10 @@
         <v>117</v>
       </c>
       <c r="F179" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="G179" s="11" t="s">
         <v>837</v>
-      </c>
-      <c r="G179" s="11" t="s">
-        <v>838</v>
       </c>
       <c r="H179" s="12" t="b">
         <v>0</v>
@@ -13518,13 +13515,13 @@
     </row>
     <row r="180" customHeight="1" spans="1:18">
       <c r="A180" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="B180" s="30" t="s">
         <v>897</v>
       </c>
-      <c r="B180" s="30" t="s">
+      <c r="C180" s="27" t="s">
         <v>898</v>
-      </c>
-      <c r="C180" s="27" t="s">
-        <v>899</v>
       </c>
       <c r="D180" s="8" t="s">
         <v>76</v>
@@ -13533,10 +13530,10 @@
         <v>117</v>
       </c>
       <c r="F180" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="G180" s="11" t="s">
         <v>837</v>
-      </c>
-      <c r="G180" s="11" t="s">
-        <v>838</v>
       </c>
       <c r="H180" s="12" t="b">
         <v>0</v>
@@ -13564,13 +13561,13 @@
     </row>
     <row r="181" customHeight="1" spans="1:18">
       <c r="A181" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="B181" s="30" t="s">
         <v>900</v>
       </c>
-      <c r="B181" s="30" t="s">
+      <c r="C181" s="27" t="s">
         <v>901</v>
-      </c>
-      <c r="C181" s="27" t="s">
-        <v>902</v>
       </c>
       <c r="D181" s="8" t="s">
         <v>76</v>
@@ -13579,10 +13576,10 @@
         <v>117</v>
       </c>
       <c r="F181" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="G181" s="11" t="s">
         <v>837</v>
-      </c>
-      <c r="G181" s="11" t="s">
-        <v>838</v>
       </c>
       <c r="H181" s="12" t="b">
         <v>0</v>
@@ -13610,13 +13607,13 @@
     </row>
     <row r="182" customHeight="1" spans="1:18">
       <c r="A182" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="B182" s="30" t="s">
         <v>903</v>
       </c>
-      <c r="B182" s="30" t="s">
+      <c r="C182" s="27" t="s">
         <v>904</v>
-      </c>
-      <c r="C182" s="27" t="s">
-        <v>905</v>
       </c>
       <c r="D182" s="8" t="s">
         <v>76</v>
@@ -13625,10 +13622,10 @@
         <v>117</v>
       </c>
       <c r="F182" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="G182" s="11" t="s">
         <v>837</v>
-      </c>
-      <c r="G182" s="11" t="s">
-        <v>838</v>
       </c>
       <c r="H182" s="12" t="b">
         <v>0</v>
@@ -13656,13 +13653,13 @@
     </row>
     <row r="183" customHeight="1" spans="1:18">
       <c r="A183" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="B183" s="27" t="s">
         <v>906</v>
       </c>
-      <c r="B183" s="27" t="s">
+      <c r="C183" s="27" t="s">
         <v>907</v>
-      </c>
-      <c r="C183" s="27" t="s">
-        <v>908</v>
       </c>
       <c r="D183" s="8" t="s">
         <v>82</v>
@@ -13674,28 +13671,28 @@
         <v>209</v>
       </c>
       <c r="G183" s="11" t="s">
+        <v>908</v>
+      </c>
+      <c r="H183" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I183" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J183" s="8" t="s">
         <v>909</v>
       </c>
-      <c r="H183" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I183" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J183" s="8" t="s">
+      <c r="K183" s="8" t="s">
         <v>910</v>
-      </c>
-      <c r="K183" s="8" t="s">
-        <v>911</v>
       </c>
       <c r="L183" s="8" t="s">
         <v>279</v>
       </c>
       <c r="M183" s="16" t="s">
+        <v>911</v>
+      </c>
+      <c r="N183" s="17" t="s">
         <v>912</v>
-      </c>
-      <c r="N183" s="17" t="s">
-        <v>913</v>
       </c>
       <c r="O183" s="8" t="s">
         <v>125</v>
@@ -13710,13 +13707,13 @@
     </row>
     <row r="184" customHeight="1" spans="1:18">
       <c r="A184" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="B184" s="27" t="s">
         <v>914</v>
       </c>
-      <c r="B184" s="27" t="s">
+      <c r="C184" s="27" t="s">
         <v>915</v>
-      </c>
-      <c r="C184" s="27" t="s">
-        <v>916</v>
       </c>
       <c r="D184" s="8" t="s">
         <v>82</v>
@@ -13728,28 +13725,28 @@
         <v>209</v>
       </c>
       <c r="G184" s="11" t="s">
+        <v>908</v>
+      </c>
+      <c r="H184" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I184" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J184" s="8" t="s">
         <v>909</v>
       </c>
-      <c r="H184" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I184" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J184" s="8" t="s">
-        <v>910</v>
-      </c>
       <c r="K184" s="8" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="L184" s="8" t="s">
         <v>279</v>
       </c>
       <c r="M184" s="16" t="s">
+        <v>917</v>
+      </c>
+      <c r="N184" s="17" t="s">
         <v>918</v>
-      </c>
-      <c r="N184" s="17" t="s">
-        <v>919</v>
       </c>
       <c r="O184" s="8" t="s">
         <v>125</v>
@@ -13764,13 +13761,13 @@
     </row>
     <row r="185" customHeight="1" spans="1:18">
       <c r="A185" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="B185" s="32" t="s">
         <v>920</v>
       </c>
-      <c r="B185" s="32" t="s">
+      <c r="C185" s="27" t="s">
         <v>921</v>
-      </c>
-      <c r="C185" s="27" t="s">
-        <v>922</v>
       </c>
       <c r="D185" s="8" t="s">
         <v>82</v>
@@ -13782,28 +13779,28 @@
         <v>209</v>
       </c>
       <c r="G185" s="11" t="s">
+        <v>908</v>
+      </c>
+      <c r="H185" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I185" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" s="8" t="s">
         <v>909</v>
       </c>
-      <c r="H185" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I185" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J185" s="8" t="s">
-        <v>910</v>
-      </c>
       <c r="K185" s="8" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L185" s="8" t="s">
         <v>279</v>
       </c>
       <c r="M185" s="16" t="s">
+        <v>923</v>
+      </c>
+      <c r="N185" s="17" t="s">
         <v>924</v>
-      </c>
-      <c r="N185" s="17" t="s">
-        <v>925</v>
       </c>
       <c r="O185" s="8" t="s">
         <v>125</v>
@@ -13818,13 +13815,13 @@
     </row>
     <row r="186" customHeight="1" spans="1:18">
       <c r="A186" s="5" t="s">
+        <v>925</v>
+      </c>
+      <c r="B186" s="27" t="s">
         <v>926</v>
       </c>
-      <c r="B186" s="27" t="s">
+      <c r="C186" s="27" t="s">
         <v>927</v>
-      </c>
-      <c r="C186" s="27" t="s">
-        <v>928</v>
       </c>
       <c r="D186" s="8" t="s">
         <v>82</v>
@@ -13836,28 +13833,28 @@
         <v>209</v>
       </c>
       <c r="G186" s="11" t="s">
+        <v>908</v>
+      </c>
+      <c r="H186" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I186" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J186" s="8" t="s">
         <v>909</v>
       </c>
-      <c r="H186" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I186" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J186" s="8" t="s">
-        <v>910</v>
-      </c>
       <c r="K186" s="8" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L186" s="8" t="s">
         <v>279</v>
       </c>
       <c r="M186" s="16" t="s">
+        <v>929</v>
+      </c>
+      <c r="N186" s="17" t="s">
         <v>930</v>
-      </c>
-      <c r="N186" s="17" t="s">
-        <v>931</v>
       </c>
       <c r="O186" s="8" t="s">
         <v>125</v>
@@ -13872,13 +13869,13 @@
     </row>
     <row r="187" customHeight="1" spans="1:18">
       <c r="A187" s="5" t="s">
+        <v>931</v>
+      </c>
+      <c r="B187" s="27" t="s">
         <v>932</v>
       </c>
-      <c r="B187" s="27" t="s">
+      <c r="C187" s="27" t="s">
         <v>933</v>
-      </c>
-      <c r="C187" s="27" t="s">
-        <v>934</v>
       </c>
       <c r="D187" s="27" t="s">
         <v>82</v>
@@ -13890,28 +13887,28 @@
         <v>209</v>
       </c>
       <c r="G187" s="27" t="s">
+        <v>908</v>
+      </c>
+      <c r="H187" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I187" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J187" s="27" t="s">
         <v>909</v>
       </c>
-      <c r="H187" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I187" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J187" s="27" t="s">
-        <v>910</v>
-      </c>
       <c r="K187" s="8" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="L187" s="27" t="s">
         <v>279</v>
       </c>
       <c r="M187" s="16" t="s">
+        <v>935</v>
+      </c>
+      <c r="N187" s="17" t="s">
         <v>936</v>
-      </c>
-      <c r="N187" s="17" t="s">
-        <v>937</v>
       </c>
       <c r="O187" s="27" t="s">
         <v>125</v>
@@ -13926,13 +13923,13 @@
     </row>
     <row r="188" customHeight="1" spans="1:18">
       <c r="A188" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="B188" s="27" t="s">
         <v>938</v>
       </c>
-      <c r="B188" s="27" t="s">
+      <c r="C188" s="27" t="s">
         <v>939</v>
-      </c>
-      <c r="C188" s="27" t="s">
-        <v>940</v>
       </c>
       <c r="D188" s="8" t="s">
         <v>85</v>
@@ -13944,7 +13941,7 @@
         <v>253</v>
       </c>
       <c r="G188" s="27" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H188" s="20" t="b">
         <v>0</v>
@@ -13953,7 +13950,7 @@
         <v>0</v>
       </c>
       <c r="J188" s="27" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K188" s="8"/>
       <c r="L188" s="8"/>
@@ -13972,13 +13969,13 @@
     </row>
     <row r="189" customHeight="1" spans="1:18">
       <c r="A189" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="B189" s="27" t="s">
         <v>942</v>
       </c>
-      <c r="B189" s="27" t="s">
+      <c r="C189" s="27" t="s">
         <v>943</v>
-      </c>
-      <c r="C189" s="27" t="s">
-        <v>944</v>
       </c>
       <c r="D189" s="8" t="s">
         <v>85</v>
@@ -13990,7 +13987,7 @@
         <v>267</v>
       </c>
       <c r="G189" s="27" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H189" s="20" t="b">
         <v>0</v>
@@ -13999,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="J189" s="27" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K189" s="8"/>
       <c r="L189" s="8"/>
@@ -14018,13 +14015,13 @@
     </row>
     <row r="190" customHeight="1" spans="1:18">
       <c r="A190" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="B190" s="27" t="s">
         <v>946</v>
       </c>
-      <c r="B190" s="27" t="s">
+      <c r="C190" s="27" t="s">
         <v>947</v>
-      </c>
-      <c r="C190" s="27" t="s">
-        <v>948</v>
       </c>
       <c r="D190" s="8" t="s">
         <v>89</v>
@@ -14036,7 +14033,7 @@
         <v>253</v>
       </c>
       <c r="G190" s="27" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H190" s="20" t="b">
         <v>0</v>
@@ -14045,7 +14042,7 @@
         <v>0</v>
       </c>
       <c r="J190" s="27" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K190" s="8"/>
       <c r="L190" s="8"/>
@@ -14064,13 +14061,13 @@
     </row>
     <row r="191" customHeight="1" spans="1:18">
       <c r="A191" s="5" t="s">
+        <v>949</v>
+      </c>
+      <c r="B191" s="27" t="s">
         <v>950</v>
       </c>
-      <c r="B191" s="27" t="s">
+      <c r="C191" s="27" t="s">
         <v>951</v>
-      </c>
-      <c r="C191" s="27" t="s">
-        <v>952</v>
       </c>
       <c r="D191" s="8" t="s">
         <v>89</v>
@@ -14082,7 +14079,7 @@
         <v>253</v>
       </c>
       <c r="G191" s="27" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H191" s="20" t="b">
         <v>0</v>
@@ -14091,7 +14088,7 @@
         <v>0</v>
       </c>
       <c r="J191" s="27" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K191" s="8"/>
       <c r="L191" s="8"/>
@@ -14110,13 +14107,13 @@
     </row>
     <row r="192" customHeight="1" spans="1:18">
       <c r="A192" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="B192" s="27" t="s">
         <v>953</v>
       </c>
-      <c r="B192" s="27" t="s">
+      <c r="C192" s="27" t="s">
         <v>954</v>
-      </c>
-      <c r="C192" s="27" t="s">
-        <v>955</v>
       </c>
       <c r="D192" s="8" t="s">
         <v>89</v>
@@ -14128,7 +14125,7 @@
         <v>253</v>
       </c>
       <c r="G192" s="27" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H192" s="20" t="b">
         <v>0</v>
@@ -14137,7 +14134,7 @@
         <v>0</v>
       </c>
       <c r="J192" s="27" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K192" s="8"/>
       <c r="L192" s="8"/>
@@ -14156,13 +14153,13 @@
     </row>
     <row r="193" customHeight="1" spans="1:18">
       <c r="A193" s="5" t="s">
+        <v>955</v>
+      </c>
+      <c r="B193" s="27" t="s">
         <v>956</v>
       </c>
-      <c r="B193" s="27" t="s">
+      <c r="C193" s="27" t="s">
         <v>957</v>
-      </c>
-      <c r="C193" s="27" t="s">
-        <v>958</v>
       </c>
       <c r="D193" s="8" t="s">
         <v>89</v>
@@ -14174,7 +14171,7 @@
         <v>315</v>
       </c>
       <c r="G193" s="27" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H193" s="20" t="b">
         <v>0</v>
@@ -14183,7 +14180,7 @@
         <v>0</v>
       </c>
       <c r="J193" s="27" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K193" s="8"/>
       <c r="L193" s="8"/>
@@ -14202,13 +14199,13 @@
     </row>
     <row r="194" customHeight="1" spans="1:18">
       <c r="A194" s="5" t="s">
+        <v>958</v>
+      </c>
+      <c r="B194" s="27" t="s">
         <v>959</v>
       </c>
-      <c r="B194" s="27" t="s">
+      <c r="C194" s="27" t="s">
         <v>960</v>
-      </c>
-      <c r="C194" s="27" t="s">
-        <v>961</v>
       </c>
       <c r="D194" s="8" t="s">
         <v>96</v>
@@ -14229,11 +14226,11 @@
         <v>0</v>
       </c>
       <c r="J194" s="8" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="K194" s="8"/>
       <c r="L194" s="34" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="M194" s="16"/>
       <c r="N194" s="17"/>
@@ -14250,13 +14247,13 @@
     </row>
     <row r="195" customHeight="1" spans="1:18">
       <c r="A195" s="5" t="s">
+        <v>963</v>
+      </c>
+      <c r="B195" s="27" t="s">
         <v>964</v>
       </c>
-      <c r="B195" s="27" t="s">
+      <c r="C195" s="27" t="s">
         <v>965</v>
-      </c>
-      <c r="C195" s="27" t="s">
-        <v>966</v>
       </c>
       <c r="D195" s="8" t="s">
         <v>96</v>
@@ -14277,7 +14274,7 @@
         <v>0</v>
       </c>
       <c r="J195" s="8" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="K195" s="8"/>
       <c r="L195" s="8"/>
@@ -14296,13 +14293,13 @@
     </row>
     <row r="196" customHeight="1" spans="1:18">
       <c r="A196" s="5" t="s">
+        <v>966</v>
+      </c>
+      <c r="B196" s="34" t="s">
         <v>967</v>
       </c>
-      <c r="B196" s="34" t="s">
+      <c r="C196" s="27" t="s">
         <v>968</v>
-      </c>
-      <c r="C196" s="27" t="s">
-        <v>969</v>
       </c>
       <c r="D196" s="8" t="s">
         <v>96</v>
@@ -14323,7 +14320,7 @@
         <v>0</v>
       </c>
       <c r="J196" s="8" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="K196" s="8"/>
       <c r="L196" s="8"/>
@@ -14342,13 +14339,13 @@
     </row>
     <row r="197" customHeight="1" spans="1:18">
       <c r="A197" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="B197" s="27" t="s">
         <v>970</v>
       </c>
-      <c r="B197" s="27" t="s">
+      <c r="C197" s="27" t="s">
         <v>971</v>
-      </c>
-      <c r="C197" s="27" t="s">
-        <v>972</v>
       </c>
       <c r="D197" s="8" t="s">
         <v>96</v>
@@ -14369,7 +14366,7 @@
         <v>0</v>
       </c>
       <c r="J197" s="8" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="K197" s="8"/>
       <c r="L197" s="8"/>
@@ -14388,13 +14385,13 @@
     </row>
     <row r="198" customHeight="1" spans="1:18">
       <c r="A198" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="B198" s="27" t="s">
         <v>973</v>
       </c>
-      <c r="B198" s="27" t="s">
+      <c r="C198" s="27" t="s">
         <v>974</v>
-      </c>
-      <c r="C198" s="27" t="s">
-        <v>975</v>
       </c>
       <c r="D198" s="8" t="s">
         <v>96</v>
@@ -14415,7 +14412,7 @@
         <v>0</v>
       </c>
       <c r="J198" s="8" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="K198" s="8"/>
       <c r="L198" s="8"/>

--- a/data/menu_dinner.xlsx
+++ b/data/menu_dinner.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="11020" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="25600" windowHeight="11020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976">
   <si>
     <t>id</t>
   </si>
@@ -306,7 +306,7 @@
     <t>images/menu/menu_dessert.png</t>
   </si>
   <si>
-    <t>41</t>
+    <t>4A</t>
   </si>
   <si>
     <t>法式甜点</t>
@@ -1151,6 +1151,9 @@
   </si>
   <si>
     <t>朗姆酒/青柠汁/苏打水</t>
+  </si>
+  <si>
+    <t>41</t>
   </si>
   <si>
     <t>Daiquiri</t>
@@ -4054,8 +4057,8 @@
   <sheetPr/>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A29" sqref="$A29:$XFD29"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -4838,8 +4841,8 @@
   <sheetPr/>
   <dimension ref="A1:BD241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G2"/>
+    <sheetView topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="D194" sqref="D194:D198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -7101,13 +7104,13 @@
     </row>
     <row r="42" customHeight="1" spans="1:18">
       <c r="A42" s="5" t="s">
-        <v>96</v>
+        <v>378</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>267</v>
@@ -7119,7 +7122,7 @@
         <v>360</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H42" s="12" t="b">
         <v>0</v>
@@ -7135,10 +7138,10 @@
         <v>279</v>
       </c>
       <c r="M42" s="16" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N42" s="17" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O42" s="8" t="s">
         <v>125</v>
@@ -7156,10 +7159,10 @@
         <v>235</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>267</v>
@@ -7168,10 +7171,10 @@
         <v>117</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H43" s="12" t="b">
         <v>0</v>
@@ -7187,16 +7190,16 @@
         <v>297</v>
       </c>
       <c r="M43" s="16" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N43" s="17" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O43" s="8" t="s">
         <v>125</v>
       </c>
       <c r="P43" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q43" s="12" t="b">
         <v>1</v>
@@ -7205,13 +7208,13 @@
     </row>
     <row r="44" customHeight="1" spans="1:18">
       <c r="A44" s="5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>267</v>
@@ -7239,10 +7242,10 @@
         <v>321</v>
       </c>
       <c r="M44" s="16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N44" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O44" s="8" t="s">
         <v>125</v>
@@ -7257,13 +7260,13 @@
     </row>
     <row r="45" customHeight="1" spans="1:18">
       <c r="A45" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>267</v>
@@ -7275,7 +7278,7 @@
         <v>256</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H45" s="12" t="b">
         <v>0</v>
@@ -7291,10 +7294,10 @@
         <v>297</v>
       </c>
       <c r="M45" s="16" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N45" s="17" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O45" s="8" t="s">
         <v>125</v>
@@ -7309,13 +7312,13 @@
     </row>
     <row r="46" customHeight="1" spans="1:18">
       <c r="A46" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>267</v>
@@ -7327,7 +7330,7 @@
         <v>256</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H46" s="12" t="b">
         <v>0</v>
@@ -7343,10 +7346,10 @@
         <v>321</v>
       </c>
       <c r="M46" s="16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N46" s="17" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O46" s="8" t="s">
         <v>125</v>
@@ -7361,13 +7364,13 @@
     </row>
     <row r="47" customHeight="1" spans="1:18">
       <c r="A47" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>267</v>
@@ -7379,7 +7382,7 @@
         <v>336</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H47" s="12" t="b">
         <v>0</v>
@@ -7395,10 +7398,10 @@
         <v>279</v>
       </c>
       <c r="M47" s="16" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N47" s="17" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O47" s="8" t="s">
         <v>125</v>
@@ -7413,13 +7416,13 @@
     </row>
     <row r="48" customHeight="1" spans="1:18">
       <c r="A48" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>267</v>
@@ -7431,7 +7434,7 @@
         <v>256</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H48" s="12" t="b">
         <v>0</v>
@@ -7447,10 +7450,10 @@
         <v>279</v>
       </c>
       <c r="M48" s="16" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N48" s="17" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O48" s="8" t="s">
         <v>125</v>
@@ -7468,10 +7471,10 @@
         <v>153</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>267</v>
@@ -7483,7 +7486,7 @@
         <v>336</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H49" s="12" t="b">
         <v>0</v>
@@ -7496,13 +7499,13 @@
       </c>
       <c r="K49" s="8"/>
       <c r="L49" s="14" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M49" s="16" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N49" s="17" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O49" s="8" t="s">
         <v>125</v>
@@ -7517,13 +7520,13 @@
     </row>
     <row r="50" customHeight="1" spans="1:18">
       <c r="A50" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>267</v>
@@ -7535,7 +7538,7 @@
         <v>256</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H50" s="12" t="b">
         <v>0</v>
@@ -7551,10 +7554,10 @@
         <v>321</v>
       </c>
       <c r="M50" s="16" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N50" s="17" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O50" s="8" t="s">
         <v>125</v>
@@ -7569,13 +7572,13 @@
     </row>
     <row r="51" customHeight="1" spans="1:18">
       <c r="A51" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>267</v>
@@ -7584,7 +7587,7 @@
         <v>117</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G51" s="11" t="s">
         <v>349</v>
@@ -7603,10 +7606,10 @@
         <v>279</v>
       </c>
       <c r="M51" s="16" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N51" s="17" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O51" s="8" t="s">
         <v>125</v>
@@ -7621,13 +7624,13 @@
     </row>
     <row r="52" customHeight="1" spans="1:18">
       <c r="A52" s="5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>267</v>
@@ -7636,10 +7639,10 @@
         <v>117</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H52" s="12" t="b">
         <v>0</v>
@@ -7655,10 +7658,10 @@
         <v>279</v>
       </c>
       <c r="M52" s="16" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N52" s="17" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O52" s="8" t="s">
         <v>125</v>
@@ -7676,13 +7679,13 @@
         <v>201</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>117</v>
@@ -7691,7 +7694,7 @@
         <v>228</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H53" s="12" t="b">
         <v>0</v>
@@ -7719,25 +7722,25 @@
     </row>
     <row r="54" customHeight="1" spans="1:18">
       <c r="A54" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>117</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H54" s="12" t="b">
         <v>0</v>
@@ -7765,25 +7768,25 @@
     </row>
     <row r="55" customHeight="1" spans="1:18">
       <c r="A55" s="5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>117</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H55" s="12" t="b">
         <v>0</v>
@@ -7814,22 +7817,22 @@
         <v>228</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>117</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H56" s="12" t="b">
         <v>0</v>
@@ -7860,22 +7863,22 @@
         <v>209</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>117</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H57" s="12" t="b">
         <v>0</v>
@@ -7903,25 +7906,25 @@
     </row>
     <row r="58" customHeight="1" spans="1:18">
       <c r="A58" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="D58" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>456</v>
-      </c>
       <c r="E58" s="8" t="s">
         <v>117</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H58" s="12" t="b">
         <v>0</v>
@@ -7952,22 +7955,22 @@
         <v>169</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>117</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H59" s="12" t="b">
         <v>0</v>
@@ -7995,25 +7998,25 @@
     </row>
     <row r="60" customHeight="1" spans="1:18">
       <c r="A60" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>117</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H60" s="12" t="b">
         <v>0</v>
@@ -8041,16 +8044,16 @@
     </row>
     <row r="61" customHeight="1" spans="1:18">
       <c r="A61" s="5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>117</v>
@@ -8059,7 +8062,7 @@
         <v>118</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H61" s="12" t="b">
         <v>0</v>
@@ -8087,25 +8090,25 @@
     </row>
     <row r="62" customHeight="1" spans="1:18">
       <c r="A62" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>117</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H62" s="12" t="b">
         <v>0</v>
@@ -8133,25 +8136,25 @@
     </row>
     <row r="63" customHeight="1" spans="1:18">
       <c r="A63" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>117</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H63" s="12" t="b">
         <v>0</v>
@@ -8179,25 +8182,25 @@
     </row>
     <row r="64" customHeight="1" spans="1:18">
       <c r="A64" s="5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>117</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H64" s="12" t="b">
         <v>0</v>
@@ -8225,13 +8228,13 @@
     </row>
     <row r="65" customHeight="1" spans="1:18">
       <c r="A65" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>43</v>
@@ -8243,7 +8246,7 @@
         <v>860</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H65" s="12" t="b">
         <v>0</v>
@@ -8271,13 +8274,13 @@
     </row>
     <row r="66" customHeight="1" spans="1:18">
       <c r="A66" s="5" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>43</v>
@@ -8289,7 +8292,7 @@
         <v>960</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H66" s="12" t="b">
         <v>0</v>
@@ -8317,13 +8320,13 @@
     </row>
     <row r="67" customHeight="1" spans="1:18">
       <c r="A67" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>43</v>
@@ -8335,7 +8338,7 @@
         <v>860</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H67" s="12" t="b">
         <v>0</v>
@@ -8363,13 +8366,13 @@
     </row>
     <row r="68" customHeight="1" spans="1:18">
       <c r="A68" s="5" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>43</v>
@@ -8381,7 +8384,7 @@
         <v>1080</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H68" s="12" t="b">
         <v>0</v>
@@ -8412,10 +8415,10 @@
         <v>145</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>43</v>
@@ -8427,7 +8430,7 @@
         <v>1180</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H69" s="12" t="b">
         <v>0</v>
@@ -8455,13 +8458,13 @@
     </row>
     <row r="70" customHeight="1" spans="1:18">
       <c r="A70" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>43</v>
@@ -8473,7 +8476,7 @@
         <v>1080</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H70" s="12" t="b">
         <v>0</v>
@@ -8504,10 +8507,10 @@
         <v>348</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>43</v>
@@ -8519,7 +8522,7 @@
         <v>1100</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H71" s="12" t="b">
         <v>0</v>
@@ -8547,16 +8550,16 @@
     </row>
     <row r="72" customHeight="1" spans="1:18">
       <c r="A72" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>117</v>
@@ -8565,7 +8568,7 @@
         <v>1100</v>
       </c>
       <c r="G72" s="25" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H72" s="12" t="b">
         <v>0</v>
@@ -8593,13 +8596,13 @@
     </row>
     <row r="73" customHeight="1" spans="1:18">
       <c r="A73" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>43</v>
@@ -8611,7 +8614,7 @@
         <v>1100</v>
       </c>
       <c r="G73" s="25" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H73" s="12" t="b">
         <v>0</v>
@@ -8639,13 +8642,13 @@
     </row>
     <row r="74" customHeight="1" spans="1:18">
       <c r="A74" s="5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>43</v>
@@ -8657,7 +8660,7 @@
         <v>1180</v>
       </c>
       <c r="G74" s="25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H74" s="12" t="b">
         <v>0</v>
@@ -8685,13 +8688,13 @@
     </row>
     <row r="75" customHeight="1" spans="1:18">
       <c r="A75" s="5" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>43</v>
@@ -8703,7 +8706,7 @@
         <v>880</v>
       </c>
       <c r="G75" s="25" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H75" s="12" t="b">
         <v>0</v>
@@ -8731,13 +8734,13 @@
     </row>
     <row r="76" customHeight="1" spans="1:18">
       <c r="A76" s="5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>43</v>
@@ -8749,7 +8752,7 @@
         <v>1280</v>
       </c>
       <c r="G76" s="25" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H76" s="12" t="b">
         <v>0</v>
@@ -8777,16 +8780,16 @@
     </row>
     <row r="77" customHeight="1" spans="1:18">
       <c r="A77" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>117</v>
@@ -8795,7 +8798,7 @@
         <v>880</v>
       </c>
       <c r="G77" s="21" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H77" s="12" t="b">
         <v>0</v>
@@ -8823,13 +8826,13 @@
     </row>
     <row r="78" customHeight="1" spans="1:18">
       <c r="A78" s="5" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>46</v>
@@ -8841,7 +8844,7 @@
         <v>1100</v>
       </c>
       <c r="G78" s="21" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H78" s="12" t="b">
         <v>0</v>
@@ -8872,10 +8875,10 @@
         <v>360</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>46</v>
@@ -8887,7 +8890,7 @@
         <v>2650</v>
       </c>
       <c r="G79" s="26" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H79" s="12" t="b">
         <v>0</v>
@@ -8915,13 +8918,13 @@
     </row>
     <row r="80" customHeight="1" spans="1:18">
       <c r="A80" s="5" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>46</v>
@@ -8933,7 +8936,7 @@
         <v>880</v>
       </c>
       <c r="G80" s="21" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H80" s="12" t="b">
         <v>0</v>
@@ -8964,10 +8967,10 @@
         <v>336</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>46</v>
@@ -8979,7 +8982,7 @@
         <v>1050</v>
       </c>
       <c r="G81" s="21" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H81" s="12" t="b">
         <v>0</v>
@@ -9007,13 +9010,13 @@
     </row>
     <row r="82" customHeight="1" spans="1:18">
       <c r="A82" s="5" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>46</v>
@@ -9025,7 +9028,7 @@
         <v>880</v>
       </c>
       <c r="G82" s="21" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H82" s="12" t="b">
         <v>0</v>
@@ -9053,13 +9056,13 @@
     </row>
     <row r="83" customHeight="1" spans="1:18">
       <c r="A83" s="5" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>46</v>
@@ -9071,7 +9074,7 @@
         <v>1700</v>
       </c>
       <c r="G83" s="21" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H83" s="12" t="b">
         <v>0</v>
@@ -9099,13 +9102,13 @@
     </row>
     <row r="84" customHeight="1" spans="1:18">
       <c r="A84" s="5" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>49</v>
@@ -9117,7 +9120,7 @@
         <v>880</v>
       </c>
       <c r="G84" s="21" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H84" s="12" t="b">
         <v>0</v>
@@ -9145,13 +9148,13 @@
     </row>
     <row r="85" customHeight="1" spans="1:18">
       <c r="A85" s="5" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>49</v>
@@ -9163,7 +9166,7 @@
         <v>1400</v>
       </c>
       <c r="G85" s="21" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H85" s="12" t="b">
         <v>0</v>
@@ -9191,13 +9194,13 @@
     </row>
     <row r="86" customHeight="1" spans="1:18">
       <c r="A86" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>49</v>
@@ -9209,7 +9212,7 @@
         <v>1800</v>
       </c>
       <c r="G86" s="21" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H86" s="12" t="b">
         <v>0</v>
@@ -9237,13 +9240,13 @@
     </row>
     <row r="87" customHeight="1" spans="1:18">
       <c r="A87" s="5" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>49</v>
@@ -9255,7 +9258,7 @@
         <v>1080</v>
       </c>
       <c r="G87" s="21" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H87" s="12" t="b">
         <v>0</v>
@@ -9283,13 +9286,13 @@
     </row>
     <row r="88" customHeight="1" spans="1:18">
       <c r="A88" s="5" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>49</v>
@@ -9301,7 +9304,7 @@
         <v>1550</v>
       </c>
       <c r="G88" s="21" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H88" s="12" t="b">
         <v>0</v>
@@ -9332,10 +9335,10 @@
         <v>256</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>49</v>
@@ -9347,7 +9350,7 @@
         <v>2050</v>
       </c>
       <c r="G89" s="21" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H89" s="12" t="b">
         <v>0</v>
@@ -9375,13 +9378,13 @@
     </row>
     <row r="90" customHeight="1" spans="1:18">
       <c r="A90" s="5" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>49</v>
@@ -9393,7 +9396,7 @@
         <v>2850</v>
       </c>
       <c r="G90" s="21" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H90" s="12" t="b">
         <v>0</v>
@@ -9421,13 +9424,13 @@
     </row>
     <row r="91" customHeight="1" spans="1:18">
       <c r="A91" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>49</v>
@@ -9439,7 +9442,7 @@
         <v>900</v>
       </c>
       <c r="G91" s="21" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H91" s="12" t="b">
         <v>0</v>
@@ -9467,13 +9470,13 @@
     </row>
     <row r="92" customHeight="1" spans="1:18">
       <c r="A92" s="5" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>49</v>
@@ -9485,7 +9488,7 @@
         <v>1650</v>
       </c>
       <c r="G92" s="21" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H92" s="12" t="b">
         <v>0</v>
@@ -9513,13 +9516,13 @@
     </row>
     <row r="93" customHeight="1" spans="1:18">
       <c r="A93" s="5" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>49</v>
@@ -9531,7 +9534,7 @@
         <v>2350</v>
       </c>
       <c r="G93" s="21" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H93" s="12" t="b">
         <v>0</v>
@@ -9559,13 +9562,13 @@
     </row>
     <row r="94" customHeight="1" spans="1:18">
       <c r="A94" s="5" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>49</v>
@@ -9577,7 +9580,7 @@
         <v>2180</v>
       </c>
       <c r="G94" s="21" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H94" s="12" t="b">
         <v>0</v>
@@ -9605,13 +9608,13 @@
     </row>
     <row r="95" customHeight="1" spans="1:18">
       <c r="A95" s="5" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>49</v>
@@ -9623,7 +9626,7 @@
         <v>4980</v>
       </c>
       <c r="G95" s="21" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H95" s="12" t="b">
         <v>0</v>
@@ -9651,13 +9654,13 @@
     </row>
     <row r="96" customHeight="1" spans="1:18">
       <c r="A96" s="5" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>49</v>
@@ -9666,10 +9669,10 @@
         <v>117</v>
       </c>
       <c r="F96" s="21" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="G96" s="21" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H96" s="12" t="b">
         <v>0</v>
@@ -9697,13 +9700,13 @@
     </row>
     <row r="97" customHeight="1" spans="1:18">
       <c r="A97" s="5" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>49</v>
@@ -9715,7 +9718,7 @@
         <v>2080</v>
       </c>
       <c r="G97" s="21" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H97" s="12" t="b">
         <v>0</v>
@@ -9743,13 +9746,13 @@
     </row>
     <row r="98" customHeight="1" spans="1:18">
       <c r="A98" s="5" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>49</v>
@@ -9761,7 +9764,7 @@
         <v>4880</v>
       </c>
       <c r="G98" s="21" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H98" s="12" t="b">
         <v>0</v>
@@ -9792,10 +9795,10 @@
         <v>318</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>49</v>
@@ -9804,10 +9807,10 @@
         <v>117</v>
       </c>
       <c r="F99" s="21" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="G99" s="21" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H99" s="12" t="b">
         <v>0</v>
@@ -9835,13 +9838,13 @@
     </row>
     <row r="100" customHeight="1" spans="1:18">
       <c r="A100" s="5" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>49</v>
@@ -9853,7 +9856,7 @@
         <v>2180</v>
       </c>
       <c r="G100" s="21" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H100" s="12" t="b">
         <v>0</v>
@@ -9881,13 +9884,13 @@
     </row>
     <row r="101" customHeight="1" spans="1:18">
       <c r="A101" s="5" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>49</v>
@@ -9896,10 +9899,10 @@
         <v>117</v>
       </c>
       <c r="F101" s="21" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="G101" s="21" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H101" s="12" t="b">
         <v>0</v>
@@ -9927,13 +9930,13 @@
     </row>
     <row r="102" customHeight="1" spans="1:18">
       <c r="A102" s="5" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C102" s="21" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>49</v>
@@ -9942,10 +9945,10 @@
         <v>117</v>
       </c>
       <c r="F102" s="21" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="G102" s="21" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H102" s="12" t="b">
         <v>0</v>
@@ -9973,13 +9976,13 @@
     </row>
     <row r="103" customHeight="1" spans="1:18">
       <c r="A103" s="5" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C103" s="21" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>49</v>
@@ -9991,7 +9994,7 @@
         <v>2080</v>
       </c>
       <c r="G103" s="21" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H103" s="12" t="b">
         <v>0</v>
@@ -10019,13 +10022,13 @@
     </row>
     <row r="104" customHeight="1" spans="1:18">
       <c r="A104" s="5" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C104" s="21" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>49</v>
@@ -10034,10 +10037,10 @@
         <v>117</v>
       </c>
       <c r="F104" s="21" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="G104" s="21" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H104" s="12" t="b">
         <v>0</v>
@@ -10065,16 +10068,16 @@
     </row>
     <row r="105" customHeight="1" spans="1:18">
       <c r="A105" s="5" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C105" s="21" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E105" s="8" t="s">
         <v>117</v>
@@ -10083,7 +10086,7 @@
         <v>1080</v>
       </c>
       <c r="G105" s="21" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H105" s="12" t="b">
         <v>0</v>
@@ -10111,13 +10114,13 @@
     </row>
     <row r="106" customHeight="1" spans="1:18">
       <c r="A106" s="5" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C106" s="21" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>52</v>
@@ -10129,7 +10132,7 @@
         <v>980</v>
       </c>
       <c r="G106" s="21" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H106" s="12" t="b">
         <v>0</v>
@@ -10157,13 +10160,13 @@
     </row>
     <row r="107" customHeight="1" spans="1:18">
       <c r="A107" s="5" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C107" s="21" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>52</v>
@@ -10175,7 +10178,7 @@
         <v>1180</v>
       </c>
       <c r="G107" s="21" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H107" s="12" t="b">
         <v>0</v>
@@ -10203,13 +10206,13 @@
     </row>
     <row r="108" customHeight="1" spans="1:18">
       <c r="A108" s="5" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C108" s="21" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>52</v>
@@ -10221,7 +10224,7 @@
         <v>1280</v>
       </c>
       <c r="G108" s="21" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H108" s="12" t="b">
         <v>0</v>
@@ -10249,13 +10252,13 @@
     </row>
     <row r="109" customHeight="1" spans="1:18">
       <c r="A109" s="5" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C109" s="21" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>52</v>
@@ -10267,7 +10270,7 @@
         <v>2400</v>
       </c>
       <c r="G109" s="21" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H109" s="12" t="b">
         <v>0</v>
@@ -10295,13 +10298,13 @@
     </row>
     <row r="110" customHeight="1" spans="1:18">
       <c r="A110" s="5" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>52</v>
@@ -10313,7 +10316,7 @@
         <v>3880</v>
       </c>
       <c r="G110" s="21" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H110" s="12" t="b">
         <v>0</v>
@@ -10341,13 +10344,13 @@
     </row>
     <row r="111" customHeight="1" spans="1:18">
       <c r="A111" s="5" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>52</v>
@@ -10359,7 +10362,7 @@
         <v>980</v>
       </c>
       <c r="G111" s="21" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H111" s="12" t="b">
         <v>0</v>
@@ -10387,13 +10390,13 @@
     </row>
     <row r="112" customHeight="1" spans="1:18">
       <c r="A112" s="5" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>52</v>
@@ -10405,7 +10408,7 @@
         <v>1180</v>
       </c>
       <c r="G112" s="21" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H112" s="12" t="b">
         <v>0</v>
@@ -10433,13 +10436,13 @@
     </row>
     <row r="113" customHeight="1" spans="1:18">
       <c r="A113" s="5" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C113" s="21" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>52</v>
@@ -10451,7 +10454,7 @@
         <v>880</v>
       </c>
       <c r="G113" s="21" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H113" s="12" t="b">
         <v>0</v>
@@ -10479,13 +10482,13 @@
     </row>
     <row r="114" customHeight="1" spans="1:18">
       <c r="A114" s="5" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B114" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C114" s="21" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>52</v>
@@ -10497,7 +10500,7 @@
         <v>1480</v>
       </c>
       <c r="G114" s="21" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H114" s="12" t="b">
         <v>0</v>
@@ -10525,13 +10528,13 @@
     </row>
     <row r="115" customHeight="1" spans="1:18">
       <c r="A115" s="5" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B115" s="23" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C115" s="21" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>52</v>
@@ -10543,7 +10546,7 @@
         <v>3680</v>
       </c>
       <c r="G115" s="21" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H115" s="12" t="b">
         <v>0</v>
@@ -10571,13 +10574,13 @@
     </row>
     <row r="116" customHeight="1" spans="1:18">
       <c r="A116" s="5" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B116" s="23" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C116" s="21" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D116" s="8" t="s">
         <v>52</v>
@@ -10589,7 +10592,7 @@
         <v>1180</v>
       </c>
       <c r="G116" s="21" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H116" s="12" t="b">
         <v>0</v>
@@ -10617,13 +10620,13 @@
     </row>
     <row r="117" customHeight="1" spans="1:18">
       <c r="A117" s="5" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B117" s="23" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C117" s="21" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D117" s="8" t="s">
         <v>52</v>
@@ -10635,7 +10638,7 @@
         <v>2380</v>
       </c>
       <c r="G117" s="21" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H117" s="12" t="b">
         <v>0</v>
@@ -10663,13 +10666,13 @@
     </row>
     <row r="118" customHeight="1" spans="1:18">
       <c r="A118" s="5" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C118" s="21" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>55</v>
@@ -10681,7 +10684,7 @@
         <v>1380</v>
       </c>
       <c r="G118" s="21" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H118" s="12" t="b">
         <v>0</v>
@@ -10709,13 +10712,13 @@
     </row>
     <row r="119" customHeight="1" spans="1:18">
       <c r="A119" s="5" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C119" s="21" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>55</v>
@@ -10727,7 +10730,7 @@
         <v>1180</v>
       </c>
       <c r="G119" s="21" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H119" s="12" t="b">
         <v>0</v>
@@ -10755,13 +10758,13 @@
     </row>
     <row r="120" customHeight="1" spans="1:18">
       <c r="A120" s="5" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B120" s="23" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C120" s="21" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D120" s="8" t="s">
         <v>55</v>
@@ -10773,7 +10776,7 @@
         <v>1680</v>
       </c>
       <c r="G120" s="21" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H120" s="12" t="b">
         <v>0</v>
@@ -10801,13 +10804,13 @@
     </row>
     <row r="121" customHeight="1" spans="1:18">
       <c r="A121" s="5" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B121" s="23" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C121" s="21" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D121" s="8" t="s">
         <v>55</v>
@@ -10819,7 +10822,7 @@
         <v>2180</v>
       </c>
       <c r="G121" s="21" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H121" s="12" t="b">
         <v>0</v>
@@ -10847,13 +10850,13 @@
     </row>
     <row r="122" customHeight="1" spans="1:18">
       <c r="A122" s="5" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B122" s="23" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C122" s="21" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>55</v>
@@ -10865,7 +10868,7 @@
         <v>980</v>
       </c>
       <c r="G122" s="21" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H122" s="12" t="b">
         <v>0</v>
@@ -10893,13 +10896,13 @@
     </row>
     <row r="123" customHeight="1" spans="1:18">
       <c r="A123" s="5" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B123" s="23" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C123" s="21" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>55</v>
@@ -10911,7 +10914,7 @@
         <v>1280</v>
       </c>
       <c r="G123" s="21" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H123" s="12" t="b">
         <v>0</v>
@@ -10939,13 +10942,13 @@
     </row>
     <row r="124" customHeight="1" spans="1:18">
       <c r="A124" s="5" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B124" s="21" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C124" s="21" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>55</v>
@@ -10957,7 +10960,7 @@
         <v>1080</v>
       </c>
       <c r="G124" s="21" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H124" s="12" t="b">
         <v>0</v>
@@ -10985,13 +10988,13 @@
     </row>
     <row r="125" customHeight="1" spans="1:18">
       <c r="A125" s="5" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B125" s="21" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C125" s="21" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>55</v>
@@ -11003,7 +11006,7 @@
         <v>1880</v>
       </c>
       <c r="G125" s="21" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H125" s="12" t="b">
         <v>0</v>
@@ -11031,13 +11034,13 @@
     </row>
     <row r="126" customHeight="1" spans="1:18">
       <c r="A126" s="5" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B126" s="21" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C126" s="21" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D126" s="8" t="s">
         <v>55</v>
@@ -11049,7 +11052,7 @@
         <v>2680</v>
       </c>
       <c r="G126" s="21" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H126" s="12" t="b">
         <v>0</v>
@@ -11077,13 +11080,13 @@
     </row>
     <row r="127" customHeight="1" spans="1:18">
       <c r="A127" s="5" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B127" s="23" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C127" s="21" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D127" s="8" t="s">
         <v>55</v>
@@ -11095,7 +11098,7 @@
         <v>1380</v>
       </c>
       <c r="G127" s="21" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H127" s="12" t="b">
         <v>0</v>
@@ -11123,13 +11126,13 @@
     </row>
     <row r="128" customHeight="1" spans="1:18">
       <c r="A128" s="5" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C128" s="21" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>55</v>
@@ -11141,7 +11144,7 @@
         <v>1480</v>
       </c>
       <c r="G128" s="21" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H128" s="12" t="b">
         <v>0</v>
@@ -11169,13 +11172,13 @@
     </row>
     <row r="129" customHeight="1" spans="1:18">
       <c r="A129" s="5" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B129" s="23" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C129" s="21" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D129" s="27" t="s">
         <v>58</v>
@@ -11187,7 +11190,7 @@
         <v>1580</v>
       </c>
       <c r="G129" s="21" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H129" s="12" t="b">
         <v>0</v>
@@ -11215,13 +11218,13 @@
     </row>
     <row r="130" customHeight="1" spans="1:18">
       <c r="A130" s="5" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B130" s="23" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C130" s="21" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D130" s="27" t="s">
         <v>58</v>
@@ -11233,7 +11236,7 @@
         <v>880</v>
       </c>
       <c r="G130" s="21" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H130" s="12" t="b">
         <v>0</v>
@@ -11261,13 +11264,13 @@
     </row>
     <row r="131" customHeight="1" spans="1:18">
       <c r="A131" s="5" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C131" s="21" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D131" s="27" t="s">
         <v>58</v>
@@ -11279,7 +11282,7 @@
         <v>1380</v>
       </c>
       <c r="G131" s="21" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H131" s="12" t="b">
         <v>0</v>
@@ -11307,13 +11310,13 @@
     </row>
     <row r="132" customHeight="1" spans="1:18">
       <c r="A132" s="5" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B132" s="23" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C132" s="21" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D132" s="27" t="s">
         <v>58</v>
@@ -11325,7 +11328,7 @@
         <v>1580</v>
       </c>
       <c r="G132" s="21" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H132" s="12" t="b">
         <v>0</v>
@@ -11353,13 +11356,13 @@
     </row>
     <row r="133" customHeight="1" spans="1:18">
       <c r="A133" s="5" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B133" s="23" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C133" s="21" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D133" s="27" t="s">
         <v>58</v>
@@ -11371,7 +11374,7 @@
         <v>880</v>
       </c>
       <c r="G133" s="21" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H133" s="12" t="b">
         <v>0</v>
@@ -11399,13 +11402,13 @@
     </row>
     <row r="134" customHeight="1" spans="1:18">
       <c r="A134" s="5" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B134" s="23" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C134" s="21" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D134" s="27" t="s">
         <v>58</v>
@@ -11417,7 +11420,7 @@
         <v>2380</v>
       </c>
       <c r="G134" s="21" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H134" s="12" t="b">
         <v>0</v>
@@ -11445,13 +11448,13 @@
     </row>
     <row r="135" customHeight="1" spans="1:18">
       <c r="A135" s="5" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B135" s="21" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C135" s="21" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D135" s="27" t="s">
         <v>61</v>
@@ -11463,7 +11466,7 @@
         <v>880</v>
       </c>
       <c r="G135" s="21" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H135" s="12" t="b">
         <v>0</v>
@@ -11491,13 +11494,13 @@
     </row>
     <row r="136" customHeight="1" spans="1:18">
       <c r="A136" s="5" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B136" s="21" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C136" s="21" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D136" s="27" t="s">
         <v>61</v>
@@ -11509,7 +11512,7 @@
         <v>780</v>
       </c>
       <c r="G136" s="21" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H136" s="12" t="b">
         <v>0</v>
@@ -11537,13 +11540,13 @@
     </row>
     <row r="137" customHeight="1" spans="1:18">
       <c r="A137" s="5" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B137" s="21" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C137" s="21" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D137" s="27" t="s">
         <v>61</v>
@@ -11555,7 +11558,7 @@
         <v>780</v>
       </c>
       <c r="G137" s="21" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H137" s="12" t="b">
         <v>0</v>
@@ -11583,13 +11586,13 @@
     </row>
     <row r="138" customHeight="1" spans="1:18">
       <c r="A138" s="5" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B138" s="21" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C138" s="21" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D138" s="27" t="s">
         <v>61</v>
@@ -11601,7 +11604,7 @@
         <v>880</v>
       </c>
       <c r="G138" s="21" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H138" s="12" t="b">
         <v>0</v>
@@ -11629,13 +11632,13 @@
     </row>
     <row r="139" customHeight="1" spans="1:18">
       <c r="A139" s="5" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B139" s="21" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C139" s="21" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D139" s="27" t="s">
         <v>61</v>
@@ -11647,7 +11650,7 @@
         <v>1280</v>
       </c>
       <c r="G139" s="21" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H139" s="12" t="b">
         <v>0</v>
@@ -11675,13 +11678,13 @@
     </row>
     <row r="140" customHeight="1" spans="1:18">
       <c r="A140" s="5" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B140" s="21" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C140" s="21" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D140" s="27" t="s">
         <v>61</v>
@@ -11693,7 +11696,7 @@
         <v>1780</v>
       </c>
       <c r="G140" s="21" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H140" s="12" t="b">
         <v>0</v>
@@ -11721,13 +11724,13 @@
     </row>
     <row r="141" customHeight="1" spans="1:18">
       <c r="A141" s="5" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B141" s="21" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C141" s="21" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D141" s="27" t="s">
         <v>61</v>
@@ -11739,7 +11742,7 @@
         <v>1180</v>
       </c>
       <c r="G141" s="21" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H141" s="12" t="b">
         <v>0</v>
@@ -11767,13 +11770,13 @@
     </row>
     <row r="142" customHeight="1" spans="1:18">
       <c r="A142" s="5" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B142" s="21" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C142" s="21" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D142" s="27" t="s">
         <v>61</v>
@@ -11785,7 +11788,7 @@
         <v>1280</v>
       </c>
       <c r="G142" s="21" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H142" s="12" t="b">
         <v>0</v>
@@ -11813,13 +11816,13 @@
     </row>
     <row r="143" customHeight="1" spans="1:18">
       <c r="A143" s="5" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B143" s="21" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C143" s="21" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D143" s="27" t="s">
         <v>61</v>
@@ -11831,7 +11834,7 @@
         <v>1780</v>
       </c>
       <c r="G143" s="21" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H143" s="12" t="b">
         <v>0</v>
@@ -11859,13 +11862,13 @@
     </row>
     <row r="144" customHeight="1" spans="1:18">
       <c r="A144" s="5" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B144" s="21" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C144" s="21" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D144" s="27" t="s">
         <v>61</v>
@@ -11877,7 +11880,7 @@
         <v>2480</v>
       </c>
       <c r="G144" s="21" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H144" s="12" t="b">
         <v>0</v>
@@ -11905,13 +11908,13 @@
     </row>
     <row r="145" customHeight="1" spans="1:18">
       <c r="A145" s="5" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C145" s="21" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D145" s="27" t="s">
         <v>61</v>
@@ -11923,7 +11926,7 @@
         <v>1180</v>
       </c>
       <c r="G145" s="21" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H145" s="12" t="b">
         <v>0</v>
@@ -11951,13 +11954,13 @@
     </row>
     <row r="146" customHeight="1" spans="1:18">
       <c r="A146" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C146" s="21" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D146" s="27" t="s">
         <v>61</v>
@@ -11969,7 +11972,7 @@
         <v>980</v>
       </c>
       <c r="G146" s="21" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H146" s="12" t="b">
         <v>0</v>
@@ -11997,13 +12000,13 @@
     </row>
     <row r="147" customHeight="1" spans="1:18">
       <c r="A147" s="5" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C147" s="21" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D147" s="27" t="s">
         <v>61</v>
@@ -12015,7 +12018,7 @@
         <v>1650</v>
       </c>
       <c r="G147" s="21" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H147" s="12" t="b">
         <v>0</v>
@@ -12043,13 +12046,13 @@
     </row>
     <row r="148" customHeight="1" spans="1:18">
       <c r="A148" s="5" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C148" s="21" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D148" s="27" t="s">
         <v>61</v>
@@ -12061,7 +12064,7 @@
         <v>1100</v>
       </c>
       <c r="G148" s="21" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H148" s="12" t="b">
         <v>0</v>
@@ -12089,13 +12092,13 @@
     </row>
     <row r="149" customHeight="1" spans="1:18">
       <c r="A149" s="5" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C149" s="21" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D149" s="27" t="s">
         <v>61</v>
@@ -12107,7 +12110,7 @@
         <v>980</v>
       </c>
       <c r="G149" s="21" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H149" s="12" t="b">
         <v>0</v>
@@ -12135,13 +12138,13 @@
     </row>
     <row r="150" customHeight="1" spans="1:18">
       <c r="A150" s="5" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B150" s="23" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C150" s="21" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D150" s="27" t="s">
         <v>61</v>
@@ -12153,7 +12156,7 @@
         <v>1080</v>
       </c>
       <c r="G150" s="21" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H150" s="12" t="b">
         <v>0</v>
@@ -12181,13 +12184,13 @@
     </row>
     <row r="151" customHeight="1" spans="1:18">
       <c r="A151" s="5" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B151" s="23" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C151" s="21" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D151" s="27" t="s">
         <v>61</v>
@@ -12199,7 +12202,7 @@
         <v>1680</v>
       </c>
       <c r="G151" s="21" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H151" s="12" t="b">
         <v>0</v>
@@ -12227,13 +12230,13 @@
     </row>
     <row r="152" customHeight="1" spans="1:18">
       <c r="A152" s="5" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B152" s="23" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C152" s="21" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D152" s="27" t="s">
         <v>61</v>
@@ -12245,7 +12248,7 @@
         <v>980</v>
       </c>
       <c r="G152" s="21" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H152" s="12" t="b">
         <v>0</v>
@@ -12273,13 +12276,13 @@
     </row>
     <row r="153" customHeight="1" spans="1:18">
       <c r="A153" s="5" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C153" s="21" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D153" s="27" t="s">
         <v>61</v>
@@ -12291,7 +12294,7 @@
         <v>1080</v>
       </c>
       <c r="G153" s="21" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H153" s="12" t="b">
         <v>0</v>
@@ -12319,13 +12322,13 @@
     </row>
     <row r="154" customHeight="1" spans="1:18">
       <c r="A154" s="5" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B154" s="23" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C154" s="21" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D154" s="27" t="s">
         <v>61</v>
@@ -12337,7 +12340,7 @@
         <v>1480</v>
       </c>
       <c r="G154" s="21" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H154" s="12" t="b">
         <v>0</v>
@@ -12365,13 +12368,13 @@
     </row>
     <row r="155" customHeight="1" spans="1:18">
       <c r="A155" s="5" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B155" s="23" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C155" s="21" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D155" s="27" t="s">
         <v>61</v>
@@ -12383,7 +12386,7 @@
         <v>3480</v>
       </c>
       <c r="G155" s="21" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H155" s="12" t="b">
         <v>0</v>
@@ -12411,13 +12414,13 @@
     </row>
     <row r="156" customHeight="1" spans="1:18">
       <c r="A156" s="5" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C156" s="21" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D156" s="27" t="s">
         <v>61</v>
@@ -12429,7 +12432,7 @@
         <v>1280</v>
       </c>
       <c r="G156" s="21" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H156" s="12" t="b">
         <v>0</v>
@@ -12457,13 +12460,13 @@
     </row>
     <row r="157" customHeight="1" spans="1:18">
       <c r="A157" s="5" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B157" s="23" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C157" s="21" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D157" s="27" t="s">
         <v>61</v>
@@ -12475,7 +12478,7 @@
         <v>1680</v>
       </c>
       <c r="G157" s="21" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H157" s="12" t="b">
         <v>0</v>
@@ -12503,13 +12506,13 @@
     </row>
     <row r="158" customHeight="1" spans="1:18">
       <c r="A158" s="5" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C158" s="21" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D158" s="27" t="s">
         <v>61</v>
@@ -12521,7 +12524,7 @@
         <v>2680</v>
       </c>
       <c r="G158" s="21" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H158" s="12" t="b">
         <v>0</v>
@@ -12552,10 +12555,10 @@
         <v>137</v>
       </c>
       <c r="B159" s="23" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C159" s="21" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D159" s="27" t="s">
         <v>61</v>
@@ -12567,7 +12570,7 @@
         <v>3680</v>
       </c>
       <c r="G159" s="21" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H159" s="12" t="b">
         <v>0</v>
@@ -12595,13 +12598,13 @@
     </row>
     <row r="160" customHeight="1" spans="1:18">
       <c r="A160" s="5" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B160" s="23" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C160" s="21" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D160" s="27" t="s">
         <v>61</v>
@@ -12613,7 +12616,7 @@
         <v>1080</v>
       </c>
       <c r="G160" s="21" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H160" s="12" t="b">
         <v>0</v>
@@ -12641,13 +12644,13 @@
     </row>
     <row r="161" customHeight="1" spans="1:18">
       <c r="A161" s="5" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B161" s="28" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C161" s="28" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D161" s="8" t="s">
         <v>64</v>
@@ -12656,10 +12659,10 @@
         <v>117</v>
       </c>
       <c r="F161" s="8" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="G161" s="11" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H161" s="12" t="b">
         <v>0</v>
@@ -12687,13 +12690,13 @@
     </row>
     <row r="162" customHeight="1" spans="1:18">
       <c r="A162" s="5" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B162" s="29" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C162" s="27" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D162" s="8" t="s">
         <v>64</v>
@@ -12702,10 +12705,10 @@
         <v>117</v>
       </c>
       <c r="F162" s="8" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="G162" s="11" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H162" s="12" t="b">
         <v>0</v>
@@ -12733,13 +12736,13 @@
     </row>
     <row r="163" customHeight="1" spans="1:18">
       <c r="A163" s="5" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B163" s="27" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C163" s="30" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D163" s="8" t="s">
         <v>64</v>
@@ -12748,10 +12751,10 @@
         <v>117</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="G163" s="11" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H163" s="12" t="b">
         <v>0</v>
@@ -12779,13 +12782,13 @@
     </row>
     <row r="164" customHeight="1" spans="1:18">
       <c r="A164" s="5" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B164" s="27" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C164" s="27" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D164" s="8" t="s">
         <v>64</v>
@@ -12794,10 +12797,10 @@
         <v>117</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="G164" s="11" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H164" s="12" t="b">
         <v>0</v>
@@ -12825,13 +12828,13 @@
     </row>
     <row r="165" customHeight="1" spans="1:18">
       <c r="A165" s="5" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B165" s="29" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C165" s="30" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D165" s="8" t="s">
         <v>64</v>
@@ -12840,10 +12843,10 @@
         <v>117</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="G165" s="11" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H165" s="12" t="b">
         <v>0</v>
@@ -12871,13 +12874,13 @@
     </row>
     <row r="166" customHeight="1" spans="1:18">
       <c r="A166" s="5" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B166" s="23" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C166" s="21" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D166" s="27" t="s">
         <v>67</v>
@@ -12889,7 +12892,7 @@
         <v>880</v>
       </c>
       <c r="G166" s="21" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H166" s="12" t="b">
         <v>0</v>
@@ -12917,13 +12920,13 @@
     </row>
     <row r="167" customHeight="1" spans="1:18">
       <c r="A167" s="5" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B167" s="21" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C167" s="21" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D167" s="27" t="s">
         <v>67</v>
@@ -12935,7 +12938,7 @@
         <v>1280</v>
       </c>
       <c r="G167" s="21" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H167" s="12" t="b">
         <v>0</v>
@@ -12963,13 +12966,13 @@
     </row>
     <row r="168" customHeight="1" spans="1:18">
       <c r="A168" s="5" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B168" s="23" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C168" s="21" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D168" s="27" t="s">
         <v>67</v>
@@ -12981,7 +12984,7 @@
         <v>2580</v>
       </c>
       <c r="G168" s="21" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H168" s="12" t="b">
         <v>0</v>
@@ -13012,10 +13015,10 @@
         <v>129</v>
       </c>
       <c r="B169" s="21" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C169" s="21" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D169" s="27" t="s">
         <v>67</v>
@@ -13027,7 +13030,7 @@
         <v>3680</v>
       </c>
       <c r="G169" s="21" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H169" s="12" t="b">
         <v>0</v>
@@ -13055,13 +13058,13 @@
     </row>
     <row r="170" customHeight="1" spans="1:18">
       <c r="A170" s="5" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B170" s="21" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C170" s="21" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D170" s="27" t="s">
         <v>67</v>
@@ -13073,7 +13076,7 @@
         <v>3880</v>
       </c>
       <c r="G170" s="21" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H170" s="12" t="b">
         <v>0</v>
@@ -13101,13 +13104,13 @@
     </row>
     <row r="171" customHeight="1" spans="1:18">
       <c r="A171" s="5" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B171" s="29" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C171" s="30" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D171" s="8" t="s">
         <v>70</v>
@@ -13116,10 +13119,10 @@
         <v>117</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="G171" s="11" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H171" s="12" t="b">
         <v>0</v>
@@ -13147,13 +13150,13 @@
     </row>
     <row r="172" customHeight="1" spans="1:18">
       <c r="A172" s="5" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B172" s="27" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C172" s="30" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D172" s="8" t="s">
         <v>70</v>
@@ -13162,10 +13165,10 @@
         <v>117</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="G172" s="11" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H172" s="12" t="b">
         <v>0</v>
@@ -13193,13 +13196,13 @@
     </row>
     <row r="173" customHeight="1" spans="1:18">
       <c r="A173" s="5" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B173" s="31" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C173" s="30" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D173" s="8" t="s">
         <v>70</v>
@@ -13208,10 +13211,10 @@
         <v>117</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="G173" s="11" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H173" s="12" t="b">
         <v>0</v>
@@ -13239,13 +13242,13 @@
     </row>
     <row r="174" customHeight="1" spans="1:18">
       <c r="A174" s="5" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B174" s="31" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C174" s="30" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D174" s="8" t="s">
         <v>73</v>
@@ -13254,10 +13257,10 @@
         <v>117</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="G174" s="11" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H174" s="12" t="b">
         <v>0</v>
@@ -13285,13 +13288,13 @@
     </row>
     <row r="175" customHeight="1" spans="1:18">
       <c r="A175" s="5" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B175" s="27" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C175" s="30" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="D175" s="8" t="s">
         <v>73</v>
@@ -13300,10 +13303,10 @@
         <v>117</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="G175" s="11" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H175" s="12" t="b">
         <v>0</v>
@@ -13331,13 +13334,13 @@
     </row>
     <row r="176" customHeight="1" spans="1:18">
       <c r="A176" s="5" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B176" s="27" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C176" s="30" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="D176" s="8" t="s">
         <v>73</v>
@@ -13346,10 +13349,10 @@
         <v>117</v>
       </c>
       <c r="F176" s="8" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="G176" s="11" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H176" s="12" t="b">
         <v>0</v>
@@ -13377,13 +13380,13 @@
     </row>
     <row r="177" customHeight="1" spans="1:18">
       <c r="A177" s="5" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B177" s="27" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C177" s="30" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D177" s="8" t="s">
         <v>73</v>
@@ -13392,10 +13395,10 @@
         <v>117</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="G177" s="11" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H177" s="12" t="b">
         <v>0</v>
@@ -13423,13 +13426,13 @@
     </row>
     <row r="178" customHeight="1" spans="1:18">
       <c r="A178" s="5" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B178" s="27" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C178" s="30" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="D178" s="8" t="s">
         <v>73</v>
@@ -13438,10 +13441,10 @@
         <v>117</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="G178" s="11" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H178" s="12" t="b">
         <v>0</v>
@@ -13469,13 +13472,13 @@
     </row>
     <row r="179" customHeight="1" spans="1:18">
       <c r="A179" s="5" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B179" s="30" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C179" s="27" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="D179" s="8" t="s">
         <v>76</v>
@@ -13484,10 +13487,10 @@
         <v>117</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="G179" s="11" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H179" s="12" t="b">
         <v>0</v>
@@ -13515,13 +13518,13 @@
     </row>
     <row r="180" customHeight="1" spans="1:18">
       <c r="A180" s="5" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B180" s="30" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C180" s="27" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="D180" s="8" t="s">
         <v>76</v>
@@ -13530,10 +13533,10 @@
         <v>117</v>
       </c>
       <c r="F180" s="8" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="G180" s="11" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H180" s="12" t="b">
         <v>0</v>
@@ -13561,13 +13564,13 @@
     </row>
     <row r="181" customHeight="1" spans="1:18">
       <c r="A181" s="5" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B181" s="30" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C181" s="27" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="D181" s="8" t="s">
         <v>76</v>
@@ -13576,10 +13579,10 @@
         <v>117</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="G181" s="11" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H181" s="12" t="b">
         <v>0</v>
@@ -13607,13 +13610,13 @@
     </row>
     <row r="182" customHeight="1" spans="1:18">
       <c r="A182" s="5" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B182" s="30" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C182" s="27" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="D182" s="8" t="s">
         <v>76</v>
@@ -13622,10 +13625,10 @@
         <v>117</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="G182" s="11" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H182" s="12" t="b">
         <v>0</v>
@@ -13653,13 +13656,13 @@
     </row>
     <row r="183" customHeight="1" spans="1:18">
       <c r="A183" s="5" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B183" s="27" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C183" s="27" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="D183" s="8" t="s">
         <v>82</v>
@@ -13671,7 +13674,7 @@
         <v>209</v>
       </c>
       <c r="G183" s="11" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H183" s="12" t="b">
         <v>0</v>
@@ -13680,19 +13683,19 @@
         <v>0</v>
       </c>
       <c r="J183" s="8" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="K183" s="8" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="L183" s="8" t="s">
         <v>279</v>
       </c>
       <c r="M183" s="16" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="N183" s="17" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="O183" s="8" t="s">
         <v>125</v>
@@ -13707,13 +13710,13 @@
     </row>
     <row r="184" customHeight="1" spans="1:18">
       <c r="A184" s="5" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B184" s="27" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C184" s="27" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D184" s="8" t="s">
         <v>82</v>
@@ -13725,7 +13728,7 @@
         <v>209</v>
       </c>
       <c r="G184" s="11" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H184" s="12" t="b">
         <v>0</v>
@@ -13734,19 +13737,19 @@
         <v>0</v>
       </c>
       <c r="J184" s="8" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="K184" s="8" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="L184" s="8" t="s">
         <v>279</v>
       </c>
       <c r="M184" s="16" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="N184" s="17" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="O184" s="8" t="s">
         <v>125</v>
@@ -13761,13 +13764,13 @@
     </row>
     <row r="185" customHeight="1" spans="1:18">
       <c r="A185" s="5" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B185" s="32" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C185" s="27" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D185" s="8" t="s">
         <v>82</v>
@@ -13779,7 +13782,7 @@
         <v>209</v>
       </c>
       <c r="G185" s="11" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H185" s="12" t="b">
         <v>0</v>
@@ -13788,19 +13791,19 @@
         <v>0</v>
       </c>
       <c r="J185" s="8" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="K185" s="8" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="L185" s="8" t="s">
         <v>279</v>
       </c>
       <c r="M185" s="16" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="N185" s="17" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="O185" s="8" t="s">
         <v>125</v>
@@ -13815,13 +13818,13 @@
     </row>
     <row r="186" customHeight="1" spans="1:18">
       <c r="A186" s="5" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B186" s="27" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C186" s="27" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D186" s="8" t="s">
         <v>82</v>
@@ -13833,7 +13836,7 @@
         <v>209</v>
       </c>
       <c r="G186" s="11" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H186" s="12" t="b">
         <v>0</v>
@@ -13842,19 +13845,19 @@
         <v>0</v>
       </c>
       <c r="J186" s="8" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="K186" s="8" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="L186" s="8" t="s">
         <v>279</v>
       </c>
       <c r="M186" s="16" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="N186" s="17" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="O186" s="8" t="s">
         <v>125</v>
@@ -13869,13 +13872,13 @@
     </row>
     <row r="187" customHeight="1" spans="1:18">
       <c r="A187" s="5" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B187" s="27" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C187" s="27" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D187" s="27" t="s">
         <v>82</v>
@@ -13887,7 +13890,7 @@
         <v>209</v>
       </c>
       <c r="G187" s="27" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H187" s="20" t="b">
         <v>0</v>
@@ -13896,19 +13899,19 @@
         <v>0</v>
       </c>
       <c r="J187" s="27" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="K187" s="8" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="L187" s="27" t="s">
         <v>279</v>
       </c>
       <c r="M187" s="16" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="N187" s="17" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="O187" s="27" t="s">
         <v>125</v>
@@ -13923,13 +13926,13 @@
     </row>
     <row r="188" customHeight="1" spans="1:18">
       <c r="A188" s="5" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B188" s="27" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C188" s="27" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D188" s="8" t="s">
         <v>85</v>
@@ -13941,7 +13944,7 @@
         <v>253</v>
       </c>
       <c r="G188" s="27" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H188" s="20" t="b">
         <v>0</v>
@@ -13950,7 +13953,7 @@
         <v>0</v>
       </c>
       <c r="J188" s="27" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="K188" s="8"/>
       <c r="L188" s="8"/>
@@ -13969,13 +13972,13 @@
     </row>
     <row r="189" customHeight="1" spans="1:18">
       <c r="A189" s="5" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B189" s="27" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C189" s="27" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D189" s="8" t="s">
         <v>85</v>
@@ -13987,7 +13990,7 @@
         <v>267</v>
       </c>
       <c r="G189" s="27" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="H189" s="20" t="b">
         <v>0</v>
@@ -13996,7 +13999,7 @@
         <v>0</v>
       </c>
       <c r="J189" s="27" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="K189" s="8"/>
       <c r="L189" s="8"/>
@@ -14015,13 +14018,13 @@
     </row>
     <row r="190" customHeight="1" spans="1:18">
       <c r="A190" s="5" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B190" s="27" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C190" s="27" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D190" s="8" t="s">
         <v>89</v>
@@ -14033,7 +14036,7 @@
         <v>253</v>
       </c>
       <c r="G190" s="27" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="H190" s="20" t="b">
         <v>0</v>
@@ -14042,7 +14045,7 @@
         <v>0</v>
       </c>
       <c r="J190" s="27" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="K190" s="8"/>
       <c r="L190" s="8"/>
@@ -14061,13 +14064,13 @@
     </row>
     <row r="191" customHeight="1" spans="1:18">
       <c r="A191" s="5" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B191" s="27" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C191" s="27" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D191" s="8" t="s">
         <v>89</v>
@@ -14079,7 +14082,7 @@
         <v>253</v>
       </c>
       <c r="G191" s="27" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="H191" s="20" t="b">
         <v>0</v>
@@ -14088,7 +14091,7 @@
         <v>0</v>
       </c>
       <c r="J191" s="27" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="K191" s="8"/>
       <c r="L191" s="8"/>
@@ -14107,13 +14110,13 @@
     </row>
     <row r="192" customHeight="1" spans="1:18">
       <c r="A192" s="5" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B192" s="27" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C192" s="27" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="D192" s="8" t="s">
         <v>89</v>
@@ -14125,7 +14128,7 @@
         <v>253</v>
       </c>
       <c r="G192" s="27" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="H192" s="20" t="b">
         <v>0</v>
@@ -14134,7 +14137,7 @@
         <v>0</v>
       </c>
       <c r="J192" s="27" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="K192" s="8"/>
       <c r="L192" s="8"/>
@@ -14153,13 +14156,13 @@
     </row>
     <row r="193" customHeight="1" spans="1:18">
       <c r="A193" s="5" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B193" s="27" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C193" s="27" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="D193" s="8" t="s">
         <v>89</v>
@@ -14171,7 +14174,7 @@
         <v>315</v>
       </c>
       <c r="G193" s="27" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="H193" s="20" t="b">
         <v>0</v>
@@ -14180,7 +14183,7 @@
         <v>0</v>
       </c>
       <c r="J193" s="27" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="K193" s="8"/>
       <c r="L193" s="8"/>
@@ -14199,13 +14202,13 @@
     </row>
     <row r="194" customHeight="1" spans="1:18">
       <c r="A194" s="5" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B194" s="27" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C194" s="27" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D194" s="8" t="s">
         <v>96</v>
@@ -14226,11 +14229,11 @@
         <v>0</v>
       </c>
       <c r="J194" s="8" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="K194" s="8"/>
       <c r="L194" s="34" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="M194" s="16"/>
       <c r="N194" s="17"/>
@@ -14247,13 +14250,13 @@
     </row>
     <row r="195" customHeight="1" spans="1:18">
       <c r="A195" s="5" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B195" s="27" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C195" s="27" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D195" s="8" t="s">
         <v>96</v>
@@ -14274,7 +14277,7 @@
         <v>0</v>
       </c>
       <c r="J195" s="8" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="K195" s="8"/>
       <c r="L195" s="8"/>
@@ -14293,13 +14296,13 @@
     </row>
     <row r="196" customHeight="1" spans="1:18">
       <c r="A196" s="5" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B196" s="34" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C196" s="27" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="D196" s="8" t="s">
         <v>96</v>
@@ -14320,7 +14323,7 @@
         <v>0</v>
       </c>
       <c r="J196" s="8" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="K196" s="8"/>
       <c r="L196" s="8"/>
@@ -14339,13 +14342,13 @@
     </row>
     <row r="197" customHeight="1" spans="1:18">
       <c r="A197" s="5" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B197" s="27" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C197" s="27" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D197" s="8" t="s">
         <v>96</v>
@@ -14366,7 +14369,7 @@
         <v>0</v>
       </c>
       <c r="J197" s="8" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="K197" s="8"/>
       <c r="L197" s="8"/>
@@ -14385,13 +14388,13 @@
     </row>
     <row r="198" customHeight="1" spans="1:18">
       <c r="A198" s="5" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B198" s="27" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C198" s="27" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D198" s="8" t="s">
         <v>96</v>
@@ -14412,7 +14415,7 @@
         <v>0</v>
       </c>
       <c r="J198" s="8" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="K198" s="8"/>
       <c r="L198" s="8"/>

--- a/data/menu_dinner.xlsx
+++ b/data/menu_dinner.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="11020" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="25600" windowHeight="11020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885">
   <si>
     <t>id</t>
   </si>
@@ -312,27 +312,60 @@
     <t>withIce</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>RT Filet mignon</t>
+  </si>
+  <si>
+    <t>RT招牌菲力牛排</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>RMB</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>168/份</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>images/product/food/牛排.jpg</t>
+  </si>
+  <si>
+    <t>230g+限量</t>
+  </si>
+  <si>
+    <t>Steak/Corn/Broccoli/Finger radish/Potato fillet</t>
+  </si>
+  <si>
+    <t>牛排/玉米/西兰花/手指萝卜/土豆角</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>FALE</t>
+  </si>
+  <si>
     <t>Pan fried Norwegian Salmon</t>
   </si>
   <si>
     <t>香煎挪威三文鱼</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>RMB</t>
-  </si>
-  <si>
     <t>258</t>
   </si>
   <si>
     <t>258/份</t>
   </si>
   <si>
-    <t>food</t>
-  </si>
-  <si>
     <t>images/product/food/香煎三文鱼.jpg</t>
   </si>
   <si>
@@ -343,39 +376,6 @@
   </si>
   <si>
     <t>三文鱼排/蘑菇/培根芦笋卷/彩椒/特制蘸酱</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>FALE</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>RT Filet mignon</t>
-  </si>
-  <si>
-    <t>RT招牌菲力牛排</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>168/份</t>
-  </si>
-  <si>
-    <t>images/product/food/牛排.jpg</t>
-  </si>
-  <si>
-    <t>230g+限量</t>
-  </si>
-  <si>
-    <t>Steak/Corn/Broccoli/Finger radish/Potato fillet</t>
-  </si>
-  <si>
-    <t>牛排/玉米/西兰花/手指萝卜/土豆角</t>
   </si>
   <si>
     <t>Fried lamb chops</t>
@@ -2511,24 +2511,6 @@
   </si>
   <si>
     <t>茉莉花茶/新鲜芭乐汁/柠檬汁</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>Hey !</t>
-  </si>
-  <si>
-    <t>嘿！</t>
-  </si>
-  <si>
-    <t>images/product/Mocktail/Hey_！.png</t>
-  </si>
-  <si>
-    <t>Oolong tea/Lemon juice/Apple juice/Brown sugar</t>
-  </si>
-  <si>
-    <t>乌龙茶/柠檬汁/苹果汁/红糖蜜</t>
   </si>
   <si>
     <t>162</t>
@@ -3790,8 +3772,8 @@
   <sheetPr/>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A26" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -4457,10 +4439,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:BD219"/>
+  <dimension ref="A1:BD218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I16" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -4542,25 +4524,25 @@
     </row>
     <row r="2" customHeight="1" spans="1:18">
       <c r="A2" s="5" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H2" s="10" t="b">
         <v>1</v>
@@ -4569,34 +4551,34 @@
         <v>1</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R2" s="5"/>
     </row>
     <row r="3" customHeight="1" spans="1:18">
       <c r="A3" s="5" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>112</v>
@@ -4605,10 +4587,10 @@
         <v>113</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>114</v>
@@ -4623,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>116</v>
@@ -4638,13 +4620,13 @@
         <v>119</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R3" s="5"/>
     </row>
@@ -4659,10 +4641,10 @@
         <v>121</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>122</v>
@@ -4677,7 +4659,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>124</v>
@@ -4692,13 +4674,13 @@
         <v>127</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R4" s="5"/>
     </row>
@@ -4713,10 +4695,10 @@
         <v>129</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>130</v>
@@ -4731,7 +4713,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>132</v>
@@ -4747,10 +4729,10 @@
         <v>31</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R5" s="5"/>
     </row>
@@ -4765,10 +4747,10 @@
         <v>137</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>138</v>
@@ -4783,7 +4765,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>140</v>
@@ -4799,10 +4781,10 @@
         <v>71</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R6" s="5"/>
     </row>
@@ -4817,10 +4799,10 @@
         <v>145</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>146</v>
@@ -4835,7 +4817,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>148</v>
@@ -4848,13 +4830,13 @@
         <v>150</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R7" s="5"/>
     </row>
@@ -4869,10 +4851,10 @@
         <v>153</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>154</v>
@@ -4887,7 +4869,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>156</v>
@@ -4900,13 +4882,13 @@
         <v>158</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R8" s="5"/>
     </row>
@@ -4921,10 +4903,10 @@
         <v>161</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>154</v>
@@ -4939,7 +4921,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>162</v>
@@ -4952,13 +4934,13 @@
         <v>164</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R9" s="5"/>
     </row>
@@ -4973,10 +4955,10 @@
         <v>167</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>138</v>
@@ -4991,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>168</v>
@@ -5004,13 +4986,13 @@
         <v>170</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R10" s="5"/>
     </row>
@@ -5025,10 +5007,10 @@
         <v>173</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>154</v>
@@ -5043,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>174</v>
@@ -5056,19 +5038,19 @@
         <v>176</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R11" s="5"/>
     </row>
     <row r="12" customHeight="1" spans="1:18">
       <c r="A12" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>177</v>
@@ -5080,7 +5062,7 @@
         <v>179</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>154</v>
@@ -5095,7 +5077,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>180</v>
@@ -5110,13 +5092,13 @@
         <v>183</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R12" s="10"/>
     </row>
@@ -5134,7 +5116,7 @@
         <v>179</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>186</v>
@@ -5149,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>188</v>
@@ -5162,13 +5144,13 @@
         <v>190</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R13" s="8"/>
       <c r="S13" s="18"/>
@@ -5196,7 +5178,7 @@
         <v>179</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>194</v>
@@ -5211,7 +5193,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>196</v>
@@ -5227,10 +5209,10 @@
         <v>1</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R14" s="8"/>
       <c r="S14" s="18"/>
@@ -5257,7 +5239,7 @@
         <v>179</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>154</v>
@@ -5272,7 +5254,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>200</v>
@@ -5285,13 +5267,13 @@
         <v>202</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q15" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R15" s="8"/>
       <c r="S15" s="18"/>
@@ -5347,7 +5329,7 @@
         <v>179</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>194</v>
@@ -5362,7 +5344,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>206</v>
@@ -5375,13 +5357,13 @@
         <v>208</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R16" s="8"/>
       <c r="S16" s="18"/>
@@ -5414,7 +5396,7 @@
         <v>179</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>212</v>
@@ -5429,7 +5411,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="6"/>
@@ -5440,13 +5422,13 @@
         <v>215</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R17" s="5"/>
     </row>
@@ -5464,7 +5446,7 @@
         <v>191</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>219</v>
@@ -5479,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>221</v>
@@ -5492,13 +5474,13 @@
         <v>223</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q18" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R18" s="8"/>
     </row>
@@ -5516,7 +5498,7 @@
         <v>191</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>194</v>
@@ -5531,7 +5513,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>227</v>
@@ -5544,13 +5526,13 @@
         <v>229</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R19" s="8"/>
     </row>
@@ -5568,7 +5550,7 @@
         <v>18</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>233</v>
@@ -5583,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>235</v>
@@ -5596,13 +5578,13 @@
         <v>237</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q20" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R20" s="5"/>
     </row>
@@ -5620,7 +5602,7 @@
         <v>18</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>241</v>
@@ -5635,7 +5617,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>243</v>
@@ -5648,13 +5630,13 @@
         <v>245</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q21" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R21" s="5"/>
     </row>
@@ -5672,7 +5654,7 @@
         <v>18</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>154</v>
@@ -5687,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>249</v>
@@ -5700,13 +5682,13 @@
         <v>251</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q22" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R22" s="5"/>
     </row>
@@ -5724,7 +5706,7 @@
         <v>18</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>219</v>
@@ -5739,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>255</v>
@@ -5752,13 +5734,13 @@
         <v>257</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q23" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R23" s="5"/>
     </row>
@@ -5776,7 +5758,7 @@
         <v>246</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>241</v>
@@ -5806,7 +5788,7 @@
         <v>266</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P24" s="8" t="s">
         <v>171</v>
@@ -5830,7 +5812,7 @@
         <v>246</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>241</v>
@@ -5860,7 +5842,7 @@
         <v>272</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P25" s="8" t="s">
         <v>171</v>
@@ -5884,7 +5866,7 @@
         <v>246</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>241</v>
@@ -5914,7 +5896,7 @@
         <v>278</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P26" s="8" t="s">
         <v>238</v>
@@ -5938,7 +5920,7 @@
         <v>246</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>241</v>
@@ -5968,7 +5950,7 @@
         <v>285</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P27" s="8" t="s">
         <v>171</v>
@@ -5992,7 +5974,7 @@
         <v>246</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>241</v>
@@ -6022,7 +6004,7 @@
         <v>291</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P28" s="8" t="s">
         <v>171</v>
@@ -6046,7 +6028,7 @@
         <v>246</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>241</v>
@@ -6076,7 +6058,7 @@
         <v>278</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P29" s="8" t="s">
         <v>273</v>
@@ -6100,7 +6082,7 @@
         <v>246</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>241</v>
@@ -6130,13 +6112,13 @@
         <v>301</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P30" s="8" t="s">
         <v>302</v>
       </c>
       <c r="Q30" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R30" s="5"/>
     </row>
@@ -6154,7 +6136,7 @@
         <v>246</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>306</v>
@@ -6184,7 +6166,7 @@
         <v>311</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P31" s="8" t="s">
         <v>302</v>
@@ -6208,7 +6190,7 @@
         <v>246</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>241</v>
@@ -6238,7 +6220,7 @@
         <v>316</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P32" s="8" t="s">
         <v>303</v>
@@ -6262,7 +6244,7 @@
         <v>246</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>241</v>
@@ -6292,7 +6274,7 @@
         <v>321</v>
       </c>
       <c r="O33" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P33" s="8">
         <v>35</v>
@@ -6316,7 +6298,7 @@
         <v>252</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>324</v>
@@ -6344,13 +6326,13 @@
         <v>326</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P34" s="8" t="s">
         <v>302</v>
       </c>
       <c r="Q34" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R34" s="5"/>
     </row>
@@ -6368,7 +6350,7 @@
         <v>252</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>241</v>
@@ -6396,7 +6378,7 @@
         <v>332</v>
       </c>
       <c r="O35" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P35" s="8" t="s">
         <v>303</v>
@@ -6420,7 +6402,7 @@
         <v>252</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>336</v>
@@ -6448,7 +6430,7 @@
         <v>339</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P36" s="8" t="s">
         <v>203</v>
@@ -6472,7 +6454,7 @@
         <v>252</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>241</v>
@@ -6500,7 +6482,7 @@
         <v>344</v>
       </c>
       <c r="O37" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P37" s="8" t="s">
         <v>273</v>
@@ -6524,7 +6506,7 @@
         <v>252</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>348</v>
@@ -6552,7 +6534,7 @@
         <v>350</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P38" s="8" t="s">
         <v>273</v>
@@ -6576,7 +6558,7 @@
         <v>252</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>241</v>
@@ -6604,13 +6586,13 @@
         <v>355</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P39" s="8">
         <v>35</v>
       </c>
       <c r="Q39" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R39" s="5"/>
     </row>
@@ -6628,7 +6610,7 @@
         <v>252</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>348</v>
@@ -6656,7 +6638,7 @@
         <v>360</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P40" s="8" t="s">
         <v>238</v>
@@ -6680,7 +6662,7 @@
         <v>252</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>336</v>
@@ -6708,7 +6690,7 @@
         <v>365</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P41" s="8" t="s">
         <v>203</v>
@@ -6732,7 +6714,7 @@
         <v>252</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>348</v>
@@ -6760,7 +6742,7 @@
         <v>371</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P42" s="8" t="s">
         <v>273</v>
@@ -6784,7 +6766,7 @@
         <v>252</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>374</v>
@@ -6812,7 +6794,7 @@
         <v>376</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P43" s="8" t="s">
         <v>377</v>
@@ -6836,7 +6818,7 @@
         <v>252</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>241</v>
@@ -6864,7 +6846,7 @@
         <v>382</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P44" s="8" t="s">
         <v>303</v>
@@ -6888,7 +6870,7 @@
         <v>252</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>241</v>
@@ -6916,7 +6898,7 @@
         <v>388</v>
       </c>
       <c r="O45" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P45" s="8" t="s">
         <v>238</v>
@@ -6940,7 +6922,7 @@
         <v>252</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>241</v>
@@ -6968,7 +6950,7 @@
         <v>393</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P46" s="8" t="s">
         <v>273</v>
@@ -6992,7 +6974,7 @@
         <v>252</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>324</v>
@@ -7020,13 +7002,13 @@
         <v>398</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P47" s="8" t="s">
         <v>203</v>
       </c>
       <c r="Q47" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R47" s="5"/>
     </row>
@@ -7044,7 +7026,7 @@
         <v>252</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>241</v>
@@ -7072,7 +7054,7 @@
         <v>404</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P48" s="8" t="s">
         <v>273</v>
@@ -7096,7 +7078,7 @@
         <v>252</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>324</v>
@@ -7124,7 +7106,7 @@
         <v>409</v>
       </c>
       <c r="O49" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P49" s="8" t="s">
         <v>203</v>
@@ -7148,7 +7130,7 @@
         <v>252</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>241</v>
@@ -7176,7 +7158,7 @@
         <v>414</v>
       </c>
       <c r="O50" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P50" s="8" t="s">
         <v>303</v>
@@ -7200,7 +7182,7 @@
         <v>252</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>417</v>
@@ -7228,13 +7210,13 @@
         <v>419</v>
       </c>
       <c r="O51" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P51" s="8" t="s">
         <v>273</v>
       </c>
       <c r="Q51" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R51" s="5"/>
     </row>
@@ -7252,7 +7234,7 @@
         <v>252</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>374</v>
@@ -7280,13 +7262,13 @@
         <v>424</v>
       </c>
       <c r="O52" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P52" s="8" t="s">
         <v>303</v>
       </c>
       <c r="Q52" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R52" s="5"/>
     </row>
@@ -7304,7 +7286,7 @@
         <v>427</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>212</v>
@@ -7326,13 +7308,13 @@
       <c r="M53" s="16"/>
       <c r="N53" s="17"/>
       <c r="O53" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P53" s="8" t="s">
         <v>179</v>
       </c>
       <c r="Q53" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R53" s="5"/>
     </row>
@@ -7350,7 +7332,7 @@
         <v>427</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>432</v>
@@ -7372,13 +7354,13 @@
       <c r="M54" s="16"/>
       <c r="N54" s="17"/>
       <c r="O54" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P54" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q54" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R54" s="5"/>
     </row>
@@ -7396,7 +7378,7 @@
         <v>427</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>437</v>
@@ -7418,13 +7400,13 @@
       <c r="M55" s="16"/>
       <c r="N55" s="17"/>
       <c r="O55" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P55" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q55" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R55" s="5"/>
     </row>
@@ -7442,7 +7424,7 @@
         <v>427</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>441</v>
@@ -7464,13 +7446,13 @@
       <c r="M56" s="16"/>
       <c r="N56" s="17"/>
       <c r="O56" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P56" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q56" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R56" s="5"/>
     </row>
@@ -7488,7 +7470,7 @@
         <v>445</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>432</v>
@@ -7510,13 +7492,13 @@
       <c r="M57" s="16"/>
       <c r="N57" s="17"/>
       <c r="O57" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P57" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q57" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R57" s="5"/>
     </row>
@@ -7534,7 +7516,7 @@
         <v>445</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>437</v>
@@ -7556,13 +7538,13 @@
       <c r="M58" s="16"/>
       <c r="N58" s="17"/>
       <c r="O58" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P58" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q58" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R58" s="5"/>
     </row>
@@ -7580,7 +7562,7 @@
         <v>445</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>451</v>
@@ -7602,13 +7584,13 @@
       <c r="M59" s="16"/>
       <c r="N59" s="17"/>
       <c r="O59" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P59" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q59" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R59" s="5"/>
     </row>
@@ -7626,7 +7608,7 @@
         <v>456</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>389</v>
@@ -7648,13 +7630,13 @@
       <c r="M60" s="16"/>
       <c r="N60" s="17"/>
       <c r="O60" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P60" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q60" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R60" s="5"/>
     </row>
@@ -7672,10 +7654,10 @@
         <v>456</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G61" s="11" t="s">
         <v>461</v>
@@ -7694,13 +7676,13 @@
       <c r="M61" s="16"/>
       <c r="N61" s="17"/>
       <c r="O61" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P61" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q61" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R61" s="5"/>
     </row>
@@ -7718,7 +7700,7 @@
         <v>456</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F62" s="8" t="s">
         <v>465</v>
@@ -7740,13 +7722,13 @@
       <c r="M62" s="16"/>
       <c r="N62" s="17"/>
       <c r="O62" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P62" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q62" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R62" s="5"/>
     </row>
@@ -7764,7 +7746,7 @@
         <v>456</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F63" s="8" t="s">
         <v>470</v>
@@ -7786,13 +7768,13 @@
       <c r="M63" s="16"/>
       <c r="N63" s="17"/>
       <c r="O63" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P63" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q63" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R63" s="5"/>
     </row>
@@ -7810,7 +7792,7 @@
         <v>456</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F64" s="8" t="s">
         <v>475</v>
@@ -7832,13 +7814,13 @@
       <c r="M64" s="16"/>
       <c r="N64" s="17"/>
       <c r="O64" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P64" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q64" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R64" s="5"/>
     </row>
@@ -7856,7 +7838,7 @@
         <v>43</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F65" s="25">
         <v>860</v>
@@ -7878,13 +7860,13 @@
       <c r="M65" s="16"/>
       <c r="N65" s="17"/>
       <c r="O65" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P65" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q65" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R65" s="5"/>
     </row>
@@ -7902,7 +7884,7 @@
         <v>43</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F66" s="25">
         <v>960</v>
@@ -7924,13 +7906,13 @@
       <c r="M66" s="16"/>
       <c r="N66" s="17"/>
       <c r="O66" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P66" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q66" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R66" s="5"/>
     </row>
@@ -7948,7 +7930,7 @@
         <v>43</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F67" s="25">
         <v>860</v>
@@ -7970,13 +7952,13 @@
       <c r="M67" s="16"/>
       <c r="N67" s="17"/>
       <c r="O67" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P67" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q67" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R67" s="16"/>
     </row>
@@ -7994,7 +7976,7 @@
         <v>43</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F68" s="25">
         <v>1080</v>
@@ -8016,13 +7998,13 @@
       <c r="M68" s="16"/>
       <c r="N68" s="17"/>
       <c r="O68" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P68" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q68" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R68" s="16"/>
     </row>
@@ -8040,7 +8022,7 @@
         <v>43</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F69" s="25">
         <v>1180</v>
@@ -8062,13 +8044,13 @@
       <c r="M69" s="16"/>
       <c r="N69" s="17"/>
       <c r="O69" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P69" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q69" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R69" s="16"/>
     </row>
@@ -8086,7 +8068,7 @@
         <v>43</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F70" s="25">
         <v>1080</v>
@@ -8108,13 +8090,13 @@
       <c r="M70" s="16"/>
       <c r="N70" s="17"/>
       <c r="O70" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P70" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q70" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R70" s="16"/>
     </row>
@@ -8132,7 +8114,7 @@
         <v>43</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F71" s="25">
         <v>1100</v>
@@ -8154,13 +8136,13 @@
       <c r="M71" s="16"/>
       <c r="N71" s="17"/>
       <c r="O71" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P71" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q71" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R71" s="16"/>
     </row>
@@ -8178,7 +8160,7 @@
         <v>505</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F72" s="25">
         <v>1100</v>
@@ -8200,13 +8182,13 @@
       <c r="M72" s="16"/>
       <c r="N72" s="17"/>
       <c r="O72" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P72" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q72" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R72" s="16"/>
     </row>
@@ -8224,7 +8206,7 @@
         <v>43</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F73" s="25">
         <v>1100</v>
@@ -8246,13 +8228,13 @@
       <c r="M73" s="16"/>
       <c r="N73" s="17"/>
       <c r="O73" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P73" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q73" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R73" s="16"/>
     </row>
@@ -8270,7 +8252,7 @@
         <v>43</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F74" s="25">
         <v>1180</v>
@@ -8292,13 +8274,13 @@
       <c r="M74" s="16"/>
       <c r="N74" s="17"/>
       <c r="O74" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P74" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q74" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R74" s="16"/>
     </row>
@@ -8316,7 +8298,7 @@
         <v>43</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F75" s="25">
         <v>880</v>
@@ -8338,13 +8320,13 @@
       <c r="M75" s="16"/>
       <c r="N75" s="17"/>
       <c r="O75" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P75" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q75" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R75" s="16"/>
     </row>
@@ -8362,7 +8344,7 @@
         <v>43</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F76" s="25">
         <v>1280</v>
@@ -8384,13 +8366,13 @@
       <c r="M76" s="16"/>
       <c r="N76" s="17"/>
       <c r="O76" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P76" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q76" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R76" s="16"/>
     </row>
@@ -8408,7 +8390,7 @@
         <v>523</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F77" s="21">
         <v>880</v>
@@ -8430,13 +8412,13 @@
       <c r="M77" s="16"/>
       <c r="N77" s="17"/>
       <c r="O77" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P77" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q77" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R77" s="16"/>
     </row>
@@ -8454,7 +8436,7 @@
         <v>46</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F78" s="21">
         <v>1100</v>
@@ -8476,13 +8458,13 @@
       <c r="M78" s="16"/>
       <c r="N78" s="17"/>
       <c r="O78" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P78" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q78" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R78" s="16"/>
     </row>
@@ -8500,7 +8482,7 @@
         <v>46</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F79" s="21">
         <v>2650</v>
@@ -8522,13 +8504,13 @@
       <c r="M79" s="16"/>
       <c r="N79" s="17"/>
       <c r="O79" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P79" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q79" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R79" s="16"/>
     </row>
@@ -8546,7 +8528,7 @@
         <v>46</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F80" s="21">
         <v>880</v>
@@ -8568,13 +8550,13 @@
       <c r="M80" s="16"/>
       <c r="N80" s="17"/>
       <c r="O80" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P80" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q80" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R80" s="16"/>
     </row>
@@ -8592,7 +8574,7 @@
         <v>46</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F81" s="21">
         <v>1050</v>
@@ -8614,13 +8596,13 @@
       <c r="M81" s="16"/>
       <c r="N81" s="17"/>
       <c r="O81" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P81" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q81" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R81" s="16"/>
     </row>
@@ -8638,7 +8620,7 @@
         <v>46</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F82" s="21">
         <v>880</v>
@@ -8660,13 +8642,13 @@
       <c r="M82" s="16"/>
       <c r="N82" s="17"/>
       <c r="O82" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P82" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q82" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R82" s="16"/>
     </row>
@@ -8684,7 +8666,7 @@
         <v>46</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F83" s="21">
         <v>1700</v>
@@ -8706,13 +8688,13 @@
       <c r="M83" s="16"/>
       <c r="N83" s="17"/>
       <c r="O83" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P83" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q83" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R83" s="16"/>
     </row>
@@ -8730,7 +8712,7 @@
         <v>49</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F84" s="21">
         <v>880</v>
@@ -8752,13 +8734,13 @@
       <c r="M84" s="16"/>
       <c r="N84" s="17"/>
       <c r="O84" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P84" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q84" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R84" s="16"/>
     </row>
@@ -8776,7 +8758,7 @@
         <v>49</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F85" s="21">
         <v>1400</v>
@@ -8798,13 +8780,13 @@
       <c r="M85" s="16"/>
       <c r="N85" s="17"/>
       <c r="O85" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P85" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q85" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R85" s="16"/>
     </row>
@@ -8822,7 +8804,7 @@
         <v>49</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F86" s="21">
         <v>1800</v>
@@ -8844,13 +8826,13 @@
       <c r="M86" s="16"/>
       <c r="N86" s="17"/>
       <c r="O86" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P86" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q86" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R86" s="16"/>
     </row>
@@ -8868,7 +8850,7 @@
         <v>49</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F87" s="21">
         <v>1080</v>
@@ -8890,13 +8872,13 @@
       <c r="M87" s="16"/>
       <c r="N87" s="17"/>
       <c r="O87" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P87" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q87" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R87" s="16"/>
     </row>
@@ -8914,7 +8896,7 @@
         <v>49</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F88" s="21">
         <v>1550</v>
@@ -8936,13 +8918,13 @@
       <c r="M88" s="16"/>
       <c r="N88" s="17"/>
       <c r="O88" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P88" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q88" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R88" s="16"/>
     </row>
@@ -8960,7 +8942,7 @@
         <v>49</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F89" s="21">
         <v>2050</v>
@@ -8982,13 +8964,13 @@
       <c r="M89" s="16"/>
       <c r="N89" s="17"/>
       <c r="O89" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P89" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q89" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R89" s="16"/>
     </row>
@@ -9006,7 +8988,7 @@
         <v>49</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F90" s="21">
         <v>2850</v>
@@ -9028,13 +9010,13 @@
       <c r="M90" s="16"/>
       <c r="N90" s="17"/>
       <c r="O90" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P90" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q90" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R90" s="16"/>
     </row>
@@ -9052,7 +9034,7 @@
         <v>49</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F91" s="21">
         <v>900</v>
@@ -9074,13 +9056,13 @@
       <c r="M91" s="16"/>
       <c r="N91" s="17"/>
       <c r="O91" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P91" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q91" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R91" s="16"/>
     </row>
@@ -9098,7 +9080,7 @@
         <v>49</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F92" s="21">
         <v>1650</v>
@@ -9120,13 +9102,13 @@
       <c r="M92" s="16"/>
       <c r="N92" s="17"/>
       <c r="O92" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P92" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q92" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R92" s="16"/>
     </row>
@@ -9144,7 +9126,7 @@
         <v>49</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F93" s="21">
         <v>2350</v>
@@ -9166,13 +9148,13 @@
       <c r="M93" s="16"/>
       <c r="N93" s="17"/>
       <c r="O93" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P93" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q93" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R93" s="16"/>
     </row>
@@ -9190,7 +9172,7 @@
         <v>49</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F94" s="21">
         <v>2180</v>
@@ -9212,13 +9194,13 @@
       <c r="M94" s="16"/>
       <c r="N94" s="17"/>
       <c r="O94" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P94" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q94" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R94" s="16"/>
     </row>
@@ -9236,7 +9218,7 @@
         <v>49</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F95" s="21">
         <v>4980</v>
@@ -9258,13 +9240,13 @@
       <c r="M95" s="16"/>
       <c r="N95" s="17"/>
       <c r="O95" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P95" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q95" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R95" s="16"/>
     </row>
@@ -9282,7 +9264,7 @@
         <v>49</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F96" s="21" t="s">
         <v>595</v>
@@ -9304,13 +9286,13 @@
       <c r="M96" s="16"/>
       <c r="N96" s="17"/>
       <c r="O96" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P96" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q96" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R96" s="16"/>
     </row>
@@ -9328,7 +9310,7 @@
         <v>49</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F97" s="21">
         <v>2080</v>
@@ -9350,13 +9332,13 @@
       <c r="M97" s="16"/>
       <c r="N97" s="17"/>
       <c r="O97" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P97" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q97" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R97" s="16"/>
     </row>
@@ -9374,7 +9356,7 @@
         <v>49</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F98" s="21">
         <v>4880</v>
@@ -9396,13 +9378,13 @@
       <c r="M98" s="16"/>
       <c r="N98" s="17"/>
       <c r="O98" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P98" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q98" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R98" s="16"/>
     </row>
@@ -9420,7 +9402,7 @@
         <v>49</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F99" s="21" t="s">
         <v>595</v>
@@ -9442,13 +9424,13 @@
       <c r="M99" s="16"/>
       <c r="N99" s="17"/>
       <c r="O99" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P99" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q99" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R99" s="16"/>
     </row>
@@ -9466,7 +9448,7 @@
         <v>49</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F100" s="21">
         <v>2180</v>
@@ -9488,13 +9470,13 @@
       <c r="M100" s="16"/>
       <c r="N100" s="17"/>
       <c r="O100" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P100" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q100" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R100" s="16"/>
     </row>
@@ -9512,7 +9494,7 @@
         <v>49</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F101" s="21" t="s">
         <v>595</v>
@@ -9534,13 +9516,13 @@
       <c r="M101" s="16"/>
       <c r="N101" s="17"/>
       <c r="O101" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P101" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q101" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R101" s="16"/>
     </row>
@@ -9558,7 +9540,7 @@
         <v>49</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F102" s="21" t="s">
         <v>595</v>
@@ -9580,13 +9562,13 @@
       <c r="M102" s="16"/>
       <c r="N102" s="17"/>
       <c r="O102" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P102" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q102" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R102" s="16"/>
     </row>
@@ -9604,7 +9586,7 @@
         <v>49</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F103" s="21">
         <v>2080</v>
@@ -9626,13 +9608,13 @@
       <c r="M103" s="16"/>
       <c r="N103" s="17"/>
       <c r="O103" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P103" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q103" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R103" s="16"/>
     </row>
@@ -9650,7 +9632,7 @@
         <v>49</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F104" s="21" t="s">
         <v>595</v>
@@ -9672,13 +9654,13 @@
       <c r="M104" s="16"/>
       <c r="N104" s="17"/>
       <c r="O104" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P104" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q104" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R104" s="16"/>
     </row>
@@ -9696,7 +9678,7 @@
         <v>626</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F105" s="21">
         <v>1080</v>
@@ -9718,13 +9700,13 @@
       <c r="M105" s="16"/>
       <c r="N105" s="17"/>
       <c r="O105" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P105" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q105" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R105" s="16"/>
     </row>
@@ -9742,7 +9724,7 @@
         <v>52</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F106" s="21">
         <v>980</v>
@@ -9764,13 +9746,13 @@
       <c r="M106" s="16"/>
       <c r="N106" s="17"/>
       <c r="O106" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P106" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q106" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R106" s="16"/>
     </row>
@@ -9788,7 +9770,7 @@
         <v>52</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F107" s="21">
         <v>1180</v>
@@ -9810,13 +9792,13 @@
       <c r="M107" s="16"/>
       <c r="N107" s="17"/>
       <c r="O107" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P107" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q107" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R107" s="16"/>
     </row>
@@ -9834,7 +9816,7 @@
         <v>52</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F108" s="21">
         <v>1280</v>
@@ -9856,13 +9838,13 @@
       <c r="M108" s="16"/>
       <c r="N108" s="17"/>
       <c r="O108" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P108" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q108" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R108" s="16"/>
     </row>
@@ -9880,7 +9862,7 @@
         <v>52</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F109" s="21">
         <v>2400</v>
@@ -9902,13 +9884,13 @@
       <c r="M109" s="16"/>
       <c r="N109" s="17"/>
       <c r="O109" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P109" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q109" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R109" s="16"/>
     </row>
@@ -9926,7 +9908,7 @@
         <v>52</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F110" s="21">
         <v>3880</v>
@@ -9948,13 +9930,13 @@
       <c r="M110" s="16"/>
       <c r="N110" s="17"/>
       <c r="O110" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P110" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q110" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R110" s="16"/>
     </row>
@@ -9972,7 +9954,7 @@
         <v>52</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F111" s="21">
         <v>980</v>
@@ -9994,13 +9976,13 @@
       <c r="M111" s="16"/>
       <c r="N111" s="17"/>
       <c r="O111" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P111" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q111" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R111" s="16"/>
     </row>
@@ -10018,7 +10000,7 @@
         <v>52</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F112" s="21">
         <v>1180</v>
@@ -10040,13 +10022,13 @@
       <c r="M112" s="16"/>
       <c r="N112" s="17"/>
       <c r="O112" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P112" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q112" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R112" s="16"/>
     </row>
@@ -10064,7 +10046,7 @@
         <v>52</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F113" s="21">
         <v>880</v>
@@ -10086,13 +10068,13 @@
       <c r="M113" s="16"/>
       <c r="N113" s="17"/>
       <c r="O113" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P113" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q113" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R113" s="16"/>
     </row>
@@ -10110,7 +10092,7 @@
         <v>52</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F114" s="21">
         <v>1480</v>
@@ -10132,13 +10114,13 @@
       <c r="M114" s="16"/>
       <c r="N114" s="17"/>
       <c r="O114" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P114" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q114" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R114" s="16"/>
     </row>
@@ -10156,7 +10138,7 @@
         <v>52</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F115" s="21">
         <v>3680</v>
@@ -10178,13 +10160,13 @@
       <c r="M115" s="16"/>
       <c r="N115" s="17"/>
       <c r="O115" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P115" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q115" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R115" s="16"/>
     </row>
@@ -10202,7 +10184,7 @@
         <v>52</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F116" s="21">
         <v>1180</v>
@@ -10224,13 +10206,13 @@
       <c r="M116" s="16"/>
       <c r="N116" s="17"/>
       <c r="O116" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P116" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q116" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R116" s="16"/>
     </row>
@@ -10248,7 +10230,7 @@
         <v>52</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F117" s="21">
         <v>2380</v>
@@ -10270,13 +10252,13 @@
       <c r="M117" s="16"/>
       <c r="N117" s="17"/>
       <c r="O117" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P117" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q117" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R117" s="16"/>
     </row>
@@ -10294,7 +10276,7 @@
         <v>55</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F118" s="21">
         <v>1380</v>
@@ -10316,13 +10298,13 @@
       <c r="M118" s="16"/>
       <c r="N118" s="17"/>
       <c r="O118" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P118" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q118" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R118" s="16"/>
     </row>
@@ -10340,7 +10322,7 @@
         <v>55</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F119" s="21">
         <v>1180</v>
@@ -10362,13 +10344,13 @@
       <c r="M119" s="16"/>
       <c r="N119" s="17"/>
       <c r="O119" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P119" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q119" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R119" s="16"/>
     </row>
@@ -10386,7 +10368,7 @@
         <v>55</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F120" s="21">
         <v>1680</v>
@@ -10408,13 +10390,13 @@
       <c r="M120" s="16"/>
       <c r="N120" s="17"/>
       <c r="O120" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P120" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q120" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R120" s="16"/>
     </row>
@@ -10432,7 +10414,7 @@
         <v>55</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F121" s="21">
         <v>2180</v>
@@ -10454,13 +10436,13 @@
       <c r="M121" s="16"/>
       <c r="N121" s="17"/>
       <c r="O121" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P121" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q121" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R121" s="16"/>
     </row>
@@ -10478,7 +10460,7 @@
         <v>55</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F122" s="21">
         <v>980</v>
@@ -10500,13 +10482,13 @@
       <c r="M122" s="16"/>
       <c r="N122" s="17"/>
       <c r="O122" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P122" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q122" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R122" s="16"/>
     </row>
@@ -10524,7 +10506,7 @@
         <v>55</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F123" s="21">
         <v>1280</v>
@@ -10546,13 +10528,13 @@
       <c r="M123" s="16"/>
       <c r="N123" s="17"/>
       <c r="O123" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P123" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q123" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R123" s="16"/>
     </row>
@@ -10570,7 +10552,7 @@
         <v>55</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F124" s="21">
         <v>1080</v>
@@ -10592,13 +10574,13 @@
       <c r="M124" s="16"/>
       <c r="N124" s="17"/>
       <c r="O124" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P124" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q124" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R124" s="16"/>
     </row>
@@ -10616,7 +10598,7 @@
         <v>55</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F125" s="21">
         <v>1880</v>
@@ -10638,13 +10620,13 @@
       <c r="M125" s="16"/>
       <c r="N125" s="17"/>
       <c r="O125" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P125" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q125" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R125" s="16"/>
     </row>
@@ -10662,7 +10644,7 @@
         <v>55</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F126" s="21">
         <v>2680</v>
@@ -10684,13 +10666,13 @@
       <c r="M126" s="16"/>
       <c r="N126" s="17"/>
       <c r="O126" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P126" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q126" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R126" s="16"/>
     </row>
@@ -10708,7 +10690,7 @@
         <v>55</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F127" s="21">
         <v>1380</v>
@@ -10730,13 +10712,13 @@
       <c r="M127" s="16"/>
       <c r="N127" s="17"/>
       <c r="O127" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P127" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q127" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R127" s="16"/>
     </row>
@@ -10754,7 +10736,7 @@
         <v>55</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F128" s="21">
         <v>1480</v>
@@ -10776,13 +10758,13 @@
       <c r="M128" s="16"/>
       <c r="N128" s="17"/>
       <c r="O128" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P128" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q128" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R128" s="16"/>
     </row>
@@ -10800,7 +10782,7 @@
         <v>58</v>
       </c>
       <c r="E129" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F129" s="21">
         <v>1580</v>
@@ -10822,13 +10804,13 @@
       <c r="M129" s="16"/>
       <c r="N129" s="17"/>
       <c r="O129" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P129" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q129" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R129" s="16"/>
     </row>
@@ -10846,7 +10828,7 @@
         <v>58</v>
       </c>
       <c r="E130" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F130" s="21">
         <v>880</v>
@@ -10868,13 +10850,13 @@
       <c r="M130" s="16"/>
       <c r="N130" s="17"/>
       <c r="O130" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P130" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q130" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R130" s="16"/>
     </row>
@@ -10892,7 +10874,7 @@
         <v>58</v>
       </c>
       <c r="E131" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F131" s="21">
         <v>1380</v>
@@ -10914,13 +10896,13 @@
       <c r="M131" s="16"/>
       <c r="N131" s="17"/>
       <c r="O131" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P131" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q131" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R131" s="16"/>
     </row>
@@ -10938,7 +10920,7 @@
         <v>58</v>
       </c>
       <c r="E132" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F132" s="21">
         <v>1580</v>
@@ -10960,13 +10942,13 @@
       <c r="M132" s="16"/>
       <c r="N132" s="17"/>
       <c r="O132" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P132" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q132" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R132" s="16"/>
     </row>
@@ -10984,7 +10966,7 @@
         <v>58</v>
       </c>
       <c r="E133" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F133" s="21">
         <v>880</v>
@@ -11006,13 +10988,13 @@
       <c r="M133" s="16"/>
       <c r="N133" s="17"/>
       <c r="O133" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P133" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q133" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R133" s="16"/>
     </row>
@@ -11030,7 +11012,7 @@
         <v>58</v>
       </c>
       <c r="E134" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F134" s="21">
         <v>2380</v>
@@ -11052,13 +11034,13 @@
       <c r="M134" s="16"/>
       <c r="N134" s="17"/>
       <c r="O134" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P134" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q134" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R134" s="16"/>
     </row>
@@ -11076,7 +11058,7 @@
         <v>61</v>
       </c>
       <c r="E135" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F135" s="21">
         <v>880</v>
@@ -11098,13 +11080,13 @@
       <c r="M135" s="16"/>
       <c r="N135" s="17"/>
       <c r="O135" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P135" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q135" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R135" s="16"/>
     </row>
@@ -11122,7 +11104,7 @@
         <v>61</v>
       </c>
       <c r="E136" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F136" s="21">
         <v>780</v>
@@ -11144,13 +11126,13 @@
       <c r="M136" s="16"/>
       <c r="N136" s="17"/>
       <c r="O136" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P136" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q136" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R136" s="16"/>
     </row>
@@ -11168,7 +11150,7 @@
         <v>61</v>
       </c>
       <c r="E137" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F137" s="21">
         <v>780</v>
@@ -11190,13 +11172,13 @@
       <c r="M137" s="16"/>
       <c r="N137" s="17"/>
       <c r="O137" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P137" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q137" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R137" s="16"/>
     </row>
@@ -11214,7 +11196,7 @@
         <v>61</v>
       </c>
       <c r="E138" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F138" s="21">
         <v>880</v>
@@ -11236,13 +11218,13 @@
       <c r="M138" s="16"/>
       <c r="N138" s="17"/>
       <c r="O138" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P138" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q138" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R138" s="16"/>
     </row>
@@ -11260,7 +11242,7 @@
         <v>61</v>
       </c>
       <c r="E139" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F139" s="21">
         <v>1280</v>
@@ -11282,13 +11264,13 @@
       <c r="M139" s="16"/>
       <c r="N139" s="17"/>
       <c r="O139" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P139" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q139" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R139" s="16"/>
     </row>
@@ -11306,7 +11288,7 @@
         <v>61</v>
       </c>
       <c r="E140" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F140" s="21">
         <v>1780</v>
@@ -11328,13 +11310,13 @@
       <c r="M140" s="16"/>
       <c r="N140" s="17"/>
       <c r="O140" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P140" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q140" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R140" s="16"/>
     </row>
@@ -11352,7 +11334,7 @@
         <v>61</v>
       </c>
       <c r="E141" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F141" s="21">
         <v>1180</v>
@@ -11374,13 +11356,13 @@
       <c r="M141" s="16"/>
       <c r="N141" s="17"/>
       <c r="O141" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P141" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q141" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R141" s="16"/>
     </row>
@@ -11398,7 +11380,7 @@
         <v>61</v>
       </c>
       <c r="E142" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F142" s="21">
         <v>1280</v>
@@ -11420,13 +11402,13 @@
       <c r="M142" s="16"/>
       <c r="N142" s="17"/>
       <c r="O142" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P142" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q142" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R142" s="16"/>
     </row>
@@ -11444,7 +11426,7 @@
         <v>61</v>
       </c>
       <c r="E143" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F143" s="21">
         <v>1780</v>
@@ -11466,13 +11448,13 @@
       <c r="M143" s="16"/>
       <c r="N143" s="17"/>
       <c r="O143" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P143" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q143" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R143" s="16"/>
     </row>
@@ -11490,7 +11472,7 @@
         <v>61</v>
       </c>
       <c r="E144" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F144" s="21">
         <v>2480</v>
@@ -11512,13 +11494,13 @@
       <c r="M144" s="16"/>
       <c r="N144" s="17"/>
       <c r="O144" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P144" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q144" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R144" s="16"/>
     </row>
@@ -11536,7 +11518,7 @@
         <v>61</v>
       </c>
       <c r="E145" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F145" s="21">
         <v>1180</v>
@@ -11558,13 +11540,13 @@
       <c r="M145" s="16"/>
       <c r="N145" s="17"/>
       <c r="O145" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P145" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q145" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R145" s="16"/>
     </row>
@@ -11582,7 +11564,7 @@
         <v>61</v>
       </c>
       <c r="E146" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F146" s="21">
         <v>980</v>
@@ -11604,13 +11586,13 @@
       <c r="M146" s="16"/>
       <c r="N146" s="17"/>
       <c r="O146" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P146" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q146" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R146" s="16"/>
     </row>
@@ -11628,7 +11610,7 @@
         <v>61</v>
       </c>
       <c r="E147" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F147" s="21">
         <v>1650</v>
@@ -11650,13 +11632,13 @@
       <c r="M147" s="16"/>
       <c r="N147" s="17"/>
       <c r="O147" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P147" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q147" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R147" s="16"/>
     </row>
@@ -11674,7 +11656,7 @@
         <v>61</v>
       </c>
       <c r="E148" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F148" s="21">
         <v>1100</v>
@@ -11696,13 +11678,13 @@
       <c r="M148" s="16"/>
       <c r="N148" s="17"/>
       <c r="O148" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P148" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q148" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R148" s="16"/>
     </row>
@@ -11720,7 +11702,7 @@
         <v>61</v>
       </c>
       <c r="E149" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F149" s="21">
         <v>980</v>
@@ -11742,13 +11724,13 @@
       <c r="M149" s="16"/>
       <c r="N149" s="17"/>
       <c r="O149" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P149" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q149" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R149" s="16"/>
     </row>
@@ -11766,7 +11748,7 @@
         <v>61</v>
       </c>
       <c r="E150" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F150" s="21">
         <v>1080</v>
@@ -11788,13 +11770,13 @@
       <c r="M150" s="16"/>
       <c r="N150" s="17"/>
       <c r="O150" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P150" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q150" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R150" s="16"/>
     </row>
@@ -11812,7 +11794,7 @@
         <v>61</v>
       </c>
       <c r="E151" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F151" s="21">
         <v>1680</v>
@@ -11834,13 +11816,13 @@
       <c r="M151" s="16"/>
       <c r="N151" s="17"/>
       <c r="O151" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P151" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q151" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R151" s="16"/>
     </row>
@@ -11858,7 +11840,7 @@
         <v>61</v>
       </c>
       <c r="E152" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F152" s="21">
         <v>980</v>
@@ -11880,13 +11862,13 @@
       <c r="M152" s="16"/>
       <c r="N152" s="17"/>
       <c r="O152" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P152" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q152" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R152" s="16"/>
     </row>
@@ -11904,7 +11886,7 @@
         <v>61</v>
       </c>
       <c r="E153" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F153" s="21">
         <v>1080</v>
@@ -11926,13 +11908,13 @@
       <c r="M153" s="16"/>
       <c r="N153" s="17"/>
       <c r="O153" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P153" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q153" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R153" s="16"/>
     </row>
@@ -11950,7 +11932,7 @@
         <v>61</v>
       </c>
       <c r="E154" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F154" s="21">
         <v>1480</v>
@@ -11972,13 +11954,13 @@
       <c r="M154" s="16"/>
       <c r="N154" s="17"/>
       <c r="O154" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P154" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q154" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R154" s="16"/>
     </row>
@@ -11996,7 +11978,7 @@
         <v>61</v>
       </c>
       <c r="E155" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F155" s="21">
         <v>3480</v>
@@ -12018,13 +12000,13 @@
       <c r="M155" s="16"/>
       <c r="N155" s="17"/>
       <c r="O155" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P155" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q155" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R155" s="16"/>
     </row>
@@ -12042,7 +12024,7 @@
         <v>61</v>
       </c>
       <c r="E156" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F156" s="21">
         <v>1280</v>
@@ -12064,13 +12046,13 @@
       <c r="M156" s="16"/>
       <c r="N156" s="17"/>
       <c r="O156" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P156" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q156" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R156" s="16"/>
     </row>
@@ -12088,7 +12070,7 @@
         <v>61</v>
       </c>
       <c r="E157" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F157" s="21">
         <v>1680</v>
@@ -12110,13 +12092,13 @@
       <c r="M157" s="16"/>
       <c r="N157" s="17"/>
       <c r="O157" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P157" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q157" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R157" s="16"/>
     </row>
@@ -12134,7 +12116,7 @@
         <v>61</v>
       </c>
       <c r="E158" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F158" s="21">
         <v>2680</v>
@@ -12156,13 +12138,13 @@
       <c r="M158" s="16"/>
       <c r="N158" s="17"/>
       <c r="O158" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P158" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q158" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R158" s="16"/>
     </row>
@@ -12180,7 +12162,7 @@
         <v>61</v>
       </c>
       <c r="E159" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F159" s="21">
         <v>3680</v>
@@ -12202,13 +12184,13 @@
       <c r="M159" s="16"/>
       <c r="N159" s="17"/>
       <c r="O159" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P159" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q159" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R159" s="16"/>
     </row>
@@ -12226,7 +12208,7 @@
         <v>61</v>
       </c>
       <c r="E160" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F160" s="21">
         <v>1080</v>
@@ -12248,13 +12230,13 @@
       <c r="M160" s="16"/>
       <c r="N160" s="17"/>
       <c r="O160" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P160" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q160" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R160" s="16"/>
     </row>
@@ -12272,7 +12254,7 @@
         <v>67</v>
       </c>
       <c r="E161" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F161" s="8" t="s">
         <v>194</v>
@@ -12302,10 +12284,10 @@
         <v>829</v>
       </c>
       <c r="O161" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P161" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q161" s="20" t="b">
         <v>1</v>
@@ -12316,7 +12298,7 @@
       <c r="A162" s="5" t="s">
         <v>830</v>
       </c>
-      <c r="B162" s="27" t="s">
+      <c r="B162" s="28" t="s">
         <v>831</v>
       </c>
       <c r="C162" s="27" t="s">
@@ -12326,7 +12308,7 @@
         <v>67</v>
       </c>
       <c r="E162" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F162" s="8" t="s">
         <v>194</v>
@@ -12356,10 +12338,10 @@
         <v>835</v>
       </c>
       <c r="O162" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P162" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q162" s="20" t="b">
         <v>1</v>
@@ -12370,7 +12352,7 @@
       <c r="A163" s="5" t="s">
         <v>836</v>
       </c>
-      <c r="B163" s="28" t="s">
+      <c r="B163" s="27" t="s">
         <v>837</v>
       </c>
       <c r="C163" s="27" t="s">
@@ -12380,7 +12362,7 @@
         <v>67</v>
       </c>
       <c r="E163" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F163" s="8" t="s">
         <v>194</v>
@@ -12410,10 +12392,10 @@
         <v>841</v>
       </c>
       <c r="O163" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P163" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q163" s="20" t="b">
         <v>1</v>
@@ -12430,31 +12412,31 @@
       <c r="C164" s="27" t="s">
         <v>844</v>
       </c>
-      <c r="D164" s="8" t="s">
+      <c r="D164" s="27" t="s">
         <v>67</v>
       </c>
       <c r="E164" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="F164" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F164" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="G164" s="11" t="s">
+      <c r="G164" s="27" t="s">
         <v>825</v>
       </c>
-      <c r="H164" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I164" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J164" s="8" t="s">
+      <c r="H164" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I164" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J164" s="27" t="s">
         <v>826</v>
       </c>
       <c r="K164" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="L164" s="8" t="s">
+      <c r="L164" s="27" t="s">
         <v>264</v>
       </c>
       <c r="M164" s="16" t="s">
@@ -12463,14 +12445,14 @@
       <c r="N164" s="17" t="s">
         <v>847</v>
       </c>
-      <c r="O164" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="P164" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q164" s="20" t="b">
-        <v>1</v>
+      <c r="O164" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="P164" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q164" s="31" t="s">
+        <v>111</v>
       </c>
       <c r="R164" s="16"/>
     </row>
@@ -12484,17 +12466,17 @@
       <c r="C165" s="27" t="s">
         <v>850</v>
       </c>
-      <c r="D165" s="27" t="s">
-        <v>67</v>
+      <c r="D165" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="E165" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="F165" s="27" t="s">
-        <v>194</v>
+        <v>102</v>
+      </c>
+      <c r="F165" s="8" t="s">
+        <v>238</v>
       </c>
       <c r="G165" s="27" t="s">
-        <v>825</v>
+        <v>851</v>
       </c>
       <c r="H165" s="20" t="b">
         <v>0</v>
@@ -12505,50 +12487,42 @@
       <c r="J165" s="27" t="s">
         <v>826</v>
       </c>
-      <c r="K165" s="8" t="s">
-        <v>851</v>
-      </c>
-      <c r="L165" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="M165" s="16" t="s">
-        <v>852</v>
-      </c>
-      <c r="N165" s="17" t="s">
-        <v>853</v>
-      </c>
+      <c r="K165" s="8"/>
+      <c r="L165" s="8"/>
+      <c r="M165" s="16"/>
+      <c r="N165" s="17"/>
       <c r="O165" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P165" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q165" s="31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R165" s="16"/>
     </row>
     <row r="166" customHeight="1" spans="1:18">
       <c r="A166" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="B166" s="27" t="s">
+        <v>853</v>
+      </c>
+      <c r="C166" s="27" t="s">
         <v>854</v>
-      </c>
-      <c r="B166" s="27" t="s">
-        <v>855</v>
-      </c>
-      <c r="C166" s="27" t="s">
-        <v>856</v>
       </c>
       <c r="D166" s="8" t="s">
         <v>70</v>
       </c>
       <c r="E166" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="G166" s="27" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="H166" s="20" t="b">
         <v>0</v>
@@ -12564,37 +12538,37 @@
       <c r="M166" s="16"/>
       <c r="N166" s="17"/>
       <c r="O166" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P166" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q166" s="31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R166" s="16"/>
     </row>
     <row r="167" customHeight="1" spans="1:18">
       <c r="A167" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="B167" s="27" t="s">
+        <v>857</v>
+      </c>
+      <c r="C167" s="27" t="s">
         <v>858</v>
       </c>
-      <c r="B167" s="27" t="s">
+      <c r="D167" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E167" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F167" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="G167" s="27" t="s">
         <v>859</v>
-      </c>
-      <c r="C167" s="27" t="s">
-        <v>860</v>
-      </c>
-      <c r="D167" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E167" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="F167" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="G167" s="27" t="s">
-        <v>861</v>
       </c>
       <c r="H167" s="20" t="b">
         <v>0</v>
@@ -12610,37 +12584,37 @@
       <c r="M167" s="16"/>
       <c r="N167" s="17"/>
       <c r="O167" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P167" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q167" s="31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R167" s="16"/>
     </row>
     <row r="168" customHeight="1" spans="1:18">
       <c r="A168" s="5" t="s">
-        <v>862</v>
+        <v>103</v>
       </c>
       <c r="B168" s="27" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C168" s="27" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D168" s="8" t="s">
         <v>74</v>
       </c>
       <c r="E168" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F168" s="27" t="s">
         <v>238</v>
       </c>
       <c r="G168" s="27" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="H168" s="20" t="b">
         <v>0</v>
@@ -12656,37 +12630,37 @@
       <c r="M168" s="16"/>
       <c r="N168" s="17"/>
       <c r="O168" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P168" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q168" s="31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R168" s="16"/>
     </row>
     <row r="169" customHeight="1" spans="1:18">
       <c r="A169" s="5" t="s">
-        <v>114</v>
+        <v>862</v>
       </c>
       <c r="B169" s="27" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C169" s="27" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="D169" s="8" t="s">
         <v>74</v>
       </c>
       <c r="E169" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F169" s="27" t="s">
         <v>238</v>
       </c>
       <c r="G169" s="27" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="H169" s="20" t="b">
         <v>0</v>
@@ -12702,37 +12676,37 @@
       <c r="M169" s="16"/>
       <c r="N169" s="17"/>
       <c r="O169" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P169" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q169" s="31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R169" s="16"/>
     </row>
     <row r="170" customHeight="1" spans="1:18">
       <c r="A170" s="5" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B170" s="27" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C170" s="27" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="D170" s="8" t="s">
         <v>74</v>
       </c>
       <c r="E170" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F170" s="27" t="s">
-        <v>238</v>
+        <v>303</v>
       </c>
       <c r="G170" s="27" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="H170" s="20" t="b">
         <v>0</v>
@@ -12748,77 +12722,79 @@
       <c r="M170" s="16"/>
       <c r="N170" s="17"/>
       <c r="O170" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P170" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q170" s="31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R170" s="16"/>
     </row>
     <row r="171" customHeight="1" spans="1:18">
       <c r="A171" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="B171" s="27" t="s">
+        <v>869</v>
+      </c>
+      <c r="C171" s="27" t="s">
+        <v>870</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E171" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F171" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="G171" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="H171" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I171" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J171" s="8" t="s">
         <v>871</v>
       </c>
-      <c r="B171" s="27" t="s">
+      <c r="K171" s="8"/>
+      <c r="L171" s="29" t="s">
         <v>872</v>
       </c>
-      <c r="C171" s="27" t="s">
-        <v>873</v>
-      </c>
-      <c r="D171" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E171" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="F171" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="G171" s="27" t="s">
-        <v>865</v>
-      </c>
-      <c r="H171" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I171" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J171" s="27" t="s">
-        <v>826</v>
-      </c>
-      <c r="K171" s="8"/>
-      <c r="L171" s="8"/>
       <c r="M171" s="16"/>
       <c r="N171" s="17"/>
       <c r="O171" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P171" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q171" s="31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R171" s="16"/>
     </row>
     <row r="172" customHeight="1" spans="1:18">
       <c r="A172" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="B172" s="27" t="s">
         <v>874</v>
       </c>
-      <c r="B172" s="27" t="s">
+      <c r="C172" s="27" t="s">
         <v>875</v>
-      </c>
-      <c r="C172" s="27" t="s">
-        <v>876</v>
       </c>
       <c r="D172" s="8" t="s">
         <v>81</v>
       </c>
       <c r="E172" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F172" s="8" t="s">
         <v>219</v>
@@ -12833,40 +12809,38 @@
         <v>0</v>
       </c>
       <c r="J172" s="8" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="K172" s="8"/>
-      <c r="L172" s="29" t="s">
-        <v>878</v>
-      </c>
+      <c r="L172" s="8"/>
       <c r="M172" s="16"/>
       <c r="N172" s="17"/>
       <c r="O172" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P172" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q172" s="31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R172" s="16"/>
     </row>
     <row r="173" customHeight="1" spans="1:18">
       <c r="A173" s="5" t="s">
-        <v>879</v>
-      </c>
-      <c r="B173" s="27" t="s">
-        <v>880</v>
+        <v>876</v>
+      </c>
+      <c r="B173" s="29" t="s">
+        <v>877</v>
       </c>
       <c r="C173" s="27" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D173" s="8" t="s">
         <v>81</v>
       </c>
       <c r="E173" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F173" s="8" t="s">
         <v>219</v>
@@ -12881,38 +12855,38 @@
         <v>0</v>
       </c>
       <c r="J173" s="8" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="K173" s="8"/>
       <c r="L173" s="8"/>
       <c r="M173" s="16"/>
       <c r="N173" s="17"/>
       <c r="O173" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P173" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q173" s="31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R173" s="16"/>
     </row>
     <row r="174" customHeight="1" spans="1:18">
       <c r="A174" s="5" t="s">
-        <v>882</v>
-      </c>
-      <c r="B174" s="29" t="s">
-        <v>883</v>
+        <v>879</v>
+      </c>
+      <c r="B174" s="27" t="s">
+        <v>880</v>
       </c>
       <c r="C174" s="27" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="D174" s="8" t="s">
         <v>81</v>
       </c>
       <c r="E174" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F174" s="8" t="s">
         <v>219</v>
@@ -12927,38 +12901,38 @@
         <v>0</v>
       </c>
       <c r="J174" s="8" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="K174" s="8"/>
       <c r="L174" s="8"/>
-      <c r="M174" s="16"/>
-      <c r="N174" s="17"/>
+      <c r="M174" s="17"/>
+      <c r="N174" s="8"/>
       <c r="O174" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P174" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q174" s="31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R174" s="16"/>
     </row>
     <row r="175" customHeight="1" spans="1:18">
       <c r="A175" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B175" s="27" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="C175" s="27" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="D175" s="8" t="s">
         <v>81</v>
       </c>
       <c r="E175" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F175" s="8" t="s">
         <v>219</v>
@@ -12973,68 +12947,25 @@
         <v>0</v>
       </c>
       <c r="J175" s="8" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="K175" s="8"/>
       <c r="L175" s="8"/>
       <c r="M175" s="17"/>
       <c r="N175" s="8"/>
       <c r="O175" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P175" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q175" s="31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R175" s="16"/>
     </row>
-    <row r="176" customHeight="1" spans="1:18">
-      <c r="A176" s="5" t="s">
-        <v>888</v>
-      </c>
-      <c r="B176" s="27" t="s">
-        <v>889</v>
-      </c>
-      <c r="C176" s="27" t="s">
-        <v>890</v>
-      </c>
-      <c r="D176" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E176" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="F176" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="G176" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="H176" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I176" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J176" s="8" t="s">
-        <v>877</v>
-      </c>
-      <c r="K176" s="8"/>
-      <c r="L176" s="8"/>
-      <c r="M176" s="17"/>
-      <c r="N176" s="8"/>
-      <c r="O176" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="P176" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q176" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="R176" s="16"/>
+    <row r="176" customHeight="1" spans="1:1">
+      <c r="A176" s="30"/>
     </row>
     <row r="177" customHeight="1" spans="1:1">
       <c r="A177" s="30"/>
@@ -13161,9 +13092,6 @@
     </row>
     <row r="218" customHeight="1" spans="1:1">
       <c r="A218" s="30"/>
-    </row>
-    <row r="219" customHeight="1" spans="1:1">
-      <c r="A219" s="30"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/data/menu_dinner.xlsx
+++ b/data/menu_dinner.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="11020" tabRatio="500"/>
+    <workbookView windowWidth="25600" windowHeight="11020" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -2513,163 +2513,163 @@
     <t>茉莉花茶/新鲜芭乐汁/柠檬汁</t>
   </si>
   <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>Flipped</t>
+  </si>
+  <si>
+    <t>怦然心动</t>
+  </si>
+  <si>
+    <t>images/product/Mocktail/Flipped.png</t>
+  </si>
+  <si>
+    <t>Orange juice/Lemon juice/Passion fruit syrup/Fresh passion fruit</t>
+  </si>
+  <si>
+    <t>橙汁/柠檬汁/百香果糖浆/新鲜百香果</t>
+  </si>
+  <si>
     <t>162</t>
   </si>
   <si>
-    <t>Flipped</t>
-  </si>
-  <si>
-    <t>怦然心动</t>
-  </si>
-  <si>
-    <t>images/product/Mocktail/Flipped.png</t>
-  </si>
-  <si>
-    <t>Orange juice/Lemon juice/Passion fruit syrup/Fresh passion fruit</t>
-  </si>
-  <si>
-    <t>橙汁/柠檬汁/百香果糖浆/新鲜百香果</t>
+    <t>Plant Paradise</t>
+  </si>
+  <si>
+    <t>植物乐园</t>
+  </si>
+  <si>
+    <t>images/product/Mocktail/Plant_Paradise.png</t>
+  </si>
+  <si>
+    <t>カルピス/Coconut juice/Coconut milk/Topsoda</t>
+  </si>
+  <si>
+    <t>可尔必思/椰汁/椰奶/苏打</t>
   </si>
   <si>
     <t>163</t>
   </si>
   <si>
-    <t>Plant Paradise</t>
-  </si>
-  <si>
-    <t>植物乐园</t>
-  </si>
-  <si>
-    <t>images/product/Mocktail/Plant_Paradise.png</t>
-  </si>
-  <si>
-    <t>カルピス/Coconut juice/Coconut milk/Topsoda</t>
-  </si>
-  <si>
-    <t>可尔必思/椰汁/椰奶/苏打</t>
+    <t>Ugly duckling</t>
+  </si>
+  <si>
+    <t>丑小鸭</t>
+  </si>
+  <si>
+    <t>images/product/Mocktail/Ugly_duckling.png</t>
+  </si>
+  <si>
+    <t>Litchi puree/Lemon juice/Apple juice/Jasmine tea/Coconut juice/Pomegranate syrup</t>
+  </si>
+  <si>
+    <t>荔枝果泥/柠檬汁/苹果汁/椰汁/红石榴糖浆</t>
   </si>
   <si>
     <t>164</t>
   </si>
   <si>
-    <t>Ugly duckling</t>
-  </si>
-  <si>
-    <t>丑小鸭</t>
-  </si>
-  <si>
-    <t>images/product/Mocktail/Ugly_duckling.png</t>
-  </si>
-  <si>
-    <t>Litchi puree/Lemon juice/Apple juice/Jasmine tea/Coconut juice/Pomegranate syrup</t>
-  </si>
-  <si>
-    <t>荔枝果泥/柠檬汁/苹果汁/椰汁/红石榴糖浆</t>
+    <t>Hot milk</t>
+  </si>
+  <si>
+    <t>热牛奶</t>
+  </si>
+  <si>
+    <t>20/Bottle</t>
   </si>
   <si>
     <t>165</t>
   </si>
   <si>
-    <t>Hot milk</t>
-  </si>
-  <si>
-    <t>热牛奶</t>
-  </si>
-  <si>
-    <t>20/Bottle</t>
+    <t>Hot Chocolate</t>
+  </si>
+  <si>
+    <t>热可可</t>
+  </si>
+  <si>
+    <t>22/Bottle</t>
   </si>
   <si>
     <t>166</t>
   </si>
   <si>
-    <t>Hot Chocolate</t>
-  </si>
-  <si>
-    <t>热可可</t>
-  </si>
-  <si>
-    <t>22/Bottle</t>
+    <t>Soda water</t>
+  </si>
+  <si>
+    <t>苏打水</t>
+  </si>
+  <si>
+    <t>30/Bottle</t>
   </si>
   <si>
     <t>167</t>
   </si>
   <si>
-    <t>Soda water</t>
-  </si>
-  <si>
-    <t>苏打水</t>
-  </si>
-  <si>
-    <t>30/Bottle</t>
-  </si>
-  <si>
     <t>Tonic water</t>
   </si>
   <si>
     <t>汤力水</t>
   </si>
   <si>
+    <t>Coca cola</t>
+  </si>
+  <si>
+    <t>可口可乐</t>
+  </si>
+  <si>
     <t>169</t>
   </si>
   <si>
-    <t>Coca cola</t>
-  </si>
-  <si>
-    <t>可口可乐</t>
+    <t>Red bull energy drink</t>
+  </si>
+  <si>
+    <t>红牛碳酸型</t>
   </si>
   <si>
     <t>170</t>
   </si>
   <si>
-    <t>Red bull energy drink</t>
-  </si>
-  <si>
-    <t>红牛碳酸型</t>
+    <t>Opera</t>
+  </si>
+  <si>
+    <t>歌剧院</t>
+  </si>
+  <si>
+    <t>dessert</t>
+  </si>
+  <si>
+    <t>巧克力味,橙子味</t>
   </si>
   <si>
     <t>171</t>
   </si>
   <si>
-    <t>Opera</t>
-  </si>
-  <si>
-    <t>歌剧院</t>
-  </si>
-  <si>
-    <t>dessert</t>
-  </si>
-  <si>
-    <t>巧克力味,橙子味</t>
+    <t>Valrhono Caramel Chocklate Ban</t>
+  </si>
+  <si>
+    <t>法芙娜焦糖巧克力</t>
   </si>
   <si>
     <t>172</t>
   </si>
   <si>
-    <t>Valrhono Caramel Chocklate Ban</t>
-  </si>
-  <si>
-    <t>法芙娜焦糖巧克力</t>
+    <t>Pumpkin Cheese Cake</t>
+  </si>
+  <si>
+    <t>南瓜芝士蛋糕</t>
   </si>
   <si>
     <t>173</t>
   </si>
   <si>
-    <t>Pumpkin Cheese Cake</t>
-  </si>
-  <si>
-    <t>南瓜芝士蛋糕</t>
+    <t>Tarte au fromage framboise</t>
+  </si>
+  <si>
+    <t>覆盆子芝士塔</t>
   </si>
   <si>
     <t>174</t>
-  </si>
-  <si>
-    <t>Tarte au fromage framboise</t>
-  </si>
-  <si>
-    <t>覆盆子芝士塔</t>
-  </si>
-  <si>
-    <t>175</t>
   </si>
   <si>
     <t>Match Cake</t>
@@ -3772,8 +3772,8 @@
   <sheetPr/>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C3" sqref="A1:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -4441,8 +4441,8 @@
   <sheetPr/>
   <dimension ref="A1:BD218"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -12596,13 +12596,13 @@
     </row>
     <row r="168" customHeight="1" spans="1:18">
       <c r="A168" s="5" t="s">
-        <v>103</v>
+        <v>860</v>
       </c>
       <c r="B168" s="27" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C168" s="27" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D168" s="8" t="s">
         <v>74</v>
@@ -12642,7 +12642,7 @@
     </row>
     <row r="169" customHeight="1" spans="1:18">
       <c r="A169" s="5" t="s">
-        <v>862</v>
+        <v>103</v>
       </c>
       <c r="B169" s="27" t="s">
         <v>863</v>

--- a/data/menu_dinner.xlsx
+++ b/data/menu_dinner.xlsx
@@ -2683,11 +2683,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -2749,31 +2749,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2781,7 +2759,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2801,27 +2779,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2832,9 +2808,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2850,14 +2850,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2870,8 +2863,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2879,10 +2879,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2901,7 +2901,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2913,13 +2967,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2931,151 +3075,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3128,11 +3128,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3146,17 +3167,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3176,175 +3208,143 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4442,7 +4442,7 @@
   <dimension ref="A1:BD218"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="B177" sqref="B177"/>
+      <selection activeCell="F183" sqref="F183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>

--- a/data/menu_dinner.xlsx
+++ b/data/menu_dinner.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="11020" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="25600" windowHeight="12460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886">
   <si>
     <t>id</t>
   </si>
@@ -360,9 +360,6 @@
     <t>香煎挪威三文鱼</t>
   </si>
   <si>
-    <t>258</t>
-  </si>
-  <si>
     <t>258/份</t>
   </si>
   <si>
@@ -658,6 +655,9 @@
   </si>
   <si>
     <t>55/份</t>
+  </si>
+  <si>
+    <t>images/product/food/牛肉汉堡.jpg</t>
   </si>
   <si>
     <t>Beef patty/Cheese slice/Seasonal vegetable</t>
@@ -1404,6 +1404,9 @@
   </si>
   <si>
     <t>松露猎人阿斯蒂莫斯卡托低醇低泡甜白起泡酒</t>
+  </si>
+  <si>
+    <t>258</t>
   </si>
   <si>
     <t>258/Bottle</t>
@@ -4441,8 +4444,8 @@
   <sheetPr/>
   <dimension ref="A1:BD218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="F183" sqref="F183"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -4593,10 +4596,10 @@
         <v>102</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="H3" s="10" t="b">
         <v>1</v>
@@ -4608,16 +4611,16 @@
         <v>105</v>
       </c>
       <c r="K3" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="13" t="s">
         <v>118</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>119</v>
       </c>
       <c r="O3" s="5" t="s">
         <v>110</v>
@@ -4635,10 +4638,10 @@
         <v>31</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>101</v>
@@ -4647,10 +4650,10 @@
         <v>102</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="H4" s="10" t="b">
         <v>1</v>
@@ -4662,16 +4665,16 @@
         <v>105</v>
       </c>
       <c r="K4" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="N4" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>127</v>
       </c>
       <c r="O4" s="5" t="s">
         <v>110</v>
@@ -4689,10 +4692,10 @@
         <v>77</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>101</v>
@@ -4701,10 +4704,10 @@
         <v>102</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="H5" s="10" t="b">
         <v>0</v>
@@ -4716,14 +4719,14 @@
         <v>105</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="N5" s="13" t="s">
         <v>133</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>134</v>
       </c>
       <c r="O5" s="5" t="s">
         <v>31</v>
@@ -4738,13 +4741,13 @@
     </row>
     <row r="6" customHeight="1" spans="1:18">
       <c r="A6" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>137</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>101</v>
@@ -4753,10 +4756,10 @@
         <v>102</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="H6" s="10" t="b">
         <v>0</v>
@@ -4768,14 +4771,14 @@
         <v>105</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="N6" s="13" t="s">
         <v>141</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>142</v>
       </c>
       <c r="O6" s="5" t="s">
         <v>71</v>
@@ -4790,13 +4793,13 @@
     </row>
     <row r="7" customHeight="1" spans="1:18">
       <c r="A7" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>101</v>
@@ -4805,10 +4808,10 @@
         <v>102</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="H7" s="10" t="b">
         <v>0</v>
@@ -4820,14 +4823,14 @@
         <v>105</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="N7" s="13" t="s">
         <v>149</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>150</v>
       </c>
       <c r="O7" s="5" t="s">
         <v>110</v>
@@ -4842,13 +4845,13 @@
     </row>
     <row r="8" customHeight="1" spans="1:18">
       <c r="A8" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>153</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>101</v>
@@ -4857,10 +4860,10 @@
         <v>102</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="H8" s="10" t="b">
         <v>0</v>
@@ -4872,14 +4875,14 @@
         <v>105</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="N8" s="13" t="s">
         <v>157</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>158</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>110</v>
@@ -4894,13 +4897,13 @@
     </row>
     <row r="9" customHeight="1" spans="1:18">
       <c r="A9" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>101</v>
@@ -4909,10 +4912,10 @@
         <v>102</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="H9" s="10" t="b">
         <v>0</v>
@@ -4924,14 +4927,14 @@
         <v>105</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="N9" s="13" t="s">
         <v>163</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>164</v>
       </c>
       <c r="O9" s="5" t="s">
         <v>110</v>
@@ -4946,13 +4949,13 @@
     </row>
     <row r="10" customHeight="1" spans="1:18">
       <c r="A10" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>167</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>101</v>
@@ -4961,10 +4964,10 @@
         <v>102</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="H10" s="10" t="b">
         <v>0</v>
@@ -4976,14 +4979,14 @@
         <v>105</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N10" s="13" t="s">
         <v>169</v>
-      </c>
-      <c r="N10" s="13" t="s">
-        <v>170</v>
       </c>
       <c r="O10" s="5" t="s">
         <v>110</v>
@@ -4998,13 +5001,13 @@
     </row>
     <row r="11" customHeight="1" spans="1:18">
       <c r="A11" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>173</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>101</v>
@@ -5013,10 +5016,10 @@
         <v>102</v>
       </c>
       <c r="F11" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="H11" s="10" t="b">
         <v>0</v>
@@ -5028,14 +5031,14 @@
         <v>105</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="N11" s="13" t="s">
         <v>175</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>176</v>
       </c>
       <c r="O11" s="5" t="s">
         <v>110</v>
@@ -5053,22 +5056,22 @@
         <v>101</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>179</v>
-      </c>
       <c r="E12" s="5" t="s">
         <v>102</v>
       </c>
       <c r="F12" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="H12" s="10" t="b">
         <v>1</v>
@@ -5080,16 +5083,16 @@
         <v>105</v>
       </c>
       <c r="K12" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="L12" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="M12" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="N12" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="O12" s="5" t="s">
         <v>110</v>
@@ -5104,25 +5107,25 @@
     </row>
     <row r="13" customHeight="1" spans="1:28">
       <c r="A13" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="G13" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="H13" s="12" t="b">
         <v>0</v>
@@ -5134,14 +5137,14 @@
         <v>105</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L13" s="14"/>
       <c r="M13" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N13" s="17" t="s">
         <v>189</v>
-      </c>
-      <c r="N13" s="17" t="s">
-        <v>190</v>
       </c>
       <c r="O13" s="8" t="s">
         <v>110</v>
@@ -5166,25 +5169,25 @@
     </row>
     <row r="14" customHeight="1" spans="1:27">
       <c r="A14" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="G14" s="11" t="s">
         <v>194</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>195</v>
       </c>
       <c r="H14" s="12" t="b">
         <v>0</v>
@@ -5196,14 +5199,14 @@
         <v>105</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L14" s="14"/>
       <c r="M14" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="N14" s="17" t="s">
         <v>197</v>
-      </c>
-      <c r="N14" s="17" t="s">
-        <v>198</v>
       </c>
       <c r="O14" s="8">
         <v>1</v>
@@ -5230,22 +5233,22 @@
         <v>18</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F15" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>154</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>155</v>
       </c>
       <c r="H15" s="12" t="b">
         <v>0</v>
@@ -5257,14 +5260,14 @@
         <v>105</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L15" s="14"/>
       <c r="M15" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="N15" s="17" t="s">
         <v>201</v>
-      </c>
-      <c r="N15" s="17" t="s">
-        <v>202</v>
       </c>
       <c r="O15" s="8" t="s">
         <v>98</v>
@@ -5317,25 +5320,25 @@
     </row>
     <row r="16" customHeight="1" spans="1:33">
       <c r="A16" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>205</v>
-      </c>
       <c r="D16" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F16" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>194</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>195</v>
       </c>
       <c r="H16" s="12" t="b">
         <v>0</v>
@@ -5347,14 +5350,14 @@
         <v>105</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L16" s="14"/>
       <c r="M16" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="N16" s="17" t="s">
         <v>207</v>
-      </c>
-      <c r="N16" s="17" t="s">
-        <v>208</v>
       </c>
       <c r="O16" s="8" t="s">
         <v>110</v>
@@ -5384,25 +5387,25 @@
     </row>
     <row r="17" customHeight="1" spans="1:18">
       <c r="A17" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="11" t="s">
         <v>212</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>213</v>
       </c>
       <c r="H17" s="12" t="b">
         <v>0</v>
@@ -5413,7 +5416,9 @@
       <c r="J17" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="K17" s="5"/>
+      <c r="K17" s="8" t="s">
+        <v>213</v>
+      </c>
       <c r="L17" s="6"/>
       <c r="M17" s="5" t="s">
         <v>214</v>
@@ -5443,7 +5448,7 @@
         <v>218</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>102</v>
@@ -5495,16 +5500,16 @@
         <v>226</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F19" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>194</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>195</v>
       </c>
       <c r="H19" s="12" t="b">
         <v>0</v>
@@ -5657,10 +5662,10 @@
         <v>102</v>
       </c>
       <c r="F22" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="H22" s="12" t="b">
         <v>0</v>
@@ -5791,7 +5796,7 @@
         <v>110</v>
       </c>
       <c r="P24" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q24" s="12" t="b">
         <v>1</v>
@@ -5845,7 +5850,7 @@
         <v>110</v>
       </c>
       <c r="P25" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q25" s="12" t="b">
         <v>1</v>
@@ -5953,7 +5958,7 @@
         <v>110</v>
       </c>
       <c r="P27" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q27" s="12" t="b">
         <v>1</v>
@@ -6007,7 +6012,7 @@
         <v>110</v>
       </c>
       <c r="P28" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q28" s="12" t="b">
         <v>1</v>
@@ -6433,7 +6438,7 @@
         <v>110</v>
       </c>
       <c r="P36" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q36" s="12" t="b">
         <v>1</v>
@@ -6546,7 +6551,7 @@
     </row>
     <row r="39" customHeight="1" spans="1:18">
       <c r="A39" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>351</v>
@@ -6693,7 +6698,7 @@
         <v>110</v>
       </c>
       <c r="P41" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q41" s="12" t="b">
         <v>1</v>
@@ -7005,7 +7010,7 @@
         <v>110</v>
       </c>
       <c r="P47" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q47" s="12" t="s">
         <v>111</v>
@@ -7066,7 +7071,7 @@
     </row>
     <row r="49" customHeight="1" spans="1:18">
       <c r="A49" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>405</v>
@@ -7109,7 +7114,7 @@
         <v>110</v>
       </c>
       <c r="P49" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q49" s="12" t="b">
         <v>1</v>
@@ -7274,7 +7279,7 @@
     </row>
     <row r="53" customHeight="1" spans="1:18">
       <c r="A53" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>425</v>
@@ -7289,7 +7294,7 @@
         <v>102</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G53" s="11" t="s">
         <v>428</v>
@@ -7311,7 +7316,7 @@
         <v>110</v>
       </c>
       <c r="P53" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q53" s="20" t="s">
         <v>111</v>
@@ -7412,7 +7417,7 @@
     </row>
     <row r="56" customHeight="1" spans="1:18">
       <c r="A56" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>439</v>
@@ -7458,7 +7463,7 @@
     </row>
     <row r="57" customHeight="1" spans="1:18">
       <c r="A57" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>443</v>
@@ -7550,7 +7555,7 @@
     </row>
     <row r="59" customHeight="1" spans="1:18">
       <c r="A59" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>449</v>
@@ -7657,10 +7662,10 @@
         <v>102</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>114</v>
+        <v>461</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H61" s="12" t="b">
         <v>0</v>
@@ -7688,13 +7693,13 @@
     </row>
     <row r="62" customHeight="1" spans="1:18">
       <c r="A62" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>456</v>
@@ -7703,10 +7708,10 @@
         <v>102</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H62" s="12" t="b">
         <v>0</v>
@@ -7734,13 +7739,13 @@
     </row>
     <row r="63" customHeight="1" spans="1:18">
       <c r="A63" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>456</v>
@@ -7749,10 +7754,10 @@
         <v>102</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H63" s="12" t="b">
         <v>0</v>
@@ -7780,13 +7785,13 @@
     </row>
     <row r="64" customHeight="1" spans="1:18">
       <c r="A64" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>456</v>
@@ -7795,10 +7800,10 @@
         <v>102</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H64" s="12" t="b">
         <v>0</v>
@@ -7826,13 +7831,13 @@
     </row>
     <row r="65" customHeight="1" spans="1:18">
       <c r="A65" s="5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>43</v>
@@ -7844,7 +7849,7 @@
         <v>860</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H65" s="12" t="b">
         <v>0</v>
@@ -7872,13 +7877,13 @@
     </row>
     <row r="66" customHeight="1" spans="1:18">
       <c r="A66" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>43</v>
@@ -7890,7 +7895,7 @@
         <v>960</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H66" s="12" t="b">
         <v>0</v>
@@ -7918,13 +7923,13 @@
     </row>
     <row r="67" customHeight="1" spans="1:18">
       <c r="A67" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>43</v>
@@ -7936,7 +7941,7 @@
         <v>860</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H67" s="12" t="b">
         <v>0</v>
@@ -7964,13 +7969,13 @@
     </row>
     <row r="68" customHeight="1" spans="1:18">
       <c r="A68" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>43</v>
@@ -7982,7 +7987,7 @@
         <v>1080</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H68" s="12" t="b">
         <v>0</v>
@@ -8010,13 +8015,13 @@
     </row>
     <row r="69" customHeight="1" spans="1:18">
       <c r="A69" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>43</v>
@@ -8028,7 +8033,7 @@
         <v>1180</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H69" s="12" t="b">
         <v>0</v>
@@ -8056,13 +8061,13 @@
     </row>
     <row r="70" customHeight="1" spans="1:18">
       <c r="A70" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>43</v>
@@ -8074,7 +8079,7 @@
         <v>1080</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H70" s="12" t="b">
         <v>0</v>
@@ -8105,10 +8110,10 @@
         <v>336</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>43</v>
@@ -8120,7 +8125,7 @@
         <v>1100</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H71" s="12" t="b">
         <v>0</v>
@@ -8148,16 +8153,16 @@
     </row>
     <row r="72" customHeight="1" spans="1:18">
       <c r="A72" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>102</v>
@@ -8166,7 +8171,7 @@
         <v>1100</v>
       </c>
       <c r="G72" s="25" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H72" s="12" t="b">
         <v>0</v>
@@ -8194,13 +8199,13 @@
     </row>
     <row r="73" customHeight="1" spans="1:18">
       <c r="A73" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>43</v>
@@ -8212,7 +8217,7 @@
         <v>1100</v>
       </c>
       <c r="G73" s="25" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H73" s="12" t="b">
         <v>0</v>
@@ -8240,13 +8245,13 @@
     </row>
     <row r="74" customHeight="1" spans="1:18">
       <c r="A74" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>43</v>
@@ -8258,7 +8263,7 @@
         <v>1180</v>
       </c>
       <c r="G74" s="25" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H74" s="12" t="b">
         <v>0</v>
@@ -8286,13 +8291,13 @@
     </row>
     <row r="75" customHeight="1" spans="1:18">
       <c r="A75" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>43</v>
@@ -8304,7 +8309,7 @@
         <v>880</v>
       </c>
       <c r="G75" s="25" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H75" s="12" t="b">
         <v>0</v>
@@ -8332,13 +8337,13 @@
     </row>
     <row r="76" customHeight="1" spans="1:18">
       <c r="A76" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>43</v>
@@ -8350,7 +8355,7 @@
         <v>1280</v>
       </c>
       <c r="G76" s="25" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H76" s="12" t="b">
         <v>0</v>
@@ -8378,16 +8383,16 @@
     </row>
     <row r="77" customHeight="1" spans="1:18">
       <c r="A77" s="5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>102</v>
@@ -8396,7 +8401,7 @@
         <v>880</v>
       </c>
       <c r="G77" s="21" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H77" s="12" t="b">
         <v>0</v>
@@ -8424,13 +8429,13 @@
     </row>
     <row r="78" customHeight="1" spans="1:18">
       <c r="A78" s="5" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>46</v>
@@ -8442,7 +8447,7 @@
         <v>1100</v>
       </c>
       <c r="G78" s="21" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H78" s="12" t="b">
         <v>0</v>
@@ -8473,10 +8478,10 @@
         <v>348</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>46</v>
@@ -8488,7 +8493,7 @@
         <v>2650</v>
       </c>
       <c r="G79" s="26" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H79" s="12" t="b">
         <v>0</v>
@@ -8516,13 +8521,13 @@
     </row>
     <row r="80" customHeight="1" spans="1:18">
       <c r="A80" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>46</v>
@@ -8534,7 +8539,7 @@
         <v>880</v>
       </c>
       <c r="G80" s="21" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H80" s="12" t="b">
         <v>0</v>
@@ -8565,10 +8570,10 @@
         <v>324</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>46</v>
@@ -8580,7 +8585,7 @@
         <v>1050</v>
       </c>
       <c r="G81" s="21" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H81" s="12" t="b">
         <v>0</v>
@@ -8608,13 +8613,13 @@
     </row>
     <row r="82" customHeight="1" spans="1:18">
       <c r="A82" s="5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>46</v>
@@ -8626,7 +8631,7 @@
         <v>880</v>
       </c>
       <c r="G82" s="21" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H82" s="12" t="b">
         <v>0</v>
@@ -8654,13 +8659,13 @@
     </row>
     <row r="83" customHeight="1" spans="1:18">
       <c r="A83" s="5" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>46</v>
@@ -8672,7 +8677,7 @@
         <v>1700</v>
       </c>
       <c r="G83" s="21" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H83" s="12" t="b">
         <v>0</v>
@@ -8700,13 +8705,13 @@
     </row>
     <row r="84" customHeight="1" spans="1:18">
       <c r="A84" s="5" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>49</v>
@@ -8718,7 +8723,7 @@
         <v>880</v>
       </c>
       <c r="G84" s="21" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H84" s="12" t="b">
         <v>0</v>
@@ -8746,13 +8751,13 @@
     </row>
     <row r="85" customHeight="1" spans="1:18">
       <c r="A85" s="5" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>49</v>
@@ -8764,7 +8769,7 @@
         <v>1400</v>
       </c>
       <c r="G85" s="21" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H85" s="12" t="b">
         <v>0</v>
@@ -8792,13 +8797,13 @@
     </row>
     <row r="86" customHeight="1" spans="1:18">
       <c r="A86" s="5" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>49</v>
@@ -8810,7 +8815,7 @@
         <v>1800</v>
       </c>
       <c r="G86" s="21" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H86" s="12" t="b">
         <v>0</v>
@@ -8838,13 +8843,13 @@
     </row>
     <row r="87" customHeight="1" spans="1:18">
       <c r="A87" s="5" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>49</v>
@@ -8856,7 +8861,7 @@
         <v>1080</v>
       </c>
       <c r="G87" s="21" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H87" s="12" t="b">
         <v>0</v>
@@ -8884,13 +8889,13 @@
     </row>
     <row r="88" customHeight="1" spans="1:18">
       <c r="A88" s="5" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>49</v>
@@ -8902,7 +8907,7 @@
         <v>1550</v>
       </c>
       <c r="G88" s="21" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H88" s="12" t="b">
         <v>0</v>
@@ -8933,10 +8938,10 @@
         <v>241</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>49</v>
@@ -8948,7 +8953,7 @@
         <v>2050</v>
       </c>
       <c r="G89" s="21" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H89" s="12" t="b">
         <v>0</v>
@@ -8976,13 +8981,13 @@
     </row>
     <row r="90" customHeight="1" spans="1:18">
       <c r="A90" s="5" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>49</v>
@@ -8994,7 +8999,7 @@
         <v>2850</v>
       </c>
       <c r="G90" s="21" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H90" s="12" t="b">
         <v>0</v>
@@ -9025,10 +9030,10 @@
         <v>374</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>49</v>
@@ -9040,7 +9045,7 @@
         <v>900</v>
       </c>
       <c r="G91" s="21" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H91" s="12" t="b">
         <v>0</v>
@@ -9068,13 +9073,13 @@
     </row>
     <row r="92" customHeight="1" spans="1:18">
       <c r="A92" s="5" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>49</v>
@@ -9086,7 +9091,7 @@
         <v>1650</v>
       </c>
       <c r="G92" s="21" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H92" s="12" t="b">
         <v>0</v>
@@ -9114,13 +9119,13 @@
     </row>
     <row r="93" customHeight="1" spans="1:18">
       <c r="A93" s="5" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>49</v>
@@ -9132,7 +9137,7 @@
         <v>2350</v>
       </c>
       <c r="G93" s="21" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H93" s="12" t="b">
         <v>0</v>
@@ -9160,13 +9165,13 @@
     </row>
     <row r="94" customHeight="1" spans="1:18">
       <c r="A94" s="5" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>49</v>
@@ -9178,7 +9183,7 @@
         <v>2180</v>
       </c>
       <c r="G94" s="21" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H94" s="12" t="b">
         <v>0</v>
@@ -9206,13 +9211,13 @@
     </row>
     <row r="95" customHeight="1" spans="1:18">
       <c r="A95" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>49</v>
@@ -9224,7 +9229,7 @@
         <v>4980</v>
       </c>
       <c r="G95" s="21" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H95" s="12" t="b">
         <v>0</v>
@@ -9252,13 +9257,13 @@
     </row>
     <row r="96" customHeight="1" spans="1:18">
       <c r="A96" s="5" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>49</v>
@@ -9267,10 +9272,10 @@
         <v>102</v>
       </c>
       <c r="F96" s="21" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="G96" s="21" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H96" s="12" t="b">
         <v>0</v>
@@ -9298,13 +9303,13 @@
     </row>
     <row r="97" customHeight="1" spans="1:18">
       <c r="A97" s="5" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>49</v>
@@ -9316,7 +9321,7 @@
         <v>2080</v>
       </c>
       <c r="G97" s="21" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H97" s="12" t="b">
         <v>0</v>
@@ -9344,13 +9349,13 @@
     </row>
     <row r="98" customHeight="1" spans="1:18">
       <c r="A98" s="5" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>49</v>
@@ -9362,7 +9367,7 @@
         <v>4880</v>
       </c>
       <c r="G98" s="21" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H98" s="12" t="b">
         <v>0</v>
@@ -9393,10 +9398,10 @@
         <v>306</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>49</v>
@@ -9405,10 +9410,10 @@
         <v>102</v>
       </c>
       <c r="F99" s="21" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="G99" s="21" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H99" s="12" t="b">
         <v>0</v>
@@ -9436,13 +9441,13 @@
     </row>
     <row r="100" customHeight="1" spans="1:18">
       <c r="A100" s="5" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>49</v>
@@ -9454,7 +9459,7 @@
         <v>2180</v>
       </c>
       <c r="G100" s="21" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H100" s="12" t="b">
         <v>0</v>
@@ -9482,13 +9487,13 @@
     </row>
     <row r="101" customHeight="1" spans="1:18">
       <c r="A101" s="5" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>49</v>
@@ -9497,10 +9502,10 @@
         <v>102</v>
       </c>
       <c r="F101" s="21" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="G101" s="21" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H101" s="12" t="b">
         <v>0</v>
@@ -9528,13 +9533,13 @@
     </row>
     <row r="102" customHeight="1" spans="1:18">
       <c r="A102" s="5" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C102" s="21" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>49</v>
@@ -9543,10 +9548,10 @@
         <v>102</v>
       </c>
       <c r="F102" s="21" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="G102" s="21" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H102" s="12" t="b">
         <v>0</v>
@@ -9574,13 +9579,13 @@
     </row>
     <row r="103" customHeight="1" spans="1:18">
       <c r="A103" s="5" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C103" s="21" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>49</v>
@@ -9592,7 +9597,7 @@
         <v>2080</v>
       </c>
       <c r="G103" s="21" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H103" s="12" t="b">
         <v>0</v>
@@ -9620,13 +9625,13 @@
     </row>
     <row r="104" customHeight="1" spans="1:18">
       <c r="A104" s="5" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C104" s="21" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>49</v>
@@ -9635,10 +9640,10 @@
         <v>102</v>
       </c>
       <c r="F104" s="21" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="G104" s="21" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H104" s="12" t="b">
         <v>0</v>
@@ -9666,16 +9671,16 @@
     </row>
     <row r="105" customHeight="1" spans="1:18">
       <c r="A105" s="5" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C105" s="21" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E105" s="8" t="s">
         <v>102</v>
@@ -9684,7 +9689,7 @@
         <v>1080</v>
       </c>
       <c r="G105" s="21" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H105" s="12" t="b">
         <v>0</v>
@@ -9712,13 +9717,13 @@
     </row>
     <row r="106" customHeight="1" spans="1:18">
       <c r="A106" s="5" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C106" s="21" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>52</v>
@@ -9730,7 +9735,7 @@
         <v>980</v>
       </c>
       <c r="G106" s="21" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H106" s="12" t="b">
         <v>0</v>
@@ -9758,13 +9763,13 @@
     </row>
     <row r="107" customHeight="1" spans="1:18">
       <c r="A107" s="5" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C107" s="21" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>52</v>
@@ -9776,7 +9781,7 @@
         <v>1180</v>
       </c>
       <c r="G107" s="21" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H107" s="12" t="b">
         <v>0</v>
@@ -9804,13 +9809,13 @@
     </row>
     <row r="108" customHeight="1" spans="1:18">
       <c r="A108" s="5" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C108" s="21" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>52</v>
@@ -9822,7 +9827,7 @@
         <v>1280</v>
       </c>
       <c r="G108" s="21" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H108" s="12" t="b">
         <v>0</v>
@@ -9850,13 +9855,13 @@
     </row>
     <row r="109" customHeight="1" spans="1:18">
       <c r="A109" s="5" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C109" s="21" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>52</v>
@@ -9868,7 +9873,7 @@
         <v>2400</v>
       </c>
       <c r="G109" s="21" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H109" s="12" t="b">
         <v>0</v>
@@ -9896,13 +9901,13 @@
     </row>
     <row r="110" customHeight="1" spans="1:18">
       <c r="A110" s="5" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>52</v>
@@ -9914,7 +9919,7 @@
         <v>3880</v>
       </c>
       <c r="G110" s="21" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H110" s="12" t="b">
         <v>0</v>
@@ -9942,13 +9947,13 @@
     </row>
     <row r="111" customHeight="1" spans="1:18">
       <c r="A111" s="5" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>52</v>
@@ -9960,7 +9965,7 @@
         <v>980</v>
       </c>
       <c r="G111" s="21" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H111" s="12" t="b">
         <v>0</v>
@@ -9988,13 +9993,13 @@
     </row>
     <row r="112" customHeight="1" spans="1:18">
       <c r="A112" s="5" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>52</v>
@@ -10006,7 +10011,7 @@
         <v>1180</v>
       </c>
       <c r="G112" s="21" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H112" s="12" t="b">
         <v>0</v>
@@ -10034,13 +10039,13 @@
     </row>
     <row r="113" customHeight="1" spans="1:18">
       <c r="A113" s="5" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C113" s="21" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>52</v>
@@ -10052,7 +10057,7 @@
         <v>880</v>
       </c>
       <c r="G113" s="21" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H113" s="12" t="b">
         <v>0</v>
@@ -10080,13 +10085,13 @@
     </row>
     <row r="114" customHeight="1" spans="1:18">
       <c r="A114" s="5" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B114" s="23" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C114" s="21" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>52</v>
@@ -10098,7 +10103,7 @@
         <v>1480</v>
       </c>
       <c r="G114" s="21" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H114" s="12" t="b">
         <v>0</v>
@@ -10126,13 +10131,13 @@
     </row>
     <row r="115" customHeight="1" spans="1:18">
       <c r="A115" s="5" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B115" s="23" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C115" s="21" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>52</v>
@@ -10144,7 +10149,7 @@
         <v>3680</v>
       </c>
       <c r="G115" s="21" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H115" s="12" t="b">
         <v>0</v>
@@ -10172,13 +10177,13 @@
     </row>
     <row r="116" customHeight="1" spans="1:18">
       <c r="A116" s="5" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B116" s="23" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C116" s="21" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D116" s="8" t="s">
         <v>52</v>
@@ -10190,7 +10195,7 @@
         <v>1180</v>
       </c>
       <c r="G116" s="21" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H116" s="12" t="b">
         <v>0</v>
@@ -10218,13 +10223,13 @@
     </row>
     <row r="117" customHeight="1" spans="1:18">
       <c r="A117" s="5" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B117" s="23" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C117" s="21" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D117" s="8" t="s">
         <v>52</v>
@@ -10236,7 +10241,7 @@
         <v>2380</v>
       </c>
       <c r="G117" s="21" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H117" s="12" t="b">
         <v>0</v>
@@ -10264,13 +10269,13 @@
     </row>
     <row r="118" customHeight="1" spans="1:18">
       <c r="A118" s="5" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C118" s="21" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>55</v>
@@ -10282,7 +10287,7 @@
         <v>1380</v>
       </c>
       <c r="G118" s="21" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H118" s="12" t="b">
         <v>0</v>
@@ -10310,13 +10315,13 @@
     </row>
     <row r="119" customHeight="1" spans="1:18">
       <c r="A119" s="5" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C119" s="21" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>55</v>
@@ -10328,7 +10333,7 @@
         <v>1180</v>
       </c>
       <c r="G119" s="21" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H119" s="12" t="b">
         <v>0</v>
@@ -10356,13 +10361,13 @@
     </row>
     <row r="120" customHeight="1" spans="1:18">
       <c r="A120" s="5" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B120" s="23" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C120" s="21" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D120" s="8" t="s">
         <v>55</v>
@@ -10374,7 +10379,7 @@
         <v>1680</v>
       </c>
       <c r="G120" s="21" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H120" s="12" t="b">
         <v>0</v>
@@ -10402,13 +10407,13 @@
     </row>
     <row r="121" customHeight="1" spans="1:18">
       <c r="A121" s="5" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B121" s="23" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C121" s="21" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D121" s="8" t="s">
         <v>55</v>
@@ -10420,7 +10425,7 @@
         <v>2180</v>
       </c>
       <c r="G121" s="21" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H121" s="12" t="b">
         <v>0</v>
@@ -10448,13 +10453,13 @@
     </row>
     <row r="122" customHeight="1" spans="1:18">
       <c r="A122" s="5" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B122" s="23" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C122" s="21" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>55</v>
@@ -10466,7 +10471,7 @@
         <v>980</v>
       </c>
       <c r="G122" s="21" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H122" s="12" t="b">
         <v>0</v>
@@ -10494,13 +10499,13 @@
     </row>
     <row r="123" customHeight="1" spans="1:18">
       <c r="A123" s="5" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B123" s="23" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C123" s="21" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>55</v>
@@ -10512,7 +10517,7 @@
         <v>1280</v>
       </c>
       <c r="G123" s="21" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H123" s="12" t="b">
         <v>0</v>
@@ -10540,13 +10545,13 @@
     </row>
     <row r="124" customHeight="1" spans="1:18">
       <c r="A124" s="5" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B124" s="21" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C124" s="21" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>55</v>
@@ -10558,7 +10563,7 @@
         <v>1080</v>
       </c>
       <c r="G124" s="21" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H124" s="12" t="b">
         <v>0</v>
@@ -10586,13 +10591,13 @@
     </row>
     <row r="125" customHeight="1" spans="1:18">
       <c r="A125" s="5" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B125" s="21" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C125" s="21" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>55</v>
@@ -10604,7 +10609,7 @@
         <v>1880</v>
       </c>
       <c r="G125" s="21" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H125" s="12" t="b">
         <v>0</v>
@@ -10632,13 +10637,13 @@
     </row>
     <row r="126" customHeight="1" spans="1:18">
       <c r="A126" s="5" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B126" s="21" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C126" s="21" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D126" s="8" t="s">
         <v>55</v>
@@ -10650,7 +10655,7 @@
         <v>2680</v>
       </c>
       <c r="G126" s="21" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H126" s="12" t="b">
         <v>0</v>
@@ -10678,13 +10683,13 @@
     </row>
     <row r="127" customHeight="1" spans="1:18">
       <c r="A127" s="5" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B127" s="23" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C127" s="21" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D127" s="8" t="s">
         <v>55</v>
@@ -10696,7 +10701,7 @@
         <v>1380</v>
       </c>
       <c r="G127" s="21" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H127" s="12" t="b">
         <v>0</v>
@@ -10724,13 +10729,13 @@
     </row>
     <row r="128" customHeight="1" spans="1:18">
       <c r="A128" s="5" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C128" s="21" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>55</v>
@@ -10742,7 +10747,7 @@
         <v>1480</v>
       </c>
       <c r="G128" s="21" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H128" s="12" t="b">
         <v>0</v>
@@ -10770,13 +10775,13 @@
     </row>
     <row r="129" customHeight="1" spans="1:18">
       <c r="A129" s="5" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B129" s="23" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C129" s="21" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D129" s="27" t="s">
         <v>58</v>
@@ -10788,7 +10793,7 @@
         <v>1580</v>
       </c>
       <c r="G129" s="21" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H129" s="12" t="b">
         <v>0</v>
@@ -10816,13 +10821,13 @@
     </row>
     <row r="130" customHeight="1" spans="1:18">
       <c r="A130" s="5" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B130" s="23" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C130" s="21" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D130" s="27" t="s">
         <v>58</v>
@@ -10834,7 +10839,7 @@
         <v>880</v>
       </c>
       <c r="G130" s="21" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H130" s="12" t="b">
         <v>0</v>
@@ -10862,13 +10867,13 @@
     </row>
     <row r="131" customHeight="1" spans="1:18">
       <c r="A131" s="5" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C131" s="21" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D131" s="27" t="s">
         <v>58</v>
@@ -10880,7 +10885,7 @@
         <v>1380</v>
       </c>
       <c r="G131" s="21" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H131" s="12" t="b">
         <v>0</v>
@@ -10908,13 +10913,13 @@
     </row>
     <row r="132" customHeight="1" spans="1:18">
       <c r="A132" s="5" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B132" s="23" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C132" s="21" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D132" s="27" t="s">
         <v>58</v>
@@ -10926,7 +10931,7 @@
         <v>1580</v>
       </c>
       <c r="G132" s="21" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H132" s="12" t="b">
         <v>0</v>
@@ -10954,13 +10959,13 @@
     </row>
     <row r="133" customHeight="1" spans="1:18">
       <c r="A133" s="5" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B133" s="23" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C133" s="21" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D133" s="27" t="s">
         <v>58</v>
@@ -10972,7 +10977,7 @@
         <v>880</v>
       </c>
       <c r="G133" s="21" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H133" s="12" t="b">
         <v>0</v>
@@ -11000,13 +11005,13 @@
     </row>
     <row r="134" customHeight="1" spans="1:18">
       <c r="A134" s="5" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B134" s="23" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C134" s="21" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D134" s="27" t="s">
         <v>58</v>
@@ -11018,7 +11023,7 @@
         <v>2380</v>
       </c>
       <c r="G134" s="21" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H134" s="12" t="b">
         <v>0</v>
@@ -11046,13 +11051,13 @@
     </row>
     <row r="135" customHeight="1" spans="1:18">
       <c r="A135" s="5" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B135" s="21" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C135" s="21" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D135" s="27" t="s">
         <v>61</v>
@@ -11064,7 +11069,7 @@
         <v>880</v>
       </c>
       <c r="G135" s="21" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H135" s="12" t="b">
         <v>0</v>
@@ -11092,13 +11097,13 @@
     </row>
     <row r="136" customHeight="1" spans="1:18">
       <c r="A136" s="5" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B136" s="21" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C136" s="21" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D136" s="27" t="s">
         <v>61</v>
@@ -11110,7 +11115,7 @@
         <v>780</v>
       </c>
       <c r="G136" s="21" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H136" s="12" t="b">
         <v>0</v>
@@ -11138,13 +11143,13 @@
     </row>
     <row r="137" customHeight="1" spans="1:18">
       <c r="A137" s="5" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B137" s="21" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C137" s="21" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D137" s="27" t="s">
         <v>61</v>
@@ -11156,7 +11161,7 @@
         <v>780</v>
       </c>
       <c r="G137" s="21" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H137" s="12" t="b">
         <v>0</v>
@@ -11184,13 +11189,13 @@
     </row>
     <row r="138" customHeight="1" spans="1:18">
       <c r="A138" s="5" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B138" s="21" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C138" s="21" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D138" s="27" t="s">
         <v>61</v>
@@ -11202,7 +11207,7 @@
         <v>880</v>
       </c>
       <c r="G138" s="21" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H138" s="12" t="b">
         <v>0</v>
@@ -11230,13 +11235,13 @@
     </row>
     <row r="139" customHeight="1" spans="1:18">
       <c r="A139" s="5" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B139" s="21" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C139" s="21" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D139" s="27" t="s">
         <v>61</v>
@@ -11248,7 +11253,7 @@
         <v>1280</v>
       </c>
       <c r="G139" s="21" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H139" s="12" t="b">
         <v>0</v>
@@ -11276,13 +11281,13 @@
     </row>
     <row r="140" customHeight="1" spans="1:18">
       <c r="A140" s="5" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B140" s="21" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C140" s="21" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D140" s="27" t="s">
         <v>61</v>
@@ -11294,7 +11299,7 @@
         <v>1780</v>
       </c>
       <c r="G140" s="21" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H140" s="12" t="b">
         <v>0</v>
@@ -11322,13 +11327,13 @@
     </row>
     <row r="141" customHeight="1" spans="1:18">
       <c r="A141" s="5" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B141" s="21" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C141" s="21" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D141" s="27" t="s">
         <v>61</v>
@@ -11340,7 +11345,7 @@
         <v>1180</v>
       </c>
       <c r="G141" s="21" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H141" s="12" t="b">
         <v>0</v>
@@ -11368,13 +11373,13 @@
     </row>
     <row r="142" customHeight="1" spans="1:18">
       <c r="A142" s="5" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B142" s="21" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C142" s="21" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D142" s="27" t="s">
         <v>61</v>
@@ -11386,7 +11391,7 @@
         <v>1280</v>
       </c>
       <c r="G142" s="21" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H142" s="12" t="b">
         <v>0</v>
@@ -11414,13 +11419,13 @@
     </row>
     <row r="143" customHeight="1" spans="1:18">
       <c r="A143" s="5" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B143" s="21" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C143" s="21" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D143" s="27" t="s">
         <v>61</v>
@@ -11432,7 +11437,7 @@
         <v>1780</v>
       </c>
       <c r="G143" s="21" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H143" s="12" t="b">
         <v>0</v>
@@ -11460,13 +11465,13 @@
     </row>
     <row r="144" customHeight="1" spans="1:18">
       <c r="A144" s="5" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B144" s="21" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C144" s="21" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D144" s="27" t="s">
         <v>61</v>
@@ -11478,7 +11483,7 @@
         <v>2480</v>
       </c>
       <c r="G144" s="21" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H144" s="12" t="b">
         <v>0</v>
@@ -11506,13 +11511,13 @@
     </row>
     <row r="145" customHeight="1" spans="1:18">
       <c r="A145" s="5" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C145" s="21" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D145" s="27" t="s">
         <v>61</v>
@@ -11524,7 +11529,7 @@
         <v>1180</v>
       </c>
       <c r="G145" s="21" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H145" s="12" t="b">
         <v>0</v>
@@ -11552,13 +11557,13 @@
     </row>
     <row r="146" customHeight="1" spans="1:18">
       <c r="A146" s="5" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C146" s="21" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D146" s="27" t="s">
         <v>61</v>
@@ -11570,7 +11575,7 @@
         <v>980</v>
       </c>
       <c r="G146" s="21" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H146" s="12" t="b">
         <v>0</v>
@@ -11598,13 +11603,13 @@
     </row>
     <row r="147" customHeight="1" spans="1:18">
       <c r="A147" s="5" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C147" s="21" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D147" s="27" t="s">
         <v>61</v>
@@ -11616,7 +11621,7 @@
         <v>1650</v>
       </c>
       <c r="G147" s="21" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H147" s="12" t="b">
         <v>0</v>
@@ -11644,13 +11649,13 @@
     </row>
     <row r="148" customHeight="1" spans="1:18">
       <c r="A148" s="5" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C148" s="21" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D148" s="27" t="s">
         <v>61</v>
@@ -11662,7 +11667,7 @@
         <v>1100</v>
       </c>
       <c r="G148" s="21" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H148" s="12" t="b">
         <v>0</v>
@@ -11690,13 +11695,13 @@
     </row>
     <row r="149" customHeight="1" spans="1:18">
       <c r="A149" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C149" s="21" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D149" s="27" t="s">
         <v>61</v>
@@ -11708,7 +11713,7 @@
         <v>980</v>
       </c>
       <c r="G149" s="21" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H149" s="12" t="b">
         <v>0</v>
@@ -11736,13 +11741,13 @@
     </row>
     <row r="150" customHeight="1" spans="1:18">
       <c r="A150" s="5" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B150" s="23" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C150" s="21" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D150" s="27" t="s">
         <v>61</v>
@@ -11754,7 +11759,7 @@
         <v>1080</v>
       </c>
       <c r="G150" s="21" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H150" s="12" t="b">
         <v>0</v>
@@ -11782,13 +11787,13 @@
     </row>
     <row r="151" customHeight="1" spans="1:18">
       <c r="A151" s="5" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B151" s="23" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C151" s="21" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D151" s="27" t="s">
         <v>61</v>
@@ -11800,7 +11805,7 @@
         <v>1680</v>
       </c>
       <c r="G151" s="21" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H151" s="12" t="b">
         <v>0</v>
@@ -11828,13 +11833,13 @@
     </row>
     <row r="152" customHeight="1" spans="1:18">
       <c r="A152" s="5" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B152" s="23" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C152" s="21" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D152" s="27" t="s">
         <v>61</v>
@@ -11846,7 +11851,7 @@
         <v>980</v>
       </c>
       <c r="G152" s="21" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H152" s="12" t="b">
         <v>0</v>
@@ -11874,13 +11879,13 @@
     </row>
     <row r="153" customHeight="1" spans="1:18">
       <c r="A153" s="5" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C153" s="21" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D153" s="27" t="s">
         <v>61</v>
@@ -11892,7 +11897,7 @@
         <v>1080</v>
       </c>
       <c r="G153" s="21" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H153" s="12" t="b">
         <v>0</v>
@@ -11920,13 +11925,13 @@
     </row>
     <row r="154" customHeight="1" spans="1:18">
       <c r="A154" s="5" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B154" s="23" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C154" s="21" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D154" s="27" t="s">
         <v>61</v>
@@ -11938,7 +11943,7 @@
         <v>1480</v>
       </c>
       <c r="G154" s="21" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H154" s="12" t="b">
         <v>0</v>
@@ -11966,13 +11971,13 @@
     </row>
     <row r="155" customHeight="1" spans="1:18">
       <c r="A155" s="5" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B155" s="23" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C155" s="21" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D155" s="27" t="s">
         <v>61</v>
@@ -11984,7 +11989,7 @@
         <v>3480</v>
       </c>
       <c r="G155" s="21" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H155" s="12" t="b">
         <v>0</v>
@@ -12012,13 +12017,13 @@
     </row>
     <row r="156" customHeight="1" spans="1:18">
       <c r="A156" s="5" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C156" s="21" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D156" s="27" t="s">
         <v>61</v>
@@ -12030,7 +12035,7 @@
         <v>1280</v>
       </c>
       <c r="G156" s="21" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H156" s="12" t="b">
         <v>0</v>
@@ -12058,13 +12063,13 @@
     </row>
     <row r="157" customHeight="1" spans="1:18">
       <c r="A157" s="5" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B157" s="23" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C157" s="21" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D157" s="27" t="s">
         <v>61</v>
@@ -12076,7 +12081,7 @@
         <v>1680</v>
       </c>
       <c r="G157" s="21" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H157" s="12" t="b">
         <v>0</v>
@@ -12104,13 +12109,13 @@
     </row>
     <row r="158" customHeight="1" spans="1:18">
       <c r="A158" s="5" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C158" s="21" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D158" s="27" t="s">
         <v>61</v>
@@ -12122,7 +12127,7 @@
         <v>2680</v>
       </c>
       <c r="G158" s="21" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H158" s="12" t="b">
         <v>0</v>
@@ -12150,13 +12155,13 @@
     </row>
     <row r="159" customHeight="1" spans="1:18">
       <c r="A159" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B159" s="23" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C159" s="21" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D159" s="27" t="s">
         <v>61</v>
@@ -12168,7 +12173,7 @@
         <v>3680</v>
       </c>
       <c r="G159" s="21" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H159" s="12" t="b">
         <v>0</v>
@@ -12196,13 +12201,13 @@
     </row>
     <row r="160" customHeight="1" spans="1:18">
       <c r="A160" s="5" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B160" s="23" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C160" s="21" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D160" s="27" t="s">
         <v>61</v>
@@ -12214,7 +12219,7 @@
         <v>1080</v>
       </c>
       <c r="G160" s="21" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H160" s="12" t="b">
         <v>0</v>
@@ -12242,13 +12247,13 @@
     </row>
     <row r="161" customHeight="1" spans="1:18">
       <c r="A161" s="5" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B161" s="27" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C161" s="27" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D161" s="8" t="s">
         <v>67</v>
@@ -12257,10 +12262,10 @@
         <v>102</v>
       </c>
       <c r="F161" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G161" s="11" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H161" s="12" t="b">
         <v>0</v>
@@ -12269,19 +12274,19 @@
         <v>0</v>
       </c>
       <c r="J161" s="8" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="K161" s="8" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="L161" s="8" t="s">
         <v>264</v>
       </c>
       <c r="M161" s="16" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="N161" s="17" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="O161" s="8" t="s">
         <v>110</v>
@@ -12296,13 +12301,13 @@
     </row>
     <row r="162" customHeight="1" spans="1:18">
       <c r="A162" s="5" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B162" s="28" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C162" s="27" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D162" s="8" t="s">
         <v>67</v>
@@ -12311,10 +12316,10 @@
         <v>102</v>
       </c>
       <c r="F162" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G162" s="11" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H162" s="12" t="b">
         <v>0</v>
@@ -12323,19 +12328,19 @@
         <v>0</v>
       </c>
       <c r="J162" s="8" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="K162" s="8" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="L162" s="8" t="s">
         <v>264</v>
       </c>
       <c r="M162" s="16" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="N162" s="17" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="O162" s="8" t="s">
         <v>110</v>
@@ -12350,13 +12355,13 @@
     </row>
     <row r="163" customHeight="1" spans="1:18">
       <c r="A163" s="5" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B163" s="27" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C163" s="27" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D163" s="8" t="s">
         <v>67</v>
@@ -12365,10 +12370,10 @@
         <v>102</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G163" s="11" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H163" s="12" t="b">
         <v>0</v>
@@ -12377,19 +12382,19 @@
         <v>0</v>
       </c>
       <c r="J163" s="8" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="K163" s="8" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="L163" s="8" t="s">
         <v>264</v>
       </c>
       <c r="M163" s="16" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="N163" s="17" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="O163" s="8" t="s">
         <v>110</v>
@@ -12404,13 +12409,13 @@
     </row>
     <row r="164" customHeight="1" spans="1:18">
       <c r="A164" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B164" s="27" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C164" s="27" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D164" s="27" t="s">
         <v>67</v>
@@ -12419,10 +12424,10 @@
         <v>102</v>
       </c>
       <c r="F164" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G164" s="27" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H164" s="20" t="b">
         <v>0</v>
@@ -12431,19 +12436,19 @@
         <v>0</v>
       </c>
       <c r="J164" s="27" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="K164" s="8" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="L164" s="27" t="s">
         <v>264</v>
       </c>
       <c r="M164" s="16" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="N164" s="17" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="O164" s="27" t="s">
         <v>110</v>
@@ -12458,13 +12463,13 @@
     </row>
     <row r="165" customHeight="1" spans="1:18">
       <c r="A165" s="5" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B165" s="27" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C165" s="27" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D165" s="8" t="s">
         <v>70</v>
@@ -12476,7 +12481,7 @@
         <v>238</v>
       </c>
       <c r="G165" s="27" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H165" s="20" t="b">
         <v>0</v>
@@ -12485,7 +12490,7 @@
         <v>0</v>
       </c>
       <c r="J165" s="27" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="K165" s="8"/>
       <c r="L165" s="8"/>
@@ -12504,13 +12509,13 @@
     </row>
     <row r="166" customHeight="1" spans="1:18">
       <c r="A166" s="5" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B166" s="27" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C166" s="27" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D166" s="8" t="s">
         <v>70</v>
@@ -12522,7 +12527,7 @@
         <v>252</v>
       </c>
       <c r="G166" s="27" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H166" s="20" t="b">
         <v>0</v>
@@ -12531,7 +12536,7 @@
         <v>0</v>
       </c>
       <c r="J166" s="27" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="K166" s="8"/>
       <c r="L166" s="8"/>
@@ -12550,13 +12555,13 @@
     </row>
     <row r="167" customHeight="1" spans="1:18">
       <c r="A167" s="5" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B167" s="27" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C167" s="27" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D167" s="8" t="s">
         <v>74</v>
@@ -12568,7 +12573,7 @@
         <v>238</v>
       </c>
       <c r="G167" s="27" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H167" s="20" t="b">
         <v>0</v>
@@ -12577,7 +12582,7 @@
         <v>0</v>
       </c>
       <c r="J167" s="27" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="K167" s="8"/>
       <c r="L167" s="8"/>
@@ -12596,13 +12601,13 @@
     </row>
     <row r="168" customHeight="1" spans="1:18">
       <c r="A168" s="5" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B168" s="27" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C168" s="27" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D168" s="8" t="s">
         <v>74</v>
@@ -12614,7 +12619,7 @@
         <v>238</v>
       </c>
       <c r="G168" s="27" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H168" s="20" t="b">
         <v>0</v>
@@ -12623,7 +12628,7 @@
         <v>0</v>
       </c>
       <c r="J168" s="27" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="K168" s="8"/>
       <c r="L168" s="8"/>
@@ -12645,10 +12650,10 @@
         <v>103</v>
       </c>
       <c r="B169" s="27" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C169" s="27" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D169" s="8" t="s">
         <v>74</v>
@@ -12660,7 +12665,7 @@
         <v>238</v>
       </c>
       <c r="G169" s="27" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H169" s="20" t="b">
         <v>0</v>
@@ -12669,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="J169" s="27" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="K169" s="8"/>
       <c r="L169" s="8"/>
@@ -12688,13 +12693,13 @@
     </row>
     <row r="170" customHeight="1" spans="1:18">
       <c r="A170" s="5" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B170" s="27" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C170" s="27" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D170" s="8" t="s">
         <v>74</v>
@@ -12706,7 +12711,7 @@
         <v>303</v>
       </c>
       <c r="G170" s="27" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H170" s="20" t="b">
         <v>0</v>
@@ -12715,7 +12720,7 @@
         <v>0</v>
       </c>
       <c r="J170" s="27" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="K170" s="8"/>
       <c r="L170" s="8"/>
@@ -12734,13 +12739,13 @@
     </row>
     <row r="171" customHeight="1" spans="1:18">
       <c r="A171" s="5" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B171" s="27" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C171" s="27" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D171" s="8" t="s">
         <v>81</v>
@@ -12761,11 +12766,11 @@
         <v>0</v>
       </c>
       <c r="J171" s="8" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="K171" s="8"/>
       <c r="L171" s="29" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="M171" s="16"/>
       <c r="N171" s="17"/>
@@ -12782,13 +12787,13 @@
     </row>
     <row r="172" customHeight="1" spans="1:18">
       <c r="A172" s="5" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B172" s="27" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C172" s="27" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D172" s="8" t="s">
         <v>81</v>
@@ -12809,7 +12814,7 @@
         <v>0</v>
       </c>
       <c r="J172" s="8" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="K172" s="8"/>
       <c r="L172" s="8"/>
@@ -12828,13 +12833,13 @@
     </row>
     <row r="173" customHeight="1" spans="1:18">
       <c r="A173" s="5" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B173" s="29" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C173" s="27" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="D173" s="8" t="s">
         <v>81</v>
@@ -12855,7 +12860,7 @@
         <v>0</v>
       </c>
       <c r="J173" s="8" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="K173" s="8"/>
       <c r="L173" s="8"/>
@@ -12874,13 +12879,13 @@
     </row>
     <row r="174" customHeight="1" spans="1:18">
       <c r="A174" s="5" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B174" s="27" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C174" s="27" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D174" s="8" t="s">
         <v>81</v>
@@ -12901,7 +12906,7 @@
         <v>0</v>
       </c>
       <c r="J174" s="8" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="K174" s="8"/>
       <c r="L174" s="8"/>
@@ -12920,13 +12925,13 @@
     </row>
     <row r="175" customHeight="1" spans="1:18">
       <c r="A175" s="5" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B175" s="27" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C175" s="27" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D175" s="8" t="s">
         <v>81</v>
@@ -12947,7 +12952,7 @@
         <v>0</v>
       </c>
       <c r="J175" s="8" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="K175" s="8"/>
       <c r="L175" s="8"/>

--- a/data/menu_dinner.xlsx
+++ b/data/menu_dinner.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888">
   <si>
     <t>id</t>
   </si>
@@ -1811,10 +1811,7 @@
     <t>山崎.18</t>
   </si>
   <si>
-    <t>时价</t>
-  </si>
-  <si>
-    <t>时价/Glass+时价/Bottle</t>
+    <t>17800/Bottle</t>
   </si>
   <si>
     <t>96</t>
@@ -1868,6 +1865,9 @@
     <t>响.17</t>
   </si>
   <si>
+    <t>9800/Bottle</t>
+  </si>
+  <si>
     <t>101</t>
   </si>
   <si>
@@ -1877,6 +1877,9 @@
     <t>响.21</t>
   </si>
   <si>
+    <t>15000/Bottle</t>
+  </si>
+  <si>
     <t>102</t>
   </si>
   <si>
@@ -1893,6 +1896,9 @@
   </si>
   <si>
     <t>余市.15</t>
+  </si>
+  <si>
+    <t>11000/Bottle</t>
   </si>
   <si>
     <t>104</t>
@@ -2689,8 +2695,8 @@
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -2739,16 +2745,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2760,11 +2782,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2775,8 +2821,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2790,22 +2859,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2813,23 +2867,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2843,22 +2881,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -2867,25 +2889,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2904,6 +2910,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2916,7 +2952,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2928,25 +3030,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2958,79 +3060,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3042,43 +3072,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3125,8 +3131,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3161,26 +3176,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3192,6 +3187,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3213,8 +3217,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3222,138 +3228,138 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4444,8 +4450,8 @@
   <sheetPr/>
   <dimension ref="A1:BD218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -4454,7 +4460,7 @@
     <col min="2" max="2" width="30.8035714285714" style="2" customWidth="1"/>
     <col min="3" max="3" width="27.9642857142857" style="2" customWidth="1"/>
     <col min="4" max="6" width="11.5178571428571" style="1"/>
-    <col min="7" max="7" width="19.6964285714286" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35.4107142857143" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.5178571428571" style="3"/>
     <col min="9" max="9" width="17.0625" style="3" customWidth="1"/>
     <col min="10" max="10" width="13.6339285714286" style="1" customWidth="1"/>
@@ -9271,11 +9277,11 @@
       <c r="E96" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F96" s="21" t="s">
+      <c r="F96" s="21">
+        <v>17800</v>
+      </c>
+      <c r="G96" s="21" t="s">
         <v>596</v>
-      </c>
-      <c r="G96" s="21" t="s">
-        <v>597</v>
       </c>
       <c r="H96" s="12" t="b">
         <v>0</v>
@@ -9303,13 +9309,13 @@
     </row>
     <row r="97" customHeight="1" spans="1:18">
       <c r="A97" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="B97" s="23" t="s">
         <v>598</v>
       </c>
-      <c r="B97" s="23" t="s">
+      <c r="C97" s="21" t="s">
         <v>599</v>
-      </c>
-      <c r="C97" s="21" t="s">
-        <v>600</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>49</v>
@@ -9321,7 +9327,7 @@
         <v>2080</v>
       </c>
       <c r="G97" s="21" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H97" s="12" t="b">
         <v>0</v>
@@ -9349,13 +9355,13 @@
     </row>
     <row r="98" customHeight="1" spans="1:18">
       <c r="A98" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="B98" s="23" t="s">
         <v>602</v>
       </c>
-      <c r="B98" s="23" t="s">
+      <c r="C98" s="21" t="s">
         <v>603</v>
-      </c>
-      <c r="C98" s="21" t="s">
-        <v>604</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>49</v>
@@ -9367,7 +9373,7 @@
         <v>4880</v>
       </c>
       <c r="G98" s="21" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H98" s="12" t="b">
         <v>0</v>
@@ -9398,10 +9404,10 @@
         <v>306</v>
       </c>
       <c r="B99" s="23" t="s">
+        <v>605</v>
+      </c>
+      <c r="C99" s="21" t="s">
         <v>606</v>
-      </c>
-      <c r="C99" s="21" t="s">
-        <v>607</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>49</v>
@@ -9409,11 +9415,11 @@
       <c r="E99" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F99" s="21" t="s">
+      <c r="F99" s="21">
+        <v>17800</v>
+      </c>
+      <c r="G99" s="21" t="s">
         <v>596</v>
-      </c>
-      <c r="G99" s="21" t="s">
-        <v>597</v>
       </c>
       <c r="H99" s="12" t="b">
         <v>0</v>
@@ -9441,13 +9447,13 @@
     </row>
     <row r="100" customHeight="1" spans="1:18">
       <c r="A100" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="B100" s="23" t="s">
         <v>608</v>
       </c>
-      <c r="B100" s="23" t="s">
+      <c r="C100" s="21" t="s">
         <v>609</v>
-      </c>
-      <c r="C100" s="21" t="s">
-        <v>610</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>49</v>
@@ -9459,7 +9465,7 @@
         <v>2180</v>
       </c>
       <c r="G100" s="21" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H100" s="12" t="b">
         <v>0</v>
@@ -9487,13 +9493,13 @@
     </row>
     <row r="101" customHeight="1" spans="1:18">
       <c r="A101" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="B101" s="23" t="s">
         <v>612</v>
       </c>
-      <c r="B101" s="23" t="s">
+      <c r="C101" s="21" t="s">
         <v>613</v>
-      </c>
-      <c r="C101" s="21" t="s">
-        <v>614</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>49</v>
@@ -9501,11 +9507,11 @@
       <c r="E101" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F101" s="21" t="s">
-        <v>596</v>
+      <c r="F101" s="21">
+        <v>9800</v>
       </c>
       <c r="G101" s="21" t="s">
-        <v>597</v>
+        <v>614</v>
       </c>
       <c r="H101" s="12" t="b">
         <v>0</v>
@@ -9547,11 +9553,11 @@
       <c r="E102" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F102" s="21" t="s">
-        <v>596</v>
+      <c r="F102" s="21">
+        <v>15000</v>
       </c>
       <c r="G102" s="21" t="s">
-        <v>597</v>
+        <v>618</v>
       </c>
       <c r="H102" s="12" t="b">
         <v>0</v>
@@ -9579,13 +9585,13 @@
     </row>
     <row r="103" customHeight="1" spans="1:18">
       <c r="A103" s="5" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C103" s="21" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>49</v>
@@ -9597,7 +9603,7 @@
         <v>2080</v>
       </c>
       <c r="G103" s="21" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H103" s="12" t="b">
         <v>0</v>
@@ -9625,13 +9631,13 @@
     </row>
     <row r="104" customHeight="1" spans="1:18">
       <c r="A104" s="5" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C104" s="21" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>49</v>
@@ -9639,11 +9645,11 @@
       <c r="E104" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F104" s="21" t="s">
-        <v>596</v>
+      <c r="F104" s="21">
+        <v>11000</v>
       </c>
       <c r="G104" s="21" t="s">
-        <v>597</v>
+        <v>625</v>
       </c>
       <c r="H104" s="12" t="b">
         <v>0</v>
@@ -9671,16 +9677,16 @@
     </row>
     <row r="105" customHeight="1" spans="1:18">
       <c r="A105" s="5" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C105" s="21" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E105" s="8" t="s">
         <v>102</v>
@@ -9689,7 +9695,7 @@
         <v>1080</v>
       </c>
       <c r="G105" s="21" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="H105" s="12" t="b">
         <v>0</v>
@@ -9717,13 +9723,13 @@
     </row>
     <row r="106" customHeight="1" spans="1:18">
       <c r="A106" s="5" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C106" s="21" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>52</v>
@@ -9735,7 +9741,7 @@
         <v>980</v>
       </c>
       <c r="G106" s="21" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="H106" s="12" t="b">
         <v>0</v>
@@ -9763,13 +9769,13 @@
     </row>
     <row r="107" customHeight="1" spans="1:18">
       <c r="A107" s="5" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C107" s="21" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>52</v>
@@ -9781,7 +9787,7 @@
         <v>1180</v>
       </c>
       <c r="G107" s="21" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="H107" s="12" t="b">
         <v>0</v>
@@ -9809,13 +9815,13 @@
     </row>
     <row r="108" customHeight="1" spans="1:18">
       <c r="A108" s="5" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C108" s="21" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>52</v>
@@ -9827,7 +9833,7 @@
         <v>1280</v>
       </c>
       <c r="G108" s="21" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="H108" s="12" t="b">
         <v>0</v>
@@ -9855,13 +9861,13 @@
     </row>
     <row r="109" customHeight="1" spans="1:18">
       <c r="A109" s="5" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C109" s="21" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>52</v>
@@ -9873,7 +9879,7 @@
         <v>2400</v>
       </c>
       <c r="G109" s="21" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="H109" s="12" t="b">
         <v>0</v>
@@ -9901,13 +9907,13 @@
     </row>
     <row r="110" customHeight="1" spans="1:18">
       <c r="A110" s="5" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>52</v>
@@ -9919,7 +9925,7 @@
         <v>3880</v>
       </c>
       <c r="G110" s="21" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H110" s="12" t="b">
         <v>0</v>
@@ -9947,13 +9953,13 @@
     </row>
     <row r="111" customHeight="1" spans="1:18">
       <c r="A111" s="5" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>52</v>
@@ -9965,7 +9971,7 @@
         <v>980</v>
       </c>
       <c r="G111" s="21" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="H111" s="12" t="b">
         <v>0</v>
@@ -9993,13 +9999,13 @@
     </row>
     <row r="112" customHeight="1" spans="1:18">
       <c r="A112" s="5" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>52</v>
@@ -10011,7 +10017,7 @@
         <v>1180</v>
       </c>
       <c r="G112" s="21" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="H112" s="12" t="b">
         <v>0</v>
@@ -10039,13 +10045,13 @@
     </row>
     <row r="113" customHeight="1" spans="1:18">
       <c r="A113" s="5" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C113" s="21" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>52</v>
@@ -10057,7 +10063,7 @@
         <v>880</v>
       </c>
       <c r="G113" s="21" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H113" s="12" t="b">
         <v>0</v>
@@ -10085,13 +10091,13 @@
     </row>
     <row r="114" customHeight="1" spans="1:18">
       <c r="A114" s="5" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B114" s="23" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C114" s="21" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>52</v>
@@ -10103,7 +10109,7 @@
         <v>1480</v>
       </c>
       <c r="G114" s="21" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="H114" s="12" t="b">
         <v>0</v>
@@ -10131,13 +10137,13 @@
     </row>
     <row r="115" customHeight="1" spans="1:18">
       <c r="A115" s="5" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B115" s="23" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C115" s="21" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>52</v>
@@ -10149,7 +10155,7 @@
         <v>3680</v>
       </c>
       <c r="G115" s="21" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="H115" s="12" t="b">
         <v>0</v>
@@ -10177,13 +10183,13 @@
     </row>
     <row r="116" customHeight="1" spans="1:18">
       <c r="A116" s="5" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B116" s="23" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C116" s="21" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="D116" s="8" t="s">
         <v>52</v>
@@ -10195,7 +10201,7 @@
         <v>1180</v>
       </c>
       <c r="G116" s="21" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="H116" s="12" t="b">
         <v>0</v>
@@ -10223,13 +10229,13 @@
     </row>
     <row r="117" customHeight="1" spans="1:18">
       <c r="A117" s="5" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B117" s="23" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C117" s="21" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D117" s="8" t="s">
         <v>52</v>
@@ -10241,7 +10247,7 @@
         <v>2380</v>
       </c>
       <c r="G117" s="21" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="H117" s="12" t="b">
         <v>0</v>
@@ -10269,13 +10275,13 @@
     </row>
     <row r="118" customHeight="1" spans="1:18">
       <c r="A118" s="5" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C118" s="21" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>55</v>
@@ -10287,7 +10293,7 @@
         <v>1380</v>
       </c>
       <c r="G118" s="21" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="H118" s="12" t="b">
         <v>0</v>
@@ -10315,13 +10321,13 @@
     </row>
     <row r="119" customHeight="1" spans="1:18">
       <c r="A119" s="5" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C119" s="21" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>55</v>
@@ -10361,13 +10367,13 @@
     </row>
     <row r="120" customHeight="1" spans="1:18">
       <c r="A120" s="5" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B120" s="23" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C120" s="21" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="D120" s="8" t="s">
         <v>55</v>
@@ -10379,7 +10385,7 @@
         <v>1680</v>
       </c>
       <c r="G120" s="21" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="H120" s="12" t="b">
         <v>0</v>
@@ -10407,13 +10413,13 @@
     </row>
     <row r="121" customHeight="1" spans="1:18">
       <c r="A121" s="5" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B121" s="23" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C121" s="21" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="D121" s="8" t="s">
         <v>55</v>
@@ -10453,13 +10459,13 @@
     </row>
     <row r="122" customHeight="1" spans="1:18">
       <c r="A122" s="5" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B122" s="23" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C122" s="21" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>55</v>
@@ -10471,7 +10477,7 @@
         <v>980</v>
       </c>
       <c r="G122" s="21" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="H122" s="12" t="b">
         <v>0</v>
@@ -10499,13 +10505,13 @@
     </row>
     <row r="123" customHeight="1" spans="1:18">
       <c r="A123" s="5" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B123" s="23" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C123" s="21" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>55</v>
@@ -10517,7 +10523,7 @@
         <v>1280</v>
       </c>
       <c r="G123" s="21" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="H123" s="12" t="b">
         <v>0</v>
@@ -10545,13 +10551,13 @@
     </row>
     <row r="124" customHeight="1" spans="1:18">
       <c r="A124" s="5" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B124" s="21" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C124" s="21" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>55</v>
@@ -10591,13 +10597,13 @@
     </row>
     <row r="125" customHeight="1" spans="1:18">
       <c r="A125" s="5" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B125" s="21" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C125" s="21" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>55</v>
@@ -10609,7 +10615,7 @@
         <v>1880</v>
       </c>
       <c r="G125" s="21" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="H125" s="12" t="b">
         <v>0</v>
@@ -10637,13 +10643,13 @@
     </row>
     <row r="126" customHeight="1" spans="1:18">
       <c r="A126" s="5" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B126" s="21" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C126" s="21" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="D126" s="8" t="s">
         <v>55</v>
@@ -10655,7 +10661,7 @@
         <v>2680</v>
       </c>
       <c r="G126" s="21" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="H126" s="12" t="b">
         <v>0</v>
@@ -10683,13 +10689,13 @@
     </row>
     <row r="127" customHeight="1" spans="1:18">
       <c r="A127" s="5" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B127" s="23" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C127" s="21" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D127" s="8" t="s">
         <v>55</v>
@@ -10701,7 +10707,7 @@
         <v>1380</v>
       </c>
       <c r="G127" s="21" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H127" s="12" t="b">
         <v>0</v>
@@ -10729,13 +10735,13 @@
     </row>
     <row r="128" customHeight="1" spans="1:18">
       <c r="A128" s="5" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C128" s="21" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>55</v>
@@ -10747,7 +10753,7 @@
         <v>1480</v>
       </c>
       <c r="G128" s="21" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="H128" s="12" t="b">
         <v>0</v>
@@ -10775,13 +10781,13 @@
     </row>
     <row r="129" customHeight="1" spans="1:18">
       <c r="A129" s="5" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B129" s="23" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C129" s="21" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="D129" s="27" t="s">
         <v>58</v>
@@ -10793,7 +10799,7 @@
         <v>1580</v>
       </c>
       <c r="G129" s="21" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="H129" s="12" t="b">
         <v>0</v>
@@ -10821,13 +10827,13 @@
     </row>
     <row r="130" customHeight="1" spans="1:18">
       <c r="A130" s="5" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B130" s="23" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C130" s="21" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="D130" s="27" t="s">
         <v>58</v>
@@ -10839,7 +10845,7 @@
         <v>880</v>
       </c>
       <c r="G130" s="21" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H130" s="12" t="b">
         <v>0</v>
@@ -10867,13 +10873,13 @@
     </row>
     <row r="131" customHeight="1" spans="1:18">
       <c r="A131" s="5" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C131" s="21" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="D131" s="27" t="s">
         <v>58</v>
@@ -10885,7 +10891,7 @@
         <v>1380</v>
       </c>
       <c r="G131" s="21" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="H131" s="12" t="b">
         <v>0</v>
@@ -10913,13 +10919,13 @@
     </row>
     <row r="132" customHeight="1" spans="1:18">
       <c r="A132" s="5" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B132" s="23" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C132" s="21" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="D132" s="27" t="s">
         <v>58</v>
@@ -10931,7 +10937,7 @@
         <v>1580</v>
       </c>
       <c r="G132" s="21" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="H132" s="12" t="b">
         <v>0</v>
@@ -10959,13 +10965,13 @@
     </row>
     <row r="133" customHeight="1" spans="1:18">
       <c r="A133" s="5" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B133" s="23" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C133" s="21" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D133" s="27" t="s">
         <v>58</v>
@@ -10977,7 +10983,7 @@
         <v>880</v>
       </c>
       <c r="G133" s="21" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H133" s="12" t="b">
         <v>0</v>
@@ -11005,13 +11011,13 @@
     </row>
     <row r="134" customHeight="1" spans="1:18">
       <c r="A134" s="5" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B134" s="23" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C134" s="21" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="D134" s="27" t="s">
         <v>58</v>
@@ -11023,7 +11029,7 @@
         <v>2380</v>
       </c>
       <c r="G134" s="21" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="H134" s="12" t="b">
         <v>0</v>
@@ -11051,13 +11057,13 @@
     </row>
     <row r="135" customHeight="1" spans="1:18">
       <c r="A135" s="5" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B135" s="21" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C135" s="21" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="D135" s="27" t="s">
         <v>61</v>
@@ -11069,7 +11075,7 @@
         <v>880</v>
       </c>
       <c r="G135" s="21" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H135" s="12" t="b">
         <v>0</v>
@@ -11097,13 +11103,13 @@
     </row>
     <row r="136" customHeight="1" spans="1:18">
       <c r="A136" s="5" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B136" s="21" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C136" s="21" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="D136" s="27" t="s">
         <v>61</v>
@@ -11115,7 +11121,7 @@
         <v>780</v>
       </c>
       <c r="G136" s="21" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="H136" s="12" t="b">
         <v>0</v>
@@ -11143,13 +11149,13 @@
     </row>
     <row r="137" customHeight="1" spans="1:18">
       <c r="A137" s="5" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B137" s="21" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="C137" s="21" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="D137" s="27" t="s">
         <v>61</v>
@@ -11161,7 +11167,7 @@
         <v>780</v>
       </c>
       <c r="G137" s="21" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="H137" s="12" t="b">
         <v>0</v>
@@ -11189,13 +11195,13 @@
     </row>
     <row r="138" customHeight="1" spans="1:18">
       <c r="A138" s="5" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B138" s="21" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="C138" s="21" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="D138" s="27" t="s">
         <v>61</v>
@@ -11207,7 +11213,7 @@
         <v>880</v>
       </c>
       <c r="G138" s="21" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H138" s="12" t="b">
         <v>0</v>
@@ -11235,13 +11241,13 @@
     </row>
     <row r="139" customHeight="1" spans="1:18">
       <c r="A139" s="5" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B139" s="21" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C139" s="21" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="D139" s="27" t="s">
         <v>61</v>
@@ -11253,7 +11259,7 @@
         <v>1280</v>
       </c>
       <c r="G139" s="21" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="H139" s="12" t="b">
         <v>0</v>
@@ -11281,13 +11287,13 @@
     </row>
     <row r="140" customHeight="1" spans="1:18">
       <c r="A140" s="5" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B140" s="21" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C140" s="21" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D140" s="27" t="s">
         <v>61</v>
@@ -11299,7 +11305,7 @@
         <v>1780</v>
       </c>
       <c r="G140" s="21" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="H140" s="12" t="b">
         <v>0</v>
@@ -11327,13 +11333,13 @@
     </row>
     <row r="141" customHeight="1" spans="1:18">
       <c r="A141" s="5" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B141" s="21" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C141" s="21" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="D141" s="27" t="s">
         <v>61</v>
@@ -11345,7 +11351,7 @@
         <v>1180</v>
       </c>
       <c r="G141" s="21" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="H141" s="12" t="b">
         <v>0</v>
@@ -11373,13 +11379,13 @@
     </row>
     <row r="142" customHeight="1" spans="1:18">
       <c r="A142" s="5" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B142" s="21" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="C142" s="21" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="D142" s="27" t="s">
         <v>61</v>
@@ -11391,7 +11397,7 @@
         <v>1280</v>
       </c>
       <c r="G142" s="21" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="H142" s="12" t="b">
         <v>0</v>
@@ -11419,13 +11425,13 @@
     </row>
     <row r="143" customHeight="1" spans="1:18">
       <c r="A143" s="5" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B143" s="21" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="C143" s="21" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="D143" s="27" t="s">
         <v>61</v>
@@ -11437,7 +11443,7 @@
         <v>1780</v>
       </c>
       <c r="G143" s="21" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H143" s="12" t="b">
         <v>0</v>
@@ -11465,13 +11471,13 @@
     </row>
     <row r="144" customHeight="1" spans="1:18">
       <c r="A144" s="5" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B144" s="21" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C144" s="21" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="D144" s="27" t="s">
         <v>61</v>
@@ -11483,7 +11489,7 @@
         <v>2480</v>
       </c>
       <c r="G144" s="21" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="H144" s="12" t="b">
         <v>0</v>
@@ -11511,13 +11517,13 @@
     </row>
     <row r="145" customHeight="1" spans="1:18">
       <c r="A145" s="5" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C145" s="21" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="D145" s="27" t="s">
         <v>61</v>
@@ -11557,13 +11563,13 @@
     </row>
     <row r="146" customHeight="1" spans="1:18">
       <c r="A146" s="5" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="C146" s="21" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="D146" s="27" t="s">
         <v>61</v>
@@ -11575,7 +11581,7 @@
         <v>980</v>
       </c>
       <c r="G146" s="21" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="H146" s="12" t="b">
         <v>0</v>
@@ -11603,13 +11609,13 @@
     </row>
     <row r="147" customHeight="1" spans="1:18">
       <c r="A147" s="5" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C147" s="21" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="D147" s="27" t="s">
         <v>61</v>
@@ -11621,7 +11627,7 @@
         <v>1650</v>
       </c>
       <c r="G147" s="21" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="H147" s="12" t="b">
         <v>0</v>
@@ -11649,13 +11655,13 @@
     </row>
     <row r="148" customHeight="1" spans="1:18">
       <c r="A148" s="5" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C148" s="21" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="D148" s="27" t="s">
         <v>61</v>
@@ -11667,7 +11673,7 @@
         <v>1100</v>
       </c>
       <c r="G148" s="21" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="H148" s="12" t="b">
         <v>0</v>
@@ -11695,13 +11701,13 @@
     </row>
     <row r="149" customHeight="1" spans="1:18">
       <c r="A149" s="5" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="C149" s="21" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D149" s="27" t="s">
         <v>61</v>
@@ -11713,7 +11719,7 @@
         <v>980</v>
       </c>
       <c r="G149" s="21" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="H149" s="12" t="b">
         <v>0</v>
@@ -11741,13 +11747,13 @@
     </row>
     <row r="150" customHeight="1" spans="1:18">
       <c r="A150" s="5" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B150" s="23" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C150" s="21" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="D150" s="27" t="s">
         <v>61</v>
@@ -11787,13 +11793,13 @@
     </row>
     <row r="151" customHeight="1" spans="1:18">
       <c r="A151" s="5" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B151" s="23" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="C151" s="21" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="D151" s="27" t="s">
         <v>61</v>
@@ -11805,7 +11811,7 @@
         <v>1680</v>
       </c>
       <c r="G151" s="21" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="H151" s="12" t="b">
         <v>0</v>
@@ -11833,13 +11839,13 @@
     </row>
     <row r="152" customHeight="1" spans="1:18">
       <c r="A152" s="5" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B152" s="23" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C152" s="21" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="D152" s="27" t="s">
         <v>61</v>
@@ -11851,7 +11857,7 @@
         <v>980</v>
       </c>
       <c r="G152" s="21" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="H152" s="12" t="b">
         <v>0</v>
@@ -11879,13 +11885,13 @@
     </row>
     <row r="153" customHeight="1" spans="1:18">
       <c r="A153" s="5" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C153" s="21" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="D153" s="27" t="s">
         <v>61</v>
@@ -11897,7 +11903,7 @@
         <v>1080</v>
       </c>
       <c r="G153" s="21" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="H153" s="12" t="b">
         <v>0</v>
@@ -11925,13 +11931,13 @@
     </row>
     <row r="154" customHeight="1" spans="1:18">
       <c r="A154" s="5" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B154" s="23" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C154" s="21" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="D154" s="27" t="s">
         <v>61</v>
@@ -11943,7 +11949,7 @@
         <v>1480</v>
       </c>
       <c r="G154" s="21" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="H154" s="12" t="b">
         <v>0</v>
@@ -11971,13 +11977,13 @@
     </row>
     <row r="155" customHeight="1" spans="1:18">
       <c r="A155" s="5" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B155" s="23" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C155" s="21" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D155" s="27" t="s">
         <v>61</v>
@@ -11989,7 +11995,7 @@
         <v>3480</v>
       </c>
       <c r="G155" s="21" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H155" s="12" t="b">
         <v>0</v>
@@ -12017,13 +12023,13 @@
     </row>
     <row r="156" customHeight="1" spans="1:18">
       <c r="A156" s="5" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="C156" s="21" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="D156" s="27" t="s">
         <v>61</v>
@@ -12035,7 +12041,7 @@
         <v>1280</v>
       </c>
       <c r="G156" s="21" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="H156" s="12" t="b">
         <v>0</v>
@@ -12063,13 +12069,13 @@
     </row>
     <row r="157" customHeight="1" spans="1:18">
       <c r="A157" s="5" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B157" s="23" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C157" s="21" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="D157" s="27" t="s">
         <v>61</v>
@@ -12081,7 +12087,7 @@
         <v>1680</v>
       </c>
       <c r="G157" s="21" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="H157" s="12" t="b">
         <v>0</v>
@@ -12109,13 +12115,13 @@
     </row>
     <row r="158" customHeight="1" spans="1:18">
       <c r="A158" s="5" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C158" s="21" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="D158" s="27" t="s">
         <v>61</v>
@@ -12127,7 +12133,7 @@
         <v>2680</v>
       </c>
       <c r="G158" s="21" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="H158" s="12" t="b">
         <v>0</v>
@@ -12158,10 +12164,10 @@
         <v>121</v>
       </c>
       <c r="B159" s="23" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C159" s="21" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="D159" s="27" t="s">
         <v>61</v>
@@ -12173,7 +12179,7 @@
         <v>3680</v>
       </c>
       <c r="G159" s="21" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="H159" s="12" t="b">
         <v>0</v>
@@ -12201,13 +12207,13 @@
     </row>
     <row r="160" customHeight="1" spans="1:18">
       <c r="A160" s="5" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B160" s="23" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="C160" s="21" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="D160" s="27" t="s">
         <v>61</v>
@@ -12247,13 +12253,13 @@
     </row>
     <row r="161" customHeight="1" spans="1:18">
       <c r="A161" s="5" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B161" s="27" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="C161" s="27" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="D161" s="8" t="s">
         <v>67</v>
@@ -12265,7 +12271,7 @@
         <v>193</v>
       </c>
       <c r="G161" s="11" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="H161" s="12" t="b">
         <v>0</v>
@@ -12274,19 +12280,19 @@
         <v>0</v>
       </c>
       <c r="J161" s="8" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="K161" s="8" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="L161" s="8" t="s">
         <v>264</v>
       </c>
       <c r="M161" s="16" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="N161" s="17" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="O161" s="8" t="s">
         <v>110</v>
@@ -12301,13 +12307,13 @@
     </row>
     <row r="162" customHeight="1" spans="1:18">
       <c r="A162" s="5" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B162" s="28" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="C162" s="27" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="D162" s="8" t="s">
         <v>67</v>
@@ -12319,7 +12325,7 @@
         <v>193</v>
       </c>
       <c r="G162" s="11" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="H162" s="12" t="b">
         <v>0</v>
@@ -12328,19 +12334,19 @@
         <v>0</v>
       </c>
       <c r="J162" s="8" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="K162" s="8" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="L162" s="8" t="s">
         <v>264</v>
       </c>
       <c r="M162" s="16" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="N162" s="17" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="O162" s="8" t="s">
         <v>110</v>
@@ -12355,13 +12361,13 @@
     </row>
     <row r="163" customHeight="1" spans="1:18">
       <c r="A163" s="5" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B163" s="27" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="C163" s="27" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="D163" s="8" t="s">
         <v>67</v>
@@ -12373,7 +12379,7 @@
         <v>193</v>
       </c>
       <c r="G163" s="11" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="H163" s="12" t="b">
         <v>0</v>
@@ -12382,19 +12388,19 @@
         <v>0</v>
       </c>
       <c r="J163" s="8" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="K163" s="8" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="L163" s="8" t="s">
         <v>264</v>
       </c>
       <c r="M163" s="16" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="N163" s="17" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="O163" s="8" t="s">
         <v>110</v>
@@ -12409,13 +12415,13 @@
     </row>
     <row r="164" customHeight="1" spans="1:18">
       <c r="A164" s="5" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B164" s="27" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="C164" s="27" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="D164" s="27" t="s">
         <v>67</v>
@@ -12427,7 +12433,7 @@
         <v>193</v>
       </c>
       <c r="G164" s="27" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="H164" s="20" t="b">
         <v>0</v>
@@ -12436,19 +12442,19 @@
         <v>0</v>
       </c>
       <c r="J164" s="27" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="K164" s="8" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="L164" s="27" t="s">
         <v>264</v>
       </c>
       <c r="M164" s="16" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="N164" s="17" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="O164" s="27" t="s">
         <v>110</v>
@@ -12463,13 +12469,13 @@
     </row>
     <row r="165" customHeight="1" spans="1:18">
       <c r="A165" s="5" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B165" s="27" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="C165" s="27" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D165" s="8" t="s">
         <v>70</v>
@@ -12481,7 +12487,7 @@
         <v>238</v>
       </c>
       <c r="G165" s="27" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="H165" s="20" t="b">
         <v>0</v>
@@ -12490,7 +12496,7 @@
         <v>0</v>
       </c>
       <c r="J165" s="27" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="K165" s="8"/>
       <c r="L165" s="8"/>
@@ -12509,13 +12515,13 @@
     </row>
     <row r="166" customHeight="1" spans="1:18">
       <c r="A166" s="5" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B166" s="27" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="C166" s="27" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="D166" s="8" t="s">
         <v>70</v>
@@ -12527,7 +12533,7 @@
         <v>252</v>
       </c>
       <c r="G166" s="27" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="H166" s="20" t="b">
         <v>0</v>
@@ -12536,7 +12542,7 @@
         <v>0</v>
       </c>
       <c r="J166" s="27" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="K166" s="8"/>
       <c r="L166" s="8"/>
@@ -12555,13 +12561,13 @@
     </row>
     <row r="167" customHeight="1" spans="1:18">
       <c r="A167" s="5" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B167" s="27" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="C167" s="27" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="D167" s="8" t="s">
         <v>74</v>
@@ -12573,7 +12579,7 @@
         <v>238</v>
       </c>
       <c r="G167" s="27" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="H167" s="20" t="b">
         <v>0</v>
@@ -12582,7 +12588,7 @@
         <v>0</v>
       </c>
       <c r="J167" s="27" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="K167" s="8"/>
       <c r="L167" s="8"/>
@@ -12601,13 +12607,13 @@
     </row>
     <row r="168" customHeight="1" spans="1:18">
       <c r="A168" s="5" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="B168" s="27" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="C168" s="27" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="D168" s="8" t="s">
         <v>74</v>
@@ -12619,7 +12625,7 @@
         <v>238</v>
       </c>
       <c r="G168" s="27" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="H168" s="20" t="b">
         <v>0</v>
@@ -12628,7 +12634,7 @@
         <v>0</v>
       </c>
       <c r="J168" s="27" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="K168" s="8"/>
       <c r="L168" s="8"/>
@@ -12650,10 +12656,10 @@
         <v>103</v>
       </c>
       <c r="B169" s="27" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="C169" s="27" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="D169" s="8" t="s">
         <v>74</v>
@@ -12665,7 +12671,7 @@
         <v>238</v>
       </c>
       <c r="G169" s="27" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="H169" s="20" t="b">
         <v>0</v>
@@ -12674,7 +12680,7 @@
         <v>0</v>
       </c>
       <c r="J169" s="27" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="K169" s="8"/>
       <c r="L169" s="8"/>
@@ -12693,13 +12699,13 @@
     </row>
     <row r="170" customHeight="1" spans="1:18">
       <c r="A170" s="5" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B170" s="27" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="C170" s="27" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="D170" s="8" t="s">
         <v>74</v>
@@ -12711,7 +12717,7 @@
         <v>303</v>
       </c>
       <c r="G170" s="27" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="H170" s="20" t="b">
         <v>0</v>
@@ -12720,7 +12726,7 @@
         <v>0</v>
       </c>
       <c r="J170" s="27" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="K170" s="8"/>
       <c r="L170" s="8"/>
@@ -12739,13 +12745,13 @@
     </row>
     <row r="171" customHeight="1" spans="1:18">
       <c r="A171" s="5" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="B171" s="27" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="C171" s="27" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="D171" s="8" t="s">
         <v>81</v>
@@ -12766,11 +12772,11 @@
         <v>0</v>
       </c>
       <c r="J171" s="8" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="K171" s="8"/>
       <c r="L171" s="29" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="M171" s="16"/>
       <c r="N171" s="17"/>
@@ -12787,13 +12793,13 @@
     </row>
     <row r="172" customHeight="1" spans="1:18">
       <c r="A172" s="5" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="B172" s="27" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="C172" s="27" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="D172" s="8" t="s">
         <v>81</v>
@@ -12814,7 +12820,7 @@
         <v>0</v>
       </c>
       <c r="J172" s="8" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="K172" s="8"/>
       <c r="L172" s="8"/>
@@ -12833,13 +12839,13 @@
     </row>
     <row r="173" customHeight="1" spans="1:18">
       <c r="A173" s="5" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="B173" s="29" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="C173" s="27" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="D173" s="8" t="s">
         <v>81</v>
@@ -12860,7 +12866,7 @@
         <v>0</v>
       </c>
       <c r="J173" s="8" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="K173" s="8"/>
       <c r="L173" s="8"/>
@@ -12879,13 +12885,13 @@
     </row>
     <row r="174" customHeight="1" spans="1:18">
       <c r="A174" s="5" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B174" s="27" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C174" s="27" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="D174" s="8" t="s">
         <v>81</v>
@@ -12906,7 +12912,7 @@
         <v>0</v>
       </c>
       <c r="J174" s="8" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="K174" s="8"/>
       <c r="L174" s="8"/>
@@ -12925,13 +12931,13 @@
     </row>
     <row r="175" customHeight="1" spans="1:18">
       <c r="A175" s="5" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B175" s="27" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="C175" s="27" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="D175" s="8" t="s">
         <v>81</v>
@@ -12952,7 +12958,7 @@
         <v>0</v>
       </c>
       <c r="J175" s="8" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="K175" s="8"/>
       <c r="L175" s="8"/>

--- a/data/menu_dinner.xlsx
+++ b/data/menu_dinner.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895">
   <si>
     <t>id</t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>images/product/food/慢炖牛肋.jpg</t>
+  </si>
+  <si>
+    <t>Beef ribs / white mushroom / carrot</t>
   </si>
   <si>
     <t>牛肋/蘑菇/胡萝卜/青豆/罗勒</t>
@@ -4468,8 +4471,8 @@
   <sheetPr/>
   <dimension ref="A1:BD219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A176"/>
+    <sheetView tabSelected="1" topLeftCell="L2" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -4584,18 +4587,20 @@
         <v>106</v>
       </c>
       <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
+      <c r="M2" s="13" t="s">
+        <v>107</v>
+      </c>
       <c r="N2" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R2" s="5"/>
     </row>
@@ -4604,10 +4609,10 @@
         <v>71</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>101</v>
@@ -4616,10 +4621,10 @@
         <v>102</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H3" s="10" t="b">
         <v>1</v>
@@ -4631,25 +4636,25 @@
         <v>105</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R3" s="5"/>
     </row>
@@ -4658,10 +4663,10 @@
         <v>31</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>101</v>
@@ -4670,10 +4675,10 @@
         <v>102</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H4" s="10" t="b">
         <v>1</v>
@@ -4685,25 +4690,25 @@
         <v>105</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R4" s="5"/>
     </row>
@@ -4712,10 +4717,10 @@
         <v>77</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>101</v>
@@ -4724,10 +4729,10 @@
         <v>102</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H5" s="10" t="b">
         <v>1</v>
@@ -4739,37 +4744,37 @@
         <v>105</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R5" s="5"/>
     </row>
     <row r="6" customHeight="1" spans="1:18">
       <c r="A6" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>101</v>
@@ -4778,10 +4783,10 @@
         <v>102</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H6" s="10" t="b">
         <v>0</v>
@@ -4793,35 +4798,35 @@
         <v>105</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O6" s="5" t="s">
         <v>31</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R6" s="5"/>
     </row>
     <row r="7" customHeight="1" spans="1:18">
       <c r="A7" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>101</v>
@@ -4830,10 +4835,10 @@
         <v>102</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H7" s="10" t="b">
         <v>0</v>
@@ -4845,35 +4850,35 @@
         <v>105</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O7" s="5" t="s">
         <v>71</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R7" s="5"/>
     </row>
     <row r="8" customHeight="1" spans="1:18">
       <c r="A8" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>101</v>
@@ -4882,10 +4887,10 @@
         <v>102</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H8" s="10" t="b">
         <v>0</v>
@@ -4897,35 +4902,35 @@
         <v>105</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R8" s="5"/>
     </row>
     <row r="9" customHeight="1" spans="1:18">
       <c r="A9" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>101</v>
@@ -4934,10 +4939,10 @@
         <v>102</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H9" s="10" t="b">
         <v>0</v>
@@ -4949,35 +4954,35 @@
         <v>105</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R9" s="5"/>
     </row>
     <row r="10" customHeight="1" spans="1:18">
       <c r="A10" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>101</v>
@@ -4986,10 +4991,10 @@
         <v>102</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H10" s="10" t="b">
         <v>0</v>
@@ -5001,35 +5006,35 @@
         <v>105</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N10" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R10" s="5"/>
     </row>
     <row r="11" customHeight="1" spans="1:18">
       <c r="A11" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>101</v>
@@ -5038,10 +5043,10 @@
         <v>102</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H11" s="10" t="b">
         <v>0</v>
@@ -5053,23 +5058,23 @@
         <v>105</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R11" s="5"/>
     </row>
@@ -5078,10 +5083,10 @@
         <v>101</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>101</v>
@@ -5090,10 +5095,10 @@
         <v>102</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H12" s="10" t="b">
         <v>0</v>
@@ -5105,47 +5110,47 @@
         <v>105</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R12" s="5"/>
     </row>
     <row r="13" customHeight="1" spans="1:18">
       <c r="A13" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>183</v>
-      </c>
       <c r="E13" s="5" t="s">
         <v>102</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H13" s="10" t="b">
         <v>1</v>
@@ -5157,49 +5162,49 @@
         <v>105</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R13" s="10"/>
     </row>
     <row r="14" customHeight="1" spans="1:28">
       <c r="A14" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H14" s="12" t="b">
         <v>0</v>
@@ -5211,23 +5216,23 @@
         <v>105</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L14" s="14"/>
       <c r="M14" s="16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R14" s="8"/>
       <c r="S14" s="18"/>
@@ -5246,22 +5251,22 @@
         <v>18</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H15" s="12" t="b">
         <v>0</v>
@@ -5273,23 +5278,23 @@
         <v>105</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L15" s="14"/>
       <c r="M15" s="16" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O15" s="8">
         <v>1</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q15" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R15" s="8"/>
       <c r="S15" s="18"/>
@@ -5304,25 +5309,25 @@
     </row>
     <row r="16" customHeight="1" spans="1:56">
       <c r="A16" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H16" s="12" t="b">
         <v>0</v>
@@ -5334,23 +5339,23 @@
         <v>105</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L16" s="14"/>
       <c r="M16" s="16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O16" s="8" t="s">
         <v>98</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R16" s="8"/>
       <c r="S16" s="18"/>
@@ -5394,25 +5399,25 @@
     </row>
     <row r="17" customHeight="1" spans="1:33">
       <c r="A17" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H17" s="12" t="b">
         <v>0</v>
@@ -5424,23 +5429,23 @@
         <v>105</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L17" s="14"/>
       <c r="M17" s="16" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R17" s="8"/>
       <c r="S17" s="18"/>
@@ -5461,25 +5466,25 @@
     </row>
     <row r="18" customHeight="1" spans="1:18">
       <c r="A18" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H18" s="12" t="b">
         <v>0</v>
@@ -5491,47 +5496,47 @@
         <v>105</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q18" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R18" s="5"/>
     </row>
     <row r="19" customHeight="1" spans="1:18">
       <c r="A19" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H19" s="12" t="b">
         <v>0</v>
@@ -5543,47 +5548,47 @@
         <v>105</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L19" s="14"/>
       <c r="M19" s="16" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N19" s="17" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R19" s="8"/>
     </row>
     <row r="20" customHeight="1" spans="1:18">
       <c r="A20" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H20" s="12" t="b">
         <v>0</v>
@@ -5595,35 +5600,35 @@
         <v>105</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L20" s="14"/>
       <c r="M20" s="16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N20" s="17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q20" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R20" s="8"/>
     </row>
     <row r="21" customHeight="1" spans="1:18">
       <c r="A21" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>18</v>
@@ -5632,10 +5637,10 @@
         <v>102</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H21" s="12" t="b">
         <v>0</v>
@@ -5647,35 +5652,35 @@
         <v>105</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L21" s="14"/>
       <c r="M21" s="16" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N21" s="17" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q21" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R21" s="5"/>
     </row>
     <row r="22" customHeight="1" spans="1:18">
       <c r="A22" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>18</v>
@@ -5684,10 +5689,10 @@
         <v>102</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H22" s="12" t="b">
         <v>0</v>
@@ -5699,35 +5704,35 @@
         <v>105</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L22" s="14"/>
       <c r="M22" s="16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q22" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R22" s="5"/>
     </row>
     <row r="23" customHeight="1" spans="1:18">
       <c r="A23" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>18</v>
@@ -5736,10 +5741,10 @@
         <v>102</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H23" s="12" t="b">
         <v>0</v>
@@ -5751,35 +5756,35 @@
         <v>105</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q23" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R23" s="5"/>
     </row>
     <row r="24" customHeight="1" spans="1:18">
       <c r="A24" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>18</v>
@@ -5788,10 +5793,10 @@
         <v>102</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H24" s="12" t="b">
         <v>0</v>
@@ -5803,47 +5808,47 @@
         <v>105</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P24" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q24" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R24" s="5"/>
     </row>
     <row r="25" customHeight="1" spans="1:18">
       <c r="A25" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H25" s="12" t="b">
         <v>0</v>
@@ -5852,25 +5857,25 @@
         <v>0</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L25" s="14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M25" s="16" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N25" s="17" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P25" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q25" s="12" t="b">
         <v>1</v>
@@ -5879,25 +5884,25 @@
     </row>
     <row r="26" customHeight="1" spans="1:18">
       <c r="A26" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H26" s="12" t="b">
         <v>0</v>
@@ -5906,25 +5911,25 @@
         <v>0</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N26" s="17" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P26" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q26" s="12" t="b">
         <v>1</v>
@@ -5933,25 +5938,25 @@
     </row>
     <row r="27" customHeight="1" spans="1:18">
       <c r="A27" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H27" s="12" t="b">
         <v>0</v>
@@ -5960,25 +5965,25 @@
         <v>0</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M27" s="16" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N27" s="17" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P27" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q27" s="12" t="b">
         <v>1</v>
@@ -5987,25 +5992,25 @@
     </row>
     <row r="28" customHeight="1" spans="1:18">
       <c r="A28" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H28" s="12" t="b">
         <v>0</v>
@@ -6014,25 +6019,25 @@
         <v>0</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M28" s="16" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N28" s="17" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P28" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q28" s="12" t="b">
         <v>1</v>
@@ -6041,25 +6046,25 @@
     </row>
     <row r="29" customHeight="1" spans="1:18">
       <c r="A29" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H29" s="12" t="b">
         <v>0</v>
@@ -6068,25 +6073,25 @@
         <v>0</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M29" s="16" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N29" s="17" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P29" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q29" s="12" t="b">
         <v>1</v>
@@ -6095,25 +6100,25 @@
     </row>
     <row r="30" customHeight="1" spans="1:18">
       <c r="A30" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H30" s="12" t="b">
         <v>0</v>
@@ -6122,25 +6127,25 @@
         <v>0</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M30" s="16" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N30" s="17" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P30" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q30" s="12" t="b">
         <v>1</v>
@@ -6149,25 +6154,25 @@
     </row>
     <row r="31" customHeight="1" spans="1:18">
       <c r="A31" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H31" s="12" t="b">
         <v>0</v>
@@ -6176,28 +6181,28 @@
         <v>0</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M31" s="16" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N31" s="17" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P31" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q31" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R31" s="5"/>
     </row>
@@ -6206,49 +6211,49 @@
         <v>67</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="H32" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="M32" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="P32" s="8" t="s">
         <v>311</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="H32" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="L32" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="M32" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="N32" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="O32" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="P32" s="8" t="s">
-        <v>310</v>
       </c>
       <c r="Q32" s="12" t="b">
         <v>1</v>
@@ -6260,22 +6265,22 @@
         <v>70</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H33" s="12" t="b">
         <v>0</v>
@@ -6284,25 +6289,25 @@
         <v>0</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M33" s="16" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O33" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P33" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q33" s="12" t="b">
         <v>1</v>
@@ -6314,22 +6319,22 @@
         <v>74</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H34" s="12" t="b">
         <v>0</v>
@@ -6338,22 +6343,22 @@
         <v>0</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L34" s="14" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M34" s="16" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N34" s="17" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P34" s="8">
         <v>35</v>
@@ -6365,25 +6370,25 @@
     </row>
     <row r="35" customHeight="1" spans="1:18">
       <c r="A35" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H35" s="12" t="b">
         <v>0</v>
@@ -6392,50 +6397,50 @@
         <v>0</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K35" s="8"/>
       <c r="L35" s="14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M35" s="16" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N35" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O35" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P35" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q35" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R35" s="5"/>
     </row>
     <row r="36" customHeight="1" spans="1:18">
       <c r="A36" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H36" s="12" t="b">
         <v>0</v>
@@ -6444,23 +6449,23 @@
         <v>0</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K36" s="8"/>
       <c r="L36" s="14" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M36" s="16" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N36" s="17" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P36" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q36" s="12" t="b">
         <v>1</v>
@@ -6469,25 +6474,25 @@
     </row>
     <row r="37" customHeight="1" spans="1:18">
       <c r="A37" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H37" s="12" t="b">
         <v>0</v>
@@ -6496,23 +6501,23 @@
         <v>0</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K37" s="8"/>
       <c r="L37" s="14" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M37" s="16" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N37" s="17" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O37" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P37" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q37" s="12" t="b">
         <v>1</v>
@@ -6521,25 +6526,25 @@
     </row>
     <row r="38" customHeight="1" spans="1:18">
       <c r="A38" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H38" s="12" t="b">
         <v>0</v>
@@ -6548,23 +6553,23 @@
         <v>0</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K38" s="8"/>
       <c r="L38" s="14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M38" s="16" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N38" s="17" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P38" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q38" s="12" t="b">
         <v>1</v>
@@ -6573,25 +6578,25 @@
     </row>
     <row r="39" customHeight="1" spans="1:18">
       <c r="A39" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H39" s="12" t="b">
         <v>0</v>
@@ -6600,23 +6605,23 @@
         <v>0</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K39" s="8"/>
       <c r="L39" s="14" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M39" s="16" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N39" s="17" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P39" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q39" s="12" t="b">
         <v>1</v>
@@ -6625,25 +6630,25 @@
     </row>
     <row r="40" customHeight="1" spans="1:18">
       <c r="A40" s="5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H40" s="12" t="b">
         <v>0</v>
@@ -6652,50 +6657,50 @@
         <v>0</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K40" s="8"/>
       <c r="L40" s="14" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M40" s="16" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N40" s="17" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P40" s="8">
         <v>35</v>
       </c>
       <c r="Q40" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R40" s="5"/>
     </row>
     <row r="41" customHeight="1" spans="1:18">
       <c r="A41" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H41" s="12" t="b">
         <v>0</v>
@@ -6704,23 +6709,23 @@
         <v>0</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K41" s="8"/>
       <c r="L41" s="14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M41" s="16" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N41" s="17" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P41" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q41" s="12" t="b">
         <v>1</v>
@@ -6729,25 +6734,25 @@
     </row>
     <row r="42" customHeight="1" spans="1:18">
       <c r="A42" s="5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H42" s="12" t="b">
         <v>0</v>
@@ -6756,23 +6761,23 @@
         <v>0</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K42" s="8"/>
       <c r="L42" s="14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M42" s="16" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N42" s="17" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P42" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q42" s="12" t="b">
         <v>1</v>
@@ -6781,25 +6786,25 @@
     </row>
     <row r="43" customHeight="1" spans="1:18">
       <c r="A43" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H43" s="12" t="b">
         <v>0</v>
@@ -6808,23 +6813,23 @@
         <v>0</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K43" s="8"/>
       <c r="L43" s="14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M43" s="16" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N43" s="17" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P43" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q43" s="12" t="b">
         <v>1</v>
@@ -6833,25 +6838,25 @@
     </row>
     <row r="44" customHeight="1" spans="1:18">
       <c r="A44" s="5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H44" s="12" t="b">
         <v>0</v>
@@ -6860,23 +6865,23 @@
         <v>0</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K44" s="8"/>
       <c r="L44" s="14" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M44" s="16" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N44" s="17" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P44" s="8" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q44" s="12" t="b">
         <v>1</v>
@@ -6885,25 +6890,25 @@
     </row>
     <row r="45" customHeight="1" spans="1:18">
       <c r="A45" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H45" s="12" t="b">
         <v>0</v>
@@ -6912,23 +6917,23 @@
         <v>0</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K45" s="8"/>
       <c r="L45" s="14" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M45" s="16" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N45" s="17" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O45" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P45" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q45" s="12" t="b">
         <v>1</v>
@@ -6937,25 +6942,25 @@
     </row>
     <row r="46" customHeight="1" spans="1:18">
       <c r="A46" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H46" s="12" t="b">
         <v>0</v>
@@ -6964,23 +6969,23 @@
         <v>0</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K46" s="8"/>
       <c r="L46" s="14" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M46" s="16" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N46" s="17" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P46" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q46" s="12" t="b">
         <v>1</v>
@@ -6989,25 +6994,25 @@
     </row>
     <row r="47" customHeight="1" spans="1:18">
       <c r="A47" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H47" s="12" t="b">
         <v>0</v>
@@ -7016,23 +7021,23 @@
         <v>0</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K47" s="8"/>
       <c r="L47" s="14" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M47" s="16" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N47" s="17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P47" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q47" s="12" t="b">
         <v>1</v>
@@ -7041,25 +7046,25 @@
     </row>
     <row r="48" customHeight="1" spans="1:18">
       <c r="A48" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H48" s="12" t="b">
         <v>0</v>
@@ -7068,50 +7073,50 @@
         <v>0</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K48" s="8"/>
       <c r="L48" s="14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M48" s="16" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N48" s="17" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P48" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q48" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R48" s="5"/>
     </row>
     <row r="49" customHeight="1" spans="1:18">
       <c r="A49" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H49" s="12" t="b">
         <v>0</v>
@@ -7120,23 +7125,23 @@
         <v>0</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K49" s="8"/>
       <c r="L49" s="14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M49" s="16" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N49" s="17" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O49" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P49" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q49" s="12" t="b">
         <v>1</v>
@@ -7145,25 +7150,25 @@
     </row>
     <row r="50" customHeight="1" spans="1:18">
       <c r="A50" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H50" s="12" t="b">
         <v>0</v>
@@ -7172,23 +7177,23 @@
         <v>0</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K50" s="8"/>
       <c r="L50" s="14" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M50" s="16" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N50" s="17" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O50" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P50" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q50" s="12" t="b">
         <v>1</v>
@@ -7197,25 +7202,25 @@
     </row>
     <row r="51" customHeight="1" spans="1:18">
       <c r="A51" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H51" s="12" t="b">
         <v>0</v>
@@ -7224,23 +7229,23 @@
         <v>0</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K51" s="8"/>
       <c r="L51" s="14" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M51" s="16" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N51" s="17" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O51" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P51" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q51" s="12" t="b">
         <v>1</v>
@@ -7249,25 +7254,25 @@
     </row>
     <row r="52" customHeight="1" spans="1:18">
       <c r="A52" s="5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H52" s="12" t="b">
         <v>0</v>
@@ -7276,50 +7281,50 @@
         <v>0</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K52" s="8"/>
       <c r="L52" s="14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M52" s="16" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N52" s="17" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O52" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P52" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q52" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R52" s="5"/>
     </row>
     <row r="53" customHeight="1" spans="1:18">
       <c r="A53" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H53" s="12" t="b">
         <v>0</v>
@@ -7328,50 +7333,50 @@
         <v>0</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K53" s="8"/>
       <c r="L53" s="14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M53" s="16" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N53" s="17" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O53" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P53" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q53" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R53" s="5"/>
     </row>
     <row r="54" customHeight="1" spans="1:18">
       <c r="A54" s="5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H54" s="12" t="b">
         <v>0</v>
@@ -7380,44 +7385,44 @@
         <v>0</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K54" s="8"/>
       <c r="L54" s="14"/>
       <c r="M54" s="16"/>
       <c r="N54" s="17"/>
       <c r="O54" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P54" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q54" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R54" s="5"/>
     </row>
     <row r="55" customHeight="1" spans="1:18">
       <c r="A55" s="5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H55" s="12" t="b">
         <v>0</v>
@@ -7426,44 +7431,44 @@
         <v>0</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K55" s="8"/>
       <c r="L55" s="14"/>
       <c r="M55" s="16"/>
       <c r="N55" s="17"/>
       <c r="O55" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P55" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q55" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R55" s="5"/>
     </row>
     <row r="56" customHeight="1" spans="1:18">
       <c r="A56" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H56" s="12" t="b">
         <v>0</v>
@@ -7472,44 +7477,44 @@
         <v>0</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K56" s="8"/>
       <c r="L56" s="14"/>
       <c r="M56" s="16"/>
       <c r="N56" s="17"/>
       <c r="O56" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P56" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q56" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R56" s="5"/>
     </row>
     <row r="57" customHeight="1" spans="1:18">
       <c r="A57" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H57" s="12" t="b">
         <v>0</v>
@@ -7518,44 +7523,44 @@
         <v>0</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K57" s="8"/>
       <c r="L57" s="14"/>
       <c r="M57" s="16"/>
       <c r="N57" s="17"/>
       <c r="O57" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P57" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q57" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R57" s="5"/>
     </row>
     <row r="58" customHeight="1" spans="1:18">
       <c r="A58" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H58" s="12" t="b">
         <v>0</v>
@@ -7564,44 +7569,44 @@
         <v>0</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K58" s="8"/>
       <c r="L58" s="14"/>
       <c r="M58" s="16"/>
       <c r="N58" s="17"/>
       <c r="O58" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P58" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q58" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R58" s="5"/>
     </row>
     <row r="59" customHeight="1" spans="1:18">
       <c r="A59" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B59" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="D59" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>453</v>
-      </c>
       <c r="E59" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H59" s="12" t="b">
         <v>0</v>
@@ -7610,44 +7615,44 @@
         <v>0</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K59" s="8"/>
       <c r="L59" s="14"/>
       <c r="M59" s="16"/>
       <c r="N59" s="17"/>
       <c r="O59" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P59" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q59" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R59" s="5"/>
     </row>
     <row r="60" customHeight="1" spans="1:18">
       <c r="A60" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H60" s="12" t="b">
         <v>0</v>
@@ -7656,44 +7661,44 @@
         <v>0</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K60" s="8"/>
       <c r="L60" s="14"/>
       <c r="M60" s="16"/>
       <c r="N60" s="17"/>
       <c r="O60" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P60" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q60" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R60" s="5"/>
     </row>
     <row r="61" customHeight="1" spans="1:18">
       <c r="A61" s="5" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H61" s="12" t="b">
         <v>0</v>
@@ -7702,44 +7707,44 @@
         <v>0</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K61" s="8"/>
       <c r="L61" s="14"/>
       <c r="M61" s="16"/>
       <c r="N61" s="17"/>
       <c r="O61" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P61" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q61" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R61" s="5"/>
     </row>
     <row r="62" customHeight="1" spans="1:18">
       <c r="A62" s="5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H62" s="12" t="b">
         <v>0</v>
@@ -7748,44 +7753,44 @@
         <v>0</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K62" s="8"/>
       <c r="L62" s="14"/>
       <c r="M62" s="16"/>
       <c r="N62" s="17"/>
       <c r="O62" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P62" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q62" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R62" s="5"/>
     </row>
     <row r="63" customHeight="1" spans="1:18">
       <c r="A63" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H63" s="12" t="b">
         <v>0</v>
@@ -7794,44 +7799,44 @@
         <v>0</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K63" s="8"/>
       <c r="L63" s="14"/>
       <c r="M63" s="16"/>
       <c r="N63" s="17"/>
       <c r="O63" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P63" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q63" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R63" s="5"/>
     </row>
     <row r="64" customHeight="1" spans="1:18">
       <c r="A64" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H64" s="12" t="b">
         <v>0</v>
@@ -7840,44 +7845,44 @@
         <v>0</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K64" s="8"/>
       <c r="L64" s="14"/>
       <c r="M64" s="16"/>
       <c r="N64" s="17"/>
       <c r="O64" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P64" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q64" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R64" s="5"/>
     </row>
     <row r="65" customHeight="1" spans="1:18">
       <c r="A65" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H65" s="12" t="b">
         <v>0</v>
@@ -7886,32 +7891,32 @@
         <v>0</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K65" s="8"/>
       <c r="L65" s="14"/>
       <c r="M65" s="16"/>
       <c r="N65" s="17"/>
       <c r="O65" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P65" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q65" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R65" s="5"/>
     </row>
     <row r="66" customHeight="1" spans="1:18">
       <c r="A66" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>43</v>
@@ -7923,7 +7928,7 @@
         <v>860</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H66" s="12" t="b">
         <v>0</v>
@@ -7932,32 +7937,32 @@
         <v>0</v>
       </c>
       <c r="J66" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
       <c r="M66" s="16"/>
       <c r="N66" s="17"/>
       <c r="O66" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P66" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q66" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R66" s="5"/>
     </row>
     <row r="67" customHeight="1" spans="1:18">
       <c r="A67" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>43</v>
@@ -7969,7 +7974,7 @@
         <v>960</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H67" s="12" t="b">
         <v>0</v>
@@ -7978,32 +7983,32 @@
         <v>0</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
       <c r="M67" s="16"/>
       <c r="N67" s="17"/>
       <c r="O67" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P67" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q67" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R67" s="5"/>
     </row>
     <row r="68" customHeight="1" spans="1:18">
       <c r="A68" s="5" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>43</v>
@@ -8015,7 +8020,7 @@
         <v>860</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H68" s="12" t="b">
         <v>0</v>
@@ -8024,32 +8029,32 @@
         <v>0</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
       <c r="M68" s="16"/>
       <c r="N68" s="17"/>
       <c r="O68" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P68" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q68" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R68" s="16"/>
     </row>
     <row r="69" customHeight="1" spans="1:18">
       <c r="A69" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>43</v>
@@ -8061,7 +8066,7 @@
         <v>1080</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H69" s="12" t="b">
         <v>0</v>
@@ -8070,32 +8075,32 @@
         <v>0</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K69" s="8"/>
       <c r="L69" s="8"/>
       <c r="M69" s="16"/>
       <c r="N69" s="17"/>
       <c r="O69" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P69" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q69" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R69" s="16"/>
     </row>
     <row r="70" customHeight="1" spans="1:18">
       <c r="A70" s="5" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>43</v>
@@ -8107,7 +8112,7 @@
         <v>1180</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H70" s="12" t="b">
         <v>0</v>
@@ -8116,32 +8121,32 @@
         <v>0</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
       <c r="M70" s="16"/>
       <c r="N70" s="17"/>
       <c r="O70" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P70" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q70" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R70" s="16"/>
     </row>
     <row r="71" customHeight="1" spans="1:18">
       <c r="A71" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>43</v>
@@ -8153,7 +8158,7 @@
         <v>1080</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H71" s="12" t="b">
         <v>0</v>
@@ -8162,32 +8167,32 @@
         <v>0</v>
       </c>
       <c r="J71" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
       <c r="M71" s="16"/>
       <c r="N71" s="17"/>
       <c r="O71" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P71" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q71" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R71" s="16"/>
     </row>
     <row r="72" customHeight="1" spans="1:18">
       <c r="A72" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>43</v>
@@ -8199,7 +8204,7 @@
         <v>1100</v>
       </c>
       <c r="G72" s="25" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H72" s="12" t="b">
         <v>0</v>
@@ -8208,35 +8213,35 @@
         <v>0</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
       <c r="M72" s="16"/>
       <c r="N72" s="17"/>
       <c r="O72" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P72" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q72" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R72" s="16"/>
     </row>
     <row r="73" customHeight="1" spans="1:18">
       <c r="A73" s="5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>102</v>
@@ -8245,7 +8250,7 @@
         <v>1100</v>
       </c>
       <c r="G73" s="25" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H73" s="12" t="b">
         <v>0</v>
@@ -8254,32 +8259,32 @@
         <v>0</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K73" s="8"/>
       <c r="L73" s="8"/>
       <c r="M73" s="16"/>
       <c r="N73" s="17"/>
       <c r="O73" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P73" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q73" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R73" s="16"/>
     </row>
     <row r="74" customHeight="1" spans="1:18">
       <c r="A74" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>43</v>
@@ -8291,7 +8296,7 @@
         <v>1100</v>
       </c>
       <c r="G74" s="25" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H74" s="12" t="b">
         <v>0</v>
@@ -8300,32 +8305,32 @@
         <v>0</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K74" s="8"/>
       <c r="L74" s="8"/>
       <c r="M74" s="16"/>
       <c r="N74" s="17"/>
       <c r="O74" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P74" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q74" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R74" s="16"/>
     </row>
     <row r="75" customHeight="1" spans="1:18">
       <c r="A75" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>43</v>
@@ -8337,7 +8342,7 @@
         <v>1180</v>
       </c>
       <c r="G75" s="25" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H75" s="12" t="b">
         <v>0</v>
@@ -8346,32 +8351,32 @@
         <v>0</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K75" s="8"/>
       <c r="L75" s="8"/>
       <c r="M75" s="16"/>
       <c r="N75" s="17"/>
       <c r="O75" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P75" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q75" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R75" s="16"/>
     </row>
     <row r="76" customHeight="1" spans="1:18">
       <c r="A76" s="5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>43</v>
@@ -8383,7 +8388,7 @@
         <v>880</v>
       </c>
       <c r="G76" s="25" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H76" s="12" t="b">
         <v>0</v>
@@ -8392,32 +8397,32 @@
         <v>0</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
       <c r="M76" s="16"/>
       <c r="N76" s="17"/>
       <c r="O76" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P76" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q76" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R76" s="16"/>
     </row>
     <row r="77" customHeight="1" spans="1:18">
       <c r="A77" s="5" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>43</v>
@@ -8429,7 +8434,7 @@
         <v>1280</v>
       </c>
       <c r="G77" s="25" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H77" s="12" t="b">
         <v>0</v>
@@ -8438,35 +8443,35 @@
         <v>0</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K77" s="8"/>
       <c r="L77" s="8"/>
       <c r="M77" s="16"/>
       <c r="N77" s="17"/>
       <c r="O77" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P77" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q77" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R77" s="16"/>
     </row>
     <row r="78" customHeight="1" spans="1:18">
       <c r="A78" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>102</v>
@@ -8475,7 +8480,7 @@
         <v>880</v>
       </c>
       <c r="G78" s="21" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H78" s="12" t="b">
         <v>0</v>
@@ -8484,32 +8489,32 @@
         <v>0</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
       <c r="M78" s="16"/>
       <c r="N78" s="17"/>
       <c r="O78" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P78" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q78" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R78" s="16"/>
     </row>
     <row r="79" customHeight="1" spans="1:18">
       <c r="A79" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>46</v>
@@ -8521,7 +8526,7 @@
         <v>1100</v>
       </c>
       <c r="G79" s="21" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H79" s="12" t="b">
         <v>0</v>
@@ -8530,32 +8535,32 @@
         <v>0</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K79" s="8"/>
       <c r="L79" s="8"/>
       <c r="M79" s="16"/>
       <c r="N79" s="17"/>
       <c r="O79" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P79" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q79" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R79" s="16"/>
     </row>
     <row r="80" customHeight="1" spans="1:18">
       <c r="A80" s="5" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>46</v>
@@ -8567,7 +8572,7 @@
         <v>2650</v>
       </c>
       <c r="G80" s="26" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H80" s="12" t="b">
         <v>0</v>
@@ -8576,32 +8581,32 @@
         <v>0</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
       <c r="M80" s="16"/>
       <c r="N80" s="17"/>
       <c r="O80" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P80" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q80" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R80" s="16"/>
     </row>
     <row r="81" customHeight="1" spans="1:18">
       <c r="A81" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>46</v>
@@ -8613,7 +8618,7 @@
         <v>880</v>
       </c>
       <c r="G81" s="21" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H81" s="12" t="b">
         <v>0</v>
@@ -8622,32 +8627,32 @@
         <v>0</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K81" s="8"/>
       <c r="L81" s="8"/>
       <c r="M81" s="16"/>
       <c r="N81" s="17"/>
       <c r="O81" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P81" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q81" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R81" s="16"/>
     </row>
     <row r="82" customHeight="1" spans="1:18">
       <c r="A82" s="5" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>46</v>
@@ -8659,7 +8664,7 @@
         <v>1050</v>
       </c>
       <c r="G82" s="21" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H82" s="12" t="b">
         <v>0</v>
@@ -8668,32 +8673,32 @@
         <v>0</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K82" s="8"/>
       <c r="L82" s="8"/>
       <c r="M82" s="16"/>
       <c r="N82" s="17"/>
       <c r="O82" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P82" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q82" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R82" s="16"/>
     </row>
     <row r="83" customHeight="1" spans="1:18">
       <c r="A83" s="5" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>46</v>
@@ -8705,7 +8710,7 @@
         <v>880</v>
       </c>
       <c r="G83" s="21" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H83" s="12" t="b">
         <v>0</v>
@@ -8714,32 +8719,32 @@
         <v>0</v>
       </c>
       <c r="J83" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K83" s="8"/>
       <c r="L83" s="8"/>
       <c r="M83" s="16"/>
       <c r="N83" s="17"/>
       <c r="O83" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P83" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q83" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R83" s="16"/>
     </row>
     <row r="84" customHeight="1" spans="1:18">
       <c r="A84" s="5" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>46</v>
@@ -8751,7 +8756,7 @@
         <v>1700</v>
       </c>
       <c r="G84" s="21" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H84" s="12" t="b">
         <v>0</v>
@@ -8760,32 +8765,32 @@
         <v>0</v>
       </c>
       <c r="J84" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K84" s="8"/>
       <c r="L84" s="8"/>
       <c r="M84" s="16"/>
       <c r="N84" s="17"/>
       <c r="O84" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P84" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q84" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R84" s="16"/>
     </row>
     <row r="85" customHeight="1" spans="1:18">
       <c r="A85" s="5" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>49</v>
@@ -8797,7 +8802,7 @@
         <v>880</v>
       </c>
       <c r="G85" s="21" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H85" s="12" t="b">
         <v>0</v>
@@ -8806,32 +8811,32 @@
         <v>0</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K85" s="8"/>
       <c r="L85" s="8"/>
       <c r="M85" s="16"/>
       <c r="N85" s="17"/>
       <c r="O85" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P85" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q85" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R85" s="16"/>
     </row>
     <row r="86" customHeight="1" spans="1:18">
       <c r="A86" s="5" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>49</v>
@@ -8843,7 +8848,7 @@
         <v>1400</v>
       </c>
       <c r="G86" s="21" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H86" s="12" t="b">
         <v>0</v>
@@ -8852,32 +8857,32 @@
         <v>0</v>
       </c>
       <c r="J86" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K86" s="8"/>
       <c r="L86" s="8"/>
       <c r="M86" s="16"/>
       <c r="N86" s="17"/>
       <c r="O86" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P86" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q86" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R86" s="16"/>
     </row>
     <row r="87" customHeight="1" spans="1:18">
       <c r="A87" s="5" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>49</v>
@@ -8889,7 +8894,7 @@
         <v>1800</v>
       </c>
       <c r="G87" s="21" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H87" s="12" t="b">
         <v>0</v>
@@ -8898,32 +8903,32 @@
         <v>0</v>
       </c>
       <c r="J87" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K87" s="8"/>
       <c r="L87" s="8"/>
       <c r="M87" s="16"/>
       <c r="N87" s="17"/>
       <c r="O87" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P87" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q87" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R87" s="16"/>
     </row>
     <row r="88" customHeight="1" spans="1:18">
       <c r="A88" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>49</v>
@@ -8935,7 +8940,7 @@
         <v>1080</v>
       </c>
       <c r="G88" s="21" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H88" s="12" t="b">
         <v>0</v>
@@ -8944,32 +8949,32 @@
         <v>0</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K88" s="8"/>
       <c r="L88" s="8"/>
       <c r="M88" s="16"/>
       <c r="N88" s="17"/>
       <c r="O88" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P88" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q88" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R88" s="16"/>
     </row>
     <row r="89" customHeight="1" spans="1:18">
       <c r="A89" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>49</v>
@@ -8981,7 +8986,7 @@
         <v>1550</v>
       </c>
       <c r="G89" s="21" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H89" s="12" t="b">
         <v>0</v>
@@ -8990,32 +8995,32 @@
         <v>0</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K89" s="8"/>
       <c r="L89" s="8"/>
       <c r="M89" s="16"/>
       <c r="N89" s="17"/>
       <c r="O89" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P89" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q89" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R89" s="16"/>
     </row>
     <row r="90" customHeight="1" spans="1:18">
       <c r="A90" s="5" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>49</v>
@@ -9027,7 +9032,7 @@
         <v>2050</v>
       </c>
       <c r="G90" s="21" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H90" s="12" t="b">
         <v>0</v>
@@ -9036,32 +9041,32 @@
         <v>0</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K90" s="8"/>
       <c r="L90" s="8"/>
       <c r="M90" s="16"/>
       <c r="N90" s="17"/>
       <c r="O90" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P90" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q90" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R90" s="16"/>
     </row>
     <row r="91" customHeight="1" spans="1:18">
       <c r="A91" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>49</v>
@@ -9073,7 +9078,7 @@
         <v>2850</v>
       </c>
       <c r="G91" s="21" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H91" s="12" t="b">
         <v>0</v>
@@ -9082,32 +9087,32 @@
         <v>0</v>
       </c>
       <c r="J91" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K91" s="8"/>
       <c r="L91" s="8"/>
       <c r="M91" s="16"/>
       <c r="N91" s="17"/>
       <c r="O91" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P91" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q91" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R91" s="16"/>
     </row>
     <row r="92" customHeight="1" spans="1:18">
       <c r="A92" s="5" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C92" s="24" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>49</v>
@@ -9119,7 +9124,7 @@
         <v>900</v>
       </c>
       <c r="G92" s="21" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H92" s="12" t="b">
         <v>0</v>
@@ -9128,32 +9133,32 @@
         <v>0</v>
       </c>
       <c r="J92" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K92" s="8"/>
       <c r="L92" s="8"/>
       <c r="M92" s="16"/>
       <c r="N92" s="17"/>
       <c r="O92" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P92" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q92" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R92" s="16"/>
     </row>
     <row r="93" customHeight="1" spans="1:18">
       <c r="A93" s="5" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>49</v>
@@ -9165,7 +9170,7 @@
         <v>1650</v>
       </c>
       <c r="G93" s="21" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H93" s="12" t="b">
         <v>0</v>
@@ -9174,32 +9179,32 @@
         <v>0</v>
       </c>
       <c r="J93" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K93" s="8"/>
       <c r="L93" s="8"/>
       <c r="M93" s="16"/>
       <c r="N93" s="17"/>
       <c r="O93" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P93" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q93" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R93" s="16"/>
     </row>
     <row r="94" customHeight="1" spans="1:18">
       <c r="A94" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>49</v>
@@ -9211,7 +9216,7 @@
         <v>2350</v>
       </c>
       <c r="G94" s="21" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H94" s="12" t="b">
         <v>0</v>
@@ -9220,32 +9225,32 @@
         <v>0</v>
       </c>
       <c r="J94" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K94" s="8"/>
       <c r="L94" s="8"/>
       <c r="M94" s="16"/>
       <c r="N94" s="17"/>
       <c r="O94" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P94" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q94" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R94" s="16"/>
     </row>
     <row r="95" customHeight="1" spans="1:18">
       <c r="A95" s="5" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>49</v>
@@ -9257,7 +9262,7 @@
         <v>2180</v>
       </c>
       <c r="G95" s="21" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H95" s="12" t="b">
         <v>0</v>
@@ -9266,32 +9271,32 @@
         <v>0</v>
       </c>
       <c r="J95" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K95" s="8"/>
       <c r="L95" s="8"/>
       <c r="M95" s="16"/>
       <c r="N95" s="17"/>
       <c r="O95" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P95" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q95" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R95" s="16"/>
     </row>
     <row r="96" customHeight="1" spans="1:18">
       <c r="A96" s="5" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>49</v>
@@ -9303,7 +9308,7 @@
         <v>4980</v>
       </c>
       <c r="G96" s="21" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H96" s="12" t="b">
         <v>0</v>
@@ -9312,32 +9317,32 @@
         <v>0</v>
       </c>
       <c r="J96" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K96" s="8"/>
       <c r="L96" s="8"/>
       <c r="M96" s="16"/>
       <c r="N96" s="17"/>
       <c r="O96" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P96" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q96" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R96" s="16"/>
     </row>
     <row r="97" customHeight="1" spans="1:18">
       <c r="A97" s="5" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>49</v>
@@ -9349,7 +9354,7 @@
         <v>17800</v>
       </c>
       <c r="G97" s="21" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H97" s="12" t="b">
         <v>0</v>
@@ -9358,32 +9363,32 @@
         <v>0</v>
       </c>
       <c r="J97" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K97" s="8"/>
       <c r="L97" s="8"/>
       <c r="M97" s="16"/>
       <c r="N97" s="17"/>
       <c r="O97" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P97" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q97" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R97" s="16"/>
     </row>
     <row r="98" customHeight="1" spans="1:18">
       <c r="A98" s="5" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>49</v>
@@ -9395,7 +9400,7 @@
         <v>2080</v>
       </c>
       <c r="G98" s="21" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H98" s="12" t="b">
         <v>0</v>
@@ -9404,32 +9409,32 @@
         <v>0</v>
       </c>
       <c r="J98" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K98" s="8"/>
       <c r="L98" s="8"/>
       <c r="M98" s="16"/>
       <c r="N98" s="17"/>
       <c r="O98" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P98" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q98" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R98" s="16"/>
     </row>
     <row r="99" customHeight="1" spans="1:18">
       <c r="A99" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>49</v>
@@ -9441,7 +9446,7 @@
         <v>4880</v>
       </c>
       <c r="G99" s="21" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H99" s="12" t="b">
         <v>0</v>
@@ -9450,32 +9455,32 @@
         <v>0</v>
       </c>
       <c r="J99" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K99" s="8"/>
       <c r="L99" s="8"/>
       <c r="M99" s="16"/>
       <c r="N99" s="17"/>
       <c r="O99" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P99" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q99" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R99" s="16"/>
     </row>
     <row r="100" customHeight="1" spans="1:18">
       <c r="A100" s="5" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>49</v>
@@ -9487,7 +9492,7 @@
         <v>17800</v>
       </c>
       <c r="G100" s="21" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H100" s="12" t="b">
         <v>0</v>
@@ -9496,32 +9501,32 @@
         <v>0</v>
       </c>
       <c r="J100" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K100" s="8"/>
       <c r="L100" s="8"/>
       <c r="M100" s="16"/>
       <c r="N100" s="17"/>
       <c r="O100" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P100" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q100" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R100" s="16"/>
     </row>
     <row r="101" customHeight="1" spans="1:18">
       <c r="A101" s="5" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>49</v>
@@ -9533,7 +9538,7 @@
         <v>2180</v>
       </c>
       <c r="G101" s="21" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H101" s="12" t="b">
         <v>0</v>
@@ -9542,32 +9547,32 @@
         <v>0</v>
       </c>
       <c r="J101" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K101" s="8"/>
       <c r="L101" s="8"/>
       <c r="M101" s="16"/>
       <c r="N101" s="17"/>
       <c r="O101" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P101" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q101" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R101" s="16"/>
     </row>
     <row r="102" customHeight="1" spans="1:18">
       <c r="A102" s="5" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C102" s="21" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>49</v>
@@ -9579,7 +9584,7 @@
         <v>9800</v>
       </c>
       <c r="G102" s="21" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H102" s="12" t="b">
         <v>0</v>
@@ -9588,32 +9593,32 @@
         <v>0</v>
       </c>
       <c r="J102" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K102" s="8"/>
       <c r="L102" s="8"/>
       <c r="M102" s="16"/>
       <c r="N102" s="17"/>
       <c r="O102" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P102" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q102" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R102" s="16"/>
     </row>
     <row r="103" customHeight="1" spans="1:18">
       <c r="A103" s="5" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C103" s="21" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>49</v>
@@ -9625,7 +9630,7 @@
         <v>15000</v>
       </c>
       <c r="G103" s="21" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H103" s="12" t="b">
         <v>0</v>
@@ -9634,32 +9639,32 @@
         <v>0</v>
       </c>
       <c r="J103" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K103" s="8"/>
       <c r="L103" s="8"/>
       <c r="M103" s="16"/>
       <c r="N103" s="17"/>
       <c r="O103" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P103" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q103" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R103" s="16"/>
     </row>
     <row r="104" customHeight="1" spans="1:18">
       <c r="A104" s="5" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C104" s="21" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>49</v>
@@ -9671,7 +9676,7 @@
         <v>2080</v>
       </c>
       <c r="G104" s="21" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H104" s="12" t="b">
         <v>0</v>
@@ -9680,32 +9685,32 @@
         <v>0</v>
       </c>
       <c r="J104" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K104" s="8"/>
       <c r="L104" s="8"/>
       <c r="M104" s="16"/>
       <c r="N104" s="17"/>
       <c r="O104" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P104" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q104" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R104" s="16"/>
     </row>
     <row r="105" customHeight="1" spans="1:18">
       <c r="A105" s="5" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C105" s="21" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>49</v>
@@ -9717,7 +9722,7 @@
         <v>11000</v>
       </c>
       <c r="G105" s="21" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H105" s="12" t="b">
         <v>0</v>
@@ -9726,35 +9731,35 @@
         <v>0</v>
       </c>
       <c r="J105" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K105" s="8"/>
       <c r="L105" s="8"/>
       <c r="M105" s="16"/>
       <c r="N105" s="17"/>
       <c r="O105" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P105" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q105" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R105" s="16"/>
     </row>
     <row r="106" customHeight="1" spans="1:18">
       <c r="A106" s="5" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C106" s="21" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E106" s="8" t="s">
         <v>102</v>
@@ -9763,7 +9768,7 @@
         <v>1080</v>
       </c>
       <c r="G106" s="21" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H106" s="12" t="b">
         <v>0</v>
@@ -9772,32 +9777,32 @@
         <v>0</v>
       </c>
       <c r="J106" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K106" s="8"/>
       <c r="L106" s="8"/>
       <c r="M106" s="16"/>
       <c r="N106" s="17"/>
       <c r="O106" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P106" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q106" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R106" s="16"/>
     </row>
     <row r="107" customHeight="1" spans="1:18">
       <c r="A107" s="5" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C107" s="21" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>52</v>
@@ -9809,7 +9814,7 @@
         <v>980</v>
       </c>
       <c r="G107" s="21" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H107" s="12" t="b">
         <v>0</v>
@@ -9818,32 +9823,32 @@
         <v>0</v>
       </c>
       <c r="J107" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K107" s="8"/>
       <c r="L107" s="8"/>
       <c r="M107" s="16"/>
       <c r="N107" s="17"/>
       <c r="O107" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P107" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q107" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R107" s="16"/>
     </row>
     <row r="108" customHeight="1" spans="1:18">
       <c r="A108" s="5" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C108" s="21" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>52</v>
@@ -9855,7 +9860,7 @@
         <v>1180</v>
       </c>
       <c r="G108" s="21" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H108" s="12" t="b">
         <v>0</v>
@@ -9864,32 +9869,32 @@
         <v>0</v>
       </c>
       <c r="J108" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K108" s="8"/>
       <c r="L108" s="8"/>
       <c r="M108" s="16"/>
       <c r="N108" s="17"/>
       <c r="O108" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P108" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q108" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R108" s="16"/>
     </row>
     <row r="109" customHeight="1" spans="1:18">
       <c r="A109" s="5" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C109" s="21" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>52</v>
@@ -9901,7 +9906,7 @@
         <v>1280</v>
       </c>
       <c r="G109" s="21" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H109" s="12" t="b">
         <v>0</v>
@@ -9910,32 +9915,32 @@
         <v>0</v>
       </c>
       <c r="J109" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K109" s="8"/>
       <c r="L109" s="8"/>
       <c r="M109" s="16"/>
       <c r="N109" s="17"/>
       <c r="O109" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P109" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q109" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R109" s="16"/>
     </row>
     <row r="110" customHeight="1" spans="1:18">
       <c r="A110" s="5" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>52</v>
@@ -9947,7 +9952,7 @@
         <v>2400</v>
       </c>
       <c r="G110" s="21" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H110" s="12" t="b">
         <v>0</v>
@@ -9956,32 +9961,32 @@
         <v>0</v>
       </c>
       <c r="J110" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K110" s="8"/>
       <c r="L110" s="8"/>
       <c r="M110" s="16"/>
       <c r="N110" s="17"/>
       <c r="O110" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P110" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q110" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R110" s="16"/>
     </row>
     <row r="111" customHeight="1" spans="1:18">
       <c r="A111" s="5" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>52</v>
@@ -9993,7 +9998,7 @@
         <v>3880</v>
       </c>
       <c r="G111" s="21" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H111" s="12" t="b">
         <v>0</v>
@@ -10002,32 +10007,32 @@
         <v>0</v>
       </c>
       <c r="J111" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K111" s="8"/>
       <c r="L111" s="8"/>
       <c r="M111" s="16"/>
       <c r="N111" s="17"/>
       <c r="O111" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P111" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q111" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R111" s="16"/>
     </row>
     <row r="112" customHeight="1" spans="1:18">
       <c r="A112" s="5" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>52</v>
@@ -10039,7 +10044,7 @@
         <v>980</v>
       </c>
       <c r="G112" s="21" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H112" s="12" t="b">
         <v>0</v>
@@ -10048,32 +10053,32 @@
         <v>0</v>
       </c>
       <c r="J112" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K112" s="8"/>
       <c r="L112" s="8"/>
       <c r="M112" s="16"/>
       <c r="N112" s="17"/>
       <c r="O112" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P112" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q112" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R112" s="16"/>
     </row>
     <row r="113" customHeight="1" spans="1:18">
       <c r="A113" s="5" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C113" s="21" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>52</v>
@@ -10085,7 +10090,7 @@
         <v>1180</v>
       </c>
       <c r="G113" s="21" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H113" s="12" t="b">
         <v>0</v>
@@ -10094,32 +10099,32 @@
         <v>0</v>
       </c>
       <c r="J113" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K113" s="8"/>
       <c r="L113" s="8"/>
       <c r="M113" s="16"/>
       <c r="N113" s="17"/>
       <c r="O113" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P113" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q113" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R113" s="16"/>
     </row>
     <row r="114" customHeight="1" spans="1:18">
       <c r="A114" s="5" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B114" s="23" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C114" s="21" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>52</v>
@@ -10131,7 +10136,7 @@
         <v>880</v>
       </c>
       <c r="G114" s="21" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H114" s="12" t="b">
         <v>0</v>
@@ -10140,32 +10145,32 @@
         <v>0</v>
       </c>
       <c r="J114" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K114" s="8"/>
       <c r="L114" s="8"/>
       <c r="M114" s="16"/>
       <c r="N114" s="17"/>
       <c r="O114" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P114" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q114" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R114" s="16"/>
     </row>
     <row r="115" customHeight="1" spans="1:18">
       <c r="A115" s="5" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B115" s="23" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C115" s="21" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>52</v>
@@ -10177,7 +10182,7 @@
         <v>1480</v>
       </c>
       <c r="G115" s="21" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H115" s="12" t="b">
         <v>0</v>
@@ -10186,32 +10191,32 @@
         <v>0</v>
       </c>
       <c r="J115" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K115" s="8"/>
       <c r="L115" s="8"/>
       <c r="M115" s="16"/>
       <c r="N115" s="17"/>
       <c r="O115" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P115" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q115" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R115" s="16"/>
     </row>
     <row r="116" customHeight="1" spans="1:18">
       <c r="A116" s="5" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B116" s="23" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C116" s="21" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D116" s="8" t="s">
         <v>52</v>
@@ -10223,7 +10228,7 @@
         <v>3680</v>
       </c>
       <c r="G116" s="21" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H116" s="12" t="b">
         <v>0</v>
@@ -10232,32 +10237,32 @@
         <v>0</v>
       </c>
       <c r="J116" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K116" s="8"/>
       <c r="L116" s="8"/>
       <c r="M116" s="16"/>
       <c r="N116" s="17"/>
       <c r="O116" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P116" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q116" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R116" s="16"/>
     </row>
     <row r="117" customHeight="1" spans="1:18">
       <c r="A117" s="5" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B117" s="23" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C117" s="21" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D117" s="8" t="s">
         <v>52</v>
@@ -10269,7 +10274,7 @@
         <v>1180</v>
       </c>
       <c r="G117" s="21" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H117" s="12" t="b">
         <v>0</v>
@@ -10278,32 +10283,32 @@
         <v>0</v>
       </c>
       <c r="J117" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K117" s="8"/>
       <c r="L117" s="8"/>
       <c r="M117" s="16"/>
       <c r="N117" s="17"/>
       <c r="O117" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P117" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q117" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R117" s="16"/>
     </row>
     <row r="118" customHeight="1" spans="1:18">
       <c r="A118" s="5" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C118" s="21" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>52</v>
@@ -10315,7 +10320,7 @@
         <v>2380</v>
       </c>
       <c r="G118" s="21" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H118" s="12" t="b">
         <v>0</v>
@@ -10324,32 +10329,32 @@
         <v>0</v>
       </c>
       <c r="J118" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K118" s="8"/>
       <c r="L118" s="8"/>
       <c r="M118" s="16"/>
       <c r="N118" s="17"/>
       <c r="O118" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P118" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q118" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R118" s="16"/>
     </row>
     <row r="119" customHeight="1" spans="1:18">
       <c r="A119" s="5" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C119" s="21" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>55</v>
@@ -10361,7 +10366,7 @@
         <v>1380</v>
       </c>
       <c r="G119" s="21" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H119" s="12" t="b">
         <v>0</v>
@@ -10370,32 +10375,32 @@
         <v>0</v>
       </c>
       <c r="J119" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K119" s="8"/>
       <c r="L119" s="8"/>
       <c r="M119" s="16"/>
       <c r="N119" s="17"/>
       <c r="O119" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P119" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q119" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R119" s="16"/>
     </row>
     <row r="120" customHeight="1" spans="1:18">
       <c r="A120" s="5" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B120" s="23" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C120" s="21" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D120" s="8" t="s">
         <v>55</v>
@@ -10407,7 +10412,7 @@
         <v>1180</v>
       </c>
       <c r="G120" s="21" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H120" s="12" t="b">
         <v>0</v>
@@ -10416,32 +10421,32 @@
         <v>0</v>
       </c>
       <c r="J120" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K120" s="8"/>
       <c r="L120" s="8"/>
       <c r="M120" s="16"/>
       <c r="N120" s="17"/>
       <c r="O120" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P120" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q120" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R120" s="16"/>
     </row>
     <row r="121" customHeight="1" spans="1:18">
       <c r="A121" s="5" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B121" s="23" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C121" s="21" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D121" s="8" t="s">
         <v>55</v>
@@ -10453,7 +10458,7 @@
         <v>1680</v>
       </c>
       <c r="G121" s="21" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H121" s="12" t="b">
         <v>0</v>
@@ -10462,32 +10467,32 @@
         <v>0</v>
       </c>
       <c r="J121" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K121" s="8"/>
       <c r="L121" s="8"/>
       <c r="M121" s="16"/>
       <c r="N121" s="17"/>
       <c r="O121" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P121" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q121" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R121" s="16"/>
     </row>
     <row r="122" customHeight="1" spans="1:18">
       <c r="A122" s="5" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B122" s="23" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C122" s="21" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>55</v>
@@ -10499,7 +10504,7 @@
         <v>2180</v>
       </c>
       <c r="G122" s="21" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H122" s="12" t="b">
         <v>0</v>
@@ -10508,32 +10513,32 @@
         <v>0</v>
       </c>
       <c r="J122" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K122" s="8"/>
       <c r="L122" s="8"/>
       <c r="M122" s="16"/>
       <c r="N122" s="17"/>
       <c r="O122" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P122" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q122" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R122" s="16"/>
     </row>
     <row r="123" customHeight="1" spans="1:18">
       <c r="A123" s="5" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B123" s="23" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C123" s="21" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>55</v>
@@ -10545,7 +10550,7 @@
         <v>980</v>
       </c>
       <c r="G123" s="21" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H123" s="12" t="b">
         <v>0</v>
@@ -10554,32 +10559,32 @@
         <v>0</v>
       </c>
       <c r="J123" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K123" s="8"/>
       <c r="L123" s="8"/>
       <c r="M123" s="16"/>
       <c r="N123" s="17"/>
       <c r="O123" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P123" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q123" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R123" s="16"/>
     </row>
     <row r="124" customHeight="1" spans="1:18">
       <c r="A124" s="5" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B124" s="23" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C124" s="21" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>55</v>
@@ -10591,7 +10596,7 @@
         <v>1280</v>
       </c>
       <c r="G124" s="21" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H124" s="12" t="b">
         <v>0</v>
@@ -10600,32 +10605,32 @@
         <v>0</v>
       </c>
       <c r="J124" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K124" s="8"/>
       <c r="L124" s="8"/>
       <c r="M124" s="16"/>
       <c r="N124" s="17"/>
       <c r="O124" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P124" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q124" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R124" s="16"/>
     </row>
     <row r="125" customHeight="1" spans="1:18">
       <c r="A125" s="5" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B125" s="21" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C125" s="21" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>55</v>
@@ -10637,7 +10642,7 @@
         <v>1080</v>
       </c>
       <c r="G125" s="21" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H125" s="12" t="b">
         <v>0</v>
@@ -10646,32 +10651,32 @@
         <v>0</v>
       </c>
       <c r="J125" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K125" s="8"/>
       <c r="L125" s="8"/>
       <c r="M125" s="16"/>
       <c r="N125" s="17"/>
       <c r="O125" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P125" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q125" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R125" s="16"/>
     </row>
     <row r="126" customHeight="1" spans="1:18">
       <c r="A126" s="5" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B126" s="21" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C126" s="21" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D126" s="8" t="s">
         <v>55</v>
@@ -10683,7 +10688,7 @@
         <v>1880</v>
       </c>
       <c r="G126" s="21" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H126" s="12" t="b">
         <v>0</v>
@@ -10692,32 +10697,32 @@
         <v>0</v>
       </c>
       <c r="J126" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K126" s="8"/>
       <c r="L126" s="8"/>
       <c r="M126" s="16"/>
       <c r="N126" s="17"/>
       <c r="O126" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P126" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q126" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R126" s="16"/>
     </row>
     <row r="127" customHeight="1" spans="1:18">
       <c r="A127" s="5" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B127" s="21" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C127" s="21" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D127" s="8" t="s">
         <v>55</v>
@@ -10729,7 +10734,7 @@
         <v>2680</v>
       </c>
       <c r="G127" s="21" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H127" s="12" t="b">
         <v>0</v>
@@ -10738,32 +10743,32 @@
         <v>0</v>
       </c>
       <c r="J127" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K127" s="8"/>
       <c r="L127" s="8"/>
       <c r="M127" s="16"/>
       <c r="N127" s="17"/>
       <c r="O127" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P127" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q127" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R127" s="16"/>
     </row>
     <row r="128" customHeight="1" spans="1:18">
       <c r="A128" s="5" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C128" s="21" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>55</v>
@@ -10775,7 +10780,7 @@
         <v>1380</v>
       </c>
       <c r="G128" s="21" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H128" s="12" t="b">
         <v>0</v>
@@ -10784,20 +10789,20 @@
         <v>0</v>
       </c>
       <c r="J128" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K128" s="8"/>
       <c r="L128" s="8"/>
       <c r="M128" s="16"/>
       <c r="N128" s="17"/>
       <c r="O128" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P128" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q128" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R128" s="16"/>
     </row>
@@ -10806,10 +10811,10 @@
         <v>103</v>
       </c>
       <c r="B129" s="23" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C129" s="21" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D129" s="8" t="s">
         <v>55</v>
@@ -10821,7 +10826,7 @@
         <v>1480</v>
       </c>
       <c r="G129" s="21" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H129" s="12" t="b">
         <v>0</v>
@@ -10830,32 +10835,32 @@
         <v>0</v>
       </c>
       <c r="J129" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K129" s="8"/>
       <c r="L129" s="8"/>
       <c r="M129" s="16"/>
       <c r="N129" s="17"/>
       <c r="O129" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P129" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q129" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R129" s="16"/>
     </row>
     <row r="130" customHeight="1" spans="1:18">
       <c r="A130" s="5" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B130" s="23" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C130" s="21" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D130" s="27" t="s">
         <v>58</v>
@@ -10867,7 +10872,7 @@
         <v>1580</v>
       </c>
       <c r="G130" s="21" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H130" s="12" t="b">
         <v>0</v>
@@ -10876,32 +10881,32 @@
         <v>0</v>
       </c>
       <c r="J130" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K130" s="8"/>
       <c r="L130" s="8"/>
       <c r="M130" s="16"/>
       <c r="N130" s="17"/>
       <c r="O130" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P130" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q130" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R130" s="16"/>
     </row>
     <row r="131" customHeight="1" spans="1:18">
       <c r="A131" s="5" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C131" s="21" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D131" s="27" t="s">
         <v>58</v>
@@ -10913,7 +10918,7 @@
         <v>880</v>
       </c>
       <c r="G131" s="21" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H131" s="12" t="b">
         <v>0</v>
@@ -10922,32 +10927,32 @@
         <v>0</v>
       </c>
       <c r="J131" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K131" s="8"/>
       <c r="L131" s="8"/>
       <c r="M131" s="16"/>
       <c r="N131" s="17"/>
       <c r="O131" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P131" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q131" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R131" s="16"/>
     </row>
     <row r="132" customHeight="1" spans="1:18">
       <c r="A132" s="5" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B132" s="23" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C132" s="21" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D132" s="27" t="s">
         <v>58</v>
@@ -10959,7 +10964,7 @@
         <v>1380</v>
       </c>
       <c r="G132" s="21" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H132" s="12" t="b">
         <v>0</v>
@@ -10968,32 +10973,32 @@
         <v>0</v>
       </c>
       <c r="J132" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K132" s="8"/>
       <c r="L132" s="8"/>
       <c r="M132" s="16"/>
       <c r="N132" s="17"/>
       <c r="O132" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P132" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q132" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R132" s="16"/>
     </row>
     <row r="133" customHeight="1" spans="1:18">
       <c r="A133" s="5" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B133" s="23" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C133" s="21" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D133" s="27" t="s">
         <v>58</v>
@@ -11005,7 +11010,7 @@
         <v>1580</v>
       </c>
       <c r="G133" s="21" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H133" s="12" t="b">
         <v>0</v>
@@ -11014,32 +11019,32 @@
         <v>0</v>
       </c>
       <c r="J133" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K133" s="8"/>
       <c r="L133" s="8"/>
       <c r="M133" s="16"/>
       <c r="N133" s="17"/>
       <c r="O133" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P133" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q133" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R133" s="16"/>
     </row>
     <row r="134" customHeight="1" spans="1:18">
       <c r="A134" s="5" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B134" s="23" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C134" s="21" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D134" s="27" t="s">
         <v>58</v>
@@ -11051,7 +11056,7 @@
         <v>880</v>
       </c>
       <c r="G134" s="21" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H134" s="12" t="b">
         <v>0</v>
@@ -11060,32 +11065,32 @@
         <v>0</v>
       </c>
       <c r="J134" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K134" s="8"/>
       <c r="L134" s="8"/>
       <c r="M134" s="16"/>
       <c r="N134" s="17"/>
       <c r="O134" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P134" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q134" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R134" s="16"/>
     </row>
     <row r="135" customHeight="1" spans="1:18">
       <c r="A135" s="5" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B135" s="23" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C135" s="21" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D135" s="27" t="s">
         <v>58</v>
@@ -11097,7 +11102,7 @@
         <v>2380</v>
       </c>
       <c r="G135" s="21" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H135" s="12" t="b">
         <v>0</v>
@@ -11106,32 +11111,32 @@
         <v>0</v>
       </c>
       <c r="J135" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K135" s="8"/>
       <c r="L135" s="8"/>
       <c r="M135" s="16"/>
       <c r="N135" s="17"/>
       <c r="O135" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P135" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q135" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R135" s="16"/>
     </row>
     <row r="136" customHeight="1" spans="1:18">
       <c r="A136" s="5" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B136" s="21" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C136" s="21" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D136" s="27" t="s">
         <v>61</v>
@@ -11143,7 +11148,7 @@
         <v>880</v>
       </c>
       <c r="G136" s="21" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H136" s="12" t="b">
         <v>0</v>
@@ -11152,32 +11157,32 @@
         <v>0</v>
       </c>
       <c r="J136" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K136" s="8"/>
       <c r="L136" s="8"/>
       <c r="M136" s="16"/>
       <c r="N136" s="17"/>
       <c r="O136" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P136" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q136" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R136" s="16"/>
     </row>
     <row r="137" customHeight="1" spans="1:18">
       <c r="A137" s="5" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B137" s="21" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C137" s="21" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D137" s="27" t="s">
         <v>61</v>
@@ -11189,7 +11194,7 @@
         <v>780</v>
       </c>
       <c r="G137" s="21" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H137" s="12" t="b">
         <v>0</v>
@@ -11198,32 +11203,32 @@
         <v>0</v>
       </c>
       <c r="J137" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K137" s="8"/>
       <c r="L137" s="8"/>
       <c r="M137" s="16"/>
       <c r="N137" s="17"/>
       <c r="O137" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P137" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q137" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R137" s="16"/>
     </row>
     <row r="138" customHeight="1" spans="1:18">
       <c r="A138" s="5" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B138" s="21" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C138" s="21" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D138" s="27" t="s">
         <v>61</v>
@@ -11235,7 +11240,7 @@
         <v>780</v>
       </c>
       <c r="G138" s="21" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H138" s="12" t="b">
         <v>0</v>
@@ -11244,32 +11249,32 @@
         <v>0</v>
       </c>
       <c r="J138" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K138" s="8"/>
       <c r="L138" s="8"/>
       <c r="M138" s="16"/>
       <c r="N138" s="17"/>
       <c r="O138" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P138" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q138" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R138" s="16"/>
     </row>
     <row r="139" customHeight="1" spans="1:18">
       <c r="A139" s="5" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B139" s="21" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C139" s="21" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D139" s="27" t="s">
         <v>61</v>
@@ -11281,7 +11286,7 @@
         <v>880</v>
       </c>
       <c r="G139" s="21" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H139" s="12" t="b">
         <v>0</v>
@@ -11290,32 +11295,32 @@
         <v>0</v>
       </c>
       <c r="J139" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K139" s="8"/>
       <c r="L139" s="8"/>
       <c r="M139" s="16"/>
       <c r="N139" s="17"/>
       <c r="O139" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P139" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q139" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R139" s="16"/>
     </row>
     <row r="140" customHeight="1" spans="1:18">
       <c r="A140" s="5" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B140" s="21" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C140" s="21" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D140" s="27" t="s">
         <v>61</v>
@@ -11327,7 +11332,7 @@
         <v>1280</v>
       </c>
       <c r="G140" s="21" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H140" s="12" t="b">
         <v>0</v>
@@ -11336,32 +11341,32 @@
         <v>0</v>
       </c>
       <c r="J140" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K140" s="8"/>
       <c r="L140" s="8"/>
       <c r="M140" s="16"/>
       <c r="N140" s="17"/>
       <c r="O140" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P140" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q140" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R140" s="16"/>
     </row>
     <row r="141" customHeight="1" spans="1:18">
       <c r="A141" s="5" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B141" s="21" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C141" s="21" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D141" s="27" t="s">
         <v>61</v>
@@ -11373,7 +11378,7 @@
         <v>1780</v>
       </c>
       <c r="G141" s="21" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H141" s="12" t="b">
         <v>0</v>
@@ -11382,32 +11387,32 @@
         <v>0</v>
       </c>
       <c r="J141" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K141" s="8"/>
       <c r="L141" s="8"/>
       <c r="M141" s="16"/>
       <c r="N141" s="17"/>
       <c r="O141" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P141" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q141" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R141" s="16"/>
     </row>
     <row r="142" customHeight="1" spans="1:18">
       <c r="A142" s="5" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B142" s="21" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C142" s="21" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D142" s="27" t="s">
         <v>61</v>
@@ -11419,7 +11424,7 @@
         <v>1180</v>
       </c>
       <c r="G142" s="21" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H142" s="12" t="b">
         <v>0</v>
@@ -11428,32 +11433,32 @@
         <v>0</v>
       </c>
       <c r="J142" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K142" s="8"/>
       <c r="L142" s="8"/>
       <c r="M142" s="16"/>
       <c r="N142" s="17"/>
       <c r="O142" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P142" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q142" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R142" s="16"/>
     </row>
     <row r="143" customHeight="1" spans="1:18">
       <c r="A143" s="5" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B143" s="21" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C143" s="21" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D143" s="27" t="s">
         <v>61</v>
@@ -11465,7 +11470,7 @@
         <v>1280</v>
       </c>
       <c r="G143" s="21" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H143" s="12" t="b">
         <v>0</v>
@@ -11474,32 +11479,32 @@
         <v>0</v>
       </c>
       <c r="J143" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K143" s="8"/>
       <c r="L143" s="8"/>
       <c r="M143" s="16"/>
       <c r="N143" s="17"/>
       <c r="O143" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P143" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q143" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R143" s="16"/>
     </row>
     <row r="144" customHeight="1" spans="1:18">
       <c r="A144" s="5" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B144" s="21" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C144" s="21" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D144" s="27" t="s">
         <v>61</v>
@@ -11511,7 +11516,7 @@
         <v>1780</v>
       </c>
       <c r="G144" s="21" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H144" s="12" t="b">
         <v>0</v>
@@ -11520,32 +11525,32 @@
         <v>0</v>
       </c>
       <c r="J144" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K144" s="8"/>
       <c r="L144" s="8"/>
       <c r="M144" s="16"/>
       <c r="N144" s="17"/>
       <c r="O144" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P144" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q144" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R144" s="16"/>
     </row>
     <row r="145" customHeight="1" spans="1:18">
       <c r="A145" s="5" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B145" s="21" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C145" s="21" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D145" s="27" t="s">
         <v>61</v>
@@ -11557,7 +11562,7 @@
         <v>2480</v>
       </c>
       <c r="G145" s="21" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H145" s="12" t="b">
         <v>0</v>
@@ -11566,32 +11571,32 @@
         <v>0</v>
       </c>
       <c r="J145" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K145" s="8"/>
       <c r="L145" s="8"/>
       <c r="M145" s="16"/>
       <c r="N145" s="17"/>
       <c r="O145" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P145" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q145" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R145" s="16"/>
     </row>
     <row r="146" customHeight="1" spans="1:18">
       <c r="A146" s="5" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C146" s="21" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D146" s="27" t="s">
         <v>61</v>
@@ -11603,7 +11608,7 @@
         <v>1180</v>
       </c>
       <c r="G146" s="21" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H146" s="12" t="b">
         <v>0</v>
@@ -11612,32 +11617,32 @@
         <v>0</v>
       </c>
       <c r="J146" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K146" s="8"/>
       <c r="L146" s="8"/>
       <c r="M146" s="16"/>
       <c r="N146" s="17"/>
       <c r="O146" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P146" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q146" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R146" s="16"/>
     </row>
     <row r="147" customHeight="1" spans="1:18">
       <c r="A147" s="5" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C147" s="21" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D147" s="27" t="s">
         <v>61</v>
@@ -11649,7 +11654,7 @@
         <v>980</v>
       </c>
       <c r="G147" s="21" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H147" s="12" t="b">
         <v>0</v>
@@ -11658,32 +11663,32 @@
         <v>0</v>
       </c>
       <c r="J147" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K147" s="8"/>
       <c r="L147" s="8"/>
       <c r="M147" s="16"/>
       <c r="N147" s="17"/>
       <c r="O147" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P147" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q147" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R147" s="16"/>
     </row>
     <row r="148" customHeight="1" spans="1:18">
       <c r="A148" s="5" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C148" s="21" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D148" s="27" t="s">
         <v>61</v>
@@ -11695,7 +11700,7 @@
         <v>1650</v>
       </c>
       <c r="G148" s="21" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H148" s="12" t="b">
         <v>0</v>
@@ -11704,32 +11709,32 @@
         <v>0</v>
       </c>
       <c r="J148" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K148" s="8"/>
       <c r="L148" s="8"/>
       <c r="M148" s="16"/>
       <c r="N148" s="17"/>
       <c r="O148" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P148" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q148" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R148" s="16"/>
     </row>
     <row r="149" customHeight="1" spans="1:18">
       <c r="A149" s="5" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C149" s="21" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D149" s="27" t="s">
         <v>61</v>
@@ -11741,7 +11746,7 @@
         <v>1100</v>
       </c>
       <c r="G149" s="21" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H149" s="12" t="b">
         <v>0</v>
@@ -11750,32 +11755,32 @@
         <v>0</v>
       </c>
       <c r="J149" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K149" s="8"/>
       <c r="L149" s="8"/>
       <c r="M149" s="16"/>
       <c r="N149" s="17"/>
       <c r="O149" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P149" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q149" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R149" s="16"/>
     </row>
     <row r="150" customHeight="1" spans="1:18">
       <c r="A150" s="5" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B150" s="23" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C150" s="21" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D150" s="27" t="s">
         <v>61</v>
@@ -11787,7 +11792,7 @@
         <v>980</v>
       </c>
       <c r="G150" s="21" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H150" s="12" t="b">
         <v>0</v>
@@ -11796,32 +11801,32 @@
         <v>0</v>
       </c>
       <c r="J150" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K150" s="8"/>
       <c r="L150" s="8"/>
       <c r="M150" s="16"/>
       <c r="N150" s="17"/>
       <c r="O150" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P150" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q150" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R150" s="16"/>
     </row>
     <row r="151" customHeight="1" spans="1:18">
       <c r="A151" s="5" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B151" s="23" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C151" s="21" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D151" s="27" t="s">
         <v>61</v>
@@ -11833,7 +11838,7 @@
         <v>1080</v>
       </c>
       <c r="G151" s="21" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H151" s="12" t="b">
         <v>0</v>
@@ -11842,32 +11847,32 @@
         <v>0</v>
       </c>
       <c r="J151" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K151" s="8"/>
       <c r="L151" s="8"/>
       <c r="M151" s="16"/>
       <c r="N151" s="17"/>
       <c r="O151" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P151" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q151" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R151" s="16"/>
     </row>
     <row r="152" customHeight="1" spans="1:18">
       <c r="A152" s="5" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B152" s="23" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C152" s="21" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D152" s="27" t="s">
         <v>61</v>
@@ -11879,7 +11884,7 @@
         <v>1680</v>
       </c>
       <c r="G152" s="21" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H152" s="12" t="b">
         <v>0</v>
@@ -11888,32 +11893,32 @@
         <v>0</v>
       </c>
       <c r="J152" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K152" s="8"/>
       <c r="L152" s="8"/>
       <c r="M152" s="16"/>
       <c r="N152" s="17"/>
       <c r="O152" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P152" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q152" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R152" s="16"/>
     </row>
     <row r="153" customHeight="1" spans="1:18">
       <c r="A153" s="5" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C153" s="21" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D153" s="27" t="s">
         <v>61</v>
@@ -11925,7 +11930,7 @@
         <v>980</v>
       </c>
       <c r="G153" s="21" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H153" s="12" t="b">
         <v>0</v>
@@ -11934,32 +11939,32 @@
         <v>0</v>
       </c>
       <c r="J153" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K153" s="8"/>
       <c r="L153" s="8"/>
       <c r="M153" s="16"/>
       <c r="N153" s="17"/>
       <c r="O153" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P153" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q153" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R153" s="16"/>
     </row>
     <row r="154" customHeight="1" spans="1:18">
       <c r="A154" s="5" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B154" s="23" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C154" s="21" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D154" s="27" t="s">
         <v>61</v>
@@ -11971,7 +11976,7 @@
         <v>1080</v>
       </c>
       <c r="G154" s="21" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H154" s="12" t="b">
         <v>0</v>
@@ -11980,32 +11985,32 @@
         <v>0</v>
       </c>
       <c r="J154" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K154" s="8"/>
       <c r="L154" s="8"/>
       <c r="M154" s="16"/>
       <c r="N154" s="17"/>
       <c r="O154" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P154" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q154" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R154" s="16"/>
     </row>
     <row r="155" customHeight="1" spans="1:18">
       <c r="A155" s="5" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B155" s="23" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C155" s="21" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D155" s="27" t="s">
         <v>61</v>
@@ -12017,7 +12022,7 @@
         <v>1480</v>
       </c>
       <c r="G155" s="21" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H155" s="12" t="b">
         <v>0</v>
@@ -12026,32 +12031,32 @@
         <v>0</v>
       </c>
       <c r="J155" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K155" s="8"/>
       <c r="L155" s="8"/>
       <c r="M155" s="16"/>
       <c r="N155" s="17"/>
       <c r="O155" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P155" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q155" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R155" s="16"/>
     </row>
     <row r="156" customHeight="1" spans="1:18">
       <c r="A156" s="5" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C156" s="21" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D156" s="27" t="s">
         <v>61</v>
@@ -12063,7 +12068,7 @@
         <v>3480</v>
       </c>
       <c r="G156" s="21" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H156" s="12" t="b">
         <v>0</v>
@@ -12072,32 +12077,32 @@
         <v>0</v>
       </c>
       <c r="J156" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K156" s="8"/>
       <c r="L156" s="8"/>
       <c r="M156" s="16"/>
       <c r="N156" s="17"/>
       <c r="O156" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P156" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q156" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R156" s="16"/>
     </row>
     <row r="157" customHeight="1" spans="1:18">
       <c r="A157" s="5" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B157" s="23" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C157" s="21" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D157" s="27" t="s">
         <v>61</v>
@@ -12109,7 +12114,7 @@
         <v>1280</v>
       </c>
       <c r="G157" s="21" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H157" s="12" t="b">
         <v>0</v>
@@ -12118,32 +12123,32 @@
         <v>0</v>
       </c>
       <c r="J157" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K157" s="8"/>
       <c r="L157" s="8"/>
       <c r="M157" s="16"/>
       <c r="N157" s="17"/>
       <c r="O157" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P157" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q157" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R157" s="16"/>
     </row>
     <row r="158" customHeight="1" spans="1:18">
       <c r="A158" s="5" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C158" s="21" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D158" s="27" t="s">
         <v>61</v>
@@ -12155,7 +12160,7 @@
         <v>1680</v>
       </c>
       <c r="G158" s="21" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H158" s="12" t="b">
         <v>0</v>
@@ -12164,32 +12169,32 @@
         <v>0</v>
       </c>
       <c r="J158" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K158" s="8"/>
       <c r="L158" s="8"/>
       <c r="M158" s="16"/>
       <c r="N158" s="17"/>
       <c r="O158" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P158" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q158" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R158" s="16"/>
     </row>
     <row r="159" customHeight="1" spans="1:18">
       <c r="A159" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B159" s="23" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C159" s="21" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D159" s="27" t="s">
         <v>61</v>
@@ -12201,7 +12206,7 @@
         <v>2680</v>
       </c>
       <c r="G159" s="21" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H159" s="12" t="b">
         <v>0</v>
@@ -12210,32 +12215,32 @@
         <v>0</v>
       </c>
       <c r="J159" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K159" s="8"/>
       <c r="L159" s="8"/>
       <c r="M159" s="16"/>
       <c r="N159" s="17"/>
       <c r="O159" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P159" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q159" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R159" s="16"/>
     </row>
     <row r="160" customHeight="1" spans="1:18">
       <c r="A160" s="5" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B160" s="23" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C160" s="21" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D160" s="27" t="s">
         <v>61</v>
@@ -12247,7 +12252,7 @@
         <v>3680</v>
       </c>
       <c r="G160" s="21" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H160" s="12" t="b">
         <v>0</v>
@@ -12256,32 +12261,32 @@
         <v>0</v>
       </c>
       <c r="J160" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K160" s="8"/>
       <c r="L160" s="8"/>
       <c r="M160" s="16"/>
       <c r="N160" s="17"/>
       <c r="O160" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P160" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q160" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R160" s="16"/>
     </row>
     <row r="161" customHeight="1" spans="1:18">
       <c r="A161" s="5" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B161" s="23" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C161" s="21" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D161" s="27" t="s">
         <v>61</v>
@@ -12293,7 +12298,7 @@
         <v>1080</v>
       </c>
       <c r="G161" s="21" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H161" s="12" t="b">
         <v>0</v>
@@ -12302,32 +12307,32 @@
         <v>0</v>
       </c>
       <c r="J161" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K161" s="8"/>
       <c r="L161" s="8"/>
       <c r="M161" s="16"/>
       <c r="N161" s="17"/>
       <c r="O161" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P161" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q161" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R161" s="16"/>
     </row>
     <row r="162" customHeight="1" spans="1:18">
       <c r="A162" s="5" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B162" s="27" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C162" s="27" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D162" s="8" t="s">
         <v>67</v>
@@ -12336,10 +12341,10 @@
         <v>102</v>
       </c>
       <c r="F162" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G162" s="11" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H162" s="12" t="b">
         <v>0</v>
@@ -12348,25 +12353,25 @@
         <v>0</v>
       </c>
       <c r="J162" s="8" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="K162" s="8" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="L162" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M162" s="16" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="N162" s="17" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="O162" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P162" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q162" s="20" t="b">
         <v>1</v>
@@ -12375,13 +12380,13 @@
     </row>
     <row r="163" customHeight="1" spans="1:18">
       <c r="A163" s="5" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B163" s="28" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C163" s="27" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D163" s="8" t="s">
         <v>67</v>
@@ -12390,10 +12395,10 @@
         <v>102</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G163" s="11" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H163" s="12" t="b">
         <v>0</v>
@@ -12402,25 +12407,25 @@
         <v>0</v>
       </c>
       <c r="J163" s="8" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="K163" s="8" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="L163" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M163" s="16" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="N163" s="17" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="O163" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P163" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q163" s="20" t="b">
         <v>1</v>
@@ -12429,13 +12434,13 @@
     </row>
     <row r="164" customHeight="1" spans="1:18">
       <c r="A164" s="5" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B164" s="27" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C164" s="27" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D164" s="8" t="s">
         <v>67</v>
@@ -12444,10 +12449,10 @@
         <v>102</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G164" s="11" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H164" s="12" t="b">
         <v>0</v>
@@ -12456,25 +12461,25 @@
         <v>0</v>
       </c>
       <c r="J164" s="8" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="K164" s="8" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="L164" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M164" s="16" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="N164" s="17" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="O164" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P164" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q164" s="20" t="b">
         <v>1</v>
@@ -12483,13 +12488,13 @@
     </row>
     <row r="165" customHeight="1" spans="1:18">
       <c r="A165" s="5" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B165" s="27" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C165" s="27" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D165" s="27" t="s">
         <v>67</v>
@@ -12498,10 +12503,10 @@
         <v>102</v>
       </c>
       <c r="F165" s="27" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G165" s="27" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H165" s="20" t="b">
         <v>0</v>
@@ -12510,40 +12515,40 @@
         <v>0</v>
       </c>
       <c r="J165" s="27" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="K165" s="8" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="L165" s="27" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M165" s="16" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="N165" s="17" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="O165" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P165" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q165" s="31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R165" s="16"/>
     </row>
     <row r="166" customHeight="1" spans="1:18">
       <c r="A166" s="5" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B166" s="27" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C166" s="27" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D166" s="8" t="s">
         <v>70</v>
@@ -12552,10 +12557,10 @@
         <v>102</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G166" s="27" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H166" s="20" t="b">
         <v>0</v>
@@ -12564,32 +12569,32 @@
         <v>0</v>
       </c>
       <c r="J166" s="27" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="K166" s="8"/>
       <c r="L166" s="8"/>
       <c r="M166" s="16"/>
       <c r="N166" s="17"/>
       <c r="O166" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P166" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q166" s="31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R166" s="16"/>
     </row>
     <row r="167" customHeight="1" spans="1:18">
       <c r="A167" s="5" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B167" s="27" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C167" s="27" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D167" s="8" t="s">
         <v>70</v>
@@ -12598,10 +12603,10 @@
         <v>102</v>
       </c>
       <c r="F167" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G167" s="27" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H167" s="20" t="b">
         <v>0</v>
@@ -12610,32 +12615,32 @@
         <v>0</v>
       </c>
       <c r="J167" s="27" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="K167" s="8"/>
       <c r="L167" s="8"/>
       <c r="M167" s="16"/>
       <c r="N167" s="17"/>
       <c r="O167" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P167" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q167" s="31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R167" s="16"/>
     </row>
     <row r="168" customHeight="1" spans="1:18">
       <c r="A168" s="5" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B168" s="27" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C168" s="27" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D168" s="8" t="s">
         <v>74</v>
@@ -12644,10 +12649,10 @@
         <v>102</v>
       </c>
       <c r="F168" s="27" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G168" s="27" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H168" s="20" t="b">
         <v>0</v>
@@ -12656,32 +12661,32 @@
         <v>0</v>
       </c>
       <c r="J168" s="27" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="K168" s="8"/>
       <c r="L168" s="8"/>
       <c r="M168" s="16"/>
       <c r="N168" s="17"/>
       <c r="O168" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P168" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q168" s="31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R168" s="16"/>
     </row>
     <row r="169" customHeight="1" spans="1:18">
       <c r="A169" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B169" s="27" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C169" s="27" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D169" s="8" t="s">
         <v>74</v>
@@ -12690,10 +12695,10 @@
         <v>102</v>
       </c>
       <c r="F169" s="27" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G169" s="27" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H169" s="20" t="b">
         <v>0</v>
@@ -12702,32 +12707,32 @@
         <v>0</v>
       </c>
       <c r="J169" s="27" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="K169" s="8"/>
       <c r="L169" s="8"/>
       <c r="M169" s="16"/>
       <c r="N169" s="17"/>
       <c r="O169" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P169" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q169" s="31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R169" s="16"/>
     </row>
     <row r="170" customHeight="1" spans="1:18">
       <c r="A170" s="5" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B170" s="27" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C170" s="27" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D170" s="8" t="s">
         <v>74</v>
@@ -12736,10 +12741,10 @@
         <v>102</v>
       </c>
       <c r="F170" s="27" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G170" s="27" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H170" s="20" t="b">
         <v>0</v>
@@ -12748,32 +12753,32 @@
         <v>0</v>
       </c>
       <c r="J170" s="27" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="K170" s="8"/>
       <c r="L170" s="8"/>
       <c r="M170" s="16"/>
       <c r="N170" s="17"/>
       <c r="O170" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P170" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q170" s="31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R170" s="16"/>
     </row>
     <row r="171" customHeight="1" spans="1:18">
       <c r="A171" s="5" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B171" s="27" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C171" s="27" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D171" s="8" t="s">
         <v>74</v>
@@ -12782,10 +12787,10 @@
         <v>102</v>
       </c>
       <c r="F171" s="27" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G171" s="27" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H171" s="20" t="b">
         <v>0</v>
@@ -12794,32 +12799,32 @@
         <v>0</v>
       </c>
       <c r="J171" s="27" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="K171" s="8"/>
       <c r="L171" s="8"/>
       <c r="M171" s="16"/>
       <c r="N171" s="17"/>
       <c r="O171" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P171" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q171" s="31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R171" s="16"/>
     </row>
     <row r="172" customHeight="1" spans="1:18">
       <c r="A172" s="5" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B172" s="27" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C172" s="27" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D172" s="8" t="s">
         <v>81</v>
@@ -12828,10 +12833,10 @@
         <v>102</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G172" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H172" s="20" t="b">
         <v>0</v>
@@ -12840,34 +12845,34 @@
         <v>0</v>
       </c>
       <c r="J172" s="8" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="K172" s="8"/>
       <c r="L172" s="29" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="M172" s="16"/>
       <c r="N172" s="17"/>
       <c r="O172" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P172" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q172" s="31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R172" s="16"/>
     </row>
     <row r="173" customHeight="1" spans="1:18">
       <c r="A173" s="5" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B173" s="27" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C173" s="27" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D173" s="8" t="s">
         <v>81</v>
@@ -12876,10 +12881,10 @@
         <v>102</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G173" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H173" s="20" t="b">
         <v>0</v>
@@ -12888,32 +12893,32 @@
         <v>0</v>
       </c>
       <c r="J173" s="8" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="K173" s="8"/>
       <c r="L173" s="8"/>
       <c r="M173" s="16"/>
       <c r="N173" s="17"/>
       <c r="O173" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P173" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q173" s="31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R173" s="16"/>
     </row>
     <row r="174" customHeight="1" spans="1:18">
       <c r="A174" s="5" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B174" s="29" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C174" s="27" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D174" s="8" t="s">
         <v>81</v>
@@ -12922,10 +12927,10 @@
         <v>102</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G174" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H174" s="20" t="b">
         <v>0</v>
@@ -12934,32 +12939,32 @@
         <v>0</v>
       </c>
       <c r="J174" s="8" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="K174" s="8"/>
       <c r="L174" s="8"/>
       <c r="M174" s="16"/>
       <c r="N174" s="17"/>
       <c r="O174" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P174" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q174" s="31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R174" s="16"/>
     </row>
     <row r="175" customHeight="1" spans="1:18">
       <c r="A175" s="5" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B175" s="27" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C175" s="27" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D175" s="8" t="s">
         <v>81</v>
@@ -12968,10 +12973,10 @@
         <v>102</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G175" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H175" s="20" t="b">
         <v>0</v>
@@ -12980,32 +12985,32 @@
         <v>0</v>
       </c>
       <c r="J175" s="8" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="K175" s="8"/>
       <c r="L175" s="8"/>
       <c r="M175" s="17"/>
       <c r="N175" s="8"/>
       <c r="O175" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P175" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q175" s="31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R175" s="16"/>
     </row>
     <row r="176" customHeight="1" spans="1:18">
       <c r="A176" s="5" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B176" s="27" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C176" s="27" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="D176" s="8" t="s">
         <v>81</v>
@@ -13014,10 +13019,10 @@
         <v>102</v>
       </c>
       <c r="F176" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G176" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H176" s="20" t="b">
         <v>0</v>
@@ -13026,20 +13031,20 @@
         <v>0</v>
       </c>
       <c r="J176" s="8" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="K176" s="8"/>
       <c r="L176" s="8"/>
       <c r="M176" s="17"/>
       <c r="N176" s="8"/>
       <c r="O176" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P176" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q176" s="31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R176" s="16"/>
     </row>

--- a/data/menu_dinner.xlsx
+++ b/data/menu_dinner.xlsx
@@ -4471,8 +4471,8 @@
   <sheetPr/>
   <dimension ref="A1:BD219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L2" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="A1:R176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>

--- a/data/menu_dinner.xlsx
+++ b/data/menu_dinner.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901">
   <si>
     <t>id</t>
   </si>
@@ -2660,19 +2660,37 @@
     <t>171</t>
   </si>
   <si>
+    <t>Kiwi Banana Mousse</t>
+  </si>
+  <si>
+    <t>猕猴桃香蕉慕斯</t>
+  </si>
+  <si>
+    <t>dessert</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>White cheese lemon pomelo Mousse</t>
+  </si>
+  <si>
+    <t>白乳酪柠檬柚慕斯</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
     <t>Opera</t>
   </si>
   <si>
     <t>歌剧院</t>
   </si>
   <si>
-    <t>dessert</t>
-  </si>
-  <si>
     <t>巧克力味,橙子味</t>
   </si>
   <si>
-    <t>172</t>
+    <t>174</t>
   </si>
   <si>
     <t>Valrhono Caramel Chocklate Ban</t>
@@ -2681,7 +2699,7 @@
     <t>法芙娜焦糖巧克力</t>
   </si>
   <si>
-    <t>173</t>
+    <t>175</t>
   </si>
   <si>
     <t>Pumpkin Cheese Cake</t>
@@ -2690,7 +2708,7 @@
     <t>南瓜芝士蛋糕</t>
   </si>
   <si>
-    <t>174</t>
+    <t>176</t>
   </si>
   <si>
     <t>Tarte au fromage framboise</t>
@@ -2699,7 +2717,7 @@
     <t>覆盆子芝士塔</t>
   </si>
   <si>
-    <t>175</t>
+    <t>177</t>
   </si>
   <si>
     <t>Match Cake</t>
@@ -2713,11 +2731,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -2772,23 +2790,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2804,29 +2807,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2840,16 +2850,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2865,40 +2876,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2910,7 +2897,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2925,25 +2943,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2955,13 +2955,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2979,49 +2991,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3033,31 +3009,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3075,7 +3033,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3087,25 +3099,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3167,11 +3185,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3191,21 +3254,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3216,168 +3264,138 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -4469,10 +4487,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:BD219"/>
+  <dimension ref="A1:BD221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A1:R176"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="C167" sqref="C167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -12816,7 +12834,7 @@
       </c>
       <c r="R171" s="16"/>
     </row>
-    <row r="172" customHeight="1" spans="1:18">
+    <row r="172" customFormat="1" customHeight="1" spans="1:18">
       <c r="A172" s="5" t="s">
         <v>878</v>
       </c>
@@ -12838,19 +12856,17 @@
       <c r="G172" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="H172" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I172" s="20" t="b">
-        <v>0</v>
+      <c r="H172" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I172" s="10" t="b">
+        <v>1</v>
       </c>
       <c r="J172" s="8" t="s">
         <v>881</v>
       </c>
       <c r="K172" s="8"/>
-      <c r="L172" s="29" t="s">
-        <v>882</v>
-      </c>
+      <c r="L172" s="29"/>
       <c r="M172" s="16"/>
       <c r="N172" s="17"/>
       <c r="O172" s="27" t="s">
@@ -12864,15 +12880,15 @@
       </c>
       <c r="R172" s="16"/>
     </row>
-    <row r="173" customHeight="1" spans="1:18">
+    <row r="173" customFormat="1" customHeight="1" spans="1:18">
       <c r="A173" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="B173" s="27" t="s">
         <v>883</v>
       </c>
-      <c r="B173" s="27" t="s">
+      <c r="C173" s="27" t="s">
         <v>884</v>
-      </c>
-      <c r="C173" s="27" t="s">
-        <v>885</v>
       </c>
       <c r="D173" s="8" t="s">
         <v>81</v>
@@ -12886,17 +12902,17 @@
       <c r="G173" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="H173" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I173" s="20" t="b">
-        <v>0</v>
+      <c r="H173" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I173" s="10" t="b">
+        <v>1</v>
       </c>
       <c r="J173" s="8" t="s">
         <v>881</v>
       </c>
       <c r="K173" s="8"/>
-      <c r="L173" s="8"/>
+      <c r="L173" s="29"/>
       <c r="M173" s="16"/>
       <c r="N173" s="17"/>
       <c r="O173" s="27" t="s">
@@ -12912,13 +12928,13 @@
     </row>
     <row r="174" customHeight="1" spans="1:18">
       <c r="A174" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="B174" s="27" t="s">
         <v>886</v>
       </c>
-      <c r="B174" s="29" t="s">
+      <c r="C174" s="27" t="s">
         <v>887</v>
-      </c>
-      <c r="C174" s="27" t="s">
-        <v>888</v>
       </c>
       <c r="D174" s="8" t="s">
         <v>81</v>
@@ -12942,7 +12958,9 @@
         <v>881</v>
       </c>
       <c r="K174" s="8"/>
-      <c r="L174" s="8"/>
+      <c r="L174" s="29" t="s">
+        <v>888</v>
+      </c>
       <c r="M174" s="16"/>
       <c r="N174" s="17"/>
       <c r="O174" s="27" t="s">
@@ -12989,8 +13007,8 @@
       </c>
       <c r="K175" s="8"/>
       <c r="L175" s="8"/>
-      <c r="M175" s="17"/>
-      <c r="N175" s="8"/>
+      <c r="M175" s="16"/>
+      <c r="N175" s="17"/>
       <c r="O175" s="27" t="s">
         <v>109</v>
       </c>
@@ -13006,7 +13024,7 @@
       <c r="A176" s="5" t="s">
         <v>892</v>
       </c>
-      <c r="B176" s="27" t="s">
+      <c r="B176" s="29" t="s">
         <v>893</v>
       </c>
       <c r="C176" s="27" t="s">
@@ -13035,8 +13053,8 @@
       </c>
       <c r="K176" s="8"/>
       <c r="L176" s="8"/>
-      <c r="M176" s="17"/>
-      <c r="N176" s="8"/>
+      <c r="M176" s="16"/>
+      <c r="N176" s="17"/>
       <c r="O176" s="27" t="s">
         <v>109</v>
       </c>
@@ -13048,11 +13066,97 @@
       </c>
       <c r="R176" s="16"/>
     </row>
-    <row r="177" customHeight="1" spans="1:1">
-      <c r="A177" s="30"/>
-    </row>
-    <row r="178" customHeight="1" spans="1:1">
-      <c r="A178" s="30"/>
+    <row r="177" customHeight="1" spans="1:18">
+      <c r="A177" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="B177" s="27" t="s">
+        <v>896</v>
+      </c>
+      <c r="C177" s="27" t="s">
+        <v>897</v>
+      </c>
+      <c r="D177" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E177" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F177" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="G177" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="H177" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I177" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J177" s="8" t="s">
+        <v>881</v>
+      </c>
+      <c r="K177" s="8"/>
+      <c r="L177" s="8"/>
+      <c r="M177" s="17"/>
+      <c r="N177" s="8"/>
+      <c r="O177" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="P177" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q177" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="R177" s="16"/>
+    </row>
+    <row r="178" customHeight="1" spans="1:18">
+      <c r="A178" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B178" s="27" t="s">
+        <v>899</v>
+      </c>
+      <c r="C178" s="27" t="s">
+        <v>900</v>
+      </c>
+      <c r="D178" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E178" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F178" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="G178" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="H178" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I178" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J178" s="8" t="s">
+        <v>881</v>
+      </c>
+      <c r="K178" s="8"/>
+      <c r="L178" s="8"/>
+      <c r="M178" s="17"/>
+      <c r="N178" s="8"/>
+      <c r="O178" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="P178" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q178" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="R178" s="16"/>
     </row>
     <row r="179" customHeight="1" spans="1:1">
       <c r="A179" s="30"/>
@@ -13176,6 +13280,12 @@
     </row>
     <row r="219" customHeight="1" spans="1:1">
       <c r="A219" s="30"/>
+    </row>
+    <row r="220" customHeight="1" spans="1:1">
+      <c r="A220" s="30"/>
+    </row>
+    <row r="221" customHeight="1" spans="1:1">
+      <c r="A221" s="30"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/data/menu_dinner.xlsx
+++ b/data/menu_dinner.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898">
   <si>
     <t>id</t>
   </si>
@@ -2709,15 +2709,6 @@
   </si>
   <si>
     <t>176</t>
-  </si>
-  <si>
-    <t>Tarte au fromage framboise</t>
-  </si>
-  <si>
-    <t>覆盆子芝士塔</t>
-  </si>
-  <si>
-    <t>177</t>
   </si>
   <si>
     <t>Match Cake</t>
@@ -4487,10 +4478,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:BD221"/>
+  <dimension ref="A1:BD220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C167" sqref="C167"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="B175" sqref="B175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -13112,51 +13103,8 @@
       </c>
       <c r="R177" s="16"/>
     </row>
-    <row r="178" customHeight="1" spans="1:18">
-      <c r="A178" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="B178" s="27" t="s">
-        <v>899</v>
-      </c>
-      <c r="C178" s="27" t="s">
-        <v>900</v>
-      </c>
-      <c r="D178" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E178" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="F178" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="G178" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="H178" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I178" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J178" s="8" t="s">
-        <v>881</v>
-      </c>
-      <c r="K178" s="8"/>
-      <c r="L178" s="8"/>
-      <c r="M178" s="17"/>
-      <c r="N178" s="8"/>
-      <c r="O178" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="P178" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q178" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="R178" s="16"/>
+    <row r="178" customHeight="1" spans="1:1">
+      <c r="A178" s="30"/>
     </row>
     <row r="179" customHeight="1" spans="1:1">
       <c r="A179" s="30"/>
@@ -13283,9 +13231,6 @@
     </row>
     <row r="220" customHeight="1" spans="1:1">
       <c r="A220" s="30"/>
-    </row>
-    <row r="221" customHeight="1" spans="1:1">
-      <c r="A221" s="30"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/data/menu_dinner.xlsx
+++ b/data/menu_dinner.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910">
   <si>
     <t>id</t>
   </si>
@@ -1026,6 +1026,9 @@
     <t>80</t>
   </si>
   <si>
+    <t>80/Glass</t>
+  </si>
+  <si>
     <t>Gin/Dolin dry</t>
   </si>
   <si>
@@ -1059,7 +1062,7 @@
     <t>金汤力</t>
   </si>
   <si>
-    <t>70</t>
+    <t>78</t>
   </si>
   <si>
     <t>78/Glass</t>
@@ -1090,9 +1093,6 @@
   </si>
   <si>
     <t>琴姆勒</t>
-  </si>
-  <si>
-    <t>78</t>
   </si>
   <si>
     <t>Gin/Lime juice</t>
@@ -1141,7 +1141,10 @@
     <t>莫吉托</t>
   </si>
   <si>
-    <t>72/Glass</t>
+    <t>70</t>
+  </si>
+  <si>
+    <t>70/Glass</t>
   </si>
   <si>
     <t>Rum/Lime juice/Soda</t>
@@ -1156,9 +1159,6 @@
     <t>戴其力</t>
   </si>
   <si>
-    <t>76/Glass</t>
-  </si>
-  <si>
     <t>Rum/Limejuice</t>
   </si>
   <si>
@@ -1177,6 +1177,9 @@
     <t>90</t>
   </si>
   <si>
+    <t>90/Glass</t>
+  </si>
+  <si>
     <t>Bacardi blanca/Bacardi gold/Cubita151/Lemon juice/Pineapple juice/Angostura bitter</t>
   </si>
   <si>
@@ -1208,9 +1211,6 @@
   </si>
   <si>
     <t>威士忌酸</t>
-  </si>
-  <si>
-    <t>86/Glass</t>
   </si>
   <si>
     <t>Maker’s mark  Whiskey/lemon juice/Angostura bitters</t>
@@ -1254,9 +1254,6 @@
   </si>
   <si>
     <t>长岛冰茶</t>
-  </si>
-  <si>
-    <t>80/Glass</t>
   </si>
   <si>
     <t>Vodka/White Rum/Gin/Tequila/Cointreau/Lemon juice/Cola</t>
@@ -2761,11 +2758,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -2813,24 +2810,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2844,79 +2839,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2935,6 +2861,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2943,15 +2885,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2959,6 +2903,59 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2973,7 +2970,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2985,7 +3018,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2997,7 +3030,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3009,31 +3102,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3045,73 +3114,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3129,31 +3132,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3228,8 +3225,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3245,6 +3242,47 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3273,190 +3311,149 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4592,8 +4589,8 @@
   <sheetPr/>
   <dimension ref="A1:BD223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="C170" sqref="C170"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -6509,7 +6506,7 @@
         <v>335</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>273</v>
+        <v>336</v>
       </c>
       <c r="H35" s="12" t="b">
         <v>0</v>
@@ -6525,10 +6522,10 @@
         <v>310</v>
       </c>
       <c r="M35" s="16" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N35" s="17" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O35" s="8" t="s">
         <v>112</v>
@@ -6543,13 +6540,13 @@
     </row>
     <row r="36" customHeight="1" spans="1:18">
       <c r="A36" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>258</v>
@@ -6574,13 +6571,13 @@
       </c>
       <c r="K36" s="8"/>
       <c r="L36" s="14" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M36" s="16" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N36" s="17" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O36" s="8" t="s">
         <v>112</v>
@@ -6595,13 +6592,13 @@
     </row>
     <row r="37" customHeight="1" spans="1:18">
       <c r="A37" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>258</v>
@@ -6610,10 +6607,10 @@
         <v>105</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H37" s="12" t="b">
         <v>0</v>
@@ -6629,10 +6626,10 @@
         <v>294</v>
       </c>
       <c r="M37" s="16" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N37" s="17" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O37" s="8" t="s">
         <v>112</v>
@@ -6647,13 +6644,13 @@
     </row>
     <row r="38" customHeight="1" spans="1:18">
       <c r="A38" s="5" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>258</v>
@@ -6665,7 +6662,7 @@
         <v>253</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>348</v>
+        <v>273</v>
       </c>
       <c r="H38" s="12" t="b">
         <v>0</v>
@@ -6681,10 +6678,10 @@
         <v>276</v>
       </c>
       <c r="M38" s="16" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N38" s="17" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O38" s="8" t="s">
         <v>112</v>
@@ -6702,10 +6699,10 @@
         <v>157</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>258</v>
@@ -6714,10 +6711,10 @@
         <v>105</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H39" s="12" t="b">
         <v>0</v>
@@ -6818,10 +6815,10 @@
         <v>105</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H41" s="12" t="b">
         <v>0</v>
@@ -6870,10 +6867,10 @@
         <v>105</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H42" s="12" t="b">
         <v>0</v>
@@ -6889,10 +6886,10 @@
         <v>276</v>
       </c>
       <c r="M42" s="16" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N42" s="17" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O42" s="8" t="s">
         <v>112</v>
@@ -6910,10 +6907,10 @@
         <v>231</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>258</v>
@@ -6922,10 +6919,10 @@
         <v>105</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>379</v>
+        <v>349</v>
       </c>
       <c r="H43" s="12" t="b">
         <v>0</v>
@@ -6977,7 +6974,7 @@
         <v>385</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H44" s="12" t="b">
         <v>0</v>
@@ -6993,16 +6990,16 @@
         <v>294</v>
       </c>
       <c r="M44" s="16" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N44" s="17" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O44" s="8" t="s">
         <v>112</v>
       </c>
       <c r="P44" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q44" s="12" t="b">
         <v>1</v>
@@ -7011,13 +7008,13 @@
     </row>
     <row r="45" customHeight="1" spans="1:18">
       <c r="A45" s="5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>258</v>
@@ -7029,7 +7026,7 @@
         <v>253</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>348</v>
+        <v>273</v>
       </c>
       <c r="H45" s="12" t="b">
         <v>0</v>
@@ -7045,10 +7042,10 @@
         <v>319</v>
       </c>
       <c r="M45" s="16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N45" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O45" s="8" t="s">
         <v>112</v>
@@ -7063,13 +7060,13 @@
     </row>
     <row r="46" customHeight="1" spans="1:18">
       <c r="A46" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>258</v>
@@ -7081,7 +7078,7 @@
         <v>253</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>397</v>
+        <v>273</v>
       </c>
       <c r="H46" s="12" t="b">
         <v>0</v>
@@ -7133,7 +7130,7 @@
         <v>253</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>397</v>
+        <v>273</v>
       </c>
       <c r="H47" s="12" t="b">
         <v>0</v>
@@ -7185,7 +7182,7 @@
         <v>335</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>397</v>
+        <v>336</v>
       </c>
       <c r="H48" s="12" t="b">
         <v>0</v>
@@ -7237,7 +7234,7 @@
         <v>253</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>412</v>
+        <v>273</v>
       </c>
       <c r="H49" s="12" t="b">
         <v>0</v>
@@ -7253,10 +7250,10 @@
         <v>276</v>
       </c>
       <c r="M49" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="N49" s="17" t="s">
         <v>413</v>
-      </c>
-      <c r="N49" s="17" t="s">
-        <v>414</v>
       </c>
       <c r="O49" s="8" t="s">
         <v>112</v>
@@ -7271,13 +7268,13 @@
     </row>
     <row r="50" customHeight="1" spans="1:18">
       <c r="A50" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="C50" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>258</v>
@@ -7289,7 +7286,7 @@
         <v>335</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>412</v>
+        <v>336</v>
       </c>
       <c r="H50" s="12" t="b">
         <v>0</v>
@@ -7302,13 +7299,13 @@
       </c>
       <c r="K50" s="8"/>
       <c r="L50" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="M50" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="M50" s="16" t="s">
+      <c r="N50" s="17" t="s">
         <v>419</v>
-      </c>
-      <c r="N50" s="17" t="s">
-        <v>420</v>
       </c>
       <c r="O50" s="8" t="s">
         <v>112</v>
@@ -7323,13 +7320,13 @@
     </row>
     <row r="51" customHeight="1" spans="1:18">
       <c r="A51" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>258</v>
@@ -7341,7 +7338,7 @@
         <v>253</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>379</v>
+        <v>273</v>
       </c>
       <c r="H51" s="12" t="b">
         <v>0</v>
@@ -7357,10 +7354,10 @@
         <v>319</v>
       </c>
       <c r="M51" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="N51" s="17" t="s">
         <v>423</v>
-      </c>
-      <c r="N51" s="17" t="s">
-        <v>424</v>
       </c>
       <c r="O51" s="8" t="s">
         <v>112</v>
@@ -7375,13 +7372,13 @@
     </row>
     <row r="52" customHeight="1" spans="1:18">
       <c r="A52" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>258</v>
@@ -7390,10 +7387,10 @@
         <v>105</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>348</v>
+        <v>273</v>
       </c>
       <c r="H52" s="12" t="b">
         <v>0</v>
@@ -7409,10 +7406,10 @@
         <v>276</v>
       </c>
       <c r="M52" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="N52" s="17" t="s">
         <v>429</v>
-      </c>
-      <c r="N52" s="17" t="s">
-        <v>430</v>
       </c>
       <c r="O52" s="8" t="s">
         <v>112</v>
@@ -7430,10 +7427,10 @@
         <v>197</v>
       </c>
       <c r="B53" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>258</v>
@@ -7445,7 +7442,7 @@
         <v>385</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="H53" s="12" t="b">
         <v>0</v>
@@ -7461,10 +7458,10 @@
         <v>276</v>
       </c>
       <c r="M53" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="N53" s="17" t="s">
         <v>433</v>
-      </c>
-      <c r="N53" s="17" t="s">
-        <v>434</v>
       </c>
       <c r="O53" s="8" t="s">
         <v>112</v>
@@ -7479,16 +7476,16 @@
     </row>
     <row r="54" customHeight="1" spans="1:18">
       <c r="A54" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="C54" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="D54" s="9" t="s">
         <v>437</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>438</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>105</v>
@@ -7497,7 +7494,7 @@
         <v>223</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H54" s="12" t="b">
         <v>0</v>
@@ -7525,25 +7522,25 @@
     </row>
     <row r="55" customHeight="1" spans="1:18">
       <c r="A55" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="C55" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="D55" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F55" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F55" s="8" t="s">
+      <c r="G55" s="11" t="s">
         <v>443</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>444</v>
       </c>
       <c r="H55" s="12" t="b">
         <v>0</v>
@@ -7574,22 +7571,22 @@
         <v>223</v>
       </c>
       <c r="B56" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="C56" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="D56" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F56" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="D56" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F56" s="8" t="s">
+      <c r="G56" s="11" t="s">
         <v>447</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>448</v>
       </c>
       <c r="H56" s="12" t="b">
         <v>0</v>
@@ -7620,22 +7617,22 @@
         <v>204</v>
       </c>
       <c r="B57" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="C57" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="D57" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F57" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="D57" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F57" s="8" t="s">
+      <c r="G57" s="11" t="s">
         <v>451</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>452</v>
       </c>
       <c r="H57" s="12" t="b">
         <v>0</v>
@@ -7663,25 +7660,25 @@
     </row>
     <row r="58" customHeight="1" spans="1:18">
       <c r="A58" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B58" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="C58" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="D58" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>456</v>
-      </c>
       <c r="E58" s="8" t="s">
         <v>105</v>
       </c>
       <c r="F58" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="G58" s="11" t="s">
         <v>443</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>444</v>
       </c>
       <c r="H58" s="12" t="b">
         <v>0</v>
@@ -7712,22 +7709,22 @@
         <v>165</v>
       </c>
       <c r="B59" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="C59" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>458</v>
-      </c>
       <c r="D59" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>105</v>
       </c>
       <c r="F59" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="G59" s="11" t="s">
         <v>447</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>448</v>
       </c>
       <c r="H59" s="12" t="b">
         <v>0</v>
@@ -7755,25 +7752,25 @@
     </row>
     <row r="60" customHeight="1" spans="1:18">
       <c r="A60" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="C60" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="D60" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F60" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F60" s="8" t="s">
+      <c r="G60" s="11" t="s">
         <v>462</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>463</v>
       </c>
       <c r="H60" s="12" t="b">
         <v>0</v>
@@ -7801,25 +7798,25 @@
     </row>
     <row r="61" customHeight="1" spans="1:18">
       <c r="A61" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="C61" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="D61" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="E61" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="G61" s="11" t="s">
         <v>467</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>468</v>
       </c>
       <c r="H61" s="12" t="b">
         <v>0</v>
@@ -7847,16 +7844,16 @@
     </row>
     <row r="62" customHeight="1" spans="1:18">
       <c r="A62" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="C62" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>471</v>
-      </c>
       <c r="D62" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>105</v>
@@ -7865,7 +7862,7 @@
         <v>124</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H62" s="12" t="b">
         <v>0</v>
@@ -7893,25 +7890,25 @@
     </row>
     <row r="63" customHeight="1" spans="1:18">
       <c r="A63" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="D63" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F63" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="D63" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F63" s="8" t="s">
+      <c r="G63" s="11" t="s">
         <v>476</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>477</v>
       </c>
       <c r="H63" s="12" t="b">
         <v>0</v>
@@ -7939,25 +7936,25 @@
     </row>
     <row r="64" customHeight="1" spans="1:18">
       <c r="A64" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="C64" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="D64" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F64" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="D64" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F64" s="8" t="s">
+      <c r="G64" s="11" t="s">
         <v>481</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>482</v>
       </c>
       <c r="H64" s="12" t="b">
         <v>0</v>
@@ -7985,25 +7982,25 @@
     </row>
     <row r="65" customHeight="1" spans="1:18">
       <c r="A65" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="C65" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="D65" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F65" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="D65" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F65" s="8" t="s">
+      <c r="G65" s="11" t="s">
         <v>486</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>487</v>
       </c>
       <c r="H65" s="12" t="b">
         <v>0</v>
@@ -8031,13 +8028,13 @@
     </row>
     <row r="66" customHeight="1" spans="1:18">
       <c r="A66" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B66" s="21" t="s">
         <v>488</v>
       </c>
-      <c r="B66" s="21" t="s">
+      <c r="C66" s="22" t="s">
         <v>489</v>
-      </c>
-      <c r="C66" s="22" t="s">
-        <v>490</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>43</v>
@@ -8049,7 +8046,7 @@
         <v>860</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H66" s="12" t="b">
         <v>0</v>
@@ -8077,13 +8074,13 @@
     </row>
     <row r="67" customHeight="1" spans="1:18">
       <c r="A67" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B67" s="21" t="s">
         <v>492</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="C67" s="22" t="s">
         <v>493</v>
-      </c>
-      <c r="C67" s="22" t="s">
-        <v>494</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>43</v>
@@ -8095,7 +8092,7 @@
         <v>960</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H67" s="12" t="b">
         <v>0</v>
@@ -8123,13 +8120,13 @@
     </row>
     <row r="68" customHeight="1" spans="1:18">
       <c r="A68" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="B68" s="21" t="s">
         <v>496</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="C68" s="22" t="s">
         <v>497</v>
-      </c>
-      <c r="C68" s="22" t="s">
-        <v>498</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>43</v>
@@ -8141,7 +8138,7 @@
         <v>860</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H68" s="12" t="b">
         <v>0</v>
@@ -8172,10 +8169,10 @@
         <v>141</v>
       </c>
       <c r="B69" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="C69" s="22" t="s">
         <v>499</v>
-      </c>
-      <c r="C69" s="22" t="s">
-        <v>500</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>43</v>
@@ -8187,7 +8184,7 @@
         <v>1080</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H69" s="12" t="b">
         <v>0</v>
@@ -8215,13 +8212,13 @@
     </row>
     <row r="70" customHeight="1" spans="1:18">
       <c r="A70" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="B70" s="21" t="s">
         <v>502</v>
       </c>
-      <c r="B70" s="21" t="s">
+      <c r="C70" s="22" t="s">
         <v>503</v>
-      </c>
-      <c r="C70" s="22" t="s">
-        <v>504</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>43</v>
@@ -8233,7 +8230,7 @@
         <v>1180</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H70" s="12" t="b">
         <v>0</v>
@@ -8261,13 +8258,13 @@
     </row>
     <row r="71" customHeight="1" spans="1:18">
       <c r="A71" s="5" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="B71" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="C71" s="22" t="s">
         <v>506</v>
-      </c>
-      <c r="C71" s="22" t="s">
-        <v>507</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>43</v>
@@ -8279,7 +8276,7 @@
         <v>1080</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H71" s="12" t="b">
         <v>0</v>
@@ -8307,13 +8304,13 @@
     </row>
     <row r="72" customHeight="1" spans="1:18">
       <c r="A72" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B72" s="21" t="s">
         <v>509</v>
       </c>
-      <c r="B72" s="21" t="s">
+      <c r="C72" s="22" t="s">
         <v>510</v>
-      </c>
-      <c r="C72" s="22" t="s">
-        <v>511</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>43</v>
@@ -8325,7 +8322,7 @@
         <v>1100</v>
       </c>
       <c r="G72" s="25" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H72" s="12" t="b">
         <v>0</v>
@@ -8353,16 +8350,16 @@
     </row>
     <row r="73" customHeight="1" spans="1:18">
       <c r="A73" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B73" s="21" t="s">
         <v>513</v>
       </c>
-      <c r="B73" s="21" t="s">
+      <c r="C73" s="22" t="s">
         <v>514</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="D73" s="8" t="s">
         <v>515</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>516</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>105</v>
@@ -8371,7 +8368,7 @@
         <v>1100</v>
       </c>
       <c r="G73" s="25" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H73" s="12" t="b">
         <v>0</v>
@@ -8399,13 +8396,13 @@
     </row>
     <row r="74" customHeight="1" spans="1:18">
       <c r="A74" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="B74" s="21" t="s">
         <v>517</v>
       </c>
-      <c r="B74" s="21" t="s">
+      <c r="C74" s="22" t="s">
         <v>518</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>519</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>43</v>
@@ -8417,7 +8414,7 @@
         <v>1100</v>
       </c>
       <c r="G74" s="25" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H74" s="12" t="b">
         <v>0</v>
@@ -8445,13 +8442,13 @@
     </row>
     <row r="75" customHeight="1" spans="1:18">
       <c r="A75" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="B75" s="21" t="s">
         <v>520</v>
       </c>
-      <c r="B75" s="21" t="s">
+      <c r="C75" s="22" t="s">
         <v>521</v>
-      </c>
-      <c r="C75" s="22" t="s">
-        <v>522</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>43</v>
@@ -8463,7 +8460,7 @@
         <v>1180</v>
       </c>
       <c r="G75" s="25" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H75" s="12" t="b">
         <v>0</v>
@@ -8491,13 +8488,13 @@
     </row>
     <row r="76" customHeight="1" spans="1:18">
       <c r="A76" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="B76" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="B76" s="21" t="s">
+      <c r="C76" s="22" t="s">
         <v>524</v>
-      </c>
-      <c r="C76" s="22" t="s">
-        <v>525</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>43</v>
@@ -8509,7 +8506,7 @@
         <v>880</v>
       </c>
       <c r="G76" s="25" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H76" s="12" t="b">
         <v>0</v>
@@ -8537,13 +8534,13 @@
     </row>
     <row r="77" customHeight="1" spans="1:18">
       <c r="A77" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="B77" s="21" t="s">
         <v>527</v>
       </c>
-      <c r="B77" s="21" t="s">
+      <c r="C77" s="22" t="s">
         <v>528</v>
-      </c>
-      <c r="C77" s="22" t="s">
-        <v>529</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>43</v>
@@ -8555,7 +8552,7 @@
         <v>1280</v>
       </c>
       <c r="G77" s="25" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H77" s="12" t="b">
         <v>0</v>
@@ -8583,16 +8580,16 @@
     </row>
     <row r="78" customHeight="1" spans="1:18">
       <c r="A78" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="B78" s="21" t="s">
         <v>531</v>
       </c>
-      <c r="B78" s="21" t="s">
+      <c r="C78" s="21" t="s">
         <v>532</v>
       </c>
-      <c r="C78" s="21" t="s">
+      <c r="D78" s="8" t="s">
         <v>533</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>534</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>105</v>
@@ -8601,7 +8598,7 @@
         <v>880</v>
       </c>
       <c r="G78" s="21" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H78" s="12" t="b">
         <v>0</v>
@@ -8629,13 +8626,13 @@
     </row>
     <row r="79" customHeight="1" spans="1:18">
       <c r="A79" s="5" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B79" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="C79" s="21" t="s">
         <v>536</v>
-      </c>
-      <c r="C79" s="21" t="s">
-        <v>537</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>46</v>
@@ -8647,7 +8644,7 @@
         <v>1100</v>
       </c>
       <c r="G79" s="21" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H79" s="12" t="b">
         <v>0</v>
@@ -8675,13 +8672,13 @@
     </row>
     <row r="80" customHeight="1" spans="1:18">
       <c r="A80" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="B80" s="21" t="s">
         <v>539</v>
       </c>
-      <c r="B80" s="21" t="s">
+      <c r="C80" s="21" t="s">
         <v>540</v>
-      </c>
-      <c r="C80" s="21" t="s">
-        <v>541</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>46</v>
@@ -8693,7 +8690,7 @@
         <v>2650</v>
       </c>
       <c r="G80" s="26" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H80" s="12" t="b">
         <v>0</v>
@@ -8724,10 +8721,10 @@
         <v>335</v>
       </c>
       <c r="B81" s="21" t="s">
+        <v>542</v>
+      </c>
+      <c r="C81" s="21" t="s">
         <v>543</v>
-      </c>
-      <c r="C81" s="21" t="s">
-        <v>544</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>46</v>
@@ -8739,7 +8736,7 @@
         <v>880</v>
       </c>
       <c r="G81" s="21" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H81" s="12" t="b">
         <v>0</v>
@@ -8767,13 +8764,13 @@
     </row>
     <row r="82" customHeight="1" spans="1:18">
       <c r="A82" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="B82" s="21" t="s">
         <v>546</v>
       </c>
-      <c r="B82" s="21" t="s">
+      <c r="C82" s="21" t="s">
         <v>547</v>
-      </c>
-      <c r="C82" s="21" t="s">
-        <v>548</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>46</v>
@@ -8785,7 +8782,7 @@
         <v>1050</v>
       </c>
       <c r="G82" s="21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H82" s="12" t="b">
         <v>0</v>
@@ -8813,13 +8810,13 @@
     </row>
     <row r="83" customHeight="1" spans="1:18">
       <c r="A83" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="B83" s="21" t="s">
         <v>550</v>
       </c>
-      <c r="B83" s="21" t="s">
+      <c r="C83" s="21" t="s">
         <v>551</v>
-      </c>
-      <c r="C83" s="21" t="s">
-        <v>552</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>46</v>
@@ -8831,7 +8828,7 @@
         <v>880</v>
       </c>
       <c r="G83" s="21" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H83" s="12" t="b">
         <v>0</v>
@@ -8859,13 +8856,13 @@
     </row>
     <row r="84" customHeight="1" spans="1:18">
       <c r="A84" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="B84" s="21" t="s">
         <v>554</v>
       </c>
-      <c r="B84" s="21" t="s">
+      <c r="C84" s="21" t="s">
         <v>555</v>
-      </c>
-      <c r="C84" s="21" t="s">
-        <v>556</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>46</v>
@@ -8877,7 +8874,7 @@
         <v>1700</v>
       </c>
       <c r="G84" s="21" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H84" s="12" t="b">
         <v>0</v>
@@ -8905,13 +8902,13 @@
     </row>
     <row r="85" customHeight="1" spans="1:18">
       <c r="A85" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="B85" s="21" t="s">
         <v>558</v>
       </c>
-      <c r="B85" s="21" t="s">
+      <c r="C85" s="21" t="s">
         <v>559</v>
-      </c>
-      <c r="C85" s="21" t="s">
-        <v>560</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>49</v>
@@ -8923,7 +8920,7 @@
         <v>880</v>
       </c>
       <c r="G85" s="21" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H85" s="12" t="b">
         <v>0</v>
@@ -8951,13 +8948,13 @@
     </row>
     <row r="86" customHeight="1" spans="1:18">
       <c r="A86" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="B86" s="21" t="s">
         <v>561</v>
       </c>
-      <c r="B86" s="21" t="s">
+      <c r="C86" s="21" t="s">
         <v>562</v>
-      </c>
-      <c r="C86" s="21" t="s">
-        <v>563</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>49</v>
@@ -8969,7 +8966,7 @@
         <v>1400</v>
       </c>
       <c r="G86" s="21" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H86" s="12" t="b">
         <v>0</v>
@@ -8997,13 +8994,13 @@
     </row>
     <row r="87" customHeight="1" spans="1:18">
       <c r="A87" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="B87" s="23" t="s">
         <v>565</v>
       </c>
-      <c r="B87" s="23" t="s">
+      <c r="C87" s="21" t="s">
         <v>566</v>
-      </c>
-      <c r="C87" s="21" t="s">
-        <v>567</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>49</v>
@@ -9015,7 +9012,7 @@
         <v>1800</v>
       </c>
       <c r="G87" s="21" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H87" s="12" t="b">
         <v>0</v>
@@ -9043,13 +9040,13 @@
     </row>
     <row r="88" customHeight="1" spans="1:18">
       <c r="A88" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="B88" s="23" t="s">
         <v>569</v>
       </c>
-      <c r="B88" s="23" t="s">
+      <c r="C88" s="21" t="s">
         <v>570</v>
-      </c>
-      <c r="C88" s="21" t="s">
-        <v>571</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>49</v>
@@ -9061,7 +9058,7 @@
         <v>1080</v>
       </c>
       <c r="G88" s="21" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H88" s="12" t="b">
         <v>0</v>
@@ -9092,10 +9089,10 @@
         <v>253</v>
       </c>
       <c r="B89" s="23" t="s">
+        <v>572</v>
+      </c>
+      <c r="C89" s="21" t="s">
         <v>573</v>
-      </c>
-      <c r="C89" s="21" t="s">
-        <v>574</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>49</v>
@@ -9107,7 +9104,7 @@
         <v>1550</v>
       </c>
       <c r="G89" s="21" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H89" s="12" t="b">
         <v>0</v>
@@ -9135,13 +9132,13 @@
     </row>
     <row r="90" customHeight="1" spans="1:18">
       <c r="A90" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="B90" s="23" t="s">
         <v>576</v>
       </c>
-      <c r="B90" s="23" t="s">
+      <c r="C90" s="21" t="s">
         <v>577</v>
-      </c>
-      <c r="C90" s="21" t="s">
-        <v>578</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>49</v>
@@ -9153,7 +9150,7 @@
         <v>2050</v>
       </c>
       <c r="G90" s="21" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H90" s="12" t="b">
         <v>0</v>
@@ -9184,10 +9181,10 @@
         <v>385</v>
       </c>
       <c r="B91" s="23" t="s">
+        <v>579</v>
+      </c>
+      <c r="C91" s="21" t="s">
         <v>580</v>
-      </c>
-      <c r="C91" s="21" t="s">
-        <v>581</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>49</v>
@@ -9199,7 +9196,7 @@
         <v>2850</v>
       </c>
       <c r="G91" s="21" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H91" s="12" t="b">
         <v>0</v>
@@ -9227,13 +9224,13 @@
     </row>
     <row r="92" customHeight="1" spans="1:18">
       <c r="A92" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="B92" s="23" t="s">
         <v>583</v>
       </c>
-      <c r="B92" s="23" t="s">
+      <c r="C92" s="24" t="s">
         <v>584</v>
-      </c>
-      <c r="C92" s="24" t="s">
-        <v>585</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>49</v>
@@ -9245,7 +9242,7 @@
         <v>900</v>
       </c>
       <c r="G92" s="21" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H92" s="12" t="b">
         <v>0</v>
@@ -9273,13 +9270,13 @@
     </row>
     <row r="93" customHeight="1" spans="1:18">
       <c r="A93" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="B93" s="23" t="s">
         <v>587</v>
       </c>
-      <c r="B93" s="23" t="s">
+      <c r="C93" s="21" t="s">
         <v>588</v>
-      </c>
-      <c r="C93" s="21" t="s">
-        <v>589</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>49</v>
@@ -9291,7 +9288,7 @@
         <v>1650</v>
       </c>
       <c r="G93" s="21" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H93" s="12" t="b">
         <v>0</v>
@@ -9319,13 +9316,13 @@
     </row>
     <row r="94" customHeight="1" spans="1:18">
       <c r="A94" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="B94" s="23" t="s">
         <v>591</v>
       </c>
-      <c r="B94" s="23" t="s">
+      <c r="C94" s="21" t="s">
         <v>592</v>
-      </c>
-      <c r="C94" s="21" t="s">
-        <v>593</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>49</v>
@@ -9337,7 +9334,7 @@
         <v>2350</v>
       </c>
       <c r="G94" s="21" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H94" s="12" t="b">
         <v>0</v>
@@ -9365,13 +9362,13 @@
     </row>
     <row r="95" customHeight="1" spans="1:18">
       <c r="A95" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="B95" s="23" t="s">
         <v>595</v>
       </c>
-      <c r="B95" s="23" t="s">
+      <c r="C95" s="21" t="s">
         <v>596</v>
-      </c>
-      <c r="C95" s="21" t="s">
-        <v>597</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>49</v>
@@ -9383,7 +9380,7 @@
         <v>2180</v>
       </c>
       <c r="G95" s="21" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H95" s="12" t="b">
         <v>0</v>
@@ -9411,13 +9408,13 @@
     </row>
     <row r="96" customHeight="1" spans="1:18">
       <c r="A96" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="B96" s="23" t="s">
         <v>599</v>
       </c>
-      <c r="B96" s="23" t="s">
+      <c r="C96" s="21" t="s">
         <v>600</v>
-      </c>
-      <c r="C96" s="21" t="s">
-        <v>601</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>49</v>
@@ -9429,7 +9426,7 @@
         <v>4980</v>
       </c>
       <c r="G96" s="21" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H96" s="12" t="b">
         <v>0</v>
@@ -9457,13 +9454,13 @@
     </row>
     <row r="97" customHeight="1" spans="1:18">
       <c r="A97" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="B97" s="23" t="s">
         <v>603</v>
       </c>
-      <c r="B97" s="23" t="s">
+      <c r="C97" s="21" t="s">
         <v>604</v>
-      </c>
-      <c r="C97" s="21" t="s">
-        <v>605</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>49</v>
@@ -9475,7 +9472,7 @@
         <v>17800</v>
       </c>
       <c r="G97" s="21" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H97" s="12" t="b">
         <v>0</v>
@@ -9503,13 +9500,13 @@
     </row>
     <row r="98" customHeight="1" spans="1:18">
       <c r="A98" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="B98" s="23" t="s">
         <v>607</v>
       </c>
-      <c r="B98" s="23" t="s">
+      <c r="C98" s="21" t="s">
         <v>608</v>
-      </c>
-      <c r="C98" s="21" t="s">
-        <v>609</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>49</v>
@@ -9521,7 +9518,7 @@
         <v>2080</v>
       </c>
       <c r="G98" s="21" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H98" s="12" t="b">
         <v>0</v>
@@ -9552,10 +9549,10 @@
         <v>316</v>
       </c>
       <c r="B99" s="23" t="s">
+        <v>610</v>
+      </c>
+      <c r="C99" s="21" t="s">
         <v>611</v>
-      </c>
-      <c r="C99" s="21" t="s">
-        <v>612</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>49</v>
@@ -9567,7 +9564,7 @@
         <v>4880</v>
       </c>
       <c r="G99" s="21" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H99" s="12" t="b">
         <v>0</v>
@@ -9595,13 +9592,13 @@
     </row>
     <row r="100" customHeight="1" spans="1:18">
       <c r="A100" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B100" s="23" t="s">
         <v>614</v>
       </c>
-      <c r="B100" s="23" t="s">
+      <c r="C100" s="21" t="s">
         <v>615</v>
-      </c>
-      <c r="C100" s="21" t="s">
-        <v>616</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>49</v>
@@ -9613,7 +9610,7 @@
         <v>17800</v>
       </c>
       <c r="G100" s="21" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H100" s="12" t="b">
         <v>0</v>
@@ -9641,13 +9638,13 @@
     </row>
     <row r="101" customHeight="1" spans="1:18">
       <c r="A101" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="B101" s="23" t="s">
         <v>617</v>
       </c>
-      <c r="B101" s="23" t="s">
+      <c r="C101" s="21" t="s">
         <v>618</v>
-      </c>
-      <c r="C101" s="21" t="s">
-        <v>619</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>49</v>
@@ -9659,7 +9656,7 @@
         <v>2180</v>
       </c>
       <c r="G101" s="21" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H101" s="12" t="b">
         <v>0</v>
@@ -9687,13 +9684,13 @@
     </row>
     <row r="102" customHeight="1" spans="1:18">
       <c r="A102" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="B102" s="23" t="s">
         <v>621</v>
       </c>
-      <c r="B102" s="23" t="s">
+      <c r="C102" s="21" t="s">
         <v>622</v>
-      </c>
-      <c r="C102" s="21" t="s">
-        <v>623</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>49</v>
@@ -9705,7 +9702,7 @@
         <v>9800</v>
       </c>
       <c r="G102" s="21" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H102" s="12" t="b">
         <v>0</v>
@@ -9733,13 +9730,13 @@
     </row>
     <row r="103" customHeight="1" spans="1:18">
       <c r="A103" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="B103" s="23" t="s">
         <v>625</v>
       </c>
-      <c r="B103" s="23" t="s">
+      <c r="C103" s="21" t="s">
         <v>626</v>
-      </c>
-      <c r="C103" s="21" t="s">
-        <v>627</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>49</v>
@@ -9751,7 +9748,7 @@
         <v>15000</v>
       </c>
       <c r="G103" s="21" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H103" s="12" t="b">
         <v>0</v>
@@ -9779,13 +9776,13 @@
     </row>
     <row r="104" customHeight="1" spans="1:18">
       <c r="A104" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="B104" s="23" t="s">
         <v>629</v>
       </c>
-      <c r="B104" s="23" t="s">
+      <c r="C104" s="21" t="s">
         <v>630</v>
-      </c>
-      <c r="C104" s="21" t="s">
-        <v>631</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>49</v>
@@ -9797,7 +9794,7 @@
         <v>2080</v>
       </c>
       <c r="G104" s="21" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H104" s="12" t="b">
         <v>0</v>
@@ -9825,13 +9822,13 @@
     </row>
     <row r="105" customHeight="1" spans="1:18">
       <c r="A105" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="B105" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="B105" s="23" t="s">
+      <c r="C105" s="21" t="s">
         <v>633</v>
-      </c>
-      <c r="C105" s="21" t="s">
-        <v>634</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>49</v>
@@ -9843,7 +9840,7 @@
         <v>11000</v>
       </c>
       <c r="G105" s="21" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H105" s="12" t="b">
         <v>0</v>
@@ -9871,16 +9868,16 @@
     </row>
     <row r="106" customHeight="1" spans="1:18">
       <c r="A106" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="B106" s="21" t="s">
         <v>636</v>
       </c>
-      <c r="B106" s="21" t="s">
+      <c r="C106" s="21" t="s">
         <v>637</v>
       </c>
-      <c r="C106" s="21" t="s">
+      <c r="D106" s="8" t="s">
         <v>638</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>639</v>
       </c>
       <c r="E106" s="8" t="s">
         <v>105</v>
@@ -9889,7 +9886,7 @@
         <v>1080</v>
       </c>
       <c r="G106" s="21" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H106" s="12" t="b">
         <v>0</v>
@@ -9917,13 +9914,13 @@
     </row>
     <row r="107" customHeight="1" spans="1:18">
       <c r="A107" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="B107" s="23" t="s">
         <v>641</v>
       </c>
-      <c r="B107" s="23" t="s">
+      <c r="C107" s="21" t="s">
         <v>642</v>
-      </c>
-      <c r="C107" s="21" t="s">
-        <v>643</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>52</v>
@@ -9935,7 +9932,7 @@
         <v>980</v>
       </c>
       <c r="G107" s="21" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H107" s="12" t="b">
         <v>0</v>
@@ -9963,13 +9960,13 @@
     </row>
     <row r="108" customHeight="1" spans="1:18">
       <c r="A108" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="B108" s="23" t="s">
         <v>645</v>
       </c>
-      <c r="B108" s="23" t="s">
+      <c r="C108" s="21" t="s">
         <v>646</v>
-      </c>
-      <c r="C108" s="21" t="s">
-        <v>647</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>52</v>
@@ -9981,7 +9978,7 @@
         <v>1180</v>
       </c>
       <c r="G108" s="21" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H108" s="12" t="b">
         <v>0</v>
@@ -10009,13 +10006,13 @@
     </row>
     <row r="109" customHeight="1" spans="1:18">
       <c r="A109" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="B109" s="23" t="s">
         <v>649</v>
       </c>
-      <c r="B109" s="23" t="s">
+      <c r="C109" s="21" t="s">
         <v>650</v>
-      </c>
-      <c r="C109" s="21" t="s">
-        <v>651</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>52</v>
@@ -10027,7 +10024,7 @@
         <v>1280</v>
       </c>
       <c r="G109" s="21" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H109" s="12" t="b">
         <v>0</v>
@@ -10055,13 +10052,13 @@
     </row>
     <row r="110" customHeight="1" spans="1:18">
       <c r="A110" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="B110" s="23" t="s">
         <v>653</v>
       </c>
-      <c r="B110" s="23" t="s">
+      <c r="C110" s="21" t="s">
         <v>654</v>
-      </c>
-      <c r="C110" s="21" t="s">
-        <v>655</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>52</v>
@@ -10073,7 +10070,7 @@
         <v>2400</v>
       </c>
       <c r="G110" s="21" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H110" s="12" t="b">
         <v>0</v>
@@ -10101,13 +10098,13 @@
     </row>
     <row r="111" customHeight="1" spans="1:18">
       <c r="A111" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="B111" s="23" t="s">
         <v>657</v>
       </c>
-      <c r="B111" s="23" t="s">
+      <c r="C111" s="21" t="s">
         <v>658</v>
-      </c>
-      <c r="C111" s="21" t="s">
-        <v>659</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>52</v>
@@ -10119,7 +10116,7 @@
         <v>3880</v>
       </c>
       <c r="G111" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H111" s="12" t="b">
         <v>0</v>
@@ -10147,13 +10144,13 @@
     </row>
     <row r="112" customHeight="1" spans="1:18">
       <c r="A112" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="B112" s="23" t="s">
         <v>661</v>
       </c>
-      <c r="B112" s="23" t="s">
+      <c r="C112" s="21" t="s">
         <v>662</v>
-      </c>
-      <c r="C112" s="21" t="s">
-        <v>663</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>52</v>
@@ -10165,7 +10162,7 @@
         <v>980</v>
       </c>
       <c r="G112" s="21" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H112" s="12" t="b">
         <v>0</v>
@@ -10193,13 +10190,13 @@
     </row>
     <row r="113" customHeight="1" spans="1:18">
       <c r="A113" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="B113" s="23" t="s">
         <v>664</v>
       </c>
-      <c r="B113" s="23" t="s">
+      <c r="C113" s="21" t="s">
         <v>665</v>
-      </c>
-      <c r="C113" s="21" t="s">
-        <v>666</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>52</v>
@@ -10211,7 +10208,7 @@
         <v>1180</v>
       </c>
       <c r="G113" s="21" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H113" s="12" t="b">
         <v>0</v>
@@ -10239,13 +10236,13 @@
     </row>
     <row r="114" customHeight="1" spans="1:18">
       <c r="A114" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="B114" s="23" t="s">
         <v>667</v>
       </c>
-      <c r="B114" s="23" t="s">
+      <c r="C114" s="21" t="s">
         <v>668</v>
-      </c>
-      <c r="C114" s="21" t="s">
-        <v>669</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>52</v>
@@ -10257,7 +10254,7 @@
         <v>880</v>
       </c>
       <c r="G114" s="21" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H114" s="12" t="b">
         <v>0</v>
@@ -10285,13 +10282,13 @@
     </row>
     <row r="115" customHeight="1" spans="1:18">
       <c r="A115" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="B115" s="23" t="s">
         <v>671</v>
       </c>
-      <c r="B115" s="23" t="s">
+      <c r="C115" s="21" t="s">
         <v>672</v>
-      </c>
-      <c r="C115" s="21" t="s">
-        <v>673</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>52</v>
@@ -10303,7 +10300,7 @@
         <v>1480</v>
       </c>
       <c r="G115" s="21" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H115" s="12" t="b">
         <v>0</v>
@@ -10331,13 +10328,13 @@
     </row>
     <row r="116" customHeight="1" spans="1:18">
       <c r="A116" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="B116" s="23" t="s">
         <v>675</v>
       </c>
-      <c r="B116" s="23" t="s">
+      <c r="C116" s="21" t="s">
         <v>676</v>
-      </c>
-      <c r="C116" s="21" t="s">
-        <v>677</v>
       </c>
       <c r="D116" s="8" t="s">
         <v>52</v>
@@ -10349,7 +10346,7 @@
         <v>3680</v>
       </c>
       <c r="G116" s="21" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H116" s="12" t="b">
         <v>0</v>
@@ -10377,13 +10374,13 @@
     </row>
     <row r="117" customHeight="1" spans="1:18">
       <c r="A117" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="B117" s="23" t="s">
         <v>679</v>
       </c>
-      <c r="B117" s="23" t="s">
+      <c r="C117" s="21" t="s">
         <v>680</v>
-      </c>
-      <c r="C117" s="21" t="s">
-        <v>681</v>
       </c>
       <c r="D117" s="8" t="s">
         <v>52</v>
@@ -10395,7 +10392,7 @@
         <v>1180</v>
       </c>
       <c r="G117" s="21" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H117" s="12" t="b">
         <v>0</v>
@@ -10423,13 +10420,13 @@
     </row>
     <row r="118" customHeight="1" spans="1:18">
       <c r="A118" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="B118" s="23" t="s">
         <v>682</v>
       </c>
-      <c r="B118" s="23" t="s">
+      <c r="C118" s="21" t="s">
         <v>683</v>
-      </c>
-      <c r="C118" s="21" t="s">
-        <v>684</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>52</v>
@@ -10441,7 +10438,7 @@
         <v>2380</v>
       </c>
       <c r="G118" s="21" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H118" s="12" t="b">
         <v>0</v>
@@ -10469,13 +10466,13 @@
     </row>
     <row r="119" customHeight="1" spans="1:18">
       <c r="A119" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="B119" s="23" t="s">
         <v>686</v>
       </c>
-      <c r="B119" s="23" t="s">
+      <c r="C119" s="21" t="s">
         <v>687</v>
-      </c>
-      <c r="C119" s="21" t="s">
-        <v>688</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>55</v>
@@ -10487,7 +10484,7 @@
         <v>1380</v>
       </c>
       <c r="G119" s="21" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H119" s="12" t="b">
         <v>0</v>
@@ -10515,13 +10512,13 @@
     </row>
     <row r="120" customHeight="1" spans="1:18">
       <c r="A120" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="B120" s="23" t="s">
         <v>690</v>
       </c>
-      <c r="B120" s="23" t="s">
+      <c r="C120" s="21" t="s">
         <v>691</v>
-      </c>
-      <c r="C120" s="21" t="s">
-        <v>692</v>
       </c>
       <c r="D120" s="8" t="s">
         <v>55</v>
@@ -10533,7 +10530,7 @@
         <v>1180</v>
       </c>
       <c r="G120" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H120" s="12" t="b">
         <v>0</v>
@@ -10561,13 +10558,13 @@
     </row>
     <row r="121" customHeight="1" spans="1:18">
       <c r="A121" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B121" s="23" t="s">
         <v>693</v>
       </c>
-      <c r="B121" s="23" t="s">
+      <c r="C121" s="21" t="s">
         <v>694</v>
-      </c>
-      <c r="C121" s="21" t="s">
-        <v>695</v>
       </c>
       <c r="D121" s="8" t="s">
         <v>55</v>
@@ -10579,7 +10576,7 @@
         <v>1680</v>
       </c>
       <c r="G121" s="21" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H121" s="12" t="b">
         <v>0</v>
@@ -10607,13 +10604,13 @@
     </row>
     <row r="122" customHeight="1" spans="1:18">
       <c r="A122" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="B122" s="23" t="s">
         <v>697</v>
       </c>
-      <c r="B122" s="23" t="s">
+      <c r="C122" s="21" t="s">
         <v>698</v>
-      </c>
-      <c r="C122" s="21" t="s">
-        <v>699</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>55</v>
@@ -10625,7 +10622,7 @@
         <v>2180</v>
       </c>
       <c r="G122" s="21" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H122" s="12" t="b">
         <v>0</v>
@@ -10653,13 +10650,13 @@
     </row>
     <row r="123" customHeight="1" spans="1:18">
       <c r="A123" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="B123" s="23" t="s">
         <v>700</v>
       </c>
-      <c r="B123" s="23" t="s">
+      <c r="C123" s="21" t="s">
         <v>701</v>
-      </c>
-      <c r="C123" s="21" t="s">
-        <v>702</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>55</v>
@@ -10671,7 +10668,7 @@
         <v>980</v>
       </c>
       <c r="G123" s="21" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H123" s="12" t="b">
         <v>0</v>
@@ -10699,13 +10696,13 @@
     </row>
     <row r="124" customHeight="1" spans="1:18">
       <c r="A124" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="B124" s="23" t="s">
         <v>703</v>
       </c>
-      <c r="B124" s="23" t="s">
+      <c r="C124" s="21" t="s">
         <v>704</v>
-      </c>
-      <c r="C124" s="21" t="s">
-        <v>705</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>55</v>
@@ -10717,7 +10714,7 @@
         <v>1280</v>
       </c>
       <c r="G124" s="21" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H124" s="12" t="b">
         <v>0</v>
@@ -10745,13 +10742,13 @@
     </row>
     <row r="125" customHeight="1" spans="1:18">
       <c r="A125" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="B125" s="21" t="s">
         <v>707</v>
       </c>
-      <c r="B125" s="21" t="s">
+      <c r="C125" s="21" t="s">
         <v>708</v>
-      </c>
-      <c r="C125" s="21" t="s">
-        <v>709</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>55</v>
@@ -10763,7 +10760,7 @@
         <v>1080</v>
       </c>
       <c r="G125" s="21" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H125" s="12" t="b">
         <v>0</v>
@@ -10791,13 +10788,13 @@
     </row>
     <row r="126" customHeight="1" spans="1:18">
       <c r="A126" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="B126" s="21" t="s">
         <v>710</v>
       </c>
-      <c r="B126" s="21" t="s">
+      <c r="C126" s="21" t="s">
         <v>711</v>
-      </c>
-      <c r="C126" s="21" t="s">
-        <v>712</v>
       </c>
       <c r="D126" s="8" t="s">
         <v>55</v>
@@ -10809,7 +10806,7 @@
         <v>1880</v>
       </c>
       <c r="G126" s="21" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H126" s="12" t="b">
         <v>0</v>
@@ -10837,13 +10834,13 @@
     </row>
     <row r="127" customHeight="1" spans="1:18">
       <c r="A127" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="B127" s="21" t="s">
         <v>714</v>
       </c>
-      <c r="B127" s="21" t="s">
+      <c r="C127" s="21" t="s">
         <v>715</v>
-      </c>
-      <c r="C127" s="21" t="s">
-        <v>716</v>
       </c>
       <c r="D127" s="8" t="s">
         <v>55</v>
@@ -10855,7 +10852,7 @@
         <v>2680</v>
       </c>
       <c r="G127" s="21" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H127" s="12" t="b">
         <v>0</v>
@@ -10883,13 +10880,13 @@
     </row>
     <row r="128" customHeight="1" spans="1:18">
       <c r="A128" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="B128" s="23" t="s">
         <v>718</v>
       </c>
-      <c r="B128" s="23" t="s">
+      <c r="C128" s="21" t="s">
         <v>719</v>
-      </c>
-      <c r="C128" s="21" t="s">
-        <v>720</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>55</v>
@@ -10901,7 +10898,7 @@
         <v>1380</v>
       </c>
       <c r="G128" s="21" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H128" s="12" t="b">
         <v>0</v>
@@ -10932,10 +10929,10 @@
         <v>106</v>
       </c>
       <c r="B129" s="23" t="s">
+        <v>721</v>
+      </c>
+      <c r="C129" s="21" t="s">
         <v>722</v>
-      </c>
-      <c r="C129" s="21" t="s">
-        <v>723</v>
       </c>
       <c r="D129" s="8" t="s">
         <v>55</v>
@@ -10947,7 +10944,7 @@
         <v>1480</v>
       </c>
       <c r="G129" s="21" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H129" s="12" t="b">
         <v>0</v>
@@ -10975,13 +10972,13 @@
     </row>
     <row r="130" customHeight="1" spans="1:18">
       <c r="A130" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="B130" s="23" t="s">
         <v>725</v>
       </c>
-      <c r="B130" s="23" t="s">
+      <c r="C130" s="21" t="s">
         <v>726</v>
-      </c>
-      <c r="C130" s="21" t="s">
-        <v>727</v>
       </c>
       <c r="D130" s="27" t="s">
         <v>58</v>
@@ -10993,7 +10990,7 @@
         <v>1580</v>
       </c>
       <c r="G130" s="21" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H130" s="12" t="b">
         <v>0</v>
@@ -11021,13 +11018,13 @@
     </row>
     <row r="131" customHeight="1" spans="1:18">
       <c r="A131" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="B131" s="23" t="s">
         <v>729</v>
       </c>
-      <c r="B131" s="23" t="s">
+      <c r="C131" s="21" t="s">
         <v>730</v>
-      </c>
-      <c r="C131" s="21" t="s">
-        <v>731</v>
       </c>
       <c r="D131" s="27" t="s">
         <v>58</v>
@@ -11039,7 +11036,7 @@
         <v>880</v>
       </c>
       <c r="G131" s="21" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H131" s="12" t="b">
         <v>0</v>
@@ -11067,13 +11064,13 @@
     </row>
     <row r="132" customHeight="1" spans="1:18">
       <c r="A132" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="B132" s="23" t="s">
         <v>732</v>
       </c>
-      <c r="B132" s="23" t="s">
+      <c r="C132" s="21" t="s">
         <v>733</v>
-      </c>
-      <c r="C132" s="21" t="s">
-        <v>734</v>
       </c>
       <c r="D132" s="27" t="s">
         <v>58</v>
@@ -11085,7 +11082,7 @@
         <v>1380</v>
       </c>
       <c r="G132" s="21" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H132" s="12" t="b">
         <v>0</v>
@@ -11113,13 +11110,13 @@
     </row>
     <row r="133" customHeight="1" spans="1:18">
       <c r="A133" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="B133" s="23" t="s">
         <v>736</v>
       </c>
-      <c r="B133" s="23" t="s">
+      <c r="C133" s="21" t="s">
         <v>737</v>
-      </c>
-      <c r="C133" s="21" t="s">
-        <v>738</v>
       </c>
       <c r="D133" s="27" t="s">
         <v>58</v>
@@ -11131,7 +11128,7 @@
         <v>1580</v>
       </c>
       <c r="G133" s="21" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H133" s="12" t="b">
         <v>0</v>
@@ -11159,13 +11156,13 @@
     </row>
     <row r="134" customHeight="1" spans="1:18">
       <c r="A134" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="B134" s="23" t="s">
         <v>740</v>
       </c>
-      <c r="B134" s="23" t="s">
+      <c r="C134" s="21" t="s">
         <v>741</v>
-      </c>
-      <c r="C134" s="21" t="s">
-        <v>742</v>
       </c>
       <c r="D134" s="27" t="s">
         <v>58</v>
@@ -11177,7 +11174,7 @@
         <v>880</v>
       </c>
       <c r="G134" s="21" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H134" s="12" t="b">
         <v>0</v>
@@ -11205,13 +11202,13 @@
     </row>
     <row r="135" customHeight="1" spans="1:18">
       <c r="A135" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="B135" s="23" t="s">
         <v>743</v>
       </c>
-      <c r="B135" s="23" t="s">
+      <c r="C135" s="21" t="s">
         <v>744</v>
-      </c>
-      <c r="C135" s="21" t="s">
-        <v>745</v>
       </c>
       <c r="D135" s="27" t="s">
         <v>58</v>
@@ -11223,7 +11220,7 @@
         <v>2380</v>
       </c>
       <c r="G135" s="21" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H135" s="12" t="b">
         <v>0</v>
@@ -11251,13 +11248,13 @@
     </row>
     <row r="136" customHeight="1" spans="1:18">
       <c r="A136" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="B136" s="21" t="s">
         <v>746</v>
       </c>
-      <c r="B136" s="21" t="s">
+      <c r="C136" s="21" t="s">
         <v>747</v>
-      </c>
-      <c r="C136" s="21" t="s">
-        <v>748</v>
       </c>
       <c r="D136" s="27" t="s">
         <v>61</v>
@@ -11269,7 +11266,7 @@
         <v>880</v>
       </c>
       <c r="G136" s="21" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H136" s="12" t="b">
         <v>0</v>
@@ -11297,13 +11294,13 @@
     </row>
     <row r="137" customHeight="1" spans="1:18">
       <c r="A137" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="B137" s="21" t="s">
         <v>749</v>
       </c>
-      <c r="B137" s="21" t="s">
+      <c r="C137" s="21" t="s">
         <v>750</v>
-      </c>
-      <c r="C137" s="21" t="s">
-        <v>751</v>
       </c>
       <c r="D137" s="27" t="s">
         <v>61</v>
@@ -11315,7 +11312,7 @@
         <v>780</v>
       </c>
       <c r="G137" s="21" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H137" s="12" t="b">
         <v>0</v>
@@ -11343,13 +11340,13 @@
     </row>
     <row r="138" customHeight="1" spans="1:18">
       <c r="A138" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="B138" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="B138" s="21" t="s">
+      <c r="C138" s="21" t="s">
         <v>754</v>
-      </c>
-      <c r="C138" s="21" t="s">
-        <v>755</v>
       </c>
       <c r="D138" s="27" t="s">
         <v>61</v>
@@ -11361,7 +11358,7 @@
         <v>780</v>
       </c>
       <c r="G138" s="21" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H138" s="12" t="b">
         <v>0</v>
@@ -11389,13 +11386,13 @@
     </row>
     <row r="139" customHeight="1" spans="1:18">
       <c r="A139" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="B139" s="21" t="s">
         <v>756</v>
       </c>
-      <c r="B139" s="21" t="s">
+      <c r="C139" s="21" t="s">
         <v>757</v>
-      </c>
-      <c r="C139" s="21" t="s">
-        <v>758</v>
       </c>
       <c r="D139" s="27" t="s">
         <v>61</v>
@@ -11407,7 +11404,7 @@
         <v>880</v>
       </c>
       <c r="G139" s="21" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H139" s="12" t="b">
         <v>0</v>
@@ -11435,13 +11432,13 @@
     </row>
     <row r="140" customHeight="1" spans="1:18">
       <c r="A140" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="B140" s="21" t="s">
         <v>759</v>
       </c>
-      <c r="B140" s="21" t="s">
+      <c r="C140" s="21" t="s">
         <v>760</v>
-      </c>
-      <c r="C140" s="21" t="s">
-        <v>761</v>
       </c>
       <c r="D140" s="27" t="s">
         <v>61</v>
@@ -11453,7 +11450,7 @@
         <v>1280</v>
       </c>
       <c r="G140" s="21" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H140" s="12" t="b">
         <v>0</v>
@@ -11481,13 +11478,13 @@
     </row>
     <row r="141" customHeight="1" spans="1:18">
       <c r="A141" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="B141" s="21" t="s">
         <v>762</v>
       </c>
-      <c r="B141" s="21" t="s">
+      <c r="C141" s="21" t="s">
         <v>763</v>
-      </c>
-      <c r="C141" s="21" t="s">
-        <v>764</v>
       </c>
       <c r="D141" s="27" t="s">
         <v>61</v>
@@ -11499,7 +11496,7 @@
         <v>1780</v>
       </c>
       <c r="G141" s="21" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H141" s="12" t="b">
         <v>0</v>
@@ -11527,13 +11524,13 @@
     </row>
     <row r="142" customHeight="1" spans="1:18">
       <c r="A142" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B142" s="21" t="s">
         <v>766</v>
       </c>
-      <c r="B142" s="21" t="s">
+      <c r="C142" s="21" t="s">
         <v>767</v>
-      </c>
-      <c r="C142" s="21" t="s">
-        <v>768</v>
       </c>
       <c r="D142" s="27" t="s">
         <v>61</v>
@@ -11545,7 +11542,7 @@
         <v>1180</v>
       </c>
       <c r="G142" s="21" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H142" s="12" t="b">
         <v>0</v>
@@ -11573,13 +11570,13 @@
     </row>
     <row r="143" customHeight="1" spans="1:18">
       <c r="A143" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="B143" s="21" t="s">
         <v>769</v>
       </c>
-      <c r="B143" s="21" t="s">
+      <c r="C143" s="21" t="s">
         <v>770</v>
-      </c>
-      <c r="C143" s="21" t="s">
-        <v>771</v>
       </c>
       <c r="D143" s="27" t="s">
         <v>61</v>
@@ -11591,7 +11588,7 @@
         <v>1280</v>
       </c>
       <c r="G143" s="21" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H143" s="12" t="b">
         <v>0</v>
@@ -11619,13 +11616,13 @@
     </row>
     <row r="144" customHeight="1" spans="1:18">
       <c r="A144" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="B144" s="21" t="s">
         <v>772</v>
       </c>
-      <c r="B144" s="21" t="s">
+      <c r="C144" s="21" t="s">
         <v>773</v>
-      </c>
-      <c r="C144" s="21" t="s">
-        <v>774</v>
       </c>
       <c r="D144" s="27" t="s">
         <v>61</v>
@@ -11637,7 +11634,7 @@
         <v>1780</v>
       </c>
       <c r="G144" s="21" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H144" s="12" t="b">
         <v>0</v>
@@ -11665,13 +11662,13 @@
     </row>
     <row r="145" customHeight="1" spans="1:18">
       <c r="A145" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="B145" s="21" t="s">
         <v>776</v>
       </c>
-      <c r="B145" s="21" t="s">
+      <c r="C145" s="21" t="s">
         <v>777</v>
-      </c>
-      <c r="C145" s="21" t="s">
-        <v>778</v>
       </c>
       <c r="D145" s="27" t="s">
         <v>61</v>
@@ -11683,7 +11680,7 @@
         <v>2480</v>
       </c>
       <c r="G145" s="21" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H145" s="12" t="b">
         <v>0</v>
@@ -11711,13 +11708,13 @@
     </row>
     <row r="146" customHeight="1" spans="1:18">
       <c r="A146" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="B146" s="23" t="s">
         <v>780</v>
       </c>
-      <c r="B146" s="23" t="s">
+      <c r="C146" s="21" t="s">
         <v>781</v>
-      </c>
-      <c r="C146" s="21" t="s">
-        <v>782</v>
       </c>
       <c r="D146" s="27" t="s">
         <v>61</v>
@@ -11729,7 +11726,7 @@
         <v>1180</v>
       </c>
       <c r="G146" s="21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H146" s="12" t="b">
         <v>0</v>
@@ -11757,13 +11754,13 @@
     </row>
     <row r="147" customHeight="1" spans="1:18">
       <c r="A147" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="B147" s="23" t="s">
         <v>783</v>
       </c>
-      <c r="B147" s="23" t="s">
+      <c r="C147" s="21" t="s">
         <v>784</v>
-      </c>
-      <c r="C147" s="21" t="s">
-        <v>785</v>
       </c>
       <c r="D147" s="27" t="s">
         <v>61</v>
@@ -11775,7 +11772,7 @@
         <v>980</v>
       </c>
       <c r="G147" s="21" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H147" s="12" t="b">
         <v>0</v>
@@ -11803,13 +11800,13 @@
     </row>
     <row r="148" customHeight="1" spans="1:18">
       <c r="A148" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="B148" s="23" t="s">
         <v>786</v>
       </c>
-      <c r="B148" s="23" t="s">
+      <c r="C148" s="21" t="s">
         <v>787</v>
-      </c>
-      <c r="C148" s="21" t="s">
-        <v>788</v>
       </c>
       <c r="D148" s="27" t="s">
         <v>61</v>
@@ -11821,7 +11818,7 @@
         <v>1650</v>
       </c>
       <c r="G148" s="21" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H148" s="12" t="b">
         <v>0</v>
@@ -11849,13 +11846,13 @@
     </row>
     <row r="149" customHeight="1" spans="1:18">
       <c r="A149" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="B149" s="23" t="s">
         <v>790</v>
       </c>
-      <c r="B149" s="23" t="s">
+      <c r="C149" s="21" t="s">
         <v>791</v>
-      </c>
-      <c r="C149" s="21" t="s">
-        <v>792</v>
       </c>
       <c r="D149" s="27" t="s">
         <v>61</v>
@@ -11867,7 +11864,7 @@
         <v>1100</v>
       </c>
       <c r="G149" s="21" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H149" s="12" t="b">
         <v>0</v>
@@ -11895,13 +11892,13 @@
     </row>
     <row r="150" customHeight="1" spans="1:18">
       <c r="A150" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="B150" s="23" t="s">
         <v>794</v>
       </c>
-      <c r="B150" s="23" t="s">
+      <c r="C150" s="21" t="s">
         <v>795</v>
-      </c>
-      <c r="C150" s="21" t="s">
-        <v>796</v>
       </c>
       <c r="D150" s="27" t="s">
         <v>61</v>
@@ -11913,7 +11910,7 @@
         <v>980</v>
       </c>
       <c r="G150" s="21" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H150" s="12" t="b">
         <v>0</v>
@@ -11941,13 +11938,13 @@
     </row>
     <row r="151" customHeight="1" spans="1:18">
       <c r="A151" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="B151" s="23" t="s">
         <v>797</v>
       </c>
-      <c r="B151" s="23" t="s">
+      <c r="C151" s="21" t="s">
         <v>798</v>
-      </c>
-      <c r="C151" s="21" t="s">
-        <v>799</v>
       </c>
       <c r="D151" s="27" t="s">
         <v>61</v>
@@ -11959,7 +11956,7 @@
         <v>1080</v>
       </c>
       <c r="G151" s="21" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H151" s="12" t="b">
         <v>0</v>
@@ -11987,13 +11984,13 @@
     </row>
     <row r="152" customHeight="1" spans="1:18">
       <c r="A152" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="B152" s="23" t="s">
         <v>800</v>
       </c>
-      <c r="B152" s="23" t="s">
+      <c r="C152" s="21" t="s">
         <v>801</v>
-      </c>
-      <c r="C152" s="21" t="s">
-        <v>802</v>
       </c>
       <c r="D152" s="27" t="s">
         <v>61</v>
@@ -12005,7 +12002,7 @@
         <v>1680</v>
       </c>
       <c r="G152" s="21" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H152" s="12" t="b">
         <v>0</v>
@@ -12033,13 +12030,13 @@
     </row>
     <row r="153" customHeight="1" spans="1:18">
       <c r="A153" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="B153" s="23" t="s">
         <v>804</v>
       </c>
-      <c r="B153" s="23" t="s">
+      <c r="C153" s="21" t="s">
         <v>805</v>
-      </c>
-      <c r="C153" s="21" t="s">
-        <v>806</v>
       </c>
       <c r="D153" s="27" t="s">
         <v>61</v>
@@ -12051,7 +12048,7 @@
         <v>980</v>
       </c>
       <c r="G153" s="21" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H153" s="12" t="b">
         <v>0</v>
@@ -12079,13 +12076,13 @@
     </row>
     <row r="154" customHeight="1" spans="1:18">
       <c r="A154" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="B154" s="23" t="s">
         <v>807</v>
       </c>
-      <c r="B154" s="23" t="s">
+      <c r="C154" s="21" t="s">
         <v>808</v>
-      </c>
-      <c r="C154" s="21" t="s">
-        <v>809</v>
       </c>
       <c r="D154" s="27" t="s">
         <v>61</v>
@@ -12097,7 +12094,7 @@
         <v>1080</v>
       </c>
       <c r="G154" s="21" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H154" s="12" t="b">
         <v>0</v>
@@ -12125,13 +12122,13 @@
     </row>
     <row r="155" customHeight="1" spans="1:18">
       <c r="A155" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="B155" s="23" t="s">
         <v>811</v>
       </c>
-      <c r="B155" s="23" t="s">
+      <c r="C155" s="21" t="s">
         <v>812</v>
-      </c>
-      <c r="C155" s="21" t="s">
-        <v>813</v>
       </c>
       <c r="D155" s="27" t="s">
         <v>61</v>
@@ -12143,7 +12140,7 @@
         <v>1480</v>
       </c>
       <c r="G155" s="21" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H155" s="12" t="b">
         <v>0</v>
@@ -12171,13 +12168,13 @@
     </row>
     <row r="156" customHeight="1" spans="1:18">
       <c r="A156" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="B156" s="23" t="s">
         <v>815</v>
       </c>
-      <c r="B156" s="23" t="s">
+      <c r="C156" s="21" t="s">
         <v>816</v>
-      </c>
-      <c r="C156" s="21" t="s">
-        <v>817</v>
       </c>
       <c r="D156" s="27" t="s">
         <v>61</v>
@@ -12189,7 +12186,7 @@
         <v>3480</v>
       </c>
       <c r="G156" s="21" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H156" s="12" t="b">
         <v>0</v>
@@ -12217,13 +12214,13 @@
     </row>
     <row r="157" customHeight="1" spans="1:18">
       <c r="A157" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="B157" s="23" t="s">
         <v>819</v>
       </c>
-      <c r="B157" s="23" t="s">
+      <c r="C157" s="21" t="s">
         <v>820</v>
-      </c>
-      <c r="C157" s="21" t="s">
-        <v>821</v>
       </c>
       <c r="D157" s="27" t="s">
         <v>61</v>
@@ -12235,7 +12232,7 @@
         <v>1280</v>
       </c>
       <c r="G157" s="21" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H157" s="12" t="b">
         <v>0</v>
@@ -12263,13 +12260,13 @@
     </row>
     <row r="158" customHeight="1" spans="1:18">
       <c r="A158" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="B158" s="23" t="s">
         <v>822</v>
       </c>
-      <c r="B158" s="23" t="s">
+      <c r="C158" s="21" t="s">
         <v>823</v>
-      </c>
-      <c r="C158" s="21" t="s">
-        <v>824</v>
       </c>
       <c r="D158" s="27" t="s">
         <v>61</v>
@@ -12281,7 +12278,7 @@
         <v>1680</v>
       </c>
       <c r="G158" s="21" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H158" s="12" t="b">
         <v>0</v>
@@ -12312,10 +12309,10 @@
         <v>132</v>
       </c>
       <c r="B159" s="23" t="s">
+        <v>824</v>
+      </c>
+      <c r="C159" s="21" t="s">
         <v>825</v>
-      </c>
-      <c r="C159" s="21" t="s">
-        <v>826</v>
       </c>
       <c r="D159" s="27" t="s">
         <v>61</v>
@@ -12327,7 +12324,7 @@
         <v>2680</v>
       </c>
       <c r="G159" s="21" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H159" s="12" t="b">
         <v>0</v>
@@ -12355,13 +12352,13 @@
     </row>
     <row r="160" customHeight="1" spans="1:18">
       <c r="A160" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="B160" s="23" t="s">
         <v>827</v>
       </c>
-      <c r="B160" s="23" t="s">
+      <c r="C160" s="21" t="s">
         <v>828</v>
-      </c>
-      <c r="C160" s="21" t="s">
-        <v>829</v>
       </c>
       <c r="D160" s="27" t="s">
         <v>61</v>
@@ -12373,7 +12370,7 @@
         <v>3680</v>
       </c>
       <c r="G160" s="21" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H160" s="12" t="b">
         <v>0</v>
@@ -12401,13 +12398,13 @@
     </row>
     <row r="161" customFormat="1" customHeight="1" spans="1:18">
       <c r="A161" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="B161" s="23" t="s">
         <v>831</v>
       </c>
-      <c r="B161" s="23" t="s">
+      <c r="C161" s="21" t="s">
         <v>832</v>
-      </c>
-      <c r="C161" s="21" t="s">
-        <v>833</v>
       </c>
       <c r="D161" s="27" t="s">
         <v>64</v>
@@ -12419,7 +12416,7 @@
         <v>28</v>
       </c>
       <c r="G161" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H161" s="12" t="b">
         <v>0</v>
@@ -12447,13 +12444,13 @@
     </row>
     <row r="162" customFormat="1" customHeight="1" spans="1:18">
       <c r="A162" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="B162" s="23" t="s">
         <v>835</v>
       </c>
-      <c r="B162" s="23" t="s">
+      <c r="C162" s="21" t="s">
         <v>836</v>
-      </c>
-      <c r="C162" s="21" t="s">
-        <v>837</v>
       </c>
       <c r="D162" s="27" t="s">
         <v>64</v>
@@ -12465,7 +12462,7 @@
         <v>35</v>
       </c>
       <c r="G162" s="11" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H162" s="12" t="b">
         <v>0</v>
@@ -12493,13 +12490,13 @@
     </row>
     <row r="163" customFormat="1" customHeight="1" spans="1:18">
       <c r="A163" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="B163" s="23" t="s">
         <v>839</v>
       </c>
-      <c r="B163" s="23" t="s">
+      <c r="C163" s="21" t="s">
         <v>840</v>
-      </c>
-      <c r="C163" s="21" t="s">
-        <v>841</v>
       </c>
       <c r="D163" s="27" t="s">
         <v>64</v>
@@ -12511,7 +12508,7 @@
         <v>30</v>
       </c>
       <c r="G163" s="11" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H163" s="12" t="b">
         <v>0</v>
@@ -12539,13 +12536,13 @@
     </row>
     <row r="164" customHeight="1" spans="1:18">
       <c r="A164" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="B164" s="23" t="s">
         <v>843</v>
       </c>
-      <c r="B164" s="23" t="s">
+      <c r="C164" s="21" t="s">
         <v>844</v>
-      </c>
-      <c r="C164" s="21" t="s">
-        <v>845</v>
       </c>
       <c r="D164" s="27" t="s">
         <v>61</v>
@@ -12557,7 +12554,7 @@
         <v>1080</v>
       </c>
       <c r="G164" s="21" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H164" s="12" t="b">
         <v>0</v>
@@ -12585,13 +12582,13 @@
     </row>
     <row r="165" customHeight="1" spans="1:18">
       <c r="A165" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="B165" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="B165" s="27" t="s">
+      <c r="C165" s="27" t="s">
         <v>847</v>
-      </c>
-      <c r="C165" s="27" t="s">
-        <v>848</v>
       </c>
       <c r="D165" s="8" t="s">
         <v>71</v>
@@ -12603,28 +12600,28 @@
         <v>204</v>
       </c>
       <c r="G165" s="11" t="s">
+        <v>848</v>
+      </c>
+      <c r="H165" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I165" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J165" s="8" t="s">
         <v>849</v>
       </c>
-      <c r="H165" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I165" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J165" s="8" t="s">
+      <c r="K165" s="8" t="s">
         <v>850</v>
-      </c>
-      <c r="K165" s="8" t="s">
-        <v>851</v>
       </c>
       <c r="L165" s="8" t="s">
         <v>276</v>
       </c>
       <c r="M165" s="16" t="s">
+        <v>851</v>
+      </c>
+      <c r="N165" s="17" t="s">
         <v>852</v>
-      </c>
-      <c r="N165" s="17" t="s">
-        <v>853</v>
       </c>
       <c r="O165" s="8" t="s">
         <v>112</v>
@@ -12639,13 +12636,13 @@
     </row>
     <row r="166" customHeight="1" spans="1:18">
       <c r="A166" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="B166" s="28" t="s">
         <v>854</v>
       </c>
-      <c r="B166" s="28" t="s">
+      <c r="C166" s="27" t="s">
         <v>855</v>
-      </c>
-      <c r="C166" s="27" t="s">
-        <v>856</v>
       </c>
       <c r="D166" s="8" t="s">
         <v>71</v>
@@ -12657,28 +12654,28 @@
         <v>204</v>
       </c>
       <c r="G166" s="11" t="s">
+        <v>848</v>
+      </c>
+      <c r="H166" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I166" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J166" s="8" t="s">
         <v>849</v>
       </c>
-      <c r="H166" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I166" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J166" s="8" t="s">
-        <v>850</v>
-      </c>
       <c r="K166" s="8" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="L166" s="8" t="s">
         <v>276</v>
       </c>
       <c r="M166" s="16" t="s">
+        <v>857</v>
+      </c>
+      <c r="N166" s="17" t="s">
         <v>858</v>
-      </c>
-      <c r="N166" s="17" t="s">
-        <v>859</v>
       </c>
       <c r="O166" s="8" t="s">
         <v>112</v>
@@ -12693,13 +12690,13 @@
     </row>
     <row r="167" customHeight="1" spans="1:18">
       <c r="A167" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="B167" s="27" t="s">
         <v>860</v>
       </c>
-      <c r="B167" s="27" t="s">
+      <c r="C167" s="27" t="s">
         <v>861</v>
-      </c>
-      <c r="C167" s="27" t="s">
-        <v>862</v>
       </c>
       <c r="D167" s="8" t="s">
         <v>71</v>
@@ -12711,28 +12708,28 @@
         <v>204</v>
       </c>
       <c r="G167" s="11" t="s">
+        <v>848</v>
+      </c>
+      <c r="H167" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I167" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J167" s="8" t="s">
         <v>849</v>
       </c>
-      <c r="H167" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I167" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J167" s="8" t="s">
-        <v>850</v>
-      </c>
       <c r="K167" s="8" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="L167" s="8" t="s">
         <v>276</v>
       </c>
       <c r="M167" s="16" t="s">
+        <v>863</v>
+      </c>
+      <c r="N167" s="17" t="s">
         <v>864</v>
-      </c>
-      <c r="N167" s="17" t="s">
-        <v>865</v>
       </c>
       <c r="O167" s="8" t="s">
         <v>112</v>
@@ -12747,13 +12744,13 @@
     </row>
     <row r="168" customHeight="1" spans="1:18">
       <c r="A168" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="B168" s="27" t="s">
         <v>866</v>
       </c>
-      <c r="B168" s="27" t="s">
+      <c r="C168" s="27" t="s">
         <v>867</v>
-      </c>
-      <c r="C168" s="27" t="s">
-        <v>868</v>
       </c>
       <c r="D168" s="27" t="s">
         <v>71</v>
@@ -12765,28 +12762,28 @@
         <v>204</v>
       </c>
       <c r="G168" s="27" t="s">
+        <v>848</v>
+      </c>
+      <c r="H168" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I168" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J168" s="27" t="s">
         <v>849</v>
       </c>
-      <c r="H168" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I168" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J168" s="27" t="s">
-        <v>850</v>
-      </c>
       <c r="K168" s="8" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="L168" s="27" t="s">
         <v>276</v>
       </c>
       <c r="M168" s="16" t="s">
+        <v>869</v>
+      </c>
+      <c r="N168" s="17" t="s">
         <v>870</v>
-      </c>
-      <c r="N168" s="17" t="s">
-        <v>871</v>
       </c>
       <c r="O168" s="27" t="s">
         <v>112</v>
@@ -12804,10 +12801,10 @@
         <v>116</v>
       </c>
       <c r="B169" s="27" t="s">
+        <v>871</v>
+      </c>
+      <c r="C169" s="27" t="s">
         <v>872</v>
-      </c>
-      <c r="C169" s="27" t="s">
-        <v>873</v>
       </c>
       <c r="D169" s="8" t="s">
         <v>74</v>
@@ -12819,7 +12816,7 @@
         <v>242</v>
       </c>
       <c r="G169" s="27" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H169" s="20" t="b">
         <v>0</v>
@@ -12828,7 +12825,7 @@
         <v>0</v>
       </c>
       <c r="J169" s="27" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="K169" s="8"/>
       <c r="L169" s="8"/>
@@ -12847,13 +12844,13 @@
     </row>
     <row r="170" customHeight="1" spans="1:18">
       <c r="A170" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="B170" s="27" t="s">
         <v>875</v>
       </c>
-      <c r="B170" s="27" t="s">
+      <c r="C170" s="27" t="s">
         <v>876</v>
-      </c>
-      <c r="C170" s="27" t="s">
-        <v>877</v>
       </c>
       <c r="D170" s="8" t="s">
         <v>74</v>
@@ -12865,7 +12862,7 @@
         <v>258</v>
       </c>
       <c r="G170" s="27" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H170" s="20" t="b">
         <v>0</v>
@@ -12874,7 +12871,7 @@
         <v>0</v>
       </c>
       <c r="J170" s="27" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="K170" s="8"/>
       <c r="L170" s="8"/>
@@ -12893,13 +12890,13 @@
     </row>
     <row r="171" customHeight="1" spans="1:18">
       <c r="A171" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="B171" s="27" t="s">
         <v>879</v>
       </c>
-      <c r="B171" s="27" t="s">
+      <c r="C171" s="27" t="s">
         <v>880</v>
-      </c>
-      <c r="C171" s="27" t="s">
-        <v>881</v>
       </c>
       <c r="D171" s="8" t="s">
         <v>77</v>
@@ -12911,7 +12908,7 @@
         <v>242</v>
       </c>
       <c r="G171" s="27" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H171" s="20" t="b">
         <v>0</v>
@@ -12920,7 +12917,7 @@
         <v>0</v>
       </c>
       <c r="J171" s="27" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="K171" s="8"/>
       <c r="L171" s="8"/>
@@ -12939,13 +12936,13 @@
     </row>
     <row r="172" customHeight="1" spans="1:18">
       <c r="A172" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="B172" s="27" t="s">
         <v>882</v>
       </c>
-      <c r="B172" s="27" t="s">
+      <c r="C172" s="27" t="s">
         <v>883</v>
-      </c>
-      <c r="C172" s="27" t="s">
-        <v>884</v>
       </c>
       <c r="D172" s="8" t="s">
         <v>77</v>
@@ -12957,7 +12954,7 @@
         <v>242</v>
       </c>
       <c r="G172" s="27" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H172" s="20" t="b">
         <v>0</v>
@@ -12966,7 +12963,7 @@
         <v>0</v>
       </c>
       <c r="J172" s="27" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="K172" s="8"/>
       <c r="L172" s="8"/>
@@ -12985,13 +12982,13 @@
     </row>
     <row r="173" customHeight="1" spans="1:18">
       <c r="A173" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="B173" s="27" t="s">
         <v>885</v>
       </c>
-      <c r="B173" s="27" t="s">
+      <c r="C173" s="27" t="s">
         <v>886</v>
-      </c>
-      <c r="C173" s="27" t="s">
-        <v>887</v>
       </c>
       <c r="D173" s="8" t="s">
         <v>77</v>
@@ -13003,7 +13000,7 @@
         <v>242</v>
       </c>
       <c r="G173" s="27" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H173" s="20" t="b">
         <v>0</v>
@@ -13012,7 +13009,7 @@
         <v>0</v>
       </c>
       <c r="J173" s="27" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="K173" s="8"/>
       <c r="L173" s="8"/>
@@ -13031,13 +13028,13 @@
     </row>
     <row r="174" customHeight="1" spans="1:18">
       <c r="A174" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="B174" s="27" t="s">
         <v>888</v>
       </c>
-      <c r="B174" s="27" t="s">
+      <c r="C174" s="27" t="s">
         <v>889</v>
-      </c>
-      <c r="C174" s="27" t="s">
-        <v>890</v>
       </c>
       <c r="D174" s="8" t="s">
         <v>77</v>
@@ -13049,7 +13046,7 @@
         <v>306</v>
       </c>
       <c r="G174" s="27" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H174" s="20" t="b">
         <v>0</v>
@@ -13058,7 +13055,7 @@
         <v>0</v>
       </c>
       <c r="J174" s="27" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="K174" s="8"/>
       <c r="L174" s="8"/>
@@ -13077,13 +13074,13 @@
     </row>
     <row r="175" customFormat="1" customHeight="1" spans="1:18">
       <c r="A175" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="B175" s="27" t="s">
         <v>891</v>
       </c>
-      <c r="B175" s="27" t="s">
+      <c r="C175" s="27" t="s">
         <v>892</v>
-      </c>
-      <c r="C175" s="27" t="s">
-        <v>893</v>
       </c>
       <c r="D175" s="8" t="s">
         <v>84</v>
@@ -13104,7 +13101,7 @@
         <v>1</v>
       </c>
       <c r="J175" s="8" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="K175" s="8"/>
       <c r="L175" s="29"/>
@@ -13123,13 +13120,13 @@
     </row>
     <row r="176" customFormat="1" customHeight="1" spans="1:18">
       <c r="A176" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="B176" s="27" t="s">
         <v>895</v>
       </c>
-      <c r="B176" s="27" t="s">
+      <c r="C176" s="27" t="s">
         <v>896</v>
-      </c>
-      <c r="C176" s="27" t="s">
-        <v>897</v>
       </c>
       <c r="D176" s="8" t="s">
         <v>84</v>
@@ -13150,7 +13147,7 @@
         <v>1</v>
       </c>
       <c r="J176" s="8" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="K176" s="8"/>
       <c r="L176" s="29"/>
@@ -13169,13 +13166,13 @@
     </row>
     <row r="177" customHeight="1" spans="1:18">
       <c r="A177" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B177" s="27" t="s">
         <v>898</v>
       </c>
-      <c r="B177" s="27" t="s">
+      <c r="C177" s="27" t="s">
         <v>899</v>
-      </c>
-      <c r="C177" s="27" t="s">
-        <v>900</v>
       </c>
       <c r="D177" s="8" t="s">
         <v>84</v>
@@ -13196,11 +13193,11 @@
         <v>0</v>
       </c>
       <c r="J177" s="8" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="K177" s="8"/>
       <c r="L177" s="29" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="M177" s="16"/>
       <c r="N177" s="17"/>
@@ -13217,13 +13214,13 @@
     </row>
     <row r="178" customHeight="1" spans="1:18">
       <c r="A178" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="B178" s="27" t="s">
         <v>902</v>
       </c>
-      <c r="B178" s="27" t="s">
+      <c r="C178" s="27" t="s">
         <v>903</v>
-      </c>
-      <c r="C178" s="27" t="s">
-        <v>904</v>
       </c>
       <c r="D178" s="8" t="s">
         <v>84</v>
@@ -13244,7 +13241,7 @@
         <v>0</v>
       </c>
       <c r="J178" s="8" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="K178" s="8"/>
       <c r="L178" s="8"/>
@@ -13263,13 +13260,13 @@
     </row>
     <row r="179" customHeight="1" spans="1:18">
       <c r="A179" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="B179" s="29" t="s">
         <v>905</v>
       </c>
-      <c r="B179" s="29" t="s">
+      <c r="C179" s="27" t="s">
         <v>906</v>
-      </c>
-      <c r="C179" s="27" t="s">
-        <v>907</v>
       </c>
       <c r="D179" s="8" t="s">
         <v>84</v>
@@ -13290,7 +13287,7 @@
         <v>0</v>
       </c>
       <c r="J179" s="8" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="K179" s="8"/>
       <c r="L179" s="8"/>
@@ -13309,13 +13306,13 @@
     </row>
     <row r="180" customHeight="1" spans="1:18">
       <c r="A180" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="B180" s="27" t="s">
         <v>908</v>
       </c>
-      <c r="B180" s="27" t="s">
+      <c r="C180" s="27" t="s">
         <v>909</v>
-      </c>
-      <c r="C180" s="27" t="s">
-        <v>910</v>
       </c>
       <c r="D180" s="8" t="s">
         <v>84</v>
@@ -13336,7 +13333,7 @@
         <v>0</v>
       </c>
       <c r="J180" s="8" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="K180" s="8"/>
       <c r="L180" s="8"/>

--- a/data/menu_dinner.xlsx
+++ b/data/menu_dinner.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912">
   <si>
     <t>id</t>
   </si>
@@ -934,6 +934,12 @@
   </si>
   <si>
     <t>images/product/cocktail/Ramonth_Gin fizz.png</t>
+  </si>
+  <si>
+    <t>Beefeater Gin/Giffard curacao blue liqueur/Cream/Chocolate bitters/lemon juice/Vanilla syrup</t>
+  </si>
+  <si>
+    <t>必富达金酒/蓝橙利口酒/奶油/巧克力苦精/柠檬汁/香草糖浆</t>
   </si>
   <si>
     <t>30</t>
@@ -4589,8 +4595,8 @@
   <sheetPr/>
   <dimension ref="A1:BD223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="L19" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30:N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -6254,10 +6260,10 @@
         <v>276</v>
       </c>
       <c r="M30" s="16" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="N30" s="17" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="O30" s="8" t="s">
         <v>112</v>
@@ -6272,13 +6278,13 @@
     </row>
     <row r="31" customHeight="1" spans="1:18">
       <c r="A31" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>250</v>
@@ -6302,22 +6308,22 @@
         <v>274</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M31" s="16" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N31" s="17" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="O31" s="8" t="s">
         <v>112</v>
       </c>
       <c r="P31" s="8" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q31" s="12" t="s">
         <v>113</v>
@@ -6329,10 +6335,10 @@
         <v>71</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>250</v>
@@ -6341,10 +6347,10 @@
         <v>105</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H32" s="12" t="b">
         <v>0</v>
@@ -6356,22 +6362,22 @@
         <v>274</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M32" s="16" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="O32" s="8" t="s">
         <v>112</v>
       </c>
       <c r="P32" s="8" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q32" s="12" t="b">
         <v>1</v>
@@ -6383,10 +6389,10 @@
         <v>74</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>250</v>
@@ -6410,22 +6416,22 @@
         <v>274</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M33" s="16" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O33" s="8" t="s">
         <v>112</v>
       </c>
       <c r="P33" s="8" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q33" s="12" t="b">
         <v>1</v>
@@ -6437,10 +6443,10 @@
         <v>77</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>250</v>
@@ -6464,16 +6470,16 @@
         <v>274</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L34" s="14" t="s">
         <v>294</v>
       </c>
       <c r="M34" s="16" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="N34" s="17" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="O34" s="8" t="s">
         <v>112</v>
@@ -6488,13 +6494,13 @@
     </row>
     <row r="35" customHeight="1" spans="1:18">
       <c r="A35" s="5" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>258</v>
@@ -6503,10 +6509,10 @@
         <v>105</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H35" s="12" t="b">
         <v>0</v>
@@ -6519,19 +6525,19 @@
       </c>
       <c r="K35" s="8"/>
       <c r="L35" s="14" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M35" s="16" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="N35" s="17" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="O35" s="8" t="s">
         <v>112</v>
       </c>
       <c r="P35" s="8" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q35" s="12" t="s">
         <v>113</v>
@@ -6540,13 +6546,13 @@
     </row>
     <row r="36" customHeight="1" spans="1:18">
       <c r="A36" s="5" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>258</v>
@@ -6571,19 +6577,19 @@
       </c>
       <c r="K36" s="8"/>
       <c r="L36" s="14" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M36" s="16" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="N36" s="17" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="O36" s="8" t="s">
         <v>112</v>
       </c>
       <c r="P36" s="8" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q36" s="12" t="b">
         <v>1</v>
@@ -6592,13 +6598,13 @@
     </row>
     <row r="37" customHeight="1" spans="1:18">
       <c r="A37" s="5" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>258</v>
@@ -6607,10 +6613,10 @@
         <v>105</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H37" s="12" t="b">
         <v>0</v>
@@ -6626,10 +6632,10 @@
         <v>294</v>
       </c>
       <c r="M37" s="16" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="N37" s="17" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="O37" s="8" t="s">
         <v>112</v>
@@ -6644,13 +6650,13 @@
     </row>
     <row r="38" customHeight="1" spans="1:18">
       <c r="A38" s="5" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>258</v>
@@ -6678,10 +6684,10 @@
         <v>276</v>
       </c>
       <c r="M38" s="16" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="N38" s="17" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="O38" s="8" t="s">
         <v>112</v>
@@ -6699,10 +6705,10 @@
         <v>157</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>258</v>
@@ -6711,10 +6717,10 @@
         <v>105</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H39" s="12" t="b">
         <v>0</v>
@@ -6730,10 +6736,10 @@
         <v>294</v>
       </c>
       <c r="M39" s="16" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="N39" s="17" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="O39" s="8" t="s">
         <v>112</v>
@@ -6748,13 +6754,13 @@
     </row>
     <row r="40" customHeight="1" spans="1:18">
       <c r="A40" s="5" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>258</v>
@@ -6779,13 +6785,13 @@
       </c>
       <c r="K40" s="8"/>
       <c r="L40" s="14" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M40" s="16" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="N40" s="17" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="O40" s="8" t="s">
         <v>112</v>
@@ -6800,13 +6806,13 @@
     </row>
     <row r="41" customHeight="1" spans="1:18">
       <c r="A41" s="5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>258</v>
@@ -6815,10 +6821,10 @@
         <v>105</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H41" s="12" t="b">
         <v>0</v>
@@ -6834,10 +6840,10 @@
         <v>276</v>
       </c>
       <c r="M41" s="16" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="N41" s="17" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="O41" s="8" t="s">
         <v>112</v>
@@ -6852,13 +6858,13 @@
     </row>
     <row r="42" customHeight="1" spans="1:18">
       <c r="A42" s="5" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>258</v>
@@ -6867,10 +6873,10 @@
         <v>105</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H42" s="12" t="b">
         <v>0</v>
@@ -6886,10 +6892,10 @@
         <v>276</v>
       </c>
       <c r="M42" s="16" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="N42" s="17" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="O42" s="8" t="s">
         <v>112</v>
@@ -6907,10 +6913,10 @@
         <v>231</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>258</v>
@@ -6919,10 +6925,10 @@
         <v>105</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H43" s="12" t="b">
         <v>0</v>
@@ -6938,10 +6944,10 @@
         <v>276</v>
       </c>
       <c r="M43" s="16" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="N43" s="17" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="O43" s="8" t="s">
         <v>112</v>
@@ -6956,13 +6962,13 @@
     </row>
     <row r="44" customHeight="1" spans="1:18">
       <c r="A44" s="5" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>258</v>
@@ -6971,10 +6977,10 @@
         <v>105</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H44" s="12" t="b">
         <v>0</v>
@@ -6990,16 +6996,16 @@
         <v>294</v>
       </c>
       <c r="M44" s="16" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="N44" s="17" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="O44" s="8" t="s">
         <v>112</v>
       </c>
       <c r="P44" s="8" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q44" s="12" t="b">
         <v>1</v>
@@ -7008,13 +7014,13 @@
     </row>
     <row r="45" customHeight="1" spans="1:18">
       <c r="A45" s="5" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>258</v>
@@ -7039,19 +7045,19 @@
       </c>
       <c r="K45" s="8"/>
       <c r="L45" s="14" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M45" s="16" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="N45" s="17" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="O45" s="8" t="s">
         <v>112</v>
       </c>
       <c r="P45" s="8" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q45" s="12" t="b">
         <v>1</v>
@@ -7060,13 +7066,13 @@
     </row>
     <row r="46" customHeight="1" spans="1:18">
       <c r="A46" s="5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>258</v>
@@ -7094,10 +7100,10 @@
         <v>294</v>
       </c>
       <c r="M46" s="16" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="N46" s="17" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="O46" s="8" t="s">
         <v>112</v>
@@ -7112,13 +7118,13 @@
     </row>
     <row r="47" customHeight="1" spans="1:18">
       <c r="A47" s="5" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>258</v>
@@ -7143,13 +7149,13 @@
       </c>
       <c r="K47" s="8"/>
       <c r="L47" s="14" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M47" s="16" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="N47" s="17" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="O47" s="8" t="s">
         <v>112</v>
@@ -7164,13 +7170,13 @@
     </row>
     <row r="48" customHeight="1" spans="1:18">
       <c r="A48" s="5" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>258</v>
@@ -7179,10 +7185,10 @@
         <v>105</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H48" s="12" t="b">
         <v>0</v>
@@ -7198,10 +7204,10 @@
         <v>276</v>
       </c>
       <c r="M48" s="16" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="N48" s="17" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="O48" s="8" t="s">
         <v>112</v>
@@ -7219,10 +7225,10 @@
         <v>149</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>258</v>
@@ -7250,10 +7256,10 @@
         <v>276</v>
       </c>
       <c r="M49" s="16" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="N49" s="17" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="O49" s="8" t="s">
         <v>112</v>
@@ -7268,13 +7274,13 @@
     </row>
     <row r="50" customHeight="1" spans="1:18">
       <c r="A50" s="5" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>258</v>
@@ -7283,10 +7289,10 @@
         <v>105</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H50" s="12" t="b">
         <v>0</v>
@@ -7299,13 +7305,13 @@
       </c>
       <c r="K50" s="8"/>
       <c r="L50" s="14" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="M50" s="16" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="N50" s="17" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="O50" s="8" t="s">
         <v>112</v>
@@ -7320,13 +7326,13 @@
     </row>
     <row r="51" customHeight="1" spans="1:18">
       <c r="A51" s="5" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>258</v>
@@ -7351,19 +7357,19 @@
       </c>
       <c r="K51" s="8"/>
       <c r="L51" s="14" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M51" s="16" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="N51" s="17" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="O51" s="8" t="s">
         <v>112</v>
       </c>
       <c r="P51" s="8" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q51" s="12" t="b">
         <v>1</v>
@@ -7372,13 +7378,13 @@
     </row>
     <row r="52" customHeight="1" spans="1:18">
       <c r="A52" s="5" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>258</v>
@@ -7387,7 +7393,7 @@
         <v>105</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G52" s="11" t="s">
         <v>273</v>
@@ -7406,10 +7412,10 @@
         <v>276</v>
       </c>
       <c r="M52" s="16" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="N52" s="17" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="O52" s="8" t="s">
         <v>112</v>
@@ -7427,10 +7433,10 @@
         <v>197</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>258</v>
@@ -7439,10 +7445,10 @@
         <v>105</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H53" s="12" t="b">
         <v>0</v>
@@ -7458,16 +7464,16 @@
         <v>276</v>
       </c>
       <c r="M53" s="16" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="N53" s="17" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="O53" s="8" t="s">
         <v>112</v>
       </c>
       <c r="P53" s="8" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q53" s="20" t="s">
         <v>113</v>
@@ -7476,16 +7482,16 @@
     </row>
     <row r="54" customHeight="1" spans="1:18">
       <c r="A54" s="5" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>105</v>
@@ -7494,7 +7500,7 @@
         <v>223</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="H54" s="12" t="b">
         <v>0</v>
@@ -7522,25 +7528,25 @@
     </row>
     <row r="55" customHeight="1" spans="1:18">
       <c r="A55" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="D55" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>437</v>
-      </c>
       <c r="E55" s="8" t="s">
         <v>105</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="H55" s="12" t="b">
         <v>0</v>
@@ -7571,22 +7577,22 @@
         <v>223</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>105</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H56" s="12" t="b">
         <v>0</v>
@@ -7617,22 +7623,22 @@
         <v>204</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>105</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H57" s="12" t="b">
         <v>0</v>
@@ -7660,25 +7666,25 @@
     </row>
     <row r="58" customHeight="1" spans="1:18">
       <c r="A58" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>105</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="H58" s="12" t="b">
         <v>0</v>
@@ -7709,22 +7715,22 @@
         <v>165</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C59" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D59" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="D59" s="8" t="s">
-        <v>455</v>
-      </c>
       <c r="E59" s="8" t="s">
         <v>105</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H59" s="12" t="b">
         <v>0</v>
@@ -7752,25 +7758,25 @@
     </row>
     <row r="60" customHeight="1" spans="1:18">
       <c r="A60" s="5" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>105</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H60" s="12" t="b">
         <v>0</v>
@@ -7798,25 +7804,25 @@
     </row>
     <row r="61" customHeight="1" spans="1:18">
       <c r="A61" s="5" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>105</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H61" s="12" t="b">
         <v>0</v>
@@ -7844,16 +7850,16 @@
     </row>
     <row r="62" customHeight="1" spans="1:18">
       <c r="A62" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="D62" s="8" t="s">
         <v>468</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>466</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>105</v>
@@ -7862,7 +7868,7 @@
         <v>124</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H62" s="12" t="b">
         <v>0</v>
@@ -7890,25 +7896,25 @@
     </row>
     <row r="63" customHeight="1" spans="1:18">
       <c r="A63" s="5" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>105</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H63" s="12" t="b">
         <v>0</v>
@@ -7936,25 +7942,25 @@
     </row>
     <row r="64" customHeight="1" spans="1:18">
       <c r="A64" s="5" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>105</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="H64" s="12" t="b">
         <v>0</v>
@@ -7982,25 +7988,25 @@
     </row>
     <row r="65" customHeight="1" spans="1:18">
       <c r="A65" s="5" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>105</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H65" s="12" t="b">
         <v>0</v>
@@ -8028,13 +8034,13 @@
     </row>
     <row r="66" customHeight="1" spans="1:18">
       <c r="A66" s="5" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>43</v>
@@ -8046,7 +8052,7 @@
         <v>860</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="H66" s="12" t="b">
         <v>0</v>
@@ -8074,13 +8080,13 @@
     </row>
     <row r="67" customHeight="1" spans="1:18">
       <c r="A67" s="5" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>43</v>
@@ -8092,7 +8098,7 @@
         <v>960</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="H67" s="12" t="b">
         <v>0</v>
@@ -8120,13 +8126,13 @@
     </row>
     <row r="68" customHeight="1" spans="1:18">
       <c r="A68" s="5" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>43</v>
@@ -8138,7 +8144,7 @@
         <v>860</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="H68" s="12" t="b">
         <v>0</v>
@@ -8169,10 +8175,10 @@
         <v>141</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>43</v>
@@ -8184,7 +8190,7 @@
         <v>1080</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H69" s="12" t="b">
         <v>0</v>
@@ -8212,13 +8218,13 @@
     </row>
     <row r="70" customHeight="1" spans="1:18">
       <c r="A70" s="5" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>43</v>
@@ -8230,7 +8236,7 @@
         <v>1180</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H70" s="12" t="b">
         <v>0</v>
@@ -8258,13 +8264,13 @@
     </row>
     <row r="71" customHeight="1" spans="1:18">
       <c r="A71" s="5" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>43</v>
@@ -8276,7 +8282,7 @@
         <v>1080</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="H71" s="12" t="b">
         <v>0</v>
@@ -8304,13 +8310,13 @@
     </row>
     <row r="72" customHeight="1" spans="1:18">
       <c r="A72" s="5" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>43</v>
@@ -8322,7 +8328,7 @@
         <v>1100</v>
       </c>
       <c r="G72" s="25" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="H72" s="12" t="b">
         <v>0</v>
@@ -8350,16 +8356,16 @@
     </row>
     <row r="73" customHeight="1" spans="1:18">
       <c r="A73" s="5" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>105</v>
@@ -8368,7 +8374,7 @@
         <v>1100</v>
       </c>
       <c r="G73" s="25" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="H73" s="12" t="b">
         <v>0</v>
@@ -8396,13 +8402,13 @@
     </row>
     <row r="74" customHeight="1" spans="1:18">
       <c r="A74" s="5" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>43</v>
@@ -8414,7 +8420,7 @@
         <v>1100</v>
       </c>
       <c r="G74" s="25" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="H74" s="12" t="b">
         <v>0</v>
@@ -8442,13 +8448,13 @@
     </row>
     <row r="75" customHeight="1" spans="1:18">
       <c r="A75" s="5" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>43</v>
@@ -8460,7 +8466,7 @@
         <v>1180</v>
       </c>
       <c r="G75" s="25" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H75" s="12" t="b">
         <v>0</v>
@@ -8488,13 +8494,13 @@
     </row>
     <row r="76" customHeight="1" spans="1:18">
       <c r="A76" s="5" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>43</v>
@@ -8506,7 +8512,7 @@
         <v>880</v>
       </c>
       <c r="G76" s="25" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H76" s="12" t="b">
         <v>0</v>
@@ -8534,13 +8540,13 @@
     </row>
     <row r="77" customHeight="1" spans="1:18">
       <c r="A77" s="5" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>43</v>
@@ -8552,7 +8558,7 @@
         <v>1280</v>
       </c>
       <c r="G77" s="25" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="H77" s="12" t="b">
         <v>0</v>
@@ -8580,16 +8586,16 @@
     </row>
     <row r="78" customHeight="1" spans="1:18">
       <c r="A78" s="5" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>105</v>
@@ -8598,7 +8604,7 @@
         <v>880</v>
       </c>
       <c r="G78" s="21" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="H78" s="12" t="b">
         <v>0</v>
@@ -8626,13 +8632,13 @@
     </row>
     <row r="79" customHeight="1" spans="1:18">
       <c r="A79" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>46</v>
@@ -8644,7 +8650,7 @@
         <v>1100</v>
       </c>
       <c r="G79" s="21" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="H79" s="12" t="b">
         <v>0</v>
@@ -8672,13 +8678,13 @@
     </row>
     <row r="80" customHeight="1" spans="1:18">
       <c r="A80" s="5" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>46</v>
@@ -8690,7 +8696,7 @@
         <v>2650</v>
       </c>
       <c r="G80" s="26" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="H80" s="12" t="b">
         <v>0</v>
@@ -8718,13 +8724,13 @@
     </row>
     <row r="81" customHeight="1" spans="1:18">
       <c r="A81" s="5" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>46</v>
@@ -8736,7 +8742,7 @@
         <v>880</v>
       </c>
       <c r="G81" s="21" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="H81" s="12" t="b">
         <v>0</v>
@@ -8764,13 +8770,13 @@
     </row>
     <row r="82" customHeight="1" spans="1:18">
       <c r="A82" s="5" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>46</v>
@@ -8782,7 +8788,7 @@
         <v>1050</v>
       </c>
       <c r="G82" s="21" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="H82" s="12" t="b">
         <v>0</v>
@@ -8810,13 +8816,13 @@
     </row>
     <row r="83" customHeight="1" spans="1:18">
       <c r="A83" s="5" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>46</v>
@@ -8828,7 +8834,7 @@
         <v>880</v>
       </c>
       <c r="G83" s="21" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="H83" s="12" t="b">
         <v>0</v>
@@ -8856,13 +8862,13 @@
     </row>
     <row r="84" customHeight="1" spans="1:18">
       <c r="A84" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>46</v>
@@ -8874,7 +8880,7 @@
         <v>1700</v>
       </c>
       <c r="G84" s="21" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="H84" s="12" t="b">
         <v>0</v>
@@ -8902,13 +8908,13 @@
     </row>
     <row r="85" customHeight="1" spans="1:18">
       <c r="A85" s="5" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>49</v>
@@ -8920,7 +8926,7 @@
         <v>880</v>
       </c>
       <c r="G85" s="21" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="H85" s="12" t="b">
         <v>0</v>
@@ -8948,13 +8954,13 @@
     </row>
     <row r="86" customHeight="1" spans="1:18">
       <c r="A86" s="5" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>49</v>
@@ -8966,7 +8972,7 @@
         <v>1400</v>
       </c>
       <c r="G86" s="21" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H86" s="12" t="b">
         <v>0</v>
@@ -8994,13 +9000,13 @@
     </row>
     <row r="87" customHeight="1" spans="1:18">
       <c r="A87" s="5" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>49</v>
@@ -9012,7 +9018,7 @@
         <v>1800</v>
       </c>
       <c r="G87" s="21" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="H87" s="12" t="b">
         <v>0</v>
@@ -9040,13 +9046,13 @@
     </row>
     <row r="88" customHeight="1" spans="1:18">
       <c r="A88" s="5" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>49</v>
@@ -9058,7 +9064,7 @@
         <v>1080</v>
       </c>
       <c r="G88" s="21" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="H88" s="12" t="b">
         <v>0</v>
@@ -9089,10 +9095,10 @@
         <v>253</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>49</v>
@@ -9104,7 +9110,7 @@
         <v>1550</v>
       </c>
       <c r="G89" s="21" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="H89" s="12" t="b">
         <v>0</v>
@@ -9132,13 +9138,13 @@
     </row>
     <row r="90" customHeight="1" spans="1:18">
       <c r="A90" s="5" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>49</v>
@@ -9150,7 +9156,7 @@
         <v>2050</v>
       </c>
       <c r="G90" s="21" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="H90" s="12" t="b">
         <v>0</v>
@@ -9178,13 +9184,13 @@
     </row>
     <row r="91" customHeight="1" spans="1:18">
       <c r="A91" s="5" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>49</v>
@@ -9196,7 +9202,7 @@
         <v>2850</v>
       </c>
       <c r="G91" s="21" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H91" s="12" t="b">
         <v>0</v>
@@ -9224,13 +9230,13 @@
     </row>
     <row r="92" customHeight="1" spans="1:18">
       <c r="A92" s="5" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C92" s="24" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>49</v>
@@ -9242,7 +9248,7 @@
         <v>900</v>
       </c>
       <c r="G92" s="21" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="H92" s="12" t="b">
         <v>0</v>
@@ -9270,13 +9276,13 @@
     </row>
     <row r="93" customHeight="1" spans="1:18">
       <c r="A93" s="5" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>49</v>
@@ -9288,7 +9294,7 @@
         <v>1650</v>
       </c>
       <c r="G93" s="21" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="H93" s="12" t="b">
         <v>0</v>
@@ -9316,13 +9322,13 @@
     </row>
     <row r="94" customHeight="1" spans="1:18">
       <c r="A94" s="5" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>49</v>
@@ -9334,7 +9340,7 @@
         <v>2350</v>
       </c>
       <c r="G94" s="21" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="H94" s="12" t="b">
         <v>0</v>
@@ -9362,13 +9368,13 @@
     </row>
     <row r="95" customHeight="1" spans="1:18">
       <c r="A95" s="5" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>49</v>
@@ -9380,7 +9386,7 @@
         <v>2180</v>
       </c>
       <c r="G95" s="21" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="H95" s="12" t="b">
         <v>0</v>
@@ -9408,13 +9414,13 @@
     </row>
     <row r="96" customHeight="1" spans="1:18">
       <c r="A96" s="5" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>49</v>
@@ -9426,7 +9432,7 @@
         <v>4980</v>
       </c>
       <c r="G96" s="21" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="H96" s="12" t="b">
         <v>0</v>
@@ -9454,13 +9460,13 @@
     </row>
     <row r="97" customHeight="1" spans="1:18">
       <c r="A97" s="5" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>49</v>
@@ -9472,7 +9478,7 @@
         <v>17800</v>
       </c>
       <c r="G97" s="21" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="H97" s="12" t="b">
         <v>0</v>
@@ -9500,13 +9506,13 @@
     </row>
     <row r="98" customHeight="1" spans="1:18">
       <c r="A98" s="5" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>49</v>
@@ -9518,7 +9524,7 @@
         <v>2080</v>
       </c>
       <c r="G98" s="21" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="H98" s="12" t="b">
         <v>0</v>
@@ -9546,13 +9552,13 @@
     </row>
     <row r="99" customHeight="1" spans="1:18">
       <c r="A99" s="5" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>49</v>
@@ -9564,7 +9570,7 @@
         <v>4880</v>
       </c>
       <c r="G99" s="21" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="H99" s="12" t="b">
         <v>0</v>
@@ -9592,13 +9598,13 @@
     </row>
     <row r="100" customHeight="1" spans="1:18">
       <c r="A100" s="5" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>49</v>
@@ -9610,7 +9616,7 @@
         <v>17800</v>
       </c>
       <c r="G100" s="21" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="H100" s="12" t="b">
         <v>0</v>
@@ -9638,13 +9644,13 @@
     </row>
     <row r="101" customHeight="1" spans="1:18">
       <c r="A101" s="5" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>49</v>
@@ -9656,7 +9662,7 @@
         <v>2180</v>
       </c>
       <c r="G101" s="21" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="H101" s="12" t="b">
         <v>0</v>
@@ -9684,13 +9690,13 @@
     </row>
     <row r="102" customHeight="1" spans="1:18">
       <c r="A102" s="5" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C102" s="21" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>49</v>
@@ -9702,7 +9708,7 @@
         <v>9800</v>
       </c>
       <c r="G102" s="21" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="H102" s="12" t="b">
         <v>0</v>
@@ -9730,13 +9736,13 @@
     </row>
     <row r="103" customHeight="1" spans="1:18">
       <c r="A103" s="5" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C103" s="21" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>49</v>
@@ -9748,7 +9754,7 @@
         <v>15000</v>
       </c>
       <c r="G103" s="21" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="H103" s="12" t="b">
         <v>0</v>
@@ -9776,13 +9782,13 @@
     </row>
     <row r="104" customHeight="1" spans="1:18">
       <c r="A104" s="5" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C104" s="21" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>49</v>
@@ -9794,7 +9800,7 @@
         <v>2080</v>
       </c>
       <c r="G104" s="21" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="H104" s="12" t="b">
         <v>0</v>
@@ -9822,13 +9828,13 @@
     </row>
     <row r="105" customHeight="1" spans="1:18">
       <c r="A105" s="5" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C105" s="21" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>49</v>
@@ -9840,7 +9846,7 @@
         <v>11000</v>
       </c>
       <c r="G105" s="21" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="H105" s="12" t="b">
         <v>0</v>
@@ -9868,16 +9874,16 @@
     </row>
     <row r="106" customHeight="1" spans="1:18">
       <c r="A106" s="5" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C106" s="21" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="E106" s="8" t="s">
         <v>105</v>
@@ -9886,7 +9892,7 @@
         <v>1080</v>
       </c>
       <c r="G106" s="21" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="H106" s="12" t="b">
         <v>0</v>
@@ -9914,13 +9920,13 @@
     </row>
     <row r="107" customHeight="1" spans="1:18">
       <c r="A107" s="5" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C107" s="21" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>52</v>
@@ -9932,7 +9938,7 @@
         <v>980</v>
       </c>
       <c r="G107" s="21" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="H107" s="12" t="b">
         <v>0</v>
@@ -9960,13 +9966,13 @@
     </row>
     <row r="108" customHeight="1" spans="1:18">
       <c r="A108" s="5" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C108" s="21" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>52</v>
@@ -9978,7 +9984,7 @@
         <v>1180</v>
       </c>
       <c r="G108" s="21" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="H108" s="12" t="b">
         <v>0</v>
@@ -10006,13 +10012,13 @@
     </row>
     <row r="109" customHeight="1" spans="1:18">
       <c r="A109" s="5" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C109" s="21" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>52</v>
@@ -10024,7 +10030,7 @@
         <v>1280</v>
       </c>
       <c r="G109" s="21" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H109" s="12" t="b">
         <v>0</v>
@@ -10052,13 +10058,13 @@
     </row>
     <row r="110" customHeight="1" spans="1:18">
       <c r="A110" s="5" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>52</v>
@@ -10070,7 +10076,7 @@
         <v>2400</v>
       </c>
       <c r="G110" s="21" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H110" s="12" t="b">
         <v>0</v>
@@ -10098,13 +10104,13 @@
     </row>
     <row r="111" customHeight="1" spans="1:18">
       <c r="A111" s="5" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>52</v>
@@ -10116,7 +10122,7 @@
         <v>3880</v>
       </c>
       <c r="G111" s="21" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="H111" s="12" t="b">
         <v>0</v>
@@ -10144,13 +10150,13 @@
     </row>
     <row r="112" customHeight="1" spans="1:18">
       <c r="A112" s="5" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>52</v>
@@ -10162,7 +10168,7 @@
         <v>980</v>
       </c>
       <c r="G112" s="21" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="H112" s="12" t="b">
         <v>0</v>
@@ -10190,13 +10196,13 @@
     </row>
     <row r="113" customHeight="1" spans="1:18">
       <c r="A113" s="5" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C113" s="21" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>52</v>
@@ -10208,7 +10214,7 @@
         <v>1180</v>
       </c>
       <c r="G113" s="21" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="H113" s="12" t="b">
         <v>0</v>
@@ -10236,13 +10242,13 @@
     </row>
     <row r="114" customHeight="1" spans="1:18">
       <c r="A114" s="5" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B114" s="23" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C114" s="21" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>52</v>
@@ -10254,7 +10260,7 @@
         <v>880</v>
       </c>
       <c r="G114" s="21" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="H114" s="12" t="b">
         <v>0</v>
@@ -10282,13 +10288,13 @@
     </row>
     <row r="115" customHeight="1" spans="1:18">
       <c r="A115" s="5" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B115" s="23" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C115" s="21" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>52</v>
@@ -10300,7 +10306,7 @@
         <v>1480</v>
       </c>
       <c r="G115" s="21" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="H115" s="12" t="b">
         <v>0</v>
@@ -10328,13 +10334,13 @@
     </row>
     <row r="116" customHeight="1" spans="1:18">
       <c r="A116" s="5" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B116" s="23" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C116" s="21" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D116" s="8" t="s">
         <v>52</v>
@@ -10346,7 +10352,7 @@
         <v>3680</v>
       </c>
       <c r="G116" s="21" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="H116" s="12" t="b">
         <v>0</v>
@@ -10374,13 +10380,13 @@
     </row>
     <row r="117" customHeight="1" spans="1:18">
       <c r="A117" s="5" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B117" s="23" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C117" s="21" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="D117" s="8" t="s">
         <v>52</v>
@@ -10392,7 +10398,7 @@
         <v>1180</v>
       </c>
       <c r="G117" s="21" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="H117" s="12" t="b">
         <v>0</v>
@@ -10420,13 +10426,13 @@
     </row>
     <row r="118" customHeight="1" spans="1:18">
       <c r="A118" s="5" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C118" s="21" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>52</v>
@@ -10438,7 +10444,7 @@
         <v>2380</v>
       </c>
       <c r="G118" s="21" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="H118" s="12" t="b">
         <v>0</v>
@@ -10466,13 +10472,13 @@
     </row>
     <row r="119" customHeight="1" spans="1:18">
       <c r="A119" s="5" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C119" s="21" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>55</v>
@@ -10484,7 +10490,7 @@
         <v>1380</v>
       </c>
       <c r="G119" s="21" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="H119" s="12" t="b">
         <v>0</v>
@@ -10512,13 +10518,13 @@
     </row>
     <row r="120" customHeight="1" spans="1:18">
       <c r="A120" s="5" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B120" s="23" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C120" s="21" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="D120" s="8" t="s">
         <v>55</v>
@@ -10530,7 +10536,7 @@
         <v>1180</v>
       </c>
       <c r="G120" s="21" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H120" s="12" t="b">
         <v>0</v>
@@ -10558,13 +10564,13 @@
     </row>
     <row r="121" customHeight="1" spans="1:18">
       <c r="A121" s="5" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B121" s="23" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C121" s="21" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="D121" s="8" t="s">
         <v>55</v>
@@ -10576,7 +10582,7 @@
         <v>1680</v>
       </c>
       <c r="G121" s="21" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="H121" s="12" t="b">
         <v>0</v>
@@ -10604,13 +10610,13 @@
     </row>
     <row r="122" customHeight="1" spans="1:18">
       <c r="A122" s="5" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B122" s="23" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C122" s="21" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>55</v>
@@ -10622,7 +10628,7 @@
         <v>2180</v>
       </c>
       <c r="G122" s="21" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="H122" s="12" t="b">
         <v>0</v>
@@ -10650,13 +10656,13 @@
     </row>
     <row r="123" customHeight="1" spans="1:18">
       <c r="A123" s="5" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B123" s="23" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C123" s="21" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>55</v>
@@ -10668,7 +10674,7 @@
         <v>980</v>
       </c>
       <c r="G123" s="21" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="H123" s="12" t="b">
         <v>0</v>
@@ -10696,13 +10702,13 @@
     </row>
     <row r="124" customHeight="1" spans="1:18">
       <c r="A124" s="5" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B124" s="23" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C124" s="21" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>55</v>
@@ -10714,7 +10720,7 @@
         <v>1280</v>
       </c>
       <c r="G124" s="21" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="H124" s="12" t="b">
         <v>0</v>
@@ -10742,13 +10748,13 @@
     </row>
     <row r="125" customHeight="1" spans="1:18">
       <c r="A125" s="5" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B125" s="21" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C125" s="21" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>55</v>
@@ -10760,7 +10766,7 @@
         <v>1080</v>
       </c>
       <c r="G125" s="21" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="H125" s="12" t="b">
         <v>0</v>
@@ -10788,13 +10794,13 @@
     </row>
     <row r="126" customHeight="1" spans="1:18">
       <c r="A126" s="5" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B126" s="21" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C126" s="21" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="D126" s="8" t="s">
         <v>55</v>
@@ -10806,7 +10812,7 @@
         <v>1880</v>
       </c>
       <c r="G126" s="21" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="H126" s="12" t="b">
         <v>0</v>
@@ -10834,13 +10840,13 @@
     </row>
     <row r="127" customHeight="1" spans="1:18">
       <c r="A127" s="5" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B127" s="21" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C127" s="21" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="D127" s="8" t="s">
         <v>55</v>
@@ -10852,7 +10858,7 @@
         <v>2680</v>
       </c>
       <c r="G127" s="21" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="H127" s="12" t="b">
         <v>0</v>
@@ -10880,13 +10886,13 @@
     </row>
     <row r="128" customHeight="1" spans="1:18">
       <c r="A128" s="5" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C128" s="21" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>55</v>
@@ -10898,7 +10904,7 @@
         <v>1380</v>
       </c>
       <c r="G128" s="21" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="H128" s="12" t="b">
         <v>0</v>
@@ -10929,10 +10935,10 @@
         <v>106</v>
       </c>
       <c r="B129" s="23" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C129" s="21" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="D129" s="8" t="s">
         <v>55</v>
@@ -10944,7 +10950,7 @@
         <v>1480</v>
       </c>
       <c r="G129" s="21" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="H129" s="12" t="b">
         <v>0</v>
@@ -10972,13 +10978,13 @@
     </row>
     <row r="130" customHeight="1" spans="1:18">
       <c r="A130" s="5" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B130" s="23" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C130" s="21" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="D130" s="27" t="s">
         <v>58</v>
@@ -10990,7 +10996,7 @@
         <v>1580</v>
       </c>
       <c r="G130" s="21" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="H130" s="12" t="b">
         <v>0</v>
@@ -11018,13 +11024,13 @@
     </row>
     <row r="131" customHeight="1" spans="1:18">
       <c r="A131" s="5" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C131" s="21" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D131" s="27" t="s">
         <v>58</v>
@@ -11036,7 +11042,7 @@
         <v>880</v>
       </c>
       <c r="G131" s="21" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="H131" s="12" t="b">
         <v>0</v>
@@ -11064,13 +11070,13 @@
     </row>
     <row r="132" customHeight="1" spans="1:18">
       <c r="A132" s="5" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B132" s="23" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C132" s="21" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="D132" s="27" t="s">
         <v>58</v>
@@ -11082,7 +11088,7 @@
         <v>1380</v>
       </c>
       <c r="G132" s="21" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="H132" s="12" t="b">
         <v>0</v>
@@ -11110,13 +11116,13 @@
     </row>
     <row r="133" customHeight="1" spans="1:18">
       <c r="A133" s="5" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B133" s="23" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C133" s="21" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="D133" s="27" t="s">
         <v>58</v>
@@ -11128,7 +11134,7 @@
         <v>1580</v>
       </c>
       <c r="G133" s="21" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="H133" s="12" t="b">
         <v>0</v>
@@ -11156,13 +11162,13 @@
     </row>
     <row r="134" customHeight="1" spans="1:18">
       <c r="A134" s="5" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B134" s="23" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C134" s="21" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D134" s="27" t="s">
         <v>58</v>
@@ -11174,7 +11180,7 @@
         <v>880</v>
       </c>
       <c r="G134" s="21" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="H134" s="12" t="b">
         <v>0</v>
@@ -11202,13 +11208,13 @@
     </row>
     <row r="135" customHeight="1" spans="1:18">
       <c r="A135" s="5" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B135" s="23" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="C135" s="21" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="D135" s="27" t="s">
         <v>58</v>
@@ -11220,7 +11226,7 @@
         <v>2380</v>
       </c>
       <c r="G135" s="21" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="H135" s="12" t="b">
         <v>0</v>
@@ -11248,13 +11254,13 @@
     </row>
     <row r="136" customHeight="1" spans="1:18">
       <c r="A136" s="5" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B136" s="21" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="C136" s="21" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="D136" s="27" t="s">
         <v>61</v>
@@ -11266,7 +11272,7 @@
         <v>880</v>
       </c>
       <c r="G136" s="21" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="H136" s="12" t="b">
         <v>0</v>
@@ -11294,13 +11300,13 @@
     </row>
     <row r="137" customHeight="1" spans="1:18">
       <c r="A137" s="5" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B137" s="21" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C137" s="21" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="D137" s="27" t="s">
         <v>61</v>
@@ -11312,7 +11318,7 @@
         <v>780</v>
       </c>
       <c r="G137" s="21" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="H137" s="12" t="b">
         <v>0</v>
@@ -11340,13 +11346,13 @@
     </row>
     <row r="138" customHeight="1" spans="1:18">
       <c r="A138" s="5" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B138" s="21" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="C138" s="21" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="D138" s="27" t="s">
         <v>61</v>
@@ -11358,7 +11364,7 @@
         <v>780</v>
       </c>
       <c r="G138" s="21" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="H138" s="12" t="b">
         <v>0</v>
@@ -11386,13 +11392,13 @@
     </row>
     <row r="139" customHeight="1" spans="1:18">
       <c r="A139" s="5" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B139" s="21" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C139" s="21" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="D139" s="27" t="s">
         <v>61</v>
@@ -11404,7 +11410,7 @@
         <v>880</v>
       </c>
       <c r="G139" s="21" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="H139" s="12" t="b">
         <v>0</v>
@@ -11432,13 +11438,13 @@
     </row>
     <row r="140" customHeight="1" spans="1:18">
       <c r="A140" s="5" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B140" s="21" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="C140" s="21" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="D140" s="27" t="s">
         <v>61</v>
@@ -11450,7 +11456,7 @@
         <v>1280</v>
       </c>
       <c r="G140" s="21" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="H140" s="12" t="b">
         <v>0</v>
@@ -11478,13 +11484,13 @@
     </row>
     <row r="141" customHeight="1" spans="1:18">
       <c r="A141" s="5" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B141" s="21" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="C141" s="21" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="D141" s="27" t="s">
         <v>61</v>
@@ -11496,7 +11502,7 @@
         <v>1780</v>
       </c>
       <c r="G141" s="21" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H141" s="12" t="b">
         <v>0</v>
@@ -11524,13 +11530,13 @@
     </row>
     <row r="142" customHeight="1" spans="1:18">
       <c r="A142" s="5" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B142" s="21" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C142" s="21" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="D142" s="27" t="s">
         <v>61</v>
@@ -11542,7 +11548,7 @@
         <v>1180</v>
       </c>
       <c r="G142" s="21" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="H142" s="12" t="b">
         <v>0</v>
@@ -11570,13 +11576,13 @@
     </row>
     <row r="143" customHeight="1" spans="1:18">
       <c r="A143" s="5" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B143" s="21" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="C143" s="21" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="D143" s="27" t="s">
         <v>61</v>
@@ -11588,7 +11594,7 @@
         <v>1280</v>
       </c>
       <c r="G143" s="21" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="H143" s="12" t="b">
         <v>0</v>
@@ -11616,13 +11622,13 @@
     </row>
     <row r="144" customHeight="1" spans="1:18">
       <c r="A144" s="5" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B144" s="21" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="C144" s="21" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="D144" s="27" t="s">
         <v>61</v>
@@ -11634,7 +11640,7 @@
         <v>1780</v>
       </c>
       <c r="G144" s="21" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="H144" s="12" t="b">
         <v>0</v>
@@ -11662,13 +11668,13 @@
     </row>
     <row r="145" customHeight="1" spans="1:18">
       <c r="A145" s="5" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B145" s="21" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C145" s="21" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="D145" s="27" t="s">
         <v>61</v>
@@ -11680,7 +11686,7 @@
         <v>2480</v>
       </c>
       <c r="G145" s="21" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="H145" s="12" t="b">
         <v>0</v>
@@ -11708,13 +11714,13 @@
     </row>
     <row r="146" customHeight="1" spans="1:18">
       <c r="A146" s="5" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C146" s="21" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="D146" s="27" t="s">
         <v>61</v>
@@ -11726,7 +11732,7 @@
         <v>1180</v>
       </c>
       <c r="G146" s="21" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H146" s="12" t="b">
         <v>0</v>
@@ -11754,13 +11760,13 @@
     </row>
     <row r="147" customHeight="1" spans="1:18">
       <c r="A147" s="5" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C147" s="21" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D147" s="27" t="s">
         <v>61</v>
@@ -11772,7 +11778,7 @@
         <v>980</v>
       </c>
       <c r="G147" s="21" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="H147" s="12" t="b">
         <v>0</v>
@@ -11800,13 +11806,13 @@
     </row>
     <row r="148" customHeight="1" spans="1:18">
       <c r="A148" s="5" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="C148" s="21" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="D148" s="27" t="s">
         <v>61</v>
@@ -11818,7 +11824,7 @@
         <v>1650</v>
       </c>
       <c r="G148" s="21" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="H148" s="12" t="b">
         <v>0</v>
@@ -11846,13 +11852,13 @@
     </row>
     <row r="149" customHeight="1" spans="1:18">
       <c r="A149" s="5" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="C149" s="21" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="D149" s="27" t="s">
         <v>61</v>
@@ -11864,7 +11870,7 @@
         <v>1100</v>
       </c>
       <c r="G149" s="21" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="H149" s="12" t="b">
         <v>0</v>
@@ -11892,13 +11898,13 @@
     </row>
     <row r="150" customHeight="1" spans="1:18">
       <c r="A150" s="5" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B150" s="23" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C150" s="21" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="D150" s="27" t="s">
         <v>61</v>
@@ -11910,7 +11916,7 @@
         <v>980</v>
       </c>
       <c r="G150" s="21" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="H150" s="12" t="b">
         <v>0</v>
@@ -11938,13 +11944,13 @@
     </row>
     <row r="151" customHeight="1" spans="1:18">
       <c r="A151" s="5" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B151" s="23" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C151" s="21" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="D151" s="27" t="s">
         <v>61</v>
@@ -11956,7 +11962,7 @@
         <v>1080</v>
       </c>
       <c r="G151" s="21" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="H151" s="12" t="b">
         <v>0</v>
@@ -11984,13 +11990,13 @@
     </row>
     <row r="152" customHeight="1" spans="1:18">
       <c r="A152" s="5" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B152" s="23" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C152" s="21" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="D152" s="27" t="s">
         <v>61</v>
@@ -12002,7 +12008,7 @@
         <v>1680</v>
       </c>
       <c r="G152" s="21" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="H152" s="12" t="b">
         <v>0</v>
@@ -12030,13 +12036,13 @@
     </row>
     <row r="153" customHeight="1" spans="1:18">
       <c r="A153" s="5" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C153" s="21" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="D153" s="27" t="s">
         <v>61</v>
@@ -12048,7 +12054,7 @@
         <v>980</v>
       </c>
       <c r="G153" s="21" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="H153" s="12" t="b">
         <v>0</v>
@@ -12076,13 +12082,13 @@
     </row>
     <row r="154" customHeight="1" spans="1:18">
       <c r="A154" s="5" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B154" s="23" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C154" s="21" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="D154" s="27" t="s">
         <v>61</v>
@@ -12094,7 +12100,7 @@
         <v>1080</v>
       </c>
       <c r="G154" s="21" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H154" s="12" t="b">
         <v>0</v>
@@ -12122,13 +12128,13 @@
     </row>
     <row r="155" customHeight="1" spans="1:18">
       <c r="A155" s="5" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B155" s="23" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C155" s="21" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D155" s="27" t="s">
         <v>61</v>
@@ -12140,7 +12146,7 @@
         <v>1480</v>
       </c>
       <c r="G155" s="21" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="H155" s="12" t="b">
         <v>0</v>
@@ -12168,13 +12174,13 @@
     </row>
     <row r="156" customHeight="1" spans="1:18">
       <c r="A156" s="5" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C156" s="21" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="D156" s="27" t="s">
         <v>61</v>
@@ -12186,7 +12192,7 @@
         <v>3480</v>
       </c>
       <c r="G156" s="21" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="H156" s="12" t="b">
         <v>0</v>
@@ -12214,13 +12220,13 @@
     </row>
     <row r="157" customHeight="1" spans="1:18">
       <c r="A157" s="5" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B157" s="23" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="C157" s="21" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="D157" s="27" t="s">
         <v>61</v>
@@ -12232,7 +12238,7 @@
         <v>1280</v>
       </c>
       <c r="G157" s="21" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H157" s="12" t="b">
         <v>0</v>
@@ -12260,13 +12266,13 @@
     </row>
     <row r="158" customHeight="1" spans="1:18">
       <c r="A158" s="5" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="C158" s="21" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="D158" s="27" t="s">
         <v>61</v>
@@ -12278,7 +12284,7 @@
         <v>1680</v>
       </c>
       <c r="G158" s="21" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="H158" s="12" t="b">
         <v>0</v>
@@ -12309,10 +12315,10 @@
         <v>132</v>
       </c>
       <c r="B159" s="23" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="C159" s="21" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="D159" s="27" t="s">
         <v>61</v>
@@ -12324,7 +12330,7 @@
         <v>2680</v>
       </c>
       <c r="G159" s="21" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="H159" s="12" t="b">
         <v>0</v>
@@ -12352,13 +12358,13 @@
     </row>
     <row r="160" customHeight="1" spans="1:18">
       <c r="A160" s="5" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B160" s="23" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="C160" s="21" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="D160" s="27" t="s">
         <v>61</v>
@@ -12370,7 +12376,7 @@
         <v>3680</v>
       </c>
       <c r="G160" s="21" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="H160" s="12" t="b">
         <v>0</v>
@@ -12398,13 +12404,13 @@
     </row>
     <row r="161" customFormat="1" customHeight="1" spans="1:18">
       <c r="A161" s="5" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B161" s="23" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="C161" s="21" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="D161" s="27" t="s">
         <v>64</v>
@@ -12416,7 +12422,7 @@
         <v>28</v>
       </c>
       <c r="G161" s="11" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="H161" s="12" t="b">
         <v>0</v>
@@ -12444,13 +12450,13 @@
     </row>
     <row r="162" customFormat="1" customHeight="1" spans="1:18">
       <c r="A162" s="5" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B162" s="23" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="C162" s="21" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="D162" s="27" t="s">
         <v>64</v>
@@ -12462,7 +12468,7 @@
         <v>35</v>
       </c>
       <c r="G162" s="11" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="H162" s="12" t="b">
         <v>0</v>
@@ -12490,13 +12496,13 @@
     </row>
     <row r="163" customFormat="1" customHeight="1" spans="1:18">
       <c r="A163" s="5" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B163" s="23" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="C163" s="21" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="D163" s="27" t="s">
         <v>64</v>
@@ -12508,7 +12514,7 @@
         <v>30</v>
       </c>
       <c r="G163" s="11" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="H163" s="12" t="b">
         <v>0</v>
@@ -12536,13 +12542,13 @@
     </row>
     <row r="164" customHeight="1" spans="1:18">
       <c r="A164" s="5" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B164" s="23" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="C164" s="21" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="D164" s="27" t="s">
         <v>61</v>
@@ -12554,7 +12560,7 @@
         <v>1080</v>
       </c>
       <c r="G164" s="21" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="H164" s="12" t="b">
         <v>0</v>
@@ -12582,13 +12588,13 @@
     </row>
     <row r="165" customHeight="1" spans="1:18">
       <c r="A165" s="5" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B165" s="27" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="C165" s="27" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="D165" s="8" t="s">
         <v>71</v>
@@ -12600,7 +12606,7 @@
         <v>204</v>
       </c>
       <c r="G165" s="11" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="H165" s="12" t="b">
         <v>0</v>
@@ -12609,19 +12615,19 @@
         <v>0</v>
       </c>
       <c r="J165" s="8" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="K165" s="8" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="L165" s="8" t="s">
         <v>276</v>
       </c>
       <c r="M165" s="16" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="N165" s="17" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="O165" s="8" t="s">
         <v>112</v>
@@ -12636,13 +12642,13 @@
     </row>
     <row r="166" customHeight="1" spans="1:18">
       <c r="A166" s="5" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B166" s="28" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="C166" s="27" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="D166" s="8" t="s">
         <v>71</v>
@@ -12654,7 +12660,7 @@
         <v>204</v>
       </c>
       <c r="G166" s="11" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="H166" s="12" t="b">
         <v>0</v>
@@ -12663,19 +12669,19 @@
         <v>0</v>
       </c>
       <c r="J166" s="8" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="K166" s="8" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="L166" s="8" t="s">
         <v>276</v>
       </c>
       <c r="M166" s="16" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="N166" s="17" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="O166" s="8" t="s">
         <v>112</v>
@@ -12690,13 +12696,13 @@
     </row>
     <row r="167" customHeight="1" spans="1:18">
       <c r="A167" s="5" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="B167" s="27" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="C167" s="27" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="D167" s="8" t="s">
         <v>71</v>
@@ -12708,7 +12714,7 @@
         <v>204</v>
       </c>
       <c r="G167" s="11" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="H167" s="12" t="b">
         <v>0</v>
@@ -12717,19 +12723,19 @@
         <v>0</v>
       </c>
       <c r="J167" s="8" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="K167" s="8" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="L167" s="8" t="s">
         <v>276</v>
       </c>
       <c r="M167" s="16" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="N167" s="17" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="O167" s="8" t="s">
         <v>112</v>
@@ -12744,13 +12750,13 @@
     </row>
     <row r="168" customHeight="1" spans="1:18">
       <c r="A168" s="5" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B168" s="27" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="C168" s="27" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="D168" s="27" t="s">
         <v>71</v>
@@ -12762,7 +12768,7 @@
         <v>204</v>
       </c>
       <c r="G168" s="27" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="H168" s="20" t="b">
         <v>0</v>
@@ -12771,19 +12777,19 @@
         <v>0</v>
       </c>
       <c r="J168" s="27" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="K168" s="8" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="L168" s="27" t="s">
         <v>276</v>
       </c>
       <c r="M168" s="16" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="N168" s="17" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="O168" s="27" t="s">
         <v>112</v>
@@ -12801,10 +12807,10 @@
         <v>116</v>
       </c>
       <c r="B169" s="27" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="C169" s="27" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="D169" s="8" t="s">
         <v>74</v>
@@ -12816,7 +12822,7 @@
         <v>242</v>
       </c>
       <c r="G169" s="27" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="H169" s="20" t="b">
         <v>0</v>
@@ -12825,7 +12831,7 @@
         <v>0</v>
       </c>
       <c r="J169" s="27" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="K169" s="8"/>
       <c r="L169" s="8"/>
@@ -12844,13 +12850,13 @@
     </row>
     <row r="170" customHeight="1" spans="1:18">
       <c r="A170" s="5" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="B170" s="27" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="C170" s="27" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="D170" s="8" t="s">
         <v>74</v>
@@ -12862,7 +12868,7 @@
         <v>258</v>
       </c>
       <c r="G170" s="27" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="H170" s="20" t="b">
         <v>0</v>
@@ -12871,7 +12877,7 @@
         <v>0</v>
       </c>
       <c r="J170" s="27" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="K170" s="8"/>
       <c r="L170" s="8"/>
@@ -12890,13 +12896,13 @@
     </row>
     <row r="171" customHeight="1" spans="1:18">
       <c r="A171" s="5" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="B171" s="27" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="C171" s="27" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D171" s="8" t="s">
         <v>77</v>
@@ -12908,7 +12914,7 @@
         <v>242</v>
       </c>
       <c r="G171" s="27" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="H171" s="20" t="b">
         <v>0</v>
@@ -12917,7 +12923,7 @@
         <v>0</v>
       </c>
       <c r="J171" s="27" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="K171" s="8"/>
       <c r="L171" s="8"/>
@@ -12936,13 +12942,13 @@
     </row>
     <row r="172" customHeight="1" spans="1:18">
       <c r="A172" s="5" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B172" s="27" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="C172" s="27" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="D172" s="8" t="s">
         <v>77</v>
@@ -12954,7 +12960,7 @@
         <v>242</v>
       </c>
       <c r="G172" s="27" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="H172" s="20" t="b">
         <v>0</v>
@@ -12963,7 +12969,7 @@
         <v>0</v>
       </c>
       <c r="J172" s="27" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="K172" s="8"/>
       <c r="L172" s="8"/>
@@ -12982,13 +12988,13 @@
     </row>
     <row r="173" customHeight="1" spans="1:18">
       <c r="A173" s="5" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B173" s="27" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="C173" s="27" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="D173" s="8" t="s">
         <v>77</v>
@@ -13000,7 +13006,7 @@
         <v>242</v>
       </c>
       <c r="G173" s="27" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="H173" s="20" t="b">
         <v>0</v>
@@ -13009,7 +13015,7 @@
         <v>0</v>
       </c>
       <c r="J173" s="27" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="K173" s="8"/>
       <c r="L173" s="8"/>
@@ -13028,13 +13034,13 @@
     </row>
     <row r="174" customHeight="1" spans="1:18">
       <c r="A174" s="5" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="B174" s="27" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="C174" s="27" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="D174" s="8" t="s">
         <v>77</v>
@@ -13043,10 +13049,10 @@
         <v>105</v>
       </c>
       <c r="F174" s="27" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G174" s="27" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="H174" s="20" t="b">
         <v>0</v>
@@ -13055,7 +13061,7 @@
         <v>0</v>
       </c>
       <c r="J174" s="27" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="K174" s="8"/>
       <c r="L174" s="8"/>
@@ -13074,13 +13080,13 @@
     </row>
     <row r="175" customFormat="1" customHeight="1" spans="1:18">
       <c r="A175" s="5" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="B175" s="27" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="C175" s="27" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="D175" s="8" t="s">
         <v>84</v>
@@ -13101,7 +13107,7 @@
         <v>1</v>
       </c>
       <c r="J175" s="8" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="K175" s="8"/>
       <c r="L175" s="29"/>
@@ -13120,13 +13126,13 @@
     </row>
     <row r="176" customFormat="1" customHeight="1" spans="1:18">
       <c r="A176" s="5" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="B176" s="27" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="C176" s="27" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="D176" s="8" t="s">
         <v>84</v>
@@ -13147,7 +13153,7 @@
         <v>1</v>
       </c>
       <c r="J176" s="8" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="K176" s="8"/>
       <c r="L176" s="29"/>
@@ -13166,13 +13172,13 @@
     </row>
     <row r="177" customHeight="1" spans="1:18">
       <c r="A177" s="5" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="B177" s="27" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="C177" s="27" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="D177" s="8" t="s">
         <v>84</v>
@@ -13193,11 +13199,11 @@
         <v>0</v>
       </c>
       <c r="J177" s="8" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="K177" s="8"/>
       <c r="L177" s="29" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="M177" s="16"/>
       <c r="N177" s="17"/>
@@ -13214,13 +13220,13 @@
     </row>
     <row r="178" customHeight="1" spans="1:18">
       <c r="A178" s="5" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="B178" s="27" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="C178" s="27" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D178" s="8" t="s">
         <v>84</v>
@@ -13241,7 +13247,7 @@
         <v>0</v>
       </c>
       <c r="J178" s="8" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="K178" s="8"/>
       <c r="L178" s="8"/>
@@ -13260,13 +13266,13 @@
     </row>
     <row r="179" customHeight="1" spans="1:18">
       <c r="A179" s="5" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B179" s="29" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="C179" s="27" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="D179" s="8" t="s">
         <v>84</v>
@@ -13287,7 +13293,7 @@
         <v>0</v>
       </c>
       <c r="J179" s="8" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="K179" s="8"/>
       <c r="L179" s="8"/>
@@ -13306,13 +13312,13 @@
     </row>
     <row r="180" customHeight="1" spans="1:18">
       <c r="A180" s="5" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B180" s="27" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="C180" s="27" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="D180" s="8" t="s">
         <v>84</v>
@@ -13333,7 +13339,7 @@
         <v>0</v>
       </c>
       <c r="J180" s="8" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="K180" s="8"/>
       <c r="L180" s="8"/>

--- a/data/menu_dinner.xlsx
+++ b/data/menu_dinner.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948">
   <si>
     <t>id</t>
   </si>
@@ -2842,6 +2842,9 @@
   </si>
   <si>
     <t>法芙娜焦糖巧克力</t>
+  </si>
+  <si>
+    <t>images/product/Dessert/法芙娜焦糖巧克力.png</t>
   </si>
   <si>
     <t>183</t>
@@ -4059,7 +4062,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -4774,8 +4777,8 @@
   <sheetPr/>
   <dimension ref="A1:BD227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="B186" sqref="B186"/>
+    <sheetView tabSelected="1" topLeftCell="I170" workbookViewId="0">
+      <selection activeCell="K184" sqref="K184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -13697,7 +13700,7 @@
         <v>922</v>
       </c>
       <c r="K183" s="15" t="s">
-        <v>923</v>
+        <v>939</v>
       </c>
       <c r="L183" s="15"/>
       <c r="M183" s="40"/>
@@ -13715,13 +13718,13 @@
     </row>
     <row r="184" customFormat="1" customHeight="1" spans="1:18">
       <c r="A184" s="5" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B184" s="36" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C184" s="35" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="D184" s="15" t="s">
         <v>89</v>
@@ -13745,7 +13748,7 @@
         <v>922</v>
       </c>
       <c r="K184" s="15" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="L184" s="15"/>
       <c r="M184" s="40"/>
@@ -13763,13 +13766,13 @@
     </row>
     <row r="185" customFormat="1" customHeight="1" spans="1:18">
       <c r="A185" s="5" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B185" s="35" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C185" s="35" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="D185" s="15" t="s">
         <v>89</v>
@@ -13793,7 +13796,7 @@
         <v>922</v>
       </c>
       <c r="K185" s="15" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="L185" s="15"/>
       <c r="M185" s="41"/>

--- a/data/menu_dinner.xlsx
+++ b/data/menu_dinner.xlsx
@@ -390,7 +390,7 @@
     <t>images/product/food/牛排.jpg</t>
   </si>
   <si>
-    <t>230g+限量</t>
+    <t>230g+限量+7分熟</t>
   </si>
   <si>
     <t>Steak/Corn/Broccoli/Finger radish/Potato fillet</t>
@@ -4777,8 +4777,8 @@
   <sheetPr/>
   <dimension ref="A1:BD227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I170" workbookViewId="0">
-      <selection activeCell="K184" sqref="K184"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>

--- a/data/menu_dinner.xlsx
+++ b/data/menu_dinner.xlsx
@@ -4777,8 +4777,8 @@
   <sheetPr/>
   <dimension ref="A1:BD227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="N21" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -4794,7 +4794,7 @@
     <col min="11" max="11" width="105.508928571429" style="1" customWidth="1"/>
     <col min="12" max="12" width="30.8214285714286" style="1" customWidth="1"/>
     <col min="13" max="13" width="117.107142857143" style="1" customWidth="1"/>
-    <col min="14" max="14" width="50.5982142857143" style="1" customWidth="1"/>
+    <col min="14" max="14" width="80.0535714285714" style="1" customWidth="1"/>
     <col min="15" max="16" width="11.5178571428571" style="1"/>
     <col min="17" max="17" width="11.5178571428571" style="3"/>
     <col min="18" max="18" width="11.5178571428571" style="1"/>

--- a/data/menu_dinner.xlsx
+++ b/data/menu_dinner.xlsx
@@ -4061,8 +4061,8 @@
   <sheetPr/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -4777,14 +4777,14 @@
   <sheetPr/>
   <dimension ref="A1:BD227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N21" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="E162" sqref="E162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.3125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.8035714285714" style="2" customWidth="1"/>
+    <col min="2" max="2" width="40.3303571428571" style="2" customWidth="1"/>
     <col min="3" max="3" width="27.9642857142857" style="2" customWidth="1"/>
     <col min="4" max="6" width="11.5178571428571" style="1"/>
     <col min="7" max="7" width="35.4107142857143" style="1" customWidth="1"/>

--- a/data/menu_dinner.xlsx
+++ b/data/menu_dinner.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="11020" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="25600" windowHeight="5620" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -846,6 +846,9 @@
     <t xml:space="preserve">88 </t>
   </si>
   <si>
+    <t>88/Glass</t>
+  </si>
+  <si>
     <t>alcoholic drink</t>
   </si>
   <si>
@@ -855,9 +858,7 @@
     <t>Sweet</t>
   </si>
   <si>
-    <t>Chestnut fruit paste/Chestnut mud/Albumen -powder/Stolichnaya Vodka/Chinese wolfberry -tea/Dolin rouge</t>
+    <t>Chestnut fruit paste/Chestnut mud/Albumen powder/Stolichnaya Vodka/Chinese wolfberry tea/Dolin rouge</t>
   </si>
   <si>
     <t>栗子果泥/栗子泥/蛋白粉/苏联红伏特加/枸杞茶/杜林红</t>
@@ -893,8 +894,7 @@
     <t>images/product/cocktail/Hot_toddy.png</t>
   </si>
   <si>
-    <t>Johnnie walker black label/Cinnamon/Clove- /Vanilla/Honey/Orange peel</t>
+    <t>Johnnie walker black label/Cinnamon/Clove/Vanilla/Honey/Orange peel</t>
   </si>
   <si>
     <t>黑方/肉桂/丁香/香叶/蜂蜜/柳橙皮</t>
@@ -912,8 +912,7 @@
     <t>images/product/cocktail/Mulled_wine.png</t>
   </si>
   <si>
-    <t>Red wine/Cinnamon/Clove/Longan/Brown -sugar</t>
+    <t>Red wine/Cinnamon/Clove/Longan/Brown sugar</t>
   </si>
   <si>
     <t>红酒/肉桂/丁香/龙眼/红糖</t>
@@ -925,9 +924,6 @@
     <t>赛博粉客</t>
   </si>
   <si>
-    <t>88/Glass</t>
-  </si>
-  <si>
     <t>images/product/cocktail/Cyber_pink.png</t>
   </si>
   <si>
@@ -1219,8 +1215,7 @@
     <t>Gin/Lemon juice/Raspberry Syrup/Vermouth/Egg white</t>
   </si>
   <si>
-    <t xml:space="preserve">金酒/柠檬汁/覆盆子糖浆/味美思/蛋清
-</t>
+    <t>金酒/柠檬汁/覆盆子糖浆/味美思/蛋清</t>
   </si>
   <si>
     <t>45</t>
@@ -1319,8 +1314,7 @@
     <t>Talisker 10Y/Johnnie walker/Disaronno</t>
   </si>
   <si>
-    <t xml:space="preserve">泰斯卡10年/黑方/帝萨诺利口酒
-</t>
+    <t>泰斯卡10年/黑方/帝萨诺利口酒</t>
   </si>
   <si>
     <t>51</t>
@@ -1347,8 +1341,7 @@
     <t>Vodka/White Rum/Gin/Tequila/Cointreau/Lemon juice/Cola</t>
   </si>
   <si>
-    <t xml:space="preserve">伏特加/白朗姆/龙舌兰/君度/柠檬汁/可乐
-</t>
+    <t>伏特加/白朗姆/龙舌兰/君度/柠檬汁/可乐</t>
   </si>
   <si>
     <t>53</t>
@@ -1366,8 +1359,7 @@
     <t>Stolichnaya Vodka/Fresh ginger juice/Lime juice/Ginger ale</t>
   </si>
   <si>
-    <t xml:space="preserve">红牌伏特加/新鲜姜汁/青柠汁/姜啤
-</t>
+    <t>红牌伏特加/新鲜姜汁/青柠汁/姜啤</t>
   </si>
   <si>
     <t>54</t>
@@ -1394,8 +1386,7 @@
     <t>Calvados/Lemon juice/Molin grenadine syrup/Angostura bitters</t>
   </si>
   <si>
-    <t xml:space="preserve">卡尔瓦多斯白兰地/柠檬汁/红石榴糖浆/安歌苦酒
-</t>
+    <t>卡尔瓦多斯白兰地/柠檬汁/红石榴糖浆/安歌苦酒</t>
   </si>
   <si>
     <t>Side car</t>
@@ -2876,13 +2867,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2917,27 +2908,66 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFA4A4A4"/>
-      <name val="苹方-简"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="苹方-简"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2952,29 +2982,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2985,28 +3001,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3025,40 +3019,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3072,8 +3035,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3088,13 +3073,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3106,13 +3091,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3130,13 +3109,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3154,7 +3133,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3166,13 +3163,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3184,91 +3241,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3340,11 +3325,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3376,34 +3376,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3419,6 +3393,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3440,142 +3425,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3637,9 +3622,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3656,9 +3638,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3668,7 +3647,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3679,15 +3658,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3711,33 +3681,15 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -4067,700 +4019,700 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="11.5178571428571" style="46"/>
-    <col min="3" max="3" width="41.6607142857143" style="46" customWidth="1"/>
-    <col min="4" max="4" width="37.1785714285714" style="46" customWidth="1"/>
-    <col min="5" max="5" width="59.4732142857143" style="46" customWidth="1"/>
-    <col min="6" max="6" width="22.3571428571429" style="47" customWidth="1"/>
-    <col min="7" max="7" width="11.5178571428571" style="48"/>
-    <col min="8" max="8" width="16.2589285714286" style="46" customWidth="1"/>
-    <col min="9" max="9" width="18.1964285714286" style="46" customWidth="1"/>
+    <col min="1" max="2" width="11.5178571428571" style="41"/>
+    <col min="3" max="3" width="41.6607142857143" style="41" customWidth="1"/>
+    <col min="4" max="4" width="37.1785714285714" style="41" customWidth="1"/>
+    <col min="5" max="5" width="59.4732142857143" style="41" customWidth="1"/>
+    <col min="6" max="6" width="22.3571428571429" style="42" customWidth="1"/>
+    <col min="7" max="7" width="11.5178571428571" style="43"/>
+    <col min="8" max="8" width="16.2589285714286" style="41" customWidth="1"/>
+    <col min="9" max="9" width="18.1964285714286" style="41" customWidth="1"/>
     <col min="10" max="1025" width="11.5178571428571"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
-      <c r="A1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="50" t="s">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="44" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="49">
+      <c r="A2" s="44">
         <v>1</v>
       </c>
-      <c r="B2" s="49">
+      <c r="B2" s="44">
         <v>1</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="55" t="b">
+      <c r="F2" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="G2" s="56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
+      <c r="G2" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="50">
+      <c r="A3" s="45">
         <v>11</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="44">
         <v>2</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="55" t="b">
+      <c r="E3" s="44"/>
+      <c r="F3" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
+      <c r="G3" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
     </row>
     <row r="4" customHeight="1" spans="1:9">
-      <c r="A4" s="49">
+      <c r="A4" s="44">
         <v>12</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="44">
         <v>2</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="55" t="b">
+      <c r="E4" s="44"/>
+      <c r="F4" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
+      <c r="G4" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
     </row>
     <row r="5" customHeight="1" spans="1:9">
-      <c r="A5" s="49">
+      <c r="A5" s="44">
         <v>13</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="44">
         <v>2</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="55" t="b">
+      <c r="E5" s="44"/>
+      <c r="F5" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
+      <c r="G5" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
     </row>
     <row r="6" customHeight="1" spans="1:9">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="44">
         <v>2</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="55" t="b">
+      <c r="E6" s="44"/>
+      <c r="F6" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="G6" s="56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
+      <c r="G6" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
     </row>
     <row r="7" customHeight="1" spans="1:9">
-      <c r="A7" s="49">
+      <c r="A7" s="44">
         <v>2</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="44">
         <v>1</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="55" t="b">
+      <c r="F7" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="G7" s="56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-    </row>
-    <row r="8" s="44" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A8" s="51" t="s">
+      <c r="G7" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+    </row>
+    <row r="8" s="39" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="58" t="b">
+      <c r="E8" s="9"/>
+      <c r="F8" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="G8" s="58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-    </row>
-    <row r="9" s="44" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A9" s="51" t="s">
+      <c r="G8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" s="39" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="51">
+      <c r="B9" s="10">
         <v>2</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="58" t="b">
+      <c r="E9" s="10"/>
+      <c r="F9" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="G9" s="58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-    </row>
-    <row r="10" s="44" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A10" s="51" t="s">
+      <c r="G9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" s="39" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="51">
+      <c r="B10" s="10">
         <v>2</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="58" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" customHeight="1" spans="1:9">
-      <c r="A11" s="49">
+      <c r="A11" s="44">
         <v>24</v>
       </c>
-      <c r="B11" s="49">
+      <c r="B11" s="44">
         <v>2</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
     </row>
     <row r="12" customHeight="1" spans="1:9">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
     </row>
     <row r="13" customHeight="1" spans="1:9">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
     </row>
     <row r="14" customHeight="1" spans="1:9">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
     </row>
     <row r="15" customHeight="1" spans="1:9">
-      <c r="A15" s="49">
+      <c r="A15" s="44">
         <v>25</v>
       </c>
-      <c r="B15" s="49">
+      <c r="B15" s="44">
         <v>2</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="56" t="b">
+      <c r="E15" s="44"/>
+      <c r="F15" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="H15" s="49" t="s">
+      <c r="H15" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="49"/>
+      <c r="I15" s="44"/>
     </row>
     <row r="16" customHeight="1" spans="1:9">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16" s="44">
         <v>3</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
     </row>
     <row r="17" customHeight="1" spans="1:9">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="49">
+      <c r="B17" s="44">
         <v>3</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="49"/>
-      <c r="F17" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
     </row>
     <row r="18" customHeight="1" spans="1:9">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="49">
+      <c r="B18" s="44">
         <v>3</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="49"/>
-      <c r="F18" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" s="56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
     </row>
     <row r="19" customHeight="1" spans="1:9">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="49" t="s">
+      <c r="D19" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="49"/>
-      <c r="F19" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" s="56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
     </row>
     <row r="20" customHeight="1" spans="1:9">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="49"/>
-      <c r="F20" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" s="56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
     </row>
     <row r="21" customHeight="1" spans="1:9">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="49"/>
-      <c r="F21" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" s="56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
     </row>
     <row r="22" customHeight="1" spans="1:9">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="49"/>
-      <c r="F22" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" s="56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-    </row>
-    <row r="23" s="45" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A23" s="53" t="s">
+      <c r="E22" s="44"/>
+      <c r="F22" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+    </row>
+    <row r="23" s="40" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A23" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="53" t="s">
+      <c r="D23" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="53"/>
-      <c r="F23" s="59" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23" s="60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="61"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="50"/>
     </row>
     <row r="24" customHeight="1" spans="1:9">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="49">
+      <c r="B24" s="44">
         <v>1</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="49" t="s">
+      <c r="D24" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="52" t="s">
+      <c r="E24" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="55" t="b">
+      <c r="F24" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="G24" s="56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
+      <c r="G24" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
     </row>
     <row r="25" customHeight="1" spans="1:9">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="49">
+      <c r="B25" s="44">
         <v>2</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="49" t="s">
+      <c r="D25" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="49"/>
-      <c r="F25" s="55" t="b">
+      <c r="E25" s="44"/>
+      <c r="F25" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="G25" s="56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
+      <c r="G25" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
     </row>
     <row r="26" customHeight="1" spans="1:9">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="49" t="s">
+      <c r="D26" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="49"/>
-      <c r="F26" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26" s="56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
     </row>
     <row r="27" customHeight="1" spans="1:9">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="49">
+      <c r="B27" s="44">
         <v>2</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="49" t="s">
+      <c r="D27" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="49"/>
-      <c r="F27" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="G27" s="56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
     </row>
     <row r="28" customHeight="1" spans="1:9">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="49">
+      <c r="B28" s="44">
         <v>1</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="49" t="s">
+      <c r="D28" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="52" t="s">
+      <c r="E28" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="F28" s="55" t="b">
+      <c r="F28" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="G28" s="56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
+      <c r="G28" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
     </row>
     <row r="29" customHeight="1" spans="1:9">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="49" t="s">
+      <c r="D29" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="49"/>
-      <c r="F29" s="55" t="b">
+      <c r="E29" s="44"/>
+      <c r="F29" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="G29" s="56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
+      <c r="G29" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.02430555555556" bottom="1.02430555555556" header="0.7875" footer="0.7875"/>
@@ -4777,8 +4729,8 @@
   <sheetPr/>
   <dimension ref="A1:BD227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="E162" sqref="E162"/>
+    <sheetView tabSelected="1" topLeftCell="M21" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -4790,7 +4742,7 @@
     <col min="7" max="7" width="35.4107142857143" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.5178571428571" style="3"/>
     <col min="9" max="9" width="17.0625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13.6339285714286" style="1" customWidth="1"/>
+    <col min="10" max="10" width="48.3571428571429" style="1" customWidth="1"/>
     <col min="11" max="11" width="105.508928571429" style="1" customWidth="1"/>
     <col min="12" max="12" width="30.8214285714286" style="1" customWidth="1"/>
     <col min="13" max="13" width="117.107142857143" style="1" customWidth="1"/>
@@ -5541,16 +5493,16 @@
         <v>118</v>
       </c>
       <c r="R14" s="8"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
     </row>
     <row r="15" customHeight="1" spans="1:27">
       <c r="A15" s="5" t="s">
@@ -5603,15 +5555,15 @@
         <v>118</v>
       </c>
       <c r="R15" s="8"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="25"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="24"/>
     </row>
     <row r="16" customHeight="1" spans="1:56">
       <c r="A16" s="5" t="s">
@@ -5664,44 +5616,44 @@
         <v>118</v>
       </c>
       <c r="R16" s="8"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="25"/>
-      <c r="AC16" s="25"/>
-      <c r="AD16" s="25"/>
-      <c r="AE16" s="25"/>
-      <c r="AF16" s="25"/>
-      <c r="AG16" s="25"/>
-      <c r="AH16" s="25"/>
-      <c r="AI16" s="25"/>
-      <c r="AJ16" s="25"/>
-      <c r="AK16" s="25"/>
-      <c r="AL16" s="25"/>
-      <c r="AM16" s="25"/>
-      <c r="AN16" s="25"/>
-      <c r="AO16" s="25"/>
-      <c r="AP16" s="25"/>
-      <c r="AQ16" s="25"/>
-      <c r="AR16" s="25"/>
-      <c r="AS16" s="25"/>
-      <c r="AT16" s="25"/>
-      <c r="AU16" s="25"/>
-      <c r="AV16" s="25"/>
-      <c r="AW16" s="25"/>
-      <c r="AX16" s="25"/>
-      <c r="AY16" s="25"/>
-      <c r="AZ16" s="25"/>
-      <c r="BA16" s="25"/>
-      <c r="BB16" s="25"/>
-      <c r="BC16" s="25"/>
-      <c r="BD16" s="25"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="24"/>
+      <c r="AE16" s="24"/>
+      <c r="AF16" s="24"/>
+      <c r="AG16" s="24"/>
+      <c r="AH16" s="24"/>
+      <c r="AI16" s="24"/>
+      <c r="AJ16" s="24"/>
+      <c r="AK16" s="24"/>
+      <c r="AL16" s="24"/>
+      <c r="AM16" s="24"/>
+      <c r="AN16" s="24"/>
+      <c r="AO16" s="24"/>
+      <c r="AP16" s="24"/>
+      <c r="AQ16" s="24"/>
+      <c r="AR16" s="24"/>
+      <c r="AS16" s="24"/>
+      <c r="AT16" s="24"/>
+      <c r="AU16" s="24"/>
+      <c r="AV16" s="24"/>
+      <c r="AW16" s="24"/>
+      <c r="AX16" s="24"/>
+      <c r="AY16" s="24"/>
+      <c r="AZ16" s="24"/>
+      <c r="BA16" s="24"/>
+      <c r="BB16" s="24"/>
+      <c r="BC16" s="24"/>
+      <c r="BD16" s="24"/>
     </row>
     <row r="17" customHeight="1" spans="1:33">
       <c r="A17" s="5" t="s">
@@ -5754,21 +5706,21 @@
         <v>118</v>
       </c>
       <c r="R17" s="8"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="25"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="25"/>
-      <c r="AC17" s="25"/>
-      <c r="AD17" s="25"/>
-      <c r="AE17" s="25"/>
-      <c r="AF17" s="25"/>
-      <c r="AG17" s="25"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="24"/>
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="24"/>
+      <c r="AG17" s="24"/>
     </row>
     <row r="18" customHeight="1" spans="1:18">
       <c r="A18" s="5" t="s">
@@ -6154,7 +6106,7 @@
         <v>275</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="H25" s="16" t="b">
         <v>1</v>
@@ -6163,19 +6115,19 @@
         <v>0</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L25" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="M25" s="23" t="s">
         <v>279</v>
       </c>
+      <c r="M25" s="10" t="s">
+        <v>280</v>
+      </c>
       <c r="N25" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O25" s="15" t="s">
         <v>117</v>
@@ -6186,17 +6138,17 @@
       <c r="Q25" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="R25" s="23"/>
+      <c r="R25" s="10"/>
     </row>
     <row r="26" customFormat="1" customHeight="1" spans="1:18">
       <c r="A26" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>24</v>
@@ -6208,7 +6160,7 @@
         <v>257</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="H26" s="16" t="b">
         <v>1</v>
@@ -6217,19 +6169,19 @@
         <v>0</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L26" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="M26" s="23" t="s">
         <v>286</v>
       </c>
+      <c r="M26" s="10" t="s">
+        <v>287</v>
+      </c>
       <c r="N26" s="10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O26" s="15" t="s">
         <v>117</v>
@@ -6240,17 +6192,17 @@
       <c r="Q26" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="R26" s="23"/>
+      <c r="R26" s="10"/>
     </row>
     <row r="27" customFormat="1" customHeight="1" spans="1:18">
       <c r="A27" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>24</v>
@@ -6262,7 +6214,7 @@
         <v>275</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="H27" s="16" t="b">
         <v>1</v>
@@ -6271,19 +6223,19 @@
         <v>0</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L27" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="M27" s="23" t="s">
-        <v>291</v>
+      <c r="M27" s="10" t="s">
+        <v>292</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O27" s="15" t="s">
         <v>117</v>
@@ -6294,17 +6246,17 @@
       <c r="Q27" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="R27" s="23"/>
+      <c r="R27" s="10"/>
     </row>
     <row r="28" customFormat="1" customHeight="1" spans="1:18">
       <c r="A28" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>24</v>
@@ -6316,7 +6268,7 @@
         <v>257</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="H28" s="16" t="b">
         <v>1</v>
@@ -6325,19 +6277,19 @@
         <v>0</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L28" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="M28" s="23" t="s">
-        <v>297</v>
+      <c r="M28" s="10" t="s">
+        <v>298</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O28" s="15" t="s">
         <v>117</v>
@@ -6348,17 +6300,17 @@
       <c r="Q28" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="R28" s="23"/>
+      <c r="R28" s="10"/>
     </row>
     <row r="29" customHeight="1" spans="1:18">
       <c r="A29" s="5" t="s">
         <v>250</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>28</v>
@@ -6370,7 +6322,7 @@
         <v>257</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="H29" s="14" t="b">
         <v>0</v>
@@ -6379,13 +6331,13 @@
         <v>0</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>302</v>
       </c>
       <c r="L29" s="18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M29" s="21" t="s">
         <v>303</v>
@@ -6424,7 +6376,7 @@
         <v>257</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="H30" s="14" t="b">
         <v>0</v>
@@ -6433,13 +6385,13 @@
         <v>0</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>308</v>
       </c>
       <c r="L30" s="18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M30" s="21" t="s">
         <v>309</v>
@@ -6478,7 +6430,7 @@
         <v>257</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="H31" s="14" t="b">
         <v>0</v>
@@ -6487,13 +6439,13 @@
         <v>0</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>314</v>
       </c>
       <c r="L31" s="18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M31" s="21" t="s">
         <v>315</v>
@@ -6532,7 +6484,7 @@
         <v>257</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="H32" s="14" t="b">
         <v>0</v>
@@ -6541,7 +6493,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K32" s="8" t="s">
         <v>319</v>
@@ -6586,7 +6538,7 @@
         <v>257</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="H33" s="14" t="b">
         <v>0</v>
@@ -6595,13 +6547,13 @@
         <v>0</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>325</v>
       </c>
       <c r="L33" s="18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M33" s="21" t="s">
         <v>326</v>
@@ -6640,7 +6592,7 @@
         <v>257</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="H34" s="14" t="b">
         <v>0</v>
@@ -6649,13 +6601,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K34" s="8" t="s">
         <v>330</v>
       </c>
       <c r="L34" s="18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M34" s="21" t="s">
         <v>331</v>
@@ -6667,7 +6619,7 @@
         <v>117</v>
       </c>
       <c r="P34" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q34" s="14" t="b">
         <v>1</v>
@@ -6694,7 +6646,7 @@
         <v>257</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="H35" s="14" t="b">
         <v>0</v>
@@ -6703,7 +6655,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>336</v>
@@ -6757,7 +6709,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K36" s="8" t="s">
         <v>346</v>
@@ -6802,7 +6754,7 @@
         <v>257</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="H37" s="14" t="b">
         <v>0</v>
@@ -6811,7 +6763,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>353</v>
@@ -6856,7 +6808,7 @@
         <v>257</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="H38" s="14" t="b">
         <v>0</v>
@@ -6865,7 +6817,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K38" s="8" t="s">
         <v>359</v>
@@ -6919,7 +6871,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K39" s="8"/>
       <c r="L39" s="18" t="s">
@@ -6962,7 +6914,7 @@
         <v>257</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="H40" s="14" t="b">
         <v>0</v>
@@ -6971,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K40" s="8"/>
       <c r="L40" s="18" t="s">
@@ -7023,7 +6975,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K41" s="8"/>
       <c r="L41" s="18" t="s">
@@ -7066,7 +7018,7 @@
         <v>257</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="H42" s="14" t="b">
         <v>0</v>
@@ -7075,11 +7027,11 @@
         <v>0</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K42" s="8"/>
       <c r="L42" s="18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M42" s="21" t="s">
         <v>383</v>
@@ -7091,7 +7043,7 @@
         <v>117</v>
       </c>
       <c r="P42" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q42" s="14" t="b">
         <v>1</v>
@@ -7127,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K43" s="8"/>
       <c r="L43" s="18" t="s">
@@ -7143,7 +7095,7 @@
         <v>117</v>
       </c>
       <c r="P43" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q43" s="14" t="b">
         <v>1</v>
@@ -7170,7 +7122,7 @@
         <v>257</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="H44" s="14" t="b">
         <v>0</v>
@@ -7179,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K44" s="8"/>
       <c r="L44" s="18" t="s">
@@ -7231,11 +7183,11 @@
         <v>0</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K45" s="8"/>
       <c r="L45" s="18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M45" s="21" t="s">
         <v>398</v>
@@ -7283,11 +7235,11 @@
         <v>0</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K46" s="8"/>
       <c r="L46" s="18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M46" s="21" t="s">
         <v>405</v>
@@ -7335,11 +7287,11 @@
         <v>0</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K47" s="8"/>
       <c r="L47" s="18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M47" s="21" t="s">
         <v>410</v>
@@ -7351,7 +7303,7 @@
         <v>117</v>
       </c>
       <c r="P47" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q47" s="14" t="b">
         <v>1</v>
@@ -7387,7 +7339,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K48" s="8"/>
       <c r="L48" s="18" t="s">
@@ -7430,7 +7382,7 @@
         <v>257</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="H49" s="14" t="b">
         <v>0</v>
@@ -7439,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K49" s="8"/>
       <c r="L49" s="18" t="s">
@@ -7482,7 +7434,7 @@
         <v>257</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="H50" s="14" t="b">
         <v>0</v>
@@ -7491,7 +7443,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K50" s="8"/>
       <c r="L50" s="18" t="s">
@@ -7534,7 +7486,7 @@
         <v>257</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="H51" s="14" t="b">
         <v>0</v>
@@ -7543,7 +7495,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K51" s="8"/>
       <c r="L51" s="18" t="s">
@@ -7559,7 +7511,7 @@
         <v>117</v>
       </c>
       <c r="P51" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q51" s="14" t="b">
         <v>1</v>
@@ -7595,11 +7547,11 @@
         <v>0</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K52" s="8"/>
       <c r="L52" s="18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M52" s="21" t="s">
         <v>436</v>
@@ -7638,7 +7590,7 @@
         <v>257</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="H53" s="14" t="b">
         <v>0</v>
@@ -7647,11 +7599,11 @@
         <v>0</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K53" s="8"/>
       <c r="L53" s="18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M53" s="21" t="s">
         <v>440</v>
@@ -7663,7 +7615,7 @@
         <v>117</v>
       </c>
       <c r="P53" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q53" s="14" t="b">
         <v>1</v>
@@ -7699,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K54" s="8"/>
       <c r="L54" s="18" t="s">
@@ -7742,7 +7694,7 @@
         <v>257</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="H55" s="14" t="b">
         <v>0</v>
@@ -7751,7 +7703,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K55" s="8"/>
       <c r="L55" s="18" t="s">
@@ -7794,7 +7746,7 @@
         <v>275</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="H56" s="14" t="b">
         <v>0</v>
@@ -7803,11 +7755,11 @@
         <v>0</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K56" s="8"/>
       <c r="L56" s="18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M56" s="21" t="s">
         <v>455</v>
@@ -7819,9 +7771,9 @@
         <v>117</v>
       </c>
       <c r="P56" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q56" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q56" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R56" s="5"/>
@@ -7855,11 +7807,11 @@
         <v>0</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K57" s="8"/>
       <c r="L57" s="18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M57" s="21" t="s">
         <v>459</v>
@@ -7873,7 +7825,7 @@
       <c r="P57" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="Q57" s="26" t="s">
+      <c r="Q57" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R57" s="5"/>
@@ -7907,7 +7859,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K58" s="8"/>
       <c r="L58" s="18"/>
@@ -7919,7 +7871,7 @@
       <c r="P58" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="Q58" s="26" t="s">
+      <c r="Q58" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R58" s="5"/>
@@ -7953,7 +7905,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K59" s="8"/>
       <c r="L59" s="18"/>
@@ -7965,7 +7917,7 @@
       <c r="P59" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q59" s="26" t="s">
+      <c r="Q59" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R59" s="5"/>
@@ -7999,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K60" s="8"/>
       <c r="L60" s="18"/>
@@ -8011,7 +7963,7 @@
       <c r="P60" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q60" s="26" t="s">
+      <c r="Q60" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R60" s="5"/>
@@ -8045,7 +7997,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K61" s="8"/>
       <c r="L61" s="18"/>
@@ -8057,7 +8009,7 @@
       <c r="P61" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q61" s="26" t="s">
+      <c r="Q61" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R61" s="5"/>
@@ -8091,7 +8043,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K62" s="8"/>
       <c r="L62" s="18"/>
@@ -8103,7 +8055,7 @@
       <c r="P62" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q62" s="26" t="s">
+      <c r="Q62" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R62" s="5"/>
@@ -8137,7 +8089,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K63" s="8"/>
       <c r="L63" s="18"/>
@@ -8149,7 +8101,7 @@
       <c r="P63" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q63" s="26" t="s">
+      <c r="Q63" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R63" s="5"/>
@@ -8183,7 +8135,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K64" s="8"/>
       <c r="L64" s="18"/>
@@ -8195,7 +8147,7 @@
       <c r="P64" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q64" s="26" t="s">
+      <c r="Q64" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R64" s="5"/>
@@ -8229,7 +8181,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K65" s="8"/>
       <c r="L65" s="18"/>
@@ -8241,7 +8193,7 @@
       <c r="P65" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q65" s="26" t="s">
+      <c r="Q65" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R65" s="5"/>
@@ -8275,7 +8227,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K66" s="8"/>
       <c r="L66" s="18"/>
@@ -8287,7 +8239,7 @@
       <c r="P66" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q66" s="26" t="s">
+      <c r="Q66" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R66" s="5"/>
@@ -8321,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K67" s="8"/>
       <c r="L67" s="18"/>
@@ -8333,7 +8285,7 @@
       <c r="P67" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q67" s="26" t="s">
+      <c r="Q67" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R67" s="5"/>
@@ -8367,7 +8319,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K68" s="8"/>
       <c r="L68" s="18"/>
@@ -8379,7 +8331,7 @@
       <c r="P68" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q68" s="26" t="s">
+      <c r="Q68" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R68" s="5"/>
@@ -8413,7 +8365,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K69" s="8"/>
       <c r="L69" s="18"/>
@@ -8425,7 +8377,7 @@
       <c r="P69" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q69" s="26" t="s">
+      <c r="Q69" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R69" s="5"/>
@@ -8434,10 +8386,10 @@
       <c r="A70" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="B70" s="27" t="s">
+      <c r="B70" s="26" t="s">
         <v>516</v>
       </c>
-      <c r="C70" s="28" t="s">
+      <c r="C70" s="27" t="s">
         <v>517</v>
       </c>
       <c r="D70" s="8" t="s">
@@ -8446,10 +8398,10 @@
       <c r="E70" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F70" s="31">
+      <c r="F70" s="29">
         <v>860</v>
       </c>
-      <c r="G70" s="31" t="s">
+      <c r="G70" s="29" t="s">
         <v>518</v>
       </c>
       <c r="H70" s="14" t="b">
@@ -8459,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
@@ -8471,7 +8423,7 @@
       <c r="P70" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q70" s="26" t="s">
+      <c r="Q70" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R70" s="5"/>
@@ -8480,10 +8432,10 @@
       <c r="A71" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="B71" s="27" t="s">
+      <c r="B71" s="26" t="s">
         <v>519</v>
       </c>
-      <c r="C71" s="28" t="s">
+      <c r="C71" s="27" t="s">
         <v>520</v>
       </c>
       <c r="D71" s="8" t="s">
@@ -8492,10 +8444,10 @@
       <c r="E71" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F71" s="31">
+      <c r="F71" s="29">
         <v>960</v>
       </c>
-      <c r="G71" s="31" t="s">
+      <c r="G71" s="29" t="s">
         <v>521</v>
       </c>
       <c r="H71" s="14" t="b">
@@ -8505,7 +8457,7 @@
         <v>0</v>
       </c>
       <c r="J71" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
@@ -8517,7 +8469,7 @@
       <c r="P71" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q71" s="26" t="s">
+      <c r="Q71" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R71" s="5"/>
@@ -8526,10 +8478,10 @@
       <c r="A72" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="B72" s="27" t="s">
+      <c r="B72" s="26" t="s">
         <v>523</v>
       </c>
-      <c r="C72" s="28" t="s">
+      <c r="C72" s="27" t="s">
         <v>524</v>
       </c>
       <c r="D72" s="8" t="s">
@@ -8538,10 +8490,10 @@
       <c r="E72" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F72" s="31">
+      <c r="F72" s="29">
         <v>860</v>
       </c>
-      <c r="G72" s="31" t="s">
+      <c r="G72" s="29" t="s">
         <v>518</v>
       </c>
       <c r="H72" s="14" t="b">
@@ -8551,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
@@ -8563,7 +8515,7 @@
       <c r="P72" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q72" s="26" t="s">
+      <c r="Q72" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R72" s="21"/>
@@ -8572,10 +8524,10 @@
       <c r="A73" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="B73" s="27" t="s">
+      <c r="B73" s="26" t="s">
         <v>526</v>
       </c>
-      <c r="C73" s="28" t="s">
+      <c r="C73" s="27" t="s">
         <v>527</v>
       </c>
       <c r="D73" s="8" t="s">
@@ -8584,10 +8536,10 @@
       <c r="E73" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F73" s="31">
+      <c r="F73" s="29">
         <v>1080</v>
       </c>
-      <c r="G73" s="31" t="s">
+      <c r="G73" s="29" t="s">
         <v>528</v>
       </c>
       <c r="H73" s="14" t="b">
@@ -8597,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K73" s="8"/>
       <c r="L73" s="8"/>
@@ -8609,7 +8561,7 @@
       <c r="P73" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q73" s="26" t="s">
+      <c r="Q73" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R73" s="21"/>
@@ -8618,10 +8570,10 @@
       <c r="A74" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="B74" s="27" t="s">
+      <c r="B74" s="26" t="s">
         <v>530</v>
       </c>
-      <c r="C74" s="28" t="s">
+      <c r="C74" s="27" t="s">
         <v>531</v>
       </c>
       <c r="D74" s="8" t="s">
@@ -8630,10 +8582,10 @@
       <c r="E74" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F74" s="31">
+      <c r="F74" s="29">
         <v>1180</v>
       </c>
-      <c r="G74" s="31" t="s">
+      <c r="G74" s="29" t="s">
         <v>532</v>
       </c>
       <c r="H74" s="14" t="b">
@@ -8643,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K74" s="8"/>
       <c r="L74" s="8"/>
@@ -8655,7 +8607,7 @@
       <c r="P74" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q74" s="26" t="s">
+      <c r="Q74" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R74" s="21"/>
@@ -8664,10 +8616,10 @@
       <c r="A75" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="B75" s="27" t="s">
+      <c r="B75" s="26" t="s">
         <v>534</v>
       </c>
-      <c r="C75" s="28" t="s">
+      <c r="C75" s="27" t="s">
         <v>535</v>
       </c>
       <c r="D75" s="8" t="s">
@@ -8676,10 +8628,10 @@
       <c r="E75" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F75" s="31">
+      <c r="F75" s="29">
         <v>1080</v>
       </c>
-      <c r="G75" s="31" t="s">
+      <c r="G75" s="29" t="s">
         <v>536</v>
       </c>
       <c r="H75" s="14" t="b">
@@ -8689,7 +8641,7 @@
         <v>0</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K75" s="8"/>
       <c r="L75" s="8"/>
@@ -8701,7 +8653,7 @@
       <c r="P75" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q75" s="26" t="s">
+      <c r="Q75" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R75" s="21"/>
@@ -8710,10 +8662,10 @@
       <c r="A76" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="B76" s="27" t="s">
+      <c r="B76" s="26" t="s">
         <v>538</v>
       </c>
-      <c r="C76" s="28" t="s">
+      <c r="C76" s="27" t="s">
         <v>539</v>
       </c>
       <c r="D76" s="8" t="s">
@@ -8722,10 +8674,10 @@
       <c r="E76" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F76" s="31">
+      <c r="F76" s="29">
         <v>1100</v>
       </c>
-      <c r="G76" s="31" t="s">
+      <c r="G76" s="29" t="s">
         <v>540</v>
       </c>
       <c r="H76" s="14" t="b">
@@ -8735,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
@@ -8747,7 +8699,7 @@
       <c r="P76" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q76" s="26" t="s">
+      <c r="Q76" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R76" s="21"/>
@@ -8756,10 +8708,10 @@
       <c r="A77" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="B77" s="27" t="s">
+      <c r="B77" s="26" t="s">
         <v>542</v>
       </c>
-      <c r="C77" s="28" t="s">
+      <c r="C77" s="27" t="s">
         <v>543</v>
       </c>
       <c r="D77" s="8" t="s">
@@ -8768,10 +8720,10 @@
       <c r="E77" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F77" s="31">
+      <c r="F77" s="29">
         <v>1100</v>
       </c>
-      <c r="G77" s="31" t="s">
+      <c r="G77" s="29" t="s">
         <v>540</v>
       </c>
       <c r="H77" s="14" t="b">
@@ -8781,7 +8733,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K77" s="8"/>
       <c r="L77" s="8"/>
@@ -8793,7 +8745,7 @@
       <c r="P77" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q77" s="26" t="s">
+      <c r="Q77" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R77" s="21"/>
@@ -8802,10 +8754,10 @@
       <c r="A78" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="B78" s="27" t="s">
+      <c r="B78" s="26" t="s">
         <v>546</v>
       </c>
-      <c r="C78" s="28" t="s">
+      <c r="C78" s="27" t="s">
         <v>547</v>
       </c>
       <c r="D78" s="8" t="s">
@@ -8814,10 +8766,10 @@
       <c r="E78" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F78" s="31">
+      <c r="F78" s="29">
         <v>1100</v>
       </c>
-      <c r="G78" s="31" t="s">
+      <c r="G78" s="29" t="s">
         <v>540</v>
       </c>
       <c r="H78" s="14" t="b">
@@ -8827,7 +8779,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
@@ -8839,7 +8791,7 @@
       <c r="P78" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q78" s="26" t="s">
+      <c r="Q78" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R78" s="21"/>
@@ -8848,10 +8800,10 @@
       <c r="A79" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="B79" s="27" t="s">
+      <c r="B79" s="26" t="s">
         <v>548</v>
       </c>
-      <c r="C79" s="28" t="s">
+      <c r="C79" s="27" t="s">
         <v>549</v>
       </c>
       <c r="D79" s="8" t="s">
@@ -8860,10 +8812,10 @@
       <c r="E79" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F79" s="31">
+      <c r="F79" s="29">
         <v>1180</v>
       </c>
-      <c r="G79" s="31" t="s">
+      <c r="G79" s="29" t="s">
         <v>505</v>
       </c>
       <c r="H79" s="14" t="b">
@@ -8873,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K79" s="8"/>
       <c r="L79" s="8"/>
@@ -8885,7 +8837,7 @@
       <c r="P79" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q79" s="26" t="s">
+      <c r="Q79" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R79" s="21"/>
@@ -8894,10 +8846,10 @@
       <c r="A80" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="B80" s="27" t="s">
+      <c r="B80" s="26" t="s">
         <v>551</v>
       </c>
-      <c r="C80" s="28" t="s">
+      <c r="C80" s="27" t="s">
         <v>552</v>
       </c>
       <c r="D80" s="8" t="s">
@@ -8906,10 +8858,10 @@
       <c r="E80" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F80" s="31">
+      <c r="F80" s="29">
         <v>880</v>
       </c>
-      <c r="G80" s="31" t="s">
+      <c r="G80" s="29" t="s">
         <v>553</v>
       </c>
       <c r="H80" s="14" t="b">
@@ -8919,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
@@ -8931,7 +8883,7 @@
       <c r="P80" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q80" s="26" t="s">
+      <c r="Q80" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R80" s="21"/>
@@ -8940,10 +8892,10 @@
       <c r="A81" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="B81" s="27" t="s">
+      <c r="B81" s="26" t="s">
         <v>554</v>
       </c>
-      <c r="C81" s="28" t="s">
+      <c r="C81" s="27" t="s">
         <v>555</v>
       </c>
       <c r="D81" s="8" t="s">
@@ -8952,10 +8904,10 @@
       <c r="E81" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F81" s="31">
+      <c r="F81" s="29">
         <v>1280</v>
       </c>
-      <c r="G81" s="31" t="s">
+      <c r="G81" s="29" t="s">
         <v>556</v>
       </c>
       <c r="H81" s="14" t="b">
@@ -8965,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K81" s="8"/>
       <c r="L81" s="8"/>
@@ -8977,7 +8929,7 @@
       <c r="P81" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q81" s="26" t="s">
+      <c r="Q81" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R81" s="21"/>
@@ -8986,10 +8938,10 @@
       <c r="A82" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="B82" s="27" t="s">
+      <c r="B82" s="26" t="s">
         <v>558</v>
       </c>
-      <c r="C82" s="27" t="s">
+      <c r="C82" s="26" t="s">
         <v>559</v>
       </c>
       <c r="D82" s="8" t="s">
@@ -8998,10 +8950,10 @@
       <c r="E82" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F82" s="27">
+      <c r="F82" s="26">
         <v>880</v>
       </c>
-      <c r="G82" s="27" t="s">
+      <c r="G82" s="26" t="s">
         <v>561</v>
       </c>
       <c r="H82" s="14" t="b">
@@ -9011,7 +8963,7 @@
         <v>0</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K82" s="8"/>
       <c r="L82" s="8"/>
@@ -9023,7 +8975,7 @@
       <c r="P82" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q82" s="26" t="s">
+      <c r="Q82" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R82" s="21"/>
@@ -9032,10 +8984,10 @@
       <c r="A83" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="B83" s="27" t="s">
+      <c r="B83" s="26" t="s">
         <v>563</v>
       </c>
-      <c r="C83" s="27" t="s">
+      <c r="C83" s="26" t="s">
         <v>564</v>
       </c>
       <c r="D83" s="8" t="s">
@@ -9044,10 +8996,10 @@
       <c r="E83" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F83" s="27">
+      <c r="F83" s="26">
         <v>1100</v>
       </c>
-      <c r="G83" s="27" t="s">
+      <c r="G83" s="26" t="s">
         <v>565</v>
       </c>
       <c r="H83" s="14" t="b">
@@ -9057,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K83" s="8"/>
       <c r="L83" s="8"/>
@@ -9069,7 +9021,7 @@
       <c r="P83" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q83" s="26" t="s">
+      <c r="Q83" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R83" s="21"/>
@@ -9078,10 +9030,10 @@
       <c r="A84" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="B84" s="27" t="s">
+      <c r="B84" s="26" t="s">
         <v>567</v>
       </c>
-      <c r="C84" s="27" t="s">
+      <c r="C84" s="26" t="s">
         <v>568</v>
       </c>
       <c r="D84" s="8" t="s">
@@ -9090,10 +9042,10 @@
       <c r="E84" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F84" s="27">
+      <c r="F84" s="26">
         <v>2650</v>
       </c>
-      <c r="G84" s="32" t="s">
+      <c r="G84" s="30" t="s">
         <v>569</v>
       </c>
       <c r="H84" s="14" t="b">
@@ -9103,7 +9055,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K84" s="8"/>
       <c r="L84" s="8"/>
@@ -9115,7 +9067,7 @@
       <c r="P84" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q84" s="26" t="s">
+      <c r="Q84" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R84" s="21"/>
@@ -9124,10 +9076,10 @@
       <c r="A85" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="B85" s="27" t="s">
+      <c r="B85" s="26" t="s">
         <v>571</v>
       </c>
-      <c r="C85" s="27" t="s">
+      <c r="C85" s="26" t="s">
         <v>572</v>
       </c>
       <c r="D85" s="8" t="s">
@@ -9136,10 +9088,10 @@
       <c r="E85" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F85" s="27">
+      <c r="F85" s="26">
         <v>880</v>
       </c>
-      <c r="G85" s="27" t="s">
+      <c r="G85" s="26" t="s">
         <v>573</v>
       </c>
       <c r="H85" s="14" t="b">
@@ -9149,7 +9101,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K85" s="8"/>
       <c r="L85" s="8"/>
@@ -9161,7 +9113,7 @@
       <c r="P85" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q85" s="26" t="s">
+      <c r="Q85" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R85" s="21"/>
@@ -9170,10 +9122,10 @@
       <c r="A86" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="B86" s="27" t="s">
+      <c r="B86" s="26" t="s">
         <v>575</v>
       </c>
-      <c r="C86" s="27" t="s">
+      <c r="C86" s="26" t="s">
         <v>576</v>
       </c>
       <c r="D86" s="8" t="s">
@@ -9182,10 +9134,10 @@
       <c r="E86" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F86" s="27">
+      <c r="F86" s="26">
         <v>1050</v>
       </c>
-      <c r="G86" s="27" t="s">
+      <c r="G86" s="26" t="s">
         <v>577</v>
       </c>
       <c r="H86" s="14" t="b">
@@ -9195,7 +9147,7 @@
         <v>0</v>
       </c>
       <c r="J86" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K86" s="8"/>
       <c r="L86" s="8"/>
@@ -9207,7 +9159,7 @@
       <c r="P86" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q86" s="26" t="s">
+      <c r="Q86" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R86" s="21"/>
@@ -9216,10 +9168,10 @@
       <c r="A87" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="B87" s="27" t="s">
+      <c r="B87" s="26" t="s">
         <v>579</v>
       </c>
-      <c r="C87" s="27" t="s">
+      <c r="C87" s="26" t="s">
         <v>580</v>
       </c>
       <c r="D87" s="8" t="s">
@@ -9228,10 +9180,10 @@
       <c r="E87" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F87" s="27">
+      <c r="F87" s="26">
         <v>880</v>
       </c>
-      <c r="G87" s="27" t="s">
+      <c r="G87" s="26" t="s">
         <v>581</v>
       </c>
       <c r="H87" s="14" t="b">
@@ -9241,7 +9193,7 @@
         <v>0</v>
       </c>
       <c r="J87" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K87" s="8"/>
       <c r="L87" s="8"/>
@@ -9253,7 +9205,7 @@
       <c r="P87" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q87" s="26" t="s">
+      <c r="Q87" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R87" s="21"/>
@@ -9262,10 +9214,10 @@
       <c r="A88" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="B88" s="27" t="s">
+      <c r="B88" s="26" t="s">
         <v>583</v>
       </c>
-      <c r="C88" s="27" t="s">
+      <c r="C88" s="26" t="s">
         <v>584</v>
       </c>
       <c r="D88" s="8" t="s">
@@ -9274,10 +9226,10 @@
       <c r="E88" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F88" s="27">
+      <c r="F88" s="26">
         <v>1700</v>
       </c>
-      <c r="G88" s="27" t="s">
+      <c r="G88" s="26" t="s">
         <v>585</v>
       </c>
       <c r="H88" s="14" t="b">
@@ -9287,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K88" s="8"/>
       <c r="L88" s="8"/>
@@ -9299,7 +9251,7 @@
       <c r="P88" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q88" s="26" t="s">
+      <c r="Q88" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R88" s="21"/>
@@ -9308,10 +9260,10 @@
       <c r="A89" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B89" s="27" t="s">
+      <c r="B89" s="26" t="s">
         <v>586</v>
       </c>
-      <c r="C89" s="27" t="s">
+      <c r="C89" s="26" t="s">
         <v>587</v>
       </c>
       <c r="D89" s="8" t="s">
@@ -9320,10 +9272,10 @@
       <c r="E89" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F89" s="27">
+      <c r="F89" s="26">
         <v>880</v>
       </c>
-      <c r="G89" s="27" t="s">
+      <c r="G89" s="26" t="s">
         <v>581</v>
       </c>
       <c r="H89" s="14" t="b">
@@ -9333,7 +9285,7 @@
         <v>0</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K89" s="8"/>
       <c r="L89" s="8"/>
@@ -9345,7 +9297,7 @@
       <c r="P89" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q89" s="26" t="s">
+      <c r="Q89" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R89" s="21"/>
@@ -9354,10 +9306,10 @@
       <c r="A90" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="B90" s="27" t="s">
+      <c r="B90" s="26" t="s">
         <v>589</v>
       </c>
-      <c r="C90" s="27" t="s">
+      <c r="C90" s="26" t="s">
         <v>590</v>
       </c>
       <c r="D90" s="8" t="s">
@@ -9366,10 +9318,10 @@
       <c r="E90" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F90" s="27">
+      <c r="F90" s="26">
         <v>1400</v>
       </c>
-      <c r="G90" s="27" t="s">
+      <c r="G90" s="26" t="s">
         <v>591</v>
       </c>
       <c r="H90" s="14" t="b">
@@ -9379,7 +9331,7 @@
         <v>0</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K90" s="8"/>
       <c r="L90" s="8"/>
@@ -9391,7 +9343,7 @@
       <c r="P90" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q90" s="26" t="s">
+      <c r="Q90" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R90" s="21"/>
@@ -9400,10 +9352,10 @@
       <c r="A91" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="B91" s="29" t="s">
+      <c r="B91" s="28" t="s">
         <v>592</v>
       </c>
-      <c r="C91" s="27" t="s">
+      <c r="C91" s="26" t="s">
         <v>593</v>
       </c>
       <c r="D91" s="8" t="s">
@@ -9412,10 +9364,10 @@
       <c r="E91" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F91" s="27">
+      <c r="F91" s="26">
         <v>1800</v>
       </c>
-      <c r="G91" s="27" t="s">
+      <c r="G91" s="26" t="s">
         <v>594</v>
       </c>
       <c r="H91" s="14" t="b">
@@ -9425,7 +9377,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K91" s="8"/>
       <c r="L91" s="8"/>
@@ -9437,7 +9389,7 @@
       <c r="P91" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q91" s="26" t="s">
+      <c r="Q91" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R91" s="21"/>
@@ -9446,10 +9398,10 @@
       <c r="A92" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="B92" s="29" t="s">
+      <c r="B92" s="28" t="s">
         <v>596</v>
       </c>
-      <c r="C92" s="27" t="s">
+      <c r="C92" s="26" t="s">
         <v>597</v>
       </c>
       <c r="D92" s="8" t="s">
@@ -9458,10 +9410,10 @@
       <c r="E92" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F92" s="27">
+      <c r="F92" s="26">
         <v>1080</v>
       </c>
-      <c r="G92" s="27" t="s">
+      <c r="G92" s="26" t="s">
         <v>598</v>
       </c>
       <c r="H92" s="14" t="b">
@@ -9471,7 +9423,7 @@
         <v>0</v>
       </c>
       <c r="J92" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K92" s="8"/>
       <c r="L92" s="8"/>
@@ -9483,7 +9435,7 @@
       <c r="P92" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q92" s="26" t="s">
+      <c r="Q92" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R92" s="21"/>
@@ -9492,10 +9444,10 @@
       <c r="A93" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="B93" s="29" t="s">
+      <c r="B93" s="28" t="s">
         <v>600</v>
       </c>
-      <c r="C93" s="27" t="s">
+      <c r="C93" s="26" t="s">
         <v>601</v>
       </c>
       <c r="D93" s="8" t="s">
@@ -9504,10 +9456,10 @@
       <c r="E93" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F93" s="27">
+      <c r="F93" s="26">
         <v>1550</v>
       </c>
-      <c r="G93" s="27" t="s">
+      <c r="G93" s="26" t="s">
         <v>602</v>
       </c>
       <c r="H93" s="14" t="b">
@@ -9517,7 +9469,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K93" s="8"/>
       <c r="L93" s="8"/>
@@ -9529,7 +9481,7 @@
       <c r="P93" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q93" s="26" t="s">
+      <c r="Q93" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R93" s="21"/>
@@ -9538,10 +9490,10 @@
       <c r="A94" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="B94" s="29" t="s">
+      <c r="B94" s="28" t="s">
         <v>604</v>
       </c>
-      <c r="C94" s="27" t="s">
+      <c r="C94" s="26" t="s">
         <v>605</v>
       </c>
       <c r="D94" s="8" t="s">
@@ -9550,10 +9502,10 @@
       <c r="E94" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F94" s="27">
+      <c r="F94" s="26">
         <v>2050</v>
       </c>
-      <c r="G94" s="27" t="s">
+      <c r="G94" s="26" t="s">
         <v>606</v>
       </c>
       <c r="H94" s="14" t="b">
@@ -9563,7 +9515,7 @@
         <v>0</v>
       </c>
       <c r="J94" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K94" s="8"/>
       <c r="L94" s="8"/>
@@ -9575,7 +9527,7 @@
       <c r="P94" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q94" s="26" t="s">
+      <c r="Q94" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R94" s="21"/>
@@ -9584,10 +9536,10 @@
       <c r="A95" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="B95" s="29" t="s">
+      <c r="B95" s="28" t="s">
         <v>608</v>
       </c>
-      <c r="C95" s="27" t="s">
+      <c r="C95" s="26" t="s">
         <v>609</v>
       </c>
       <c r="D95" s="8" t="s">
@@ -9596,10 +9548,10 @@
       <c r="E95" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F95" s="27">
+      <c r="F95" s="26">
         <v>2850</v>
       </c>
-      <c r="G95" s="27" t="s">
+      <c r="G95" s="26" t="s">
         <v>610</v>
       </c>
       <c r="H95" s="14" t="b">
@@ -9609,7 +9561,7 @@
         <v>0</v>
       </c>
       <c r="J95" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K95" s="8"/>
       <c r="L95" s="8"/>
@@ -9621,7 +9573,7 @@
       <c r="P95" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q95" s="26" t="s">
+      <c r="Q95" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R95" s="21"/>
@@ -9630,10 +9582,10 @@
       <c r="A96" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="B96" s="29" t="s">
+      <c r="B96" s="28" t="s">
         <v>612</v>
       </c>
-      <c r="C96" s="30" t="s">
+      <c r="C96" s="7" t="s">
         <v>613</v>
       </c>
       <c r="D96" s="8" t="s">
@@ -9642,10 +9594,10 @@
       <c r="E96" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F96" s="27">
+      <c r="F96" s="26">
         <v>900</v>
       </c>
-      <c r="G96" s="27" t="s">
+      <c r="G96" s="26" t="s">
         <v>614</v>
       </c>
       <c r="H96" s="14" t="b">
@@ -9655,7 +9607,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K96" s="8"/>
       <c r="L96" s="8"/>
@@ -9667,7 +9619,7 @@
       <c r="P96" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q96" s="26" t="s">
+      <c r="Q96" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R96" s="21"/>
@@ -9676,10 +9628,10 @@
       <c r="A97" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="B97" s="29" t="s">
+      <c r="B97" s="28" t="s">
         <v>616</v>
       </c>
-      <c r="C97" s="27" t="s">
+      <c r="C97" s="26" t="s">
         <v>617</v>
       </c>
       <c r="D97" s="8" t="s">
@@ -9688,10 +9640,10 @@
       <c r="E97" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F97" s="27">
+      <c r="F97" s="26">
         <v>1650</v>
       </c>
-      <c r="G97" s="27" t="s">
+      <c r="G97" s="26" t="s">
         <v>618</v>
       </c>
       <c r="H97" s="14" t="b">
@@ -9701,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="J97" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K97" s="8"/>
       <c r="L97" s="8"/>
@@ -9713,7 +9665,7 @@
       <c r="P97" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q97" s="26" t="s">
+      <c r="Q97" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R97" s="21"/>
@@ -9722,10 +9674,10 @@
       <c r="A98" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="B98" s="29" t="s">
+      <c r="B98" s="28" t="s">
         <v>620</v>
       </c>
-      <c r="C98" s="27" t="s">
+      <c r="C98" s="26" t="s">
         <v>621</v>
       </c>
       <c r="D98" s="8" t="s">
@@ -9734,10 +9686,10 @@
       <c r="E98" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F98" s="27">
+      <c r="F98" s="26">
         <v>2350</v>
       </c>
-      <c r="G98" s="27" t="s">
+      <c r="G98" s="26" t="s">
         <v>622</v>
       </c>
       <c r="H98" s="14" t="b">
@@ -9747,7 +9699,7 @@
         <v>0</v>
       </c>
       <c r="J98" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K98" s="8"/>
       <c r="L98" s="8"/>
@@ -9759,7 +9711,7 @@
       <c r="P98" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q98" s="26" t="s">
+      <c r="Q98" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R98" s="21"/>
@@ -9768,10 +9720,10 @@
       <c r="A99" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="B99" s="29" t="s">
+      <c r="B99" s="28" t="s">
         <v>623</v>
       </c>
-      <c r="C99" s="27" t="s">
+      <c r="C99" s="26" t="s">
         <v>624</v>
       </c>
       <c r="D99" s="8" t="s">
@@ -9780,10 +9732,10 @@
       <c r="E99" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F99" s="27">
+      <c r="F99" s="26">
         <v>2180</v>
       </c>
-      <c r="G99" s="27" t="s">
+      <c r="G99" s="26" t="s">
         <v>625</v>
       </c>
       <c r="H99" s="14" t="b">
@@ -9793,7 +9745,7 @@
         <v>0</v>
       </c>
       <c r="J99" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K99" s="8"/>
       <c r="L99" s="8"/>
@@ -9805,7 +9757,7 @@
       <c r="P99" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q99" s="26" t="s">
+      <c r="Q99" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R99" s="21"/>
@@ -9814,10 +9766,10 @@
       <c r="A100" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="B100" s="29" t="s">
+      <c r="B100" s="28" t="s">
         <v>627</v>
       </c>
-      <c r="C100" s="27" t="s">
+      <c r="C100" s="26" t="s">
         <v>628</v>
       </c>
       <c r="D100" s="8" t="s">
@@ -9826,10 +9778,10 @@
       <c r="E100" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F100" s="27">
+      <c r="F100" s="26">
         <v>4980</v>
       </c>
-      <c r="G100" s="27" t="s">
+      <c r="G100" s="26" t="s">
         <v>629</v>
       </c>
       <c r="H100" s="14" t="b">
@@ -9839,7 +9791,7 @@
         <v>0</v>
       </c>
       <c r="J100" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K100" s="8"/>
       <c r="L100" s="8"/>
@@ -9851,7 +9803,7 @@
       <c r="P100" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q100" s="26" t="s">
+      <c r="Q100" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R100" s="21"/>
@@ -9860,10 +9812,10 @@
       <c r="A101" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="B101" s="29" t="s">
+      <c r="B101" s="28" t="s">
         <v>631</v>
       </c>
-      <c r="C101" s="27" t="s">
+      <c r="C101" s="26" t="s">
         <v>632</v>
       </c>
       <c r="D101" s="8" t="s">
@@ -9872,10 +9824,10 @@
       <c r="E101" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F101" s="27">
+      <c r="F101" s="26">
         <v>17800</v>
       </c>
-      <c r="G101" s="27" t="s">
+      <c r="G101" s="26" t="s">
         <v>633</v>
       </c>
       <c r="H101" s="14" t="b">
@@ -9885,7 +9837,7 @@
         <v>0</v>
       </c>
       <c r="J101" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K101" s="8"/>
       <c r="L101" s="8"/>
@@ -9897,7 +9849,7 @@
       <c r="P101" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q101" s="26" t="s">
+      <c r="Q101" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R101" s="21"/>
@@ -9906,10 +9858,10 @@
       <c r="A102" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="B102" s="29" t="s">
+      <c r="B102" s="28" t="s">
         <v>635</v>
       </c>
-      <c r="C102" s="27" t="s">
+      <c r="C102" s="26" t="s">
         <v>636</v>
       </c>
       <c r="D102" s="8" t="s">
@@ -9918,10 +9870,10 @@
       <c r="E102" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F102" s="27">
+      <c r="F102" s="26">
         <v>2080</v>
       </c>
-      <c r="G102" s="27" t="s">
+      <c r="G102" s="26" t="s">
         <v>637</v>
       </c>
       <c r="H102" s="14" t="b">
@@ -9931,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="J102" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K102" s="8"/>
       <c r="L102" s="8"/>
@@ -9943,7 +9895,7 @@
       <c r="P102" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q102" s="26" t="s">
+      <c r="Q102" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R102" s="21"/>
@@ -9952,10 +9904,10 @@
       <c r="A103" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="B103" s="29" t="s">
+      <c r="B103" s="28" t="s">
         <v>639</v>
       </c>
-      <c r="C103" s="27" t="s">
+      <c r="C103" s="26" t="s">
         <v>640</v>
       </c>
       <c r="D103" s="8" t="s">
@@ -9964,10 +9916,10 @@
       <c r="E103" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F103" s="27">
+      <c r="F103" s="26">
         <v>4880</v>
       </c>
-      <c r="G103" s="27" t="s">
+      <c r="G103" s="26" t="s">
         <v>641</v>
       </c>
       <c r="H103" s="14" t="b">
@@ -9977,7 +9929,7 @@
         <v>0</v>
       </c>
       <c r="J103" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K103" s="8"/>
       <c r="L103" s="8"/>
@@ -9989,7 +9941,7 @@
       <c r="P103" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q103" s="26" t="s">
+      <c r="Q103" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R103" s="21"/>
@@ -9998,10 +9950,10 @@
       <c r="A104" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="B104" s="29" t="s">
+      <c r="B104" s="28" t="s">
         <v>643</v>
       </c>
-      <c r="C104" s="27" t="s">
+      <c r="C104" s="26" t="s">
         <v>644</v>
       </c>
       <c r="D104" s="8" t="s">
@@ -10010,10 +9962,10 @@
       <c r="E104" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F104" s="27">
+      <c r="F104" s="26">
         <v>17800</v>
       </c>
-      <c r="G104" s="27" t="s">
+      <c r="G104" s="26" t="s">
         <v>633</v>
       </c>
       <c r="H104" s="14" t="b">
@@ -10023,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="J104" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K104" s="8"/>
       <c r="L104" s="8"/>
@@ -10035,7 +9987,7 @@
       <c r="P104" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q104" s="26" t="s">
+      <c r="Q104" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R104" s="21"/>
@@ -10044,10 +9996,10 @@
       <c r="A105" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="B105" s="29" t="s">
+      <c r="B105" s="28" t="s">
         <v>646</v>
       </c>
-      <c r="C105" s="27" t="s">
+      <c r="C105" s="26" t="s">
         <v>647</v>
       </c>
       <c r="D105" s="8" t="s">
@@ -10056,10 +10008,10 @@
       <c r="E105" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F105" s="27">
+      <c r="F105" s="26">
         <v>2180</v>
       </c>
-      <c r="G105" s="27" t="s">
+      <c r="G105" s="26" t="s">
         <v>648</v>
       </c>
       <c r="H105" s="14" t="b">
@@ -10069,7 +10021,7 @@
         <v>0</v>
       </c>
       <c r="J105" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K105" s="8"/>
       <c r="L105" s="8"/>
@@ -10081,7 +10033,7 @@
       <c r="P105" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q105" s="26" t="s">
+      <c r="Q105" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R105" s="21"/>
@@ -10090,10 +10042,10 @@
       <c r="A106" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="B106" s="29" t="s">
+      <c r="B106" s="28" t="s">
         <v>650</v>
       </c>
-      <c r="C106" s="27" t="s">
+      <c r="C106" s="26" t="s">
         <v>651</v>
       </c>
       <c r="D106" s="8" t="s">
@@ -10102,10 +10054,10 @@
       <c r="E106" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F106" s="27">
+      <c r="F106" s="26">
         <v>9800</v>
       </c>
-      <c r="G106" s="27" t="s">
+      <c r="G106" s="26" t="s">
         <v>652</v>
       </c>
       <c r="H106" s="14" t="b">
@@ -10115,7 +10067,7 @@
         <v>0</v>
       </c>
       <c r="J106" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K106" s="8"/>
       <c r="L106" s="8"/>
@@ -10127,7 +10079,7 @@
       <c r="P106" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q106" s="26" t="s">
+      <c r="Q106" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R106" s="21"/>
@@ -10136,10 +10088,10 @@
       <c r="A107" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="B107" s="29" t="s">
+      <c r="B107" s="28" t="s">
         <v>654</v>
       </c>
-      <c r="C107" s="27" t="s">
+      <c r="C107" s="26" t="s">
         <v>655</v>
       </c>
       <c r="D107" s="8" t="s">
@@ -10148,10 +10100,10 @@
       <c r="E107" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F107" s="27">
+      <c r="F107" s="26">
         <v>15000</v>
       </c>
-      <c r="G107" s="27" t="s">
+      <c r="G107" s="26" t="s">
         <v>656</v>
       </c>
       <c r="H107" s="14" t="b">
@@ -10161,7 +10113,7 @@
         <v>0</v>
       </c>
       <c r="J107" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K107" s="8"/>
       <c r="L107" s="8"/>
@@ -10173,7 +10125,7 @@
       <c r="P107" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q107" s="26" t="s">
+      <c r="Q107" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R107" s="21"/>
@@ -10182,10 +10134,10 @@
       <c r="A108" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="B108" s="29" t="s">
+      <c r="B108" s="28" t="s">
         <v>658</v>
       </c>
-      <c r="C108" s="27" t="s">
+      <c r="C108" s="26" t="s">
         <v>659</v>
       </c>
       <c r="D108" s="8" t="s">
@@ -10194,10 +10146,10 @@
       <c r="E108" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F108" s="27">
+      <c r="F108" s="26">
         <v>2080</v>
       </c>
-      <c r="G108" s="27" t="s">
+      <c r="G108" s="26" t="s">
         <v>648</v>
       </c>
       <c r="H108" s="14" t="b">
@@ -10207,7 +10159,7 @@
         <v>0</v>
       </c>
       <c r="J108" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K108" s="8"/>
       <c r="L108" s="8"/>
@@ -10219,7 +10171,7 @@
       <c r="P108" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q108" s="26" t="s">
+      <c r="Q108" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R108" s="21"/>
@@ -10228,10 +10180,10 @@
       <c r="A109" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="B109" s="29" t="s">
+      <c r="B109" s="28" t="s">
         <v>661</v>
       </c>
-      <c r="C109" s="27" t="s">
+      <c r="C109" s="26" t="s">
         <v>662</v>
       </c>
       <c r="D109" s="8" t="s">
@@ -10240,10 +10192,10 @@
       <c r="E109" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F109" s="27">
+      <c r="F109" s="26">
         <v>11000</v>
       </c>
-      <c r="G109" s="27" t="s">
+      <c r="G109" s="26" t="s">
         <v>663</v>
       </c>
       <c r="H109" s="14" t="b">
@@ -10253,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="J109" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K109" s="8"/>
       <c r="L109" s="8"/>
@@ -10265,7 +10217,7 @@
       <c r="P109" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q109" s="26" t="s">
+      <c r="Q109" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R109" s="21"/>
@@ -10274,10 +10226,10 @@
       <c r="A110" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="B110" s="27" t="s">
+      <c r="B110" s="26" t="s">
         <v>665</v>
       </c>
-      <c r="C110" s="27" t="s">
+      <c r="C110" s="26" t="s">
         <v>666</v>
       </c>
       <c r="D110" s="8" t="s">
@@ -10286,10 +10238,10 @@
       <c r="E110" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F110" s="27">
+      <c r="F110" s="26">
         <v>1080</v>
       </c>
-      <c r="G110" s="27" t="s">
+      <c r="G110" s="26" t="s">
         <v>668</v>
       </c>
       <c r="H110" s="14" t="b">
@@ -10299,7 +10251,7 @@
         <v>0</v>
       </c>
       <c r="J110" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K110" s="8"/>
       <c r="L110" s="8"/>
@@ -10311,7 +10263,7 @@
       <c r="P110" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q110" s="26" t="s">
+      <c r="Q110" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R110" s="21"/>
@@ -10320,10 +10272,10 @@
       <c r="A111" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="B111" s="29" t="s">
+      <c r="B111" s="28" t="s">
         <v>670</v>
       </c>
-      <c r="C111" s="27" t="s">
+      <c r="C111" s="26" t="s">
         <v>671</v>
       </c>
       <c r="D111" s="8" t="s">
@@ -10332,10 +10284,10 @@
       <c r="E111" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F111" s="27">
+      <c r="F111" s="26">
         <v>980</v>
       </c>
-      <c r="G111" s="27" t="s">
+      <c r="G111" s="26" t="s">
         <v>672</v>
       </c>
       <c r="H111" s="14" t="b">
@@ -10345,7 +10297,7 @@
         <v>0</v>
       </c>
       <c r="J111" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K111" s="8"/>
       <c r="L111" s="8"/>
@@ -10357,7 +10309,7 @@
       <c r="P111" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q111" s="26" t="s">
+      <c r="Q111" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R111" s="21"/>
@@ -10366,10 +10318,10 @@
       <c r="A112" s="5" t="s">
         <v>673</v>
       </c>
-      <c r="B112" s="29" t="s">
+      <c r="B112" s="28" t="s">
         <v>674</v>
       </c>
-      <c r="C112" s="27" t="s">
+      <c r="C112" s="26" t="s">
         <v>675</v>
       </c>
       <c r="D112" s="8" t="s">
@@ -10378,10 +10330,10 @@
       <c r="E112" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F112" s="27">
+      <c r="F112" s="26">
         <v>1180</v>
       </c>
-      <c r="G112" s="27" t="s">
+      <c r="G112" s="26" t="s">
         <v>676</v>
       </c>
       <c r="H112" s="14" t="b">
@@ -10391,7 +10343,7 @@
         <v>0</v>
       </c>
       <c r="J112" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K112" s="8"/>
       <c r="L112" s="8"/>
@@ -10403,7 +10355,7 @@
       <c r="P112" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q112" s="26" t="s">
+      <c r="Q112" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R112" s="21"/>
@@ -10412,10 +10364,10 @@
       <c r="A113" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="B113" s="29" t="s">
+      <c r="B113" s="28" t="s">
         <v>678</v>
       </c>
-      <c r="C113" s="27" t="s">
+      <c r="C113" s="26" t="s">
         <v>679</v>
       </c>
       <c r="D113" s="8" t="s">
@@ -10424,10 +10376,10 @@
       <c r="E113" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F113" s="27">
+      <c r="F113" s="26">
         <v>1280</v>
       </c>
-      <c r="G113" s="27" t="s">
+      <c r="G113" s="26" t="s">
         <v>680</v>
       </c>
       <c r="H113" s="14" t="b">
@@ -10437,7 +10389,7 @@
         <v>0</v>
       </c>
       <c r="J113" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K113" s="8"/>
       <c r="L113" s="8"/>
@@ -10449,7 +10401,7 @@
       <c r="P113" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q113" s="26" t="s">
+      <c r="Q113" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R113" s="21"/>
@@ -10458,10 +10410,10 @@
       <c r="A114" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="B114" s="29" t="s">
+      <c r="B114" s="28" t="s">
         <v>682</v>
       </c>
-      <c r="C114" s="27" t="s">
+      <c r="C114" s="26" t="s">
         <v>683</v>
       </c>
       <c r="D114" s="8" t="s">
@@ -10470,10 +10422,10 @@
       <c r="E114" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F114" s="27">
+      <c r="F114" s="26">
         <v>2400</v>
       </c>
-      <c r="G114" s="27" t="s">
+      <c r="G114" s="26" t="s">
         <v>684</v>
       </c>
       <c r="H114" s="14" t="b">
@@ -10483,7 +10435,7 @@
         <v>0</v>
       </c>
       <c r="J114" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K114" s="8"/>
       <c r="L114" s="8"/>
@@ -10495,7 +10447,7 @@
       <c r="P114" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q114" s="26" t="s">
+      <c r="Q114" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R114" s="21"/>
@@ -10504,10 +10456,10 @@
       <c r="A115" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="B115" s="29" t="s">
+      <c r="B115" s="28" t="s">
         <v>686</v>
       </c>
-      <c r="C115" s="27" t="s">
+      <c r="C115" s="26" t="s">
         <v>687</v>
       </c>
       <c r="D115" s="8" t="s">
@@ -10516,10 +10468,10 @@
       <c r="E115" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F115" s="27">
+      <c r="F115" s="26">
         <v>3880</v>
       </c>
-      <c r="G115" s="27" t="s">
+      <c r="G115" s="26" t="s">
         <v>688</v>
       </c>
       <c r="H115" s="14" t="b">
@@ -10529,7 +10481,7 @@
         <v>0</v>
       </c>
       <c r="J115" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K115" s="8"/>
       <c r="L115" s="8"/>
@@ -10541,7 +10493,7 @@
       <c r="P115" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q115" s="26" t="s">
+      <c r="Q115" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R115" s="21"/>
@@ -10550,10 +10502,10 @@
       <c r="A116" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="B116" s="29" t="s">
+      <c r="B116" s="28" t="s">
         <v>690</v>
       </c>
-      <c r="C116" s="27" t="s">
+      <c r="C116" s="26" t="s">
         <v>691</v>
       </c>
       <c r="D116" s="8" t="s">
@@ -10562,10 +10514,10 @@
       <c r="E116" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F116" s="27">
+      <c r="F116" s="26">
         <v>980</v>
       </c>
-      <c r="G116" s="27" t="s">
+      <c r="G116" s="26" t="s">
         <v>672</v>
       </c>
       <c r="H116" s="14" t="b">
@@ -10575,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="J116" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K116" s="8"/>
       <c r="L116" s="8"/>
@@ -10587,7 +10539,7 @@
       <c r="P116" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q116" s="26" t="s">
+      <c r="Q116" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R116" s="21"/>
@@ -10596,10 +10548,10 @@
       <c r="A117" s="5" t="s">
         <v>692</v>
       </c>
-      <c r="B117" s="29" t="s">
+      <c r="B117" s="28" t="s">
         <v>693</v>
       </c>
-      <c r="C117" s="27" t="s">
+      <c r="C117" s="26" t="s">
         <v>694</v>
       </c>
       <c r="D117" s="8" t="s">
@@ -10608,10 +10560,10 @@
       <c r="E117" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F117" s="27">
+      <c r="F117" s="26">
         <v>1180</v>
       </c>
-      <c r="G117" s="27" t="s">
+      <c r="G117" s="26" t="s">
         <v>676</v>
       </c>
       <c r="H117" s="14" t="b">
@@ -10621,7 +10573,7 @@
         <v>0</v>
       </c>
       <c r="J117" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K117" s="8"/>
       <c r="L117" s="8"/>
@@ -10633,7 +10585,7 @@
       <c r="P117" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q117" s="26" t="s">
+      <c r="Q117" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R117" s="21"/>
@@ -10642,10 +10594,10 @@
       <c r="A118" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="B118" s="29" t="s">
+      <c r="B118" s="28" t="s">
         <v>696</v>
       </c>
-      <c r="C118" s="27" t="s">
+      <c r="C118" s="26" t="s">
         <v>697</v>
       </c>
       <c r="D118" s="8" t="s">
@@ -10654,10 +10606,10 @@
       <c r="E118" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F118" s="27">
+      <c r="F118" s="26">
         <v>880</v>
       </c>
-      <c r="G118" s="27" t="s">
+      <c r="G118" s="26" t="s">
         <v>698</v>
       </c>
       <c r="H118" s="14" t="b">
@@ -10667,7 +10619,7 @@
         <v>0</v>
       </c>
       <c r="J118" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K118" s="8"/>
       <c r="L118" s="8"/>
@@ -10679,7 +10631,7 @@
       <c r="P118" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q118" s="26" t="s">
+      <c r="Q118" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R118" s="21"/>
@@ -10688,10 +10640,10 @@
       <c r="A119" s="5" t="s">
         <v>699</v>
       </c>
-      <c r="B119" s="29" t="s">
+      <c r="B119" s="28" t="s">
         <v>700</v>
       </c>
-      <c r="C119" s="27" t="s">
+      <c r="C119" s="26" t="s">
         <v>701</v>
       </c>
       <c r="D119" s="8" t="s">
@@ -10700,10 +10652,10 @@
       <c r="E119" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F119" s="27">
+      <c r="F119" s="26">
         <v>1480</v>
       </c>
-      <c r="G119" s="27" t="s">
+      <c r="G119" s="26" t="s">
         <v>702</v>
       </c>
       <c r="H119" s="14" t="b">
@@ -10713,7 +10665,7 @@
         <v>0</v>
       </c>
       <c r="J119" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K119" s="8"/>
       <c r="L119" s="8"/>
@@ -10725,7 +10677,7 @@
       <c r="P119" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q119" s="26" t="s">
+      <c r="Q119" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R119" s="21"/>
@@ -10734,10 +10686,10 @@
       <c r="A120" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="B120" s="29" t="s">
+      <c r="B120" s="28" t="s">
         <v>704</v>
       </c>
-      <c r="C120" s="27" t="s">
+      <c r="C120" s="26" t="s">
         <v>705</v>
       </c>
       <c r="D120" s="8" t="s">
@@ -10746,10 +10698,10 @@
       <c r="E120" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F120" s="27">
+      <c r="F120" s="26">
         <v>3680</v>
       </c>
-      <c r="G120" s="27" t="s">
+      <c r="G120" s="26" t="s">
         <v>706</v>
       </c>
       <c r="H120" s="14" t="b">
@@ -10759,7 +10711,7 @@
         <v>0</v>
       </c>
       <c r="J120" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K120" s="8"/>
       <c r="L120" s="8"/>
@@ -10771,7 +10723,7 @@
       <c r="P120" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q120" s="26" t="s">
+      <c r="Q120" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R120" s="21"/>
@@ -10780,10 +10732,10 @@
       <c r="A121" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="B121" s="29" t="s">
+      <c r="B121" s="28" t="s">
         <v>708</v>
       </c>
-      <c r="C121" s="27" t="s">
+      <c r="C121" s="26" t="s">
         <v>709</v>
       </c>
       <c r="D121" s="8" t="s">
@@ -10792,10 +10744,10 @@
       <c r="E121" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F121" s="27">
+      <c r="F121" s="26">
         <v>1180</v>
       </c>
-      <c r="G121" s="27" t="s">
+      <c r="G121" s="26" t="s">
         <v>676</v>
       </c>
       <c r="H121" s="14" t="b">
@@ -10805,7 +10757,7 @@
         <v>0</v>
       </c>
       <c r="J121" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K121" s="8"/>
       <c r="L121" s="8"/>
@@ -10817,7 +10769,7 @@
       <c r="P121" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q121" s="26" t="s">
+      <c r="Q121" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R121" s="21"/>
@@ -10826,10 +10778,10 @@
       <c r="A122" s="5" t="s">
         <v>710</v>
       </c>
-      <c r="B122" s="29" t="s">
+      <c r="B122" s="28" t="s">
         <v>711</v>
       </c>
-      <c r="C122" s="27" t="s">
+      <c r="C122" s="26" t="s">
         <v>712</v>
       </c>
       <c r="D122" s="8" t="s">
@@ -10838,10 +10790,10 @@
       <c r="E122" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F122" s="27">
+      <c r="F122" s="26">
         <v>2380</v>
       </c>
-      <c r="G122" s="27" t="s">
+      <c r="G122" s="26" t="s">
         <v>713</v>
       </c>
       <c r="H122" s="14" t="b">
@@ -10851,7 +10803,7 @@
         <v>0</v>
       </c>
       <c r="J122" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K122" s="8"/>
       <c r="L122" s="8"/>
@@ -10863,7 +10815,7 @@
       <c r="P122" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q122" s="26" t="s">
+      <c r="Q122" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R122" s="21"/>
@@ -10872,10 +10824,10 @@
       <c r="A123" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="B123" s="29" t="s">
+      <c r="B123" s="28" t="s">
         <v>715</v>
       </c>
-      <c r="C123" s="27" t="s">
+      <c r="C123" s="26" t="s">
         <v>716</v>
       </c>
       <c r="D123" s="8" t="s">
@@ -10884,10 +10836,10 @@
       <c r="E123" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F123" s="27">
+      <c r="F123" s="26">
         <v>1380</v>
       </c>
-      <c r="G123" s="27" t="s">
+      <c r="G123" s="26" t="s">
         <v>717</v>
       </c>
       <c r="H123" s="14" t="b">
@@ -10897,7 +10849,7 @@
         <v>0</v>
       </c>
       <c r="J123" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K123" s="8"/>
       <c r="L123" s="8"/>
@@ -10909,7 +10861,7 @@
       <c r="P123" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q123" s="26" t="s">
+      <c r="Q123" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R123" s="21"/>
@@ -10918,10 +10870,10 @@
       <c r="A124" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="B124" s="29" t="s">
+      <c r="B124" s="28" t="s">
         <v>719</v>
       </c>
-      <c r="C124" s="27" t="s">
+      <c r="C124" s="26" t="s">
         <v>720</v>
       </c>
       <c r="D124" s="8" t="s">
@@ -10930,10 +10882,10 @@
       <c r="E124" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F124" s="27">
+      <c r="F124" s="26">
         <v>1180</v>
       </c>
-      <c r="G124" s="27" t="s">
+      <c r="G124" s="26" t="s">
         <v>532</v>
       </c>
       <c r="H124" s="14" t="b">
@@ -10943,7 +10895,7 @@
         <v>0</v>
       </c>
       <c r="J124" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K124" s="8"/>
       <c r="L124" s="8"/>
@@ -10955,7 +10907,7 @@
       <c r="P124" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q124" s="26" t="s">
+      <c r="Q124" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R124" s="21"/>
@@ -10964,10 +10916,10 @@
       <c r="A125" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="B125" s="29" t="s">
+      <c r="B125" s="28" t="s">
         <v>722</v>
       </c>
-      <c r="C125" s="27" t="s">
+      <c r="C125" s="26" t="s">
         <v>723</v>
       </c>
       <c r="D125" s="8" t="s">
@@ -10976,10 +10928,10 @@
       <c r="E125" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F125" s="27">
+      <c r="F125" s="26">
         <v>1680</v>
       </c>
-      <c r="G125" s="27" t="s">
+      <c r="G125" s="26" t="s">
         <v>724</v>
       </c>
       <c r="H125" s="14" t="b">
@@ -10989,7 +10941,7 @@
         <v>0</v>
       </c>
       <c r="J125" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K125" s="8"/>
       <c r="L125" s="8"/>
@@ -11001,7 +10953,7 @@
       <c r="P125" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q125" s="26" t="s">
+      <c r="Q125" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R125" s="21"/>
@@ -11010,10 +10962,10 @@
       <c r="A126" s="5" t="s">
         <v>725</v>
       </c>
-      <c r="B126" s="29" t="s">
+      <c r="B126" s="28" t="s">
         <v>726</v>
       </c>
-      <c r="C126" s="27" t="s">
+      <c r="C126" s="26" t="s">
         <v>727</v>
       </c>
       <c r="D126" s="8" t="s">
@@ -11022,10 +10974,10 @@
       <c r="E126" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F126" s="27">
+      <c r="F126" s="26">
         <v>2180</v>
       </c>
-      <c r="G126" s="27" t="s">
+      <c r="G126" s="26" t="s">
         <v>625</v>
       </c>
       <c r="H126" s="14" t="b">
@@ -11035,7 +10987,7 @@
         <v>0</v>
       </c>
       <c r="J126" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K126" s="8"/>
       <c r="L126" s="8"/>
@@ -11047,7 +10999,7 @@
       <c r="P126" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q126" s="26" t="s">
+      <c r="Q126" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R126" s="21"/>
@@ -11056,10 +11008,10 @@
       <c r="A127" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="B127" s="29" t="s">
+      <c r="B127" s="28" t="s">
         <v>729</v>
       </c>
-      <c r="C127" s="27" t="s">
+      <c r="C127" s="26" t="s">
         <v>730</v>
       </c>
       <c r="D127" s="8" t="s">
@@ -11068,10 +11020,10 @@
       <c r="E127" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F127" s="27">
+      <c r="F127" s="26">
         <v>980</v>
       </c>
-      <c r="G127" s="27" t="s">
+      <c r="G127" s="26" t="s">
         <v>672</v>
       </c>
       <c r="H127" s="14" t="b">
@@ -11081,7 +11033,7 @@
         <v>0</v>
       </c>
       <c r="J127" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K127" s="8"/>
       <c r="L127" s="8"/>
@@ -11093,7 +11045,7 @@
       <c r="P127" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q127" s="26" t="s">
+      <c r="Q127" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R127" s="21"/>
@@ -11102,10 +11054,10 @@
       <c r="A128" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="B128" s="29" t="s">
+      <c r="B128" s="28" t="s">
         <v>732</v>
       </c>
-      <c r="C128" s="27" t="s">
+      <c r="C128" s="26" t="s">
         <v>733</v>
       </c>
       <c r="D128" s="8" t="s">
@@ -11114,10 +11066,10 @@
       <c r="E128" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F128" s="27">
+      <c r="F128" s="26">
         <v>1280</v>
       </c>
-      <c r="G128" s="27" t="s">
+      <c r="G128" s="26" t="s">
         <v>734</v>
       </c>
       <c r="H128" s="14" t="b">
@@ -11127,7 +11079,7 @@
         <v>0</v>
       </c>
       <c r="J128" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K128" s="8"/>
       <c r="L128" s="8"/>
@@ -11139,7 +11091,7 @@
       <c r="P128" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q128" s="26" t="s">
+      <c r="Q128" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R128" s="21"/>
@@ -11148,10 +11100,10 @@
       <c r="A129" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B129" s="27" t="s">
+      <c r="B129" s="26" t="s">
         <v>735</v>
       </c>
-      <c r="C129" s="27" t="s">
+      <c r="C129" s="26" t="s">
         <v>736</v>
       </c>
       <c r="D129" s="8" t="s">
@@ -11160,10 +11112,10 @@
       <c r="E129" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F129" s="27">
+      <c r="F129" s="26">
         <v>1080</v>
       </c>
-      <c r="G129" s="27" t="s">
+      <c r="G129" s="26" t="s">
         <v>598</v>
       </c>
       <c r="H129" s="14" t="b">
@@ -11173,7 +11125,7 @@
         <v>0</v>
       </c>
       <c r="J129" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K129" s="8"/>
       <c r="L129" s="8"/>
@@ -11185,7 +11137,7 @@
       <c r="P129" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q129" s="26" t="s">
+      <c r="Q129" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R129" s="21"/>
@@ -11194,10 +11146,10 @@
       <c r="A130" s="5" t="s">
         <v>737</v>
       </c>
-      <c r="B130" s="27" t="s">
+      <c r="B130" s="26" t="s">
         <v>738</v>
       </c>
-      <c r="C130" s="27" t="s">
+      <c r="C130" s="26" t="s">
         <v>739</v>
       </c>
       <c r="D130" s="8" t="s">
@@ -11206,10 +11158,10 @@
       <c r="E130" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F130" s="27">
+      <c r="F130" s="26">
         <v>1880</v>
       </c>
-      <c r="G130" s="27" t="s">
+      <c r="G130" s="26" t="s">
         <v>740</v>
       </c>
       <c r="H130" s="14" t="b">
@@ -11219,7 +11171,7 @@
         <v>0</v>
       </c>
       <c r="J130" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K130" s="8"/>
       <c r="L130" s="8"/>
@@ -11231,7 +11183,7 @@
       <c r="P130" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q130" s="26" t="s">
+      <c r="Q130" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R130" s="21"/>
@@ -11240,10 +11192,10 @@
       <c r="A131" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="B131" s="27" t="s">
+      <c r="B131" s="26" t="s">
         <v>742</v>
       </c>
-      <c r="C131" s="27" t="s">
+      <c r="C131" s="26" t="s">
         <v>743</v>
       </c>
       <c r="D131" s="8" t="s">
@@ -11252,10 +11204,10 @@
       <c r="E131" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F131" s="27">
+      <c r="F131" s="26">
         <v>2680</v>
       </c>
-      <c r="G131" s="27" t="s">
+      <c r="G131" s="26" t="s">
         <v>744</v>
       </c>
       <c r="H131" s="14" t="b">
@@ -11265,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J131" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K131" s="8"/>
       <c r="L131" s="8"/>
@@ -11277,7 +11229,7 @@
       <c r="P131" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q131" s="26" t="s">
+      <c r="Q131" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R131" s="21"/>
@@ -11286,10 +11238,10 @@
       <c r="A132" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="B132" s="29" t="s">
+      <c r="B132" s="28" t="s">
         <v>746</v>
       </c>
-      <c r="C132" s="27" t="s">
+      <c r="C132" s="26" t="s">
         <v>747</v>
       </c>
       <c r="D132" s="8" t="s">
@@ -11298,10 +11250,10 @@
       <c r="E132" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F132" s="27">
+      <c r="F132" s="26">
         <v>1380</v>
       </c>
-      <c r="G132" s="27" t="s">
+      <c r="G132" s="26" t="s">
         <v>748</v>
       </c>
       <c r="H132" s="14" t="b">
@@ -11311,7 +11263,7 @@
         <v>0</v>
       </c>
       <c r="J132" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K132" s="8"/>
       <c r="L132" s="8"/>
@@ -11323,7 +11275,7 @@
       <c r="P132" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q132" s="26" t="s">
+      <c r="Q132" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R132" s="21"/>
@@ -11332,10 +11284,10 @@
       <c r="A133" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="B133" s="29" t="s">
+      <c r="B133" s="28" t="s">
         <v>750</v>
       </c>
-      <c r="C133" s="27" t="s">
+      <c r="C133" s="26" t="s">
         <v>751</v>
       </c>
       <c r="D133" s="8" t="s">
@@ -11344,10 +11296,10 @@
       <c r="E133" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F133" s="27">
+      <c r="F133" s="26">
         <v>1480</v>
       </c>
-      <c r="G133" s="27" t="s">
+      <c r="G133" s="26" t="s">
         <v>752</v>
       </c>
       <c r="H133" s="14" t="b">
@@ -11357,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="J133" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K133" s="8"/>
       <c r="L133" s="8"/>
@@ -11369,7 +11321,7 @@
       <c r="P133" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q133" s="26" t="s">
+      <c r="Q133" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R133" s="21"/>
@@ -11378,22 +11330,22 @@
       <c r="A134" s="5" t="s">
         <v>753</v>
       </c>
-      <c r="B134" s="29" t="s">
+      <c r="B134" s="28" t="s">
         <v>754</v>
       </c>
-      <c r="C134" s="27" t="s">
+      <c r="C134" s="26" t="s">
         <v>755</v>
       </c>
-      <c r="D134" s="33" t="s">
+      <c r="D134" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="E134" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F134" s="27">
+      <c r="E134" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F134" s="26">
         <v>1580</v>
       </c>
-      <c r="G134" s="27" t="s">
+      <c r="G134" s="26" t="s">
         <v>756</v>
       </c>
       <c r="H134" s="14" t="b">
@@ -11403,7 +11355,7 @@
         <v>0</v>
       </c>
       <c r="J134" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K134" s="8"/>
       <c r="L134" s="8"/>
@@ -11415,7 +11367,7 @@
       <c r="P134" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q134" s="26" t="s">
+      <c r="Q134" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R134" s="21"/>
@@ -11424,22 +11376,22 @@
       <c r="A135" s="5" t="s">
         <v>757</v>
       </c>
-      <c r="B135" s="29" t="s">
+      <c r="B135" s="28" t="s">
         <v>758</v>
       </c>
-      <c r="C135" s="27" t="s">
+      <c r="C135" s="26" t="s">
         <v>759</v>
       </c>
-      <c r="D135" s="33" t="s">
+      <c r="D135" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="E135" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F135" s="27">
+      <c r="E135" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F135" s="26">
         <v>880</v>
       </c>
-      <c r="G135" s="27" t="s">
+      <c r="G135" s="26" t="s">
         <v>698</v>
       </c>
       <c r="H135" s="14" t="b">
@@ -11449,7 +11401,7 @@
         <v>0</v>
       </c>
       <c r="J135" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K135" s="8"/>
       <c r="L135" s="8"/>
@@ -11461,7 +11413,7 @@
       <c r="P135" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q135" s="26" t="s">
+      <c r="Q135" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R135" s="21"/>
@@ -11470,22 +11422,22 @@
       <c r="A136" s="5" t="s">
         <v>760</v>
       </c>
-      <c r="B136" s="29" t="s">
+      <c r="B136" s="28" t="s">
         <v>761</v>
       </c>
-      <c r="C136" s="27" t="s">
+      <c r="C136" s="26" t="s">
         <v>762</v>
       </c>
-      <c r="D136" s="33" t="s">
+      <c r="D136" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="E136" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F136" s="27">
+      <c r="E136" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F136" s="26">
         <v>1380</v>
       </c>
-      <c r="G136" s="27" t="s">
+      <c r="G136" s="26" t="s">
         <v>763</v>
       </c>
       <c r="H136" s="14" t="b">
@@ -11495,7 +11447,7 @@
         <v>0</v>
       </c>
       <c r="J136" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K136" s="8"/>
       <c r="L136" s="8"/>
@@ -11507,7 +11459,7 @@
       <c r="P136" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q136" s="26" t="s">
+      <c r="Q136" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R136" s="21"/>
@@ -11516,22 +11468,22 @@
       <c r="A137" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="B137" s="29" t="s">
+      <c r="B137" s="28" t="s">
         <v>765</v>
       </c>
-      <c r="C137" s="27" t="s">
+      <c r="C137" s="26" t="s">
         <v>766</v>
       </c>
-      <c r="D137" s="33" t="s">
+      <c r="D137" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="E137" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F137" s="27">
+      <c r="E137" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F137" s="26">
         <v>1580</v>
       </c>
-      <c r="G137" s="27" t="s">
+      <c r="G137" s="26" t="s">
         <v>767</v>
       </c>
       <c r="H137" s="14" t="b">
@@ -11541,7 +11493,7 @@
         <v>0</v>
       </c>
       <c r="J137" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K137" s="8"/>
       <c r="L137" s="8"/>
@@ -11553,7 +11505,7 @@
       <c r="P137" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q137" s="26" t="s">
+      <c r="Q137" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R137" s="21"/>
@@ -11562,22 +11514,22 @@
       <c r="A138" s="5" t="s">
         <v>768</v>
       </c>
-      <c r="B138" s="29" t="s">
+      <c r="B138" s="28" t="s">
         <v>769</v>
       </c>
-      <c r="C138" s="27" t="s">
+      <c r="C138" s="26" t="s">
         <v>770</v>
       </c>
-      <c r="D138" s="33" t="s">
+      <c r="D138" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="E138" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F138" s="27">
+      <c r="E138" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F138" s="26">
         <v>880</v>
       </c>
-      <c r="G138" s="27" t="s">
+      <c r="G138" s="26" t="s">
         <v>698</v>
       </c>
       <c r="H138" s="14" t="b">
@@ -11587,7 +11539,7 @@
         <v>0</v>
       </c>
       <c r="J138" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K138" s="8"/>
       <c r="L138" s="8"/>
@@ -11599,7 +11551,7 @@
       <c r="P138" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q138" s="26" t="s">
+      <c r="Q138" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R138" s="21"/>
@@ -11608,22 +11560,22 @@
       <c r="A139" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="B139" s="29" t="s">
+      <c r="B139" s="28" t="s">
         <v>772</v>
       </c>
-      <c r="C139" s="27" t="s">
+      <c r="C139" s="26" t="s">
         <v>773</v>
       </c>
-      <c r="D139" s="33" t="s">
+      <c r="D139" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="E139" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F139" s="27">
+      <c r="E139" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F139" s="26">
         <v>2380</v>
       </c>
-      <c r="G139" s="27" t="s">
+      <c r="G139" s="26" t="s">
         <v>713</v>
       </c>
       <c r="H139" s="14" t="b">
@@ -11633,7 +11585,7 @@
         <v>0</v>
       </c>
       <c r="J139" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K139" s="8"/>
       <c r="L139" s="8"/>
@@ -11645,7 +11597,7 @@
       <c r="P139" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q139" s="26" t="s">
+      <c r="Q139" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R139" s="21"/>
@@ -11654,22 +11606,22 @@
       <c r="A140" s="5" t="s">
         <v>774</v>
       </c>
-      <c r="B140" s="27" t="s">
+      <c r="B140" s="26" t="s">
         <v>775</v>
       </c>
-      <c r="C140" s="27" t="s">
+      <c r="C140" s="26" t="s">
         <v>776</v>
       </c>
-      <c r="D140" s="33" t="s">
+      <c r="D140" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E140" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F140" s="27">
+      <c r="E140" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F140" s="26">
         <v>880</v>
       </c>
-      <c r="G140" s="27" t="s">
+      <c r="G140" s="26" t="s">
         <v>698</v>
       </c>
       <c r="H140" s="14" t="b">
@@ -11679,7 +11631,7 @@
         <v>0</v>
       </c>
       <c r="J140" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K140" s="8"/>
       <c r="L140" s="8"/>
@@ -11691,7 +11643,7 @@
       <c r="P140" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q140" s="26" t="s">
+      <c r="Q140" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R140" s="21"/>
@@ -11700,22 +11652,22 @@
       <c r="A141" s="5" t="s">
         <v>777</v>
       </c>
-      <c r="B141" s="27" t="s">
+      <c r="B141" s="26" t="s">
         <v>778</v>
       </c>
-      <c r="C141" s="27" t="s">
+      <c r="C141" s="26" t="s">
         <v>779</v>
       </c>
-      <c r="D141" s="33" t="s">
+      <c r="D141" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E141" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F141" s="27">
+      <c r="E141" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F141" s="26">
         <v>780</v>
       </c>
-      <c r="G141" s="27" t="s">
+      <c r="G141" s="26" t="s">
         <v>780</v>
       </c>
       <c r="H141" s="14" t="b">
@@ -11725,7 +11677,7 @@
         <v>0</v>
       </c>
       <c r="J141" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K141" s="8"/>
       <c r="L141" s="8"/>
@@ -11737,7 +11689,7 @@
       <c r="P141" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q141" s="26" t="s">
+      <c r="Q141" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R141" s="21"/>
@@ -11746,22 +11698,22 @@
       <c r="A142" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="B142" s="27" t="s">
+      <c r="B142" s="26" t="s">
         <v>782</v>
       </c>
-      <c r="C142" s="27" t="s">
+      <c r="C142" s="26" t="s">
         <v>783</v>
       </c>
-      <c r="D142" s="33" t="s">
+      <c r="D142" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E142" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F142" s="27">
+      <c r="E142" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F142" s="26">
         <v>780</v>
       </c>
-      <c r="G142" s="27" t="s">
+      <c r="G142" s="26" t="s">
         <v>780</v>
       </c>
       <c r="H142" s="14" t="b">
@@ -11771,7 +11723,7 @@
         <v>0</v>
       </c>
       <c r="J142" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K142" s="8"/>
       <c r="L142" s="8"/>
@@ -11783,7 +11735,7 @@
       <c r="P142" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q142" s="26" t="s">
+      <c r="Q142" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R142" s="21"/>
@@ -11792,22 +11744,22 @@
       <c r="A143" s="5" t="s">
         <v>784</v>
       </c>
-      <c r="B143" s="27" t="s">
+      <c r="B143" s="26" t="s">
         <v>785</v>
       </c>
-      <c r="C143" s="27" t="s">
+      <c r="C143" s="26" t="s">
         <v>786</v>
       </c>
-      <c r="D143" s="33" t="s">
+      <c r="D143" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E143" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F143" s="27">
+      <c r="E143" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F143" s="26">
         <v>880</v>
       </c>
-      <c r="G143" s="27" t="s">
+      <c r="G143" s="26" t="s">
         <v>698</v>
       </c>
       <c r="H143" s="14" t="b">
@@ -11817,7 +11769,7 @@
         <v>0</v>
       </c>
       <c r="J143" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K143" s="8"/>
       <c r="L143" s="8"/>
@@ -11829,7 +11781,7 @@
       <c r="P143" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q143" s="26" t="s">
+      <c r="Q143" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R143" s="21"/>
@@ -11838,22 +11790,22 @@
       <c r="A144" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="B144" s="27" t="s">
+      <c r="B144" s="26" t="s">
         <v>788</v>
       </c>
-      <c r="C144" s="27" t="s">
+      <c r="C144" s="26" t="s">
         <v>789</v>
       </c>
-      <c r="D144" s="33" t="s">
+      <c r="D144" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E144" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F144" s="27">
+      <c r="E144" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F144" s="26">
         <v>1280</v>
       </c>
-      <c r="G144" s="27" t="s">
+      <c r="G144" s="26" t="s">
         <v>734</v>
       </c>
       <c r="H144" s="14" t="b">
@@ -11863,7 +11815,7 @@
         <v>0</v>
       </c>
       <c r="J144" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K144" s="8"/>
       <c r="L144" s="8"/>
@@ -11875,7 +11827,7 @@
       <c r="P144" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q144" s="26" t="s">
+      <c r="Q144" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R144" s="21"/>
@@ -11884,22 +11836,22 @@
       <c r="A145" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="B145" s="27" t="s">
+      <c r="B145" s="26" t="s">
         <v>791</v>
       </c>
-      <c r="C145" s="27" t="s">
+      <c r="C145" s="26" t="s">
         <v>792</v>
       </c>
-      <c r="D145" s="33" t="s">
+      <c r="D145" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E145" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F145" s="27">
+      <c r="E145" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F145" s="26">
         <v>1780</v>
       </c>
-      <c r="G145" s="27" t="s">
+      <c r="G145" s="26" t="s">
         <v>793</v>
       </c>
       <c r="H145" s="14" t="b">
@@ -11909,7 +11861,7 @@
         <v>0</v>
       </c>
       <c r="J145" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K145" s="8"/>
       <c r="L145" s="8"/>
@@ -11921,7 +11873,7 @@
       <c r="P145" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q145" s="26" t="s">
+      <c r="Q145" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R145" s="21"/>
@@ -11930,22 +11882,22 @@
       <c r="A146" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="B146" s="27" t="s">
+      <c r="B146" s="26" t="s">
         <v>795</v>
       </c>
-      <c r="C146" s="27" t="s">
+      <c r="C146" s="26" t="s">
         <v>796</v>
       </c>
-      <c r="D146" s="33" t="s">
+      <c r="D146" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E146" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F146" s="27">
+      <c r="E146" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F146" s="26">
         <v>1180</v>
       </c>
-      <c r="G146" s="27" t="s">
+      <c r="G146" s="26" t="s">
         <v>676</v>
       </c>
       <c r="H146" s="14" t="b">
@@ -11955,7 +11907,7 @@
         <v>0</v>
       </c>
       <c r="J146" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K146" s="8"/>
       <c r="L146" s="8"/>
@@ -11967,7 +11919,7 @@
       <c r="P146" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q146" s="26" t="s">
+      <c r="Q146" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R146" s="21"/>
@@ -11976,22 +11928,22 @@
       <c r="A147" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="B147" s="27" t="s">
+      <c r="B147" s="26" t="s">
         <v>798</v>
       </c>
-      <c r="C147" s="27" t="s">
+      <c r="C147" s="26" t="s">
         <v>799</v>
       </c>
-      <c r="D147" s="33" t="s">
+      <c r="D147" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E147" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F147" s="27">
+      <c r="E147" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F147" s="26">
         <v>1280</v>
       </c>
-      <c r="G147" s="27" t="s">
+      <c r="G147" s="26" t="s">
         <v>734</v>
       </c>
       <c r="H147" s="14" t="b">
@@ -12001,7 +11953,7 @@
         <v>0</v>
       </c>
       <c r="J147" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K147" s="8"/>
       <c r="L147" s="8"/>
@@ -12013,7 +11965,7 @@
       <c r="P147" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q147" s="26" t="s">
+      <c r="Q147" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R147" s="21"/>
@@ -12022,22 +11974,22 @@
       <c r="A148" s="5" t="s">
         <v>800</v>
       </c>
-      <c r="B148" s="27" t="s">
+      <c r="B148" s="26" t="s">
         <v>801</v>
       </c>
-      <c r="C148" s="27" t="s">
+      <c r="C148" s="26" t="s">
         <v>802</v>
       </c>
-      <c r="D148" s="33" t="s">
+      <c r="D148" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E148" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F148" s="27">
+      <c r="E148" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F148" s="26">
         <v>1780</v>
       </c>
-      <c r="G148" s="27" t="s">
+      <c r="G148" s="26" t="s">
         <v>803</v>
       </c>
       <c r="H148" s="14" t="b">
@@ -12047,7 +11999,7 @@
         <v>0</v>
       </c>
       <c r="J148" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K148" s="8"/>
       <c r="L148" s="8"/>
@@ -12059,7 +12011,7 @@
       <c r="P148" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q148" s="26" t="s">
+      <c r="Q148" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R148" s="21"/>
@@ -12068,22 +12020,22 @@
       <c r="A149" s="5" t="s">
         <v>804</v>
       </c>
-      <c r="B149" s="27" t="s">
+      <c r="B149" s="26" t="s">
         <v>805</v>
       </c>
-      <c r="C149" s="27" t="s">
+      <c r="C149" s="26" t="s">
         <v>806</v>
       </c>
-      <c r="D149" s="33" t="s">
+      <c r="D149" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E149" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F149" s="27">
+      <c r="E149" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F149" s="26">
         <v>2480</v>
       </c>
-      <c r="G149" s="27" t="s">
+      <c r="G149" s="26" t="s">
         <v>807</v>
       </c>
       <c r="H149" s="14" t="b">
@@ -12093,7 +12045,7 @@
         <v>0</v>
       </c>
       <c r="J149" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K149" s="8"/>
       <c r="L149" s="8"/>
@@ -12105,7 +12057,7 @@
       <c r="P149" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q149" s="26" t="s">
+      <c r="Q149" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R149" s="21"/>
@@ -12114,22 +12066,22 @@
       <c r="A150" s="5" t="s">
         <v>808</v>
       </c>
-      <c r="B150" s="29" t="s">
+      <c r="B150" s="28" t="s">
         <v>809</v>
       </c>
-      <c r="C150" s="27" t="s">
+      <c r="C150" s="26" t="s">
         <v>810</v>
       </c>
-      <c r="D150" s="33" t="s">
+      <c r="D150" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E150" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F150" s="27">
+      <c r="E150" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F150" s="26">
         <v>1180</v>
       </c>
-      <c r="G150" s="27" t="s">
+      <c r="G150" s="26" t="s">
         <v>532</v>
       </c>
       <c r="H150" s="14" t="b">
@@ -12139,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="J150" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K150" s="8"/>
       <c r="L150" s="8"/>
@@ -12151,7 +12103,7 @@
       <c r="P150" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q150" s="26" t="s">
+      <c r="Q150" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R150" s="21"/>
@@ -12160,22 +12112,22 @@
       <c r="A151" s="5" t="s">
         <v>811</v>
       </c>
-      <c r="B151" s="29" t="s">
+      <c r="B151" s="28" t="s">
         <v>812</v>
       </c>
-      <c r="C151" s="27" t="s">
+      <c r="C151" s="26" t="s">
         <v>813</v>
       </c>
-      <c r="D151" s="33" t="s">
+      <c r="D151" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E151" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F151" s="27">
+      <c r="E151" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F151" s="26">
         <v>980</v>
       </c>
-      <c r="G151" s="27" t="s">
+      <c r="G151" s="26" t="s">
         <v>672</v>
       </c>
       <c r="H151" s="14" t="b">
@@ -12185,7 +12137,7 @@
         <v>0</v>
       </c>
       <c r="J151" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K151" s="8"/>
       <c r="L151" s="8"/>
@@ -12197,7 +12149,7 @@
       <c r="P151" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q151" s="26" t="s">
+      <c r="Q151" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R151" s="21"/>
@@ -12206,22 +12158,22 @@
       <c r="A152" s="5" t="s">
         <v>814</v>
       </c>
-      <c r="B152" s="29" t="s">
+      <c r="B152" s="28" t="s">
         <v>815</v>
       </c>
-      <c r="C152" s="27" t="s">
+      <c r="C152" s="26" t="s">
         <v>816</v>
       </c>
-      <c r="D152" s="33" t="s">
+      <c r="D152" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E152" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F152" s="27">
+      <c r="E152" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F152" s="26">
         <v>1650</v>
       </c>
-      <c r="G152" s="27" t="s">
+      <c r="G152" s="26" t="s">
         <v>817</v>
       </c>
       <c r="H152" s="14" t="b">
@@ -12231,7 +12183,7 @@
         <v>0</v>
       </c>
       <c r="J152" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K152" s="8"/>
       <c r="L152" s="8"/>
@@ -12243,7 +12195,7 @@
       <c r="P152" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q152" s="26" t="s">
+      <c r="Q152" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R152" s="21"/>
@@ -12252,22 +12204,22 @@
       <c r="A153" s="5" t="s">
         <v>818</v>
       </c>
-      <c r="B153" s="29" t="s">
+      <c r="B153" s="28" t="s">
         <v>819</v>
       </c>
-      <c r="C153" s="27" t="s">
+      <c r="C153" s="26" t="s">
         <v>820</v>
       </c>
-      <c r="D153" s="33" t="s">
+      <c r="D153" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E153" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F153" s="27">
+      <c r="E153" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F153" s="26">
         <v>1100</v>
       </c>
-      <c r="G153" s="27" t="s">
+      <c r="G153" s="26" t="s">
         <v>821</v>
       </c>
       <c r="H153" s="14" t="b">
@@ -12277,7 +12229,7 @@
         <v>0</v>
       </c>
       <c r="J153" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K153" s="8"/>
       <c r="L153" s="8"/>
@@ -12289,7 +12241,7 @@
       <c r="P153" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q153" s="26" t="s">
+      <c r="Q153" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R153" s="21"/>
@@ -12298,22 +12250,22 @@
       <c r="A154" s="5" t="s">
         <v>822</v>
       </c>
-      <c r="B154" s="29" t="s">
+      <c r="B154" s="28" t="s">
         <v>823</v>
       </c>
-      <c r="C154" s="27" t="s">
+      <c r="C154" s="26" t="s">
         <v>824</v>
       </c>
-      <c r="D154" s="33" t="s">
+      <c r="D154" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E154" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F154" s="27">
+      <c r="E154" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F154" s="26">
         <v>980</v>
       </c>
-      <c r="G154" s="27" t="s">
+      <c r="G154" s="26" t="s">
         <v>672</v>
       </c>
       <c r="H154" s="14" t="b">
@@ -12323,7 +12275,7 @@
         <v>0</v>
       </c>
       <c r="J154" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K154" s="8"/>
       <c r="L154" s="8"/>
@@ -12335,7 +12287,7 @@
       <c r="P154" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q154" s="26" t="s">
+      <c r="Q154" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R154" s="21"/>
@@ -12344,22 +12296,22 @@
       <c r="A155" s="5" t="s">
         <v>825</v>
       </c>
-      <c r="B155" s="29" t="s">
+      <c r="B155" s="28" t="s">
         <v>826</v>
       </c>
-      <c r="C155" s="27" t="s">
+      <c r="C155" s="26" t="s">
         <v>827</v>
       </c>
-      <c r="D155" s="33" t="s">
+      <c r="D155" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E155" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F155" s="27">
+      <c r="E155" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F155" s="26">
         <v>1080</v>
       </c>
-      <c r="G155" s="27" t="s">
+      <c r="G155" s="26" t="s">
         <v>598</v>
       </c>
       <c r="H155" s="14" t="b">
@@ -12369,7 +12321,7 @@
         <v>0</v>
       </c>
       <c r="J155" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K155" s="8"/>
       <c r="L155" s="8"/>
@@ -12381,7 +12333,7 @@
       <c r="P155" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q155" s="26" t="s">
+      <c r="Q155" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R155" s="21"/>
@@ -12390,22 +12342,22 @@
       <c r="A156" s="5" t="s">
         <v>828</v>
       </c>
-      <c r="B156" s="29" t="s">
+      <c r="B156" s="28" t="s">
         <v>829</v>
       </c>
-      <c r="C156" s="27" t="s">
+      <c r="C156" s="26" t="s">
         <v>830</v>
       </c>
-      <c r="D156" s="33" t="s">
+      <c r="D156" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E156" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F156" s="27">
+      <c r="E156" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F156" s="26">
         <v>1680</v>
       </c>
-      <c r="G156" s="27" t="s">
+      <c r="G156" s="26" t="s">
         <v>831</v>
       </c>
       <c r="H156" s="14" t="b">
@@ -12415,7 +12367,7 @@
         <v>0</v>
       </c>
       <c r="J156" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K156" s="8"/>
       <c r="L156" s="8"/>
@@ -12427,7 +12379,7 @@
       <c r="P156" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q156" s="26" t="s">
+      <c r="Q156" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R156" s="21"/>
@@ -12436,22 +12388,22 @@
       <c r="A157" s="5" t="s">
         <v>832</v>
       </c>
-      <c r="B157" s="29" t="s">
+      <c r="B157" s="28" t="s">
         <v>833</v>
       </c>
-      <c r="C157" s="27" t="s">
+      <c r="C157" s="26" t="s">
         <v>834</v>
       </c>
-      <c r="D157" s="33" t="s">
+      <c r="D157" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E157" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F157" s="27">
+      <c r="E157" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F157" s="26">
         <v>980</v>
       </c>
-      <c r="G157" s="27" t="s">
+      <c r="G157" s="26" t="s">
         <v>672</v>
       </c>
       <c r="H157" s="14" t="b">
@@ -12461,7 +12413,7 @@
         <v>0</v>
       </c>
       <c r="J157" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K157" s="8"/>
       <c r="L157" s="8"/>
@@ -12473,7 +12425,7 @@
       <c r="P157" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q157" s="26" t="s">
+      <c r="Q157" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R157" s="21"/>
@@ -12482,22 +12434,22 @@
       <c r="A158" s="5" t="s">
         <v>835</v>
       </c>
-      <c r="B158" s="29" t="s">
+      <c r="B158" s="28" t="s">
         <v>836</v>
       </c>
-      <c r="C158" s="27" t="s">
+      <c r="C158" s="26" t="s">
         <v>837</v>
       </c>
-      <c r="D158" s="33" t="s">
+      <c r="D158" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E158" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F158" s="27">
+      <c r="E158" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F158" s="26">
         <v>1080</v>
       </c>
-      <c r="G158" s="27" t="s">
+      <c r="G158" s="26" t="s">
         <v>838</v>
       </c>
       <c r="H158" s="14" t="b">
@@ -12507,7 +12459,7 @@
         <v>0</v>
       </c>
       <c r="J158" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K158" s="8"/>
       <c r="L158" s="8"/>
@@ -12519,7 +12471,7 @@
       <c r="P158" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q158" s="26" t="s">
+      <c r="Q158" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R158" s="21"/>
@@ -12528,22 +12480,22 @@
       <c r="A159" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B159" s="29" t="s">
+      <c r="B159" s="28" t="s">
         <v>839</v>
       </c>
-      <c r="C159" s="27" t="s">
+      <c r="C159" s="26" t="s">
         <v>840</v>
       </c>
-      <c r="D159" s="33" t="s">
+      <c r="D159" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E159" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F159" s="27">
+      <c r="E159" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F159" s="26">
         <v>1480</v>
       </c>
-      <c r="G159" s="27" t="s">
+      <c r="G159" s="26" t="s">
         <v>841</v>
       </c>
       <c r="H159" s="14" t="b">
@@ -12553,7 +12505,7 @@
         <v>0</v>
       </c>
       <c r="J159" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K159" s="8"/>
       <c r="L159" s="8"/>
@@ -12565,7 +12517,7 @@
       <c r="P159" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q159" s="26" t="s">
+      <c r="Q159" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R159" s="21"/>
@@ -12574,22 +12526,22 @@
       <c r="A160" s="5" t="s">
         <v>842</v>
       </c>
-      <c r="B160" s="29" t="s">
+      <c r="B160" s="28" t="s">
         <v>843</v>
       </c>
-      <c r="C160" s="27" t="s">
+      <c r="C160" s="26" t="s">
         <v>844</v>
       </c>
-      <c r="D160" s="33" t="s">
+      <c r="D160" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E160" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F160" s="27">
+      <c r="E160" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F160" s="26">
         <v>3480</v>
       </c>
-      <c r="G160" s="27" t="s">
+      <c r="G160" s="26" t="s">
         <v>845</v>
       </c>
       <c r="H160" s="14" t="b">
@@ -12599,7 +12551,7 @@
         <v>0</v>
       </c>
       <c r="J160" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K160" s="8"/>
       <c r="L160" s="8"/>
@@ -12611,7 +12563,7 @@
       <c r="P160" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q160" s="26" t="s">
+      <c r="Q160" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R160" s="21"/>
@@ -12620,22 +12572,22 @@
       <c r="A161" s="5" t="s">
         <v>846</v>
       </c>
-      <c r="B161" s="29" t="s">
+      <c r="B161" s="28" t="s">
         <v>847</v>
       </c>
-      <c r="C161" s="27" t="s">
+      <c r="C161" s="26" t="s">
         <v>848</v>
       </c>
-      <c r="D161" s="33" t="s">
+      <c r="D161" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E161" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F161" s="27">
+      <c r="E161" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F161" s="26">
         <v>1280</v>
       </c>
-      <c r="G161" s="27" t="s">
+      <c r="G161" s="26" t="s">
         <v>680</v>
       </c>
       <c r="H161" s="14" t="b">
@@ -12645,7 +12597,7 @@
         <v>0</v>
       </c>
       <c r="J161" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K161" s="8"/>
       <c r="L161" s="8"/>
@@ -12657,7 +12609,7 @@
       <c r="P161" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q161" s="26" t="s">
+      <c r="Q161" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R161" s="21"/>
@@ -12666,22 +12618,22 @@
       <c r="A162" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="B162" s="29" t="s">
+      <c r="B162" s="28" t="s">
         <v>850</v>
       </c>
-      <c r="C162" s="27" t="s">
+      <c r="C162" s="26" t="s">
         <v>851</v>
       </c>
-      <c r="D162" s="33" t="s">
+      <c r="D162" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E162" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F162" s="27">
+      <c r="E162" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F162" s="26">
         <v>1680</v>
       </c>
-      <c r="G162" s="27" t="s">
+      <c r="G162" s="26" t="s">
         <v>831</v>
       </c>
       <c r="H162" s="14" t="b">
@@ -12691,7 +12643,7 @@
         <v>0</v>
       </c>
       <c r="J162" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K162" s="8"/>
       <c r="L162" s="8"/>
@@ -12703,7 +12655,7 @@
       <c r="P162" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q162" s="26" t="s">
+      <c r="Q162" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R162" s="21"/>
@@ -12712,22 +12664,22 @@
       <c r="A163" s="5" t="s">
         <v>852</v>
       </c>
-      <c r="B163" s="29" t="s">
+      <c r="B163" s="28" t="s">
         <v>853</v>
       </c>
-      <c r="C163" s="27" t="s">
+      <c r="C163" s="26" t="s">
         <v>854</v>
       </c>
-      <c r="D163" s="33" t="s">
+      <c r="D163" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E163" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F163" s="27">
+      <c r="E163" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F163" s="26">
         <v>2680</v>
       </c>
-      <c r="G163" s="27" t="s">
+      <c r="G163" s="26" t="s">
         <v>744</v>
       </c>
       <c r="H163" s="14" t="b">
@@ -12737,7 +12689,7 @@
         <v>0</v>
       </c>
       <c r="J163" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K163" s="8"/>
       <c r="L163" s="8"/>
@@ -12749,7 +12701,7 @@
       <c r="P163" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q163" s="26" t="s">
+      <c r="Q163" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R163" s="21"/>
@@ -12758,22 +12710,22 @@
       <c r="A164" s="5" t="s">
         <v>855</v>
       </c>
-      <c r="B164" s="29" t="s">
+      <c r="B164" s="28" t="s">
         <v>856</v>
       </c>
-      <c r="C164" s="27" t="s">
+      <c r="C164" s="26" t="s">
         <v>857</v>
       </c>
-      <c r="D164" s="33" t="s">
+      <c r="D164" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E164" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F164" s="27">
+      <c r="E164" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F164" s="26">
         <v>3680</v>
       </c>
-      <c r="G164" s="27" t="s">
+      <c r="G164" s="26" t="s">
         <v>858</v>
       </c>
       <c r="H164" s="14" t="b">
@@ -12783,7 +12735,7 @@
         <v>0</v>
       </c>
       <c r="J164" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K164" s="8"/>
       <c r="L164" s="8"/>
@@ -12795,7 +12747,7 @@
       <c r="P164" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q164" s="26" t="s">
+      <c r="Q164" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R164" s="21"/>
@@ -12804,19 +12756,19 @@
       <c r="A165" s="5" t="s">
         <v>859</v>
       </c>
-      <c r="B165" s="29" t="s">
+      <c r="B165" s="28" t="s">
         <v>860</v>
       </c>
-      <c r="C165" s="27" t="s">
+      <c r="C165" s="26" t="s">
         <v>861</v>
       </c>
-      <c r="D165" s="33" t="s">
+      <c r="D165" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="E165" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F165" s="27">
+      <c r="E165" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F165" s="26">
         <v>28</v>
       </c>
       <c r="G165" s="13" t="s">
@@ -12829,7 +12781,7 @@
         <v>0</v>
       </c>
       <c r="J165" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K165" s="8"/>
       <c r="L165" s="8"/>
@@ -12841,7 +12793,7 @@
       <c r="P165" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q165" s="26" t="s">
+      <c r="Q165" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R165" s="21"/>
@@ -12850,19 +12802,19 @@
       <c r="A166" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="B166" s="29" t="s">
+      <c r="B166" s="28" t="s">
         <v>864</v>
       </c>
-      <c r="C166" s="27" t="s">
+      <c r="C166" s="26" t="s">
         <v>865</v>
       </c>
-      <c r="D166" s="33" t="s">
+      <c r="D166" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="E166" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F166" s="27">
+      <c r="E166" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F166" s="26">
         <v>35</v>
       </c>
       <c r="G166" s="13" t="s">
@@ -12875,7 +12827,7 @@
         <v>0</v>
       </c>
       <c r="J166" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K166" s="8"/>
       <c r="L166" s="8"/>
@@ -12887,7 +12839,7 @@
       <c r="P166" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q166" s="26" t="s">
+      <c r="Q166" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R166" s="21"/>
@@ -12896,19 +12848,19 @@
       <c r="A167" s="5" t="s">
         <v>867</v>
       </c>
-      <c r="B167" s="29" t="s">
+      <c r="B167" s="28" t="s">
         <v>868</v>
       </c>
-      <c r="C167" s="27" t="s">
+      <c r="C167" s="26" t="s">
         <v>869</v>
       </c>
-      <c r="D167" s="33" t="s">
+      <c r="D167" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="E167" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F167" s="27">
+      <c r="E167" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F167" s="26">
         <v>30</v>
       </c>
       <c r="G167" s="13" t="s">
@@ -12921,7 +12873,7 @@
         <v>0</v>
       </c>
       <c r="J167" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K167" s="8"/>
       <c r="L167" s="8"/>
@@ -12933,7 +12885,7 @@
       <c r="P167" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q167" s="26" t="s">
+      <c r="Q167" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R167" s="21"/>
@@ -12942,22 +12894,22 @@
       <c r="A168" s="5" t="s">
         <v>871</v>
       </c>
-      <c r="B168" s="29" t="s">
+      <c r="B168" s="28" t="s">
         <v>872</v>
       </c>
-      <c r="C168" s="27" t="s">
+      <c r="C168" s="26" t="s">
         <v>873</v>
       </c>
-      <c r="D168" s="33" t="s">
+      <c r="D168" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E168" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F168" s="27">
+      <c r="E168" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F168" s="26">
         <v>1080</v>
       </c>
-      <c r="G168" s="27" t="s">
+      <c r="G168" s="26" t="s">
         <v>598</v>
       </c>
       <c r="H168" s="14" t="b">
@@ -12967,7 +12919,7 @@
         <v>0</v>
       </c>
       <c r="J168" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K168" s="8"/>
       <c r="L168" s="8"/>
@@ -12979,7 +12931,7 @@
       <c r="P168" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q168" s="26" t="s">
+      <c r="Q168" s="25" t="s">
         <v>118</v>
       </c>
       <c r="R168" s="21"/>
@@ -12988,16 +12940,16 @@
       <c r="A169" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B169" s="33" t="s">
+      <c r="B169" s="31" t="s">
         <v>874</v>
       </c>
-      <c r="C169" s="33" t="s">
+      <c r="C169" s="31" t="s">
         <v>875</v>
       </c>
       <c r="D169" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E169" s="33" t="s">
+      <c r="E169" s="31" t="s">
         <v>110</v>
       </c>
       <c r="F169" s="8" t="s">
@@ -13019,7 +12971,7 @@
         <v>878</v>
       </c>
       <c r="L169" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M169" s="21" t="s">
         <v>879</v>
@@ -13033,7 +12985,7 @@
       <c r="P169" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q169" s="26" t="b">
+      <c r="Q169" s="25" t="b">
         <v>1</v>
       </c>
       <c r="R169" s="21"/>
@@ -13042,16 +12994,16 @@
       <c r="A170" s="5" t="s">
         <v>881</v>
       </c>
-      <c r="B170" s="34" t="s">
+      <c r="B170" s="32" t="s">
         <v>882</v>
       </c>
-      <c r="C170" s="33" t="s">
+      <c r="C170" s="31" t="s">
         <v>883</v>
       </c>
       <c r="D170" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E170" s="33" t="s">
+      <c r="E170" s="31" t="s">
         <v>110</v>
       </c>
       <c r="F170" s="8" t="s">
@@ -13073,7 +13025,7 @@
         <v>884</v>
       </c>
       <c r="L170" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M170" s="21" t="s">
         <v>885</v>
@@ -13087,7 +13039,7 @@
       <c r="P170" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q170" s="26" t="b">
+      <c r="Q170" s="25" t="b">
         <v>1</v>
       </c>
       <c r="R170" s="21"/>
@@ -13096,16 +13048,16 @@
       <c r="A171" s="5" t="s">
         <v>887</v>
       </c>
-      <c r="B171" s="33" t="s">
+      <c r="B171" s="31" t="s">
         <v>888</v>
       </c>
-      <c r="C171" s="33" t="s">
+      <c r="C171" s="31" t="s">
         <v>889</v>
       </c>
       <c r="D171" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E171" s="33" t="s">
+      <c r="E171" s="31" t="s">
         <v>110</v>
       </c>
       <c r="F171" s="8" t="s">
@@ -13127,7 +13079,7 @@
         <v>890</v>
       </c>
       <c r="L171" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M171" s="21" t="s">
         <v>891</v>
@@ -13141,7 +13093,7 @@
       <c r="P171" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q171" s="26" t="b">
+      <c r="Q171" s="25" t="b">
         <v>1</v>
       </c>
       <c r="R171" s="21"/>
@@ -13150,38 +13102,38 @@
       <c r="A172" s="5" t="s">
         <v>893</v>
       </c>
-      <c r="B172" s="33" t="s">
+      <c r="B172" s="31" t="s">
         <v>894</v>
       </c>
-      <c r="C172" s="33" t="s">
+      <c r="C172" s="31" t="s">
         <v>895</v>
       </c>
-      <c r="D172" s="33" t="s">
+      <c r="D172" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="E172" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F172" s="33" t="s">
+      <c r="E172" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F172" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="G172" s="33" t="s">
+      <c r="G172" s="31" t="s">
         <v>876</v>
       </c>
-      <c r="H172" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I172" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J172" s="33" t="s">
+      <c r="H172" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I172" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J172" s="31" t="s">
         <v>877</v>
       </c>
       <c r="K172" s="8" t="s">
         <v>896</v>
       </c>
-      <c r="L172" s="33" t="s">
-        <v>285</v>
+      <c r="L172" s="31" t="s">
+        <v>286</v>
       </c>
       <c r="M172" s="21" t="s">
         <v>897</v>
@@ -13189,13 +13141,13 @@
       <c r="N172" s="22" t="s">
         <v>898</v>
       </c>
-      <c r="O172" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="P172" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q172" s="42" t="s">
+      <c r="O172" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="P172" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q172" s="37" t="s">
         <v>118</v>
       </c>
       <c r="R172" s="21"/>
@@ -13204,44 +13156,44 @@
       <c r="A173" s="5" t="s">
         <v>899</v>
       </c>
-      <c r="B173" s="33" t="s">
+      <c r="B173" s="31" t="s">
         <v>900</v>
       </c>
-      <c r="C173" s="33" t="s">
+      <c r="C173" s="31" t="s">
         <v>901</v>
       </c>
       <c r="D173" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E173" s="33" t="s">
+      <c r="E173" s="31" t="s">
         <v>110</v>
       </c>
       <c r="F173" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="G173" s="33" t="s">
+      <c r="G173" s="31" t="s">
         <v>902</v>
       </c>
-      <c r="H173" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I173" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J173" s="33" t="s">
+      <c r="H173" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I173" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J173" s="31" t="s">
         <v>877</v>
       </c>
       <c r="K173" s="8"/>
       <c r="L173" s="8"/>
       <c r="M173" s="21"/>
       <c r="N173" s="22"/>
-      <c r="O173" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="P173" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q173" s="42" t="s">
+      <c r="O173" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="P173" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q173" s="37" t="s">
         <v>118</v>
       </c>
       <c r="R173" s="21"/>
@@ -13250,44 +13202,44 @@
       <c r="A174" s="5" t="s">
         <v>903</v>
       </c>
-      <c r="B174" s="33" t="s">
+      <c r="B174" s="31" t="s">
         <v>904</v>
       </c>
-      <c r="C174" s="33" t="s">
+      <c r="C174" s="31" t="s">
         <v>905</v>
       </c>
       <c r="D174" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E174" s="33" t="s">
+      <c r="E174" s="31" t="s">
         <v>110</v>
       </c>
       <c r="F174" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G174" s="33" t="s">
+      <c r="G174" s="31" t="s">
         <v>906</v>
       </c>
-      <c r="H174" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I174" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J174" s="33" t="s">
+      <c r="H174" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I174" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J174" s="31" t="s">
         <v>877</v>
       </c>
       <c r="K174" s="8"/>
       <c r="L174" s="8"/>
       <c r="M174" s="21"/>
       <c r="N174" s="22"/>
-      <c r="O174" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="P174" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q174" s="42" t="s">
+      <c r="O174" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="P174" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q174" s="37" t="s">
         <v>118</v>
       </c>
       <c r="R174" s="21"/>
@@ -13296,44 +13248,44 @@
       <c r="A175" s="5" t="s">
         <v>907</v>
       </c>
-      <c r="B175" s="33" t="s">
+      <c r="B175" s="31" t="s">
         <v>908</v>
       </c>
-      <c r="C175" s="33" t="s">
+      <c r="C175" s="31" t="s">
         <v>909</v>
       </c>
       <c r="D175" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E175" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F175" s="33" t="s">
+      <c r="E175" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F175" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="G175" s="33" t="s">
+      <c r="G175" s="31" t="s">
         <v>870</v>
       </c>
-      <c r="H175" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I175" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J175" s="33" t="s">
+      <c r="H175" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I175" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J175" s="31" t="s">
         <v>877</v>
       </c>
       <c r="K175" s="8"/>
       <c r="L175" s="8"/>
       <c r="M175" s="21"/>
       <c r="N175" s="22"/>
-      <c r="O175" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="P175" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q175" s="42" t="s">
+      <c r="O175" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="P175" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q175" s="37" t="s">
         <v>118</v>
       </c>
       <c r="R175" s="21"/>
@@ -13342,44 +13294,44 @@
       <c r="A176" s="5" t="s">
         <v>910</v>
       </c>
-      <c r="B176" s="33" t="s">
+      <c r="B176" s="31" t="s">
         <v>911</v>
       </c>
-      <c r="C176" s="33" t="s">
+      <c r="C176" s="31" t="s">
         <v>912</v>
       </c>
       <c r="D176" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E176" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F176" s="33" t="s">
+      <c r="E176" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F176" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="G176" s="33" t="s">
+      <c r="G176" s="31" t="s">
         <v>870</v>
       </c>
-      <c r="H176" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I176" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J176" s="33" t="s">
+      <c r="H176" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I176" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J176" s="31" t="s">
         <v>877</v>
       </c>
       <c r="K176" s="8"/>
       <c r="L176" s="8"/>
       <c r="M176" s="21"/>
       <c r="N176" s="22"/>
-      <c r="O176" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="P176" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q176" s="42" t="s">
+      <c r="O176" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="P176" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q176" s="37" t="s">
         <v>118</v>
       </c>
       <c r="R176" s="21"/>
@@ -13388,44 +13340,44 @@
       <c r="A177" s="5" t="s">
         <v>913</v>
       </c>
-      <c r="B177" s="33" t="s">
+      <c r="B177" s="31" t="s">
         <v>914</v>
       </c>
-      <c r="C177" s="33" t="s">
+      <c r="C177" s="31" t="s">
         <v>915</v>
       </c>
       <c r="D177" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E177" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F177" s="33" t="s">
+      <c r="E177" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F177" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="G177" s="33" t="s">
+      <c r="G177" s="31" t="s">
         <v>870</v>
       </c>
-      <c r="H177" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I177" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J177" s="33" t="s">
+      <c r="H177" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I177" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J177" s="31" t="s">
         <v>877</v>
       </c>
       <c r="K177" s="8"/>
       <c r="L177" s="8"/>
       <c r="M177" s="21"/>
       <c r="N177" s="22"/>
-      <c r="O177" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="P177" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q177" s="42" t="s">
+      <c r="O177" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="P177" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q177" s="37" t="s">
         <v>118</v>
       </c>
       <c r="R177" s="21"/>
@@ -13434,44 +13386,44 @@
       <c r="A178" s="5" t="s">
         <v>916</v>
       </c>
-      <c r="B178" s="33" t="s">
+      <c r="B178" s="31" t="s">
         <v>917</v>
       </c>
-      <c r="C178" s="33" t="s">
+      <c r="C178" s="31" t="s">
         <v>918</v>
       </c>
       <c r="D178" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E178" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F178" s="33" t="s">
+      <c r="E178" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F178" s="31" t="s">
         <v>311</v>
       </c>
-      <c r="G178" s="33" t="s">
+      <c r="G178" s="31" t="s">
         <v>870</v>
       </c>
-      <c r="H178" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I178" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J178" s="33" t="s">
+      <c r="H178" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I178" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J178" s="31" t="s">
         <v>877</v>
       </c>
       <c r="K178" s="8"/>
       <c r="L178" s="8"/>
       <c r="M178" s="21"/>
       <c r="N178" s="22"/>
-      <c r="O178" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="P178" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q178" s="42" t="s">
+      <c r="O178" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="P178" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q178" s="37" t="s">
         <v>118</v>
       </c>
       <c r="R178" s="21"/>
@@ -13480,22 +13432,22 @@
       <c r="A179" s="5" t="s">
         <v>919</v>
       </c>
-      <c r="B179" s="35" t="s">
+      <c r="B179" s="33" t="s">
         <v>920</v>
       </c>
-      <c r="C179" s="35" t="s">
+      <c r="C179" s="33" t="s">
         <v>921</v>
       </c>
       <c r="D179" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E179" s="35" t="s">
+      <c r="E179" s="33" t="s">
         <v>110</v>
       </c>
       <c r="F179" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="G179" s="38" t="s">
+      <c r="G179" s="10" t="s">
         <v>237</v>
       </c>
       <c r="H179" s="16" t="b">
@@ -13510,40 +13462,40 @@
       <c r="K179" s="15" t="s">
         <v>923</v>
       </c>
-      <c r="L179" s="36"/>
-      <c r="M179" s="40"/>
-      <c r="N179" s="41"/>
-      <c r="O179" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="P179" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q179" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="R179" s="40"/>
+      <c r="L179" s="34"/>
+      <c r="M179" s="15"/>
+      <c r="N179" s="36"/>
+      <c r="O179" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="P179" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q179" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="R179" s="15"/>
     </row>
     <row r="180" customFormat="1" customHeight="1" spans="1:18">
       <c r="A180" s="5" t="s">
         <v>924</v>
       </c>
-      <c r="B180" s="35" t="s">
+      <c r="B180" s="33" t="s">
         <v>925</v>
       </c>
-      <c r="C180" s="35" t="s">
+      <c r="C180" s="33" t="s">
         <v>926</v>
       </c>
       <c r="D180" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E180" s="35" t="s">
+      <c r="E180" s="33" t="s">
         <v>110</v>
       </c>
       <c r="F180" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="G180" s="38" t="s">
+      <c r="G180" s="10" t="s">
         <v>237</v>
       </c>
       <c r="H180" s="16" t="b">
@@ -13558,40 +13510,40 @@
       <c r="K180" s="15" t="s">
         <v>927</v>
       </c>
-      <c r="L180" s="36"/>
-      <c r="M180" s="40"/>
-      <c r="N180" s="41"/>
-      <c r="O180" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="P180" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q180" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="R180" s="40"/>
+      <c r="L180" s="34"/>
+      <c r="M180" s="15"/>
+      <c r="N180" s="36"/>
+      <c r="O180" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="P180" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q180" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="R180" s="15"/>
     </row>
     <row r="181" customFormat="1" customHeight="1" spans="1:18">
       <c r="A181" s="5" t="s">
         <v>928</v>
       </c>
-      <c r="B181" s="35" t="s">
+      <c r="B181" s="33" t="s">
         <v>929</v>
       </c>
-      <c r="C181" s="35" t="s">
+      <c r="C181" s="33" t="s">
         <v>930</v>
       </c>
       <c r="D181" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E181" s="35" t="s">
+      <c r="E181" s="33" t="s">
         <v>110</v>
       </c>
       <c r="F181" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="G181" s="38" t="s">
+      <c r="G181" s="10" t="s">
         <v>237</v>
       </c>
       <c r="H181" s="16" t="b">
@@ -13606,46 +13558,46 @@
       <c r="K181" s="15" t="s">
         <v>931</v>
       </c>
-      <c r="L181" s="36"/>
-      <c r="M181" s="40"/>
-      <c r="N181" s="41"/>
-      <c r="O181" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="P181" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q181" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="R181" s="40"/>
+      <c r="L181" s="34"/>
+      <c r="M181" s="15"/>
+      <c r="N181" s="36"/>
+      <c r="O181" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="P181" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q181" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="R181" s="15"/>
     </row>
     <row r="182" customFormat="1" customHeight="1" spans="1:18">
       <c r="A182" s="5" t="s">
         <v>932</v>
       </c>
-      <c r="B182" s="35" t="s">
+      <c r="B182" s="33" t="s">
         <v>933</v>
       </c>
-      <c r="C182" s="35" t="s">
+      <c r="C182" s="33" t="s">
         <v>934</v>
       </c>
       <c r="D182" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E182" s="35" t="s">
+      <c r="E182" s="33" t="s">
         <v>110</v>
       </c>
       <c r="F182" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="G182" s="38" t="s">
+      <c r="G182" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="H182" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I182" s="39" t="b">
+      <c r="H182" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I182" s="16" t="b">
         <v>0</v>
       </c>
       <c r="J182" s="15" t="s">
@@ -13654,46 +13606,46 @@
       <c r="K182" s="15" t="s">
         <v>935</v>
       </c>
-      <c r="L182" s="36"/>
-      <c r="M182" s="40"/>
-      <c r="N182" s="41"/>
-      <c r="O182" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="P182" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q182" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="R182" s="40"/>
+      <c r="L182" s="34"/>
+      <c r="M182" s="15"/>
+      <c r="N182" s="36"/>
+      <c r="O182" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="P182" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q182" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="R182" s="15"/>
     </row>
     <row r="183" customFormat="1" customHeight="1" spans="1:18">
       <c r="A183" s="5" t="s">
         <v>936</v>
       </c>
-      <c r="B183" s="35" t="s">
+      <c r="B183" s="33" t="s">
         <v>937</v>
       </c>
-      <c r="C183" s="35" t="s">
+      <c r="C183" s="33" t="s">
         <v>938</v>
       </c>
       <c r="D183" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E183" s="35" t="s">
+      <c r="E183" s="33" t="s">
         <v>110</v>
       </c>
       <c r="F183" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="G183" s="38" t="s">
+      <c r="G183" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="H183" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I183" s="39" t="b">
+      <c r="H183" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I183" s="16" t="b">
         <v>0</v>
       </c>
       <c r="J183" s="15" t="s">
@@ -13703,45 +13655,45 @@
         <v>939</v>
       </c>
       <c r="L183" s="15"/>
-      <c r="M183" s="40"/>
-      <c r="N183" s="41"/>
-      <c r="O183" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="P183" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q183" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="R183" s="40"/>
+      <c r="M183" s="15"/>
+      <c r="N183" s="36"/>
+      <c r="O183" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="P183" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q183" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="R183" s="15"/>
     </row>
     <row r="184" customFormat="1" customHeight="1" spans="1:18">
       <c r="A184" s="5" t="s">
         <v>940</v>
       </c>
-      <c r="B184" s="36" t="s">
+      <c r="B184" s="34" t="s">
         <v>941</v>
       </c>
-      <c r="C184" s="35" t="s">
+      <c r="C184" s="33" t="s">
         <v>942</v>
       </c>
       <c r="D184" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E184" s="35" t="s">
+      <c r="E184" s="33" t="s">
         <v>110</v>
       </c>
       <c r="F184" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="G184" s="38" t="s">
+      <c r="G184" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="H184" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I184" s="39" t="b">
+      <c r="H184" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I184" s="16" t="b">
         <v>0</v>
       </c>
       <c r="J184" s="15" t="s">
@@ -13751,45 +13703,45 @@
         <v>943</v>
       </c>
       <c r="L184" s="15"/>
-      <c r="M184" s="40"/>
-      <c r="N184" s="41"/>
-      <c r="O184" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="P184" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q184" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="R184" s="40"/>
+      <c r="M184" s="15"/>
+      <c r="N184" s="36"/>
+      <c r="O184" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="P184" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q184" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="R184" s="15"/>
     </row>
     <row r="185" customFormat="1" customHeight="1" spans="1:18">
       <c r="A185" s="5" t="s">
         <v>944</v>
       </c>
-      <c r="B185" s="35" t="s">
+      <c r="B185" s="33" t="s">
         <v>945</v>
       </c>
-      <c r="C185" s="35" t="s">
+      <c r="C185" s="33" t="s">
         <v>946</v>
       </c>
       <c r="D185" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E185" s="35" t="s">
+      <c r="E185" s="33" t="s">
         <v>110</v>
       </c>
       <c r="F185" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="G185" s="38" t="s">
+      <c r="G185" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="H185" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I185" s="39" t="b">
+      <c r="H185" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I185" s="16" t="b">
         <v>0</v>
       </c>
       <c r="J185" s="15" t="s">
@@ -13799,144 +13751,144 @@
         <v>947</v>
       </c>
       <c r="L185" s="15"/>
-      <c r="M185" s="41"/>
+      <c r="M185" s="36"/>
       <c r="N185" s="15"/>
-      <c r="O185" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="P185" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q185" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="R185" s="40"/>
+      <c r="O185" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="P185" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q185" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="R185" s="15"/>
     </row>
     <row r="186" customHeight="1" spans="1:1">
-      <c r="A186" s="37"/>
+      <c r="A186" s="35"/>
     </row>
     <row r="187" customHeight="1" spans="1:1">
-      <c r="A187" s="37"/>
+      <c r="A187" s="35"/>
     </row>
     <row r="188" customHeight="1" spans="1:1">
-      <c r="A188" s="37"/>
+      <c r="A188" s="35"/>
     </row>
     <row r="189" customHeight="1" spans="1:1">
-      <c r="A189" s="37"/>
+      <c r="A189" s="35"/>
     </row>
     <row r="190" customHeight="1" spans="1:1">
-      <c r="A190" s="37"/>
+      <c r="A190" s="35"/>
     </row>
     <row r="191" customHeight="1" spans="1:1">
-      <c r="A191" s="37"/>
+      <c r="A191" s="35"/>
     </row>
     <row r="192" customHeight="1" spans="1:1">
-      <c r="A192" s="37"/>
+      <c r="A192" s="35"/>
     </row>
     <row r="193" customHeight="1" spans="1:1">
-      <c r="A193" s="37"/>
+      <c r="A193" s="35"/>
     </row>
     <row r="194" customHeight="1" spans="1:1">
-      <c r="A194" s="37"/>
+      <c r="A194" s="35"/>
     </row>
     <row r="195" customHeight="1" spans="1:1">
-      <c r="A195" s="37"/>
+      <c r="A195" s="35"/>
     </row>
     <row r="196" customHeight="1" spans="1:1">
-      <c r="A196" s="37"/>
+      <c r="A196" s="35"/>
     </row>
     <row r="197" customHeight="1" spans="1:1">
-      <c r="A197" s="37"/>
+      <c r="A197" s="35"/>
     </row>
     <row r="198" customHeight="1" spans="1:1">
-      <c r="A198" s="37"/>
+      <c r="A198" s="35"/>
     </row>
     <row r="199" customHeight="1" spans="1:1">
-      <c r="A199" s="37"/>
+      <c r="A199" s="35"/>
     </row>
     <row r="200" customHeight="1" spans="1:1">
-      <c r="A200" s="37"/>
+      <c r="A200" s="35"/>
     </row>
     <row r="201" customHeight="1" spans="1:1">
-      <c r="A201" s="37"/>
+      <c r="A201" s="35"/>
     </row>
     <row r="202" customHeight="1" spans="1:1">
-      <c r="A202" s="37"/>
+      <c r="A202" s="35"/>
     </row>
     <row r="203" customHeight="1" spans="1:1">
-      <c r="A203" s="37"/>
+      <c r="A203" s="35"/>
     </row>
     <row r="204" customHeight="1" spans="1:1">
-      <c r="A204" s="37"/>
+      <c r="A204" s="35"/>
     </row>
     <row r="205" customHeight="1" spans="1:1">
-      <c r="A205" s="37"/>
+      <c r="A205" s="35"/>
     </row>
     <row r="206" customHeight="1" spans="1:1">
-      <c r="A206" s="37"/>
+      <c r="A206" s="35"/>
     </row>
     <row r="207" customHeight="1" spans="1:1">
-      <c r="A207" s="37"/>
+      <c r="A207" s="35"/>
     </row>
     <row r="208" customHeight="1" spans="1:1">
-      <c r="A208" s="37"/>
+      <c r="A208" s="35"/>
     </row>
     <row r="209" customHeight="1" spans="1:1">
-      <c r="A209" s="37"/>
+      <c r="A209" s="35"/>
     </row>
     <row r="210" customHeight="1" spans="1:1">
-      <c r="A210" s="37"/>
+      <c r="A210" s="35"/>
     </row>
     <row r="211" customHeight="1" spans="1:1">
-      <c r="A211" s="37"/>
+      <c r="A211" s="35"/>
     </row>
     <row r="212" customHeight="1" spans="1:1">
-      <c r="A212" s="37"/>
+      <c r="A212" s="35"/>
     </row>
     <row r="213" customHeight="1" spans="1:1">
-      <c r="A213" s="37"/>
+      <c r="A213" s="35"/>
     </row>
     <row r="214" customHeight="1" spans="1:1">
-      <c r="A214" s="37"/>
+      <c r="A214" s="35"/>
     </row>
     <row r="215" customHeight="1" spans="1:1">
-      <c r="A215" s="37"/>
+      <c r="A215" s="35"/>
     </row>
     <row r="216" customHeight="1" spans="1:1">
-      <c r="A216" s="37"/>
+      <c r="A216" s="35"/>
     </row>
     <row r="217" customHeight="1" spans="1:1">
-      <c r="A217" s="37"/>
+      <c r="A217" s="35"/>
     </row>
     <row r="218" customHeight="1" spans="1:1">
-      <c r="A218" s="37"/>
+      <c r="A218" s="35"/>
     </row>
     <row r="219" customHeight="1" spans="1:1">
-      <c r="A219" s="37"/>
+      <c r="A219" s="35"/>
     </row>
     <row r="220" customHeight="1" spans="1:1">
-      <c r="A220" s="37"/>
+      <c r="A220" s="35"/>
     </row>
     <row r="221" customHeight="1" spans="1:1">
-      <c r="A221" s="37"/>
+      <c r="A221" s="35"/>
     </row>
     <row r="222" customHeight="1" spans="1:1">
-      <c r="A222" s="37"/>
+      <c r="A222" s="35"/>
     </row>
     <row r="223" customHeight="1" spans="1:1">
-      <c r="A223" s="37"/>
+      <c r="A223" s="35"/>
     </row>
     <row r="224" customHeight="1" spans="1:1">
-      <c r="A224" s="37"/>
+      <c r="A224" s="35"/>
     </row>
     <row r="225" customHeight="1" spans="1:1">
-      <c r="A225" s="37"/>
+      <c r="A225" s="35"/>
     </row>
     <row r="226" customHeight="1" spans="1:1">
-      <c r="A226" s="37"/>
+      <c r="A226" s="35"/>
     </row>
     <row r="227" customHeight="1" spans="1:1">
-      <c r="A227" s="37"/>
+      <c r="A227" s="35"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/data/menu_dinner.xlsx
+++ b/data/menu_dinner.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948">
   <si>
     <t>id</t>
   </si>
@@ -351,10 +351,10 @@
     <t>RMB</t>
   </si>
   <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>228/份</t>
+    <t>268</t>
+  </si>
+  <si>
+    <t>268/份</t>
   </si>
   <si>
     <t>food</t>
@@ -1417,9 +1417,6 @@
   </si>
   <si>
     <t>十四行诗赤霞珠西拉干红葡萄酒</t>
-  </si>
-  <si>
-    <t>268</t>
   </si>
   <si>
     <t>268/Bottle</t>
@@ -2870,11 +2867,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2916,6 +2913,44 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -2931,8 +2966,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2945,56 +3011,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3003,30 +3038,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3045,23 +3056,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3076,7 +3073,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3088,13 +3133,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3106,13 +3187,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3124,97 +3223,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3226,37 +3241,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3331,8 +3328,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3340,23 +3337,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3377,16 +3383,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3408,15 +3414,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -3428,138 +3425,138 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4732,8 +4729,8 @@
   <sheetPr/>
   <dimension ref="A1:BD227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -7898,10 +7895,10 @@
         <v>110</v>
       </c>
       <c r="F59" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G59" s="13" t="s">
         <v>467</v>
-      </c>
-      <c r="G59" s="13" t="s">
-        <v>468</v>
       </c>
       <c r="H59" s="14" t="b">
         <v>0</v>
@@ -7929,13 +7926,13 @@
     </row>
     <row r="60" customHeight="1" spans="1:18">
       <c r="A60" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="C60" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>463</v>
@@ -7944,10 +7941,10 @@
         <v>110</v>
       </c>
       <c r="F60" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="G60" s="13" t="s">
         <v>472</v>
-      </c>
-      <c r="G60" s="13" t="s">
-        <v>473</v>
       </c>
       <c r="H60" s="14" t="b">
         <v>0</v>
@@ -7975,13 +7972,13 @@
     </row>
     <row r="61" customHeight="1" spans="1:18">
       <c r="A61" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="C61" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>463</v>
@@ -7990,10 +7987,10 @@
         <v>110</v>
       </c>
       <c r="F61" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="G61" s="13" t="s">
         <v>477</v>
-      </c>
-      <c r="G61" s="13" t="s">
-        <v>478</v>
       </c>
       <c r="H61" s="14" t="b">
         <v>0</v>
@@ -8021,25 +8018,25 @@
     </row>
     <row r="62" customHeight="1" spans="1:18">
       <c r="A62" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="C62" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="D62" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="D62" s="8" t="s">
-        <v>482</v>
-      </c>
       <c r="E62" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F62" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G62" s="13" t="s">
         <v>467</v>
-      </c>
-      <c r="G62" s="13" t="s">
-        <v>468</v>
       </c>
       <c r="H62" s="14" t="b">
         <v>0</v>
@@ -8067,25 +8064,25 @@
     </row>
     <row r="63" customHeight="1" spans="1:18">
       <c r="A63" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>485</v>
-      </c>
       <c r="D63" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F63" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="G63" s="13" t="s">
         <v>472</v>
-      </c>
-      <c r="G63" s="13" t="s">
-        <v>473</v>
       </c>
       <c r="H63" s="14" t="b">
         <v>0</v>
@@ -8113,25 +8110,25 @@
     </row>
     <row r="64" customHeight="1" spans="1:18">
       <c r="A64" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="C64" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="D64" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F64" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="D64" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F64" s="8" t="s">
+      <c r="G64" s="13" t="s">
         <v>489</v>
-      </c>
-      <c r="G64" s="13" t="s">
-        <v>490</v>
       </c>
       <c r="H64" s="14" t="b">
         <v>0</v>
@@ -8159,16 +8156,16 @@
     </row>
     <row r="65" customHeight="1" spans="1:18">
       <c r="A65" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="C65" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="D65" s="8" t="s">
         <v>493</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>494</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>110</v>
@@ -8177,7 +8174,7 @@
         <v>399</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H65" s="14" t="b">
         <v>0</v>
@@ -8205,25 +8202,25 @@
     </row>
     <row r="66" customHeight="1" spans="1:18">
       <c r="A66" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="C66" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="D66" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F66" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="D66" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F66" s="8" t="s">
+      <c r="G66" s="13" t="s">
         <v>499</v>
-      </c>
-      <c r="G66" s="13" t="s">
-        <v>500</v>
       </c>
       <c r="H66" s="14" t="b">
         <v>0</v>
@@ -8251,25 +8248,25 @@
     </row>
     <row r="67" customHeight="1" spans="1:18">
       <c r="A67" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="C67" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="D67" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F67" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="D67" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F67" s="8" t="s">
+      <c r="G67" s="13" t="s">
         <v>504</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>505</v>
       </c>
       <c r="H67" s="14" t="b">
         <v>0</v>
@@ -8297,25 +8294,25 @@
     </row>
     <row r="68" customHeight="1" spans="1:18">
       <c r="A68" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="C68" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="D68" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F68" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="D68" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F68" s="8" t="s">
+      <c r="G68" s="13" t="s">
         <v>509</v>
-      </c>
-      <c r="G68" s="13" t="s">
-        <v>510</v>
       </c>
       <c r="H68" s="14" t="b">
         <v>0</v>
@@ -8346,22 +8343,22 @@
         <v>145</v>
       </c>
       <c r="B69" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="C69" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="D69" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F69" s="8" t="s">
         <v>512</v>
       </c>
-      <c r="D69" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F69" s="8" t="s">
+      <c r="G69" s="13" t="s">
         <v>513</v>
-      </c>
-      <c r="G69" s="13" t="s">
-        <v>514</v>
       </c>
       <c r="H69" s="14" t="b">
         <v>0</v>
@@ -8389,13 +8386,13 @@
     </row>
     <row r="70" customHeight="1" spans="1:18">
       <c r="A70" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B70" s="26" t="s">
         <v>515</v>
       </c>
-      <c r="B70" s="26" t="s">
+      <c r="C70" s="27" t="s">
         <v>516</v>
-      </c>
-      <c r="C70" s="27" t="s">
-        <v>517</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>49</v>
@@ -8407,7 +8404,7 @@
         <v>860</v>
       </c>
       <c r="G70" s="29" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H70" s="14" t="b">
         <v>0</v>
@@ -8438,10 +8435,10 @@
         <v>402</v>
       </c>
       <c r="B71" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="C71" s="27" t="s">
         <v>519</v>
-      </c>
-      <c r="C71" s="27" t="s">
-        <v>520</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>49</v>
@@ -8453,7 +8450,7 @@
         <v>960</v>
       </c>
       <c r="G71" s="29" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H71" s="14" t="b">
         <v>0</v>
@@ -8481,13 +8478,13 @@
     </row>
     <row r="72" customHeight="1" spans="1:18">
       <c r="A72" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="B72" s="26" t="s">
         <v>522</v>
       </c>
-      <c r="B72" s="26" t="s">
+      <c r="C72" s="27" t="s">
         <v>523</v>
-      </c>
-      <c r="C72" s="27" t="s">
-        <v>524</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>49</v>
@@ -8499,7 +8496,7 @@
         <v>860</v>
       </c>
       <c r="G72" s="29" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H72" s="14" t="b">
         <v>0</v>
@@ -8527,13 +8524,13 @@
     </row>
     <row r="73" customHeight="1" spans="1:18">
       <c r="A73" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="B73" s="26" t="s">
         <v>525</v>
       </c>
-      <c r="B73" s="26" t="s">
+      <c r="C73" s="27" t="s">
         <v>526</v>
-      </c>
-      <c r="C73" s="27" t="s">
-        <v>527</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>49</v>
@@ -8545,7 +8542,7 @@
         <v>1080</v>
       </c>
       <c r="G73" s="29" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H73" s="14" t="b">
         <v>0</v>
@@ -8573,13 +8570,13 @@
     </row>
     <row r="74" customHeight="1" spans="1:18">
       <c r="A74" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="B74" s="26" t="s">
         <v>529</v>
       </c>
-      <c r="B74" s="26" t="s">
+      <c r="C74" s="27" t="s">
         <v>530</v>
-      </c>
-      <c r="C74" s="27" t="s">
-        <v>531</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>49</v>
@@ -8591,7 +8588,7 @@
         <v>1180</v>
       </c>
       <c r="G74" s="29" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H74" s="14" t="b">
         <v>0</v>
@@ -8619,13 +8616,13 @@
     </row>
     <row r="75" customHeight="1" spans="1:18">
       <c r="A75" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="B75" s="26" t="s">
         <v>533</v>
       </c>
-      <c r="B75" s="26" t="s">
+      <c r="C75" s="27" t="s">
         <v>534</v>
-      </c>
-      <c r="C75" s="27" t="s">
-        <v>535</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>49</v>
@@ -8637,7 +8634,7 @@
         <v>1080</v>
       </c>
       <c r="G75" s="29" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H75" s="14" t="b">
         <v>0</v>
@@ -8665,13 +8662,13 @@
     </row>
     <row r="76" customHeight="1" spans="1:18">
       <c r="A76" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="B76" s="26" t="s">
         <v>537</v>
       </c>
-      <c r="B76" s="26" t="s">
+      <c r="C76" s="27" t="s">
         <v>538</v>
-      </c>
-      <c r="C76" s="27" t="s">
-        <v>539</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>49</v>
@@ -8683,7 +8680,7 @@
         <v>1100</v>
       </c>
       <c r="G76" s="29" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H76" s="14" t="b">
         <v>0</v>
@@ -8711,16 +8708,16 @@
     </row>
     <row r="77" customHeight="1" spans="1:18">
       <c r="A77" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="B77" s="26" t="s">
         <v>541</v>
       </c>
-      <c r="B77" s="26" t="s">
+      <c r="C77" s="27" t="s">
         <v>542</v>
       </c>
-      <c r="C77" s="27" t="s">
+      <c r="D77" s="8" t="s">
         <v>543</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>544</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>110</v>
@@ -8729,7 +8726,7 @@
         <v>1100</v>
       </c>
       <c r="G77" s="29" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H77" s="14" t="b">
         <v>0</v>
@@ -8757,13 +8754,13 @@
     </row>
     <row r="78" customHeight="1" spans="1:18">
       <c r="A78" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="B78" s="26" t="s">
         <v>545</v>
       </c>
-      <c r="B78" s="26" t="s">
+      <c r="C78" s="27" t="s">
         <v>546</v>
-      </c>
-      <c r="C78" s="27" t="s">
-        <v>547</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>49</v>
@@ -8775,7 +8772,7 @@
         <v>1100</v>
       </c>
       <c r="G78" s="29" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H78" s="14" t="b">
         <v>0</v>
@@ -8806,10 +8803,10 @@
         <v>375</v>
       </c>
       <c r="B79" s="26" t="s">
+        <v>547</v>
+      </c>
+      <c r="C79" s="27" t="s">
         <v>548</v>
-      </c>
-      <c r="C79" s="27" t="s">
-        <v>549</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>49</v>
@@ -8821,7 +8818,7 @@
         <v>1180</v>
       </c>
       <c r="G79" s="29" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H79" s="14" t="b">
         <v>0</v>
@@ -8849,13 +8846,13 @@
     </row>
     <row r="80" customHeight="1" spans="1:18">
       <c r="A80" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="B80" s="26" t="s">
         <v>550</v>
       </c>
-      <c r="B80" s="26" t="s">
+      <c r="C80" s="27" t="s">
         <v>551</v>
-      </c>
-      <c r="C80" s="27" t="s">
-        <v>552</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>49</v>
@@ -8867,7 +8864,7 @@
         <v>880</v>
       </c>
       <c r="G80" s="29" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H80" s="14" t="b">
         <v>0</v>
@@ -8898,10 +8895,10 @@
         <v>363</v>
       </c>
       <c r="B81" s="26" t="s">
+        <v>553</v>
+      </c>
+      <c r="C81" s="27" t="s">
         <v>554</v>
-      </c>
-      <c r="C81" s="27" t="s">
-        <v>555</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>49</v>
@@ -8913,7 +8910,7 @@
         <v>1280</v>
       </c>
       <c r="G81" s="29" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H81" s="14" t="b">
         <v>0</v>
@@ -8941,16 +8938,16 @@
     </row>
     <row r="82" customHeight="1" spans="1:18">
       <c r="A82" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B82" s="26" t="s">
         <v>557</v>
       </c>
-      <c r="B82" s="26" t="s">
+      <c r="C82" s="26" t="s">
         <v>558</v>
       </c>
-      <c r="C82" s="26" t="s">
+      <c r="D82" s="8" t="s">
         <v>559</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>560</v>
       </c>
       <c r="E82" s="8" t="s">
         <v>110</v>
@@ -8959,7 +8956,7 @@
         <v>880</v>
       </c>
       <c r="G82" s="26" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H82" s="14" t="b">
         <v>0</v>
@@ -8987,13 +8984,13 @@
     </row>
     <row r="83" customHeight="1" spans="1:18">
       <c r="A83" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="B83" s="26" t="s">
         <v>562</v>
       </c>
-      <c r="B83" s="26" t="s">
+      <c r="C83" s="26" t="s">
         <v>563</v>
-      </c>
-      <c r="C83" s="26" t="s">
-        <v>564</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>52</v>
@@ -9005,7 +9002,7 @@
         <v>1100</v>
       </c>
       <c r="G83" s="26" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H83" s="14" t="b">
         <v>0</v>
@@ -9033,13 +9030,13 @@
     </row>
     <row r="84" customHeight="1" spans="1:18">
       <c r="A84" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="B84" s="26" t="s">
         <v>566</v>
       </c>
-      <c r="B84" s="26" t="s">
+      <c r="C84" s="26" t="s">
         <v>567</v>
-      </c>
-      <c r="C84" s="26" t="s">
-        <v>568</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>52</v>
@@ -9051,7 +9048,7 @@
         <v>2650</v>
       </c>
       <c r="G84" s="30" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H84" s="14" t="b">
         <v>0</v>
@@ -9079,13 +9076,13 @@
     </row>
     <row r="85" customHeight="1" spans="1:18">
       <c r="A85" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="B85" s="26" t="s">
         <v>570</v>
       </c>
-      <c r="B85" s="26" t="s">
+      <c r="C85" s="26" t="s">
         <v>571</v>
-      </c>
-      <c r="C85" s="26" t="s">
-        <v>572</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>52</v>
@@ -9097,7 +9094,7 @@
         <v>880</v>
       </c>
       <c r="G85" s="26" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H85" s="14" t="b">
         <v>0</v>
@@ -9125,13 +9122,13 @@
     </row>
     <row r="86" customHeight="1" spans="1:18">
       <c r="A86" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="B86" s="26" t="s">
         <v>574</v>
       </c>
-      <c r="B86" s="26" t="s">
+      <c r="C86" s="26" t="s">
         <v>575</v>
-      </c>
-      <c r="C86" s="26" t="s">
-        <v>576</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>52</v>
@@ -9143,7 +9140,7 @@
         <v>1050</v>
       </c>
       <c r="G86" s="26" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H86" s="14" t="b">
         <v>0</v>
@@ -9171,13 +9168,13 @@
     </row>
     <row r="87" customHeight="1" spans="1:18">
       <c r="A87" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B87" s="26" t="s">
         <v>578</v>
       </c>
-      <c r="B87" s="26" t="s">
+      <c r="C87" s="26" t="s">
         <v>579</v>
-      </c>
-      <c r="C87" s="26" t="s">
-        <v>580</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>52</v>
@@ -9189,7 +9186,7 @@
         <v>880</v>
       </c>
       <c r="G87" s="26" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H87" s="14" t="b">
         <v>0</v>
@@ -9217,13 +9214,13 @@
     </row>
     <row r="88" customHeight="1" spans="1:18">
       <c r="A88" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="B88" s="26" t="s">
         <v>582</v>
       </c>
-      <c r="B88" s="26" t="s">
+      <c r="C88" s="26" t="s">
         <v>583</v>
-      </c>
-      <c r="C88" s="26" t="s">
-        <v>584</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>52</v>
@@ -9235,7 +9232,7 @@
         <v>1700</v>
       </c>
       <c r="G88" s="26" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H88" s="14" t="b">
         <v>0</v>
@@ -9266,10 +9263,10 @@
         <v>256</v>
       </c>
       <c r="B89" s="26" t="s">
+        <v>585</v>
+      </c>
+      <c r="C89" s="26" t="s">
         <v>586</v>
-      </c>
-      <c r="C89" s="26" t="s">
-        <v>587</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>55</v>
@@ -9281,7 +9278,7 @@
         <v>880</v>
       </c>
       <c r="G89" s="26" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H89" s="14" t="b">
         <v>0</v>
@@ -9309,13 +9306,13 @@
     </row>
     <row r="90" customHeight="1" spans="1:18">
       <c r="A90" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="B90" s="26" t="s">
         <v>588</v>
       </c>
-      <c r="B90" s="26" t="s">
+      <c r="C90" s="26" t="s">
         <v>589</v>
-      </c>
-      <c r="C90" s="26" t="s">
-        <v>590</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>55</v>
@@ -9327,7 +9324,7 @@
         <v>1400</v>
       </c>
       <c r="G90" s="26" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H90" s="14" t="b">
         <v>0</v>
@@ -9358,10 +9355,10 @@
         <v>414</v>
       </c>
       <c r="B91" s="28" t="s">
+        <v>591</v>
+      </c>
+      <c r="C91" s="26" t="s">
         <v>592</v>
-      </c>
-      <c r="C91" s="26" t="s">
-        <v>593</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>55</v>
@@ -9373,7 +9370,7 @@
         <v>1800</v>
       </c>
       <c r="G91" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H91" s="14" t="b">
         <v>0</v>
@@ -9401,13 +9398,13 @@
     </row>
     <row r="92" customHeight="1" spans="1:18">
       <c r="A92" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="B92" s="28" t="s">
         <v>595</v>
       </c>
-      <c r="B92" s="28" t="s">
+      <c r="C92" s="26" t="s">
         <v>596</v>
-      </c>
-      <c r="C92" s="26" t="s">
-        <v>597</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>55</v>
@@ -9419,7 +9416,7 @@
         <v>1080</v>
       </c>
       <c r="G92" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H92" s="14" t="b">
         <v>0</v>
@@ -9447,13 +9444,13 @@
     </row>
     <row r="93" customHeight="1" spans="1:18">
       <c r="A93" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="B93" s="28" t="s">
         <v>599</v>
       </c>
-      <c r="B93" s="28" t="s">
+      <c r="C93" s="26" t="s">
         <v>600</v>
-      </c>
-      <c r="C93" s="26" t="s">
-        <v>601</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>55</v>
@@ -9465,7 +9462,7 @@
         <v>1550</v>
       </c>
       <c r="G93" s="26" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H93" s="14" t="b">
         <v>0</v>
@@ -9493,13 +9490,13 @@
     </row>
     <row r="94" customHeight="1" spans="1:18">
       <c r="A94" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="B94" s="28" t="s">
         <v>603</v>
       </c>
-      <c r="B94" s="28" t="s">
+      <c r="C94" s="26" t="s">
         <v>604</v>
-      </c>
-      <c r="C94" s="26" t="s">
-        <v>605</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>55</v>
@@ -9511,7 +9508,7 @@
         <v>2050</v>
       </c>
       <c r="G94" s="26" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H94" s="14" t="b">
         <v>0</v>
@@ -9539,13 +9536,13 @@
     </row>
     <row r="95" customHeight="1" spans="1:18">
       <c r="A95" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="B95" s="28" t="s">
         <v>607</v>
       </c>
-      <c r="B95" s="28" t="s">
+      <c r="C95" s="26" t="s">
         <v>608</v>
-      </c>
-      <c r="C95" s="26" t="s">
-        <v>609</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>55</v>
@@ -9557,7 +9554,7 @@
         <v>2850</v>
       </c>
       <c r="G95" s="26" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H95" s="14" t="b">
         <v>0</v>
@@ -9585,13 +9582,13 @@
     </row>
     <row r="96" customHeight="1" spans="1:18">
       <c r="A96" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="B96" s="28" t="s">
         <v>611</v>
       </c>
-      <c r="B96" s="28" t="s">
+      <c r="C96" s="7" t="s">
         <v>612</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>613</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>55</v>
@@ -9603,7 +9600,7 @@
         <v>900</v>
       </c>
       <c r="G96" s="26" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H96" s="14" t="b">
         <v>0</v>
@@ -9631,13 +9628,13 @@
     </row>
     <row r="97" customHeight="1" spans="1:18">
       <c r="A97" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="B97" s="28" t="s">
         <v>615</v>
       </c>
-      <c r="B97" s="28" t="s">
+      <c r="C97" s="26" t="s">
         <v>616</v>
-      </c>
-      <c r="C97" s="26" t="s">
-        <v>617</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>55</v>
@@ -9649,7 +9646,7 @@
         <v>1650</v>
       </c>
       <c r="G97" s="26" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H97" s="14" t="b">
         <v>0</v>
@@ -9677,13 +9674,13 @@
     </row>
     <row r="98" customHeight="1" spans="1:18">
       <c r="A98" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="B98" s="28" t="s">
         <v>619</v>
       </c>
-      <c r="B98" s="28" t="s">
+      <c r="C98" s="26" t="s">
         <v>620</v>
-      </c>
-      <c r="C98" s="26" t="s">
-        <v>621</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>55</v>
@@ -9695,7 +9692,7 @@
         <v>2350</v>
       </c>
       <c r="G98" s="26" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H98" s="14" t="b">
         <v>0</v>
@@ -9726,10 +9723,10 @@
         <v>343</v>
       </c>
       <c r="B99" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="C99" s="26" t="s">
         <v>623</v>
-      </c>
-      <c r="C99" s="26" t="s">
-        <v>624</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>55</v>
@@ -9741,7 +9738,7 @@
         <v>2180</v>
       </c>
       <c r="G99" s="26" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H99" s="14" t="b">
         <v>0</v>
@@ -9769,13 +9766,13 @@
     </row>
     <row r="100" customHeight="1" spans="1:18">
       <c r="A100" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="B100" s="28" t="s">
         <v>626</v>
       </c>
-      <c r="B100" s="28" t="s">
+      <c r="C100" s="26" t="s">
         <v>627</v>
-      </c>
-      <c r="C100" s="26" t="s">
-        <v>628</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>55</v>
@@ -9787,7 +9784,7 @@
         <v>4980</v>
       </c>
       <c r="G100" s="26" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H100" s="14" t="b">
         <v>0</v>
@@ -9815,13 +9812,13 @@
     </row>
     <row r="101" customHeight="1" spans="1:18">
       <c r="A101" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="B101" s="28" t="s">
         <v>630</v>
       </c>
-      <c r="B101" s="28" t="s">
+      <c r="C101" s="26" t="s">
         <v>631</v>
-      </c>
-      <c r="C101" s="26" t="s">
-        <v>632</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>55</v>
@@ -9833,7 +9830,7 @@
         <v>17800</v>
       </c>
       <c r="G101" s="26" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H101" s="14" t="b">
         <v>0</v>
@@ -9861,13 +9858,13 @@
     </row>
     <row r="102" customHeight="1" spans="1:18">
       <c r="A102" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="B102" s="28" t="s">
         <v>634</v>
       </c>
-      <c r="B102" s="28" t="s">
+      <c r="C102" s="26" t="s">
         <v>635</v>
-      </c>
-      <c r="C102" s="26" t="s">
-        <v>636</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>55</v>
@@ -9879,7 +9876,7 @@
         <v>2080</v>
       </c>
       <c r="G102" s="26" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H102" s="14" t="b">
         <v>0</v>
@@ -9907,13 +9904,13 @@
     </row>
     <row r="103" customHeight="1" spans="1:18">
       <c r="A103" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="B103" s="28" t="s">
         <v>638</v>
       </c>
-      <c r="B103" s="28" t="s">
+      <c r="C103" s="26" t="s">
         <v>639</v>
-      </c>
-      <c r="C103" s="26" t="s">
-        <v>640</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>55</v>
@@ -9925,7 +9922,7 @@
         <v>4880</v>
       </c>
       <c r="G103" s="26" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H103" s="14" t="b">
         <v>0</v>
@@ -9953,13 +9950,13 @@
     </row>
     <row r="104" customHeight="1" spans="1:18">
       <c r="A104" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="B104" s="28" t="s">
         <v>642</v>
       </c>
-      <c r="B104" s="28" t="s">
+      <c r="C104" s="26" t="s">
         <v>643</v>
-      </c>
-      <c r="C104" s="26" t="s">
-        <v>644</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>55</v>
@@ -9971,7 +9968,7 @@
         <v>17800</v>
       </c>
       <c r="G104" s="26" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H104" s="14" t="b">
         <v>0</v>
@@ -9999,13 +9996,13 @@
     </row>
     <row r="105" customHeight="1" spans="1:18">
       <c r="A105" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="B105" s="28" t="s">
         <v>645</v>
       </c>
-      <c r="B105" s="28" t="s">
+      <c r="C105" s="26" t="s">
         <v>646</v>
-      </c>
-      <c r="C105" s="26" t="s">
-        <v>647</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>55</v>
@@ -10017,7 +10014,7 @@
         <v>2180</v>
       </c>
       <c r="G105" s="26" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H105" s="14" t="b">
         <v>0</v>
@@ -10045,13 +10042,13 @@
     </row>
     <row r="106" customHeight="1" spans="1:18">
       <c r="A106" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="B106" s="28" t="s">
         <v>649</v>
       </c>
-      <c r="B106" s="28" t="s">
+      <c r="C106" s="26" t="s">
         <v>650</v>
-      </c>
-      <c r="C106" s="26" t="s">
-        <v>651</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>55</v>
@@ -10063,7 +10060,7 @@
         <v>9800</v>
       </c>
       <c r="G106" s="26" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H106" s="14" t="b">
         <v>0</v>
@@ -10091,13 +10088,13 @@
     </row>
     <row r="107" customHeight="1" spans="1:18">
       <c r="A107" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="B107" s="28" t="s">
         <v>653</v>
       </c>
-      <c r="B107" s="28" t="s">
+      <c r="C107" s="26" t="s">
         <v>654</v>
-      </c>
-      <c r="C107" s="26" t="s">
-        <v>655</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>55</v>
@@ -10109,7 +10106,7 @@
         <v>15000</v>
       </c>
       <c r="G107" s="26" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H107" s="14" t="b">
         <v>0</v>
@@ -10137,13 +10134,13 @@
     </row>
     <row r="108" customHeight="1" spans="1:18">
       <c r="A108" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="B108" s="28" t="s">
         <v>657</v>
       </c>
-      <c r="B108" s="28" t="s">
+      <c r="C108" s="26" t="s">
         <v>658</v>
-      </c>
-      <c r="C108" s="26" t="s">
-        <v>659</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>55</v>
@@ -10155,7 +10152,7 @@
         <v>2080</v>
       </c>
       <c r="G108" s="26" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H108" s="14" t="b">
         <v>0</v>
@@ -10183,13 +10180,13 @@
     </row>
     <row r="109" customHeight="1" spans="1:18">
       <c r="A109" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="B109" s="28" t="s">
         <v>660</v>
       </c>
-      <c r="B109" s="28" t="s">
+      <c r="C109" s="26" t="s">
         <v>661</v>
-      </c>
-      <c r="C109" s="26" t="s">
-        <v>662</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>55</v>
@@ -10201,7 +10198,7 @@
         <v>11000</v>
       </c>
       <c r="G109" s="26" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H109" s="14" t="b">
         <v>0</v>
@@ -10229,16 +10226,16 @@
     </row>
     <row r="110" customHeight="1" spans="1:18">
       <c r="A110" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="B110" s="26" t="s">
         <v>664</v>
       </c>
-      <c r="B110" s="26" t="s">
+      <c r="C110" s="26" t="s">
         <v>665</v>
       </c>
-      <c r="C110" s="26" t="s">
+      <c r="D110" s="8" t="s">
         <v>666</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>667</v>
       </c>
       <c r="E110" s="8" t="s">
         <v>110</v>
@@ -10247,7 +10244,7 @@
         <v>1080</v>
       </c>
       <c r="G110" s="26" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H110" s="14" t="b">
         <v>0</v>
@@ -10275,13 +10272,13 @@
     </row>
     <row r="111" customHeight="1" spans="1:18">
       <c r="A111" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="B111" s="28" t="s">
         <v>669</v>
       </c>
-      <c r="B111" s="28" t="s">
+      <c r="C111" s="26" t="s">
         <v>670</v>
-      </c>
-      <c r="C111" s="26" t="s">
-        <v>671</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>58</v>
@@ -10293,7 +10290,7 @@
         <v>980</v>
       </c>
       <c r="G111" s="26" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H111" s="14" t="b">
         <v>0</v>
@@ -10321,13 +10318,13 @@
     </row>
     <row r="112" customHeight="1" spans="1:18">
       <c r="A112" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="B112" s="28" t="s">
         <v>673</v>
       </c>
-      <c r="B112" s="28" t="s">
+      <c r="C112" s="26" t="s">
         <v>674</v>
-      </c>
-      <c r="C112" s="26" t="s">
-        <v>675</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>58</v>
@@ -10339,7 +10336,7 @@
         <v>1180</v>
       </c>
       <c r="G112" s="26" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H112" s="14" t="b">
         <v>0</v>
@@ -10367,13 +10364,13 @@
     </row>
     <row r="113" customHeight="1" spans="1:18">
       <c r="A113" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="B113" s="28" t="s">
         <v>677</v>
       </c>
-      <c r="B113" s="28" t="s">
+      <c r="C113" s="26" t="s">
         <v>678</v>
-      </c>
-      <c r="C113" s="26" t="s">
-        <v>679</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>58</v>
@@ -10385,7 +10382,7 @@
         <v>1280</v>
       </c>
       <c r="G113" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H113" s="14" t="b">
         <v>0</v>
@@ -10413,13 +10410,13 @@
     </row>
     <row r="114" customHeight="1" spans="1:18">
       <c r="A114" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="B114" s="28" t="s">
         <v>681</v>
       </c>
-      <c r="B114" s="28" t="s">
+      <c r="C114" s="26" t="s">
         <v>682</v>
-      </c>
-      <c r="C114" s="26" t="s">
-        <v>683</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>58</v>
@@ -10431,7 +10428,7 @@
         <v>2400</v>
       </c>
       <c r="G114" s="26" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H114" s="14" t="b">
         <v>0</v>
@@ -10459,13 +10456,13 @@
     </row>
     <row r="115" customHeight="1" spans="1:18">
       <c r="A115" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="B115" s="28" t="s">
         <v>685</v>
       </c>
-      <c r="B115" s="28" t="s">
+      <c r="C115" s="26" t="s">
         <v>686</v>
-      </c>
-      <c r="C115" s="26" t="s">
-        <v>687</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>58</v>
@@ -10477,7 +10474,7 @@
         <v>3880</v>
       </c>
       <c r="G115" s="26" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H115" s="14" t="b">
         <v>0</v>
@@ -10505,13 +10502,13 @@
     </row>
     <row r="116" customHeight="1" spans="1:18">
       <c r="A116" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="B116" s="28" t="s">
         <v>689</v>
       </c>
-      <c r="B116" s="28" t="s">
+      <c r="C116" s="26" t="s">
         <v>690</v>
-      </c>
-      <c r="C116" s="26" t="s">
-        <v>691</v>
       </c>
       <c r="D116" s="8" t="s">
         <v>58</v>
@@ -10523,7 +10520,7 @@
         <v>980</v>
       </c>
       <c r="G116" s="26" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H116" s="14" t="b">
         <v>0</v>
@@ -10551,13 +10548,13 @@
     </row>
     <row r="117" customHeight="1" spans="1:18">
       <c r="A117" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="B117" s="28" t="s">
         <v>692</v>
       </c>
-      <c r="B117" s="28" t="s">
+      <c r="C117" s="26" t="s">
         <v>693</v>
-      </c>
-      <c r="C117" s="26" t="s">
-        <v>694</v>
       </c>
       <c r="D117" s="8" t="s">
         <v>58</v>
@@ -10569,7 +10566,7 @@
         <v>1180</v>
       </c>
       <c r="G117" s="26" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H117" s="14" t="b">
         <v>0</v>
@@ -10597,13 +10594,13 @@
     </row>
     <row r="118" customHeight="1" spans="1:18">
       <c r="A118" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="B118" s="28" t="s">
         <v>695</v>
       </c>
-      <c r="B118" s="28" t="s">
+      <c r="C118" s="26" t="s">
         <v>696</v>
-      </c>
-      <c r="C118" s="26" t="s">
-        <v>697</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>58</v>
@@ -10615,7 +10612,7 @@
         <v>880</v>
       </c>
       <c r="G118" s="26" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H118" s="14" t="b">
         <v>0</v>
@@ -10643,13 +10640,13 @@
     </row>
     <row r="119" customHeight="1" spans="1:18">
       <c r="A119" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="B119" s="28" t="s">
         <v>699</v>
       </c>
-      <c r="B119" s="28" t="s">
+      <c r="C119" s="26" t="s">
         <v>700</v>
-      </c>
-      <c r="C119" s="26" t="s">
-        <v>701</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>58</v>
@@ -10661,7 +10658,7 @@
         <v>1480</v>
       </c>
       <c r="G119" s="26" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H119" s="14" t="b">
         <v>0</v>
@@ -10689,13 +10686,13 @@
     </row>
     <row r="120" customHeight="1" spans="1:18">
       <c r="A120" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="B120" s="28" t="s">
         <v>703</v>
       </c>
-      <c r="B120" s="28" t="s">
+      <c r="C120" s="26" t="s">
         <v>704</v>
-      </c>
-      <c r="C120" s="26" t="s">
-        <v>705</v>
       </c>
       <c r="D120" s="8" t="s">
         <v>58</v>
@@ -10707,7 +10704,7 @@
         <v>3680</v>
       </c>
       <c r="G120" s="26" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H120" s="14" t="b">
         <v>0</v>
@@ -10735,13 +10732,13 @@
     </row>
     <row r="121" customHeight="1" spans="1:18">
       <c r="A121" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="B121" s="28" t="s">
         <v>707</v>
       </c>
-      <c r="B121" s="28" t="s">
+      <c r="C121" s="26" t="s">
         <v>708</v>
-      </c>
-      <c r="C121" s="26" t="s">
-        <v>709</v>
       </c>
       <c r="D121" s="8" t="s">
         <v>58</v>
@@ -10753,7 +10750,7 @@
         <v>1180</v>
       </c>
       <c r="G121" s="26" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H121" s="14" t="b">
         <v>0</v>
@@ -10781,13 +10778,13 @@
     </row>
     <row r="122" customHeight="1" spans="1:18">
       <c r="A122" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="B122" s="28" t="s">
         <v>710</v>
       </c>
-      <c r="B122" s="28" t="s">
+      <c r="C122" s="26" t="s">
         <v>711</v>
-      </c>
-      <c r="C122" s="26" t="s">
-        <v>712</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>58</v>
@@ -10799,7 +10796,7 @@
         <v>2380</v>
       </c>
       <c r="G122" s="26" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H122" s="14" t="b">
         <v>0</v>
@@ -10827,13 +10824,13 @@
     </row>
     <row r="123" customHeight="1" spans="1:18">
       <c r="A123" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="B123" s="28" t="s">
         <v>714</v>
       </c>
-      <c r="B123" s="28" t="s">
+      <c r="C123" s="26" t="s">
         <v>715</v>
-      </c>
-      <c r="C123" s="26" t="s">
-        <v>716</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>61</v>
@@ -10845,7 +10842,7 @@
         <v>1380</v>
       </c>
       <c r="G123" s="26" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H123" s="14" t="b">
         <v>0</v>
@@ -10873,13 +10870,13 @@
     </row>
     <row r="124" customHeight="1" spans="1:18">
       <c r="A124" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="B124" s="28" t="s">
         <v>718</v>
       </c>
-      <c r="B124" s="28" t="s">
+      <c r="C124" s="26" t="s">
         <v>719</v>
-      </c>
-      <c r="C124" s="26" t="s">
-        <v>720</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>61</v>
@@ -10891,7 +10888,7 @@
         <v>1180</v>
       </c>
       <c r="G124" s="26" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H124" s="14" t="b">
         <v>0</v>
@@ -10919,13 +10916,13 @@
     </row>
     <row r="125" customHeight="1" spans="1:18">
       <c r="A125" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="B125" s="28" t="s">
         <v>721</v>
       </c>
-      <c r="B125" s="28" t="s">
+      <c r="C125" s="26" t="s">
         <v>722</v>
-      </c>
-      <c r="C125" s="26" t="s">
-        <v>723</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>61</v>
@@ -10937,7 +10934,7 @@
         <v>1680</v>
       </c>
       <c r="G125" s="26" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H125" s="14" t="b">
         <v>0</v>
@@ -10965,13 +10962,13 @@
     </row>
     <row r="126" customHeight="1" spans="1:18">
       <c r="A126" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="B126" s="28" t="s">
         <v>725</v>
       </c>
-      <c r="B126" s="28" t="s">
+      <c r="C126" s="26" t="s">
         <v>726</v>
-      </c>
-      <c r="C126" s="26" t="s">
-        <v>727</v>
       </c>
       <c r="D126" s="8" t="s">
         <v>61</v>
@@ -10983,7 +10980,7 @@
         <v>2180</v>
       </c>
       <c r="G126" s="26" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H126" s="14" t="b">
         <v>0</v>
@@ -11011,13 +11008,13 @@
     </row>
     <row r="127" customHeight="1" spans="1:18">
       <c r="A127" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="B127" s="28" t="s">
         <v>728</v>
       </c>
-      <c r="B127" s="28" t="s">
+      <c r="C127" s="26" t="s">
         <v>729</v>
-      </c>
-      <c r="C127" s="26" t="s">
-        <v>730</v>
       </c>
       <c r="D127" s="8" t="s">
         <v>61</v>
@@ -11029,7 +11026,7 @@
         <v>980</v>
       </c>
       <c r="G127" s="26" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H127" s="14" t="b">
         <v>0</v>
@@ -11057,13 +11054,13 @@
     </row>
     <row r="128" customHeight="1" spans="1:18">
       <c r="A128" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="B128" s="28" t="s">
         <v>731</v>
       </c>
-      <c r="B128" s="28" t="s">
+      <c r="C128" s="26" t="s">
         <v>732</v>
-      </c>
-      <c r="C128" s="26" t="s">
-        <v>733</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>61</v>
@@ -11075,7 +11072,7 @@
         <v>1280</v>
       </c>
       <c r="G128" s="26" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H128" s="14" t="b">
         <v>0</v>
@@ -11103,13 +11100,13 @@
     </row>
     <row r="129" customHeight="1" spans="1:18">
       <c r="A129" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="B129" s="26" t="s">
         <v>735</v>
       </c>
-      <c r="B129" s="26" t="s">
+      <c r="C129" s="26" t="s">
         <v>736</v>
-      </c>
-      <c r="C129" s="26" t="s">
-        <v>737</v>
       </c>
       <c r="D129" s="8" t="s">
         <v>61</v>
@@ -11121,7 +11118,7 @@
         <v>1080</v>
       </c>
       <c r="G129" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H129" s="14" t="b">
         <v>0</v>
@@ -11149,13 +11146,13 @@
     </row>
     <row r="130" customHeight="1" spans="1:18">
       <c r="A130" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="B130" s="26" t="s">
         <v>738</v>
       </c>
-      <c r="B130" s="26" t="s">
+      <c r="C130" s="26" t="s">
         <v>739</v>
-      </c>
-      <c r="C130" s="26" t="s">
-        <v>740</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>61</v>
@@ -11167,7 +11164,7 @@
         <v>1880</v>
       </c>
       <c r="G130" s="26" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H130" s="14" t="b">
         <v>0</v>
@@ -11195,13 +11192,13 @@
     </row>
     <row r="131" customHeight="1" spans="1:18">
       <c r="A131" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="B131" s="26" t="s">
         <v>742</v>
       </c>
-      <c r="B131" s="26" t="s">
+      <c r="C131" s="26" t="s">
         <v>743</v>
-      </c>
-      <c r="C131" s="26" t="s">
-        <v>744</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>61</v>
@@ -11213,7 +11210,7 @@
         <v>2680</v>
       </c>
       <c r="G131" s="26" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H131" s="14" t="b">
         <v>0</v>
@@ -11241,13 +11238,13 @@
     </row>
     <row r="132" customHeight="1" spans="1:18">
       <c r="A132" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="B132" s="28" t="s">
         <v>746</v>
       </c>
-      <c r="B132" s="28" t="s">
+      <c r="C132" s="26" t="s">
         <v>747</v>
-      </c>
-      <c r="C132" s="26" t="s">
-        <v>748</v>
       </c>
       <c r="D132" s="8" t="s">
         <v>61</v>
@@ -11259,7 +11256,7 @@
         <v>1380</v>
       </c>
       <c r="G132" s="26" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H132" s="14" t="b">
         <v>0</v>
@@ -11287,13 +11284,13 @@
     </row>
     <row r="133" customHeight="1" spans="1:18">
       <c r="A133" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="B133" s="28" t="s">
         <v>750</v>
       </c>
-      <c r="B133" s="28" t="s">
+      <c r="C133" s="26" t="s">
         <v>751</v>
-      </c>
-      <c r="C133" s="26" t="s">
-        <v>752</v>
       </c>
       <c r="D133" s="8" t="s">
         <v>61</v>
@@ -11305,7 +11302,7 @@
         <v>1480</v>
       </c>
       <c r="G133" s="26" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H133" s="14" t="b">
         <v>0</v>
@@ -11333,13 +11330,13 @@
     </row>
     <row r="134" customHeight="1" spans="1:18">
       <c r="A134" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="B134" s="28" t="s">
         <v>754</v>
       </c>
-      <c r="B134" s="28" t="s">
+      <c r="C134" s="26" t="s">
         <v>755</v>
-      </c>
-      <c r="C134" s="26" t="s">
-        <v>756</v>
       </c>
       <c r="D134" s="31" t="s">
         <v>64</v>
@@ -11351,7 +11348,7 @@
         <v>1580</v>
       </c>
       <c r="G134" s="26" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H134" s="14" t="b">
         <v>0</v>
@@ -11379,13 +11376,13 @@
     </row>
     <row r="135" customHeight="1" spans="1:18">
       <c r="A135" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="B135" s="28" t="s">
         <v>758</v>
       </c>
-      <c r="B135" s="28" t="s">
+      <c r="C135" s="26" t="s">
         <v>759</v>
-      </c>
-      <c r="C135" s="26" t="s">
-        <v>760</v>
       </c>
       <c r="D135" s="31" t="s">
         <v>64</v>
@@ -11397,7 +11394,7 @@
         <v>880</v>
       </c>
       <c r="G135" s="26" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H135" s="14" t="b">
         <v>0</v>
@@ -11425,13 +11422,13 @@
     </row>
     <row r="136" customHeight="1" spans="1:18">
       <c r="A136" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="B136" s="28" t="s">
         <v>761</v>
       </c>
-      <c r="B136" s="28" t="s">
+      <c r="C136" s="26" t="s">
         <v>762</v>
-      </c>
-      <c r="C136" s="26" t="s">
-        <v>763</v>
       </c>
       <c r="D136" s="31" t="s">
         <v>64</v>
@@ -11443,7 +11440,7 @@
         <v>1380</v>
       </c>
       <c r="G136" s="26" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H136" s="14" t="b">
         <v>0</v>
@@ -11471,13 +11468,13 @@
     </row>
     <row r="137" customHeight="1" spans="1:18">
       <c r="A137" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="B137" s="28" t="s">
         <v>765</v>
       </c>
-      <c r="B137" s="28" t="s">
+      <c r="C137" s="26" t="s">
         <v>766</v>
-      </c>
-      <c r="C137" s="26" t="s">
-        <v>767</v>
       </c>
       <c r="D137" s="31" t="s">
         <v>64</v>
@@ -11489,7 +11486,7 @@
         <v>1580</v>
       </c>
       <c r="G137" s="26" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H137" s="14" t="b">
         <v>0</v>
@@ -11517,13 +11514,13 @@
     </row>
     <row r="138" customHeight="1" spans="1:18">
       <c r="A138" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="B138" s="28" t="s">
         <v>769</v>
       </c>
-      <c r="B138" s="28" t="s">
+      <c r="C138" s="26" t="s">
         <v>770</v>
-      </c>
-      <c r="C138" s="26" t="s">
-        <v>771</v>
       </c>
       <c r="D138" s="31" t="s">
         <v>64</v>
@@ -11535,7 +11532,7 @@
         <v>880</v>
       </c>
       <c r="G138" s="26" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H138" s="14" t="b">
         <v>0</v>
@@ -11563,13 +11560,13 @@
     </row>
     <row r="139" customHeight="1" spans="1:18">
       <c r="A139" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="B139" s="28" t="s">
         <v>772</v>
       </c>
-      <c r="B139" s="28" t="s">
+      <c r="C139" s="26" t="s">
         <v>773</v>
-      </c>
-      <c r="C139" s="26" t="s">
-        <v>774</v>
       </c>
       <c r="D139" s="31" t="s">
         <v>64</v>
@@ -11581,7 +11578,7 @@
         <v>2380</v>
       </c>
       <c r="G139" s="26" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H139" s="14" t="b">
         <v>0</v>
@@ -11609,13 +11606,13 @@
     </row>
     <row r="140" customHeight="1" spans="1:18">
       <c r="A140" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="B140" s="26" t="s">
         <v>775</v>
       </c>
-      <c r="B140" s="26" t="s">
+      <c r="C140" s="26" t="s">
         <v>776</v>
-      </c>
-      <c r="C140" s="26" t="s">
-        <v>777</v>
       </c>
       <c r="D140" s="31" t="s">
         <v>67</v>
@@ -11627,7 +11624,7 @@
         <v>880</v>
       </c>
       <c r="G140" s="26" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H140" s="14" t="b">
         <v>0</v>
@@ -11655,13 +11652,13 @@
     </row>
     <row r="141" customHeight="1" spans="1:18">
       <c r="A141" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B141" s="26" t="s">
         <v>778</v>
       </c>
-      <c r="B141" s="26" t="s">
+      <c r="C141" s="26" t="s">
         <v>779</v>
-      </c>
-      <c r="C141" s="26" t="s">
-        <v>780</v>
       </c>
       <c r="D141" s="31" t="s">
         <v>67</v>
@@ -11673,7 +11670,7 @@
         <v>780</v>
       </c>
       <c r="G141" s="26" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H141" s="14" t="b">
         <v>0</v>
@@ -11701,13 +11698,13 @@
     </row>
     <row r="142" customHeight="1" spans="1:18">
       <c r="A142" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="B142" s="26" t="s">
         <v>782</v>
       </c>
-      <c r="B142" s="26" t="s">
+      <c r="C142" s="26" t="s">
         <v>783</v>
-      </c>
-      <c r="C142" s="26" t="s">
-        <v>784</v>
       </c>
       <c r="D142" s="31" t="s">
         <v>67</v>
@@ -11719,7 +11716,7 @@
         <v>780</v>
       </c>
       <c r="G142" s="26" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H142" s="14" t="b">
         <v>0</v>
@@ -11747,13 +11744,13 @@
     </row>
     <row r="143" customHeight="1" spans="1:18">
       <c r="A143" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="B143" s="26" t="s">
         <v>785</v>
       </c>
-      <c r="B143" s="26" t="s">
+      <c r="C143" s="26" t="s">
         <v>786</v>
-      </c>
-      <c r="C143" s="26" t="s">
-        <v>787</v>
       </c>
       <c r="D143" s="31" t="s">
         <v>67</v>
@@ -11765,7 +11762,7 @@
         <v>880</v>
       </c>
       <c r="G143" s="26" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H143" s="14" t="b">
         <v>0</v>
@@ -11793,13 +11790,13 @@
     </row>
     <row r="144" customHeight="1" spans="1:18">
       <c r="A144" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="B144" s="26" t="s">
         <v>788</v>
       </c>
-      <c r="B144" s="26" t="s">
+      <c r="C144" s="26" t="s">
         <v>789</v>
-      </c>
-      <c r="C144" s="26" t="s">
-        <v>790</v>
       </c>
       <c r="D144" s="31" t="s">
         <v>67</v>
@@ -11811,7 +11808,7 @@
         <v>1280</v>
       </c>
       <c r="G144" s="26" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H144" s="14" t="b">
         <v>0</v>
@@ -11839,13 +11836,13 @@
     </row>
     <row r="145" customHeight="1" spans="1:18">
       <c r="A145" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="B145" s="26" t="s">
         <v>791</v>
       </c>
-      <c r="B145" s="26" t="s">
+      <c r="C145" s="26" t="s">
         <v>792</v>
-      </c>
-      <c r="C145" s="26" t="s">
-        <v>793</v>
       </c>
       <c r="D145" s="31" t="s">
         <v>67</v>
@@ -11857,7 +11854,7 @@
         <v>1780</v>
       </c>
       <c r="G145" s="26" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H145" s="14" t="b">
         <v>0</v>
@@ -11885,13 +11882,13 @@
     </row>
     <row r="146" customHeight="1" spans="1:18">
       <c r="A146" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="B146" s="26" t="s">
         <v>795</v>
       </c>
-      <c r="B146" s="26" t="s">
+      <c r="C146" s="26" t="s">
         <v>796</v>
-      </c>
-      <c r="C146" s="26" t="s">
-        <v>797</v>
       </c>
       <c r="D146" s="31" t="s">
         <v>67</v>
@@ -11903,7 +11900,7 @@
         <v>1180</v>
       </c>
       <c r="G146" s="26" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H146" s="14" t="b">
         <v>0</v>
@@ -11931,13 +11928,13 @@
     </row>
     <row r="147" customHeight="1" spans="1:18">
       <c r="A147" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="B147" s="26" t="s">
         <v>798</v>
       </c>
-      <c r="B147" s="26" t="s">
+      <c r="C147" s="26" t="s">
         <v>799</v>
-      </c>
-      <c r="C147" s="26" t="s">
-        <v>800</v>
       </c>
       <c r="D147" s="31" t="s">
         <v>67</v>
@@ -11949,7 +11946,7 @@
         <v>1280</v>
       </c>
       <c r="G147" s="26" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H147" s="14" t="b">
         <v>0</v>
@@ -11977,13 +11974,13 @@
     </row>
     <row r="148" customHeight="1" spans="1:18">
       <c r="A148" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="B148" s="26" t="s">
         <v>801</v>
       </c>
-      <c r="B148" s="26" t="s">
+      <c r="C148" s="26" t="s">
         <v>802</v>
-      </c>
-      <c r="C148" s="26" t="s">
-        <v>803</v>
       </c>
       <c r="D148" s="31" t="s">
         <v>67</v>
@@ -11995,7 +11992,7 @@
         <v>1780</v>
       </c>
       <c r="G148" s="26" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H148" s="14" t="b">
         <v>0</v>
@@ -12023,13 +12020,13 @@
     </row>
     <row r="149" customHeight="1" spans="1:18">
       <c r="A149" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="B149" s="26" t="s">
         <v>805</v>
       </c>
-      <c r="B149" s="26" t="s">
+      <c r="C149" s="26" t="s">
         <v>806</v>
-      </c>
-      <c r="C149" s="26" t="s">
-        <v>807</v>
       </c>
       <c r="D149" s="31" t="s">
         <v>67</v>
@@ -12041,7 +12038,7 @@
         <v>2480</v>
       </c>
       <c r="G149" s="26" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H149" s="14" t="b">
         <v>0</v>
@@ -12069,13 +12066,13 @@
     </row>
     <row r="150" customHeight="1" spans="1:18">
       <c r="A150" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="B150" s="28" t="s">
         <v>809</v>
       </c>
-      <c r="B150" s="28" t="s">
+      <c r="C150" s="26" t="s">
         <v>810</v>
-      </c>
-      <c r="C150" s="26" t="s">
-        <v>811</v>
       </c>
       <c r="D150" s="31" t="s">
         <v>67</v>
@@ -12087,7 +12084,7 @@
         <v>1180</v>
       </c>
       <c r="G150" s="26" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H150" s="14" t="b">
         <v>0</v>
@@ -12115,13 +12112,13 @@
     </row>
     <row r="151" customHeight="1" spans="1:18">
       <c r="A151" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="B151" s="28" t="s">
         <v>812</v>
       </c>
-      <c r="B151" s="28" t="s">
+      <c r="C151" s="26" t="s">
         <v>813</v>
-      </c>
-      <c r="C151" s="26" t="s">
-        <v>814</v>
       </c>
       <c r="D151" s="31" t="s">
         <v>67</v>
@@ -12133,7 +12130,7 @@
         <v>980</v>
       </c>
       <c r="G151" s="26" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H151" s="14" t="b">
         <v>0</v>
@@ -12161,13 +12158,13 @@
     </row>
     <row r="152" customHeight="1" spans="1:18">
       <c r="A152" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="B152" s="28" t="s">
         <v>815</v>
       </c>
-      <c r="B152" s="28" t="s">
+      <c r="C152" s="26" t="s">
         <v>816</v>
-      </c>
-      <c r="C152" s="26" t="s">
-        <v>817</v>
       </c>
       <c r="D152" s="31" t="s">
         <v>67</v>
@@ -12179,7 +12176,7 @@
         <v>1650</v>
       </c>
       <c r="G152" s="26" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H152" s="14" t="b">
         <v>0</v>
@@ -12207,13 +12204,13 @@
     </row>
     <row r="153" customHeight="1" spans="1:18">
       <c r="A153" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="B153" s="28" t="s">
         <v>819</v>
       </c>
-      <c r="B153" s="28" t="s">
+      <c r="C153" s="26" t="s">
         <v>820</v>
-      </c>
-      <c r="C153" s="26" t="s">
-        <v>821</v>
       </c>
       <c r="D153" s="31" t="s">
         <v>67</v>
@@ -12225,7 +12222,7 @@
         <v>1100</v>
       </c>
       <c r="G153" s="26" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H153" s="14" t="b">
         <v>0</v>
@@ -12253,13 +12250,13 @@
     </row>
     <row r="154" customHeight="1" spans="1:18">
       <c r="A154" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="B154" s="28" t="s">
         <v>823</v>
       </c>
-      <c r="B154" s="28" t="s">
+      <c r="C154" s="26" t="s">
         <v>824</v>
-      </c>
-      <c r="C154" s="26" t="s">
-        <v>825</v>
       </c>
       <c r="D154" s="31" t="s">
         <v>67</v>
@@ -12271,7 +12268,7 @@
         <v>980</v>
       </c>
       <c r="G154" s="26" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H154" s="14" t="b">
         <v>0</v>
@@ -12299,13 +12296,13 @@
     </row>
     <row r="155" customHeight="1" spans="1:18">
       <c r="A155" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="B155" s="28" t="s">
         <v>826</v>
       </c>
-      <c r="B155" s="28" t="s">
+      <c r="C155" s="26" t="s">
         <v>827</v>
-      </c>
-      <c r="C155" s="26" t="s">
-        <v>828</v>
       </c>
       <c r="D155" s="31" t="s">
         <v>67</v>
@@ -12317,7 +12314,7 @@
         <v>1080</v>
       </c>
       <c r="G155" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H155" s="14" t="b">
         <v>0</v>
@@ -12345,13 +12342,13 @@
     </row>
     <row r="156" customHeight="1" spans="1:18">
       <c r="A156" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="B156" s="28" t="s">
         <v>829</v>
       </c>
-      <c r="B156" s="28" t="s">
+      <c r="C156" s="26" t="s">
         <v>830</v>
-      </c>
-      <c r="C156" s="26" t="s">
-        <v>831</v>
       </c>
       <c r="D156" s="31" t="s">
         <v>67</v>
@@ -12363,7 +12360,7 @@
         <v>1680</v>
       </c>
       <c r="G156" s="26" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H156" s="14" t="b">
         <v>0</v>
@@ -12391,13 +12388,13 @@
     </row>
     <row r="157" customHeight="1" spans="1:18">
       <c r="A157" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="B157" s="28" t="s">
         <v>833</v>
       </c>
-      <c r="B157" s="28" t="s">
+      <c r="C157" s="26" t="s">
         <v>834</v>
-      </c>
-      <c r="C157" s="26" t="s">
-        <v>835</v>
       </c>
       <c r="D157" s="31" t="s">
         <v>67</v>
@@ -12409,7 +12406,7 @@
         <v>980</v>
       </c>
       <c r="G157" s="26" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H157" s="14" t="b">
         <v>0</v>
@@ -12437,13 +12434,13 @@
     </row>
     <row r="158" customHeight="1" spans="1:18">
       <c r="A158" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="B158" s="28" t="s">
         <v>836</v>
       </c>
-      <c r="B158" s="28" t="s">
+      <c r="C158" s="26" t="s">
         <v>837</v>
-      </c>
-      <c r="C158" s="26" t="s">
-        <v>838</v>
       </c>
       <c r="D158" s="31" t="s">
         <v>67</v>
@@ -12455,7 +12452,7 @@
         <v>1080</v>
       </c>
       <c r="G158" s="26" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H158" s="14" t="b">
         <v>0</v>
@@ -12486,10 +12483,10 @@
         <v>130</v>
       </c>
       <c r="B159" s="28" t="s">
+        <v>839</v>
+      </c>
+      <c r="C159" s="26" t="s">
         <v>840</v>
-      </c>
-      <c r="C159" s="26" t="s">
-        <v>841</v>
       </c>
       <c r="D159" s="31" t="s">
         <v>67</v>
@@ -12501,7 +12498,7 @@
         <v>1480</v>
       </c>
       <c r="G159" s="26" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H159" s="14" t="b">
         <v>0</v>
@@ -12529,13 +12526,13 @@
     </row>
     <row r="160" customHeight="1" spans="1:18">
       <c r="A160" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="B160" s="28" t="s">
         <v>843</v>
       </c>
-      <c r="B160" s="28" t="s">
+      <c r="C160" s="26" t="s">
         <v>844</v>
-      </c>
-      <c r="C160" s="26" t="s">
-        <v>845</v>
       </c>
       <c r="D160" s="31" t="s">
         <v>67</v>
@@ -12547,7 +12544,7 @@
         <v>3480</v>
       </c>
       <c r="G160" s="26" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H160" s="14" t="b">
         <v>0</v>
@@ -12575,13 +12572,13 @@
     </row>
     <row r="161" customHeight="1" spans="1:18">
       <c r="A161" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="B161" s="28" t="s">
         <v>847</v>
       </c>
-      <c r="B161" s="28" t="s">
+      <c r="C161" s="26" t="s">
         <v>848</v>
-      </c>
-      <c r="C161" s="26" t="s">
-        <v>849</v>
       </c>
       <c r="D161" s="31" t="s">
         <v>67</v>
@@ -12593,7 +12590,7 @@
         <v>1280</v>
       </c>
       <c r="G161" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H161" s="14" t="b">
         <v>0</v>
@@ -12621,13 +12618,13 @@
     </row>
     <row r="162" customHeight="1" spans="1:18">
       <c r="A162" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="B162" s="28" t="s">
         <v>850</v>
       </c>
-      <c r="B162" s="28" t="s">
+      <c r="C162" s="26" t="s">
         <v>851</v>
-      </c>
-      <c r="C162" s="26" t="s">
-        <v>852</v>
       </c>
       <c r="D162" s="31" t="s">
         <v>67</v>
@@ -12639,7 +12636,7 @@
         <v>1680</v>
       </c>
       <c r="G162" s="26" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H162" s="14" t="b">
         <v>0</v>
@@ -12667,13 +12664,13 @@
     </row>
     <row r="163" customHeight="1" spans="1:18">
       <c r="A163" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="B163" s="28" t="s">
         <v>853</v>
       </c>
-      <c r="B163" s="28" t="s">
+      <c r="C163" s="26" t="s">
         <v>854</v>
-      </c>
-      <c r="C163" s="26" t="s">
-        <v>855</v>
       </c>
       <c r="D163" s="31" t="s">
         <v>67</v>
@@ -12685,7 +12682,7 @@
         <v>2680</v>
       </c>
       <c r="G163" s="26" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H163" s="14" t="b">
         <v>0</v>
@@ -12713,13 +12710,13 @@
     </row>
     <row r="164" customHeight="1" spans="1:18">
       <c r="A164" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="B164" s="28" t="s">
         <v>856</v>
       </c>
-      <c r="B164" s="28" t="s">
+      <c r="C164" s="26" t="s">
         <v>857</v>
-      </c>
-      <c r="C164" s="26" t="s">
-        <v>858</v>
       </c>
       <c r="D164" s="31" t="s">
         <v>67</v>
@@ -12731,7 +12728,7 @@
         <v>3680</v>
       </c>
       <c r="G164" s="26" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H164" s="14" t="b">
         <v>0</v>
@@ -12759,13 +12756,13 @@
     </row>
     <row r="165" customFormat="1" customHeight="1" spans="1:18">
       <c r="A165" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="B165" s="28" t="s">
         <v>860</v>
       </c>
-      <c r="B165" s="28" t="s">
+      <c r="C165" s="26" t="s">
         <v>861</v>
-      </c>
-      <c r="C165" s="26" t="s">
-        <v>862</v>
       </c>
       <c r="D165" s="31" t="s">
         <v>70</v>
@@ -12777,7 +12774,7 @@
         <v>28</v>
       </c>
       <c r="G165" s="13" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H165" s="14" t="b">
         <v>0</v>
@@ -12805,13 +12802,13 @@
     </row>
     <row r="166" customFormat="1" customHeight="1" spans="1:18">
       <c r="A166" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="B166" s="28" t="s">
         <v>864</v>
       </c>
-      <c r="B166" s="28" t="s">
+      <c r="C166" s="26" t="s">
         <v>865</v>
-      </c>
-      <c r="C166" s="26" t="s">
-        <v>866</v>
       </c>
       <c r="D166" s="31" t="s">
         <v>70</v>
@@ -12823,7 +12820,7 @@
         <v>35</v>
       </c>
       <c r="G166" s="13" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H166" s="14" t="b">
         <v>0</v>
@@ -12851,13 +12848,13 @@
     </row>
     <row r="167" customFormat="1" customHeight="1" spans="1:18">
       <c r="A167" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="B167" s="28" t="s">
         <v>868</v>
       </c>
-      <c r="B167" s="28" t="s">
+      <c r="C167" s="26" t="s">
         <v>869</v>
-      </c>
-      <c r="C167" s="26" t="s">
-        <v>870</v>
       </c>
       <c r="D167" s="31" t="s">
         <v>70</v>
@@ -12869,7 +12866,7 @@
         <v>30</v>
       </c>
       <c r="G167" s="13" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H167" s="14" t="b">
         <v>0</v>
@@ -12897,13 +12894,13 @@
     </row>
     <row r="168" customHeight="1" spans="1:18">
       <c r="A168" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="B168" s="28" t="s">
         <v>872</v>
       </c>
-      <c r="B168" s="28" t="s">
+      <c r="C168" s="26" t="s">
         <v>873</v>
-      </c>
-      <c r="C168" s="26" t="s">
-        <v>874</v>
       </c>
       <c r="D168" s="31" t="s">
         <v>67</v>
@@ -12915,7 +12912,7 @@
         <v>1080</v>
       </c>
       <c r="G168" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H168" s="14" t="b">
         <v>0</v>
@@ -12946,10 +12943,10 @@
         <v>122</v>
       </c>
       <c r="B169" s="31" t="s">
+        <v>874</v>
+      </c>
+      <c r="C169" s="31" t="s">
         <v>875</v>
-      </c>
-      <c r="C169" s="31" t="s">
-        <v>876</v>
       </c>
       <c r="D169" s="8" t="s">
         <v>76</v>
@@ -12961,28 +12958,28 @@
         <v>208</v>
       </c>
       <c r="G169" s="13" t="s">
+        <v>876</v>
+      </c>
+      <c r="H169" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I169" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J169" s="8" t="s">
         <v>877</v>
       </c>
-      <c r="H169" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I169" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J169" s="8" t="s">
+      <c r="K169" s="8" t="s">
         <v>878</v>
-      </c>
-      <c r="K169" s="8" t="s">
-        <v>879</v>
       </c>
       <c r="L169" s="8" t="s">
         <v>285</v>
       </c>
       <c r="M169" s="21" t="s">
+        <v>879</v>
+      </c>
+      <c r="N169" s="22" t="s">
         <v>880</v>
-      </c>
-      <c r="N169" s="22" t="s">
-        <v>881</v>
       </c>
       <c r="O169" s="8" t="s">
         <v>118</v>
@@ -12997,13 +12994,13 @@
     </row>
     <row r="170" customHeight="1" spans="1:18">
       <c r="A170" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="B170" s="32" t="s">
         <v>882</v>
       </c>
-      <c r="B170" s="32" t="s">
+      <c r="C170" s="31" t="s">
         <v>883</v>
-      </c>
-      <c r="C170" s="31" t="s">
-        <v>884</v>
       </c>
       <c r="D170" s="8" t="s">
         <v>76</v>
@@ -13015,28 +13012,28 @@
         <v>208</v>
       </c>
       <c r="G170" s="13" t="s">
+        <v>876</v>
+      </c>
+      <c r="H170" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I170" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J170" s="8" t="s">
         <v>877</v>
       </c>
-      <c r="H170" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I170" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J170" s="8" t="s">
-        <v>878</v>
-      </c>
       <c r="K170" s="8" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="L170" s="8" t="s">
         <v>285</v>
       </c>
       <c r="M170" s="21" t="s">
+        <v>885</v>
+      </c>
+      <c r="N170" s="22" t="s">
         <v>886</v>
-      </c>
-      <c r="N170" s="22" t="s">
-        <v>887</v>
       </c>
       <c r="O170" s="8" t="s">
         <v>118</v>
@@ -13051,13 +13048,13 @@
     </row>
     <row r="171" customHeight="1" spans="1:18">
       <c r="A171" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="B171" s="31" t="s">
         <v>888</v>
       </c>
-      <c r="B171" s="31" t="s">
+      <c r="C171" s="31" t="s">
         <v>889</v>
-      </c>
-      <c r="C171" s="31" t="s">
-        <v>890</v>
       </c>
       <c r="D171" s="8" t="s">
         <v>76</v>
@@ -13069,28 +13066,28 @@
         <v>208</v>
       </c>
       <c r="G171" s="13" t="s">
+        <v>876</v>
+      </c>
+      <c r="H171" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I171" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J171" s="8" t="s">
         <v>877</v>
       </c>
-      <c r="H171" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I171" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J171" s="8" t="s">
-        <v>878</v>
-      </c>
       <c r="K171" s="8" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="L171" s="8" t="s">
         <v>285</v>
       </c>
       <c r="M171" s="21" t="s">
+        <v>891</v>
+      </c>
+      <c r="N171" s="22" t="s">
         <v>892</v>
-      </c>
-      <c r="N171" s="22" t="s">
-        <v>893</v>
       </c>
       <c r="O171" s="8" t="s">
         <v>118</v>
@@ -13105,13 +13102,13 @@
     </row>
     <row r="172" customHeight="1" spans="1:18">
       <c r="A172" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="B172" s="31" t="s">
         <v>894</v>
       </c>
-      <c r="B172" s="31" t="s">
+      <c r="C172" s="31" t="s">
         <v>895</v>
-      </c>
-      <c r="C172" s="31" t="s">
-        <v>896</v>
       </c>
       <c r="D172" s="31" t="s">
         <v>76</v>
@@ -13123,28 +13120,28 @@
         <v>208</v>
       </c>
       <c r="G172" s="31" t="s">
+        <v>876</v>
+      </c>
+      <c r="H172" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I172" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J172" s="31" t="s">
         <v>877</v>
       </c>
-      <c r="H172" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I172" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J172" s="31" t="s">
-        <v>878</v>
-      </c>
       <c r="K172" s="8" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="L172" s="31" t="s">
         <v>285</v>
       </c>
       <c r="M172" s="21" t="s">
+        <v>897</v>
+      </c>
+      <c r="N172" s="22" t="s">
         <v>898</v>
-      </c>
-      <c r="N172" s="22" t="s">
-        <v>899</v>
       </c>
       <c r="O172" s="31" t="s">
         <v>118</v>
@@ -13159,13 +13156,13 @@
     </row>
     <row r="173" customHeight="1" spans="1:18">
       <c r="A173" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="B173" s="31" t="s">
         <v>900</v>
       </c>
-      <c r="B173" s="31" t="s">
+      <c r="C173" s="31" t="s">
         <v>901</v>
-      </c>
-      <c r="C173" s="31" t="s">
-        <v>902</v>
       </c>
       <c r="D173" s="8" t="s">
         <v>79</v>
@@ -13177,7 +13174,7 @@
         <v>246</v>
       </c>
       <c r="G173" s="31" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H173" s="25" t="b">
         <v>0</v>
@@ -13186,7 +13183,7 @@
         <v>0</v>
       </c>
       <c r="J173" s="31" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="K173" s="8"/>
       <c r="L173" s="8"/>
@@ -13205,13 +13202,13 @@
     </row>
     <row r="174" customHeight="1" spans="1:18">
       <c r="A174" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="B174" s="31" t="s">
         <v>904</v>
       </c>
-      <c r="B174" s="31" t="s">
+      <c r="C174" s="31" t="s">
         <v>905</v>
-      </c>
-      <c r="C174" s="31" t="s">
-        <v>906</v>
       </c>
       <c r="D174" s="8" t="s">
         <v>79</v>
@@ -13223,7 +13220,7 @@
         <v>28</v>
       </c>
       <c r="G174" s="31" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H174" s="25" t="b">
         <v>0</v>
@@ -13232,7 +13229,7 @@
         <v>0</v>
       </c>
       <c r="J174" s="31" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="K174" s="8"/>
       <c r="L174" s="8"/>
@@ -13251,13 +13248,13 @@
     </row>
     <row r="175" customHeight="1" spans="1:18">
       <c r="A175" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="B175" s="31" t="s">
         <v>908</v>
       </c>
-      <c r="B175" s="31" t="s">
+      <c r="C175" s="31" t="s">
         <v>909</v>
-      </c>
-      <c r="C175" s="31" t="s">
-        <v>910</v>
       </c>
       <c r="D175" s="8" t="s">
         <v>82</v>
@@ -13269,7 +13266,7 @@
         <v>246</v>
       </c>
       <c r="G175" s="31" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H175" s="25" t="b">
         <v>0</v>
@@ -13278,7 +13275,7 @@
         <v>0</v>
       </c>
       <c r="J175" s="31" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="K175" s="8"/>
       <c r="L175" s="8"/>
@@ -13297,13 +13294,13 @@
     </row>
     <row r="176" customHeight="1" spans="1:18">
       <c r="A176" s="5" t="s">
+        <v>910</v>
+      </c>
+      <c r="B176" s="31" t="s">
         <v>911</v>
       </c>
-      <c r="B176" s="31" t="s">
+      <c r="C176" s="31" t="s">
         <v>912</v>
-      </c>
-      <c r="C176" s="31" t="s">
-        <v>913</v>
       </c>
       <c r="D176" s="8" t="s">
         <v>82</v>
@@ -13315,7 +13312,7 @@
         <v>246</v>
       </c>
       <c r="G176" s="31" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H176" s="25" t="b">
         <v>0</v>
@@ -13324,7 +13321,7 @@
         <v>0</v>
       </c>
       <c r="J176" s="31" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="K176" s="8"/>
       <c r="L176" s="8"/>
@@ -13343,13 +13340,13 @@
     </row>
     <row r="177" customHeight="1" spans="1:18">
       <c r="A177" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="B177" s="31" t="s">
         <v>914</v>
       </c>
-      <c r="B177" s="31" t="s">
+      <c r="C177" s="31" t="s">
         <v>915</v>
-      </c>
-      <c r="C177" s="31" t="s">
-        <v>916</v>
       </c>
       <c r="D177" s="8" t="s">
         <v>82</v>
@@ -13361,7 +13358,7 @@
         <v>246</v>
       </c>
       <c r="G177" s="31" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H177" s="25" t="b">
         <v>0</v>
@@ -13370,7 +13367,7 @@
         <v>0</v>
       </c>
       <c r="J177" s="31" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="K177" s="8"/>
       <c r="L177" s="8"/>
@@ -13389,13 +13386,13 @@
     </row>
     <row r="178" customHeight="1" spans="1:18">
       <c r="A178" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="B178" s="31" t="s">
         <v>917</v>
       </c>
-      <c r="B178" s="31" t="s">
+      <c r="C178" s="31" t="s">
         <v>918</v>
-      </c>
-      <c r="C178" s="31" t="s">
-        <v>919</v>
       </c>
       <c r="D178" s="8" t="s">
         <v>82</v>
@@ -13407,7 +13404,7 @@
         <v>310</v>
       </c>
       <c r="G178" s="31" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H178" s="25" t="b">
         <v>0</v>
@@ -13416,7 +13413,7 @@
         <v>0</v>
       </c>
       <c r="J178" s="31" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="K178" s="8"/>
       <c r="L178" s="8"/>
@@ -13435,13 +13432,13 @@
     </row>
     <row r="179" customFormat="1" customHeight="1" spans="1:18">
       <c r="A179" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="B179" s="33" t="s">
         <v>920</v>
       </c>
-      <c r="B179" s="33" t="s">
+      <c r="C179" s="33" t="s">
         <v>921</v>
-      </c>
-      <c r="C179" s="33" t="s">
-        <v>922</v>
       </c>
       <c r="D179" s="15" t="s">
         <v>89</v>
@@ -13462,10 +13459,10 @@
         <v>1</v>
       </c>
       <c r="J179" s="15" t="s">
+        <v>922</v>
+      </c>
+      <c r="K179" s="15" t="s">
         <v>923</v>
-      </c>
-      <c r="K179" s="15" t="s">
-        <v>924</v>
       </c>
       <c r="L179" s="34"/>
       <c r="M179" s="15"/>
@@ -13483,13 +13480,13 @@
     </row>
     <row r="180" customFormat="1" customHeight="1" spans="1:18">
       <c r="A180" s="5" t="s">
+        <v>924</v>
+      </c>
+      <c r="B180" s="33" t="s">
         <v>925</v>
       </c>
-      <c r="B180" s="33" t="s">
+      <c r="C180" s="33" t="s">
         <v>926</v>
-      </c>
-      <c r="C180" s="33" t="s">
-        <v>927</v>
       </c>
       <c r="D180" s="15" t="s">
         <v>89</v>
@@ -13510,10 +13507,10 @@
         <v>1</v>
       </c>
       <c r="J180" s="15" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="K180" s="15" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L180" s="34"/>
       <c r="M180" s="15"/>
@@ -13531,13 +13528,13 @@
     </row>
     <row r="181" customFormat="1" customHeight="1" spans="1:18">
       <c r="A181" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="B181" s="33" t="s">
         <v>929</v>
       </c>
-      <c r="B181" s="33" t="s">
+      <c r="C181" s="33" t="s">
         <v>930</v>
-      </c>
-      <c r="C181" s="33" t="s">
-        <v>931</v>
       </c>
       <c r="D181" s="15" t="s">
         <v>89</v>
@@ -13558,10 +13555,10 @@
         <v>1</v>
       </c>
       <c r="J181" s="15" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="K181" s="15" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="L181" s="34"/>
       <c r="M181" s="15"/>
@@ -13579,13 +13576,13 @@
     </row>
     <row r="182" customFormat="1" customHeight="1" spans="1:18">
       <c r="A182" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="B182" s="33" t="s">
         <v>933</v>
       </c>
-      <c r="B182" s="33" t="s">
+      <c r="C182" s="33" t="s">
         <v>934</v>
-      </c>
-      <c r="C182" s="33" t="s">
-        <v>935</v>
       </c>
       <c r="D182" s="15" t="s">
         <v>89</v>
@@ -13606,10 +13603,10 @@
         <v>0</v>
       </c>
       <c r="J182" s="15" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="K182" s="15" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="L182" s="34"/>
       <c r="M182" s="15"/>
@@ -13627,13 +13624,13 @@
     </row>
     <row r="183" customFormat="1" customHeight="1" spans="1:18">
       <c r="A183" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="B183" s="33" t="s">
         <v>937</v>
       </c>
-      <c r="B183" s="33" t="s">
+      <c r="C183" s="33" t="s">
         <v>938</v>
-      </c>
-      <c r="C183" s="33" t="s">
-        <v>939</v>
       </c>
       <c r="D183" s="15" t="s">
         <v>89</v>
@@ -13654,10 +13651,10 @@
         <v>0</v>
       </c>
       <c r="J183" s="15" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="K183" s="15" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="L183" s="15"/>
       <c r="M183" s="15"/>
@@ -13675,13 +13672,13 @@
     </row>
     <row r="184" customFormat="1" customHeight="1" spans="1:18">
       <c r="A184" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="B184" s="34" t="s">
         <v>941</v>
       </c>
-      <c r="B184" s="34" t="s">
+      <c r="C184" s="33" t="s">
         <v>942</v>
-      </c>
-      <c r="C184" s="33" t="s">
-        <v>943</v>
       </c>
       <c r="D184" s="15" t="s">
         <v>89</v>
@@ -13702,10 +13699,10 @@
         <v>0</v>
       </c>
       <c r="J184" s="15" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="K184" s="15" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="L184" s="15"/>
       <c r="M184" s="15"/>
@@ -13723,13 +13720,13 @@
     </row>
     <row r="185" customFormat="1" customHeight="1" spans="1:18">
       <c r="A185" s="5" t="s">
+        <v>944</v>
+      </c>
+      <c r="B185" s="33" t="s">
         <v>945</v>
       </c>
-      <c r="B185" s="33" t="s">
+      <c r="C185" s="33" t="s">
         <v>946</v>
-      </c>
-      <c r="C185" s="33" t="s">
-        <v>947</v>
       </c>
       <c r="D185" s="15" t="s">
         <v>89</v>
@@ -13750,10 +13747,10 @@
         <v>0</v>
       </c>
       <c r="J185" s="15" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="K185" s="15" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="L185" s="15"/>
       <c r="M185" s="36"/>

--- a/data/menu_dinner.xlsx
+++ b/data/menu_dinner.xlsx
@@ -4706,7 +4706,7 @@
   <dimension ref="A1:BD226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>

--- a/data/menu_dinner.xlsx
+++ b/data/menu_dinner.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949">
   <si>
     <t>id</t>
   </si>
@@ -435,6 +435,9 @@
     <t>images/product/food/辣子鸡.jpg</t>
   </si>
   <si>
+    <t>辣</t>
+  </si>
+  <si>
     <t>Chicken leg meat/Special spices</t>
   </si>
   <si>
@@ -640,6 +643,9 @@
   </si>
   <si>
     <t>images/product/food/小恶魔.jpg</t>
+  </si>
+  <si>
+    <t>微辣</t>
   </si>
   <si>
     <t>Pasta/Rainbow/Squid ring/Shrimp</t>
@@ -4732,8 +4738,8 @@
   <sheetPr/>
   <dimension ref="A1:BD227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K5" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -5009,12 +5015,14 @@
       <c r="K5" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="L5" s="6"/>
+      <c r="L5" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="M5" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O5" s="5" t="s">
         <v>37</v>
@@ -5029,13 +5037,13 @@
     </row>
     <row r="6" customHeight="1" spans="1:18">
       <c r="A6" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>109</v>
@@ -5044,10 +5052,10 @@
         <v>110</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H6" s="13" t="b">
         <v>0</v>
@@ -5059,14 +5067,14 @@
         <v>113</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O6" s="5" t="s">
         <v>25</v>
@@ -5081,13 +5089,13 @@
     </row>
     <row r="7" customHeight="1" spans="1:18">
       <c r="A7" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>109</v>
@@ -5096,10 +5104,10 @@
         <v>110</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H7" s="13" t="b">
         <v>0</v>
@@ -5111,14 +5119,14 @@
         <v>113</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N7" s="18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O7" s="5" t="s">
         <v>118</v>
@@ -5133,13 +5141,13 @@
     </row>
     <row r="8" customHeight="1" spans="1:18">
       <c r="A8" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>109</v>
@@ -5148,10 +5156,10 @@
         <v>110</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H8" s="13" t="b">
         <v>0</v>
@@ -5163,14 +5171,14 @@
         <v>113</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N8" s="18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>118</v>
@@ -5185,13 +5193,13 @@
     </row>
     <row r="9" customHeight="1" spans="1:18">
       <c r="A9" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>109</v>
@@ -5200,10 +5208,10 @@
         <v>110</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H9" s="13" t="b">
         <v>0</v>
@@ -5215,14 +5223,14 @@
         <v>113</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N9" s="18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O9" s="5" t="s">
         <v>118</v>
@@ -5237,13 +5245,13 @@
     </row>
     <row r="10" customHeight="1" spans="1:18">
       <c r="A10" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>109</v>
@@ -5252,10 +5260,10 @@
         <v>110</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H10" s="13" t="b">
         <v>0</v>
@@ -5267,14 +5275,14 @@
         <v>113</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O10" s="5" t="s">
         <v>118</v>
@@ -5289,13 +5297,13 @@
     </row>
     <row r="11" customHeight="1" spans="1:18">
       <c r="A11" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>109</v>
@@ -5304,10 +5312,10 @@
         <v>110</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H11" s="13" t="b">
         <v>0</v>
@@ -5319,14 +5327,14 @@
         <v>113</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O11" s="5" t="s">
         <v>118</v>
@@ -5344,22 +5352,22 @@
         <v>109</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>110</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H12" s="13" t="b">
         <v>0</v>
@@ -5371,16 +5379,16 @@
         <v>113</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O12" s="5" t="s">
         <v>118</v>
@@ -5395,25 +5403,25 @@
     </row>
     <row r="13" customHeight="1" spans="1:28">
       <c r="A13" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>110</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H13" s="13" t="b">
         <v>1</v>
@@ -5425,16 +5433,16 @@
         <v>113</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O13" s="5" t="s">
         <v>118</v>
@@ -5459,25 +5467,25 @@
     </row>
     <row r="14" customHeight="1" spans="1:28">
       <c r="A14" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>110</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H14" s="15" t="b">
         <v>0</v>
@@ -5489,14 +5497,14 @@
         <v>113</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L14" s="19"/>
       <c r="M14" s="22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N14" s="23" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O14" s="9" t="s">
         <v>118</v>
@@ -5524,13 +5532,13 @@
         <v>18</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>110</v>
@@ -5551,14 +5559,16 @@
         <v>113</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="L15" s="19"/>
+        <v>208</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>209</v>
+      </c>
       <c r="M15" s="22" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N15" s="23" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O15" s="9">
         <v>1</v>
@@ -5582,25 +5592,25 @@
     </row>
     <row r="16" customHeight="1" spans="1:56">
       <c r="A16" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>110</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H16" s="15" t="b">
         <v>0</v>
@@ -5612,14 +5622,16 @@
         <v>113</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="L16" s="19"/>
+        <v>214</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>209</v>
+      </c>
       <c r="M16" s="22" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="N16" s="23" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O16" s="9" t="s">
         <v>106</v>
@@ -5672,25 +5684,25 @@
     </row>
     <row r="17" customHeight="1" spans="1:33">
       <c r="A17" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>110</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H17" s="15" t="b">
         <v>0</v>
@@ -5702,14 +5714,14 @@
         <v>113</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L17" s="19"/>
       <c r="M17" s="22" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="N17" s="23" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O17" s="9" t="s">
         <v>118</v>
@@ -5739,25 +5751,25 @@
     </row>
     <row r="18" customHeight="1" spans="1:18">
       <c r="A18" s="5" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>110</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H18" s="15" t="b">
         <v>0</v>
@@ -5769,14 +5781,14 @@
         <v>113</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="5" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>118</v>
@@ -5791,25 +5803,25 @@
     </row>
     <row r="19" customHeight="1" spans="1:18">
       <c r="A19" s="5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>110</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H19" s="15" t="b">
         <v>0</v>
@@ -5821,14 +5833,14 @@
         <v>113</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L19" s="19"/>
       <c r="M19" s="22" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N19" s="23" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O19" s="9" t="s">
         <v>118</v>
@@ -5843,16 +5855,16 @@
     </row>
     <row r="20" customHeight="1" spans="1:18">
       <c r="A20" s="5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>110</v>
@@ -5873,14 +5885,14 @@
         <v>113</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L20" s="19"/>
       <c r="M20" s="22" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N20" s="23" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O20" s="9" t="s">
         <v>118</v>
@@ -5895,13 +5907,13 @@
     </row>
     <row r="21" customHeight="1" spans="1:18">
       <c r="A21" s="5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>18</v>
@@ -5910,10 +5922,10 @@
         <v>110</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H21" s="15" t="b">
         <v>0</v>
@@ -5925,14 +5937,14 @@
         <v>113</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L21" s="19"/>
       <c r="M21" s="22" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N21" s="23" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O21" s="9" t="s">
         <v>118</v>
@@ -5950,10 +5962,10 @@
         <v>24</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>18</v>
@@ -5962,10 +5974,10 @@
         <v>110</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H22" s="15" t="b">
         <v>0</v>
@@ -5977,14 +5989,14 @@
         <v>113</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L22" s="19"/>
       <c r="M22" s="22" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="N22" s="23" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O22" s="9" t="s">
         <v>118</v>
@@ -6002,10 +6014,10 @@
         <v>28</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>18</v>
@@ -6014,10 +6026,10 @@
         <v>110</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H23" s="15" t="b">
         <v>0</v>
@@ -6029,14 +6041,14 @@
         <v>113</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O23" s="9" t="s">
         <v>118</v>
@@ -6054,10 +6066,10 @@
         <v>31</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>18</v>
@@ -6066,10 +6078,10 @@
         <v>110</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H24" s="15" t="b">
         <v>0</v>
@@ -6081,14 +6093,14 @@
         <v>113</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O24" s="9" t="s">
         <v>118</v>
@@ -6103,13 +6115,13 @@
     </row>
     <row r="25" customFormat="1" customHeight="1" spans="1:18">
       <c r="A25" s="5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>24</v>
@@ -6118,10 +6130,10 @@
         <v>110</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H25" s="17" t="b">
         <v>1</v>
@@ -6130,25 +6142,25 @@
         <v>0</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O25" s="16" t="s">
         <v>118</v>
       </c>
       <c r="P25" s="16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="20" t="b">
         <v>1</v>
@@ -6157,13 +6169,13 @@
     </row>
     <row r="26" customFormat="1" customHeight="1" spans="1:18">
       <c r="A26" s="5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>24</v>
@@ -6172,10 +6184,10 @@
         <v>110</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H26" s="17" t="b">
         <v>1</v>
@@ -6184,25 +6196,25 @@
         <v>0</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L26" s="19" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="O26" s="16" t="s">
         <v>118</v>
       </c>
       <c r="P26" s="16" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q26" s="20" t="b">
         <v>1</v>
@@ -6214,10 +6226,10 @@
         <v>70</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>24</v>
@@ -6226,10 +6238,10 @@
         <v>110</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H27" s="17" t="b">
         <v>1</v>
@@ -6238,25 +6250,25 @@
         <v>0</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K27" s="16" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L27" s="10" t="s">
         <v>81</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="O27" s="16" t="s">
         <v>118</v>
       </c>
       <c r="P27" s="16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q27" s="20" t="s">
         <v>119</v>
@@ -6265,13 +6277,13 @@
     </row>
     <row r="28" customFormat="1" customHeight="1" spans="1:18">
       <c r="A28" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>24</v>
@@ -6280,10 +6292,10 @@
         <v>110</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H28" s="17" t="b">
         <v>1</v>
@@ -6292,25 +6304,25 @@
         <v>0</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L28" s="10" t="s">
         <v>81</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="O28" s="16" t="s">
         <v>118</v>
       </c>
       <c r="P28" s="16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q28" s="20" t="s">
         <v>119</v>
@@ -6319,13 +6331,13 @@
     </row>
     <row r="29" customHeight="1" spans="1:18">
       <c r="A29" s="5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>28</v>
@@ -6334,10 +6346,10 @@
         <v>110</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H29" s="15" t="b">
         <v>0</v>
@@ -6346,25 +6358,25 @@
         <v>0</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L29" s="19" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M29" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N29" s="23" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>118</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="15" t="b">
         <v>1</v>
@@ -6373,13 +6385,13 @@
     </row>
     <row r="30" customHeight="1" spans="1:18">
       <c r="A30" s="5" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>28</v>
@@ -6388,10 +6400,10 @@
         <v>110</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H30" s="15" t="b">
         <v>0</v>
@@ -6400,25 +6412,25 @@
         <v>0</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L30" s="19" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M30" s="22" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="N30" s="23" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>118</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q30" s="15" t="b">
         <v>1</v>
@@ -6427,13 +6439,13 @@
     </row>
     <row r="31" customHeight="1" spans="1:18">
       <c r="A31" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>28</v>
@@ -6442,10 +6454,10 @@
         <v>110</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H31" s="15" t="b">
         <v>0</v>
@@ -6454,25 +6466,25 @@
         <v>0</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L31" s="19" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M31" s="22" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N31" s="23" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="O31" s="9" t="s">
         <v>118</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q31" s="15" t="b">
         <v>1</v>
@@ -6484,10 +6496,10 @@
         <v>76</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>28</v>
@@ -6496,10 +6508,10 @@
         <v>110</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H32" s="15" t="b">
         <v>0</v>
@@ -6508,25 +6520,25 @@
         <v>0</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L32" s="19" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M32" s="22" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="N32" s="23" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="O32" s="9" t="s">
         <v>118</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q32" s="15" t="b">
         <v>1</v>
@@ -6538,10 +6550,10 @@
         <v>79</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>28</v>
@@ -6550,10 +6562,10 @@
         <v>110</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H33" s="15" t="b">
         <v>0</v>
@@ -6562,25 +6574,25 @@
         <v>0</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L33" s="19" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M33" s="22" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N33" s="23" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O33" s="9" t="s">
         <v>118</v>
       </c>
       <c r="P33" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q33" s="15" t="b">
         <v>1</v>
@@ -6592,10 +6604,10 @@
         <v>82</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>28</v>
@@ -6604,10 +6616,10 @@
         <v>110</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H34" s="15" t="b">
         <v>0</v>
@@ -6616,25 +6628,25 @@
         <v>0</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L34" s="19" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M34" s="22" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="N34" s="23" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="O34" s="9" t="s">
         <v>118</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q34" s="15" t="b">
         <v>1</v>
@@ -6643,13 +6655,13 @@
     </row>
     <row r="35" customHeight="1" spans="1:18">
       <c r="A35" s="5" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>28</v>
@@ -6658,10 +6670,10 @@
         <v>110</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H35" s="15" t="b">
         <v>0</v>
@@ -6670,25 +6682,25 @@
         <v>0</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L35" s="19" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M35" s="22" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="N35" s="23" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="O35" s="9" t="s">
         <v>118</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q35" s="15" t="s">
         <v>119</v>
@@ -6697,13 +6709,13 @@
     </row>
     <row r="36" customHeight="1" spans="1:18">
       <c r="A36" s="5" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>28</v>
@@ -6712,10 +6724,10 @@
         <v>110</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H36" s="15" t="b">
         <v>0</v>
@@ -6724,25 +6736,25 @@
         <v>0</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L36" s="19" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M36" s="22" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="O36" s="9" t="s">
         <v>118</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q36" s="15" t="b">
         <v>1</v>
@@ -6751,13 +6763,13 @@
     </row>
     <row r="37" customHeight="1" spans="1:18">
       <c r="A37" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>28</v>
@@ -6766,10 +6778,10 @@
         <v>110</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H37" s="15" t="b">
         <v>0</v>
@@ -6778,25 +6790,25 @@
         <v>0</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L37" s="19" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M37" s="22" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="O37" s="9" t="s">
         <v>118</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q37" s="15" t="b">
         <v>1</v>
@@ -6805,13 +6817,13 @@
     </row>
     <row r="38" customHeight="1" spans="1:18">
       <c r="A38" s="5" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>28</v>
@@ -6820,10 +6832,10 @@
         <v>110</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H38" s="15" t="b">
         <v>0</v>
@@ -6832,19 +6844,19 @@
         <v>0</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L38" s="19" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M38" s="22" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="N38" s="23" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="O38" s="9" t="s">
         <v>118</v>
@@ -6859,13 +6871,13 @@
     </row>
     <row r="39" customHeight="1" spans="1:18">
       <c r="A39" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>31</v>
@@ -6874,10 +6886,10 @@
         <v>110</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H39" s="15" t="b">
         <v>0</v>
@@ -6886,23 +6898,23 @@
         <v>0</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K39" s="9"/>
       <c r="L39" s="19" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M39" s="22" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="N39" s="23" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="O39" s="9" t="s">
         <v>118</v>
       </c>
       <c r="P39" s="9" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q39" s="15" t="s">
         <v>119</v>
@@ -6911,13 +6923,13 @@
     </row>
     <row r="40" customHeight="1" spans="1:18">
       <c r="A40" s="5" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>31</v>
@@ -6926,10 +6938,10 @@
         <v>110</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H40" s="15" t="b">
         <v>0</v>
@@ -6938,23 +6950,23 @@
         <v>0</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K40" s="9"/>
       <c r="L40" s="19" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M40" s="22" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="N40" s="23" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="O40" s="9" t="s">
         <v>118</v>
       </c>
       <c r="P40" s="9" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q40" s="15" t="b">
         <v>1</v>
@@ -6963,13 +6975,13 @@
     </row>
     <row r="41" customHeight="1" spans="1:18">
       <c r="A41" s="5" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>31</v>
@@ -6978,10 +6990,10 @@
         <v>110</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H41" s="15" t="b">
         <v>0</v>
@@ -6990,23 +7002,23 @@
         <v>0</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K41" s="9"/>
       <c r="L41" s="19" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M41" s="22" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="N41" s="23" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="O41" s="9" t="s">
         <v>118</v>
       </c>
       <c r="P41" s="9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q41" s="15" t="b">
         <v>1</v>
@@ -7015,13 +7027,13 @@
     </row>
     <row r="42" customHeight="1" spans="1:18">
       <c r="A42" s="5" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>31</v>
@@ -7030,10 +7042,10 @@
         <v>110</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H42" s="15" t="b">
         <v>0</v>
@@ -7042,23 +7054,23 @@
         <v>0</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K42" s="9"/>
       <c r="L42" s="19" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M42" s="22" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="N42" s="23" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="O42" s="9" t="s">
         <v>118</v>
       </c>
       <c r="P42" s="9" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q42" s="15" t="b">
         <v>1</v>
@@ -7067,13 +7079,13 @@
     </row>
     <row r="43" customHeight="1" spans="1:18">
       <c r="A43" s="5" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>31</v>
@@ -7082,10 +7094,10 @@
         <v>110</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H43" s="15" t="b">
         <v>0</v>
@@ -7094,23 +7106,23 @@
         <v>0</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K43" s="9"/>
       <c r="L43" s="19" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M43" s="22" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="N43" s="23" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="O43" s="9" t="s">
         <v>118</v>
       </c>
       <c r="P43" s="9" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q43" s="15" t="b">
         <v>1</v>
@@ -7119,13 +7131,13 @@
     </row>
     <row r="44" customHeight="1" spans="1:18">
       <c r="A44" s="5" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>31</v>
@@ -7134,10 +7146,10 @@
         <v>110</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H44" s="15" t="b">
         <v>0</v>
@@ -7146,17 +7158,17 @@
         <v>0</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K44" s="9"/>
       <c r="L44" s="19" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M44" s="22" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N44" s="23" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="O44" s="9" t="s">
         <v>118</v>
@@ -7171,13 +7183,13 @@
     </row>
     <row r="45" customHeight="1" spans="1:18">
       <c r="A45" s="5" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>31</v>
@@ -7186,10 +7198,10 @@
         <v>110</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H45" s="15" t="b">
         <v>0</v>
@@ -7198,23 +7210,23 @@
         <v>0</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K45" s="9"/>
       <c r="L45" s="19" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M45" s="22" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="N45" s="23" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O45" s="9" t="s">
         <v>118</v>
       </c>
       <c r="P45" s="9" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q45" s="15" t="b">
         <v>1</v>
@@ -7223,13 +7235,13 @@
     </row>
     <row r="46" customHeight="1" spans="1:18">
       <c r="A46" s="5" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>31</v>
@@ -7238,10 +7250,10 @@
         <v>110</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H46" s="15" t="b">
         <v>0</v>
@@ -7250,23 +7262,23 @@
         <v>0</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K46" s="9"/>
       <c r="L46" s="19" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M46" s="22" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="N46" s="23" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="O46" s="9" t="s">
         <v>118</v>
       </c>
       <c r="P46" s="9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q46" s="15" t="b">
         <v>1</v>
@@ -7275,13 +7287,13 @@
     </row>
     <row r="47" customHeight="1" spans="1:18">
       <c r="A47" s="5" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>31</v>
@@ -7290,10 +7302,10 @@
         <v>110</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H47" s="15" t="b">
         <v>0</v>
@@ -7302,23 +7314,23 @@
         <v>0</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K47" s="9"/>
       <c r="L47" s="19" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M47" s="22" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="N47" s="23" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="O47" s="9" t="s">
         <v>118</v>
       </c>
       <c r="P47" s="9" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q47" s="15" t="b">
         <v>1</v>
@@ -7327,13 +7339,13 @@
     </row>
     <row r="48" customHeight="1" spans="1:18">
       <c r="A48" s="5" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>31</v>
@@ -7342,10 +7354,10 @@
         <v>110</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H48" s="15" t="b">
         <v>0</v>
@@ -7354,23 +7366,23 @@
         <v>0</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K48" s="9"/>
       <c r="L48" s="19" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M48" s="22" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="N48" s="23" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="O48" s="9" t="s">
         <v>118</v>
       </c>
       <c r="P48" s="9" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q48" s="15" t="b">
         <v>1</v>
@@ -7379,13 +7391,13 @@
     </row>
     <row r="49" customHeight="1" spans="1:18">
       <c r="A49" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>31</v>
@@ -7394,10 +7406,10 @@
         <v>110</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H49" s="15" t="b">
         <v>0</v>
@@ -7406,23 +7418,23 @@
         <v>0</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K49" s="9"/>
       <c r="L49" s="19" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M49" s="22" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="N49" s="23" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="O49" s="9" t="s">
         <v>118</v>
       </c>
       <c r="P49" s="9" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q49" s="15" t="b">
         <v>1</v>
@@ -7431,13 +7443,13 @@
     </row>
     <row r="50" customHeight="1" spans="1:18">
       <c r="A50" s="5" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>31</v>
@@ -7446,10 +7458,10 @@
         <v>110</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H50" s="15" t="b">
         <v>0</v>
@@ -7458,23 +7470,23 @@
         <v>0</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K50" s="9"/>
       <c r="L50" s="19" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M50" s="22" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="N50" s="23" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="O50" s="9" t="s">
         <v>118</v>
       </c>
       <c r="P50" s="9" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q50" s="15" t="b">
         <v>1</v>
@@ -7483,13 +7495,13 @@
     </row>
     <row r="51" customHeight="1" spans="1:18">
       <c r="A51" s="5" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>31</v>
@@ -7498,10 +7510,10 @@
         <v>110</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H51" s="15" t="b">
         <v>0</v>
@@ -7510,23 +7522,23 @@
         <v>0</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K51" s="9"/>
       <c r="L51" s="19" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M51" s="22" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="N51" s="23" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="O51" s="9" t="s">
         <v>118</v>
       </c>
       <c r="P51" s="9" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q51" s="15" t="b">
         <v>1</v>
@@ -7535,13 +7547,13 @@
     </row>
     <row r="52" customHeight="1" spans="1:18">
       <c r="A52" s="5" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>31</v>
@@ -7550,10 +7562,10 @@
         <v>110</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H52" s="15" t="b">
         <v>0</v>
@@ -7562,23 +7574,23 @@
         <v>0</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K52" s="9"/>
       <c r="L52" s="19" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M52" s="22" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="N52" s="23" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="O52" s="9" t="s">
         <v>118</v>
       </c>
       <c r="P52" s="9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q52" s="15" t="s">
         <v>119</v>
@@ -7587,13 +7599,13 @@
     </row>
     <row r="53" customHeight="1" spans="1:18">
       <c r="A53" s="5" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>31</v>
@@ -7602,10 +7614,10 @@
         <v>110</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H53" s="15" t="b">
         <v>0</v>
@@ -7614,23 +7626,23 @@
         <v>0</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K53" s="9"/>
       <c r="L53" s="19" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M53" s="22" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="N53" s="23" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="O53" s="9" t="s">
         <v>118</v>
       </c>
       <c r="P53" s="9" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q53" s="15" t="b">
         <v>1</v>
@@ -7639,13 +7651,13 @@
     </row>
     <row r="54" customHeight="1" spans="1:18">
       <c r="A54" s="5" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>31</v>
@@ -7654,10 +7666,10 @@
         <v>110</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H54" s="15" t="b">
         <v>0</v>
@@ -7666,23 +7678,23 @@
         <v>0</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K54" s="9"/>
       <c r="L54" s="19" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="M54" s="22" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="N54" s="23" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="O54" s="9" t="s">
         <v>118</v>
       </c>
       <c r="P54" s="9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q54" s="15" t="b">
         <v>1</v>
@@ -7691,13 +7703,13 @@
     </row>
     <row r="55" customHeight="1" spans="1:18">
       <c r="A55" s="5" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>31</v>
@@ -7706,10 +7718,10 @@
         <v>110</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H55" s="15" t="b">
         <v>0</v>
@@ -7718,23 +7730,23 @@
         <v>0</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K55" s="9"/>
       <c r="L55" s="19" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M55" s="22" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="N55" s="23" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="O55" s="9" t="s">
         <v>118</v>
       </c>
       <c r="P55" s="9" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q55" s="15" t="b">
         <v>1</v>
@@ -7743,13 +7755,13 @@
     </row>
     <row r="56" customHeight="1" spans="1:18">
       <c r="A56" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>31</v>
@@ -7758,10 +7770,10 @@
         <v>110</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H56" s="15" t="b">
         <v>0</v>
@@ -7770,23 +7782,23 @@
         <v>0</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K56" s="9"/>
       <c r="L56" s="19" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M56" s="22" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="N56" s="23" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="O56" s="9" t="s">
         <v>118</v>
       </c>
       <c r="P56" s="9" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q56" s="27" t="s">
         <v>119</v>
@@ -7795,13 +7807,13 @@
     </row>
     <row r="57" customHeight="1" spans="1:18">
       <c r="A57" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>31</v>
@@ -7810,10 +7822,10 @@
         <v>110</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H57" s="15" t="b">
         <v>0</v>
@@ -7822,23 +7834,23 @@
         <v>0</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K57" s="9"/>
       <c r="L57" s="19" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M57" s="22" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="N57" s="23" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="O57" s="9" t="s">
         <v>118</v>
       </c>
       <c r="P57" s="9" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q57" s="27" t="s">
         <v>119</v>
@@ -7847,25 +7859,25 @@
     </row>
     <row r="58" customHeight="1" spans="1:18">
       <c r="A58" s="5" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>110</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H58" s="15" t="b">
         <v>0</v>
@@ -7874,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K58" s="9"/>
       <c r="L58" s="19"/>
@@ -7884,7 +7896,7 @@
         <v>118</v>
       </c>
       <c r="P58" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q58" s="27" t="s">
         <v>119</v>
@@ -7893,25 +7905,25 @@
     </row>
     <row r="59" customHeight="1" spans="1:18">
       <c r="A59" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B59" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="D59" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="C59" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>461</v>
-      </c>
       <c r="E59" s="9" t="s">
         <v>110</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H59" s="15" t="b">
         <v>0</v>
@@ -7920,7 +7932,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K59" s="9"/>
       <c r="L59" s="19"/>
@@ -7939,25 +7951,25 @@
     </row>
     <row r="60" customHeight="1" spans="1:18">
       <c r="A60" s="5" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>110</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H60" s="15" t="b">
         <v>0</v>
@@ -7966,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K60" s="9"/>
       <c r="L60" s="19"/>
@@ -7985,25 +7997,25 @@
     </row>
     <row r="61" customHeight="1" spans="1:18">
       <c r="A61" s="5" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>110</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="G61" s="14" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H61" s="15" t="b">
         <v>0</v>
@@ -8012,7 +8024,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K61" s="9"/>
       <c r="L61" s="19"/>
@@ -8031,25 +8043,25 @@
     </row>
     <row r="62" customHeight="1" spans="1:18">
       <c r="A62" s="5" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>110</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G62" s="14" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H62" s="15" t="b">
         <v>0</v>
@@ -8058,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K62" s="9"/>
       <c r="L62" s="19"/>
@@ -8077,25 +8089,25 @@
     </row>
     <row r="63" customHeight="1" spans="1:18">
       <c r="A63" s="5" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B63" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="D63" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="C63" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>480</v>
-      </c>
       <c r="E63" s="9" t="s">
         <v>110</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G63" s="14" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H63" s="15" t="b">
         <v>0</v>
@@ -8104,7 +8116,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K63" s="9"/>
       <c r="L63" s="19"/>
@@ -8123,25 +8135,25 @@
     </row>
     <row r="64" customHeight="1" spans="1:18">
       <c r="A64" s="5" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>110</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="G64" s="14" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H64" s="15" t="b">
         <v>0</v>
@@ -8150,7 +8162,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K64" s="9"/>
       <c r="L64" s="19"/>
@@ -8169,25 +8181,25 @@
     </row>
     <row r="65" customHeight="1" spans="1:18">
       <c r="A65" s="5" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>110</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G65" s="14" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="H65" s="15" t="b">
         <v>0</v>
@@ -8196,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K65" s="9"/>
       <c r="L65" s="19"/>
@@ -8215,25 +8227,25 @@
     </row>
     <row r="66" customHeight="1" spans="1:18">
       <c r="A66" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="D66" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>492</v>
-      </c>
       <c r="E66" s="9" t="s">
         <v>110</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="G66" s="14" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H66" s="15" t="b">
         <v>0</v>
@@ -8242,7 +8254,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K66" s="9"/>
       <c r="L66" s="19"/>
@@ -8261,25 +8273,25 @@
     </row>
     <row r="67" customHeight="1" spans="1:18">
       <c r="A67" s="5" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>110</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G67" s="14" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="H67" s="15" t="b">
         <v>0</v>
@@ -8288,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K67" s="9"/>
       <c r="L67" s="19"/>
@@ -8307,25 +8319,25 @@
     </row>
     <row r="68" customHeight="1" spans="1:18">
       <c r="A68" s="5" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>110</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="H68" s="15" t="b">
         <v>0</v>
@@ -8334,7 +8346,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K68" s="9"/>
       <c r="L68" s="19"/>
@@ -8356,22 +8368,22 @@
         <v>136</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>110</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="G69" s="14" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="H69" s="15" t="b">
         <v>0</v>
@@ -8380,7 +8392,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K69" s="9"/>
       <c r="L69" s="19"/>
@@ -8399,13 +8411,13 @@
     </row>
     <row r="70" customHeight="1" spans="1:18">
       <c r="A70" s="5" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B70" s="28" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>49</v>
@@ -8417,7 +8429,7 @@
         <v>860</v>
       </c>
       <c r="G70" s="31" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="H70" s="15" t="b">
         <v>0</v>
@@ -8426,7 +8438,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
@@ -8445,13 +8457,13 @@
     </row>
     <row r="71" customHeight="1" spans="1:18">
       <c r="A71" s="5" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B71" s="28" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>49</v>
@@ -8463,7 +8475,7 @@
         <v>960</v>
       </c>
       <c r="G71" s="31" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="H71" s="15" t="b">
         <v>0</v>
@@ -8472,7 +8484,7 @@
         <v>0</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K71" s="9"/>
       <c r="L71" s="9"/>
@@ -8491,13 +8503,13 @@
     </row>
     <row r="72" customHeight="1" spans="1:18">
       <c r="A72" s="5" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>49</v>
@@ -8509,7 +8521,7 @@
         <v>860</v>
       </c>
       <c r="G72" s="31" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="H72" s="15" t="b">
         <v>0</v>
@@ -8518,7 +8530,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
@@ -8537,13 +8549,13 @@
     </row>
     <row r="73" customHeight="1" spans="1:18">
       <c r="A73" s="5" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>49</v>
@@ -8555,7 +8567,7 @@
         <v>1080</v>
       </c>
       <c r="G73" s="31" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H73" s="15" t="b">
         <v>0</v>
@@ -8564,7 +8576,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
@@ -8583,13 +8595,13 @@
     </row>
     <row r="74" customHeight="1" spans="1:18">
       <c r="A74" s="5" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B74" s="28" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>49</v>
@@ -8601,7 +8613,7 @@
         <v>1180</v>
       </c>
       <c r="G74" s="31" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H74" s="15" t="b">
         <v>0</v>
@@ -8610,7 +8622,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
@@ -8629,13 +8641,13 @@
     </row>
     <row r="75" customHeight="1" spans="1:18">
       <c r="A75" s="5" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B75" s="28" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C75" s="29" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>49</v>
@@ -8647,7 +8659,7 @@
         <v>1080</v>
       </c>
       <c r="G75" s="31" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="H75" s="15" t="b">
         <v>0</v>
@@ -8656,7 +8668,7 @@
         <v>0</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
@@ -8675,13 +8687,13 @@
     </row>
     <row r="76" customHeight="1" spans="1:18">
       <c r="A76" s="5" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B76" s="28" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C76" s="29" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>49</v>
@@ -8693,7 +8705,7 @@
         <v>1100</v>
       </c>
       <c r="G76" s="31" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="H76" s="15" t="b">
         <v>0</v>
@@ -8702,7 +8714,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
@@ -8721,16 +8733,16 @@
     </row>
     <row r="77" customHeight="1" spans="1:18">
       <c r="A77" s="5" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B77" s="28" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C77" s="29" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>110</v>
@@ -8739,7 +8751,7 @@
         <v>1100</v>
       </c>
       <c r="G77" s="31" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="H77" s="15" t="b">
         <v>0</v>
@@ -8748,7 +8760,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
@@ -8767,13 +8779,13 @@
     </row>
     <row r="78" customHeight="1" spans="1:18">
       <c r="A78" s="5" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B78" s="28" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>49</v>
@@ -8785,7 +8797,7 @@
         <v>1100</v>
       </c>
       <c r="G78" s="31" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="H78" s="15" t="b">
         <v>0</v>
@@ -8794,7 +8806,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
@@ -8813,13 +8825,13 @@
     </row>
     <row r="79" customHeight="1" spans="1:18">
       <c r="A79" s="5" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B79" s="28" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>49</v>
@@ -8831,7 +8843,7 @@
         <v>1180</v>
       </c>
       <c r="G79" s="31" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="H79" s="15" t="b">
         <v>0</v>
@@ -8840,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
@@ -8859,13 +8871,13 @@
     </row>
     <row r="80" customHeight="1" spans="1:18">
       <c r="A80" s="5" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B80" s="28" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C80" s="29" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>49</v>
@@ -8877,7 +8889,7 @@
         <v>880</v>
       </c>
       <c r="G80" s="31" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="H80" s="15" t="b">
         <v>0</v>
@@ -8886,7 +8898,7 @@
         <v>0</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
@@ -8905,13 +8917,13 @@
     </row>
     <row r="81" customHeight="1" spans="1:18">
       <c r="A81" s="5" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B81" s="28" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C81" s="29" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>49</v>
@@ -8923,7 +8935,7 @@
         <v>1280</v>
       </c>
       <c r="G81" s="31" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="H81" s="15" t="b">
         <v>0</v>
@@ -8932,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
@@ -8951,16 +8963,16 @@
     </row>
     <row r="82" customHeight="1" spans="1:18">
       <c r="A82" s="5" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B82" s="28" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C82" s="28" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>110</v>
@@ -8969,7 +8981,7 @@
         <v>880</v>
       </c>
       <c r="G82" s="28" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="H82" s="15" t="b">
         <v>0</v>
@@ -8978,7 +8990,7 @@
         <v>0</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
@@ -8997,13 +9009,13 @@
     </row>
     <row r="83" customHeight="1" spans="1:18">
       <c r="A83" s="5" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B83" s="28" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C83" s="28" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>52</v>
@@ -9015,7 +9027,7 @@
         <v>1100</v>
       </c>
       <c r="G83" s="28" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H83" s="15" t="b">
         <v>0</v>
@@ -9024,7 +9036,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K83" s="9"/>
       <c r="L83" s="9"/>
@@ -9043,13 +9055,13 @@
     </row>
     <row r="84" customHeight="1" spans="1:18">
       <c r="A84" s="5" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B84" s="28" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C84" s="28" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>52</v>
@@ -9061,7 +9073,7 @@
         <v>2650</v>
       </c>
       <c r="G84" s="32" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="H84" s="15" t="b">
         <v>0</v>
@@ -9070,7 +9082,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K84" s="9"/>
       <c r="L84" s="9"/>
@@ -9089,13 +9101,13 @@
     </row>
     <row r="85" customHeight="1" spans="1:18">
       <c r="A85" s="5" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B85" s="28" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C85" s="28" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>52</v>
@@ -9107,7 +9119,7 @@
         <v>880</v>
       </c>
       <c r="G85" s="28" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="H85" s="15" t="b">
         <v>0</v>
@@ -9116,7 +9128,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
@@ -9135,13 +9147,13 @@
     </row>
     <row r="86" customHeight="1" spans="1:18">
       <c r="A86" s="5" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B86" s="28" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C86" s="28" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>52</v>
@@ -9153,7 +9165,7 @@
         <v>1050</v>
       </c>
       <c r="G86" s="28" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="H86" s="15" t="b">
         <v>0</v>
@@ -9162,7 +9174,7 @@
         <v>0</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K86" s="9"/>
       <c r="L86" s="9"/>
@@ -9181,13 +9193,13 @@
     </row>
     <row r="87" customHeight="1" spans="1:18">
       <c r="A87" s="5" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B87" s="28" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C87" s="28" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>52</v>
@@ -9199,7 +9211,7 @@
         <v>880</v>
       </c>
       <c r="G87" s="28" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="H87" s="15" t="b">
         <v>0</v>
@@ -9208,7 +9220,7 @@
         <v>0</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K87" s="9"/>
       <c r="L87" s="9"/>
@@ -9227,13 +9239,13 @@
     </row>
     <row r="88" customHeight="1" spans="1:18">
       <c r="A88" s="5" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B88" s="28" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C88" s="28" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>52</v>
@@ -9245,7 +9257,7 @@
         <v>1700</v>
       </c>
       <c r="G88" s="28" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H88" s="15" t="b">
         <v>0</v>
@@ -9254,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
@@ -9273,13 +9285,13 @@
     </row>
     <row r="89" customHeight="1" spans="1:18">
       <c r="A89" s="5" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B89" s="28" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C89" s="28" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>55</v>
@@ -9291,7 +9303,7 @@
         <v>880</v>
       </c>
       <c r="G89" s="28" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="H89" s="15" t="b">
         <v>0</v>
@@ -9300,7 +9312,7 @@
         <v>0</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
@@ -9319,13 +9331,13 @@
     </row>
     <row r="90" customHeight="1" spans="1:18">
       <c r="A90" s="5" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B90" s="28" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C90" s="28" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>55</v>
@@ -9337,7 +9349,7 @@
         <v>1400</v>
       </c>
       <c r="G90" s="28" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="H90" s="15" t="b">
         <v>0</v>
@@ -9346,7 +9358,7 @@
         <v>0</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K90" s="9"/>
       <c r="L90" s="9"/>
@@ -9365,13 +9377,13 @@
     </row>
     <row r="91" customHeight="1" spans="1:18">
       <c r="A91" s="5" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B91" s="30" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C91" s="28" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>55</v>
@@ -9383,7 +9395,7 @@
         <v>1800</v>
       </c>
       <c r="G91" s="28" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="H91" s="15" t="b">
         <v>0</v>
@@ -9392,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K91" s="9"/>
       <c r="L91" s="9"/>
@@ -9411,13 +9423,13 @@
     </row>
     <row r="92" customHeight="1" spans="1:18">
       <c r="A92" s="5" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B92" s="30" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C92" s="28" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>55</v>
@@ -9429,7 +9441,7 @@
         <v>1080</v>
       </c>
       <c r="G92" s="28" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="H92" s="15" t="b">
         <v>0</v>
@@ -9438,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K92" s="9"/>
       <c r="L92" s="9"/>
@@ -9457,13 +9469,13 @@
     </row>
     <row r="93" customHeight="1" spans="1:18">
       <c r="A93" s="5" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B93" s="30" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C93" s="28" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>55</v>
@@ -9475,7 +9487,7 @@
         <v>1550</v>
       </c>
       <c r="G93" s="28" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="H93" s="15" t="b">
         <v>0</v>
@@ -9484,7 +9496,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
@@ -9503,13 +9515,13 @@
     </row>
     <row r="94" customHeight="1" spans="1:18">
       <c r="A94" s="5" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B94" s="30" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>55</v>
@@ -9521,7 +9533,7 @@
         <v>2050</v>
       </c>
       <c r="G94" s="28" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="H94" s="15" t="b">
         <v>0</v>
@@ -9530,7 +9542,7 @@
         <v>0</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
@@ -9549,13 +9561,13 @@
     </row>
     <row r="95" customHeight="1" spans="1:18">
       <c r="A95" s="5" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C95" s="28" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>55</v>
@@ -9567,7 +9579,7 @@
         <v>2850</v>
       </c>
       <c r="G95" s="28" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="H95" s="15" t="b">
         <v>0</v>
@@ -9576,7 +9588,7 @@
         <v>0</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K95" s="9"/>
       <c r="L95" s="9"/>
@@ -9595,13 +9607,13 @@
     </row>
     <row r="96" customHeight="1" spans="1:18">
       <c r="A96" s="5" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B96" s="30" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>55</v>
@@ -9613,7 +9625,7 @@
         <v>900</v>
       </c>
       <c r="G96" s="28" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="H96" s="15" t="b">
         <v>0</v>
@@ -9622,7 +9634,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
@@ -9641,13 +9653,13 @@
     </row>
     <row r="97" customHeight="1" spans="1:18">
       <c r="A97" s="5" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B97" s="30" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C97" s="28" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>55</v>
@@ -9659,7 +9671,7 @@
         <v>1650</v>
       </c>
       <c r="G97" s="28" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="H97" s="15" t="b">
         <v>0</v>
@@ -9668,7 +9680,7 @@
         <v>0</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K97" s="9"/>
       <c r="L97" s="9"/>
@@ -9687,13 +9699,13 @@
     </row>
     <row r="98" customHeight="1" spans="1:18">
       <c r="A98" s="5" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B98" s="30" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>55</v>
@@ -9705,7 +9717,7 @@
         <v>2350</v>
       </c>
       <c r="G98" s="28" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="H98" s="15" t="b">
         <v>0</v>
@@ -9714,7 +9726,7 @@
         <v>0</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K98" s="9"/>
       <c r="L98" s="9"/>
@@ -9733,13 +9745,13 @@
     </row>
     <row r="99" customHeight="1" spans="1:18">
       <c r="A99" s="5" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B99" s="30" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>55</v>
@@ -9751,7 +9763,7 @@
         <v>2180</v>
       </c>
       <c r="G99" s="28" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="H99" s="15" t="b">
         <v>0</v>
@@ -9760,7 +9772,7 @@
         <v>0</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K99" s="9"/>
       <c r="L99" s="9"/>
@@ -9779,13 +9791,13 @@
     </row>
     <row r="100" customHeight="1" spans="1:18">
       <c r="A100" s="5" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B100" s="30" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C100" s="28" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>55</v>
@@ -9797,7 +9809,7 @@
         <v>4980</v>
       </c>
       <c r="G100" s="28" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="H100" s="15" t="b">
         <v>0</v>
@@ -9806,7 +9818,7 @@
         <v>0</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K100" s="9"/>
       <c r="L100" s="9"/>
@@ -9825,13 +9837,13 @@
     </row>
     <row r="101" customHeight="1" spans="1:18">
       <c r="A101" s="5" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B101" s="30" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>55</v>
@@ -9843,7 +9855,7 @@
         <v>17800</v>
       </c>
       <c r="G101" s="28" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H101" s="15" t="b">
         <v>0</v>
@@ -9852,7 +9864,7 @@
         <v>0</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K101" s="9"/>
       <c r="L101" s="9"/>
@@ -9871,13 +9883,13 @@
     </row>
     <row r="102" customHeight="1" spans="1:18">
       <c r="A102" s="5" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B102" s="30" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>55</v>
@@ -9889,7 +9901,7 @@
         <v>2080</v>
       </c>
       <c r="G102" s="28" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="H102" s="15" t="b">
         <v>0</v>
@@ -9898,7 +9910,7 @@
         <v>0</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K102" s="9"/>
       <c r="L102" s="9"/>
@@ -9917,13 +9929,13 @@
     </row>
     <row r="103" customHeight="1" spans="1:18">
       <c r="A103" s="5" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B103" s="30" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C103" s="28" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>55</v>
@@ -9935,7 +9947,7 @@
         <v>4880</v>
       </c>
       <c r="G103" s="28" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="H103" s="15" t="b">
         <v>0</v>
@@ -9944,7 +9956,7 @@
         <v>0</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K103" s="9"/>
       <c r="L103" s="9"/>
@@ -9963,13 +9975,13 @@
     </row>
     <row r="104" customHeight="1" spans="1:18">
       <c r="A104" s="5" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B104" s="30" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C104" s="28" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>55</v>
@@ -9981,7 +9993,7 @@
         <v>17800</v>
       </c>
       <c r="G104" s="28" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H104" s="15" t="b">
         <v>0</v>
@@ -9990,7 +10002,7 @@
         <v>0</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K104" s="9"/>
       <c r="L104" s="9"/>
@@ -10009,13 +10021,13 @@
     </row>
     <row r="105" customHeight="1" spans="1:18">
       <c r="A105" s="5" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B105" s="30" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C105" s="28" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>55</v>
@@ -10027,7 +10039,7 @@
         <v>2180</v>
       </c>
       <c r="G105" s="28" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="H105" s="15" t="b">
         <v>0</v>
@@ -10036,7 +10048,7 @@
         <v>0</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K105" s="9"/>
       <c r="L105" s="9"/>
@@ -10055,13 +10067,13 @@
     </row>
     <row r="106" customHeight="1" spans="1:18">
       <c r="A106" s="5" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B106" s="30" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C106" s="28" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="D106" s="9" t="s">
         <v>55</v>
@@ -10073,7 +10085,7 @@
         <v>9800</v>
       </c>
       <c r="G106" s="28" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="H106" s="15" t="b">
         <v>0</v>
@@ -10082,7 +10094,7 @@
         <v>0</v>
       </c>
       <c r="J106" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K106" s="9"/>
       <c r="L106" s="9"/>
@@ -10101,13 +10113,13 @@
     </row>
     <row r="107" customHeight="1" spans="1:18">
       <c r="A107" s="5" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B107" s="30" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C107" s="28" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="D107" s="9" t="s">
         <v>55</v>
@@ -10119,7 +10131,7 @@
         <v>15000</v>
       </c>
       <c r="G107" s="28" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H107" s="15" t="b">
         <v>0</v>
@@ -10128,7 +10140,7 @@
         <v>0</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K107" s="9"/>
       <c r="L107" s="9"/>
@@ -10147,13 +10159,13 @@
     </row>
     <row r="108" customHeight="1" spans="1:18">
       <c r="A108" s="5" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B108" s="30" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C108" s="28" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>55</v>
@@ -10165,7 +10177,7 @@
         <v>2080</v>
       </c>
       <c r="G108" s="28" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="H108" s="15" t="b">
         <v>0</v>
@@ -10174,7 +10186,7 @@
         <v>0</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K108" s="9"/>
       <c r="L108" s="9"/>
@@ -10193,13 +10205,13 @@
     </row>
     <row r="109" customHeight="1" spans="1:18">
       <c r="A109" s="5" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B109" s="30" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C109" s="28" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D109" s="9" t="s">
         <v>55</v>
@@ -10211,7 +10223,7 @@
         <v>11000</v>
       </c>
       <c r="G109" s="28" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H109" s="15" t="b">
         <v>0</v>
@@ -10220,7 +10232,7 @@
         <v>0</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K109" s="9"/>
       <c r="L109" s="9"/>
@@ -10239,16 +10251,16 @@
     </row>
     <row r="110" customHeight="1" spans="1:18">
       <c r="A110" s="5" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B110" s="28" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C110" s="28" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>110</v>
@@ -10257,7 +10269,7 @@
         <v>1080</v>
       </c>
       <c r="G110" s="28" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="H110" s="15" t="b">
         <v>0</v>
@@ -10266,7 +10278,7 @@
         <v>0</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K110" s="9"/>
       <c r="L110" s="9"/>
@@ -10285,13 +10297,13 @@
     </row>
     <row r="111" customHeight="1" spans="1:18">
       <c r="A111" s="5" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B111" s="30" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C111" s="28" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>58</v>
@@ -10303,7 +10315,7 @@
         <v>980</v>
       </c>
       <c r="G111" s="28" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="H111" s="15" t="b">
         <v>0</v>
@@ -10312,7 +10324,7 @@
         <v>0</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K111" s="9"/>
       <c r="L111" s="9"/>
@@ -10331,13 +10343,13 @@
     </row>
     <row r="112" customHeight="1" spans="1:18">
       <c r="A112" s="5" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B112" s="30" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C112" s="28" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>58</v>
@@ -10349,7 +10361,7 @@
         <v>1180</v>
       </c>
       <c r="G112" s="28" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="H112" s="15" t="b">
         <v>0</v>
@@ -10358,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K112" s="9"/>
       <c r="L112" s="9"/>
@@ -10377,13 +10389,13 @@
     </row>
     <row r="113" customHeight="1" spans="1:18">
       <c r="A113" s="5" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B113" s="30" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C113" s="28" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>58</v>
@@ -10395,7 +10407,7 @@
         <v>1280</v>
       </c>
       <c r="G113" s="28" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="H113" s="15" t="b">
         <v>0</v>
@@ -10404,7 +10416,7 @@
         <v>0</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K113" s="9"/>
       <c r="L113" s="9"/>
@@ -10423,13 +10435,13 @@
     </row>
     <row r="114" customHeight="1" spans="1:18">
       <c r="A114" s="5" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B114" s="30" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C114" s="28" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D114" s="9" t="s">
         <v>58</v>
@@ -10441,7 +10453,7 @@
         <v>2400</v>
       </c>
       <c r="G114" s="28" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H114" s="15" t="b">
         <v>0</v>
@@ -10450,7 +10462,7 @@
         <v>0</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K114" s="9"/>
       <c r="L114" s="9"/>
@@ -10469,13 +10481,13 @@
     </row>
     <row r="115" customHeight="1" spans="1:18">
       <c r="A115" s="5" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B115" s="30" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C115" s="28" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>58</v>
@@ -10487,7 +10499,7 @@
         <v>3880</v>
       </c>
       <c r="G115" s="28" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="H115" s="15" t="b">
         <v>0</v>
@@ -10496,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K115" s="9"/>
       <c r="L115" s="9"/>
@@ -10515,13 +10527,13 @@
     </row>
     <row r="116" customHeight="1" spans="1:18">
       <c r="A116" s="5" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B116" s="30" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C116" s="28" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="D116" s="9" t="s">
         <v>58</v>
@@ -10533,7 +10545,7 @@
         <v>980</v>
       </c>
       <c r="G116" s="28" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="H116" s="15" t="b">
         <v>0</v>
@@ -10542,7 +10554,7 @@
         <v>0</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K116" s="9"/>
       <c r="L116" s="9"/>
@@ -10561,13 +10573,13 @@
     </row>
     <row r="117" customHeight="1" spans="1:18">
       <c r="A117" s="5" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B117" s="30" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C117" s="28" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>58</v>
@@ -10579,7 +10591,7 @@
         <v>1180</v>
       </c>
       <c r="G117" s="28" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="H117" s="15" t="b">
         <v>0</v>
@@ -10588,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="J117" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K117" s="9"/>
       <c r="L117" s="9"/>
@@ -10607,13 +10619,13 @@
     </row>
     <row r="118" customHeight="1" spans="1:18">
       <c r="A118" s="5" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B118" s="30" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C118" s="28" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="D118" s="9" t="s">
         <v>58</v>
@@ -10625,7 +10637,7 @@
         <v>880</v>
       </c>
       <c r="G118" s="28" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="H118" s="15" t="b">
         <v>0</v>
@@ -10634,7 +10646,7 @@
         <v>0</v>
       </c>
       <c r="J118" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K118" s="9"/>
       <c r="L118" s="9"/>
@@ -10653,13 +10665,13 @@
     </row>
     <row r="119" customHeight="1" spans="1:18">
       <c r="A119" s="5" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B119" s="30" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C119" s="28" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="D119" s="9" t="s">
         <v>58</v>
@@ -10671,7 +10683,7 @@
         <v>1480</v>
       </c>
       <c r="G119" s="28" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="H119" s="15" t="b">
         <v>0</v>
@@ -10680,7 +10692,7 @@
         <v>0</v>
       </c>
       <c r="J119" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K119" s="9"/>
       <c r="L119" s="9"/>
@@ -10699,13 +10711,13 @@
     </row>
     <row r="120" customHeight="1" spans="1:18">
       <c r="A120" s="5" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B120" s="30" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C120" s="28" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="D120" s="9" t="s">
         <v>58</v>
@@ -10717,7 +10729,7 @@
         <v>3680</v>
       </c>
       <c r="G120" s="28" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="H120" s="15" t="b">
         <v>0</v>
@@ -10726,7 +10738,7 @@
         <v>0</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K120" s="9"/>
       <c r="L120" s="9"/>
@@ -10745,13 +10757,13 @@
     </row>
     <row r="121" customHeight="1" spans="1:18">
       <c r="A121" s="5" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B121" s="30" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C121" s="28" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="D121" s="9" t="s">
         <v>58</v>
@@ -10763,7 +10775,7 @@
         <v>1180</v>
       </c>
       <c r="G121" s="28" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="H121" s="15" t="b">
         <v>0</v>
@@ -10772,7 +10784,7 @@
         <v>0</v>
       </c>
       <c r="J121" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K121" s="9"/>
       <c r="L121" s="9"/>
@@ -10791,13 +10803,13 @@
     </row>
     <row r="122" customHeight="1" spans="1:18">
       <c r="A122" s="5" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B122" s="30" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C122" s="28" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="D122" s="9" t="s">
         <v>58</v>
@@ -10809,7 +10821,7 @@
         <v>2380</v>
       </c>
       <c r="G122" s="28" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="H122" s="15" t="b">
         <v>0</v>
@@ -10818,7 +10830,7 @@
         <v>0</v>
       </c>
       <c r="J122" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K122" s="9"/>
       <c r="L122" s="9"/>
@@ -10837,13 +10849,13 @@
     </row>
     <row r="123" customHeight="1" spans="1:18">
       <c r="A123" s="5" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B123" s="30" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C123" s="28" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="D123" s="9" t="s">
         <v>61</v>
@@ -10855,7 +10867,7 @@
         <v>1380</v>
       </c>
       <c r="G123" s="28" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="H123" s="15" t="b">
         <v>0</v>
@@ -10864,7 +10876,7 @@
         <v>0</v>
       </c>
       <c r="J123" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K123" s="9"/>
       <c r="L123" s="9"/>
@@ -10883,13 +10895,13 @@
     </row>
     <row r="124" customHeight="1" spans="1:18">
       <c r="A124" s="5" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B124" s="30" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C124" s="28" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="D124" s="9" t="s">
         <v>61</v>
@@ -10901,7 +10913,7 @@
         <v>1180</v>
       </c>
       <c r="G124" s="28" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H124" s="15" t="b">
         <v>0</v>
@@ -10910,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="J124" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K124" s="9"/>
       <c r="L124" s="9"/>
@@ -10929,13 +10941,13 @@
     </row>
     <row r="125" customHeight="1" spans="1:18">
       <c r="A125" s="5" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B125" s="30" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C125" s="28" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="D125" s="9" t="s">
         <v>61</v>
@@ -10947,7 +10959,7 @@
         <v>1680</v>
       </c>
       <c r="G125" s="28" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="H125" s="15" t="b">
         <v>0</v>
@@ -10956,7 +10968,7 @@
         <v>0</v>
       </c>
       <c r="J125" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K125" s="9"/>
       <c r="L125" s="9"/>
@@ -10975,13 +10987,13 @@
     </row>
     <row r="126" customHeight="1" spans="1:18">
       <c r="A126" s="5" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B126" s="30" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C126" s="28" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="D126" s="9" t="s">
         <v>61</v>
@@ -10993,7 +11005,7 @@
         <v>2180</v>
       </c>
       <c r="G126" s="28" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="H126" s="15" t="b">
         <v>0</v>
@@ -11002,7 +11014,7 @@
         <v>0</v>
       </c>
       <c r="J126" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K126" s="9"/>
       <c r="L126" s="9"/>
@@ -11021,13 +11033,13 @@
     </row>
     <row r="127" customHeight="1" spans="1:18">
       <c r="A127" s="5" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B127" s="30" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C127" s="28" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="D127" s="9" t="s">
         <v>61</v>
@@ -11039,7 +11051,7 @@
         <v>980</v>
       </c>
       <c r="G127" s="28" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="H127" s="15" t="b">
         <v>0</v>
@@ -11048,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="J127" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K127" s="9"/>
       <c r="L127" s="9"/>
@@ -11067,13 +11079,13 @@
     </row>
     <row r="128" customHeight="1" spans="1:18">
       <c r="A128" s="5" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B128" s="30" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C128" s="28" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D128" s="9" t="s">
         <v>61</v>
@@ -11085,7 +11097,7 @@
         <v>1280</v>
       </c>
       <c r="G128" s="28" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="H128" s="15" t="b">
         <v>0</v>
@@ -11094,7 +11106,7 @@
         <v>0</v>
       </c>
       <c r="J128" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K128" s="9"/>
       <c r="L128" s="9"/>
@@ -11113,13 +11125,13 @@
     </row>
     <row r="129" customHeight="1" spans="1:18">
       <c r="A129" s="5" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B129" s="28" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C129" s="28" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="D129" s="9" t="s">
         <v>61</v>
@@ -11131,7 +11143,7 @@
         <v>1080</v>
       </c>
       <c r="G129" s="28" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="H129" s="15" t="b">
         <v>0</v>
@@ -11140,7 +11152,7 @@
         <v>0</v>
       </c>
       <c r="J129" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K129" s="9"/>
       <c r="L129" s="9"/>
@@ -11159,13 +11171,13 @@
     </row>
     <row r="130" customHeight="1" spans="1:18">
       <c r="A130" s="5" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B130" s="28" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C130" s="28" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D130" s="9" t="s">
         <v>61</v>
@@ -11177,7 +11189,7 @@
         <v>1880</v>
       </c>
       <c r="G130" s="28" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="H130" s="15" t="b">
         <v>0</v>
@@ -11186,7 +11198,7 @@
         <v>0</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K130" s="9"/>
       <c r="L130" s="9"/>
@@ -11205,13 +11217,13 @@
     </row>
     <row r="131" customHeight="1" spans="1:18">
       <c r="A131" s="5" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B131" s="28" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C131" s="28" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="D131" s="9" t="s">
         <v>61</v>
@@ -11223,7 +11235,7 @@
         <v>2680</v>
       </c>
       <c r="G131" s="28" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="H131" s="15" t="b">
         <v>0</v>
@@ -11232,7 +11244,7 @@
         <v>0</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K131" s="9"/>
       <c r="L131" s="9"/>
@@ -11251,13 +11263,13 @@
     </row>
     <row r="132" customHeight="1" spans="1:18">
       <c r="A132" s="5" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B132" s="30" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="C132" s="28" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="D132" s="9" t="s">
         <v>61</v>
@@ -11269,7 +11281,7 @@
         <v>1380</v>
       </c>
       <c r="G132" s="28" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="H132" s="15" t="b">
         <v>0</v>
@@ -11278,7 +11290,7 @@
         <v>0</v>
       </c>
       <c r="J132" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K132" s="9"/>
       <c r="L132" s="9"/>
@@ -11297,13 +11309,13 @@
     </row>
     <row r="133" customHeight="1" spans="1:18">
       <c r="A133" s="5" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B133" s="30" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C133" s="28" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="D133" s="9" t="s">
         <v>61</v>
@@ -11315,7 +11327,7 @@
         <v>1480</v>
       </c>
       <c r="G133" s="28" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="H133" s="15" t="b">
         <v>0</v>
@@ -11324,7 +11336,7 @@
         <v>0</v>
       </c>
       <c r="J133" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K133" s="9"/>
       <c r="L133" s="9"/>
@@ -11343,13 +11355,13 @@
     </row>
     <row r="134" customHeight="1" spans="1:18">
       <c r="A134" s="5" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B134" s="30" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="C134" s="28" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="D134" s="33" t="s">
         <v>64</v>
@@ -11361,7 +11373,7 @@
         <v>1580</v>
       </c>
       <c r="G134" s="28" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="H134" s="15" t="b">
         <v>0</v>
@@ -11370,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="J134" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K134" s="9"/>
       <c r="L134" s="9"/>
@@ -11389,13 +11401,13 @@
     </row>
     <row r="135" customHeight="1" spans="1:18">
       <c r="A135" s="5" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B135" s="30" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C135" s="28" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="D135" s="33" t="s">
         <v>64</v>
@@ -11407,7 +11419,7 @@
         <v>880</v>
       </c>
       <c r="G135" s="28" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="H135" s="15" t="b">
         <v>0</v>
@@ -11416,7 +11428,7 @@
         <v>0</v>
       </c>
       <c r="J135" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K135" s="9"/>
       <c r="L135" s="9"/>
@@ -11435,13 +11447,13 @@
     </row>
     <row r="136" customHeight="1" spans="1:18">
       <c r="A136" s="5" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B136" s="30" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C136" s="28" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="D136" s="33" t="s">
         <v>64</v>
@@ -11453,7 +11465,7 @@
         <v>1380</v>
       </c>
       <c r="G136" s="28" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="H136" s="15" t="b">
         <v>0</v>
@@ -11462,7 +11474,7 @@
         <v>0</v>
       </c>
       <c r="J136" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K136" s="9"/>
       <c r="L136" s="9"/>
@@ -11481,13 +11493,13 @@
     </row>
     <row r="137" customHeight="1" spans="1:18">
       <c r="A137" s="5" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B137" s="30" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C137" s="28" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="D137" s="33" t="s">
         <v>64</v>
@@ -11499,7 +11511,7 @@
         <v>1580</v>
       </c>
       <c r="G137" s="28" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="H137" s="15" t="b">
         <v>0</v>
@@ -11508,7 +11520,7 @@
         <v>0</v>
       </c>
       <c r="J137" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K137" s="9"/>
       <c r="L137" s="9"/>
@@ -11527,13 +11539,13 @@
     </row>
     <row r="138" customHeight="1" spans="1:18">
       <c r="A138" s="5" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B138" s="30" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C138" s="28" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="D138" s="33" t="s">
         <v>64</v>
@@ -11545,7 +11557,7 @@
         <v>880</v>
       </c>
       <c r="G138" s="28" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="H138" s="15" t="b">
         <v>0</v>
@@ -11554,7 +11566,7 @@
         <v>0</v>
       </c>
       <c r="J138" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K138" s="9"/>
       <c r="L138" s="9"/>
@@ -11573,13 +11585,13 @@
     </row>
     <row r="139" customHeight="1" spans="1:18">
       <c r="A139" s="5" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B139" s="30" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C139" s="28" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="D139" s="33" t="s">
         <v>64</v>
@@ -11591,7 +11603,7 @@
         <v>2380</v>
       </c>
       <c r="G139" s="28" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="H139" s="15" t="b">
         <v>0</v>
@@ -11600,7 +11612,7 @@
         <v>0</v>
       </c>
       <c r="J139" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K139" s="9"/>
       <c r="L139" s="9"/>
@@ -11619,13 +11631,13 @@
     </row>
     <row r="140" customHeight="1" spans="1:18">
       <c r="A140" s="5" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B140" s="28" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="C140" s="28" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="D140" s="33" t="s">
         <v>67</v>
@@ -11637,7 +11649,7 @@
         <v>880</v>
       </c>
       <c r="G140" s="28" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="H140" s="15" t="b">
         <v>0</v>
@@ -11646,7 +11658,7 @@
         <v>0</v>
       </c>
       <c r="J140" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K140" s="9"/>
       <c r="L140" s="9"/>
@@ -11665,13 +11677,13 @@
     </row>
     <row r="141" customHeight="1" spans="1:18">
       <c r="A141" s="5" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B141" s="28" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C141" s="28" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="D141" s="33" t="s">
         <v>67</v>
@@ -11683,7 +11695,7 @@
         <v>780</v>
       </c>
       <c r="G141" s="28" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="H141" s="15" t="b">
         <v>0</v>
@@ -11692,7 +11704,7 @@
         <v>0</v>
       </c>
       <c r="J141" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K141" s="9"/>
       <c r="L141" s="9"/>
@@ -11711,13 +11723,13 @@
     </row>
     <row r="142" customHeight="1" spans="1:18">
       <c r="A142" s="5" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B142" s="28" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C142" s="28" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="D142" s="33" t="s">
         <v>67</v>
@@ -11729,7 +11741,7 @@
         <v>780</v>
       </c>
       <c r="G142" s="28" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="H142" s="15" t="b">
         <v>0</v>
@@ -11738,7 +11750,7 @@
         <v>0</v>
       </c>
       <c r="J142" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K142" s="9"/>
       <c r="L142" s="9"/>
@@ -11757,13 +11769,13 @@
     </row>
     <row r="143" customHeight="1" spans="1:18">
       <c r="A143" s="5" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B143" s="28" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="C143" s="28" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D143" s="33" t="s">
         <v>67</v>
@@ -11775,7 +11787,7 @@
         <v>880</v>
       </c>
       <c r="G143" s="28" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="H143" s="15" t="b">
         <v>0</v>
@@ -11784,7 +11796,7 @@
         <v>0</v>
       </c>
       <c r="J143" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K143" s="9"/>
       <c r="L143" s="9"/>
@@ -11803,13 +11815,13 @@
     </row>
     <row r="144" customHeight="1" spans="1:18">
       <c r="A144" s="5" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B144" s="28" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C144" s="28" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="D144" s="33" t="s">
         <v>67</v>
@@ -11821,7 +11833,7 @@
         <v>1280</v>
       </c>
       <c r="G144" s="28" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="H144" s="15" t="b">
         <v>0</v>
@@ -11830,7 +11842,7 @@
         <v>0</v>
       </c>
       <c r="J144" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K144" s="9"/>
       <c r="L144" s="9"/>
@@ -11849,13 +11861,13 @@
     </row>
     <row r="145" customHeight="1" spans="1:18">
       <c r="A145" s="5" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B145" s="28" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="C145" s="28" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="D145" s="33" t="s">
         <v>67</v>
@@ -11867,7 +11879,7 @@
         <v>1780</v>
       </c>
       <c r="G145" s="28" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="H145" s="15" t="b">
         <v>0</v>
@@ -11876,7 +11888,7 @@
         <v>0</v>
       </c>
       <c r="J145" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K145" s="9"/>
       <c r="L145" s="9"/>
@@ -11895,13 +11907,13 @@
     </row>
     <row r="146" customHeight="1" spans="1:18">
       <c r="A146" s="5" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B146" s="28" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C146" s="28" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="D146" s="33" t="s">
         <v>67</v>
@@ -11913,7 +11925,7 @@
         <v>1180</v>
       </c>
       <c r="G146" s="28" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="H146" s="15" t="b">
         <v>0</v>
@@ -11922,7 +11934,7 @@
         <v>0</v>
       </c>
       <c r="J146" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K146" s="9"/>
       <c r="L146" s="9"/>
@@ -11941,13 +11953,13 @@
     </row>
     <row r="147" customHeight="1" spans="1:18">
       <c r="A147" s="5" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B147" s="28" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C147" s="28" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="D147" s="33" t="s">
         <v>67</v>
@@ -11959,7 +11971,7 @@
         <v>1280</v>
       </c>
       <c r="G147" s="28" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="H147" s="15" t="b">
         <v>0</v>
@@ -11968,7 +11980,7 @@
         <v>0</v>
       </c>
       <c r="J147" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K147" s="9"/>
       <c r="L147" s="9"/>
@@ -11987,13 +11999,13 @@
     </row>
     <row r="148" customHeight="1" spans="1:18">
       <c r="A148" s="5" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B148" s="28" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C148" s="28" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="D148" s="33" t="s">
         <v>67</v>
@@ -12005,7 +12017,7 @@
         <v>1780</v>
       </c>
       <c r="G148" s="28" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="H148" s="15" t="b">
         <v>0</v>
@@ -12014,7 +12026,7 @@
         <v>0</v>
       </c>
       <c r="J148" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K148" s="9"/>
       <c r="L148" s="9"/>
@@ -12033,13 +12045,13 @@
     </row>
     <row r="149" customHeight="1" spans="1:18">
       <c r="A149" s="5" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B149" s="28" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C149" s="28" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="D149" s="33" t="s">
         <v>67</v>
@@ -12051,7 +12063,7 @@
         <v>2480</v>
       </c>
       <c r="G149" s="28" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="H149" s="15" t="b">
         <v>0</v>
@@ -12060,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="J149" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K149" s="9"/>
       <c r="L149" s="9"/>
@@ -12079,13 +12091,13 @@
     </row>
     <row r="150" customHeight="1" spans="1:18">
       <c r="A150" s="5" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B150" s="30" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C150" s="28" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="D150" s="33" t="s">
         <v>67</v>
@@ -12097,7 +12109,7 @@
         <v>1180</v>
       </c>
       <c r="G150" s="28" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H150" s="15" t="b">
         <v>0</v>
@@ -12106,7 +12118,7 @@
         <v>0</v>
       </c>
       <c r="J150" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K150" s="9"/>
       <c r="L150" s="9"/>
@@ -12125,13 +12137,13 @@
     </row>
     <row r="151" customHeight="1" spans="1:18">
       <c r="A151" s="5" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B151" s="30" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C151" s="28" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D151" s="33" t="s">
         <v>67</v>
@@ -12143,7 +12155,7 @@
         <v>980</v>
       </c>
       <c r="G151" s="28" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="H151" s="15" t="b">
         <v>0</v>
@@ -12152,7 +12164,7 @@
         <v>0</v>
       </c>
       <c r="J151" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K151" s="9"/>
       <c r="L151" s="9"/>
@@ -12171,13 +12183,13 @@
     </row>
     <row r="152" customHeight="1" spans="1:18">
       <c r="A152" s="5" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B152" s="30" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="C152" s="28" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="D152" s="33" t="s">
         <v>67</v>
@@ -12189,7 +12201,7 @@
         <v>1650</v>
       </c>
       <c r="G152" s="28" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="H152" s="15" t="b">
         <v>0</v>
@@ -12198,7 +12210,7 @@
         <v>0</v>
       </c>
       <c r="J152" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K152" s="9"/>
       <c r="L152" s="9"/>
@@ -12217,13 +12229,13 @@
     </row>
     <row r="153" customHeight="1" spans="1:18">
       <c r="A153" s="5" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B153" s="30" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="C153" s="28" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="D153" s="33" t="s">
         <v>67</v>
@@ -12235,7 +12247,7 @@
         <v>1100</v>
       </c>
       <c r="G153" s="28" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="H153" s="15" t="b">
         <v>0</v>
@@ -12244,7 +12256,7 @@
         <v>0</v>
       </c>
       <c r="J153" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K153" s="9"/>
       <c r="L153" s="9"/>
@@ -12263,13 +12275,13 @@
     </row>
     <row r="154" customHeight="1" spans="1:18">
       <c r="A154" s="5" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B154" s="30" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="C154" s="28" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="D154" s="33" t="s">
         <v>67</v>
@@ -12281,7 +12293,7 @@
         <v>980</v>
       </c>
       <c r="G154" s="28" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="H154" s="15" t="b">
         <v>0</v>
@@ -12290,7 +12302,7 @@
         <v>0</v>
       </c>
       <c r="J154" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K154" s="9"/>
       <c r="L154" s="9"/>
@@ -12309,13 +12321,13 @@
     </row>
     <row r="155" customHeight="1" spans="1:18">
       <c r="A155" s="5" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B155" s="30" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="C155" s="28" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="D155" s="33" t="s">
         <v>67</v>
@@ -12327,7 +12339,7 @@
         <v>1080</v>
       </c>
       <c r="G155" s="28" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="H155" s="15" t="b">
         <v>0</v>
@@ -12336,7 +12348,7 @@
         <v>0</v>
       </c>
       <c r="J155" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K155" s="9"/>
       <c r="L155" s="9"/>
@@ -12355,13 +12367,13 @@
     </row>
     <row r="156" customHeight="1" spans="1:18">
       <c r="A156" s="5" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B156" s="30" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="C156" s="28" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="D156" s="33" t="s">
         <v>67</v>
@@ -12373,7 +12385,7 @@
         <v>1680</v>
       </c>
       <c r="G156" s="28" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="H156" s="15" t="b">
         <v>0</v>
@@ -12382,7 +12394,7 @@
         <v>0</v>
       </c>
       <c r="J156" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K156" s="9"/>
       <c r="L156" s="9"/>
@@ -12401,13 +12413,13 @@
     </row>
     <row r="157" customHeight="1" spans="1:18">
       <c r="A157" s="5" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B157" s="30" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="C157" s="28" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="D157" s="33" t="s">
         <v>67</v>
@@ -12419,7 +12431,7 @@
         <v>980</v>
       </c>
       <c r="G157" s="28" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="H157" s="15" t="b">
         <v>0</v>
@@ -12428,7 +12440,7 @@
         <v>0</v>
       </c>
       <c r="J157" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K157" s="9"/>
       <c r="L157" s="9"/>
@@ -12447,13 +12459,13 @@
     </row>
     <row r="158" customHeight="1" spans="1:18">
       <c r="A158" s="5" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B158" s="30" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="C158" s="28" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="D158" s="33" t="s">
         <v>67</v>
@@ -12465,7 +12477,7 @@
         <v>1080</v>
       </c>
       <c r="G158" s="28" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="H158" s="15" t="b">
         <v>0</v>
@@ -12474,7 +12486,7 @@
         <v>0</v>
       </c>
       <c r="J158" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K158" s="9"/>
       <c r="L158" s="9"/>
@@ -12496,10 +12508,10 @@
         <v>122</v>
       </c>
       <c r="B159" s="30" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="C159" s="28" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="D159" s="33" t="s">
         <v>67</v>
@@ -12511,7 +12523,7 @@
         <v>1480</v>
       </c>
       <c r="G159" s="28" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="H159" s="15" t="b">
         <v>0</v>
@@ -12520,7 +12532,7 @@
         <v>0</v>
       </c>
       <c r="J159" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K159" s="9"/>
       <c r="L159" s="9"/>
@@ -12539,13 +12551,13 @@
     </row>
     <row r="160" customHeight="1" spans="1:18">
       <c r="A160" s="5" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B160" s="30" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C160" s="28" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="D160" s="33" t="s">
         <v>67</v>
@@ -12557,7 +12569,7 @@
         <v>3480</v>
       </c>
       <c r="G160" s="28" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="H160" s="15" t="b">
         <v>0</v>
@@ -12566,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="J160" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K160" s="9"/>
       <c r="L160" s="9"/>
@@ -12585,13 +12597,13 @@
     </row>
     <row r="161" customHeight="1" spans="1:18">
       <c r="A161" s="5" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B161" s="30" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="C161" s="28" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="D161" s="33" t="s">
         <v>67</v>
@@ -12603,7 +12615,7 @@
         <v>1280</v>
       </c>
       <c r="G161" s="28" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="H161" s="15" t="b">
         <v>0</v>
@@ -12612,7 +12624,7 @@
         <v>0</v>
       </c>
       <c r="J161" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K161" s="9"/>
       <c r="L161" s="9"/>
@@ -12631,13 +12643,13 @@
     </row>
     <row r="162" customHeight="1" spans="1:18">
       <c r="A162" s="5" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B162" s="30" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C162" s="28" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="D162" s="33" t="s">
         <v>67</v>
@@ -12649,7 +12661,7 @@
         <v>1680</v>
       </c>
       <c r="G162" s="28" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="H162" s="15" t="b">
         <v>0</v>
@@ -12658,7 +12670,7 @@
         <v>0</v>
       </c>
       <c r="J162" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K162" s="9"/>
       <c r="L162" s="9"/>
@@ -12677,13 +12689,13 @@
     </row>
     <row r="163" customHeight="1" spans="1:18">
       <c r="A163" s="5" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B163" s="30" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="C163" s="28" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D163" s="33" t="s">
         <v>67</v>
@@ -12695,7 +12707,7 @@
         <v>2680</v>
       </c>
       <c r="G163" s="28" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="H163" s="15" t="b">
         <v>0</v>
@@ -12704,7 +12716,7 @@
         <v>0</v>
       </c>
       <c r="J163" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K163" s="9"/>
       <c r="L163" s="9"/>
@@ -12723,13 +12735,13 @@
     </row>
     <row r="164" customHeight="1" spans="1:18">
       <c r="A164" s="5" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B164" s="30" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C164" s="28" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="D164" s="33" t="s">
         <v>67</v>
@@ -12741,7 +12753,7 @@
         <v>3680</v>
       </c>
       <c r="G164" s="28" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="H164" s="15" t="b">
         <v>0</v>
@@ -12750,7 +12762,7 @@
         <v>0</v>
       </c>
       <c r="J164" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K164" s="9"/>
       <c r="L164" s="9"/>
@@ -12769,13 +12781,13 @@
     </row>
     <row r="165" customFormat="1" customHeight="1" spans="1:18">
       <c r="A165" s="5" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="B165" s="30" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="C165" s="28" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="D165" s="33" t="s">
         <v>70</v>
@@ -12787,7 +12799,7 @@
         <v>28</v>
       </c>
       <c r="G165" s="14" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="H165" s="15" t="b">
         <v>0</v>
@@ -12796,7 +12808,7 @@
         <v>0</v>
       </c>
       <c r="J165" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K165" s="9"/>
       <c r="L165" s="9"/>
@@ -12815,13 +12827,13 @@
     </row>
     <row r="166" customFormat="1" customHeight="1" spans="1:18">
       <c r="A166" s="5" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B166" s="30" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="C166" s="28" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="D166" s="33" t="s">
         <v>70</v>
@@ -12833,7 +12845,7 @@
         <v>35</v>
       </c>
       <c r="G166" s="14" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="H166" s="15" t="b">
         <v>0</v>
@@ -12842,7 +12854,7 @@
         <v>0</v>
       </c>
       <c r="J166" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K166" s="9"/>
       <c r="L166" s="9"/>
@@ -12861,13 +12873,13 @@
     </row>
     <row r="167" customFormat="1" customHeight="1" spans="1:18">
       <c r="A167" s="5" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B167" s="30" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="C167" s="28" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="D167" s="33" t="s">
         <v>70</v>
@@ -12879,7 +12891,7 @@
         <v>30</v>
       </c>
       <c r="G167" s="14" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="H167" s="15" t="b">
         <v>0</v>
@@ -12888,7 +12900,7 @@
         <v>0</v>
       </c>
       <c r="J167" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K167" s="9"/>
       <c r="L167" s="9"/>
@@ -12907,13 +12919,13 @@
     </row>
     <row r="168" customHeight="1" spans="1:18">
       <c r="A168" s="5" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="B168" s="30" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="C168" s="28" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="D168" s="33" t="s">
         <v>67</v>
@@ -12925,7 +12937,7 @@
         <v>1080</v>
       </c>
       <c r="G168" s="28" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="H168" s="15" t="b">
         <v>0</v>
@@ -12934,7 +12946,7 @@
         <v>0</v>
       </c>
       <c r="J168" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K168" s="9"/>
       <c r="L168" s="9"/>
@@ -12956,10 +12968,10 @@
         <v>111</v>
       </c>
       <c r="B169" s="33" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C169" s="33" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="D169" s="9" t="s">
         <v>76</v>
@@ -12968,10 +12980,10 @@
         <v>110</v>
       </c>
       <c r="F169" s="9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G169" s="14" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="H169" s="15" t="b">
         <v>0</v>
@@ -12980,19 +12992,19 @@
         <v>0</v>
       </c>
       <c r="J169" s="9" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="K169" s="9" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="L169" s="9" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M169" s="22" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="N169" s="23" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="O169" s="9" t="s">
         <v>118</v>
@@ -13007,13 +13019,13 @@
     </row>
     <row r="170" customHeight="1" spans="1:18">
       <c r="A170" s="5" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B170" s="34" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C170" s="33" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="D170" s="9" t="s">
         <v>76</v>
@@ -13022,10 +13034,10 @@
         <v>110</v>
       </c>
       <c r="F170" s="9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G170" s="14" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="H170" s="15" t="b">
         <v>0</v>
@@ -13034,19 +13046,19 @@
         <v>0</v>
       </c>
       <c r="J170" s="9" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="K170" s="9" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="L170" s="9" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M170" s="22" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="N170" s="23" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="O170" s="9" t="s">
         <v>118</v>
@@ -13061,13 +13073,13 @@
     </row>
     <row r="171" customHeight="1" spans="1:18">
       <c r="A171" s="5" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="B171" s="33" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="C171" s="33" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="D171" s="9" t="s">
         <v>76</v>
@@ -13076,10 +13088,10 @@
         <v>110</v>
       </c>
       <c r="F171" s="9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G171" s="14" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="H171" s="15" t="b">
         <v>0</v>
@@ -13088,19 +13100,19 @@
         <v>0</v>
       </c>
       <c r="J171" s="9" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="K171" s="9" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="L171" s="9" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M171" s="22" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N171" s="23" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="O171" s="9" t="s">
         <v>118</v>
@@ -13115,13 +13127,13 @@
     </row>
     <row r="172" customHeight="1" spans="1:18">
       <c r="A172" s="5" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="B172" s="33" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="C172" s="33" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="D172" s="33" t="s">
         <v>76</v>
@@ -13130,10 +13142,10 @@
         <v>110</v>
       </c>
       <c r="F172" s="33" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G172" s="33" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="H172" s="27" t="b">
         <v>0</v>
@@ -13142,19 +13154,19 @@
         <v>0</v>
       </c>
       <c r="J172" s="33" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="K172" s="9" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="L172" s="33" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M172" s="22" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="N172" s="23" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="O172" s="33" t="s">
         <v>118</v>
@@ -13169,13 +13181,13 @@
     </row>
     <row r="173" customHeight="1" spans="1:18">
       <c r="A173" s="5" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="B173" s="33" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="C173" s="33" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="D173" s="9" t="s">
         <v>79</v>
@@ -13184,10 +13196,10 @@
         <v>110</v>
       </c>
       <c r="F173" s="9" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G173" s="33" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="H173" s="27" t="b">
         <v>0</v>
@@ -13196,7 +13208,7 @@
         <v>0</v>
       </c>
       <c r="J173" s="33" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="K173" s="9"/>
       <c r="L173" s="9"/>
@@ -13215,13 +13227,13 @@
     </row>
     <row r="174" customHeight="1" spans="1:18">
       <c r="A174" s="5" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B174" s="33" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C174" s="33" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="D174" s="9" t="s">
         <v>79</v>
@@ -13233,7 +13245,7 @@
         <v>28</v>
       </c>
       <c r="G174" s="33" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="H174" s="27" t="b">
         <v>0</v>
@@ -13242,7 +13254,7 @@
         <v>0</v>
       </c>
       <c r="J174" s="33" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="K174" s="9"/>
       <c r="L174" s="9"/>
@@ -13261,13 +13273,13 @@
     </row>
     <row r="175" customHeight="1" spans="1:18">
       <c r="A175" s="5" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="B175" s="33" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="C175" s="33" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="D175" s="9" t="s">
         <v>82</v>
@@ -13276,10 +13288,10 @@
         <v>110</v>
       </c>
       <c r="F175" s="33" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G175" s="33" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="H175" s="27" t="b">
         <v>0</v>
@@ -13288,7 +13300,7 @@
         <v>0</v>
       </c>
       <c r="J175" s="33" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="K175" s="9"/>
       <c r="L175" s="9"/>
@@ -13307,13 +13319,13 @@
     </row>
     <row r="176" customHeight="1" spans="1:18">
       <c r="A176" s="5" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="B176" s="33" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="C176" s="33" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="D176" s="9" t="s">
         <v>82</v>
@@ -13322,10 +13334,10 @@
         <v>110</v>
       </c>
       <c r="F176" s="33" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G176" s="33" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="H176" s="27" t="b">
         <v>0</v>
@@ -13334,7 +13346,7 @@
         <v>0</v>
       </c>
       <c r="J176" s="33" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="K176" s="9"/>
       <c r="L176" s="9"/>
@@ -13353,13 +13365,13 @@
     </row>
     <row r="177" customHeight="1" spans="1:18">
       <c r="A177" s="5" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="B177" s="33" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="C177" s="33" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="D177" s="9" t="s">
         <v>82</v>
@@ -13368,10 +13380,10 @@
         <v>110</v>
       </c>
       <c r="F177" s="33" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G177" s="33" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="H177" s="27" t="b">
         <v>0</v>
@@ -13380,7 +13392,7 @@
         <v>0</v>
       </c>
       <c r="J177" s="33" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="K177" s="9"/>
       <c r="L177" s="9"/>
@@ -13399,13 +13411,13 @@
     </row>
     <row r="178" customHeight="1" spans="1:18">
       <c r="A178" s="5" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="B178" s="33" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="C178" s="33" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="D178" s="9" t="s">
         <v>82</v>
@@ -13414,10 +13426,10 @@
         <v>110</v>
       </c>
       <c r="F178" s="33" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G178" s="33" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="H178" s="27" t="b">
         <v>0</v>
@@ -13426,7 +13438,7 @@
         <v>0</v>
       </c>
       <c r="J178" s="33" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="K178" s="9"/>
       <c r="L178" s="9"/>
@@ -13445,13 +13457,13 @@
     </row>
     <row r="179" customFormat="1" customHeight="1" spans="1:18">
       <c r="A179" s="5" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="B179" s="35" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="C179" s="35" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="D179" s="16" t="s">
         <v>89</v>
@@ -13460,10 +13472,10 @@
         <v>110</v>
       </c>
       <c r="F179" s="16" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G179" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H179" s="17" t="b">
         <v>1</v>
@@ -13472,10 +13484,10 @@
         <v>1</v>
       </c>
       <c r="J179" s="16" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="K179" s="16" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="L179" s="36"/>
       <c r="M179" s="16"/>
@@ -13493,13 +13505,13 @@
     </row>
     <row r="180" customFormat="1" customHeight="1" spans="1:18">
       <c r="A180" s="5" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="B180" s="35" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="C180" s="35" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="D180" s="16" t="s">
         <v>89</v>
@@ -13508,10 +13520,10 @@
         <v>110</v>
       </c>
       <c r="F180" s="16" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G180" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H180" s="17" t="b">
         <v>1</v>
@@ -13520,10 +13532,10 @@
         <v>1</v>
       </c>
       <c r="J180" s="16" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="K180" s="16" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="L180" s="36"/>
       <c r="M180" s="16"/>
@@ -13541,13 +13553,13 @@
     </row>
     <row r="181" customFormat="1" customHeight="1" spans="1:18">
       <c r="A181" s="5" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B181" s="35" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="C181" s="35" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D181" s="16" t="s">
         <v>89</v>
@@ -13556,10 +13568,10 @@
         <v>110</v>
       </c>
       <c r="F181" s="16" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G181" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H181" s="17" t="b">
         <v>1</v>
@@ -13568,10 +13580,10 @@
         <v>1</v>
       </c>
       <c r="J181" s="16" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="K181" s="16" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="L181" s="36"/>
       <c r="M181" s="16"/>
@@ -13589,13 +13601,13 @@
     </row>
     <row r="182" customFormat="1" customHeight="1" spans="1:18">
       <c r="A182" s="5" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="B182" s="35" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="C182" s="35" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="D182" s="16" t="s">
         <v>89</v>
@@ -13604,10 +13616,10 @@
         <v>110</v>
       </c>
       <c r="F182" s="16" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G182" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H182" s="17" t="b">
         <v>0</v>
@@ -13616,10 +13628,10 @@
         <v>0</v>
       </c>
       <c r="J182" s="16" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="K182" s="16" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="L182" s="36"/>
       <c r="M182" s="16"/>
@@ -13637,13 +13649,13 @@
     </row>
     <row r="183" customFormat="1" customHeight="1" spans="1:18">
       <c r="A183" s="5" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B183" s="35" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="C183" s="35" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="D183" s="16" t="s">
         <v>89</v>
@@ -13652,10 +13664,10 @@
         <v>110</v>
       </c>
       <c r="F183" s="16" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G183" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H183" s="17" t="b">
         <v>0</v>
@@ -13664,10 +13676,10 @@
         <v>0</v>
       </c>
       <c r="J183" s="16" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="K183" s="16" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="L183" s="16"/>
       <c r="M183" s="16"/>
@@ -13685,13 +13697,13 @@
     </row>
     <row r="184" customFormat="1" customHeight="1" spans="1:18">
       <c r="A184" s="5" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B184" s="36" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="C184" s="35" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="D184" s="16" t="s">
         <v>89</v>
@@ -13700,10 +13712,10 @@
         <v>110</v>
       </c>
       <c r="F184" s="16" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G184" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H184" s="17" t="b">
         <v>0</v>
@@ -13712,10 +13724,10 @@
         <v>0</v>
       </c>
       <c r="J184" s="16" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="K184" s="16" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="L184" s="16"/>
       <c r="M184" s="16"/>
@@ -13733,13 +13745,13 @@
     </row>
     <row r="185" customFormat="1" customHeight="1" spans="1:18">
       <c r="A185" s="5" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B185" s="35" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="C185" s="35" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="D185" s="16" t="s">
         <v>89</v>
@@ -13748,10 +13760,10 @@
         <v>110</v>
       </c>
       <c r="F185" s="16" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G185" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H185" s="17" t="b">
         <v>0</v>
@@ -13760,10 +13772,10 @@
         <v>0</v>
       </c>
       <c r="J185" s="16" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="K185" s="16" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="L185" s="16"/>
       <c r="M185" s="38"/>

--- a/data/menu_dinner.xlsx
+++ b/data/menu_dinner.xlsx
@@ -606,10 +606,10 @@
     <t>新品</t>
   </si>
   <si>
-    <t>Bird's nest Pasta/green sauce/parmesan cheese/Basil/garlic/olive oil</t>
-  </si>
-  <si>
-    <t>鸟巢意面/青酱/帕玛森芝士/罗勒/大蒜/橄榄油</t>
+    <t>Bird's nest Pasta/pesto/Pine nut/parmesan cheese/Basil/garlic/olive oil</t>
+  </si>
+  <si>
+    <t>鸟巢意面/青酱/松子/帕玛森芝士/罗勒/大蒜/橄榄油</t>
   </si>
   <si>
     <t>13</t>
@@ -4738,8 +4738,8 @@
   <sheetPr/>
   <dimension ref="A1:BD227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>

--- a/data/menu_dinner.xlsx
+++ b/data/menu_dinner.xlsx
@@ -4060,7 +4060,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -4775,8 +4775,8 @@
   <sheetPr/>
   <dimension ref="A1:BD233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K160" workbookViewId="0">
-      <selection activeCell="L172" sqref="L172"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="G165" sqref="G165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -12635,10 +12635,10 @@
         <v>114</v>
       </c>
       <c r="F162" s="20" t="s">
-        <v>126</v>
+        <v>218</v>
       </c>
       <c r="G162" s="20" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="H162" s="12" t="b">
         <v>1</v>

--- a/data/menu_dinner.xlsx
+++ b/data/menu_dinner.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975">
   <si>
     <t>id</t>
   </si>
@@ -2157,472 +2157,475 @@
     <t>RT Filet mignon</t>
   </si>
   <si>
-    <t>RT招牌菲力牛排</t>
+    <t>ROOTINN极鲜菲力牛排</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>228/份</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>images/product/food/牛排.jpg</t>
+  </si>
+  <si>
+    <t>230g+限量+7分熟</t>
+  </si>
+  <si>
+    <t>Steak/Corn/Broccoli/Finger radish/Potato fillet</t>
+  </si>
+  <si>
+    <t>牛排/玉米/西兰花/手指萝卜/土豆角</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>Pan fried Norwegian Salmon</t>
+  </si>
+  <si>
+    <t>香煎挪威三文鱼</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>158/份</t>
+  </si>
+  <si>
+    <t>images/product/food/香煎三文鱼.jpg</t>
+  </si>
+  <si>
+    <t>限量</t>
+  </si>
+  <si>
+    <t>Salmon steak/Mushroom/Bacon and asparagus roll/Colored pepper/Special dip sauce</t>
+  </si>
+  <si>
+    <t>三文鱼排/蘑菇/培根芦笋卷/彩椒/特制蘸酱</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Fried lamb chops</t>
+  </si>
+  <si>
+    <t>ROOTINN香煎羊排</t>
+  </si>
+  <si>
+    <t>images/product/food/羊排.png</t>
+  </si>
+  <si>
+    <t>3根+限量</t>
+  </si>
+  <si>
+    <t>Lamb ribs/Corn/broccoli/Finger radish/Potato fillet</t>
+  </si>
+  <si>
+    <t>羊肋骨/玉米/西兰花/手指萝卜/土豆角</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>Hot spicy chicken</t>
+  </si>
+  <si>
+    <t>ROOTINN当红辣子鸡</t>
+  </si>
+  <si>
+    <t>68/份</t>
+  </si>
+  <si>
+    <t>images/product/food/辣子鸡.jpg</t>
+  </si>
+  <si>
+    <t>辣</t>
+  </si>
+  <si>
+    <t>Chicken leg meat/Special spices</t>
+  </si>
+  <si>
+    <t>鸡腿肉/特制香辛料</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>Sichuan crispy golden tofu</t>
+  </si>
+  <si>
+    <t>川香脆皮黄金豆腐</t>
+  </si>
+  <si>
+    <t>48/份</t>
+  </si>
+  <si>
+    <t>images/product/food/豆腐.jpg</t>
+  </si>
+  <si>
+    <t>Tofu/Special soup</t>
+  </si>
+  <si>
+    <t>豆腐/特调汤汁</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>Cream asparagus mushroom</t>
+  </si>
+  <si>
+    <t>奶油芦笋蘑菇</t>
+  </si>
+  <si>
+    <t>38/份</t>
+  </si>
+  <si>
+    <t>images/product/food/芦笋蘑菇.jpg</t>
+  </si>
+  <si>
+    <t>Asparagus/Mushroom/Cream</t>
+  </si>
+  <si>
+    <t>芦笋/蘑菇/奶油风味</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>Liuxin cheese crispy pill</t>
+  </si>
+  <si>
+    <t>流心起司香酥丸</t>
+  </si>
+  <si>
+    <t>58/份</t>
+  </si>
+  <si>
+    <t>images/product/food/流心香酥丸.jpg</t>
+  </si>
+  <si>
+    <t>Egg yolk cheese/Crispy shell</t>
+  </si>
+  <si>
+    <t>流心蛋黄芝士/酥炸外壳</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>Signature crispy braised pork</t>
+  </si>
+  <si>
+    <t>招牌香酥红烧肉</t>
+  </si>
+  <si>
+    <t>images/product/food/香酥红烧肉.jpg</t>
+  </si>
+  <si>
+    <t>Streaky pork/Seasonal vegetable salad</t>
+  </si>
+  <si>
+    <t>五花肉/时蔬沙拉</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>Stir fried shrimps and okra with Tashi flavor</t>
+  </si>
+  <si>
+    <t>塔香风味虾仁秋葵小炒</t>
+  </si>
+  <si>
+    <t>images/product/food/虾仁秋葵.jpg</t>
+  </si>
+  <si>
+    <t>Shrimp/Okra/Nine story tower</t>
+  </si>
+  <si>
+    <t>虾仁/秋葵/九层塔</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>Fried chicken leg with curry sauce</t>
+  </si>
+  <si>
+    <t>香煎鸡腿佐和风咖喱酱汁</t>
+  </si>
+  <si>
+    <t>images/product/food/香煎鸡腿.jpg</t>
+  </si>
+  <si>
+    <t>Chicken leg/Curry sauce/Seasonal vegetable</t>
+  </si>
+  <si>
+    <t>鸡腿肉/咖喱酱汁/时蔬</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>ROOTINN Beef pie</t>
+  </si>
+  <si>
+    <t>ROOTINN牛肉馅饼</t>
+  </si>
+  <si>
+    <t>88/份</t>
+  </si>
+  <si>
+    <t>images/product/food/ROOTINN牛肉馅饼.jpg</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>Sirloin / fresh mushroom / onion / garlic</t>
+  </si>
+  <si>
+    <t>牛脊肉/鲜蘑菇/洋葱/大蒜</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>ROOTINN Chicken pie</t>
+  </si>
+  <si>
+    <t>ROOTINN鸡肉馅饼</t>
+  </si>
+  <si>
+    <t>78/份</t>
+  </si>
+  <si>
+    <t>images/product/food/ROOTINN鸡肉馅饼.jpg</t>
+  </si>
+  <si>
+    <t>Chicken leg / bell pepper / Onion</t>
+  </si>
+  <si>
+    <t>鸡腿肉/甜椒/洋葱</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>Fresh shrimp salmon pizza</t>
+  </si>
+  <si>
+    <t>鲜虾三文鱼披萨</t>
+  </si>
+  <si>
+    <t>128/份</t>
+  </si>
+  <si>
+    <t>images/product/food/鲜虾三文鱼披萨.jpg</t>
+  </si>
+  <si>
+    <t>Prawns / smoked salmon / bell pepper ring / Virgin fruit / mozzarella cheese / basil leaf / special tomato juice</t>
+  </si>
+  <si>
+    <t>大虾/烟熏三文鱼/甜椒圈/圣女果/马苏里拉芝士/罗勒叶/秘制番茄汁</t>
+  </si>
+  <si>
+    <t>Italian salami pizza</t>
+  </si>
+  <si>
+    <t>意大利萨拉米披萨</t>
+  </si>
+  <si>
+    <t>98/份</t>
+  </si>
+  <si>
+    <t>images/product/food/意大利萨拉米披萨.jpg</t>
+  </si>
+  <si>
+    <t>Salami sausage / Black Olive / Virgin fruit / mozzarella cheese / basil leaf / special tomato juice</t>
+  </si>
+  <si>
+    <t>萨拉米肠/黑橄榄/圣女果/马苏里拉芝士/罗勒叶/秘制番茄汁</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>Spanish ham pizza</t>
+  </si>
+  <si>
+    <t>西班牙火腿披萨</t>
+  </si>
+  <si>
+    <t>images/product/food/西班牙火腿披萨.jpg</t>
+  </si>
+  <si>
+    <t>Air dried ham / chopped bacon / Virgin fruit / mozzarella cheese / basil leaf / special tomato juice</t>
+  </si>
+  <si>
+    <t>风干火腿/培根碎/圣女果/马苏里拉芝士/罗勒叶/秘制番茄汁</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>Pizza with peppers and mushrooms</t>
+  </si>
+  <si>
+    <t>甜椒蘑菇披萨</t>
+  </si>
+  <si>
+    <t>images/product/food/甜椒蘑菇披萨.jpg</t>
+  </si>
+  <si>
+    <t>Sweet pepper / onion / mushroom / Basil / special tomato juice</t>
+  </si>
+  <si>
+    <t>甜椒/洋葱/蘑菇/罗勒叶/秘制番茄汁</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>Margaret pizza</t>
+  </si>
+  <si>
+    <t>玛格丽特披萨</t>
+  </si>
+  <si>
+    <t>images/product/food/玛格丽特披萨.jpg</t>
+  </si>
+  <si>
+    <t>Virgin fruit / mozzarella cheese / basil leaf / special tomato juice</t>
+  </si>
+  <si>
+    <t>圣女果/马苏里拉芝士/罗勒叶/秘制番茄汁</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>Sauteed Beef Fillet with Black Pepper pasta</t>
+  </si>
+  <si>
+    <t>黑椒牛柳意面</t>
+  </si>
+  <si>
+    <t>images/product/food/黑椒牛柳意面.jpg</t>
+  </si>
+  <si>
+    <t>Beef fillet / sweet pepper / onion / Mushroom slice / special black pepper sauce / pasta</t>
+  </si>
+  <si>
+    <t>牛柳/甜椒/洋葱/蘑菇片/秘制黑椒汁/意面</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>Cream mushroom bacon hot spring egg pasta</t>
+  </si>
+  <si>
+    <t>奶油蘑菇培根温泉蛋意面</t>
+  </si>
+  <si>
+    <t>55/份</t>
+  </si>
+  <si>
+    <t>images/product/food/温泉蛋意面.jpg</t>
+  </si>
+  <si>
+    <t>Pasta/HAM/Vegetables</t>
+  </si>
+  <si>
+    <t>意面/火腿/搭配蔬菜</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>Little angel spaghetti with cream and ham</t>
+  </si>
+  <si>
+    <t>小恶魔蕃茄海鲜意面</t>
+  </si>
+  <si>
+    <t>images/product/food/小恶魔.jpg</t>
+  </si>
+  <si>
+    <t>微辣</t>
+  </si>
+  <si>
+    <t>Pasta/Rainbow/Squid ring/Shrimp</t>
+  </si>
+  <si>
+    <t>意面/海虹/鱿鱼圈/虾仁</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>小天使奶油火腿意面</t>
+  </si>
+  <si>
+    <t>images/product/food/小天使.jpg</t>
+  </si>
+  <si>
+    <t>Pasta/HAM/Bacon/Seasonal Vegetable</t>
+  </si>
+  <si>
+    <t>意面/火腿/培根/时蔬</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>Beef fillet rice with black pepper</t>
+  </si>
+  <si>
+    <t>招牌黑椒牛脊肉饭</t>
+  </si>
+  <si>
+    <t>images/product/food/黑椒牛柳.jpg</t>
+  </si>
+  <si>
+    <t>限时优惠</t>
+  </si>
+  <si>
+    <t>Beef fillet/Red and yellow pepper/Black Pepper</t>
+  </si>
+  <si>
+    <t>牛脊肉/红黄彩椒/黑胡椒</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>Japanese style and wind smoked chicken leg meat curry rice</t>
+  </si>
+  <si>
+    <t>日式和风烟熏鸡腿肉咖喱饭</t>
+  </si>
+  <si>
+    <t>56/份</t>
+  </si>
+  <si>
+    <t>images/product/food/咖喱炖饭.jpg</t>
+  </si>
+  <si>
+    <t>Smoked chicken/Special curry sauce</t>
+  </si>
+  <si>
+    <t>烟熏鸡肉/特调咖喱酱汁</t>
   </si>
   <si>
     <t>168</t>
-  </si>
-  <si>
-    <t>168/份</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>images/product/food/牛排.jpg</t>
-  </si>
-  <si>
-    <t>230g+限量+7分熟</t>
-  </si>
-  <si>
-    <t>Steak/Corn/Broccoli/Finger radish/Potato fillet</t>
-  </si>
-  <si>
-    <t>牛排/玉米/西兰花/手指萝卜/土豆角</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>Pan fried Norwegian Salmon</t>
-  </si>
-  <si>
-    <t>香煎挪威三文鱼</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>158/份</t>
-  </si>
-  <si>
-    <t>images/product/food/香煎三文鱼.jpg</t>
-  </si>
-  <si>
-    <t>限量</t>
-  </si>
-  <si>
-    <t>Salmon steak/Mushroom/Bacon and asparagus roll/Colored pepper/Special dip sauce</t>
-  </si>
-  <si>
-    <t>三文鱼排/蘑菇/培根芦笋卷/彩椒/特制蘸酱</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>Fried lamb chops</t>
-  </si>
-  <si>
-    <t>RT香煎羊排</t>
-  </si>
-  <si>
-    <t>images/product/food/羊排.png</t>
-  </si>
-  <si>
-    <t>3根+限量</t>
-  </si>
-  <si>
-    <t>Lamb ribs/Corn/broccoli/Finger radish/Potato fillet</t>
-  </si>
-  <si>
-    <t>羊肋骨/玉米/西兰花/手指萝卜/土豆角</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>Hot spicy chicken</t>
-  </si>
-  <si>
-    <t>RT当红辣子鸡</t>
-  </si>
-  <si>
-    <t>68/份</t>
-  </si>
-  <si>
-    <t>images/product/food/辣子鸡.jpg</t>
-  </si>
-  <si>
-    <t>辣</t>
-  </si>
-  <si>
-    <t>Chicken leg meat/Special spices</t>
-  </si>
-  <si>
-    <t>鸡腿肉/特制香辛料</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>Sichuan crispy golden tofu</t>
-  </si>
-  <si>
-    <t>川香脆皮黄金豆腐</t>
-  </si>
-  <si>
-    <t>48/份</t>
-  </si>
-  <si>
-    <t>images/product/food/豆腐.jpg</t>
-  </si>
-  <si>
-    <t>Tofu/Special soup</t>
-  </si>
-  <si>
-    <t>豆腐/特调汤汁</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>Cream asparagus mushroom</t>
-  </si>
-  <si>
-    <t>奶油芦笋蘑菇</t>
-  </si>
-  <si>
-    <t>38/份</t>
-  </si>
-  <si>
-    <t>images/product/food/芦笋蘑菇.jpg</t>
-  </si>
-  <si>
-    <t>Asparagus/Mushroom/Cream</t>
-  </si>
-  <si>
-    <t>芦笋/蘑菇/奶油风味</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>Liuxin cheese crispy pill</t>
-  </si>
-  <si>
-    <t>流心起司香酥丸</t>
-  </si>
-  <si>
-    <t>58/份</t>
-  </si>
-  <si>
-    <t>images/product/food/流心香酥丸.jpg</t>
-  </si>
-  <si>
-    <t>Egg yolk cheese/Crispy shell</t>
-  </si>
-  <si>
-    <t>流心蛋黄芝士/酥炸外壳</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>Signature crispy braised pork</t>
-  </si>
-  <si>
-    <t>招牌香酥红烧肉</t>
-  </si>
-  <si>
-    <t>images/product/food/香酥红烧肉.jpg</t>
-  </si>
-  <si>
-    <t>Streaky pork/Seasonal vegetable salad</t>
-  </si>
-  <si>
-    <t>五花肉/时蔬沙拉</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>Stir fried shrimps and okra with Tashi flavor</t>
-  </si>
-  <si>
-    <t>塔香风味虾仁秋葵小炒</t>
-  </si>
-  <si>
-    <t>images/product/food/虾仁秋葵.jpg</t>
-  </si>
-  <si>
-    <t>Shrimp/Okra/Nine story tower</t>
-  </si>
-  <si>
-    <t>虾仁/秋葵/九层塔</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>Fried chicken leg with curry sauce</t>
-  </si>
-  <si>
-    <t>香煎鸡腿佐和风咖喱酱汁</t>
-  </si>
-  <si>
-    <t>images/product/food/香煎鸡腿.jpg</t>
-  </si>
-  <si>
-    <t>Chicken leg/Curry sauce/Seasonal vegetable</t>
-  </si>
-  <si>
-    <t>鸡腿肉/咖喱酱汁/时蔬</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>ROOTINN Beef pie</t>
-  </si>
-  <si>
-    <t>ROOTINN牛肉馅饼</t>
-  </si>
-  <si>
-    <t>88/份</t>
-  </si>
-  <si>
-    <t>images/product/food/ROOTINN牛肉馅饼.jpg</t>
-  </si>
-  <si>
-    <t>NEW</t>
-  </si>
-  <si>
-    <t>Sirloin / fresh mushroom / onion / garlic</t>
-  </si>
-  <si>
-    <t>牛脊肉/鲜蘑菇/洋葱/大蒜</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>ROOTINN Chicken pie</t>
-  </si>
-  <si>
-    <t>ROOTINN鸡肉馅饼</t>
-  </si>
-  <si>
-    <t>78/份</t>
-  </si>
-  <si>
-    <t>images/product/food/ROOTINN鸡肉馅饼.jpg</t>
-  </si>
-  <si>
-    <t>Chicken leg / bell pepper / Onion</t>
-  </si>
-  <si>
-    <t>鸡腿肉/甜椒/洋葱</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>Fresh shrimp salmon pizza</t>
-  </si>
-  <si>
-    <t>鲜虾三文鱼披萨</t>
-  </si>
-  <si>
-    <t>128/份</t>
-  </si>
-  <si>
-    <t>images/product/food/鲜虾三文鱼披萨.jpg</t>
-  </si>
-  <si>
-    <t>Prawns / smoked salmon / bell pepper ring / Virgin fruit / mozzarella cheese / basil leaf / special tomato juice</t>
-  </si>
-  <si>
-    <t>大虾/烟熏三文鱼/甜椒圈/圣女果/马苏里拉芝士/罗勒叶/秘制番茄汁</t>
-  </si>
-  <si>
-    <t>Italian salami pizza</t>
-  </si>
-  <si>
-    <t>意大利萨拉米披萨</t>
-  </si>
-  <si>
-    <t>98/份</t>
-  </si>
-  <si>
-    <t>images/product/food/意大利萨拉米披萨.jpg</t>
-  </si>
-  <si>
-    <t>Salami sausage / Black Olive / Virgin fruit / mozzarella cheese / basil leaf / special tomato juice</t>
-  </si>
-  <si>
-    <t>萨拉米肠/黑橄榄/圣女果/马苏里拉芝士/罗勒叶/秘制番茄汁</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>Spanish ham pizza</t>
-  </si>
-  <si>
-    <t>西班牙火腿披萨</t>
-  </si>
-  <si>
-    <t>images/product/food/西班牙火腿披萨.jpg</t>
-  </si>
-  <si>
-    <t>Air dried ham / chopped bacon / Virgin fruit / mozzarella cheese / basil leaf / special tomato juice</t>
-  </si>
-  <si>
-    <t>风干火腿/培根碎/圣女果/马苏里拉芝士/罗勒叶/秘制番茄汁</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>Pizza with peppers and mushrooms</t>
-  </si>
-  <si>
-    <t>甜椒蘑菇披萨</t>
-  </si>
-  <si>
-    <t>images/product/food/甜椒蘑菇披萨.jpg</t>
-  </si>
-  <si>
-    <t>Sweet pepper / onion / mushroom / Basil / special tomato juice</t>
-  </si>
-  <si>
-    <t>甜椒/洋葱/蘑菇/罗勒叶/秘制番茄汁</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>Margaret pizza</t>
-  </si>
-  <si>
-    <t>玛格丽特披萨</t>
-  </si>
-  <si>
-    <t>images/product/food/玛格丽特披萨.jpg</t>
-  </si>
-  <si>
-    <t>Virgin fruit / mozzarella cheese / basil leaf / special tomato juice</t>
-  </si>
-  <si>
-    <t>圣女果/马苏里拉芝士/罗勒叶/秘制番茄汁</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>Sauteed Beef Fillet with Black Pepper pasta</t>
-  </si>
-  <si>
-    <t>黑椒牛柳意面</t>
-  </si>
-  <si>
-    <t>images/product/food/黑椒牛柳意面.jpg</t>
-  </si>
-  <si>
-    <t>Beef fillet / sweet pepper / onion / Mushroom slice / special black pepper sauce / pasta</t>
-  </si>
-  <si>
-    <t>牛柳/甜椒/洋葱/蘑菇片/秘制黑椒汁/意面</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>Cream mushroom bacon hot spring egg pasta</t>
-  </si>
-  <si>
-    <t>奶油蘑菇培根温泉蛋意面</t>
-  </si>
-  <si>
-    <t>55/份</t>
-  </si>
-  <si>
-    <t>images/product/food/温泉蛋意面.jpg</t>
-  </si>
-  <si>
-    <t>Pasta/HAM/Vegetables</t>
-  </si>
-  <si>
-    <t>意面/火腿/搭配蔬菜</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>Little angel spaghetti with cream and ham</t>
-  </si>
-  <si>
-    <t>小恶魔蕃茄海鲜意面</t>
-  </si>
-  <si>
-    <t>images/product/food/小恶魔.jpg</t>
-  </si>
-  <si>
-    <t>微辣</t>
-  </si>
-  <si>
-    <t>Pasta/Rainbow/Squid ring/Shrimp</t>
-  </si>
-  <si>
-    <t>意面/海虹/鱿鱼圈/虾仁</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>小天使奶油火腿意面</t>
-  </si>
-  <si>
-    <t>images/product/food/小天使.jpg</t>
-  </si>
-  <si>
-    <t>Pasta/HAM/Bacon/Seasonal Vegetable</t>
-  </si>
-  <si>
-    <t>意面/火腿/培根/时蔬</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>Beef fillet rice with black pepper</t>
-  </si>
-  <si>
-    <t>招牌黑椒牛脊肉饭</t>
-  </si>
-  <si>
-    <t>images/product/food/黑椒牛柳.jpg</t>
-  </si>
-  <si>
-    <t>限时优惠</t>
-  </si>
-  <si>
-    <t>Beef fillet/Red and yellow pepper/Black Pepper</t>
-  </si>
-  <si>
-    <t>牛脊肉/红黄彩椒/黑胡椒</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>Japanese style and wind smoked chicken leg meat curry rice</t>
-  </si>
-  <si>
-    <t>日式和风烟熏鸡腿肉咖喱饭</t>
-  </si>
-  <si>
-    <t>56/份</t>
-  </si>
-  <si>
-    <t>images/product/food/咖喱炖饭.jpg</t>
-  </si>
-  <si>
-    <t>Smoked chicken/Special curry sauce</t>
-  </si>
-  <si>
-    <t>烟熏鸡肉/特调咖喱酱汁</t>
   </si>
   <si>
     <t>Caesar Salad smoked chicken breast</t>
@@ -4775,8 +4778,8 @@
   <sheetPr/>
   <dimension ref="A1:BD233"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="G165" sqref="G165"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="C149" sqref="C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -13086,13 +13089,13 @@
     </row>
     <row r="169" customHeight="1" spans="1:18">
       <c r="A169" s="5" t="s">
-        <v>714</v>
+        <v>869</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D169" s="9" t="s">
         <v>73</v>
@@ -13104,7 +13107,7 @@
         <v>332</v>
       </c>
       <c r="G169" s="9" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H169" s="13" t="b">
         <v>0</v>
@@ -13116,14 +13119,14 @@
         <v>716</v>
       </c>
       <c r="K169" s="9" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="L169" s="8"/>
       <c r="M169" s="5" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="N169" s="16" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="O169" s="9" t="s">
         <v>122</v>
@@ -13138,13 +13141,13 @@
     </row>
     <row r="170" customHeight="1" spans="1:18">
       <c r="A170" s="5" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D170" s="9" t="s">
         <v>73</v>
@@ -13168,14 +13171,14 @@
         <v>716</v>
       </c>
       <c r="K170" s="9" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="L170" s="8"/>
       <c r="M170" s="5" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="N170" s="16" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="O170" s="9" t="s">
         <v>122</v>
@@ -13190,13 +13193,13 @@
     </row>
     <row r="171" customHeight="1" spans="1:18">
       <c r="A171" s="5" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="D171" s="9" t="s">
         <v>76</v>
@@ -13208,7 +13211,7 @@
         <v>271</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H171" s="13" t="b">
         <v>0</v>
@@ -13220,14 +13223,14 @@
         <v>716</v>
       </c>
       <c r="K171" s="9" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="L171" s="8"/>
       <c r="M171" s="5" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="N171" s="16" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="O171" s="9" t="s">
         <v>122</v>
@@ -13245,10 +13248,10 @@
         <v>36</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D172" s="9" t="s">
         <v>76</v>
@@ -13272,16 +13275,16 @@
         <v>716</v>
       </c>
       <c r="K172" s="9" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="L172" s="8" t="s">
         <v>847</v>
       </c>
       <c r="M172" s="5" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="N172" s="16" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="O172" s="9"/>
       <c r="P172" s="9" t="s">
@@ -13297,10 +13300,10 @@
         <v>39</v>
       </c>
       <c r="B173" s="18" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C173" s="18" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="D173" s="5" t="s">
         <v>76</v>
@@ -13324,14 +13327,14 @@
         <v>716</v>
       </c>
       <c r="K173" s="9" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="L173" s="18"/>
       <c r="M173" s="5" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="N173" s="5" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="O173" s="9" t="s">
         <v>122</v>
@@ -13349,10 +13352,10 @@
         <v>42</v>
       </c>
       <c r="B174" s="18" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C174" s="18" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D174" s="5" t="s">
         <v>76</v>
@@ -13364,7 +13367,7 @@
         <v>332</v>
       </c>
       <c r="G174" s="5" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H174" s="13" t="b">
         <v>0</v>
@@ -13376,14 +13379,14 @@
         <v>716</v>
       </c>
       <c r="K174" s="9" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="L174" s="18"/>
       <c r="M174" s="5" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="N174" s="5" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="O174" s="9" t="s">
         <v>122</v>
@@ -13401,10 +13404,10 @@
         <v>45</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="D175" s="9" t="s">
         <v>82</v>
@@ -13416,7 +13419,7 @@
         <v>387</v>
       </c>
       <c r="G175" s="9" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H175" s="13" t="b">
         <v>0</v>
@@ -13425,19 +13428,19 @@
         <v>0</v>
       </c>
       <c r="J175" s="9" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="K175" s="9" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="L175" s="9" t="s">
         <v>128</v>
       </c>
       <c r="M175" s="5" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="N175" s="16" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="O175" s="9" t="s">
         <v>122</v>
@@ -13455,10 +13458,10 @@
         <v>49</v>
       </c>
       <c r="B176" s="21" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D176" s="9" t="s">
         <v>82</v>
@@ -13470,7 +13473,7 @@
         <v>387</v>
       </c>
       <c r="G176" s="9" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H176" s="13" t="b">
         <v>0</v>
@@ -13479,19 +13482,19 @@
         <v>0</v>
       </c>
       <c r="J176" s="9" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="K176" s="9" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="L176" s="9" t="s">
         <v>128</v>
       </c>
       <c r="M176" s="5" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="N176" s="16" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="O176" s="9" t="s">
         <v>122</v>
@@ -13509,10 +13512,10 @@
         <v>52</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D177" s="9" t="s">
         <v>82</v>
@@ -13524,7 +13527,7 @@
         <v>387</v>
       </c>
       <c r="G177" s="9" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H177" s="13" t="b">
         <v>0</v>
@@ -13533,19 +13536,19 @@
         <v>0</v>
       </c>
       <c r="J177" s="9" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="K177" s="9" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="L177" s="9" t="s">
         <v>128</v>
       </c>
       <c r="M177" s="5" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="N177" s="16" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="O177" s="9" t="s">
         <v>122</v>
@@ -13563,10 +13566,10 @@
         <v>55</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D178" s="9" t="s">
         <v>82</v>
@@ -13578,7 +13581,7 @@
         <v>387</v>
       </c>
       <c r="G178" s="9" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H178" s="13" t="b">
         <v>0</v>
@@ -13587,19 +13590,19 @@
         <v>0</v>
       </c>
       <c r="J178" s="9" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="K178" s="9" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="L178" s="9" t="s">
         <v>128</v>
       </c>
       <c r="M178" s="5" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="N178" s="16" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="O178" s="9" t="s">
         <v>122</v>
@@ -13614,13 +13617,13 @@
     </row>
     <row r="179" customHeight="1" spans="1:18">
       <c r="A179" s="5" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D179" s="9" t="s">
         <v>85</v>
@@ -13632,7 +13635,7 @@
         <v>131</v>
       </c>
       <c r="G179" s="9" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="H179" s="13" t="b">
         <v>0</v>
@@ -13641,7 +13644,7 @@
         <v>0</v>
       </c>
       <c r="J179" s="9" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="K179" s="9"/>
       <c r="L179" s="9"/>
@@ -13660,13 +13663,13 @@
     </row>
     <row r="180" customHeight="1" spans="1:18">
       <c r="A180" s="5" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D180" s="9" t="s">
         <v>85</v>
@@ -13678,7 +13681,7 @@
         <v>67</v>
       </c>
       <c r="G180" s="9" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="H180" s="13" t="b">
         <v>0</v>
@@ -13687,7 +13690,7 @@
         <v>0</v>
       </c>
       <c r="J180" s="9" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="K180" s="9"/>
       <c r="L180" s="9"/>
@@ -13706,13 +13709,13 @@
     </row>
     <row r="181" customHeight="1" spans="1:18">
       <c r="A181" s="5" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D181" s="9" t="s">
         <v>88</v>
@@ -13733,7 +13736,7 @@
         <v>0</v>
       </c>
       <c r="J181" s="9" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="K181" s="9"/>
       <c r="L181" s="9"/>
@@ -13752,13 +13755,13 @@
     </row>
     <row r="182" customHeight="1" spans="1:18">
       <c r="A182" s="5" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D182" s="9" t="s">
         <v>88</v>
@@ -13779,7 +13782,7 @@
         <v>0</v>
       </c>
       <c r="J182" s="9" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="K182" s="9"/>
       <c r="L182" s="9"/>
@@ -13798,13 +13801,13 @@
     </row>
     <row r="183" customHeight="1" spans="1:18">
       <c r="A183" s="5" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="D183" s="9" t="s">
         <v>88</v>
@@ -13825,7 +13828,7 @@
         <v>0</v>
       </c>
       <c r="J183" s="9" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="K183" s="9"/>
       <c r="L183" s="9"/>
@@ -13844,13 +13847,13 @@
     </row>
     <row r="184" customHeight="1" spans="1:18">
       <c r="A184" s="5" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D184" s="9" t="s">
         <v>88</v>
@@ -13871,7 +13874,7 @@
         <v>0</v>
       </c>
       <c r="J184" s="9" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="K184" s="9"/>
       <c r="L184" s="9"/>
@@ -13890,13 +13893,13 @@
     </row>
     <row r="185" customFormat="1" customHeight="1" spans="1:18">
       <c r="A185" s="5" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D185" s="7" t="s">
         <v>95</v>
@@ -13908,7 +13911,7 @@
         <v>332</v>
       </c>
       <c r="G185" s="7" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H185" s="12" t="b">
         <v>1</v>
@@ -13917,10 +13920,10 @@
         <v>1</v>
       </c>
       <c r="J185" s="7" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="K185" s="7" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="L185" s="22"/>
       <c r="M185" s="7"/>
@@ -13938,13 +13941,13 @@
     </row>
     <row r="186" customFormat="1" customHeight="1" spans="1:18">
       <c r="A186" s="5" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D186" s="7" t="s">
         <v>95</v>
@@ -13956,7 +13959,7 @@
         <v>332</v>
       </c>
       <c r="G186" s="7" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H186" s="12" t="b">
         <v>1</v>
@@ -13965,10 +13968,10 @@
         <v>1</v>
       </c>
       <c r="J186" s="7" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="K186" s="7" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="L186" s="22"/>
       <c r="M186" s="7"/>
@@ -13986,13 +13989,13 @@
     </row>
     <row r="187" customFormat="1" customHeight="1" spans="1:18">
       <c r="A187" s="5" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="D187" s="7" t="s">
         <v>95</v>
@@ -14004,7 +14007,7 @@
         <v>332</v>
       </c>
       <c r="G187" s="7" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H187" s="12" t="b">
         <v>1</v>
@@ -14013,10 +14016,10 @@
         <v>1</v>
       </c>
       <c r="J187" s="7" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="K187" s="7" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="L187" s="22"/>
       <c r="M187" s="7"/>
@@ -14034,13 +14037,13 @@
     </row>
     <row r="188" customFormat="1" customHeight="1" spans="1:18">
       <c r="A188" s="5" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D188" s="7" t="s">
         <v>95</v>
@@ -14052,7 +14055,7 @@
         <v>332</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H188" s="12" t="b">
         <v>0</v>
@@ -14061,10 +14064,10 @@
         <v>0</v>
       </c>
       <c r="J188" s="7" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="K188" s="7" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="L188" s="22"/>
       <c r="M188" s="7"/>
@@ -14082,13 +14085,13 @@
     </row>
     <row r="189" customFormat="1" customHeight="1" spans="1:18">
       <c r="A189" s="5" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="D189" s="7" t="s">
         <v>95</v>
@@ -14100,7 +14103,7 @@
         <v>332</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H189" s="12" t="b">
         <v>0</v>
@@ -14109,10 +14112,10 @@
         <v>0</v>
       </c>
       <c r="J189" s="7" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="K189" s="7" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="L189" s="7"/>
       <c r="M189" s="7"/>
@@ -14130,13 +14133,13 @@
     </row>
     <row r="190" customFormat="1" customHeight="1" spans="1:18">
       <c r="A190" s="5" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B190" s="22" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="D190" s="7" t="s">
         <v>95</v>
@@ -14148,7 +14151,7 @@
         <v>332</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H190" s="12" t="b">
         <v>0</v>
@@ -14157,10 +14160,10 @@
         <v>0</v>
       </c>
       <c r="J190" s="7" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="K190" s="7" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="L190" s="7"/>
       <c r="M190" s="7"/>
@@ -14178,13 +14181,13 @@
     </row>
     <row r="191" customFormat="1" customHeight="1" spans="1:18">
       <c r="A191" s="5" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="D191" s="7" t="s">
         <v>95</v>
@@ -14196,7 +14199,7 @@
         <v>332</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H191" s="12" t="b">
         <v>0</v>
@@ -14205,10 +14208,10 @@
         <v>0</v>
       </c>
       <c r="J191" s="7" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="K191" s="7" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="L191" s="7"/>
       <c r="M191" s="26"/>

--- a/data/menu_dinner.xlsx
+++ b/data/menu_dinner.xlsx
@@ -2154,7 +2154,7 @@
     <t>145</t>
   </si>
   <si>
-    <t>RT Filet mignon</t>
+    <t>ROOTINN Fresh filet mignon</t>
   </si>
   <si>
     <t>ROOTINN极鲜菲力牛排</t>
@@ -2211,7 +2211,7 @@
     <t>147</t>
   </si>
   <si>
-    <t>Fried lamb chops</t>
+    <t>ROOTINN Fried lamb chops</t>
   </si>
   <si>
     <t>ROOTINN香煎羊排</t>
@@ -2232,7 +2232,7 @@
     <t>148</t>
   </si>
   <si>
-    <t>Hot spicy chicken</t>
+    <t>ROOTINN Hot spicy chicken</t>
   </si>
   <si>
     <t>ROOTINN当红辣子鸡</t>
@@ -4778,8 +4778,8 @@
   <sheetPr/>
   <dimension ref="A1:BD233"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="C149" sqref="C149"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>

--- a/data/menu_dinner.xlsx
+++ b/data/menu_dinner.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982">
   <si>
     <t>id</t>
   </si>
@@ -2418,22 +2418,22 @@
     <t>157</t>
   </si>
   <si>
-    <t>Fresh shrimp salmon pizza</t>
-  </si>
-  <si>
-    <t>鲜虾三文鱼披萨</t>
-  </si>
-  <si>
-    <t>128/份</t>
-  </si>
-  <si>
-    <t>images/product/food/鲜虾三文鱼披萨.jpg</t>
-  </si>
-  <si>
-    <t>Prawns / smoked salmon / bell pepper ring / Virgin fruit / mozzarella cheese / basil leaf / special tomato juice</t>
-  </si>
-  <si>
-    <t>大虾/烟熏三文鱼/甜椒圈/圣女果/马苏里拉芝士/罗勒叶/秘制番茄汁</t>
+    <t>Shrimp pizza</t>
+  </si>
+  <si>
+    <t>鲜虾披萨</t>
+  </si>
+  <si>
+    <t>108/份</t>
+  </si>
+  <si>
+    <t>images/product/food/鲜虾披萨.jpg</t>
+  </si>
+  <si>
+    <t>Prawns/ bell pepper ring / Virgin fruit / mozzarella cheese / basil leaf / special tomato juice</t>
+  </si>
+  <si>
+    <t>大虾/甜椒圈/圣女果/马苏里拉芝士/罗勒叶/秘制番茄汁</t>
   </si>
   <si>
     <t>Italian salami pizza</t>
@@ -2667,6 +2667,24 @@
     <t>170</t>
   </si>
   <si>
+    <t>Roasted chicken wings</t>
+  </si>
+  <si>
+    <t>秘制烤鸡翅</t>
+  </si>
+  <si>
+    <t>46/份</t>
+  </si>
+  <si>
+    <t>images/product/food/秘制烤鸡翅.jpg</t>
+  </si>
+  <si>
+    <t>Chicken wings / secret sauce</t>
+  </si>
+  <si>
+    <t>鸡翅中/秘制酱料</t>
+  </si>
+  <si>
     <t>Macaroni in cone</t>
   </si>
   <si>
@@ -2781,6 +2799,9 @@
     <t>可尔必思/椰汁/椰奶/苏打</t>
   </si>
   <si>
+    <t>178</t>
+  </si>
+  <si>
     <t>Ugly duckling</t>
   </si>
   <si>
@@ -2796,7 +2817,7 @@
     <t>荔枝果泥/柠檬汁/苹果汁/椰汁/红石榴糖浆</t>
   </si>
   <si>
-    <t>178</t>
+    <t>179</t>
   </si>
   <si>
     <t>Hot milk</t>
@@ -2808,7 +2829,7 @@
     <t>20/Bottle</t>
   </si>
   <si>
-    <t>179</t>
+    <t>180</t>
   </si>
   <si>
     <t>Hot Chocolate</t>
@@ -2820,7 +2841,7 @@
     <t>22/Bottle</t>
   </si>
   <si>
-    <t>180</t>
+    <t>181</t>
   </si>
   <si>
     <t>Soda water</t>
@@ -2829,7 +2850,7 @@
     <t>苏打水</t>
   </si>
   <si>
-    <t>181</t>
+    <t>182</t>
   </si>
   <si>
     <t>Tonic water</t>
@@ -2838,7 +2859,7 @@
     <t>汤力水</t>
   </si>
   <si>
-    <t>182</t>
+    <t>183</t>
   </si>
   <si>
     <t>Coca cola</t>
@@ -2847,7 +2868,7 @@
     <t>可口可乐</t>
   </si>
   <si>
-    <t>183</t>
+    <t>184</t>
   </si>
   <si>
     <t>Red bull energy drink</t>
@@ -2856,7 +2877,7 @@
     <t>红牛碳酸型</t>
   </si>
   <si>
-    <t>184</t>
+    <t>185</t>
   </si>
   <si>
     <t>Kiwi Banana Mousse</t>
@@ -2871,7 +2892,7 @@
     <t>images/product/Dessert/猕猴桃香蕉慕斯.png</t>
   </si>
   <si>
-    <t>185</t>
+    <t>186</t>
   </si>
   <si>
     <t>White cheese lemon pomelo Mousse</t>
@@ -2883,7 +2904,7 @@
     <t>images/product/Dessert/白乳酪柠檬柚慕斯.png</t>
   </si>
   <si>
-    <t>186</t>
+    <t>187</t>
   </si>
   <si>
     <t>Opera（Chocolate）</t>
@@ -2895,7 +2916,7 @@
     <t>images/product/Dessert/歌剧院巧克力味.png</t>
   </si>
   <si>
-    <t>187</t>
+    <t>188</t>
   </si>
   <si>
     <t>Opera（Orange）</t>
@@ -2907,7 +2928,7 @@
     <t>images/product/Dessert/歌剧院橙子味.png</t>
   </si>
   <si>
-    <t>188</t>
+    <t>189</t>
   </si>
   <si>
     <t>Valrhono Caramel Chocklate Ban</t>
@@ -2919,7 +2940,7 @@
     <t>images/product/Dessert/法芙娜焦糖巧克力.png</t>
   </si>
   <si>
-    <t>189</t>
+    <t>190</t>
   </si>
   <si>
     <t>Pumpkin Cheese Cake</t>
@@ -2931,7 +2952,7 @@
     <t>images/product/Dessert/南瓜芝士蛋糕.png</t>
   </si>
   <si>
-    <t>190</t>
+    <t>191</t>
   </si>
   <si>
     <t>Match Cake</t>
@@ -3703,9 +3724,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3721,6 +3739,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4776,10 +4797,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:BD233"/>
+  <dimension ref="A1:BD234"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" topLeftCell="I153" workbookViewId="0">
+      <selection activeCell="K163" sqref="K163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -11857,7 +11878,7 @@
       <c r="M148" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="N148" s="24" t="s">
+      <c r="N148" s="23" t="s">
         <v>736</v>
       </c>
       <c r="O148" s="5" t="s">
@@ -12277,7 +12298,7 @@
       <c r="M156" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="N156" s="25" t="s">
+      <c r="N156" s="24" t="s">
         <v>791</v>
       </c>
       <c r="O156" s="5" t="s">
@@ -12290,16 +12311,16 @@
         <v>137</v>
       </c>
       <c r="R156" s="20"/>
-      <c r="S156" s="27"/>
-      <c r="T156" s="27"/>
-      <c r="U156" s="27"/>
-      <c r="V156" s="27"/>
-      <c r="W156" s="27"/>
-      <c r="X156" s="27"/>
-      <c r="Y156" s="27"/>
-      <c r="Z156" s="27"/>
-      <c r="AA156" s="27"/>
-      <c r="AB156" s="27"/>
+      <c r="S156" s="26"/>
+      <c r="T156" s="26"/>
+      <c r="U156" s="26"/>
+      <c r="V156" s="26"/>
+      <c r="W156" s="26"/>
+      <c r="X156" s="26"/>
+      <c r="Y156" s="26"/>
+      <c r="Z156" s="26"/>
+      <c r="AA156" s="26"/>
+      <c r="AB156" s="26"/>
     </row>
     <row r="157" customHeight="1" spans="1:28">
       <c r="A157" s="5" t="s">
@@ -12341,7 +12362,7 @@
       <c r="M157" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="N157" s="25" t="s">
+      <c r="N157" s="24" t="s">
         <v>798</v>
       </c>
       <c r="O157" s="5" t="s">
@@ -12354,16 +12375,16 @@
         <v>137</v>
       </c>
       <c r="R157" s="20"/>
-      <c r="S157" s="27"/>
-      <c r="T157" s="27"/>
-      <c r="U157" s="27"/>
-      <c r="V157" s="27"/>
-      <c r="W157" s="27"/>
-      <c r="X157" s="27"/>
-      <c r="Y157" s="27"/>
-      <c r="Z157" s="27"/>
-      <c r="AA157" s="27"/>
-      <c r="AB157" s="27"/>
+      <c r="S157" s="26"/>
+      <c r="T157" s="26"/>
+      <c r="U157" s="26"/>
+      <c r="V157" s="26"/>
+      <c r="W157" s="26"/>
+      <c r="X157" s="26"/>
+      <c r="Y157" s="26"/>
+      <c r="Z157" s="26"/>
+      <c r="AA157" s="26"/>
+      <c r="AB157" s="26"/>
     </row>
     <row r="158" customHeight="1" spans="1:28">
       <c r="A158" s="5" t="s">
@@ -12382,7 +12403,7 @@
         <v>114</v>
       </c>
       <c r="F158" s="20" t="s">
-        <v>650</v>
+        <v>581</v>
       </c>
       <c r="G158" s="20" t="s">
         <v>802</v>
@@ -12405,7 +12426,7 @@
       <c r="M158" s="5" t="s">
         <v>804</v>
       </c>
-      <c r="N158" s="25" t="s">
+      <c r="N158" s="24" t="s">
         <v>805</v>
       </c>
       <c r="O158" s="5" t="s">
@@ -12418,16 +12439,16 @@
         <v>137</v>
       </c>
       <c r="R158" s="20"/>
-      <c r="S158" s="27"/>
-      <c r="T158" s="27"/>
-      <c r="U158" s="27"/>
-      <c r="V158" s="27"/>
-      <c r="W158" s="27"/>
-      <c r="X158" s="27"/>
-      <c r="Y158" s="27"/>
-      <c r="Z158" s="27"/>
-      <c r="AA158" s="27"/>
-      <c r="AB158" s="27"/>
+      <c r="S158" s="26"/>
+      <c r="T158" s="26"/>
+      <c r="U158" s="26"/>
+      <c r="V158" s="26"/>
+      <c r="W158" s="26"/>
+      <c r="X158" s="26"/>
+      <c r="Y158" s="26"/>
+      <c r="Z158" s="26"/>
+      <c r="AA158" s="26"/>
+      <c r="AB158" s="26"/>
     </row>
     <row r="159" customHeight="1" spans="1:28">
       <c r="A159" s="5" t="s">
@@ -12469,7 +12490,7 @@
       <c r="M159" s="5" t="s">
         <v>810</v>
       </c>
-      <c r="N159" s="25" t="s">
+      <c r="N159" s="24" t="s">
         <v>811</v>
       </c>
       <c r="O159" s="5" t="s">
@@ -12482,16 +12503,16 @@
         <v>137</v>
       </c>
       <c r="R159" s="20"/>
-      <c r="S159" s="27"/>
-      <c r="T159" s="27"/>
-      <c r="U159" s="27"/>
-      <c r="V159" s="27"/>
-      <c r="W159" s="27"/>
-      <c r="X159" s="27"/>
-      <c r="Y159" s="27"/>
-      <c r="Z159" s="27"/>
-      <c r="AA159" s="27"/>
-      <c r="AB159" s="27"/>
+      <c r="S159" s="26"/>
+      <c r="T159" s="26"/>
+      <c r="U159" s="26"/>
+      <c r="V159" s="26"/>
+      <c r="W159" s="26"/>
+      <c r="X159" s="26"/>
+      <c r="Y159" s="26"/>
+      <c r="Z159" s="26"/>
+      <c r="AA159" s="26"/>
+      <c r="AB159" s="26"/>
     </row>
     <row r="160" customHeight="1" spans="1:28">
       <c r="A160" s="5" t="s">
@@ -12533,7 +12554,7 @@
       <c r="M160" s="5" t="s">
         <v>816</v>
       </c>
-      <c r="N160" s="25" t="s">
+      <c r="N160" s="24" t="s">
         <v>817</v>
       </c>
       <c r="O160" s="5" t="s">
@@ -12546,16 +12567,16 @@
         <v>137</v>
       </c>
       <c r="R160" s="20"/>
-      <c r="S160" s="27"/>
-      <c r="T160" s="27"/>
-      <c r="U160" s="27"/>
-      <c r="V160" s="27"/>
-      <c r="W160" s="27"/>
-      <c r="X160" s="27"/>
-      <c r="Y160" s="27"/>
-      <c r="Z160" s="27"/>
-      <c r="AA160" s="27"/>
-      <c r="AB160" s="27"/>
+      <c r="S160" s="26"/>
+      <c r="T160" s="26"/>
+      <c r="U160" s="26"/>
+      <c r="V160" s="26"/>
+      <c r="W160" s="26"/>
+      <c r="X160" s="26"/>
+      <c r="Y160" s="26"/>
+      <c r="Z160" s="26"/>
+      <c r="AA160" s="26"/>
+      <c r="AB160" s="26"/>
     </row>
     <row r="161" customHeight="1" spans="1:28">
       <c r="A161" s="5" t="s">
@@ -12597,7 +12618,7 @@
       <c r="M161" s="5" t="s">
         <v>822</v>
       </c>
-      <c r="N161" s="25" t="s">
+      <c r="N161" s="24" t="s">
         <v>823</v>
       </c>
       <c r="O161" s="5" t="s">
@@ -12610,16 +12631,16 @@
         <v>137</v>
       </c>
       <c r="R161" s="20"/>
-      <c r="S161" s="27"/>
-      <c r="T161" s="27"/>
-      <c r="U161" s="27"/>
-      <c r="V161" s="27"/>
-      <c r="W161" s="27"/>
-      <c r="X161" s="27"/>
-      <c r="Y161" s="27"/>
-      <c r="Z161" s="27"/>
-      <c r="AA161" s="27"/>
-      <c r="AB161" s="27"/>
+      <c r="S161" s="26"/>
+      <c r="T161" s="26"/>
+      <c r="U161" s="26"/>
+      <c r="V161" s="26"/>
+      <c r="W161" s="26"/>
+      <c r="X161" s="26"/>
+      <c r="Y161" s="26"/>
+      <c r="Z161" s="26"/>
+      <c r="AA161" s="26"/>
+      <c r="AB161" s="26"/>
     </row>
     <row r="162" customHeight="1" spans="1:28">
       <c r="A162" s="5" t="s">
@@ -12661,7 +12682,7 @@
       <c r="M162" s="5" t="s">
         <v>828</v>
       </c>
-      <c r="N162" s="25" t="s">
+      <c r="N162" s="24" t="s">
         <v>829</v>
       </c>
       <c r="O162" s="5" t="s">
@@ -12674,16 +12695,16 @@
         <v>137</v>
       </c>
       <c r="R162" s="20"/>
-      <c r="S162" s="27"/>
-      <c r="T162" s="27"/>
-      <c r="U162" s="27"/>
-      <c r="V162" s="27"/>
-      <c r="W162" s="27"/>
-      <c r="X162" s="27"/>
-      <c r="Y162" s="27"/>
-      <c r="Z162" s="27"/>
-      <c r="AA162" s="27"/>
-      <c r="AB162" s="27"/>
+      <c r="S162" s="26"/>
+      <c r="T162" s="26"/>
+      <c r="U162" s="26"/>
+      <c r="V162" s="26"/>
+      <c r="W162" s="26"/>
+      <c r="X162" s="26"/>
+      <c r="Y162" s="26"/>
+      <c r="Z162" s="26"/>
+      <c r="AA162" s="26"/>
+      <c r="AB162" s="26"/>
     </row>
     <row r="163" customHeight="1" spans="1:28">
       <c r="A163" s="5" t="s">
@@ -12737,17 +12758,17 @@
       <c r="Q163" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="R163" s="28"/>
-      <c r="S163" s="27"/>
-      <c r="T163" s="27"/>
-      <c r="U163" s="27"/>
-      <c r="V163" s="27"/>
-      <c r="W163" s="27"/>
-      <c r="X163" s="27"/>
-      <c r="Y163" s="27"/>
-      <c r="Z163" s="27"/>
-      <c r="AA163" s="27"/>
-      <c r="AB163" s="27"/>
+      <c r="R163" s="27"/>
+      <c r="S163" s="26"/>
+      <c r="T163" s="26"/>
+      <c r="U163" s="26"/>
+      <c r="V163" s="26"/>
+      <c r="W163" s="26"/>
+      <c r="X163" s="26"/>
+      <c r="Y163" s="26"/>
+      <c r="Z163" s="26"/>
+      <c r="AA163" s="26"/>
+      <c r="AB163" s="26"/>
     </row>
     <row r="164" customHeight="1" spans="1:28">
       <c r="A164" s="5" t="s">
@@ -12800,16 +12821,16 @@
         <v>137</v>
       </c>
       <c r="R164" s="9"/>
-      <c r="S164" s="29"/>
-      <c r="T164" s="27"/>
-      <c r="U164" s="27"/>
-      <c r="V164" s="27"/>
-      <c r="W164" s="27"/>
-      <c r="X164" s="27"/>
-      <c r="Y164" s="27"/>
-      <c r="Z164" s="27"/>
-      <c r="AA164" s="27"/>
-      <c r="AB164" s="27"/>
+      <c r="S164" s="28"/>
+      <c r="T164" s="26"/>
+      <c r="U164" s="26"/>
+      <c r="V164" s="26"/>
+      <c r="W164" s="26"/>
+      <c r="X164" s="26"/>
+      <c r="Y164" s="26"/>
+      <c r="Z164" s="26"/>
+      <c r="AA164" s="26"/>
+      <c r="AB164" s="26"/>
     </row>
     <row r="165" customHeight="1" spans="1:27">
       <c r="A165" s="5" t="s">
@@ -12864,15 +12885,15 @@
         <v>137</v>
       </c>
       <c r="R165" s="9"/>
-      <c r="S165" s="29"/>
-      <c r="T165" s="27"/>
-      <c r="U165" s="27"/>
-      <c r="V165" s="27"/>
-      <c r="W165" s="27"/>
-      <c r="X165" s="27"/>
-      <c r="Y165" s="27"/>
-      <c r="Z165" s="27"/>
-      <c r="AA165" s="27"/>
+      <c r="S165" s="28"/>
+      <c r="T165" s="26"/>
+      <c r="U165" s="26"/>
+      <c r="V165" s="26"/>
+      <c r="W165" s="26"/>
+      <c r="X165" s="26"/>
+      <c r="Y165" s="26"/>
+      <c r="Z165" s="26"/>
+      <c r="AA165" s="26"/>
     </row>
     <row r="166" customHeight="1" spans="1:56">
       <c r="A166" s="5" t="s">
@@ -12927,44 +12948,44 @@
         <v>137</v>
       </c>
       <c r="R166" s="9"/>
-      <c r="S166" s="29"/>
-      <c r="T166" s="27"/>
-      <c r="U166" s="27"/>
-      <c r="V166" s="27"/>
-      <c r="W166" s="27"/>
-      <c r="X166" s="27"/>
-      <c r="Y166" s="27"/>
-      <c r="Z166" s="27"/>
-      <c r="AA166" s="27"/>
-      <c r="AB166" s="27"/>
-      <c r="AC166" s="27"/>
-      <c r="AD166" s="27"/>
-      <c r="AE166" s="27"/>
-      <c r="AF166" s="27"/>
-      <c r="AG166" s="27"/>
-      <c r="AH166" s="27"/>
-      <c r="AI166" s="27"/>
-      <c r="AJ166" s="27"/>
-      <c r="AK166" s="27"/>
-      <c r="AL166" s="27"/>
-      <c r="AM166" s="27"/>
-      <c r="AN166" s="27"/>
-      <c r="AO166" s="27"/>
-      <c r="AP166" s="27"/>
-      <c r="AQ166" s="27"/>
-      <c r="AR166" s="27"/>
-      <c r="AS166" s="27"/>
-      <c r="AT166" s="27"/>
-      <c r="AU166" s="27"/>
-      <c r="AV166" s="27"/>
-      <c r="AW166" s="27"/>
-      <c r="AX166" s="27"/>
-      <c r="AY166" s="27"/>
-      <c r="AZ166" s="27"/>
-      <c r="BA166" s="27"/>
-      <c r="BB166" s="27"/>
-      <c r="BC166" s="27"/>
-      <c r="BD166" s="27"/>
+      <c r="S166" s="28"/>
+      <c r="T166" s="26"/>
+      <c r="U166" s="26"/>
+      <c r="V166" s="26"/>
+      <c r="W166" s="26"/>
+      <c r="X166" s="26"/>
+      <c r="Y166" s="26"/>
+      <c r="Z166" s="26"/>
+      <c r="AA166" s="26"/>
+      <c r="AB166" s="26"/>
+      <c r="AC166" s="26"/>
+      <c r="AD166" s="26"/>
+      <c r="AE166" s="26"/>
+      <c r="AF166" s="26"/>
+      <c r="AG166" s="26"/>
+      <c r="AH166" s="26"/>
+      <c r="AI166" s="26"/>
+      <c r="AJ166" s="26"/>
+      <c r="AK166" s="26"/>
+      <c r="AL166" s="26"/>
+      <c r="AM166" s="26"/>
+      <c r="AN166" s="26"/>
+      <c r="AO166" s="26"/>
+      <c r="AP166" s="26"/>
+      <c r="AQ166" s="26"/>
+      <c r="AR166" s="26"/>
+      <c r="AS166" s="26"/>
+      <c r="AT166" s="26"/>
+      <c r="AU166" s="26"/>
+      <c r="AV166" s="26"/>
+      <c r="AW166" s="26"/>
+      <c r="AX166" s="26"/>
+      <c r="AY166" s="26"/>
+      <c r="AZ166" s="26"/>
+      <c r="BA166" s="26"/>
+      <c r="BB166" s="26"/>
+      <c r="BC166" s="26"/>
+      <c r="BD166" s="26"/>
     </row>
     <row r="167" customHeight="1" spans="1:18">
       <c r="A167" s="5" t="s">
@@ -13071,21 +13092,21 @@
         <v>137</v>
       </c>
       <c r="R168" s="9"/>
-      <c r="S168" s="29"/>
-      <c r="T168" s="27"/>
-      <c r="U168" s="27"/>
-      <c r="V168" s="27"/>
-      <c r="W168" s="27"/>
-      <c r="X168" s="27"/>
-      <c r="Y168" s="27"/>
-      <c r="Z168" s="27"/>
-      <c r="AA168" s="27"/>
-      <c r="AB168" s="27"/>
-      <c r="AC168" s="27"/>
-      <c r="AD168" s="27"/>
-      <c r="AE168" s="27"/>
-      <c r="AF168" s="27"/>
-      <c r="AG168" s="27"/>
+      <c r="S168" s="28"/>
+      <c r="T168" s="26"/>
+      <c r="U168" s="26"/>
+      <c r="V168" s="26"/>
+      <c r="W168" s="26"/>
+      <c r="X168" s="26"/>
+      <c r="Y168" s="26"/>
+      <c r="Z168" s="26"/>
+      <c r="AA168" s="26"/>
+      <c r="AB168" s="26"/>
+      <c r="AC168" s="26"/>
+      <c r="AD168" s="26"/>
+      <c r="AE168" s="26"/>
+      <c r="AF168" s="26"/>
+      <c r="AG168" s="26"/>
     </row>
     <row r="169" customHeight="1" spans="1:18">
       <c r="A169" s="5" t="s">
@@ -13208,7 +13229,7 @@
         <v>114</v>
       </c>
       <c r="F171" s="9" t="s">
-        <v>271</v>
+        <v>352</v>
       </c>
       <c r="G171" s="9" t="s">
         <v>885</v>
@@ -13225,7 +13246,9 @@
       <c r="K171" s="9" t="s">
         <v>886</v>
       </c>
-      <c r="L171" s="8"/>
+      <c r="L171" s="19" t="s">
+        <v>789</v>
+      </c>
       <c r="M171" s="5" t="s">
         <v>887</v>
       </c>
@@ -13241,7 +13264,7 @@
       <c r="Q171" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="R171" s="5"/>
+      <c r="R171" s="20"/>
     </row>
     <row r="172" customHeight="1" spans="1:18">
       <c r="A172" s="5" t="s">
@@ -13260,10 +13283,10 @@
         <v>114</v>
       </c>
       <c r="F172" s="9" t="s">
-        <v>126</v>
+        <v>271</v>
       </c>
       <c r="G172" s="9" t="s">
-        <v>787</v>
+        <v>891</v>
       </c>
       <c r="H172" s="13" t="b">
         <v>0</v>
@@ -13275,18 +13298,18 @@
         <v>716</v>
       </c>
       <c r="K172" s="9" t="s">
-        <v>891</v>
-      </c>
-      <c r="L172" s="8" t="s">
-        <v>847</v>
-      </c>
+        <v>892</v>
+      </c>
+      <c r="L172" s="8"/>
       <c r="M172" s="5" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="N172" s="16" t="s">
-        <v>893</v>
-      </c>
-      <c r="O172" s="9"/>
+        <v>894</v>
+      </c>
+      <c r="O172" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="P172" s="9" t="s">
         <v>122</v>
       </c>
@@ -13299,23 +13322,23 @@
       <c r="A173" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B173" s="18" t="s">
-        <v>894</v>
-      </c>
-      <c r="C173" s="18" t="s">
+      <c r="B173" s="8" t="s">
         <v>895</v>
       </c>
-      <c r="D173" s="5" t="s">
+      <c r="C173" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="D173" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E173" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F173" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="G173" s="5" t="s">
-        <v>762</v>
+      <c r="F173" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G173" s="9" t="s">
+        <v>787</v>
       </c>
       <c r="H173" s="13" t="b">
         <v>0</v>
@@ -13327,14 +13350,16 @@
         <v>716</v>
       </c>
       <c r="K173" s="9" t="s">
-        <v>896</v>
-      </c>
-      <c r="L173" s="18"/>
+        <v>897</v>
+      </c>
+      <c r="L173" s="8" t="s">
+        <v>847</v>
+      </c>
       <c r="M173" s="5" t="s">
-        <v>897</v>
-      </c>
-      <c r="N173" s="5" t="s">
         <v>898</v>
+      </c>
+      <c r="N173" s="16" t="s">
+        <v>899</v>
       </c>
       <c r="O173" s="9" t="s">
         <v>122</v>
@@ -13352,10 +13377,10 @@
         <v>42</v>
       </c>
       <c r="B174" s="18" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C174" s="18" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D174" s="5" t="s">
         <v>76</v>
@@ -13364,10 +13389,10 @@
         <v>114</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>332</v>
+        <v>395</v>
       </c>
       <c r="G174" s="5" t="s">
-        <v>872</v>
+        <v>762</v>
       </c>
       <c r="H174" s="13" t="b">
         <v>0</v>
@@ -13379,14 +13404,14 @@
         <v>716</v>
       </c>
       <c r="K174" s="9" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="L174" s="18"/>
       <c r="M174" s="5" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="N174" s="5" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="O174" s="9" t="s">
         <v>122</v>
@@ -13403,23 +13428,23 @@
       <c r="A175" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B175" s="9" t="s">
-        <v>904</v>
-      </c>
-      <c r="C175" s="9" t="s">
+      <c r="B175" s="18" t="s">
         <v>905</v>
       </c>
-      <c r="D175" s="9" t="s">
-        <v>82</v>
+      <c r="C175" s="18" t="s">
+        <v>906</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="E175" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F175" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="G175" s="9" t="s">
-        <v>906</v>
+      <c r="F175" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="G175" s="5" t="s">
+        <v>872</v>
       </c>
       <c r="H175" s="13" t="b">
         <v>0</v>
@@ -13428,28 +13453,26 @@
         <v>0</v>
       </c>
       <c r="J175" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="K175" s="9" t="s">
         <v>907</v>
       </c>
-      <c r="K175" s="9" t="s">
+      <c r="L175" s="18"/>
+      <c r="M175" s="5" t="s">
         <v>908</v>
       </c>
-      <c r="L175" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="M175" s="5" t="s">
+      <c r="N175" s="5" t="s">
         <v>909</v>
       </c>
-      <c r="N175" s="16" t="s">
-        <v>910</v>
-      </c>
       <c r="O175" s="9" t="s">
         <v>122</v>
       </c>
       <c r="P175" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="Q175" s="13" t="b">
-        <v>1</v>
+      <c r="Q175" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="R175" s="5"/>
     </row>
@@ -13457,11 +13480,11 @@
       <c r="A176" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B176" s="21" t="s">
+      <c r="B176" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="C176" s="9" t="s">
         <v>911</v>
-      </c>
-      <c r="C176" s="9" t="s">
-        <v>912</v>
       </c>
       <c r="D176" s="9" t="s">
         <v>82</v>
@@ -13473,7 +13496,7 @@
         <v>387</v>
       </c>
       <c r="G176" s="9" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="H176" s="13" t="b">
         <v>0</v>
@@ -13482,19 +13505,19 @@
         <v>0</v>
       </c>
       <c r="J176" s="9" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="K176" s="9" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="L176" s="9" t="s">
         <v>128</v>
       </c>
       <c r="M176" s="5" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="N176" s="16" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="O176" s="9" t="s">
         <v>122</v>
@@ -13511,11 +13534,11 @@
       <c r="A177" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B177" s="9" t="s">
-        <v>916</v>
+      <c r="B177" s="21" t="s">
+        <v>917</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="D177" s="9" t="s">
         <v>82</v>
@@ -13527,7 +13550,7 @@
         <v>387</v>
       </c>
       <c r="G177" s="9" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="H177" s="13" t="b">
         <v>0</v>
@@ -13536,19 +13559,19 @@
         <v>0</v>
       </c>
       <c r="J177" s="9" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="K177" s="9" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="L177" s="9" t="s">
         <v>128</v>
       </c>
       <c r="M177" s="5" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="N177" s="16" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="O177" s="9" t="s">
         <v>122</v>
@@ -13566,10 +13589,10 @@
         <v>55</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D178" s="9" t="s">
         <v>82</v>
@@ -13581,7 +13604,7 @@
         <v>387</v>
       </c>
       <c r="G178" s="9" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="H178" s="13" t="b">
         <v>0</v>
@@ -13590,19 +13613,19 @@
         <v>0</v>
       </c>
       <c r="J178" s="9" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="K178" s="9" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="L178" s="9" t="s">
         <v>128</v>
       </c>
       <c r="M178" s="5" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="N178" s="16" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="O178" s="9" t="s">
         <v>122</v>
@@ -13610,32 +13633,32 @@
       <c r="P178" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="Q178" s="13" t="s">
-        <v>137</v>
+      <c r="Q178" s="13" t="b">
+        <v>1</v>
       </c>
       <c r="R178" s="5"/>
     </row>
     <row r="179" customHeight="1" spans="1:18">
       <c r="A179" s="5" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E179" s="9" t="s">
         <v>114</v>
       </c>
       <c r="F179" s="9" t="s">
-        <v>131</v>
+        <v>387</v>
       </c>
       <c r="G179" s="9" t="s">
-        <v>929</v>
+        <v>912</v>
       </c>
       <c r="H179" s="13" t="b">
         <v>0</v>
@@ -13644,12 +13667,20 @@
         <v>0</v>
       </c>
       <c r="J179" s="9" t="s">
-        <v>907</v>
-      </c>
-      <c r="K179" s="9"/>
-      <c r="L179" s="9"/>
-      <c r="M179" s="5"/>
-      <c r="N179" s="16"/>
+        <v>913</v>
+      </c>
+      <c r="K179" s="9" t="s">
+        <v>930</v>
+      </c>
+      <c r="L179" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="M179" s="5" t="s">
+        <v>931</v>
+      </c>
+      <c r="N179" s="16" t="s">
+        <v>932</v>
+      </c>
       <c r="O179" s="9" t="s">
         <v>122</v>
       </c>
@@ -13663,13 +13694,13 @@
     </row>
     <row r="180" customHeight="1" spans="1:18">
       <c r="A180" s="5" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="D180" s="9" t="s">
         <v>85</v>
@@ -13678,10 +13709,10 @@
         <v>114</v>
       </c>
       <c r="F180" s="9" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="G180" s="9" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="H180" s="13" t="b">
         <v>0</v>
@@ -13690,7 +13721,7 @@
         <v>0</v>
       </c>
       <c r="J180" s="9" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="K180" s="9"/>
       <c r="L180" s="9"/>
@@ -13709,25 +13740,25 @@
     </row>
     <row r="181" customHeight="1" spans="1:18">
       <c r="A181" s="5" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E181" s="9" t="s">
         <v>114</v>
       </c>
       <c r="F181" s="9" t="s">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="G181" s="9" t="s">
-        <v>707</v>
+        <v>940</v>
       </c>
       <c r="H181" s="13" t="b">
         <v>0</v>
@@ -13736,7 +13767,7 @@
         <v>0</v>
       </c>
       <c r="J181" s="9" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="K181" s="9"/>
       <c r="L181" s="9"/>
@@ -13755,13 +13786,13 @@
     </row>
     <row r="182" customHeight="1" spans="1:18">
       <c r="A182" s="5" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="D182" s="9" t="s">
         <v>88</v>
@@ -13782,7 +13813,7 @@
         <v>0</v>
       </c>
       <c r="J182" s="9" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="K182" s="9"/>
       <c r="L182" s="9"/>
@@ -13801,13 +13832,13 @@
     </row>
     <row r="183" customHeight="1" spans="1:18">
       <c r="A183" s="5" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="D183" s="9" t="s">
         <v>88</v>
@@ -13828,7 +13859,7 @@
         <v>0</v>
       </c>
       <c r="J183" s="9" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="K183" s="9"/>
       <c r="L183" s="9"/>
@@ -13847,13 +13878,13 @@
     </row>
     <row r="184" customHeight="1" spans="1:18">
       <c r="A184" s="5" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="D184" s="9" t="s">
         <v>88</v>
@@ -13862,7 +13893,7 @@
         <v>114</v>
       </c>
       <c r="F184" s="9" t="s">
-        <v>199</v>
+        <v>131</v>
       </c>
       <c r="G184" s="9" t="s">
         <v>707</v>
@@ -13874,7 +13905,7 @@
         <v>0</v>
       </c>
       <c r="J184" s="9" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="K184" s="9"/>
       <c r="L184" s="9"/>
@@ -13891,63 +13922,61 @@
       </c>
       <c r="R184" s="5"/>
     </row>
-    <row r="185" customFormat="1" customHeight="1" spans="1:18">
+    <row r="185" customHeight="1" spans="1:18">
       <c r="A185" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="B185" s="7" t="s">
-        <v>947</v>
-      </c>
-      <c r="C185" s="7" t="s">
-        <v>948</v>
-      </c>
-      <c r="D185" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E185" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F185" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G185" s="7" t="s">
-        <v>872</v>
-      </c>
-      <c r="H185" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I185" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J185" s="7" t="s">
-        <v>949</v>
-      </c>
-      <c r="K185" s="7" t="s">
         <v>950</v>
       </c>
-      <c r="L185" s="22"/>
-      <c r="M185" s="7"/>
-      <c r="N185" s="26"/>
-      <c r="O185" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P185" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q185" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="R185" s="7"/>
+      <c r="B185" s="9" t="s">
+        <v>951</v>
+      </c>
+      <c r="C185" s="9" t="s">
+        <v>952</v>
+      </c>
+      <c r="D185" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E185" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F185" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G185" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="H185" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I185" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" s="9" t="s">
+        <v>913</v>
+      </c>
+      <c r="K185" s="9"/>
+      <c r="L185" s="9"/>
+      <c r="M185" s="5"/>
+      <c r="N185" s="16"/>
+      <c r="O185" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P185" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q185" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="R185" s="5"/>
     </row>
     <row r="186" customFormat="1" customHeight="1" spans="1:18">
       <c r="A186" s="5" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="D186" s="7" t="s">
         <v>95</v>
@@ -13968,14 +13997,14 @@
         <v>1</v>
       </c>
       <c r="J186" s="7" t="s">
-        <v>949</v>
+        <v>956</v>
       </c>
       <c r="K186" s="7" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="L186" s="22"/>
       <c r="M186" s="7"/>
-      <c r="N186" s="26"/>
+      <c r="N186" s="25"/>
       <c r="O186" s="7" t="s">
         <v>122</v>
       </c>
@@ -13989,13 +14018,13 @@
     </row>
     <row r="187" customFormat="1" customHeight="1" spans="1:18">
       <c r="A187" s="5" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="D187" s="7" t="s">
         <v>95</v>
@@ -14016,14 +14045,14 @@
         <v>1</v>
       </c>
       <c r="J187" s="7" t="s">
-        <v>949</v>
+        <v>956</v>
       </c>
       <c r="K187" s="7" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="L187" s="22"/>
       <c r="M187" s="7"/>
-      <c r="N187" s="26"/>
+      <c r="N187" s="25"/>
       <c r="O187" s="7" t="s">
         <v>122</v>
       </c>
@@ -14037,13 +14066,13 @@
     </row>
     <row r="188" customFormat="1" customHeight="1" spans="1:18">
       <c r="A188" s="5" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="D188" s="7" t="s">
         <v>95</v>
@@ -14058,20 +14087,20 @@
         <v>872</v>
       </c>
       <c r="H188" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" s="7" t="s">
-        <v>949</v>
+        <v>956</v>
       </c>
       <c r="K188" s="7" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="L188" s="22"/>
       <c r="M188" s="7"/>
-      <c r="N188" s="26"/>
+      <c r="N188" s="25"/>
       <c r="O188" s="7" t="s">
         <v>122</v>
       </c>
@@ -14085,13 +14114,13 @@
     </row>
     <row r="189" customFormat="1" customHeight="1" spans="1:18">
       <c r="A189" s="5" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="D189" s="7" t="s">
         <v>95</v>
@@ -14112,14 +14141,14 @@
         <v>0</v>
       </c>
       <c r="J189" s="7" t="s">
-        <v>949</v>
+        <v>956</v>
       </c>
       <c r="K189" s="7" t="s">
-        <v>966</v>
-      </c>
-      <c r="L189" s="7"/>
+        <v>969</v>
+      </c>
+      <c r="L189" s="22"/>
       <c r="M189" s="7"/>
-      <c r="N189" s="26"/>
+      <c r="N189" s="25"/>
       <c r="O189" s="7" t="s">
         <v>122</v>
       </c>
@@ -14133,13 +14162,13 @@
     </row>
     <row r="190" customFormat="1" customHeight="1" spans="1:18">
       <c r="A190" s="5" t="s">
-        <v>967</v>
-      </c>
-      <c r="B190" s="22" t="s">
-        <v>968</v>
+        <v>970</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>971</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="D190" s="7" t="s">
         <v>95</v>
@@ -14160,14 +14189,14 @@
         <v>0</v>
       </c>
       <c r="J190" s="7" t="s">
-        <v>949</v>
+        <v>956</v>
       </c>
       <c r="K190" s="7" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="L190" s="7"/>
       <c r="M190" s="7"/>
-      <c r="N190" s="26"/>
+      <c r="N190" s="25"/>
       <c r="O190" s="7" t="s">
         <v>122</v>
       </c>
@@ -14181,13 +14210,13 @@
     </row>
     <row r="191" customFormat="1" customHeight="1" spans="1:18">
       <c r="A191" s="5" t="s">
-        <v>971</v>
-      </c>
-      <c r="B191" s="7" t="s">
-        <v>972</v>
+        <v>974</v>
+      </c>
+      <c r="B191" s="22" t="s">
+        <v>975</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="D191" s="7" t="s">
         <v>95</v>
@@ -14208,14 +14237,14 @@
         <v>0</v>
       </c>
       <c r="J191" s="7" t="s">
-        <v>949</v>
+        <v>956</v>
       </c>
       <c r="K191" s="7" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="L191" s="7"/>
-      <c r="M191" s="26"/>
-      <c r="N191" s="7"/>
+      <c r="M191" s="7"/>
+      <c r="N191" s="25"/>
       <c r="O191" s="7" t="s">
         <v>122</v>
       </c>
@@ -14227,131 +14256,179 @@
       </c>
       <c r="R191" s="7"/>
     </row>
-    <row r="192" customHeight="1" spans="1:1">
-      <c r="A192" s="23"/>
+    <row r="192" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A192" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>979</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>980</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E192" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F192" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G192" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="H192" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I192" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J192" s="7" t="s">
+        <v>956</v>
+      </c>
+      <c r="K192" s="7" t="s">
+        <v>981</v>
+      </c>
+      <c r="L192" s="7"/>
+      <c r="M192" s="25"/>
+      <c r="N192" s="7"/>
+      <c r="O192" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P192" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q192" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="R192" s="7"/>
     </row>
     <row r="193" customHeight="1" spans="1:1">
-      <c r="A193" s="23"/>
+      <c r="A193" s="29"/>
     </row>
     <row r="194" customHeight="1" spans="1:1">
-      <c r="A194" s="23"/>
+      <c r="A194" s="29"/>
     </row>
     <row r="195" customHeight="1" spans="1:1">
-      <c r="A195" s="23"/>
+      <c r="A195" s="29"/>
     </row>
     <row r="196" customHeight="1" spans="1:1">
-      <c r="A196" s="23"/>
+      <c r="A196" s="29"/>
     </row>
     <row r="197" customHeight="1" spans="1:1">
-      <c r="A197" s="23"/>
+      <c r="A197" s="29"/>
     </row>
     <row r="198" customHeight="1" spans="1:1">
-      <c r="A198" s="23"/>
+      <c r="A198" s="29"/>
     </row>
     <row r="199" customHeight="1" spans="1:1">
-      <c r="A199" s="23"/>
+      <c r="A199" s="29"/>
     </row>
     <row r="200" customHeight="1" spans="1:1">
-      <c r="A200" s="23"/>
+      <c r="A200" s="29"/>
     </row>
     <row r="201" customHeight="1" spans="1:1">
-      <c r="A201" s="23"/>
+      <c r="A201" s="29"/>
     </row>
     <row r="202" customHeight="1" spans="1:1">
-      <c r="A202" s="23"/>
+      <c r="A202" s="29"/>
     </row>
     <row r="203" customHeight="1" spans="1:1">
-      <c r="A203" s="23"/>
+      <c r="A203" s="29"/>
     </row>
     <row r="204" customHeight="1" spans="1:1">
-      <c r="A204" s="23"/>
+      <c r="A204" s="29"/>
     </row>
     <row r="205" customHeight="1" spans="1:1">
-      <c r="A205" s="23"/>
+      <c r="A205" s="29"/>
     </row>
     <row r="206" customHeight="1" spans="1:1">
-      <c r="A206" s="23"/>
+      <c r="A206" s="29"/>
     </row>
     <row r="207" customHeight="1" spans="1:1">
-      <c r="A207" s="23"/>
+      <c r="A207" s="29"/>
     </row>
     <row r="208" customHeight="1" spans="1:1">
-      <c r="A208" s="23"/>
+      <c r="A208" s="29"/>
     </row>
     <row r="209" customHeight="1" spans="1:1">
-      <c r="A209" s="23"/>
+      <c r="A209" s="29"/>
     </row>
     <row r="210" customHeight="1" spans="1:1">
-      <c r="A210" s="23"/>
+      <c r="A210" s="29"/>
     </row>
     <row r="211" customHeight="1" spans="1:1">
-      <c r="A211" s="23"/>
+      <c r="A211" s="29"/>
     </row>
     <row r="212" customHeight="1" spans="1:1">
-      <c r="A212" s="23"/>
+      <c r="A212" s="29"/>
     </row>
     <row r="213" customHeight="1" spans="1:1">
-      <c r="A213" s="23"/>
+      <c r="A213" s="29"/>
     </row>
     <row r="214" customHeight="1" spans="1:1">
-      <c r="A214" s="23"/>
+      <c r="A214" s="29"/>
     </row>
     <row r="215" customHeight="1" spans="1:1">
-      <c r="A215" s="23"/>
+      <c r="A215" s="29"/>
     </row>
     <row r="216" customHeight="1" spans="1:1">
-      <c r="A216" s="23"/>
+      <c r="A216" s="29"/>
     </row>
     <row r="217" customHeight="1" spans="1:1">
-      <c r="A217" s="23"/>
+      <c r="A217" s="29"/>
     </row>
     <row r="218" customHeight="1" spans="1:1">
-      <c r="A218" s="23"/>
+      <c r="A218" s="29"/>
     </row>
     <row r="219" customHeight="1" spans="1:1">
-      <c r="A219" s="23"/>
+      <c r="A219" s="29"/>
     </row>
     <row r="220" customHeight="1" spans="1:1">
-      <c r="A220" s="23"/>
+      <c r="A220" s="29"/>
     </row>
     <row r="221" customHeight="1" spans="1:1">
-      <c r="A221" s="23"/>
+      <c r="A221" s="29"/>
     </row>
     <row r="222" customHeight="1" spans="1:1">
-      <c r="A222" s="23"/>
+      <c r="A222" s="29"/>
     </row>
     <row r="223" customHeight="1" spans="1:1">
-      <c r="A223" s="23"/>
+      <c r="A223" s="29"/>
     </row>
     <row r="224" customHeight="1" spans="1:1">
-      <c r="A224" s="23"/>
+      <c r="A224" s="29"/>
     </row>
     <row r="225" customHeight="1" spans="1:1">
-      <c r="A225" s="23"/>
+      <c r="A225" s="29"/>
     </row>
     <row r="226" customHeight="1" spans="1:1">
-      <c r="A226" s="23"/>
+      <c r="A226" s="29"/>
     </row>
     <row r="227" customHeight="1" spans="1:1">
-      <c r="A227" s="23"/>
+      <c r="A227" s="29"/>
     </row>
     <row r="228" customHeight="1" spans="1:1">
-      <c r="A228" s="23"/>
+      <c r="A228" s="29"/>
     </row>
     <row r="229" customHeight="1" spans="1:1">
-      <c r="A229" s="23"/>
+      <c r="A229" s="29"/>
     </row>
     <row r="230" customHeight="1" spans="1:1">
-      <c r="A230" s="23"/>
+      <c r="A230" s="29"/>
     </row>
     <row r="231" customHeight="1" spans="1:1">
-      <c r="A231" s="23"/>
+      <c r="A231" s="29"/>
     </row>
     <row r="232" customHeight="1" spans="1:1">
-      <c r="A232" s="23"/>
+      <c r="A232" s="29"/>
     </row>
     <row r="233" customHeight="1" spans="1:1">
-      <c r="A233" s="23"/>
+      <c r="A233" s="29"/>
+    </row>
+    <row r="234" customHeight="1" spans="1:1">
+      <c r="A234" s="29"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/data/menu_dinner.xlsx
+++ b/data/menu_dinner.xlsx
@@ -4799,8 +4799,8 @@
   <sheetPr/>
   <dimension ref="A1:BD234"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" topLeftCell="I153" workbookViewId="0">
-      <selection activeCell="K163" sqref="K163"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="M171" sqref="M171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>

--- a/data/menu_dinner.xlsx
+++ b/data/menu_dinner.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970">
   <si>
     <t>id</t>
   </si>
@@ -2373,336 +2373,306 @@
     <t>155</t>
   </si>
   <si>
-    <t>ROOTINN Beef pie</t>
-  </si>
-  <si>
-    <t>ROOTINN牛肉馅饼</t>
+    <t>Shrimp pizza</t>
+  </si>
+  <si>
+    <t>鲜虾披萨</t>
+  </si>
+  <si>
+    <t>108/份</t>
+  </si>
+  <si>
+    <t>images/product/food/鲜虾披萨.jpg</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>Prawns/ bell pepper ring / Virgin fruit / mozzarella cheese / basil leaf / special tomato juice</t>
+  </si>
+  <si>
+    <t>大虾/甜椒圈/圣女果/马苏里拉芝士/罗勒叶/秘制番茄汁</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>Italian salami pizza</t>
+  </si>
+  <si>
+    <t>意大利萨拉米披萨</t>
+  </si>
+  <si>
+    <t>98/份</t>
+  </si>
+  <si>
+    <t>images/product/food/意大利萨拉米披萨.jpg</t>
+  </si>
+  <si>
+    <t>Salami sausage / Black Olive / Virgin fruit / mozzarella cheese / basil leaf / special tomato juice</t>
+  </si>
+  <si>
+    <t>萨拉米肠/黑橄榄/圣女果/马苏里拉芝士/罗勒叶/秘制番茄汁</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>Spanish ham pizza</t>
+  </si>
+  <si>
+    <t>西班牙火腿披萨</t>
+  </si>
+  <si>
+    <t>images/product/food/西班牙火腿披萨.jpg</t>
+  </si>
+  <si>
+    <t>Air dried ham / chopped bacon / Virgin fruit / mozzarella cheese / basil leaf / special tomato juice</t>
+  </si>
+  <si>
+    <t>风干火腿/培根碎/圣女果/马苏里拉芝士/罗勒叶/秘制番茄汁</t>
+  </si>
+  <si>
+    <t>Pizza with peppers and mushrooms</t>
+  </si>
+  <si>
+    <t>甜椒蘑菇披萨</t>
   </si>
   <si>
     <t>88/份</t>
   </si>
   <si>
-    <t>images/product/food/ROOTINN牛肉馅饼.jpg</t>
-  </si>
-  <si>
-    <t>NEW</t>
-  </si>
-  <si>
-    <t>Sirloin / fresh mushroom / onion / garlic</t>
-  </si>
-  <si>
-    <t>牛脊肉/鲜蘑菇/洋葱/大蒜</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>ROOTINN Chicken pie</t>
-  </si>
-  <si>
-    <t>ROOTINN鸡肉馅饼</t>
+    <t>images/product/food/甜椒蘑菇披萨.jpg</t>
+  </si>
+  <si>
+    <t>Sweet pepper / onion / mushroom / Basil / special tomato juice</t>
+  </si>
+  <si>
+    <t>甜椒/洋葱/蘑菇/罗勒叶/秘制番茄汁</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>Margaret pizza</t>
+  </si>
+  <si>
+    <t>玛格丽特披萨</t>
   </si>
   <si>
     <t>78/份</t>
   </si>
   <si>
-    <t>images/product/food/ROOTINN鸡肉馅饼.jpg</t>
-  </si>
-  <si>
-    <t>Chicken leg / bell pepper / Onion</t>
-  </si>
-  <si>
-    <t>鸡腿肉/甜椒/洋葱</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>Shrimp pizza</t>
-  </si>
-  <si>
-    <t>鲜虾披萨</t>
-  </si>
-  <si>
-    <t>108/份</t>
-  </si>
-  <si>
-    <t>images/product/food/鲜虾披萨.jpg</t>
-  </si>
-  <si>
-    <t>Prawns/ bell pepper ring / Virgin fruit / mozzarella cheese / basil leaf / special tomato juice</t>
-  </si>
-  <si>
-    <t>大虾/甜椒圈/圣女果/马苏里拉芝士/罗勒叶/秘制番茄汁</t>
-  </si>
-  <si>
-    <t>Italian salami pizza</t>
-  </si>
-  <si>
-    <t>意大利萨拉米披萨</t>
-  </si>
-  <si>
-    <t>98/份</t>
-  </si>
-  <si>
-    <t>images/product/food/意大利萨拉米披萨.jpg</t>
-  </si>
-  <si>
-    <t>Salami sausage / Black Olive / Virgin fruit / mozzarella cheese / basil leaf / special tomato juice</t>
-  </si>
-  <si>
-    <t>萨拉米肠/黑橄榄/圣女果/马苏里拉芝士/罗勒叶/秘制番茄汁</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>Spanish ham pizza</t>
-  </si>
-  <si>
-    <t>西班牙火腿披萨</t>
-  </si>
-  <si>
-    <t>images/product/food/西班牙火腿披萨.jpg</t>
-  </si>
-  <si>
-    <t>Air dried ham / chopped bacon / Virgin fruit / mozzarella cheese / basil leaf / special tomato juice</t>
-  </si>
-  <si>
-    <t>风干火腿/培根碎/圣女果/马苏里拉芝士/罗勒叶/秘制番茄汁</t>
+    <t>images/product/food/玛格丽特披萨.jpg</t>
+  </si>
+  <si>
+    <t>Virgin fruit / mozzarella cheese / basil leaf / special tomato juice</t>
+  </si>
+  <si>
+    <t>圣女果/马苏里拉芝士/罗勒叶/秘制番茄汁</t>
   </si>
   <si>
     <t>160</t>
   </si>
   <si>
-    <t>Pizza with peppers and mushrooms</t>
-  </si>
-  <si>
-    <t>甜椒蘑菇披萨</t>
-  </si>
-  <si>
-    <t>images/product/food/甜椒蘑菇披萨.jpg</t>
-  </si>
-  <si>
-    <t>Sweet pepper / onion / mushroom / Basil / special tomato juice</t>
-  </si>
-  <si>
-    <t>甜椒/洋葱/蘑菇/罗勒叶/秘制番茄汁</t>
+    <t>Sauteed Beef Fillet with Black Pepper pasta</t>
+  </si>
+  <si>
+    <t>黑椒牛柳意面</t>
+  </si>
+  <si>
+    <t>images/product/food/黑椒牛柳意面.jpg</t>
+  </si>
+  <si>
+    <t>Beef fillet / sweet pepper / onion / Mushroom slice / special black pepper sauce / pasta</t>
+  </si>
+  <si>
+    <t>牛柳/甜椒/洋葱/蘑菇片/秘制黑椒汁/意面</t>
   </si>
   <si>
     <t>161</t>
   </si>
   <si>
-    <t>Margaret pizza</t>
-  </si>
-  <si>
-    <t>玛格丽特披萨</t>
-  </si>
-  <si>
-    <t>images/product/food/玛格丽特披萨.jpg</t>
-  </si>
-  <si>
-    <t>Virgin fruit / mozzarella cheese / basil leaf / special tomato juice</t>
-  </si>
-  <si>
-    <t>圣女果/马苏里拉芝士/罗勒叶/秘制番茄汁</t>
+    <t>Cream mushroom bacon hot spring egg pasta</t>
+  </si>
+  <si>
+    <t>奶油蘑菇培根温泉蛋意面</t>
+  </si>
+  <si>
+    <t>55/份</t>
+  </si>
+  <si>
+    <t>images/product/food/温泉蛋意面.jpg</t>
+  </si>
+  <si>
+    <t>Pasta/HAM/Vegetables</t>
+  </si>
+  <si>
+    <t>意面/火腿/搭配蔬菜</t>
   </si>
   <si>
     <t>162</t>
   </si>
   <si>
-    <t>Sauteed Beef Fillet with Black Pepper pasta</t>
-  </si>
-  <si>
-    <t>黑椒牛柳意面</t>
-  </si>
-  <si>
-    <t>images/product/food/黑椒牛柳意面.jpg</t>
-  </si>
-  <si>
-    <t>Beef fillet / sweet pepper / onion / Mushroom slice / special black pepper sauce / pasta</t>
-  </si>
-  <si>
-    <t>牛柳/甜椒/洋葱/蘑菇片/秘制黑椒汁/意面</t>
+    <t>Little angel spaghetti with cream and ham</t>
+  </si>
+  <si>
+    <t>小恶魔蕃茄海鲜意面</t>
+  </si>
+  <si>
+    <t>images/product/food/小恶魔.jpg</t>
+  </si>
+  <si>
+    <t>微辣</t>
+  </si>
+  <si>
+    <t>Pasta/Rainbow/Squid ring/Shrimp</t>
+  </si>
+  <si>
+    <t>意面/海虹/鱿鱼圈/虾仁</t>
   </si>
   <si>
     <t>163</t>
   </si>
   <si>
-    <t>Cream mushroom bacon hot spring egg pasta</t>
-  </si>
-  <si>
-    <t>奶油蘑菇培根温泉蛋意面</t>
-  </si>
-  <si>
-    <t>55/份</t>
-  </si>
-  <si>
-    <t>images/product/food/温泉蛋意面.jpg</t>
-  </si>
-  <si>
-    <t>Pasta/HAM/Vegetables</t>
-  </si>
-  <si>
-    <t>意面/火腿/搭配蔬菜</t>
+    <t>小天使奶油火腿意面</t>
+  </si>
+  <si>
+    <t>images/product/food/小天使.jpg</t>
+  </si>
+  <si>
+    <t>Pasta/HAM/Bacon/Seasonal Vegetable</t>
+  </si>
+  <si>
+    <t>意面/火腿/培根/时蔬</t>
   </si>
   <si>
     <t>164</t>
   </si>
   <si>
-    <t>Little angel spaghetti with cream and ham</t>
-  </si>
-  <si>
-    <t>小恶魔蕃茄海鲜意面</t>
-  </si>
-  <si>
-    <t>images/product/food/小恶魔.jpg</t>
-  </si>
-  <si>
-    <t>微辣</t>
-  </si>
-  <si>
-    <t>Pasta/Rainbow/Squid ring/Shrimp</t>
-  </si>
-  <si>
-    <t>意面/海虹/鱿鱼圈/虾仁</t>
+    <t>Beef fillet rice with black pepper</t>
+  </si>
+  <si>
+    <t>招牌黑椒牛脊肉饭</t>
+  </si>
+  <si>
+    <t>images/product/food/黑椒牛柳.jpg</t>
+  </si>
+  <si>
+    <t>限时优惠</t>
+  </si>
+  <si>
+    <t>Beef fillet/Red and yellow pepper/Black Pepper</t>
+  </si>
+  <si>
+    <t>牛脊肉/红黄彩椒/黑胡椒</t>
   </si>
   <si>
     <t>165</t>
   </si>
   <si>
-    <t>小天使奶油火腿意面</t>
-  </si>
-  <si>
-    <t>images/product/food/小天使.jpg</t>
-  </si>
-  <si>
-    <t>Pasta/HAM/Bacon/Seasonal Vegetable</t>
-  </si>
-  <si>
-    <t>意面/火腿/培根/时蔬</t>
+    <t>Japanese style and wind smoked chicken leg meat curry rice</t>
+  </si>
+  <si>
+    <t>日式和风烟熏鸡腿肉咖喱饭</t>
+  </si>
+  <si>
+    <t>56/份</t>
+  </si>
+  <si>
+    <t>images/product/food/咖喱炖饭.jpg</t>
+  </si>
+  <si>
+    <t>Smoked chicken/Special curry sauce</t>
+  </si>
+  <si>
+    <t>烟熏鸡肉/特调咖喱酱汁</t>
   </si>
   <si>
     <t>166</t>
   </si>
   <si>
-    <t>Beef fillet rice with black pepper</t>
-  </si>
-  <si>
-    <t>招牌黑椒牛脊肉饭</t>
-  </si>
-  <si>
-    <t>images/product/food/黑椒牛柳.jpg</t>
-  </si>
-  <si>
-    <t>限时优惠</t>
-  </si>
-  <si>
-    <t>Beef fillet/Red and yellow pepper/Black Pepper</t>
-  </si>
-  <si>
-    <t>牛脊肉/红黄彩椒/黑胡椒</t>
+    <t>Caesar Salad smoked chicken breast</t>
+  </si>
+  <si>
+    <t>凯撒沙拉佐烟熏鸡胸肉</t>
+  </si>
+  <si>
+    <t>42/份</t>
+  </si>
+  <si>
+    <t>images/product/food/凯萨沙拉.jpg</t>
+  </si>
+  <si>
+    <t>Smoked chicken breast/Seasonal vegetable salad/Caesar sauce</t>
+  </si>
+  <si>
+    <t>烟熏鸡胸肉/时蔬沙拉/凯撒酱汁</t>
   </si>
   <si>
     <t>167</t>
   </si>
   <si>
-    <t>Japanese style and wind smoked chicken leg meat curry rice</t>
-  </si>
-  <si>
-    <t>日式和风烟熏鸡腿肉咖喱饭</t>
-  </si>
-  <si>
-    <t>56/份</t>
-  </si>
-  <si>
-    <t>images/product/food/咖喱炖饭.jpg</t>
-  </si>
-  <si>
-    <t>Smoked chicken/Special curry sauce</t>
-  </si>
-  <si>
-    <t>烟熏鸡肉/特调咖喱酱汁</t>
+    <t>Yogurt fruit salad</t>
+  </si>
+  <si>
+    <t>酸奶水果沙拉</t>
+  </si>
+  <si>
+    <t>images/product/food/水果沙拉.jpg</t>
+  </si>
+  <si>
+    <t>Yoghurt/Nut/Blueberry/Orange/Kiwi/Strawberry/Pitaya/Sacred fruit/Seasonal vegetable</t>
+  </si>
+  <si>
+    <t>酸奶/坚果/蓝莓/橙子/猕猴桃/草莓/火龙果/圣女果/时蔬</t>
   </si>
   <si>
     <t>168</t>
   </si>
   <si>
-    <t>Caesar Salad smoked chicken breast</t>
-  </si>
-  <si>
-    <t>凯撒沙拉佐烟熏鸡胸肉</t>
-  </si>
-  <si>
-    <t>42/份</t>
-  </si>
-  <si>
-    <t>images/product/food/凯萨沙拉.jpg</t>
-  </si>
-  <si>
-    <t>Smoked chicken breast/Seasonal vegetable salad/Caesar sauce</t>
-  </si>
-  <si>
-    <t>烟熏鸡胸肉/时蔬沙拉/凯撒酱汁</t>
+    <t>Roasted chicken wings</t>
+  </si>
+  <si>
+    <t>秘制烤鸡翅</t>
+  </si>
+  <si>
+    <t>46/份</t>
+  </si>
+  <si>
+    <t>images/product/food/秘制烤鸡翅.jpg</t>
+  </si>
+  <si>
+    <t>Chicken wings / secret sauce</t>
+  </si>
+  <si>
+    <t>鸡翅中/秘制酱料</t>
   </si>
   <si>
     <t>169</t>
   </si>
   <si>
-    <t>Yogurt fruit salad</t>
-  </si>
-  <si>
-    <t>酸奶水果沙拉</t>
-  </si>
-  <si>
-    <t>images/product/food/水果沙拉.jpg</t>
-  </si>
-  <si>
-    <t>Yoghurt/Nut/Blueberry/Orange/Kiwi/Strawberry/Pitaya/Sacred fruit/Seasonal vegetable</t>
-  </si>
-  <si>
-    <t>酸奶/坚果/蓝莓/橙子/猕猴桃/草莓/火龙果/圣女果/时蔬</t>
+    <t>Macaroni in cone</t>
+  </si>
+  <si>
+    <t>蛋筒洋芋泥</t>
+  </si>
+  <si>
+    <t>28/份</t>
+  </si>
+  <si>
+    <t>images/product/food/洋芋泥.jpg</t>
+  </si>
+  <si>
+    <t>Slow boiled mashed potato/Flavor sauce</t>
+  </si>
+  <si>
+    <t>慢煮土豆泥/风味酱汁</t>
   </si>
   <si>
     <t>170</t>
   </si>
   <si>
-    <t>Roasted chicken wings</t>
-  </si>
-  <si>
-    <t>秘制烤鸡翅</t>
-  </si>
-  <si>
-    <t>46/份</t>
-  </si>
-  <si>
-    <t>images/product/food/秘制烤鸡翅.jpg</t>
-  </si>
-  <si>
-    <t>Chicken wings / secret sauce</t>
-  </si>
-  <si>
-    <t>鸡翅中/秘制酱料</t>
-  </si>
-  <si>
-    <t>Macaroni in cone</t>
-  </si>
-  <si>
-    <t>蛋筒洋芋泥</t>
-  </si>
-  <si>
-    <t>28/份</t>
-  </si>
-  <si>
-    <t>images/product/food/洋芋泥.jpg</t>
-  </si>
-  <si>
-    <t>Slow boiled mashed potato/Flavor sauce</t>
-  </si>
-  <si>
-    <t>慢煮土豆泥/风味酱汁</t>
-  </si>
-  <si>
     <t>Sausage Platter</t>
   </si>
   <si>
@@ -2799,160 +2769,154 @@
     <t>可尔必思/椰汁/椰奶/苏打</t>
   </si>
   <si>
+    <t>Ugly duckling</t>
+  </si>
+  <si>
+    <t>丑小鸭</t>
+  </si>
+  <si>
+    <t>images/product/Mocktail/Ugly_duckling.png</t>
+  </si>
+  <si>
+    <t>Litchi puree/Lemon juice/Apple juice/Jasmine tea/Coconut juice/Pomegranate syrup</t>
+  </si>
+  <si>
+    <t>荔枝果泥/柠檬汁/苹果汁/椰汁/红石榴糖浆</t>
+  </si>
+  <si>
+    <t>Hot milk</t>
+  </si>
+  <si>
+    <t>热牛奶</t>
+  </si>
+  <si>
+    <t>20/Bottle</t>
+  </si>
+  <si>
     <t>178</t>
   </si>
   <si>
-    <t>Ugly duckling</t>
-  </si>
-  <si>
-    <t>丑小鸭</t>
-  </si>
-  <si>
-    <t>images/product/Mocktail/Ugly_duckling.png</t>
-  </si>
-  <si>
-    <t>Litchi puree/Lemon juice/Apple juice/Jasmine tea/Coconut juice/Pomegranate syrup</t>
-  </si>
-  <si>
-    <t>荔枝果泥/柠檬汁/苹果汁/椰汁/红石榴糖浆</t>
+    <t>Hot Chocolate</t>
+  </si>
+  <si>
+    <t>热可可</t>
+  </si>
+  <si>
+    <t>22/Bottle</t>
   </si>
   <si>
     <t>179</t>
   </si>
   <si>
-    <t>Hot milk</t>
-  </si>
-  <si>
-    <t>热牛奶</t>
-  </si>
-  <si>
-    <t>20/Bottle</t>
+    <t>Soda water</t>
+  </si>
+  <si>
+    <t>苏打水</t>
   </si>
   <si>
     <t>180</t>
   </si>
   <si>
-    <t>Hot Chocolate</t>
-  </si>
-  <si>
-    <t>热可可</t>
-  </si>
-  <si>
-    <t>22/Bottle</t>
+    <t>Tonic water</t>
+  </si>
+  <si>
+    <t>汤力水</t>
   </si>
   <si>
     <t>181</t>
   </si>
   <si>
-    <t>Soda water</t>
-  </si>
-  <si>
-    <t>苏打水</t>
+    <t>Coca cola</t>
+  </si>
+  <si>
+    <t>可口可乐</t>
   </si>
   <si>
     <t>182</t>
   </si>
   <si>
-    <t>Tonic water</t>
-  </si>
-  <si>
-    <t>汤力水</t>
+    <t>Red bull energy drink</t>
+  </si>
+  <si>
+    <t>红牛碳酸型</t>
   </si>
   <si>
     <t>183</t>
   </si>
   <si>
-    <t>Coca cola</t>
-  </si>
-  <si>
-    <t>可口可乐</t>
+    <t>Kiwi Banana Mousse</t>
+  </si>
+  <si>
+    <t>猕猴桃香蕉慕斯</t>
+  </si>
+  <si>
+    <t>dessert</t>
+  </si>
+  <si>
+    <t>images/product/Dessert/猕猴桃香蕉慕斯.png</t>
   </si>
   <si>
     <t>184</t>
   </si>
   <si>
-    <t>Red bull energy drink</t>
-  </si>
-  <si>
-    <t>红牛碳酸型</t>
+    <t>White cheese lemon pomelo Mousse</t>
+  </si>
+  <si>
+    <t>白乳酪柠檬柚慕斯</t>
+  </si>
+  <si>
+    <t>images/product/Dessert/白乳酪柠檬柚慕斯.png</t>
   </si>
   <si>
     <t>185</t>
   </si>
   <si>
-    <t>Kiwi Banana Mousse</t>
-  </si>
-  <si>
-    <t>猕猴桃香蕉慕斯</t>
-  </si>
-  <si>
-    <t>dessert</t>
-  </si>
-  <si>
-    <t>images/product/Dessert/猕猴桃香蕉慕斯.png</t>
+    <t>Opera（Chocolate）</t>
+  </si>
+  <si>
+    <t>歌剧院（巧克力）</t>
+  </si>
+  <si>
+    <t>images/product/Dessert/歌剧院巧克力味.png</t>
   </si>
   <si>
     <t>186</t>
   </si>
   <si>
-    <t>White cheese lemon pomelo Mousse</t>
-  </si>
-  <si>
-    <t>白乳酪柠檬柚慕斯</t>
-  </si>
-  <si>
-    <t>images/product/Dessert/白乳酪柠檬柚慕斯.png</t>
+    <t>Opera（Orange）</t>
+  </si>
+  <si>
+    <t>歌剧院（橙子）</t>
+  </si>
+  <si>
+    <t>images/product/Dessert/歌剧院橙子味.png</t>
   </si>
   <si>
     <t>187</t>
   </si>
   <si>
-    <t>Opera（Chocolate）</t>
-  </si>
-  <si>
-    <t>歌剧院（巧克力）</t>
-  </si>
-  <si>
-    <t>images/product/Dessert/歌剧院巧克力味.png</t>
+    <t>Valrhono Caramel Chocklate Ban</t>
+  </si>
+  <si>
+    <t>法芙娜焦糖巧克力</t>
+  </si>
+  <si>
+    <t>images/product/Dessert/法芙娜焦糖巧克力.png</t>
   </si>
   <si>
     <t>188</t>
   </si>
   <si>
-    <t>Opera（Orange）</t>
-  </si>
-  <si>
-    <t>歌剧院（橙子）</t>
-  </si>
-  <si>
-    <t>images/product/Dessert/歌剧院橙子味.png</t>
+    <t>Pumpkin Cheese Cake</t>
+  </si>
+  <si>
+    <t>南瓜芝士蛋糕</t>
+  </si>
+  <si>
+    <t>images/product/Dessert/南瓜芝士蛋糕.png</t>
   </si>
   <si>
     <t>189</t>
-  </si>
-  <si>
-    <t>Valrhono Caramel Chocklate Ban</t>
-  </si>
-  <si>
-    <t>法芙娜焦糖巧克力</t>
-  </si>
-  <si>
-    <t>images/product/Dessert/法芙娜焦糖巧克力.png</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>Pumpkin Cheese Cake</t>
-  </si>
-  <si>
-    <t>南瓜芝士蛋糕</t>
-  </si>
-  <si>
-    <t>images/product/Dessert/南瓜芝士蛋糕.png</t>
-  </si>
-  <si>
-    <t>191</t>
   </si>
   <si>
     <t>Match Cake</t>
@@ -2969,11 +2933,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -3022,14 +2986,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -3044,8 +3000,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3053,6 +3018,46 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3074,17 +3079,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3098,69 +3116,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3175,7 +3139,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3187,7 +3151,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3199,7 +3181,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3217,7 +3199,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3229,7 +3229,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3241,7 +3271,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3253,109 +3313,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3436,15 +3400,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3462,11 +3417,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3495,6 +3448,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3509,153 +3488,138 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3724,6 +3688,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3739,9 +3706,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4083,8 +4047,8 @@
   <sheetPr/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A20" sqref="$A20:$XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -4797,10 +4761,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:BD234"/>
+  <dimension ref="A1:BD232"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="M171" sqref="M171"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="B188" sqref="B188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -11878,7 +11842,7 @@
       <c r="M148" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="N148" s="23" t="s">
+      <c r="N148" s="24" t="s">
         <v>736</v>
       </c>
       <c r="O148" s="5" t="s">
@@ -12275,7 +12239,7 @@
         <v>114</v>
       </c>
       <c r="F156" s="20" t="s">
-        <v>126</v>
+        <v>581</v>
       </c>
       <c r="G156" s="20" t="s">
         <v>787</v>
@@ -12298,7 +12262,7 @@
       <c r="M156" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="N156" s="24" t="s">
+      <c r="N156" s="25" t="s">
         <v>791</v>
       </c>
       <c r="O156" s="5" t="s">
@@ -12311,22 +12275,22 @@
         <v>137</v>
       </c>
       <c r="R156" s="20"/>
-      <c r="S156" s="26"/>
-      <c r="T156" s="26"/>
-      <c r="U156" s="26"/>
-      <c r="V156" s="26"/>
-      <c r="W156" s="26"/>
-      <c r="X156" s="26"/>
-      <c r="Y156" s="26"/>
-      <c r="Z156" s="26"/>
-      <c r="AA156" s="26"/>
-      <c r="AB156" s="26"/>
+      <c r="S156" s="27"/>
+      <c r="T156" s="27"/>
+      <c r="U156" s="27"/>
+      <c r="V156" s="27"/>
+      <c r="W156" s="27"/>
+      <c r="X156" s="27"/>
+      <c r="Y156" s="27"/>
+      <c r="Z156" s="27"/>
+      <c r="AA156" s="27"/>
+      <c r="AB156" s="27"/>
     </row>
     <row r="157" customHeight="1" spans="1:28">
       <c r="A157" s="5" t="s">
         <v>792</v>
       </c>
-      <c r="B157" s="19" t="s">
+      <c r="B157" s="5" t="s">
         <v>793</v>
       </c>
       <c r="C157" s="19" t="s">
@@ -12339,7 +12303,7 @@
         <v>114</v>
       </c>
       <c r="F157" s="20" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="G157" s="20" t="s">
         <v>795</v>
@@ -12362,7 +12326,7 @@
       <c r="M157" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="N157" s="24" t="s">
+      <c r="N157" s="25" t="s">
         <v>798</v>
       </c>
       <c r="O157" s="5" t="s">
@@ -12375,16 +12339,16 @@
         <v>137</v>
       </c>
       <c r="R157" s="20"/>
-      <c r="S157" s="26"/>
-      <c r="T157" s="26"/>
-      <c r="U157" s="26"/>
-      <c r="V157" s="26"/>
-      <c r="W157" s="26"/>
-      <c r="X157" s="26"/>
-      <c r="Y157" s="26"/>
-      <c r="Z157" s="26"/>
-      <c r="AA157" s="26"/>
-      <c r="AB157" s="26"/>
+      <c r="S157" s="27"/>
+      <c r="T157" s="27"/>
+      <c r="U157" s="27"/>
+      <c r="V157" s="27"/>
+      <c r="W157" s="27"/>
+      <c r="X157" s="27"/>
+      <c r="Y157" s="27"/>
+      <c r="Z157" s="27"/>
+      <c r="AA157" s="27"/>
+      <c r="AB157" s="27"/>
     </row>
     <row r="158" customHeight="1" spans="1:28">
       <c r="A158" s="5" t="s">
@@ -12403,10 +12367,10 @@
         <v>114</v>
       </c>
       <c r="F158" s="20" t="s">
-        <v>581</v>
+        <v>188</v>
       </c>
       <c r="G158" s="20" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="H158" s="12" t="b">
         <v>1</v>
@@ -12418,17 +12382,17 @@
         <v>716</v>
       </c>
       <c r="K158" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="L158" s="19" t="s">
         <v>789</v>
       </c>
       <c r="M158" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="N158" s="25" t="s">
         <v>804</v>
       </c>
-      <c r="N158" s="24" t="s">
-        <v>805</v>
-      </c>
       <c r="O158" s="5" t="s">
         <v>122</v>
       </c>
@@ -12439,26 +12403,26 @@
         <v>137</v>
       </c>
       <c r="R158" s="20"/>
-      <c r="S158" s="26"/>
-      <c r="T158" s="26"/>
-      <c r="U158" s="26"/>
-      <c r="V158" s="26"/>
-      <c r="W158" s="26"/>
-      <c r="X158" s="26"/>
-      <c r="Y158" s="26"/>
-      <c r="Z158" s="26"/>
-      <c r="AA158" s="26"/>
-      <c r="AB158" s="26"/>
+      <c r="S158" s="27"/>
+      <c r="T158" s="27"/>
+      <c r="U158" s="27"/>
+      <c r="V158" s="27"/>
+      <c r="W158" s="27"/>
+      <c r="X158" s="27"/>
+      <c r="Y158" s="27"/>
+      <c r="Z158" s="27"/>
+      <c r="AA158" s="27"/>
+      <c r="AB158" s="27"/>
     </row>
     <row r="159" customHeight="1" spans="1:28">
       <c r="A159" s="5" t="s">
         <v>724</v>
       </c>
       <c r="B159" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="C159" s="19" t="s">
         <v>806</v>
-      </c>
-      <c r="C159" s="19" t="s">
-        <v>807</v>
       </c>
       <c r="D159" s="20" t="s">
         <v>67</v>
@@ -12467,10 +12431,10 @@
         <v>114</v>
       </c>
       <c r="F159" s="20" t="s">
-        <v>188</v>
+        <v>126</v>
       </c>
       <c r="G159" s="20" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H159" s="12" t="b">
         <v>1</v>
@@ -12482,17 +12446,17 @@
         <v>716</v>
       </c>
       <c r="K159" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="L159" s="19" t="s">
         <v>789</v>
       </c>
       <c r="M159" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="N159" s="25" t="s">
         <v>810</v>
       </c>
-      <c r="N159" s="24" t="s">
-        <v>811</v>
-      </c>
       <c r="O159" s="5" t="s">
         <v>122</v>
       </c>
@@ -12503,26 +12467,26 @@
         <v>137</v>
       </c>
       <c r="R159" s="20"/>
-      <c r="S159" s="26"/>
-      <c r="T159" s="26"/>
-      <c r="U159" s="26"/>
-      <c r="V159" s="26"/>
-      <c r="W159" s="26"/>
-      <c r="X159" s="26"/>
-      <c r="Y159" s="26"/>
-      <c r="Z159" s="26"/>
-      <c r="AA159" s="26"/>
-      <c r="AB159" s="26"/>
+      <c r="S159" s="27"/>
+      <c r="T159" s="27"/>
+      <c r="U159" s="27"/>
+      <c r="V159" s="27"/>
+      <c r="W159" s="27"/>
+      <c r="X159" s="27"/>
+      <c r="Y159" s="27"/>
+      <c r="Z159" s="27"/>
+      <c r="AA159" s="27"/>
+      <c r="AB159" s="27"/>
     </row>
     <row r="160" customHeight="1" spans="1:28">
       <c r="A160" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="B160" s="5" t="s">
         <v>812</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="C160" s="19" t="s">
         <v>813</v>
-      </c>
-      <c r="C160" s="19" t="s">
-        <v>814</v>
       </c>
       <c r="D160" s="20" t="s">
         <v>67</v>
@@ -12531,10 +12495,10 @@
         <v>114</v>
       </c>
       <c r="F160" s="20" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="G160" s="20" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="H160" s="12" t="b">
         <v>1</v>
@@ -12554,7 +12518,7 @@
       <c r="M160" s="5" t="s">
         <v>816</v>
       </c>
-      <c r="N160" s="24" t="s">
+      <c r="N160" s="25" t="s">
         <v>817</v>
       </c>
       <c r="O160" s="5" t="s">
@@ -12567,38 +12531,38 @@
         <v>137</v>
       </c>
       <c r="R160" s="20"/>
-      <c r="S160" s="26"/>
-      <c r="T160" s="26"/>
-      <c r="U160" s="26"/>
-      <c r="V160" s="26"/>
-      <c r="W160" s="26"/>
-      <c r="X160" s="26"/>
-      <c r="Y160" s="26"/>
-      <c r="Z160" s="26"/>
-      <c r="AA160" s="26"/>
-      <c r="AB160" s="26"/>
+      <c r="S160" s="27"/>
+      <c r="T160" s="27"/>
+      <c r="U160" s="27"/>
+      <c r="V160" s="27"/>
+      <c r="W160" s="27"/>
+      <c r="X160" s="27"/>
+      <c r="Y160" s="27"/>
+      <c r="Z160" s="27"/>
+      <c r="AA160" s="27"/>
+      <c r="AB160" s="27"/>
     </row>
     <row r="161" customHeight="1" spans="1:28">
       <c r="A161" s="5" t="s">
         <v>818</v>
       </c>
-      <c r="B161" s="5" t="s">
+      <c r="B161" s="20" t="s">
         <v>819</v>
       </c>
-      <c r="C161" s="19" t="s">
+      <c r="C161" s="20" t="s">
         <v>820</v>
       </c>
       <c r="D161" s="20" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E161" s="5" t="s">
         <v>114</v>
       </c>
       <c r="F161" s="20" t="s">
-        <v>126</v>
+        <v>435</v>
       </c>
       <c r="G161" s="20" t="s">
-        <v>787</v>
+        <v>740</v>
       </c>
       <c r="H161" s="12" t="b">
         <v>1</v>
@@ -12609,7 +12573,7 @@
       <c r="J161" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="K161" s="5" t="s">
+      <c r="K161" s="20" t="s">
         <v>821</v>
       </c>
       <c r="L161" s="19" t="s">
@@ -12618,7 +12582,7 @@
       <c r="M161" s="5" t="s">
         <v>822</v>
       </c>
-      <c r="N161" s="24" t="s">
+      <c r="N161" s="20" t="s">
         <v>823</v>
       </c>
       <c r="O161" s="5" t="s">
@@ -12630,155 +12594,152 @@
       <c r="Q161" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="R161" s="20"/>
-      <c r="S161" s="26"/>
-      <c r="T161" s="26"/>
-      <c r="U161" s="26"/>
-      <c r="V161" s="26"/>
-      <c r="W161" s="26"/>
-      <c r="X161" s="26"/>
-      <c r="Y161" s="26"/>
-      <c r="Z161" s="26"/>
-      <c r="AA161" s="26"/>
-      <c r="AB161" s="26"/>
+      <c r="R161" s="28"/>
+      <c r="S161" s="27"/>
+      <c r="T161" s="27"/>
+      <c r="U161" s="27"/>
+      <c r="V161" s="27"/>
+      <c r="W161" s="27"/>
+      <c r="X161" s="27"/>
+      <c r="Y161" s="27"/>
+      <c r="Z161" s="27"/>
+      <c r="AA161" s="27"/>
+      <c r="AB161" s="27"/>
     </row>
     <row r="162" customHeight="1" spans="1:28">
       <c r="A162" s="5" t="s">
         <v>824</v>
       </c>
-      <c r="B162" s="5" t="s">
+      <c r="B162" s="8" t="s">
         <v>825</v>
       </c>
-      <c r="C162" s="19" t="s">
+      <c r="C162" s="8" t="s">
         <v>826</v>
       </c>
-      <c r="D162" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E162" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F162" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="G162" s="20" t="s">
-        <v>795</v>
-      </c>
-      <c r="H162" s="12" t="b">
+      <c r="D162" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E162" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F162" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="G162" s="9" t="s">
+        <v>827</v>
+      </c>
+      <c r="H162" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I162" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J162" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="K162" s="9" t="s">
+        <v>828</v>
+      </c>
+      <c r="L162" s="8"/>
+      <c r="M162" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="N162" s="16" t="s">
+        <v>830</v>
+      </c>
+      <c r="O162" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P162" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q162" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="R162" s="9"/>
+      <c r="S162" s="29"/>
+      <c r="T162" s="27"/>
+      <c r="U162" s="27"/>
+      <c r="V162" s="27"/>
+      <c r="W162" s="27"/>
+      <c r="X162" s="27"/>
+      <c r="Y162" s="27"/>
+      <c r="Z162" s="27"/>
+      <c r="AA162" s="27"/>
+      <c r="AB162" s="27"/>
+    </row>
+    <row r="163" customHeight="1" spans="1:27">
+      <c r="A163" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="D163" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E163" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F163" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="G163" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="H163" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I163" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="I162" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J162" s="5" t="s">
+      <c r="J163" s="9" t="s">
         <v>716</v>
       </c>
-      <c r="K162" s="5" t="s">
-        <v>827</v>
-      </c>
-      <c r="L162" s="19" t="s">
-        <v>789</v>
-      </c>
-      <c r="M162" s="5" t="s">
-        <v>828</v>
-      </c>
-      <c r="N162" s="24" t="s">
-        <v>829</v>
-      </c>
-      <c r="O162" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="P162" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q162" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="R162" s="20"/>
-      <c r="S162" s="26"/>
-      <c r="T162" s="26"/>
-      <c r="U162" s="26"/>
-      <c r="V162" s="26"/>
-      <c r="W162" s="26"/>
-      <c r="X162" s="26"/>
-      <c r="Y162" s="26"/>
-      <c r="Z162" s="26"/>
-      <c r="AA162" s="26"/>
-      <c r="AB162" s="26"/>
-    </row>
-    <row r="163" customHeight="1" spans="1:28">
-      <c r="A163" s="5" t="s">
-        <v>830</v>
-      </c>
-      <c r="B163" s="20" t="s">
-        <v>831</v>
-      </c>
-      <c r="C163" s="20" t="s">
+      <c r="K163" s="9" t="s">
+        <v>834</v>
+      </c>
+      <c r="L163" s="8" t="s">
+        <v>835</v>
+      </c>
+      <c r="M163" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="N163" s="16" t="s">
+        <v>837</v>
+      </c>
+      <c r="O163" s="9">
+        <v>1</v>
+      </c>
+      <c r="P163" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q163" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="R163" s="9"/>
+      <c r="S163" s="29"/>
+      <c r="T163" s="27"/>
+      <c r="U163" s="27"/>
+      <c r="V163" s="27"/>
+      <c r="W163" s="27"/>
+      <c r="X163" s="27"/>
+      <c r="Y163" s="27"/>
+      <c r="Z163" s="27"/>
+      <c r="AA163" s="27"/>
+    </row>
+    <row r="164" customHeight="1" spans="1:56">
+      <c r="A164" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="B164" s="8" t="s">
         <v>832</v>
       </c>
-      <c r="D163" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E163" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F163" s="20" t="s">
-        <v>435</v>
-      </c>
-      <c r="G163" s="20" t="s">
-        <v>740</v>
-      </c>
-      <c r="H163" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I163" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J163" s="5" t="s">
-        <v>716</v>
-      </c>
-      <c r="K163" s="20" t="s">
-        <v>833</v>
-      </c>
-      <c r="L163" s="19" t="s">
-        <v>789</v>
-      </c>
-      <c r="M163" s="5" t="s">
-        <v>834</v>
-      </c>
-      <c r="N163" s="20" t="s">
-        <v>835</v>
-      </c>
-      <c r="O163" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="P163" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q163" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="R163" s="27"/>
-      <c r="S163" s="26"/>
-      <c r="T163" s="26"/>
-      <c r="U163" s="26"/>
-      <c r="V163" s="26"/>
-      <c r="W163" s="26"/>
-      <c r="X163" s="26"/>
-      <c r="Y163" s="26"/>
-      <c r="Z163" s="26"/>
-      <c r="AA163" s="26"/>
-      <c r="AB163" s="26"/>
-    </row>
-    <row r="164" customHeight="1" spans="1:28">
-      <c r="A164" s="5" t="s">
-        <v>836</v>
-      </c>
-      <c r="B164" s="8" t="s">
-        <v>837</v>
-      </c>
       <c r="C164" s="8" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D164" s="9" t="s">
         <v>70</v>
@@ -12787,16 +12748,16 @@
         <v>114</v>
       </c>
       <c r="F164" s="9" t="s">
-        <v>301</v>
+        <v>395</v>
       </c>
       <c r="G164" s="9" t="s">
-        <v>839</v>
+        <v>762</v>
       </c>
       <c r="H164" s="13" t="b">
         <v>0</v>
       </c>
       <c r="I164" s="13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" s="9" t="s">
         <v>716</v>
@@ -12804,7 +12765,9 @@
       <c r="K164" s="9" t="s">
         <v>840</v>
       </c>
-      <c r="L164" s="8"/>
+      <c r="L164" s="8" t="s">
+        <v>835</v>
+      </c>
       <c r="M164" s="5" t="s">
         <v>841</v>
       </c>
@@ -12812,7 +12775,7 @@
         <v>842</v>
       </c>
       <c r="O164" s="9" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="P164" s="9" t="s">
         <v>122</v>
@@ -12821,89 +12784,108 @@
         <v>137</v>
       </c>
       <c r="R164" s="9"/>
-      <c r="S164" s="28"/>
-      <c r="T164" s="26"/>
-      <c r="U164" s="26"/>
-      <c r="V164" s="26"/>
-      <c r="W164" s="26"/>
-      <c r="X164" s="26"/>
-      <c r="Y164" s="26"/>
-      <c r="Z164" s="26"/>
-      <c r="AA164" s="26"/>
-      <c r="AB164" s="26"/>
-    </row>
-    <row r="165" customHeight="1" spans="1:27">
+      <c r="S164" s="29"/>
+      <c r="T164" s="27"/>
+      <c r="U164" s="27"/>
+      <c r="V164" s="27"/>
+      <c r="W164" s="27"/>
+      <c r="X164" s="27"/>
+      <c r="Y164" s="27"/>
+      <c r="Z164" s="27"/>
+      <c r="AA164" s="27"/>
+      <c r="AB164" s="27"/>
+      <c r="AC164" s="27"/>
+      <c r="AD164" s="27"/>
+      <c r="AE164" s="27"/>
+      <c r="AF164" s="27"/>
+      <c r="AG164" s="27"/>
+      <c r="AH164" s="27"/>
+      <c r="AI164" s="27"/>
+      <c r="AJ164" s="27"/>
+      <c r="AK164" s="27"/>
+      <c r="AL164" s="27"/>
+      <c r="AM164" s="27"/>
+      <c r="AN164" s="27"/>
+      <c r="AO164" s="27"/>
+      <c r="AP164" s="27"/>
+      <c r="AQ164" s="27"/>
+      <c r="AR164" s="27"/>
+      <c r="AS164" s="27"/>
+      <c r="AT164" s="27"/>
+      <c r="AU164" s="27"/>
+      <c r="AV164" s="27"/>
+      <c r="AW164" s="27"/>
+      <c r="AX164" s="27"/>
+      <c r="AY164" s="27"/>
+      <c r="AZ164" s="27"/>
+      <c r="BA164" s="27"/>
+      <c r="BB164" s="27"/>
+      <c r="BC164" s="27"/>
+      <c r="BD164" s="27"/>
+    </row>
+    <row r="165" customHeight="1" spans="1:18">
       <c r="A165" s="5" t="s">
         <v>843</v>
       </c>
-      <c r="B165" s="8" t="s">
+      <c r="B165" s="5" t="s">
         <v>844</v>
       </c>
-      <c r="C165" s="8" t="s">
+      <c r="C165" s="5" t="s">
         <v>845</v>
       </c>
       <c r="D165" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E165" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F165" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="G165" s="9" t="s">
-        <v>740</v>
-      </c>
-      <c r="H165" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I165" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J165" s="9" t="s">
+      <c r="E165" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="G165" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="H165" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I165" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J165" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="K165" s="9" t="s">
+      <c r="K165" s="5" t="s">
         <v>846</v>
       </c>
-      <c r="L165" s="8" t="s">
+      <c r="L165" s="5" t="s">
         <v>847</v>
       </c>
       <c r="M165" s="5" t="s">
         <v>848</v>
       </c>
-      <c r="N165" s="16" t="s">
+      <c r="N165" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="O165" s="9">
-        <v>1</v>
-      </c>
-      <c r="P165" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q165" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="R165" s="9"/>
-      <c r="S165" s="28"/>
-      <c r="T165" s="26"/>
-      <c r="U165" s="26"/>
-      <c r="V165" s="26"/>
-      <c r="W165" s="26"/>
-      <c r="X165" s="26"/>
-      <c r="Y165" s="26"/>
-      <c r="Z165" s="26"/>
-      <c r="AA165" s="26"/>
-    </row>
-    <row r="166" customHeight="1" spans="1:56">
+      <c r="O165" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="P165" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q165" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="R165" s="11"/>
+    </row>
+    <row r="166" customHeight="1" spans="1:33">
       <c r="A166" s="5" t="s">
         <v>850</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>844</v>
+        <v>851</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D166" s="9" t="s">
         <v>70</v>
@@ -12912,34 +12894,32 @@
         <v>114</v>
       </c>
       <c r="F166" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G166" s="9" t="s">
-        <v>762</v>
+        <v>853</v>
       </c>
       <c r="H166" s="13" t="b">
         <v>0</v>
       </c>
       <c r="I166" s="13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" s="9" t="s">
         <v>716</v>
       </c>
       <c r="K166" s="9" t="s">
-        <v>852</v>
-      </c>
-      <c r="L166" s="8" t="s">
-        <v>847</v>
-      </c>
+        <v>854</v>
+      </c>
+      <c r="L166" s="8"/>
       <c r="M166" s="5" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="N166" s="16" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="O166" s="9" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="P166" s="9" t="s">
         <v>122</v>
@@ -12948,120 +12928,95 @@
         <v>137</v>
       </c>
       <c r="R166" s="9"/>
-      <c r="S166" s="28"/>
-      <c r="T166" s="26"/>
-      <c r="U166" s="26"/>
-      <c r="V166" s="26"/>
-      <c r="W166" s="26"/>
-      <c r="X166" s="26"/>
-      <c r="Y166" s="26"/>
-      <c r="Z166" s="26"/>
-      <c r="AA166" s="26"/>
-      <c r="AB166" s="26"/>
-      <c r="AC166" s="26"/>
-      <c r="AD166" s="26"/>
-      <c r="AE166" s="26"/>
-      <c r="AF166" s="26"/>
-      <c r="AG166" s="26"/>
-      <c r="AH166" s="26"/>
-      <c r="AI166" s="26"/>
-      <c r="AJ166" s="26"/>
-      <c r="AK166" s="26"/>
-      <c r="AL166" s="26"/>
-      <c r="AM166" s="26"/>
-      <c r="AN166" s="26"/>
-      <c r="AO166" s="26"/>
-      <c r="AP166" s="26"/>
-      <c r="AQ166" s="26"/>
-      <c r="AR166" s="26"/>
-      <c r="AS166" s="26"/>
-      <c r="AT166" s="26"/>
-      <c r="AU166" s="26"/>
-      <c r="AV166" s="26"/>
-      <c r="AW166" s="26"/>
-      <c r="AX166" s="26"/>
-      <c r="AY166" s="26"/>
-      <c r="AZ166" s="26"/>
-      <c r="BA166" s="26"/>
-      <c r="BB166" s="26"/>
-      <c r="BC166" s="26"/>
-      <c r="BD166" s="26"/>
+      <c r="S166" s="29"/>
+      <c r="T166" s="27"/>
+      <c r="U166" s="27"/>
+      <c r="V166" s="27"/>
+      <c r="W166" s="27"/>
+      <c r="X166" s="27"/>
+      <c r="Y166" s="27"/>
+      <c r="Z166" s="27"/>
+      <c r="AA166" s="27"/>
+      <c r="AB166" s="27"/>
+      <c r="AC166" s="27"/>
+      <c r="AD166" s="27"/>
+      <c r="AE166" s="27"/>
+      <c r="AF166" s="27"/>
+      <c r="AG166" s="27"/>
     </row>
     <row r="167" customHeight="1" spans="1:18">
       <c r="A167" s="5" t="s">
-        <v>855</v>
-      </c>
-      <c r="B167" s="5" t="s">
-        <v>856</v>
-      </c>
-      <c r="C167" s="5" t="s">
         <v>857</v>
       </c>
+      <c r="B167" s="8" t="s">
+        <v>858</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>859</v>
+      </c>
       <c r="D167" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E167" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F167" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="G167" s="5" t="s">
-        <v>762</v>
-      </c>
-      <c r="H167" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I167" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J167" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E167" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F167" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="G167" s="9" t="s">
+        <v>860</v>
+      </c>
+      <c r="H167" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I167" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J167" s="9" t="s">
         <v>716</v>
       </c>
-      <c r="K167" s="5" t="s">
-        <v>858</v>
-      </c>
-      <c r="L167" s="5" t="s">
-        <v>859</v>
-      </c>
+      <c r="K167" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="L167" s="8"/>
       <c r="M167" s="5" t="s">
-        <v>860</v>
-      </c>
-      <c r="N167" s="5" t="s">
-        <v>861</v>
-      </c>
-      <c r="O167" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="P167" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q167" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="R167" s="11"/>
-    </row>
-    <row r="168" customHeight="1" spans="1:33">
+        <v>862</v>
+      </c>
+      <c r="N167" s="16" t="s">
+        <v>863</v>
+      </c>
+      <c r="O167" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P167" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q167" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="R167" s="9"/>
+    </row>
+    <row r="168" customHeight="1" spans="1:18">
       <c r="A168" s="5" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E168" s="9" t="s">
         <v>114</v>
       </c>
       <c r="F168" s="9" t="s">
-        <v>387</v>
+        <v>435</v>
       </c>
       <c r="G168" s="9" t="s">
-        <v>865</v>
+        <v>740</v>
       </c>
       <c r="H168" s="13" t="b">
         <v>0</v>
@@ -13073,14 +13028,14 @@
         <v>716</v>
       </c>
       <c r="K168" s="9" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="L168" s="8"/>
       <c r="M168" s="5" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="N168" s="16" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="O168" s="9" t="s">
         <v>122</v>
@@ -13092,43 +13047,28 @@
         <v>137</v>
       </c>
       <c r="R168" s="9"/>
-      <c r="S168" s="28"/>
-      <c r="T168" s="26"/>
-      <c r="U168" s="26"/>
-      <c r="V168" s="26"/>
-      <c r="W168" s="26"/>
-      <c r="X168" s="26"/>
-      <c r="Y168" s="26"/>
-      <c r="Z168" s="26"/>
-      <c r="AA168" s="26"/>
-      <c r="AB168" s="26"/>
-      <c r="AC168" s="26"/>
-      <c r="AD168" s="26"/>
-      <c r="AE168" s="26"/>
-      <c r="AF168" s="26"/>
-      <c r="AG168" s="26"/>
     </row>
     <row r="169" customHeight="1" spans="1:18">
       <c r="A169" s="5" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E169" s="9" t="s">
         <v>114</v>
       </c>
       <c r="F169" s="9" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="G169" s="9" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H169" s="13" t="b">
         <v>0</v>
@@ -13140,14 +13080,16 @@
         <v>716</v>
       </c>
       <c r="K169" s="9" t="s">
-        <v>873</v>
-      </c>
-      <c r="L169" s="8"/>
+        <v>874</v>
+      </c>
+      <c r="L169" s="19" t="s">
+        <v>789</v>
+      </c>
       <c r="M169" s="5" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="N169" s="16" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="O169" s="9" t="s">
         <v>122</v>
@@ -13158,29 +13100,29 @@
       <c r="Q169" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="R169" s="9"/>
+      <c r="R169" s="20"/>
     </row>
     <row r="170" customHeight="1" spans="1:18">
       <c r="A170" s="5" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E170" s="9" t="s">
         <v>114</v>
       </c>
       <c r="F170" s="9" t="s">
-        <v>435</v>
+        <v>271</v>
       </c>
       <c r="G170" s="9" t="s">
-        <v>740</v>
+        <v>880</v>
       </c>
       <c r="H170" s="13" t="b">
         <v>0</v>
@@ -13192,14 +13134,14 @@
         <v>716</v>
       </c>
       <c r="K170" s="9" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="L170" s="8"/>
       <c r="M170" s="5" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="N170" s="16" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="O170" s="9" t="s">
         <v>122</v>
@@ -13210,17 +13152,17 @@
       <c r="Q170" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="R170" s="9"/>
+      <c r="R170" s="5"/>
     </row>
     <row r="171" customHeight="1" spans="1:18">
       <c r="A171" s="5" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="D171" s="9" t="s">
         <v>76</v>
@@ -13229,10 +13171,10 @@
         <v>114</v>
       </c>
       <c r="F171" s="9" t="s">
-        <v>352</v>
+        <v>126</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>885</v>
+        <v>807</v>
       </c>
       <c r="H171" s="13" t="b">
         <v>0</v>
@@ -13244,16 +13186,16 @@
         <v>716</v>
       </c>
       <c r="K171" s="9" t="s">
-        <v>886</v>
-      </c>
-      <c r="L171" s="19" t="s">
-        <v>789</v>
+        <v>887</v>
+      </c>
+      <c r="L171" s="8" t="s">
+        <v>835</v>
       </c>
       <c r="M171" s="5" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="N171" s="16" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="O171" s="9" t="s">
         <v>122</v>
@@ -13264,29 +13206,29 @@
       <c r="Q171" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="R171" s="20"/>
+      <c r="R171" s="5"/>
     </row>
     <row r="172" customHeight="1" spans="1:18">
       <c r="A172" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B172" s="8" t="s">
-        <v>889</v>
-      </c>
-      <c r="C172" s="8" t="s">
+      <c r="B172" s="18" t="s">
         <v>890</v>
       </c>
-      <c r="D172" s="9" t="s">
+      <c r="C172" s="18" t="s">
+        <v>891</v>
+      </c>
+      <c r="D172" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E172" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F172" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="G172" s="9" t="s">
-        <v>891</v>
+      <c r="F172" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="G172" s="5" t="s">
+        <v>762</v>
       </c>
       <c r="H172" s="13" t="b">
         <v>0</v>
@@ -13300,11 +13242,11 @@
       <c r="K172" s="9" t="s">
         <v>892</v>
       </c>
-      <c r="L172" s="8"/>
+      <c r="L172" s="18"/>
       <c r="M172" s="5" t="s">
         <v>893</v>
       </c>
-      <c r="N172" s="16" t="s">
+      <c r="N172" s="5" t="s">
         <v>894</v>
       </c>
       <c r="O172" s="9" t="s">
@@ -13322,23 +13264,23 @@
       <c r="A173" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B173" s="8" t="s">
+      <c r="B173" s="18" t="s">
         <v>895</v>
       </c>
-      <c r="C173" s="8" t="s">
+      <c r="C173" s="18" t="s">
         <v>896</v>
       </c>
-      <c r="D173" s="9" t="s">
+      <c r="D173" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E173" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F173" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G173" s="9" t="s">
-        <v>787</v>
+      <c r="F173" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="G173" s="5" t="s">
+        <v>860</v>
       </c>
       <c r="H173" s="13" t="b">
         <v>0</v>
@@ -13352,13 +13294,11 @@
       <c r="K173" s="9" t="s">
         <v>897</v>
       </c>
-      <c r="L173" s="8" t="s">
-        <v>847</v>
-      </c>
+      <c r="L173" s="18"/>
       <c r="M173" s="5" t="s">
         <v>898</v>
       </c>
-      <c r="N173" s="16" t="s">
+      <c r="N173" s="5" t="s">
         <v>899</v>
       </c>
       <c r="O173" s="9" t="s">
@@ -13376,23 +13316,23 @@
       <c r="A174" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B174" s="18" t="s">
+      <c r="B174" s="9" t="s">
         <v>900</v>
       </c>
-      <c r="C174" s="18" t="s">
+      <c r="C174" s="9" t="s">
         <v>901</v>
       </c>
-      <c r="D174" s="5" t="s">
-        <v>76</v>
+      <c r="D174" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="E174" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F174" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="G174" s="5" t="s">
-        <v>762</v>
+      <c r="F174" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="G174" s="9" t="s">
+        <v>902</v>
       </c>
       <c r="H174" s="13" t="b">
         <v>0</v>
@@ -13401,17 +13341,19 @@
         <v>0</v>
       </c>
       <c r="J174" s="9" t="s">
-        <v>716</v>
+        <v>903</v>
       </c>
       <c r="K174" s="9" t="s">
-        <v>902</v>
-      </c>
-      <c r="L174" s="18"/>
+        <v>904</v>
+      </c>
+      <c r="L174" s="9" t="s">
+        <v>128</v>
+      </c>
       <c r="M174" s="5" t="s">
-        <v>903</v>
-      </c>
-      <c r="N174" s="5" t="s">
-        <v>904</v>
+        <v>905</v>
+      </c>
+      <c r="N174" s="16" t="s">
+        <v>906</v>
       </c>
       <c r="O174" s="9" t="s">
         <v>122</v>
@@ -13419,8 +13361,8 @@
       <c r="P174" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="Q174" s="13" t="s">
-        <v>137</v>
+      <c r="Q174" s="13" t="b">
+        <v>1</v>
       </c>
       <c r="R174" s="5"/>
     </row>
@@ -13428,23 +13370,23 @@
       <c r="A175" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B175" s="18" t="s">
-        <v>905</v>
-      </c>
-      <c r="C175" s="18" t="s">
-        <v>906</v>
-      </c>
-      <c r="D175" s="5" t="s">
-        <v>76</v>
+      <c r="B175" s="21" t="s">
+        <v>907</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>908</v>
+      </c>
+      <c r="D175" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="E175" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F175" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="G175" s="5" t="s">
-        <v>872</v>
+      <c r="F175" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="G175" s="9" t="s">
+        <v>902</v>
       </c>
       <c r="H175" s="13" t="b">
         <v>0</v>
@@ -13453,17 +13395,19 @@
         <v>0</v>
       </c>
       <c r="J175" s="9" t="s">
-        <v>716</v>
+        <v>903</v>
       </c>
       <c r="K175" s="9" t="s">
-        <v>907</v>
-      </c>
-      <c r="L175" s="18"/>
+        <v>909</v>
+      </c>
+      <c r="L175" s="9" t="s">
+        <v>128</v>
+      </c>
       <c r="M175" s="5" t="s">
-        <v>908</v>
-      </c>
-      <c r="N175" s="5" t="s">
-        <v>909</v>
+        <v>910</v>
+      </c>
+      <c r="N175" s="16" t="s">
+        <v>911</v>
       </c>
       <c r="O175" s="9" t="s">
         <v>122</v>
@@ -13471,8 +13415,8 @@
       <c r="P175" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="Q175" s="13" t="s">
-        <v>137</v>
+      <c r="Q175" s="13" t="b">
+        <v>1</v>
       </c>
       <c r="R175" s="5"/>
     </row>
@@ -13481,10 +13425,10 @@
         <v>49</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="D176" s="9" t="s">
         <v>82</v>
@@ -13496,7 +13440,7 @@
         <v>387</v>
       </c>
       <c r="G176" s="9" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="H176" s="13" t="b">
         <v>0</v>
@@ -13505,7 +13449,7 @@
         <v>0</v>
       </c>
       <c r="J176" s="9" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="K176" s="9" t="s">
         <v>914</v>
@@ -13534,7 +13478,7 @@
       <c r="A177" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B177" s="21" t="s">
+      <c r="B177" s="9" t="s">
         <v>917</v>
       </c>
       <c r="C177" s="9" t="s">
@@ -13550,7 +13494,7 @@
         <v>387</v>
       </c>
       <c r="G177" s="9" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="H177" s="13" t="b">
         <v>0</v>
@@ -13559,7 +13503,7 @@
         <v>0</v>
       </c>
       <c r="J177" s="9" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="K177" s="9" t="s">
         <v>919</v>
@@ -13579,8 +13523,8 @@
       <c r="P177" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="Q177" s="13" t="b">
-        <v>1</v>
+      <c r="Q177" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="R177" s="5"/>
     </row>
@@ -13595,16 +13539,16 @@
         <v>923</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E178" s="9" t="s">
         <v>114</v>
       </c>
       <c r="F178" s="9" t="s">
-        <v>387</v>
+        <v>131</v>
       </c>
       <c r="G178" s="9" t="s">
-        <v>912</v>
+        <v>924</v>
       </c>
       <c r="H178" s="13" t="b">
         <v>0</v>
@@ -13613,53 +13557,45 @@
         <v>0</v>
       </c>
       <c r="J178" s="9" t="s">
-        <v>913</v>
-      </c>
-      <c r="K178" s="9" t="s">
-        <v>924</v>
-      </c>
-      <c r="L178" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="M178" s="5" t="s">
-        <v>925</v>
-      </c>
-      <c r="N178" s="16" t="s">
-        <v>926</v>
-      </c>
+        <v>903</v>
+      </c>
+      <c r="K178" s="9"/>
+      <c r="L178" s="9"/>
+      <c r="M178" s="5"/>
+      <c r="N178" s="16"/>
       <c r="O178" s="9" t="s">
         <v>122</v>
       </c>
       <c r="P178" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="Q178" s="13" t="b">
-        <v>1</v>
+      <c r="Q178" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="R178" s="5"/>
     </row>
     <row r="179" customHeight="1" spans="1:18">
       <c r="A179" s="5" t="s">
+        <v>925</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>926</v>
+      </c>
+      <c r="C179" s="9" t="s">
         <v>927</v>
       </c>
-      <c r="B179" s="9" t="s">
+      <c r="D179" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E179" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F179" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G179" s="9" t="s">
         <v>928</v>
       </c>
-      <c r="C179" s="9" t="s">
-        <v>929</v>
-      </c>
-      <c r="D179" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E179" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F179" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="G179" s="9" t="s">
-        <v>912</v>
-      </c>
       <c r="H179" s="13" t="b">
         <v>0</v>
       </c>
@@ -13667,20 +13603,12 @@
         <v>0</v>
       </c>
       <c r="J179" s="9" t="s">
-        <v>913</v>
-      </c>
-      <c r="K179" s="9" t="s">
-        <v>930</v>
-      </c>
-      <c r="L179" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="M179" s="5" t="s">
-        <v>931</v>
-      </c>
-      <c r="N179" s="16" t="s">
-        <v>932</v>
-      </c>
+        <v>903</v>
+      </c>
+      <c r="K179" s="9"/>
+      <c r="L179" s="9"/>
+      <c r="M179" s="5"/>
+      <c r="N179" s="16"/>
       <c r="O179" s="9" t="s">
         <v>122</v>
       </c>
@@ -13694,16 +13622,16 @@
     </row>
     <row r="180" customHeight="1" spans="1:18">
       <c r="A180" s="5" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E180" s="9" t="s">
         <v>114</v>
@@ -13712,7 +13640,7 @@
         <v>131</v>
       </c>
       <c r="G180" s="9" t="s">
-        <v>936</v>
+        <v>707</v>
       </c>
       <c r="H180" s="13" t="b">
         <v>0</v>
@@ -13721,7 +13649,7 @@
         <v>0</v>
       </c>
       <c r="J180" s="9" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="K180" s="9"/>
       <c r="L180" s="9"/>
@@ -13740,25 +13668,25 @@
     </row>
     <row r="181" customHeight="1" spans="1:18">
       <c r="A181" s="5" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E181" s="9" t="s">
         <v>114</v>
       </c>
       <c r="F181" s="9" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="G181" s="9" t="s">
-        <v>940</v>
+        <v>707</v>
       </c>
       <c r="H181" s="13" t="b">
         <v>0</v>
@@ -13767,7 +13695,7 @@
         <v>0</v>
       </c>
       <c r="J181" s="9" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="K181" s="9"/>
       <c r="L181" s="9"/>
@@ -13786,13 +13714,13 @@
     </row>
     <row r="182" customHeight="1" spans="1:18">
       <c r="A182" s="5" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D182" s="9" t="s">
         <v>88</v>
@@ -13813,7 +13741,7 @@
         <v>0</v>
       </c>
       <c r="J182" s="9" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="K182" s="9"/>
       <c r="L182" s="9"/>
@@ -13832,13 +13760,13 @@
     </row>
     <row r="183" customHeight="1" spans="1:18">
       <c r="A183" s="5" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="D183" s="9" t="s">
         <v>88</v>
@@ -13847,7 +13775,7 @@
         <v>114</v>
       </c>
       <c r="F183" s="9" t="s">
-        <v>131</v>
+        <v>199</v>
       </c>
       <c r="G183" s="9" t="s">
         <v>707</v>
@@ -13859,7 +13787,7 @@
         <v>0</v>
       </c>
       <c r="J183" s="9" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="K183" s="9"/>
       <c r="L183" s="9"/>
@@ -13876,107 +13804,111 @@
       </c>
       <c r="R183" s="5"/>
     </row>
-    <row r="184" customHeight="1" spans="1:18">
+    <row r="184" customFormat="1" customHeight="1" spans="1:18">
       <c r="A184" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>942</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>943</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E184" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F184" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G184" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="H184" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I184" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J184" s="7" t="s">
+        <v>944</v>
+      </c>
+      <c r="K184" s="7" t="s">
+        <v>945</v>
+      </c>
+      <c r="L184" s="22"/>
+      <c r="M184" s="7"/>
+      <c r="N184" s="26"/>
+      <c r="O184" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P184" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q184" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="R184" s="7"/>
+    </row>
+    <row r="185" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A185" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="B185" s="7" t="s">
         <v>947</v>
       </c>
-      <c r="B184" s="9" t="s">
+      <c r="C185" s="7" t="s">
         <v>948</v>
       </c>
-      <c r="C184" s="9" t="s">
+      <c r="D185" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E185" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F185" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G185" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="H185" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I185" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J185" s="7" t="s">
+        <v>944</v>
+      </c>
+      <c r="K185" s="7" t="s">
         <v>949</v>
       </c>
-      <c r="D184" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E184" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F184" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="G184" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="H184" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I184" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J184" s="9" t="s">
-        <v>913</v>
-      </c>
-      <c r="K184" s="9"/>
-      <c r="L184" s="9"/>
-      <c r="M184" s="5"/>
-      <c r="N184" s="16"/>
-      <c r="O184" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="P184" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q184" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="R184" s="5"/>
-    </row>
-    <row r="185" customHeight="1" spans="1:18">
-      <c r="A185" s="5" t="s">
-        <v>950</v>
-      </c>
-      <c r="B185" s="9" t="s">
-        <v>951</v>
-      </c>
-      <c r="C185" s="9" t="s">
-        <v>952</v>
-      </c>
-      <c r="D185" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E185" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F185" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="G185" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="H185" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I185" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J185" s="9" t="s">
-        <v>913</v>
-      </c>
-      <c r="K185" s="9"/>
-      <c r="L185" s="9"/>
-      <c r="M185" s="5"/>
-      <c r="N185" s="16"/>
-      <c r="O185" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="P185" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q185" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="R185" s="5"/>
+      <c r="L185" s="22"/>
+      <c r="M185" s="7"/>
+      <c r="N185" s="26"/>
+      <c r="O185" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P185" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q185" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="R185" s="7"/>
     </row>
     <row r="186" customFormat="1" customHeight="1" spans="1:18">
       <c r="A186" s="5" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="D186" s="7" t="s">
         <v>95</v>
@@ -13988,7 +13920,7 @@
         <v>332</v>
       </c>
       <c r="G186" s="7" t="s">
-        <v>872</v>
+        <v>860</v>
       </c>
       <c r="H186" s="12" t="b">
         <v>1</v>
@@ -13997,14 +13929,14 @@
         <v>1</v>
       </c>
       <c r="J186" s="7" t="s">
-        <v>956</v>
+        <v>944</v>
       </c>
       <c r="K186" s="7" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="L186" s="22"/>
       <c r="M186" s="7"/>
-      <c r="N186" s="25"/>
+      <c r="N186" s="26"/>
       <c r="O186" s="7" t="s">
         <v>122</v>
       </c>
@@ -14018,13 +13950,13 @@
     </row>
     <row r="187" customFormat="1" customHeight="1" spans="1:18">
       <c r="A187" s="5" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="D187" s="7" t="s">
         <v>95</v>
@@ -14036,23 +13968,23 @@
         <v>332</v>
       </c>
       <c r="G187" s="7" t="s">
-        <v>872</v>
+        <v>860</v>
       </c>
       <c r="H187" s="12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" s="12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" s="7" t="s">
-        <v>956</v>
+        <v>944</v>
       </c>
       <c r="K187" s="7" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="L187" s="22"/>
       <c r="M187" s="7"/>
-      <c r="N187" s="25"/>
+      <c r="N187" s="26"/>
       <c r="O187" s="7" t="s">
         <v>122</v>
       </c>
@@ -14066,13 +13998,13 @@
     </row>
     <row r="188" customFormat="1" customHeight="1" spans="1:18">
       <c r="A188" s="5" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="D188" s="7" t="s">
         <v>95</v>
@@ -14084,23 +14016,23 @@
         <v>332</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>872</v>
+        <v>860</v>
       </c>
       <c r="H188" s="12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" s="12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" s="7" t="s">
-        <v>956</v>
+        <v>944</v>
       </c>
       <c r="K188" s="7" t="s">
-        <v>965</v>
-      </c>
-      <c r="L188" s="22"/>
+        <v>961</v>
+      </c>
+      <c r="L188" s="7"/>
       <c r="M188" s="7"/>
-      <c r="N188" s="25"/>
+      <c r="N188" s="26"/>
       <c r="O188" s="7" t="s">
         <v>122</v>
       </c>
@@ -14114,13 +14046,13 @@
     </row>
     <row r="189" customFormat="1" customHeight="1" spans="1:18">
       <c r="A189" s="5" t="s">
-        <v>966</v>
-      </c>
-      <c r="B189" s="7" t="s">
-        <v>967</v>
+        <v>962</v>
+      </c>
+      <c r="B189" s="22" t="s">
+        <v>963</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="D189" s="7" t="s">
         <v>95</v>
@@ -14132,7 +14064,7 @@
         <v>332</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>872</v>
+        <v>860</v>
       </c>
       <c r="H189" s="12" t="b">
         <v>0</v>
@@ -14141,14 +14073,14 @@
         <v>0</v>
       </c>
       <c r="J189" s="7" t="s">
-        <v>956</v>
+        <v>944</v>
       </c>
       <c r="K189" s="7" t="s">
-        <v>969</v>
-      </c>
-      <c r="L189" s="22"/>
+        <v>965</v>
+      </c>
+      <c r="L189" s="7"/>
       <c r="M189" s="7"/>
-      <c r="N189" s="25"/>
+      <c r="N189" s="26"/>
       <c r="O189" s="7" t="s">
         <v>122</v>
       </c>
@@ -14162,13 +14094,13 @@
     </row>
     <row r="190" customFormat="1" customHeight="1" spans="1:18">
       <c r="A190" s="5" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="D190" s="7" t="s">
         <v>95</v>
@@ -14180,7 +14112,7 @@
         <v>332</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>872</v>
+        <v>860</v>
       </c>
       <c r="H190" s="12" t="b">
         <v>0</v>
@@ -14189,14 +14121,14 @@
         <v>0</v>
       </c>
       <c r="J190" s="7" t="s">
-        <v>956</v>
+        <v>944</v>
       </c>
       <c r="K190" s="7" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="L190" s="7"/>
-      <c r="M190" s="7"/>
-      <c r="N190" s="25"/>
+      <c r="M190" s="26"/>
+      <c r="N190" s="7"/>
       <c r="O190" s="7" t="s">
         <v>122</v>
       </c>
@@ -14208,227 +14140,131 @@
       </c>
       <c r="R190" s="7"/>
     </row>
-    <row r="191" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A191" s="5" t="s">
-        <v>974</v>
-      </c>
-      <c r="B191" s="22" t="s">
-        <v>975</v>
-      </c>
-      <c r="C191" s="7" t="s">
-        <v>976</v>
-      </c>
-      <c r="D191" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E191" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F191" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G191" s="7" t="s">
-        <v>872</v>
-      </c>
-      <c r="H191" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I191" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J191" s="7" t="s">
-        <v>956</v>
-      </c>
-      <c r="K191" s="7" t="s">
-        <v>977</v>
-      </c>
-      <c r="L191" s="7"/>
-      <c r="M191" s="7"/>
-      <c r="N191" s="25"/>
-      <c r="O191" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P191" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q191" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="R191" s="7"/>
-    </row>
-    <row r="192" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A192" s="5" t="s">
-        <v>978</v>
-      </c>
-      <c r="B192" s="7" t="s">
-        <v>979</v>
-      </c>
-      <c r="C192" s="7" t="s">
-        <v>980</v>
-      </c>
-      <c r="D192" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E192" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F192" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G192" s="7" t="s">
-        <v>872</v>
-      </c>
-      <c r="H192" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I192" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J192" s="7" t="s">
-        <v>956</v>
-      </c>
-      <c r="K192" s="7" t="s">
-        <v>981</v>
-      </c>
-      <c r="L192" s="7"/>
-      <c r="M192" s="25"/>
-      <c r="N192" s="7"/>
-      <c r="O192" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P192" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q192" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="R192" s="7"/>
+    <row r="191" customHeight="1" spans="1:1">
+      <c r="A191" s="23"/>
+    </row>
+    <row r="192" customHeight="1" spans="1:1">
+      <c r="A192" s="23"/>
     </row>
     <row r="193" customHeight="1" spans="1:1">
-      <c r="A193" s="29"/>
+      <c r="A193" s="23"/>
     </row>
     <row r="194" customHeight="1" spans="1:1">
-      <c r="A194" s="29"/>
+      <c r="A194" s="23"/>
     </row>
     <row r="195" customHeight="1" spans="1:1">
-      <c r="A195" s="29"/>
+      <c r="A195" s="23"/>
     </row>
     <row r="196" customHeight="1" spans="1:1">
-      <c r="A196" s="29"/>
+      <c r="A196" s="23"/>
     </row>
     <row r="197" customHeight="1" spans="1:1">
-      <c r="A197" s="29"/>
+      <c r="A197" s="23"/>
     </row>
     <row r="198" customHeight="1" spans="1:1">
-      <c r="A198" s="29"/>
+      <c r="A198" s="23"/>
     </row>
     <row r="199" customHeight="1" spans="1:1">
-      <c r="A199" s="29"/>
+      <c r="A199" s="23"/>
     </row>
     <row r="200" customHeight="1" spans="1:1">
-      <c r="A200" s="29"/>
+      <c r="A200" s="23"/>
     </row>
     <row r="201" customHeight="1" spans="1:1">
-      <c r="A201" s="29"/>
+      <c r="A201" s="23"/>
     </row>
     <row r="202" customHeight="1" spans="1:1">
-      <c r="A202" s="29"/>
+      <c r="A202" s="23"/>
     </row>
     <row r="203" customHeight="1" spans="1:1">
-      <c r="A203" s="29"/>
+      <c r="A203" s="23"/>
     </row>
     <row r="204" customHeight="1" spans="1:1">
-      <c r="A204" s="29"/>
+      <c r="A204" s="23"/>
     </row>
     <row r="205" customHeight="1" spans="1:1">
-      <c r="A205" s="29"/>
+      <c r="A205" s="23"/>
     </row>
     <row r="206" customHeight="1" spans="1:1">
-      <c r="A206" s="29"/>
+      <c r="A206" s="23"/>
     </row>
     <row r="207" customHeight="1" spans="1:1">
-      <c r="A207" s="29"/>
+      <c r="A207" s="23"/>
     </row>
     <row r="208" customHeight="1" spans="1:1">
-      <c r="A208" s="29"/>
+      <c r="A208" s="23"/>
     </row>
     <row r="209" customHeight="1" spans="1:1">
-      <c r="A209" s="29"/>
+      <c r="A209" s="23"/>
     </row>
     <row r="210" customHeight="1" spans="1:1">
-      <c r="A210" s="29"/>
+      <c r="A210" s="23"/>
     </row>
     <row r="211" customHeight="1" spans="1:1">
-      <c r="A211" s="29"/>
+      <c r="A211" s="23"/>
     </row>
     <row r="212" customHeight="1" spans="1:1">
-      <c r="A212" s="29"/>
+      <c r="A212" s="23"/>
     </row>
     <row r="213" customHeight="1" spans="1:1">
-      <c r="A213" s="29"/>
+      <c r="A213" s="23"/>
     </row>
     <row r="214" customHeight="1" spans="1:1">
-      <c r="A214" s="29"/>
+      <c r="A214" s="23"/>
     </row>
     <row r="215" customHeight="1" spans="1:1">
-      <c r="A215" s="29"/>
+      <c r="A215" s="23"/>
     </row>
     <row r="216" customHeight="1" spans="1:1">
-      <c r="A216" s="29"/>
+      <c r="A216" s="23"/>
     </row>
     <row r="217" customHeight="1" spans="1:1">
-      <c r="A217" s="29"/>
+      <c r="A217" s="23"/>
     </row>
     <row r="218" customHeight="1" spans="1:1">
-      <c r="A218" s="29"/>
+      <c r="A218" s="23"/>
     </row>
     <row r="219" customHeight="1" spans="1:1">
-      <c r="A219" s="29"/>
+      <c r="A219" s="23"/>
     </row>
     <row r="220" customHeight="1" spans="1:1">
-      <c r="A220" s="29"/>
+      <c r="A220" s="23"/>
     </row>
     <row r="221" customHeight="1" spans="1:1">
-      <c r="A221" s="29"/>
+      <c r="A221" s="23"/>
     </row>
     <row r="222" customHeight="1" spans="1:1">
-      <c r="A222" s="29"/>
+      <c r="A222" s="23"/>
     </row>
     <row r="223" customHeight="1" spans="1:1">
-      <c r="A223" s="29"/>
+      <c r="A223" s="23"/>
     </row>
     <row r="224" customHeight="1" spans="1:1">
-      <c r="A224" s="29"/>
+      <c r="A224" s="23"/>
     </row>
     <row r="225" customHeight="1" spans="1:1">
-      <c r="A225" s="29"/>
+      <c r="A225" s="23"/>
     </row>
     <row r="226" customHeight="1" spans="1:1">
-      <c r="A226" s="29"/>
+      <c r="A226" s="23"/>
     </row>
     <row r="227" customHeight="1" spans="1:1">
-      <c r="A227" s="29"/>
+      <c r="A227" s="23"/>
     </row>
     <row r="228" customHeight="1" spans="1:1">
-      <c r="A228" s="29"/>
+      <c r="A228" s="23"/>
     </row>
     <row r="229" customHeight="1" spans="1:1">
-      <c r="A229" s="29"/>
+      <c r="A229" s="23"/>
     </row>
     <row r="230" customHeight="1" spans="1:1">
-      <c r="A230" s="29"/>
+      <c r="A230" s="23"/>
     </row>
     <row r="231" customHeight="1" spans="1:1">
-      <c r="A231" s="29"/>
+      <c r="A231" s="23"/>
     </row>
     <row r="232" customHeight="1" spans="1:1">
-      <c r="A232" s="29"/>
-    </row>
-    <row r="233" customHeight="1" spans="1:1">
-      <c r="A233" s="29"/>
-    </row>
-    <row r="234" customHeight="1" spans="1:1">
-      <c r="A234" s="29"/>
+      <c r="A232" s="23"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/data/menu_dinner.xlsx
+++ b/data/menu_dinner.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973">
   <si>
     <t>id</t>
   </si>
@@ -366,7 +366,7 @@
     <t xml:space="preserve">88 </t>
   </si>
   <si>
-    <t>88/Glass</t>
+    <t>88/杯</t>
   </si>
   <si>
     <t>alcoholic drink</t>
@@ -585,7 +585,7 @@
     <t>98</t>
   </si>
   <si>
-    <t>98/Glass</t>
+    <t>98/杯</t>
   </si>
   <si>
     <t>images/product/cocktail/RT_Negroni.png</t>
@@ -642,7 +642,7 @@
     <t>80</t>
   </si>
   <si>
-    <t>80/Glass</t>
+    <t>80/杯</t>
   </si>
   <si>
     <t>Gin/Dolin dry</t>
@@ -675,7 +675,7 @@
     <t>78</t>
   </si>
   <si>
-    <t>78/Glass</t>
+    <t>78/杯</t>
   </si>
   <si>
     <t>Gin/Tonic water</t>
@@ -747,7 +747,7 @@
     <t>70</t>
   </si>
   <si>
-    <t>70/Glass</t>
+    <t>70/杯</t>
   </si>
   <si>
     <t>Rum/Lime juice/Soda</t>
@@ -777,7 +777,7 @@
     <t>90</t>
   </si>
   <si>
-    <t>90/Glass</t>
+    <t>90/杯</t>
   </si>
   <si>
     <t>Bacardi blanca/Bacardi gold/Cubita151/Lemon juice/Pineapple juice/Angostura bitter</t>
@@ -924,7 +924,7 @@
     <t>55</t>
   </si>
   <si>
-    <t>55/Glass</t>
+    <t>55/杯</t>
   </si>
   <si>
     <t>35</t>
@@ -939,7 +939,7 @@
     <t>268</t>
   </si>
   <si>
-    <t>268/Bottle</t>
+    <t>268/瓶</t>
   </si>
   <si>
     <t>36</t>
@@ -954,7 +954,7 @@
     <t>458</t>
   </si>
   <si>
-    <t>458/Bottle</t>
+    <t>458/瓶</t>
   </si>
   <si>
     <t>37</t>
@@ -969,7 +969,7 @@
     <t>698</t>
   </si>
   <si>
-    <t>698/Bottle</t>
+    <t>698/瓶</t>
   </si>
   <si>
     <t>38</t>
@@ -999,7 +999,7 @@
     <t>588</t>
   </si>
   <si>
-    <t>588/Bottle</t>
+    <t>588/瓶</t>
   </si>
   <si>
     <t>41</t>
@@ -1011,7 +1011,7 @@
     <t>美绚低醇起泡白葡萄酒</t>
   </si>
   <si>
-    <t>50/Glass</t>
+    <t>50/杯</t>
   </si>
   <si>
     <t>42</t>
@@ -1026,7 +1026,7 @@
     <t>258</t>
   </si>
   <si>
-    <t>258/Bottle</t>
+    <t>258/瓶</t>
   </si>
   <si>
     <t>43</t>
@@ -1041,7 +1041,7 @@
     <t>1180</t>
   </si>
   <si>
-    <t>1180/Bottle</t>
+    <t>1180/瓶</t>
   </si>
   <si>
     <t>44</t>
@@ -1056,7 +1056,7 @@
     <t>5680</t>
   </si>
   <si>
-    <t>5680/Bottle</t>
+    <t>5680/瓶</t>
   </si>
   <si>
     <t>45</t>
@@ -1071,7 +1071,7 @@
     <t>6480</t>
   </si>
   <si>
-    <t>6480/Bottle</t>
+    <t>6480/瓶</t>
   </si>
   <si>
     <t>46</t>
@@ -1083,7 +1083,7 @@
     <t>杰克丹尼</t>
   </si>
   <si>
-    <t>70/Glass+860/Bottle</t>
+    <t>70/杯+860/瓶</t>
   </si>
   <si>
     <t>47</t>
@@ -1095,7 +1095,7 @@
     <t>美格波本</t>
   </si>
   <si>
-    <t>85/Glass+960/Bottle</t>
+    <t>85/杯+960/瓶</t>
   </si>
   <si>
     <t>48</t>
@@ -1116,7 +1116,7 @@
     <t>水牛足迹</t>
   </si>
   <si>
-    <t>80/Glass+1080/Bottle</t>
+    <t>80/杯+1080/瓶</t>
   </si>
   <si>
     <t>Rittenhouse Straight Rye Whiskey</t>
@@ -1125,7 +1125,7 @@
     <t>瑞顿黑麦</t>
   </si>
   <si>
-    <t>90/Glass+1180/Bottle</t>
+    <t>90/杯+1180/瓶</t>
   </si>
   <si>
     <t>51</t>
@@ -1137,7 +1137,7 @@
     <t>波兰顿单桶（绿标）</t>
   </si>
   <si>
-    <t>1080/Bottle</t>
+    <t>1080/瓶</t>
   </si>
   <si>
     <t>52</t>
@@ -1149,7 +1149,7 @@
     <t>波兰顿单桶（黄标）</t>
   </si>
   <si>
-    <t>1100/Bottle</t>
+    <t>1100/瓶</t>
   </si>
   <si>
     <t>53</t>
@@ -1188,7 +1188,7 @@
     <t>诺不溪9年</t>
   </si>
   <si>
-    <t>880/Bottle</t>
+    <t>880/瓶</t>
   </si>
   <si>
     <t>57</t>
@@ -1200,7 +1200,7 @@
     <t>诺恩小溪肯塔基</t>
   </si>
   <si>
-    <t>1280/Bottle</t>
+    <t>1280/瓶</t>
   </si>
   <si>
     <t>58</t>
@@ -1215,7 +1215,7 @@
     <t>17+172</t>
   </si>
   <si>
-    <t>85/Glass+880/Bottle</t>
+    <t>85/杯+880/瓶</t>
   </si>
   <si>
     <t>59</t>
@@ -1227,7 +1227,7 @@
     <t>金方</t>
   </si>
   <si>
-    <t>90/Glass+1100/Bottle</t>
+    <t>90/杯+1100/瓶</t>
   </si>
   <si>
     <t>60</t>
@@ -1239,7 +1239,7 @@
     <t>蓝方</t>
   </si>
   <si>
-    <t>2650/Bottle</t>
+    <t>2650/瓶</t>
   </si>
   <si>
     <t>61</t>
@@ -1251,7 +1251,7 @@
     <t>百龄坛12年</t>
   </si>
   <si>
-    <t>50/Glass+880/Bottle</t>
+    <t>50/杯+880/瓶</t>
   </si>
   <si>
     <t>62</t>
@@ -1263,7 +1263,7 @@
     <t>百龄坛15年</t>
   </si>
   <si>
-    <t>65/Glass+1050/Bottle</t>
+    <t>65/杯+1050/瓶</t>
   </si>
   <si>
     <t>63</t>
@@ -1275,7 +1275,7 @@
     <t>芝华士12年</t>
   </si>
   <si>
-    <t>80/Glass+880/Bottle</t>
+    <t>80/杯+880/瓶</t>
   </si>
   <si>
     <t>64</t>
@@ -1287,7 +1287,7 @@
     <t>芝华士18年</t>
   </si>
   <si>
-    <t>110/Glass+1700/Bottle</t>
+    <t>110/杯+1700/瓶</t>
   </si>
   <si>
     <t>65</t>
@@ -1308,7 +1308,7 @@
     <t>三得利.季</t>
   </si>
   <si>
-    <t>100/Glass+1400/Bottle</t>
+    <t>100/杯+1400/瓶</t>
   </si>
   <si>
     <t>67</t>
@@ -1320,7 +1320,7 @@
     <t>一甲武士</t>
   </si>
   <si>
-    <t>120/Glass+1800/Bottle</t>
+    <t>120/杯+1800/瓶</t>
   </si>
   <si>
     <t>68</t>
@@ -1332,7 +1332,7 @@
     <t>富士山麓.樽熟50度</t>
   </si>
   <si>
-    <t>90/Glass+1080/Bottle</t>
+    <t>90/杯+1080/瓶</t>
   </si>
   <si>
     <t>69</t>
@@ -1344,7 +1344,7 @@
     <t>竹鹤（纯麦）</t>
   </si>
   <si>
-    <t>120/Glass+1550/Bottle</t>
+    <t>120/杯+1550/瓶</t>
   </si>
   <si>
     <t>Kurayoshi 8Y</t>
@@ -1353,7 +1353,7 @@
     <t>仓吉8年</t>
   </si>
   <si>
-    <t>120/Glass+2050/Bottle</t>
+    <t>120/杯+2050/瓶</t>
   </si>
   <si>
     <t>71</t>
@@ -1365,7 +1365,7 @@
     <t>仓吉12年</t>
   </si>
   <si>
-    <t>180/Glass+2850/Bottle</t>
+    <t>180/杯+2850/瓶</t>
   </si>
   <si>
     <t>72</t>
@@ -1377,7 +1377,7 @@
     <t>岩井.黑牌</t>
   </si>
   <si>
-    <t>90/Glass+900/Bottle</t>
+    <t>90/杯+900/瓶</t>
   </si>
   <si>
     <t>73</t>
@@ -1389,7 +1389,7 @@
     <t>知多</t>
   </si>
   <si>
-    <t>100/Glass+1650/Bottle</t>
+    <t>100/杯+1650/瓶</t>
   </si>
   <si>
     <t>74</t>
@@ -1401,7 +1401,7 @@
     <t>宫城峡</t>
   </si>
   <si>
-    <t>140/Glass+2350/Bottle</t>
+    <t>140/杯+2350/瓶</t>
   </si>
   <si>
     <t>75</t>
@@ -1413,7 +1413,7 @@
     <t>山崎.1923</t>
   </si>
   <si>
-    <t>120/Glass+2180/Bottle</t>
+    <t>120/杯+2180/瓶</t>
   </si>
   <si>
     <t>76</t>
@@ -1425,7 +1425,7 @@
     <t>山崎.12</t>
   </si>
   <si>
-    <t>240/Glass+4980/Bottle</t>
+    <t>240/杯+4980/瓶</t>
   </si>
   <si>
     <t>77</t>
@@ -1437,7 +1437,7 @@
     <t>山崎.18</t>
   </si>
   <si>
-    <t>17800/Bottle</t>
+    <t>17800/瓶</t>
   </si>
   <si>
     <t>Hakushu 1973</t>
@@ -1446,7 +1446,7 @@
     <t>白州.1973</t>
   </si>
   <si>
-    <t>100/Glass+2080/Bottle</t>
+    <t>100/杯+2080/瓶</t>
   </si>
   <si>
     <t>79</t>
@@ -1458,7 +1458,7 @@
     <t>白州.12</t>
   </si>
   <si>
-    <t>240/Glass+4880/Bottle</t>
+    <t>240/杯+4880/瓶</t>
   </si>
   <si>
     <t>Hakushu 18Y</t>
@@ -1476,7 +1476,7 @@
     <t>响.和风雅韵</t>
   </si>
   <si>
-    <t>110/Glass+2180/Bottle</t>
+    <t>110/杯+2180/瓶</t>
   </si>
   <si>
     <t>82</t>
@@ -1488,7 +1488,7 @@
     <t>响.17</t>
   </si>
   <si>
-    <t>9800/Bottle</t>
+    <t>9800/瓶</t>
   </si>
   <si>
     <t>83</t>
@@ -1500,7 +1500,7 @@
     <t>响.21</t>
   </si>
   <si>
-    <t>15000/Bottle</t>
+    <t>15000/瓶</t>
   </si>
   <si>
     <t>84</t>
@@ -1521,7 +1521,7 @@
     <t>余市.15</t>
   </si>
   <si>
-    <t>11000/Bottle</t>
+    <t>11000/瓶</t>
   </si>
   <si>
     <t>86</t>
@@ -1536,7 +1536,7 @@
     <t>17+174</t>
   </si>
   <si>
-    <t>105/Glass+1080/Bottle</t>
+    <t>105/杯+1080/瓶</t>
   </si>
   <si>
     <t>87</t>
@@ -1548,7 +1548,7 @@
     <t>格兰杰.10</t>
   </si>
   <si>
-    <t>90/Glass+980/Bottle</t>
+    <t>90/杯+980/瓶</t>
   </si>
   <si>
     <t>Glenmorangie 12Y Sherry Cask Finish</t>
@@ -1557,7 +1557,7 @@
     <t>格兰杰.12（雪莉桶）</t>
   </si>
   <si>
-    <t>100/Glass+1180/Bottle</t>
+    <t>100/杯+1180/瓶</t>
   </si>
   <si>
     <t>89</t>
@@ -1569,7 +1569,7 @@
     <t>达摩.12</t>
   </si>
   <si>
-    <t>90/Glass+1280/Bottle</t>
+    <t>90/杯+1280/瓶</t>
   </si>
   <si>
     <t>Dalmore 15Y</t>
@@ -1578,7 +1578,7 @@
     <t>达摩.15</t>
   </si>
   <si>
-    <t>210/Glass+2400/Bottle</t>
+    <t>210/杯+2400/瓶</t>
   </si>
   <si>
     <t>91</t>
@@ -1590,7 +1590,7 @@
     <t>达摩.18</t>
   </si>
   <si>
-    <t>225/Glass+3880/Bottle</t>
+    <t>225/杯+3880/瓶</t>
   </si>
   <si>
     <t>92</t>
@@ -1620,7 +1620,7 @@
     <t>艾柏迪.12</t>
   </si>
   <si>
-    <t>90/Glass+880/Bottle</t>
+    <t>90/杯+880/瓶</t>
   </si>
   <si>
     <t>95</t>
@@ -1632,7 +1632,7 @@
     <t>艾柏迪.16</t>
   </si>
   <si>
-    <t>120/Glass+1480/Bottle</t>
+    <t>120/杯+1480/瓶</t>
   </si>
   <si>
     <t>96</t>
@@ -1644,7 +1644,7 @@
     <t>艾柏迪.21</t>
   </si>
   <si>
-    <t>200/Glass+3680/Bottle</t>
+    <t>200/杯+3680/瓶</t>
   </si>
   <si>
     <t>97</t>
@@ -1662,7 +1662,7 @@
     <t>福特尼.17</t>
   </si>
   <si>
-    <t>180/Glass+2380/Bottle</t>
+    <t>180/杯+2380/瓶</t>
   </si>
   <si>
     <t>99</t>
@@ -1674,7 +1674,7 @@
     <t>乐加维林.16</t>
   </si>
   <si>
-    <t>90/Glass+1380/Bottle</t>
+    <t>90/杯+1380/瓶</t>
   </si>
   <si>
     <t>100</t>
@@ -1695,7 +1695,7 @@
     <t>阿贝.乌干达</t>
   </si>
   <si>
-    <t>110/Glass+1680/Bottle</t>
+    <t>110/杯+1680/瓶</t>
   </si>
   <si>
     <t>102</t>
@@ -1725,7 +1725,7 @@
     <t>拉弗格.四分之一桶</t>
   </si>
   <si>
-    <t>100/Glass+1280/Bottle</t>
+    <t>100/杯+1280/瓶</t>
   </si>
   <si>
     <t>105</t>
@@ -1746,7 +1746,7 @@
     <t>波摩.15</t>
   </si>
   <si>
-    <t>110/Glass+1880/Bottle</t>
+    <t>110/杯+1880/瓶</t>
   </si>
   <si>
     <t>107</t>
@@ -1758,7 +1758,7 @@
     <t>波摩.18</t>
   </si>
   <si>
-    <t>150/Glass+2680/Bottle</t>
+    <t>150/杯+2680/瓶</t>
   </si>
   <si>
     <t>108</t>
@@ -1770,7 +1770,7 @@
     <t>布赫拉迪.经典</t>
   </si>
   <si>
-    <t>100/Glass+1380/Bottle</t>
+    <t>100/杯+1380/瓶</t>
   </si>
   <si>
     <t>109</t>
@@ -1782,7 +1782,7 @@
     <t>布赫拉迪.波夏10</t>
   </si>
   <si>
-    <t>100/Glass+1480/Bottle</t>
+    <t>100/杯+1480/瓶</t>
   </si>
   <si>
     <t>110</t>
@@ -1794,7 +1794,7 @@
     <t>云顶.10</t>
   </si>
   <si>
-    <t>100/Glass+1580/Bottle</t>
+    <t>100/杯+1580/瓶</t>
   </si>
   <si>
     <t>111</t>
@@ -1815,7 +1815,7 @@
     <t>朱拉.16</t>
   </si>
   <si>
-    <t>110/Glass+1380/Bottle</t>
+    <t>110/杯+1380/瓶</t>
   </si>
   <si>
     <t>113</t>
@@ -1827,7 +1827,7 @@
     <t>朱拉.预言</t>
   </si>
   <si>
-    <t>140/Glass+1580/Bottle</t>
+    <t>140/杯+1580/瓶</t>
   </si>
   <si>
     <t>114</t>
@@ -1866,7 +1866,7 @@
     <t>泰斯卡.风暴</t>
   </si>
   <si>
-    <t>90/Glass+780/Bottle</t>
+    <t>90/杯+780/瓶</t>
   </si>
   <si>
     <t>118</t>
@@ -1905,7 +1905,7 @@
     <t>麦卡伦.12雪莉桶</t>
   </si>
   <si>
-    <t>160/Glass+1780/Bottle</t>
+    <t>160/杯+1780/瓶</t>
   </si>
   <si>
     <t>122</t>
@@ -1935,7 +1935,7 @@
     <t>诗贝.12</t>
   </si>
   <si>
-    <t>130/Glass+1780/Bottle</t>
+    <t>130/杯+1780/瓶</t>
   </si>
   <si>
     <t>125</t>
@@ -1947,7 +1947,7 @@
     <t>诗贝.15</t>
   </si>
   <si>
-    <t>180/Glass+2480/Bottle</t>
+    <t>180/杯+2480/瓶</t>
   </si>
   <si>
     <t>126</t>
@@ -1977,7 +1977,7 @@
     <t>格兰花格.15</t>
   </si>
   <si>
-    <t>140/Glass+1650/Bottle</t>
+    <t>140/杯+1650/瓶</t>
   </si>
   <si>
     <t>129</t>
@@ -1989,7 +1989,7 @@
     <t>格兰花格.105</t>
   </si>
   <si>
-    <t>100/Glass+1100/Bottle</t>
+    <t>100/杯+1100/瓶</t>
   </si>
   <si>
     <t>130</t>
@@ -2019,7 +2019,7 @@
     <t>格兰威特.15</t>
   </si>
   <si>
-    <t>100/Glass+1680/Bottle</t>
+    <t>100/杯+1680/瓶</t>
   </si>
   <si>
     <t>133</t>
@@ -2040,7 +2040,7 @@
     <t>格兰菲迪.15</t>
   </si>
   <si>
-    <t>100/Glass+1080/Bottle</t>
+    <t>100/杯+1080/瓶</t>
   </si>
   <si>
     <t>135</t>
@@ -2052,7 +2052,7 @@
     <t>格兰菲迪.18</t>
   </si>
   <si>
-    <t>110/Glass+1480/Bottle</t>
+    <t>110/杯+1480/瓶</t>
   </si>
   <si>
     <t>136</t>
@@ -2064,7 +2064,7 @@
     <t>格兰菲迪.21</t>
   </si>
   <si>
-    <t>200/Glass+3480/Bottle</t>
+    <t>200/杯+3480/瓶</t>
   </si>
   <si>
     <t>137</t>
@@ -2103,7 +2103,7 @@
     <t>百富.21</t>
   </si>
   <si>
-    <t>230/Glass+3680/Bottle</t>
+    <t>230/杯+3680/瓶</t>
   </si>
   <si>
     <t>141</t>
@@ -2115,7 +2115,7 @@
     <t>朝日生啤</t>
   </si>
   <si>
-    <t>28/Bottle</t>
+    <t>28/瓶</t>
   </si>
   <si>
     <t>142</t>
@@ -2127,7 +2127,7 @@
     <t>1664玫瑰</t>
   </si>
   <si>
-    <t>35/Bottle</t>
+    <t>35/瓶</t>
   </si>
   <si>
     <t>143</t>
@@ -2139,7 +2139,7 @@
     <t>德国教士黑啤</t>
   </si>
   <si>
-    <t>30/Bottle</t>
+    <t>30/瓶</t>
   </si>
   <si>
     <t>144</t>
@@ -2724,7 +2724,7 @@
     <t>茉莉小姐</t>
   </si>
   <si>
-    <t>56/Glass</t>
+    <t>56/杯</t>
   </si>
   <si>
     <t>soft drink</t>
@@ -2790,7 +2790,7 @@
     <t>热牛奶</t>
   </si>
   <si>
-    <t>20/Bottle</t>
+    <t>20/杯</t>
   </si>
   <si>
     <t>178</t>
@@ -2802,7 +2802,7 @@
     <t>热可可</t>
   </si>
   <si>
-    <t>22/Bottle</t>
+    <t>22/杯</t>
   </si>
   <si>
     <t>179</t>
@@ -2814,6 +2814,9 @@
     <t>苏打水</t>
   </si>
   <si>
+    <t>20/听</t>
+  </si>
+  <si>
     <t>180</t>
   </si>
   <si>
@@ -2841,6 +2844,9 @@
     <t>红牛碳酸型</t>
   </si>
   <si>
+    <t>30/听</t>
+  </si>
+  <si>
     <t>183</t>
   </si>
   <si>
@@ -2926,6 +2932,9 @@
   </si>
   <si>
     <t>images/product/Dessert/五十铃抹茶蛋糕.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -3626,7 +3635,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3690,6 +3699,12 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4053,70 +4068,70 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="11.5178571428571" style="31"/>
-    <col min="3" max="3" width="41.6607142857143" style="31" customWidth="1"/>
-    <col min="4" max="4" width="37.1785714285714" style="31" customWidth="1"/>
-    <col min="5" max="5" width="59.4732142857143" style="31" customWidth="1"/>
-    <col min="6" max="6" width="22.3571428571429" style="32" customWidth="1"/>
-    <col min="7" max="7" width="11.5178571428571" style="32"/>
-    <col min="8" max="8" width="16.2589285714286" style="31" customWidth="1"/>
-    <col min="9" max="9" width="18.1964285714286" style="31" customWidth="1"/>
+    <col min="1" max="2" width="11.5178571428571" style="33"/>
+    <col min="3" max="3" width="41.6607142857143" style="33" customWidth="1"/>
+    <col min="4" max="4" width="37.1785714285714" style="33" customWidth="1"/>
+    <col min="5" max="5" width="59.4732142857143" style="33" customWidth="1"/>
+    <col min="6" max="6" width="22.3571428571429" style="34" customWidth="1"/>
+    <col min="7" max="7" width="11.5178571428571" style="34"/>
+    <col min="8" max="8" width="16.2589285714286" style="33" customWidth="1"/>
+    <col min="9" max="9" width="18.1964285714286" style="33" customWidth="1"/>
     <col min="10" max="1025" width="11.5178571428571"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34" t="s">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="35" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="35">
         <v>1</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="36" t="b">
+      <c r="F2" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="G2" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="G2" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="7" t="s">
@@ -4132,10 +4147,10 @@
         <v>16</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="F3" s="37" t="b">
+      <c r="F3" s="39" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="37" t="b">
+      <c r="G3" s="39" t="b">
         <v>0</v>
       </c>
       <c r="H3" s="7"/>
@@ -4155,10 +4170,10 @@
         <v>19</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="F4" s="37" t="b">
+      <c r="F4" s="39" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="37" t="b">
+      <c r="G4" s="39" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="7"/>
@@ -4178,271 +4193,271 @@
         <v>22</v>
       </c>
       <c r="E5" s="7"/>
-      <c r="F5" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="37" t="b">
+      <c r="F5" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="39" t="b">
         <v>0</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
     <row r="6" customHeight="1" spans="1:9">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
     </row>
     <row r="7" customHeight="1" spans="1:9">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
     </row>
     <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
     </row>
     <row r="9" customHeight="1" spans="1:9">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="35">
         <v>2</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="36" t="b">
+      <c r="E9" s="35"/>
+      <c r="F9" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="33"/>
+      <c r="I9" s="35"/>
     </row>
     <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="35">
         <v>3</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
     </row>
     <row r="11" customHeight="1" spans="1:9">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="35">
         <v>3</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
     </row>
     <row r="12" customHeight="1" spans="1:9">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="35">
         <v>3</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
     </row>
     <row r="13" customHeight="1" spans="1:9">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
     </row>
     <row r="14" customHeight="1" spans="1:9">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
     </row>
     <row r="15" customHeight="1" spans="1:9">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
     </row>
     <row r="16" customHeight="1" spans="1:9">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-    </row>
-    <row r="17" s="30" customFormat="1" customHeight="1" spans="1:10">
+      <c r="E16" s="35"/>
+      <c r="F16" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+    </row>
+    <row r="17" s="32" customFormat="1" customHeight="1" spans="1:10">
       <c r="A17" s="7" t="s">
         <v>58</v>
       </c>
@@ -4456,297 +4471,297 @@
         <v>60</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="37" t="b">
+      <c r="F17" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="39" t="b">
         <v>0</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="38"/>
+      <c r="J17" s="40"/>
     </row>
     <row r="18" customHeight="1" spans="1:9">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="35">
         <v>1</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="36" t="b">
+      <c r="F18" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="G18" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
+      <c r="G18" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
     </row>
     <row r="19" customHeight="1" spans="1:9">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="33">
+      <c r="B19" s="35">
         <v>2</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="36" t="b">
+      <c r="E19" s="35"/>
+      <c r="F19" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="G19" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
+      <c r="G19" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
     </row>
     <row r="20" customHeight="1" spans="1:9">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="36" t="b">
+      <c r="E20" s="35"/>
+      <c r="F20" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="G20" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
+      <c r="G20" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
     </row>
     <row r="21" customHeight="1" spans="1:9">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="35">
         <v>2</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="36" t="b">
+      <c r="E21" s="35"/>
+      <c r="F21" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="G21" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
+      <c r="G21" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
     </row>
     <row r="22" customHeight="1" spans="1:9">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="33">
+      <c r="B22" s="35">
         <v>2</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="36" t="b">
+      <c r="E22" s="35"/>
+      <c r="F22" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="G22" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
+      <c r="G22" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
     </row>
     <row r="23" customHeight="1" spans="1:9">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="33">
+      <c r="B23" s="35">
         <v>2</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="36" t="b">
+      <c r="E23" s="35"/>
+      <c r="F23" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="G23" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
+      <c r="G23" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
     </row>
     <row r="24" customHeight="1" spans="1:9">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="33">
+      <c r="B24" s="35">
         <v>1</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="F24" s="36" t="b">
+      <c r="F24" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="G24" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
+      <c r="G24" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
     </row>
     <row r="25" customHeight="1" spans="1:9">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="33">
+      <c r="B25" s="35">
         <v>2</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="33"/>
-      <c r="F25" s="36" t="b">
+      <c r="E25" s="35"/>
+      <c r="F25" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="G25" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
+      <c r="G25" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
     </row>
     <row r="26" customHeight="1" spans="1:9">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="33"/>
-      <c r="F26" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
     </row>
     <row r="27" customHeight="1" spans="1:9">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="33">
+      <c r="B27" s="35">
         <v>2</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="33"/>
-      <c r="F27" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="G27" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
     </row>
     <row r="28" customHeight="1" spans="1:9">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="33">
+      <c r="B28" s="35">
         <v>1</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="F28" s="36" t="b">
+      <c r="F28" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="G28" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
+      <c r="G28" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
     </row>
     <row r="29" customHeight="1" spans="1:9">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="33"/>
-      <c r="F29" s="36" t="b">
+      <c r="E29" s="35"/>
+      <c r="F29" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="G29" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
+      <c r="G29" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.02430555555556" bottom="1.02430555555556" header="0.7875" footer="0.7875"/>
@@ -4763,8 +4778,8 @@
   <sheetPr/>
   <dimension ref="A1:BD232"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="B188" sqref="B188"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="G177" sqref="G177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -11842,7 +11857,7 @@
       <c r="M148" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="N148" s="24" t="s">
+      <c r="N148" s="26" t="s">
         <v>736</v>
       </c>
       <c r="O148" s="5" t="s">
@@ -12262,7 +12277,7 @@
       <c r="M156" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="N156" s="25" t="s">
+      <c r="N156" s="27" t="s">
         <v>791</v>
       </c>
       <c r="O156" s="5" t="s">
@@ -12275,16 +12290,16 @@
         <v>137</v>
       </c>
       <c r="R156" s="20"/>
-      <c r="S156" s="27"/>
-      <c r="T156" s="27"/>
-      <c r="U156" s="27"/>
-      <c r="V156" s="27"/>
-      <c r="W156" s="27"/>
-      <c r="X156" s="27"/>
-      <c r="Y156" s="27"/>
-      <c r="Z156" s="27"/>
-      <c r="AA156" s="27"/>
-      <c r="AB156" s="27"/>
+      <c r="S156" s="29"/>
+      <c r="T156" s="29"/>
+      <c r="U156" s="29"/>
+      <c r="V156" s="29"/>
+      <c r="W156" s="29"/>
+      <c r="X156" s="29"/>
+      <c r="Y156" s="29"/>
+      <c r="Z156" s="29"/>
+      <c r="AA156" s="29"/>
+      <c r="AB156" s="29"/>
     </row>
     <row r="157" customHeight="1" spans="1:28">
       <c r="A157" s="5" t="s">
@@ -12326,7 +12341,7 @@
       <c r="M157" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="N157" s="25" t="s">
+      <c r="N157" s="27" t="s">
         <v>798</v>
       </c>
       <c r="O157" s="5" t="s">
@@ -12339,16 +12354,16 @@
         <v>137</v>
       </c>
       <c r="R157" s="20"/>
-      <c r="S157" s="27"/>
-      <c r="T157" s="27"/>
-      <c r="U157" s="27"/>
-      <c r="V157" s="27"/>
-      <c r="W157" s="27"/>
-      <c r="X157" s="27"/>
-      <c r="Y157" s="27"/>
-      <c r="Z157" s="27"/>
-      <c r="AA157" s="27"/>
-      <c r="AB157" s="27"/>
+      <c r="S157" s="29"/>
+      <c r="T157" s="29"/>
+      <c r="U157" s="29"/>
+      <c r="V157" s="29"/>
+      <c r="W157" s="29"/>
+      <c r="X157" s="29"/>
+      <c r="Y157" s="29"/>
+      <c r="Z157" s="29"/>
+      <c r="AA157" s="29"/>
+      <c r="AB157" s="29"/>
     </row>
     <row r="158" customHeight="1" spans="1:28">
       <c r="A158" s="5" t="s">
@@ -12390,7 +12405,7 @@
       <c r="M158" s="5" t="s">
         <v>803</v>
       </c>
-      <c r="N158" s="25" t="s">
+      <c r="N158" s="27" t="s">
         <v>804</v>
       </c>
       <c r="O158" s="5" t="s">
@@ -12403,16 +12418,16 @@
         <v>137</v>
       </c>
       <c r="R158" s="20"/>
-      <c r="S158" s="27"/>
-      <c r="T158" s="27"/>
-      <c r="U158" s="27"/>
-      <c r="V158" s="27"/>
-      <c r="W158" s="27"/>
-      <c r="X158" s="27"/>
-      <c r="Y158" s="27"/>
-      <c r="Z158" s="27"/>
-      <c r="AA158" s="27"/>
-      <c r="AB158" s="27"/>
+      <c r="S158" s="29"/>
+      <c r="T158" s="29"/>
+      <c r="U158" s="29"/>
+      <c r="V158" s="29"/>
+      <c r="W158" s="29"/>
+      <c r="X158" s="29"/>
+      <c r="Y158" s="29"/>
+      <c r="Z158" s="29"/>
+      <c r="AA158" s="29"/>
+      <c r="AB158" s="29"/>
     </row>
     <row r="159" customHeight="1" spans="1:28">
       <c r="A159" s="5" t="s">
@@ -12454,7 +12469,7 @@
       <c r="M159" s="5" t="s">
         <v>809</v>
       </c>
-      <c r="N159" s="25" t="s">
+      <c r="N159" s="27" t="s">
         <v>810</v>
       </c>
       <c r="O159" s="5" t="s">
@@ -12467,16 +12482,16 @@
         <v>137</v>
       </c>
       <c r="R159" s="20"/>
-      <c r="S159" s="27"/>
-      <c r="T159" s="27"/>
-      <c r="U159" s="27"/>
-      <c r="V159" s="27"/>
-      <c r="W159" s="27"/>
-      <c r="X159" s="27"/>
-      <c r="Y159" s="27"/>
-      <c r="Z159" s="27"/>
-      <c r="AA159" s="27"/>
-      <c r="AB159" s="27"/>
+      <c r="S159" s="29"/>
+      <c r="T159" s="29"/>
+      <c r="U159" s="29"/>
+      <c r="V159" s="29"/>
+      <c r="W159" s="29"/>
+      <c r="X159" s="29"/>
+      <c r="Y159" s="29"/>
+      <c r="Z159" s="29"/>
+      <c r="AA159" s="29"/>
+      <c r="AB159" s="29"/>
     </row>
     <row r="160" customHeight="1" spans="1:28">
       <c r="A160" s="5" t="s">
@@ -12518,7 +12533,7 @@
       <c r="M160" s="5" t="s">
         <v>816</v>
       </c>
-      <c r="N160" s="25" t="s">
+      <c r="N160" s="27" t="s">
         <v>817</v>
       </c>
       <c r="O160" s="5" t="s">
@@ -12531,16 +12546,16 @@
         <v>137</v>
       </c>
       <c r="R160" s="20"/>
-      <c r="S160" s="27"/>
-      <c r="T160" s="27"/>
-      <c r="U160" s="27"/>
-      <c r="V160" s="27"/>
-      <c r="W160" s="27"/>
-      <c r="X160" s="27"/>
-      <c r="Y160" s="27"/>
-      <c r="Z160" s="27"/>
-      <c r="AA160" s="27"/>
-      <c r="AB160" s="27"/>
+      <c r="S160" s="29"/>
+      <c r="T160" s="29"/>
+      <c r="U160" s="29"/>
+      <c r="V160" s="29"/>
+      <c r="W160" s="29"/>
+      <c r="X160" s="29"/>
+      <c r="Y160" s="29"/>
+      <c r="Z160" s="29"/>
+      <c r="AA160" s="29"/>
+      <c r="AB160" s="29"/>
     </row>
     <row r="161" customHeight="1" spans="1:28">
       <c r="A161" s="5" t="s">
@@ -12594,17 +12609,17 @@
       <c r="Q161" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="R161" s="28"/>
-      <c r="S161" s="27"/>
-      <c r="T161" s="27"/>
-      <c r="U161" s="27"/>
-      <c r="V161" s="27"/>
-      <c r="W161" s="27"/>
-      <c r="X161" s="27"/>
-      <c r="Y161" s="27"/>
-      <c r="Z161" s="27"/>
-      <c r="AA161" s="27"/>
-      <c r="AB161" s="27"/>
+      <c r="R161" s="30"/>
+      <c r="S161" s="29"/>
+      <c r="T161" s="29"/>
+      <c r="U161" s="29"/>
+      <c r="V161" s="29"/>
+      <c r="W161" s="29"/>
+      <c r="X161" s="29"/>
+      <c r="Y161" s="29"/>
+      <c r="Z161" s="29"/>
+      <c r="AA161" s="29"/>
+      <c r="AB161" s="29"/>
     </row>
     <row r="162" customHeight="1" spans="1:28">
       <c r="A162" s="5" t="s">
@@ -12657,16 +12672,16 @@
         <v>137</v>
       </c>
       <c r="R162" s="9"/>
-      <c r="S162" s="29"/>
-      <c r="T162" s="27"/>
-      <c r="U162" s="27"/>
-      <c r="V162" s="27"/>
-      <c r="W162" s="27"/>
-      <c r="X162" s="27"/>
-      <c r="Y162" s="27"/>
-      <c r="Z162" s="27"/>
-      <c r="AA162" s="27"/>
-      <c r="AB162" s="27"/>
+      <c r="S162" s="31"/>
+      <c r="T162" s="29"/>
+      <c r="U162" s="29"/>
+      <c r="V162" s="29"/>
+      <c r="W162" s="29"/>
+      <c r="X162" s="29"/>
+      <c r="Y162" s="29"/>
+      <c r="Z162" s="29"/>
+      <c r="AA162" s="29"/>
+      <c r="AB162" s="29"/>
     </row>
     <row r="163" customHeight="1" spans="1:27">
       <c r="A163" s="5" t="s">
@@ -12721,15 +12736,15 @@
         <v>137</v>
       </c>
       <c r="R163" s="9"/>
-      <c r="S163" s="29"/>
-      <c r="T163" s="27"/>
-      <c r="U163" s="27"/>
-      <c r="V163" s="27"/>
-      <c r="W163" s="27"/>
-      <c r="X163" s="27"/>
-      <c r="Y163" s="27"/>
-      <c r="Z163" s="27"/>
-      <c r="AA163" s="27"/>
+      <c r="S163" s="31"/>
+      <c r="T163" s="29"/>
+      <c r="U163" s="29"/>
+      <c r="V163" s="29"/>
+      <c r="W163" s="29"/>
+      <c r="X163" s="29"/>
+      <c r="Y163" s="29"/>
+      <c r="Z163" s="29"/>
+      <c r="AA163" s="29"/>
     </row>
     <row r="164" customHeight="1" spans="1:56">
       <c r="A164" s="5" t="s">
@@ -12784,44 +12799,44 @@
         <v>137</v>
       </c>
       <c r="R164" s="9"/>
-      <c r="S164" s="29"/>
-      <c r="T164" s="27"/>
-      <c r="U164" s="27"/>
-      <c r="V164" s="27"/>
-      <c r="W164" s="27"/>
-      <c r="X164" s="27"/>
-      <c r="Y164" s="27"/>
-      <c r="Z164" s="27"/>
-      <c r="AA164" s="27"/>
-      <c r="AB164" s="27"/>
-      <c r="AC164" s="27"/>
-      <c r="AD164" s="27"/>
-      <c r="AE164" s="27"/>
-      <c r="AF164" s="27"/>
-      <c r="AG164" s="27"/>
-      <c r="AH164" s="27"/>
-      <c r="AI164" s="27"/>
-      <c r="AJ164" s="27"/>
-      <c r="AK164" s="27"/>
-      <c r="AL164" s="27"/>
-      <c r="AM164" s="27"/>
-      <c r="AN164" s="27"/>
-      <c r="AO164" s="27"/>
-      <c r="AP164" s="27"/>
-      <c r="AQ164" s="27"/>
-      <c r="AR164" s="27"/>
-      <c r="AS164" s="27"/>
-      <c r="AT164" s="27"/>
-      <c r="AU164" s="27"/>
-      <c r="AV164" s="27"/>
-      <c r="AW164" s="27"/>
-      <c r="AX164" s="27"/>
-      <c r="AY164" s="27"/>
-      <c r="AZ164" s="27"/>
-      <c r="BA164" s="27"/>
-      <c r="BB164" s="27"/>
-      <c r="BC164" s="27"/>
-      <c r="BD164" s="27"/>
+      <c r="S164" s="31"/>
+      <c r="T164" s="29"/>
+      <c r="U164" s="29"/>
+      <c r="V164" s="29"/>
+      <c r="W164" s="29"/>
+      <c r="X164" s="29"/>
+      <c r="Y164" s="29"/>
+      <c r="Z164" s="29"/>
+      <c r="AA164" s="29"/>
+      <c r="AB164" s="29"/>
+      <c r="AC164" s="29"/>
+      <c r="AD164" s="29"/>
+      <c r="AE164" s="29"/>
+      <c r="AF164" s="29"/>
+      <c r="AG164" s="29"/>
+      <c r="AH164" s="29"/>
+      <c r="AI164" s="29"/>
+      <c r="AJ164" s="29"/>
+      <c r="AK164" s="29"/>
+      <c r="AL164" s="29"/>
+      <c r="AM164" s="29"/>
+      <c r="AN164" s="29"/>
+      <c r="AO164" s="29"/>
+      <c r="AP164" s="29"/>
+      <c r="AQ164" s="29"/>
+      <c r="AR164" s="29"/>
+      <c r="AS164" s="29"/>
+      <c r="AT164" s="29"/>
+      <c r="AU164" s="29"/>
+      <c r="AV164" s="29"/>
+      <c r="AW164" s="29"/>
+      <c r="AX164" s="29"/>
+      <c r="AY164" s="29"/>
+      <c r="AZ164" s="29"/>
+      <c r="BA164" s="29"/>
+      <c r="BB164" s="29"/>
+      <c r="BC164" s="29"/>
+      <c r="BD164" s="29"/>
     </row>
     <row r="165" customHeight="1" spans="1:18">
       <c r="A165" s="5" t="s">
@@ -12928,21 +12943,21 @@
         <v>137</v>
       </c>
       <c r="R166" s="9"/>
-      <c r="S166" s="29"/>
-      <c r="T166" s="27"/>
-      <c r="U166" s="27"/>
-      <c r="V166" s="27"/>
-      <c r="W166" s="27"/>
-      <c r="X166" s="27"/>
-      <c r="Y166" s="27"/>
-      <c r="Z166" s="27"/>
-      <c r="AA166" s="27"/>
-      <c r="AB166" s="27"/>
-      <c r="AC166" s="27"/>
-      <c r="AD166" s="27"/>
-      <c r="AE166" s="27"/>
-      <c r="AF166" s="27"/>
-      <c r="AG166" s="27"/>
+      <c r="S166" s="31"/>
+      <c r="T166" s="29"/>
+      <c r="U166" s="29"/>
+      <c r="V166" s="29"/>
+      <c r="W166" s="29"/>
+      <c r="X166" s="29"/>
+      <c r="Y166" s="29"/>
+      <c r="Z166" s="29"/>
+      <c r="AA166" s="29"/>
+      <c r="AB166" s="29"/>
+      <c r="AC166" s="29"/>
+      <c r="AD166" s="29"/>
+      <c r="AE166" s="29"/>
+      <c r="AF166" s="29"/>
+      <c r="AG166" s="29"/>
     </row>
     <row r="167" customHeight="1" spans="1:18">
       <c r="A167" s="5" t="s">
@@ -13544,10 +13559,10 @@
       <c r="E178" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F178" s="9" t="s">
+      <c r="F178" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="G178" s="9" t="s">
+      <c r="G178" s="25" t="s">
         <v>924</v>
       </c>
       <c r="H178" s="13" t="b">
@@ -13590,10 +13605,10 @@
       <c r="E179" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F179" s="9" t="s">
+      <c r="F179" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="G179" s="9" t="s">
+      <c r="G179" s="25" t="s">
         <v>928</v>
       </c>
       <c r="H179" s="13" t="b">
@@ -13636,11 +13651,11 @@
       <c r="E180" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F180" s="9" t="s">
+      <c r="F180" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="G180" s="9" t="s">
-        <v>707</v>
+      <c r="G180" s="25" t="s">
+        <v>932</v>
       </c>
       <c r="H180" s="13" t="b">
         <v>0</v>
@@ -13668,13 +13683,13 @@
     </row>
     <row r="181" customHeight="1" spans="1:18">
       <c r="A181" s="5" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="D181" s="9" t="s">
         <v>88</v>
@@ -13682,11 +13697,11 @@
       <c r="E181" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F181" s="9" t="s">
+      <c r="F181" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="G181" s="9" t="s">
-        <v>707</v>
+      <c r="G181" s="25" t="s">
+        <v>932</v>
       </c>
       <c r="H181" s="13" t="b">
         <v>0</v>
@@ -13714,13 +13729,13 @@
     </row>
     <row r="182" customHeight="1" spans="1:18">
       <c r="A182" s="5" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D182" s="9" t="s">
         <v>88</v>
@@ -13728,11 +13743,11 @@
       <c r="E182" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F182" s="9" t="s">
+      <c r="F182" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="G182" s="9" t="s">
-        <v>707</v>
+      <c r="G182" s="25" t="s">
+        <v>932</v>
       </c>
       <c r="H182" s="13" t="b">
         <v>0</v>
@@ -13760,13 +13775,13 @@
     </row>
     <row r="183" customHeight="1" spans="1:18">
       <c r="A183" s="5" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D183" s="9" t="s">
         <v>88</v>
@@ -13774,11 +13789,11 @@
       <c r="E183" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F183" s="9" t="s">
+      <c r="F183" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="G183" s="9" t="s">
-        <v>707</v>
+      <c r="G183" s="25" t="s">
+        <v>942</v>
       </c>
       <c r="H183" s="13" t="b">
         <v>0</v>
@@ -13806,13 +13821,13 @@
     </row>
     <row r="184" customFormat="1" customHeight="1" spans="1:18">
       <c r="A184" s="5" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="D184" s="7" t="s">
         <v>95</v>
@@ -13833,14 +13848,14 @@
         <v>1</v>
       </c>
       <c r="J184" s="7" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="K184" s="7" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="L184" s="22"/>
       <c r="M184" s="7"/>
-      <c r="N184" s="26"/>
+      <c r="N184" s="28"/>
       <c r="O184" s="7" t="s">
         <v>122</v>
       </c>
@@ -13854,13 +13869,13 @@
     </row>
     <row r="185" customFormat="1" customHeight="1" spans="1:18">
       <c r="A185" s="5" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="D185" s="7" t="s">
         <v>95</v>
@@ -13881,14 +13896,14 @@
         <v>1</v>
       </c>
       <c r="J185" s="7" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="K185" s="7" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="L185" s="22"/>
       <c r="M185" s="7"/>
-      <c r="N185" s="26"/>
+      <c r="N185" s="28"/>
       <c r="O185" s="7" t="s">
         <v>122</v>
       </c>
@@ -13902,13 +13917,13 @@
     </row>
     <row r="186" customFormat="1" customHeight="1" spans="1:18">
       <c r="A186" s="5" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="D186" s="7" t="s">
         <v>95</v>
@@ -13929,14 +13944,14 @@
         <v>1</v>
       </c>
       <c r="J186" s="7" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="K186" s="7" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="L186" s="22"/>
       <c r="M186" s="7"/>
-      <c r="N186" s="26"/>
+      <c r="N186" s="28"/>
       <c r="O186" s="7" t="s">
         <v>122</v>
       </c>
@@ -13950,13 +13965,13 @@
     </row>
     <row r="187" customFormat="1" customHeight="1" spans="1:18">
       <c r="A187" s="5" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="D187" s="7" t="s">
         <v>95</v>
@@ -13977,14 +13992,14 @@
         <v>0</v>
       </c>
       <c r="J187" s="7" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="K187" s="7" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="L187" s="22"/>
       <c r="M187" s="7"/>
-      <c r="N187" s="26"/>
+      <c r="N187" s="28"/>
       <c r="O187" s="7" t="s">
         <v>122</v>
       </c>
@@ -13998,13 +14013,13 @@
     </row>
     <row r="188" customFormat="1" customHeight="1" spans="1:18">
       <c r="A188" s="5" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="D188" s="7" t="s">
         <v>95</v>
@@ -14025,14 +14040,14 @@
         <v>0</v>
       </c>
       <c r="J188" s="7" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="K188" s="7" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="L188" s="7"/>
       <c r="M188" s="7"/>
-      <c r="N188" s="26"/>
+      <c r="N188" s="28"/>
       <c r="O188" s="7" t="s">
         <v>122</v>
       </c>
@@ -14046,13 +14061,13 @@
     </row>
     <row r="189" customFormat="1" customHeight="1" spans="1:18">
       <c r="A189" s="5" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B189" s="22" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="D189" s="7" t="s">
         <v>95</v>
@@ -14073,14 +14088,14 @@
         <v>0</v>
       </c>
       <c r="J189" s="7" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="K189" s="7" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="L189" s="7"/>
       <c r="M189" s="7"/>
-      <c r="N189" s="26"/>
+      <c r="N189" s="28"/>
       <c r="O189" s="7" t="s">
         <v>122</v>
       </c>
@@ -14094,13 +14109,13 @@
     </row>
     <row r="190" customFormat="1" customHeight="1" spans="1:18">
       <c r="A190" s="5" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="D190" s="7" t="s">
         <v>95</v>
@@ -14121,13 +14136,13 @@
         <v>0</v>
       </c>
       <c r="J190" s="7" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="K190" s="7" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="L190" s="7"/>
-      <c r="M190" s="26"/>
+      <c r="M190" s="28"/>
       <c r="N190" s="7"/>
       <c r="O190" s="7" t="s">
         <v>122</v>
@@ -14143,8 +14158,11 @@
     <row r="191" customHeight="1" spans="1:1">
       <c r="A191" s="23"/>
     </row>
-    <row r="192" customHeight="1" spans="1:1">
+    <row r="192" customHeight="1" spans="1:4">
       <c r="A192" s="23"/>
+      <c r="D192" s="1" t="s">
+        <v>972</v>
+      </c>
     </row>
     <row r="193" customHeight="1" spans="1:1">
       <c r="A193" s="23"/>

--- a/data/menu_dinner.xlsx
+++ b/data/menu_dinner.xlsx
@@ -5078,8 +5078,8 @@
   <sheetPr/>
   <dimension ref="A1:BD252"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="G209" sqref="G209"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>

--- a/data/menu_dinner.xlsx
+++ b/data/menu_dinner.xlsx
@@ -3895,17 +3895,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4362,8 +4362,8 @@
   <sheetPr/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C28" sqref="A1:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -4434,16 +4434,16 @@
       <c r="I2" s="53"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="8"/>
@@ -4453,54 +4453,54 @@
       <c r="G3" s="57" t="b">
         <v>0</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" customHeight="1" spans="1:9">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="57" t="b">
         <v>1</v>
       </c>
       <c r="G4" s="57" t="b">
         <v>0</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" customHeight="1" spans="1:9">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>2</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="57" t="b">
         <v>0</v>
       </c>
       <c r="G5" s="57" t="b">
         <v>0</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" customHeight="1" spans="1:9">
       <c r="A6" s="53" t="s">
@@ -4758,27 +4758,27 @@
       <c r="I16" s="53"/>
     </row>
     <row r="17" s="50" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="57" t="b">
         <v>0</v>
       </c>
       <c r="G17" s="57" t="b">
         <v>0</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="58"/>
     </row>
     <row r="18" customHeight="1" spans="1:9">
@@ -5079,7 +5079,7 @@
   <dimension ref="A1:BD252"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -5170,15 +5170,15 @@
         <v>113</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>116</v>
       </c>
       <c r="H2" s="16" t="b">
@@ -5187,13 +5187,13 @@
       <c r="I2" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>117</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>119</v>
       </c>
       <c r="M2" s="25" t="s">
@@ -5202,7 +5202,7 @@
       <c r="N2" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="7" t="s">
         <v>122</v>
       </c>
       <c r="P2" s="25" t="s">
@@ -5222,15 +5222,15 @@
         <v>124</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>116</v>
       </c>
       <c r="H3" s="16" t="b">
@@ -5239,7 +5239,7 @@
       <c r="I3" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="7" t="s">
         <v>117</v>
       </c>
       <c r="K3" s="6" t="s">
@@ -5254,7 +5254,7 @@
       <c r="N3" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="7" t="s">
         <v>122</v>
       </c>
       <c r="P3" s="25" t="s">
@@ -5274,15 +5274,15 @@
         <v>132</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>116</v>
       </c>
       <c r="H4" s="16" t="b">
@@ -5291,13 +5291,13 @@
       <c r="I4" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="7" t="s">
         <v>117</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="9" t="s">
         <v>134</v>
       </c>
       <c r="M4" s="25" t="s">
@@ -5306,7 +5306,7 @@
       <c r="N4" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="7" t="s">
         <v>122</v>
       </c>
       <c r="P4" s="25" t="s">
@@ -5326,15 +5326,15 @@
         <v>139</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="7" t="s">
         <v>116</v>
       </c>
       <c r="H5" s="16" t="b">
@@ -5343,7 +5343,7 @@
       <c r="I5" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="7" t="s">
         <v>117</v>
       </c>
       <c r="K5" s="6" t="s">
@@ -5358,7 +5358,7 @@
       <c r="N5" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="7" t="s">
         <v>122</v>
       </c>
       <c r="P5" s="25" t="s">
@@ -5377,16 +5377,16 @@
       <c r="C6" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="E6" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="7" t="s">
         <v>116</v>
       </c>
       <c r="H6" s="17" t="b">
@@ -5395,31 +5395,31 @@
       <c r="I6" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="K6" s="9" t="s">
+      <c r="J6" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="O6" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="P6" s="9" t="s">
+      <c r="O6" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>151</v>
       </c>
       <c r="Q6" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="R6" s="9"/>
+      <c r="R6" s="7"/>
     </row>
     <row r="7" customFormat="1" customHeight="1" spans="1:18">
       <c r="A7" s="5" t="s">
@@ -5431,16 +5431,16 @@
       <c r="C7" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="7" t="s">
         <v>116</v>
       </c>
       <c r="H7" s="17" t="b">
@@ -5449,31 +5449,31 @@
       <c r="I7" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="K7" s="9" t="s">
+      <c r="J7" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="O7" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="P7" s="9" t="s">
+      <c r="O7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>130</v>
       </c>
       <c r="Q7" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="R7" s="9"/>
+      <c r="R7" s="7"/>
     </row>
     <row r="8" customFormat="1" customHeight="1" spans="1:18">
       <c r="A8" s="5" t="s">
@@ -5485,16 +5485,16 @@
       <c r="C8" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="7" t="s">
         <v>116</v>
       </c>
       <c r="H8" s="17" t="b">
@@ -5503,31 +5503,31 @@
       <c r="I8" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="K8" s="9" t="s">
+      <c r="J8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>161</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="O8" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="P8" s="9" t="s">
+      <c r="O8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>151</v>
       </c>
       <c r="Q8" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="R8" s="9"/>
+      <c r="R8" s="7"/>
     </row>
     <row r="9" customFormat="1" customHeight="1" spans="1:18">
       <c r="A9" s="5" t="s">
@@ -5539,16 +5539,16 @@
       <c r="C9" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="E9" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="7" t="s">
         <v>116</v>
       </c>
       <c r="H9" s="17" t="b">
@@ -5557,52 +5557,52 @@
       <c r="I9" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="J9" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="K9" s="9" t="s">
+      <c r="J9" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>168</v>
       </c>
       <c r="L9" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="O9" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="P9" s="9" t="s">
+      <c r="O9" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>151</v>
       </c>
       <c r="Q9" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="R9" s="9"/>
+      <c r="R9" s="7"/>
     </row>
     <row r="10" customHeight="1" spans="1:18">
       <c r="A10" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="10" t="s">
         <v>116</v>
       </c>
       <c r="H10" s="17" t="b">
@@ -5611,13 +5611,13 @@
       <c r="I10" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="J10" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="9" t="s">
         <v>134</v>
       </c>
       <c r="M10" s="5" t="s">
@@ -5626,10 +5626,10 @@
       <c r="N10" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="O10" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P10" s="7" t="s">
+      <c r="O10" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P10" s="10" t="s">
         <v>151</v>
       </c>
       <c r="Q10" s="17" t="b">
@@ -5641,22 +5641,22 @@
       <c r="A11" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="E11" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="10" t="s">
         <v>116</v>
       </c>
       <c r="H11" s="17" t="b">
@@ -5665,13 +5665,13 @@
       <c r="I11" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K11" s="7" t="s">
+      <c r="J11" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="9" t="s">
         <v>134</v>
       </c>
       <c r="M11" s="5" t="s">
@@ -5680,10 +5680,10 @@
       <c r="N11" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="O11" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P11" s="7" t="s">
+      <c r="O11" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P11" s="10" t="s">
         <v>151</v>
       </c>
       <c r="Q11" s="17" t="b">
@@ -5695,22 +5695,22 @@
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="E12" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="10" t="s">
         <v>116</v>
       </c>
       <c r="H12" s="17" t="b">
@@ -5719,13 +5719,13 @@
       <c r="I12" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J12" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K12" s="7" t="s">
+      <c r="J12" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="9" t="s">
         <v>134</v>
       </c>
       <c r="M12" s="5" t="s">
@@ -5734,10 +5734,10 @@
       <c r="N12" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="O12" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P12" s="7" t="s">
+      <c r="O12" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P12" s="10" t="s">
         <v>130</v>
       </c>
       <c r="Q12" s="17" t="b">
@@ -5749,22 +5749,22 @@
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="E13" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="10" t="s">
         <v>116</v>
       </c>
       <c r="H13" s="17" t="b">
@@ -5773,13 +5773,13 @@
       <c r="I13" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J13" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="J13" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L13" s="9" t="s">
         <v>190</v>
       </c>
       <c r="M13" s="5" t="s">
@@ -5788,10 +5788,10 @@
       <c r="N13" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="O13" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P13" s="7" t="s">
+      <c r="O13" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P13" s="10" t="s">
         <v>151</v>
       </c>
       <c r="Q13" s="17" t="b">
@@ -5803,22 +5803,22 @@
       <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="E14" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="10" t="s">
         <v>116</v>
       </c>
       <c r="H14" s="17" t="b">
@@ -5827,13 +5827,13 @@
       <c r="I14" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J14" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K14" s="7" t="s">
+      <c r="J14" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K14" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L14" s="9" t="s">
         <v>134</v>
       </c>
       <c r="M14" s="5" t="s">
@@ -5842,10 +5842,10 @@
       <c r="N14" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="O14" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P14" s="7" t="s">
+      <c r="O14" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P14" s="10" t="s">
         <v>151</v>
       </c>
       <c r="Q14" s="17" t="b">
@@ -5857,22 +5857,22 @@
       <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="E15" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="10" t="s">
         <v>116</v>
       </c>
       <c r="H15" s="17" t="b">
@@ -5881,13 +5881,13 @@
       <c r="I15" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K15" s="7" t="s">
+      <c r="J15" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K15" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L15" s="9" t="s">
         <v>134</v>
       </c>
       <c r="M15" s="5" t="s">
@@ -5896,10 +5896,10 @@
       <c r="N15" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P15" s="7" t="s">
+      <c r="O15" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P15" s="10" t="s">
         <v>76</v>
       </c>
       <c r="Q15" s="17" t="b">
@@ -5911,22 +5911,22 @@
       <c r="A16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="E16" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="10" t="s">
         <v>116</v>
       </c>
       <c r="H16" s="17" t="b">
@@ -5935,13 +5935,13 @@
       <c r="I16" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J16" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K16" s="7" t="s">
+      <c r="J16" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K16" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="L16" s="9" t="s">
         <v>206</v>
       </c>
       <c r="M16" s="5" t="s">
@@ -5950,10 +5950,10 @@
       <c r="N16" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="O16" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P16" s="7" t="s">
+      <c r="O16" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P16" s="10" t="s">
         <v>209</v>
       </c>
       <c r="Q16" s="17" t="s">
@@ -5965,22 +5965,22 @@
       <c r="A17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="E17" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="10" t="s">
         <v>213</v>
       </c>
       <c r="H17" s="17" t="b">
@@ -5989,25 +5989,25 @@
       <c r="I17" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K17" s="7" t="s">
+      <c r="J17" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="L17" s="9" t="s">
         <v>119</v>
       </c>
       <c r="M17" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="N17" s="10" t="s">
+      <c r="N17" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="O17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P17" s="7" t="s">
+      <c r="O17" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" s="10" t="s">
         <v>209</v>
       </c>
       <c r="Q17" s="17" t="b">
@@ -6019,22 +6019,22 @@
       <c r="A18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="E18" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="10" t="s">
         <v>116</v>
       </c>
       <c r="H18" s="17" t="b">
@@ -6043,25 +6043,25 @@
       <c r="I18" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J18" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K18" s="7" t="s">
+      <c r="J18" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="L18" s="10" t="s">
+      <c r="L18" s="9" t="s">
         <v>119</v>
       </c>
       <c r="M18" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="N18" s="10" t="s">
+      <c r="N18" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="O18" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P18" s="7" t="s">
+      <c r="O18" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P18" s="10" t="s">
         <v>222</v>
       </c>
       <c r="Q18" s="17" t="b">
@@ -6073,22 +6073,22 @@
       <c r="A19" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="E19" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="10" t="s">
         <v>116</v>
       </c>
       <c r="H19" s="17" t="b">
@@ -6097,13 +6097,13 @@
       <c r="I19" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K19" s="7" t="s">
+      <c r="J19" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K19" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="9" t="s">
         <v>190</v>
       </c>
       <c r="M19" s="5" t="s">
@@ -6112,10 +6112,10 @@
       <c r="N19" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P19" s="7">
+      <c r="O19" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P19" s="10">
         <v>35</v>
       </c>
       <c r="Q19" s="17" t="b">
@@ -6127,22 +6127,22 @@
       <c r="A20" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="E20" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="10" t="s">
         <v>232</v>
       </c>
       <c r="H20" s="17" t="b">
@@ -6151,11 +6151,11 @@
       <c r="I20" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="10" t="s">
+      <c r="J20" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="10"/>
+      <c r="L20" s="9" t="s">
         <v>206</v>
       </c>
       <c r="M20" s="5" t="s">
@@ -6164,10 +6164,10 @@
       <c r="N20" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
+      <c r="O20" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P20" s="10" t="s">
         <v>209</v>
       </c>
       <c r="Q20" s="17" t="s">
@@ -6179,22 +6179,22 @@
       <c r="A21" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="E21" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="10" t="s">
         <v>116</v>
       </c>
       <c r="H21" s="17" t="b">
@@ -6203,11 +6203,11 @@
       <c r="I21" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J21" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="10" t="s">
+      <c r="J21" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K21" s="10"/>
+      <c r="L21" s="9" t="s">
         <v>237</v>
       </c>
       <c r="M21" s="5" t="s">
@@ -6216,10 +6216,10 @@
       <c r="N21" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="O21" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P21" s="7" t="s">
+      <c r="O21" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P21" s="10" t="s">
         <v>222</v>
       </c>
       <c r="Q21" s="17" t="b">
@@ -6231,22 +6231,22 @@
       <c r="A22" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="E22" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="10" t="s">
         <v>243</v>
       </c>
       <c r="H22" s="17" t="b">
@@ -6255,11 +6255,11 @@
       <c r="I22" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J22" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="10" t="s">
+      <c r="J22" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K22" s="10"/>
+      <c r="L22" s="9" t="s">
         <v>190</v>
       </c>
       <c r="M22" s="5" t="s">
@@ -6268,10 +6268,10 @@
       <c r="N22" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="O22" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P22" s="7" t="s">
+      <c r="O22" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P22" s="10" t="s">
         <v>26</v>
       </c>
       <c r="Q22" s="17" t="b">
@@ -6283,22 +6283,22 @@
       <c r="A23" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="E23" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="10" t="s">
         <v>116</v>
       </c>
       <c r="H23" s="17" t="b">
@@ -6307,11 +6307,11 @@
       <c r="I23" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="10" t="s">
+      <c r="J23" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K23" s="10"/>
+      <c r="L23" s="9" t="s">
         <v>134</v>
       </c>
       <c r="M23" s="5" t="s">
@@ -6320,10 +6320,10 @@
       <c r="N23" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="O23" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P23" s="7" t="s">
+      <c r="O23" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P23" s="10" t="s">
         <v>76</v>
       </c>
       <c r="Q23" s="17" t="b">
@@ -6335,22 +6335,22 @@
       <c r="A24" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="E24" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="10" t="s">
         <v>243</v>
       </c>
       <c r="H24" s="17" t="b">
@@ -6359,11 +6359,11 @@
       <c r="I24" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="10" t="s">
+      <c r="J24" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K24" s="10"/>
+      <c r="L24" s="9" t="s">
         <v>190</v>
       </c>
       <c r="M24" s="5" t="s">
@@ -6372,10 +6372,10 @@
       <c r="N24" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P24" s="7" t="s">
+      <c r="O24" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P24" s="10" t="s">
         <v>76</v>
       </c>
       <c r="Q24" s="17" t="b">
@@ -6387,22 +6387,22 @@
       <c r="A25" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="E25" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="10" t="s">
         <v>116</v>
       </c>
       <c r="H25" s="17" t="b">
@@ -6411,11 +6411,11 @@
       <c r="I25" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J25" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="10" t="s">
+      <c r="J25" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K25" s="10"/>
+      <c r="L25" s="9" t="s">
         <v>256</v>
       </c>
       <c r="M25" s="5" t="s">
@@ -6424,10 +6424,10 @@
       <c r="N25" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="O25" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P25" s="7">
+      <c r="O25" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P25" s="10">
         <v>35</v>
       </c>
       <c r="Q25" s="17" t="s">
@@ -6439,22 +6439,22 @@
       <c r="A26" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="E26" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="10" t="s">
         <v>243</v>
       </c>
       <c r="H26" s="17" t="b">
@@ -6463,11 +6463,11 @@
       <c r="I26" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J26" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="10" t="s">
+      <c r="J26" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K26" s="10"/>
+      <c r="L26" s="9" t="s">
         <v>134</v>
       </c>
       <c r="M26" s="5" t="s">
@@ -6476,10 +6476,10 @@
       <c r="N26" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="O26" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P26" s="7" t="s">
+      <c r="O26" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P26" s="10" t="s">
         <v>130</v>
       </c>
       <c r="Q26" s="17" t="b">
@@ -6491,22 +6491,22 @@
       <c r="A27" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" s="7" t="s">
+      <c r="E27" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="10" t="s">
         <v>267</v>
       </c>
       <c r="H27" s="17" t="b">
@@ -6515,11 +6515,11 @@
       <c r="I27" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K27" s="7"/>
-      <c r="L27" s="10" t="s">
+      <c r="J27" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K27" s="10"/>
+      <c r="L27" s="9" t="s">
         <v>134</v>
       </c>
       <c r="M27" s="5" t="s">
@@ -6528,10 +6528,10 @@
       <c r="N27" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P27" s="7" t="s">
+      <c r="O27" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P27" s="10" t="s">
         <v>26</v>
       </c>
       <c r="Q27" s="17" t="b">
@@ -6543,22 +6543,22 @@
       <c r="A28" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F28" s="7" t="s">
+      <c r="E28" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="10" t="s">
         <v>243</v>
       </c>
       <c r="H28" s="17" t="b">
@@ -6567,11 +6567,11 @@
       <c r="I28" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J28" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K28" s="7"/>
-      <c r="L28" s="10" t="s">
+      <c r="J28" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K28" s="10"/>
+      <c r="L28" s="9" t="s">
         <v>134</v>
       </c>
       <c r="M28" s="5" t="s">
@@ -6580,10 +6580,10 @@
       <c r="N28" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="O28" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P28" s="7" t="s">
+      <c r="O28" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P28" s="10" t="s">
         <v>76</v>
       </c>
       <c r="Q28" s="17" t="b">
@@ -6595,22 +6595,22 @@
       <c r="A29" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F29" s="7" t="s">
+      <c r="E29" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="10" t="s">
         <v>279</v>
       </c>
       <c r="H29" s="17" t="b">
@@ -6619,11 +6619,11 @@
       <c r="I29" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J29" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K29" s="7"/>
-      <c r="L29" s="10" t="s">
+      <c r="J29" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K29" s="10"/>
+      <c r="L29" s="9" t="s">
         <v>190</v>
       </c>
       <c r="M29" s="5" t="s">
@@ -6632,10 +6632,10 @@
       <c r="N29" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="O29" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P29" s="7" t="s">
+      <c r="O29" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P29" s="10" t="s">
         <v>282</v>
       </c>
       <c r="Q29" s="17" t="b">
@@ -6647,22 +6647,22 @@
       <c r="A30" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F30" s="7" t="s">
+      <c r="E30" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="10" t="s">
         <v>116</v>
       </c>
       <c r="H30" s="17" t="b">
@@ -6671,11 +6671,11 @@
       <c r="I30" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J30" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K30" s="7"/>
-      <c r="L30" s="10" t="s">
+      <c r="J30" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K30" s="10"/>
+      <c r="L30" s="9" t="s">
         <v>119</v>
       </c>
       <c r="M30" s="5" t="s">
@@ -6684,10 +6684,10 @@
       <c r="N30" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="O30" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P30" s="7" t="s">
+      <c r="O30" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P30" s="10" t="s">
         <v>222</v>
       </c>
       <c r="Q30" s="17" t="b">
@@ -6699,22 +6699,22 @@
       <c r="A31" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F31" s="7" t="s">
+      <c r="E31" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="10" t="s">
         <v>116</v>
       </c>
       <c r="H31" s="17" t="b">
@@ -6723,11 +6723,11 @@
       <c r="I31" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K31" s="7"/>
-      <c r="L31" s="10" t="s">
+      <c r="J31" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K31" s="10"/>
+      <c r="L31" s="9" t="s">
         <v>190</v>
       </c>
       <c r="M31" s="5" t="s">
@@ -6736,10 +6736,10 @@
       <c r="N31" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P31" s="7" t="s">
+      <c r="O31" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P31" s="10" t="s">
         <v>130</v>
       </c>
       <c r="Q31" s="17" t="b">
@@ -6751,22 +6751,22 @@
       <c r="A32" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F32" s="7" t="s">
+      <c r="E32" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="10" t="s">
         <v>116</v>
       </c>
       <c r="H32" s="17" t="b">
@@ -6775,11 +6775,11 @@
       <c r="I32" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J32" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K32" s="7"/>
-      <c r="L32" s="10" t="s">
+      <c r="J32" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K32" s="10"/>
+      <c r="L32" s="9" t="s">
         <v>119</v>
       </c>
       <c r="M32" s="5" t="s">
@@ -6788,10 +6788,10 @@
       <c r="N32" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="O32" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P32" s="7" t="s">
+      <c r="O32" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P32" s="10" t="s">
         <v>76</v>
       </c>
       <c r="Q32" s="17" t="b">
@@ -6803,22 +6803,22 @@
       <c r="A33" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F33" s="7" t="s">
+      <c r="E33" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="10" t="s">
         <v>232</v>
       </c>
       <c r="H33" s="17" t="b">
@@ -6827,11 +6827,11 @@
       <c r="I33" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J33" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K33" s="7"/>
-      <c r="L33" s="10" t="s">
+      <c r="J33" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K33" s="10"/>
+      <c r="L33" s="9" t="s">
         <v>134</v>
       </c>
       <c r="M33" s="5" t="s">
@@ -6840,10 +6840,10 @@
       <c r="N33" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="O33" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P33" s="7" t="s">
+      <c r="O33" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P33" s="10" t="s">
         <v>26</v>
       </c>
       <c r="Q33" s="17" t="s">
@@ -6855,22 +6855,22 @@
       <c r="A34" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F34" s="7" t="s">
+      <c r="E34" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G34" s="10" t="s">
         <v>116</v>
       </c>
       <c r="H34" s="17" t="b">
@@ -6879,11 +6879,11 @@
       <c r="I34" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J34" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K34" s="7"/>
-      <c r="L34" s="10" t="s">
+      <c r="J34" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K34" s="10"/>
+      <c r="L34" s="9" t="s">
         <v>134</v>
       </c>
       <c r="M34" s="5" t="s">
@@ -6892,10 +6892,10 @@
       <c r="N34" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="O34" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P34" s="7" t="s">
+      <c r="O34" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P34" s="10" t="s">
         <v>76</v>
       </c>
       <c r="Q34" s="17" t="b">
@@ -6907,22 +6907,22 @@
       <c r="A35" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F35" s="7" t="s">
+      <c r="E35" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G35" s="10" t="s">
         <v>232</v>
       </c>
       <c r="H35" s="17" t="b">
@@ -6931,11 +6931,11 @@
       <c r="I35" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J35" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K35" s="7"/>
-      <c r="L35" s="10" t="s">
+      <c r="J35" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K35" s="10"/>
+      <c r="L35" s="9" t="s">
         <v>307</v>
       </c>
       <c r="M35" s="5" t="s">
@@ -6944,10 +6944,10 @@
       <c r="N35" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="O35" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P35" s="7" t="s">
+      <c r="O35" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P35" s="10" t="s">
         <v>26</v>
       </c>
       <c r="Q35" s="17" t="b">
@@ -6959,22 +6959,22 @@
       <c r="A36" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F36" s="7" t="s">
+      <c r="E36" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="10" t="s">
         <v>116</v>
       </c>
       <c r="H36" s="17" t="b">
@@ -6983,11 +6983,11 @@
       <c r="I36" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J36" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K36" s="7"/>
-      <c r="L36" s="10" t="s">
+      <c r="J36" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K36" s="10"/>
+      <c r="L36" s="9" t="s">
         <v>119</v>
       </c>
       <c r="M36" s="5" t="s">
@@ -6996,10 +6996,10 @@
       <c r="N36" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="O36" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P36" s="7" t="s">
+      <c r="O36" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P36" s="10" t="s">
         <v>222</v>
       </c>
       <c r="Q36" s="17" t="b">
@@ -7011,22 +7011,22 @@
       <c r="A37" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F37" s="7" t="s">
+      <c r="E37" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="10" t="s">
         <v>116</v>
       </c>
       <c r="H37" s="17" t="b">
@@ -7035,11 +7035,11 @@
       <c r="I37" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J37" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K37" s="7"/>
-      <c r="L37" s="10" t="s">
+      <c r="J37" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K37" s="10"/>
+      <c r="L37" s="9" t="s">
         <v>134</v>
       </c>
       <c r="M37" s="5" t="s">
@@ -7048,10 +7048,10 @@
       <c r="N37" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="O37" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P37" s="7" t="s">
+      <c r="O37" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P37" s="10" t="s">
         <v>76</v>
       </c>
       <c r="Q37" s="17" t="s">
@@ -7063,22 +7063,22 @@
       <c r="A38" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F38" s="7" t="s">
+      <c r="E38" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G38" s="10" t="s">
         <v>279</v>
       </c>
       <c r="H38" s="17" t="b">
@@ -7087,11 +7087,11 @@
       <c r="I38" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K38" s="7"/>
-      <c r="L38" s="10" t="s">
+      <c r="J38" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K38" s="10"/>
+      <c r="L38" s="9" t="s">
         <v>134</v>
       </c>
       <c r="M38" s="5" t="s">
@@ -7100,10 +7100,10 @@
       <c r="N38" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P38" s="7" t="s">
+      <c r="O38" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P38" s="10" t="s">
         <v>222</v>
       </c>
       <c r="Q38" s="17" t="s">
@@ -8271,10 +8271,10 @@
       <c r="C64" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D64" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F64" s="14">
@@ -8289,17 +8289,17 @@
       <c r="I64" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J64" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
+      <c r="J64" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
       <c r="M64" s="5"/>
       <c r="N64" s="26"/>
-      <c r="O64" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P64" s="7" t="s">
+      <c r="O64" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P64" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q64" s="17" t="s">
@@ -8317,10 +8317,10 @@
       <c r="C65" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D65" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F65" s="14">
@@ -8335,17 +8335,17 @@
       <c r="I65" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J65" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
+      <c r="J65" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
       <c r="M65" s="5"/>
       <c r="N65" s="26"/>
-      <c r="O65" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P65" s="7" t="s">
+      <c r="O65" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P65" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q65" s="17" t="s">
@@ -8363,10 +8363,10 @@
       <c r="C66" s="14" t="s">
         <v>428</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D66" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F66" s="14">
@@ -8381,17 +8381,17 @@
       <c r="I66" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J66" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
+      <c r="J66" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
       <c r="M66" s="5"/>
       <c r="N66" s="26"/>
-      <c r="O66" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P66" s="7" t="s">
+      <c r="O66" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P66" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q66" s="17" t="s">
@@ -8409,10 +8409,10 @@
       <c r="C67" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D67" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F67" s="14">
@@ -8427,17 +8427,17 @@
       <c r="I67" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J67" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
+      <c r="J67" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
       <c r="M67" s="5"/>
       <c r="N67" s="26"/>
-      <c r="O67" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P67" s="7" t="s">
+      <c r="O67" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P67" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q67" s="17" t="s">
@@ -8455,10 +8455,10 @@
       <c r="C68" s="14" t="s">
         <v>435</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F68" s="14">
@@ -8473,17 +8473,17 @@
       <c r="I68" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J68" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
+      <c r="J68" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
       <c r="M68" s="5"/>
       <c r="N68" s="26"/>
-      <c r="O68" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P68" s="7" t="s">
+      <c r="O68" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P68" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q68" s="17" t="s">
@@ -8501,10 +8501,10 @@
       <c r="C69" s="14" t="s">
         <v>439</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F69" s="14">
@@ -8519,17 +8519,17 @@
       <c r="I69" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J69" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
+      <c r="J69" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
       <c r="M69" s="5"/>
       <c r="N69" s="26"/>
-      <c r="O69" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P69" s="7" t="s">
+      <c r="O69" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P69" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q69" s="17" t="s">
@@ -8547,10 +8547,10 @@
       <c r="C70" s="14" t="s">
         <v>443</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D70" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F70" s="14">
@@ -8565,17 +8565,17 @@
       <c r="I70" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J70" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K70" s="7"/>
-      <c r="L70" s="7"/>
+      <c r="J70" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
       <c r="M70" s="5"/>
       <c r="N70" s="26"/>
-      <c r="O70" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P70" s="7" t="s">
+      <c r="O70" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P70" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q70" s="17" t="s">
@@ -8593,10 +8593,10 @@
       <c r="C71" s="14" t="s">
         <v>446</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E71" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F71" s="14">
@@ -8611,17 +8611,17 @@
       <c r="I71" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J71" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
+      <c r="J71" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
       <c r="M71" s="5"/>
       <c r="N71" s="26"/>
-      <c r="O71" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P71" s="7" t="s">
+      <c r="O71" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P71" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q71" s="17" t="s">
@@ -8639,10 +8639,10 @@
       <c r="C72" s="14" t="s">
         <v>450</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D72" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F72" s="14">
@@ -8657,17 +8657,17 @@
       <c r="I72" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J72" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K72" s="7"/>
-      <c r="L72" s="7"/>
+      <c r="J72" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
       <c r="M72" s="5"/>
       <c r="N72" s="26"/>
-      <c r="O72" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P72" s="7" t="s">
+      <c r="O72" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P72" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q72" s="17" t="s">
@@ -8685,10 +8685,10 @@
       <c r="C73" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D73" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F73" s="14">
@@ -8703,17 +8703,17 @@
       <c r="I73" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J73" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
+      <c r="J73" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
       <c r="M73" s="5"/>
       <c r="N73" s="26"/>
-      <c r="O73" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P73" s="7" t="s">
+      <c r="O73" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P73" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q73" s="17" t="s">
@@ -8731,10 +8731,10 @@
       <c r="C74" s="14" t="s">
         <v>456</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D74" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F74" s="14">
@@ -8749,17 +8749,17 @@
       <c r="I74" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J74" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K74" s="7"/>
-      <c r="L74" s="7"/>
+      <c r="J74" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
       <c r="M74" s="5"/>
       <c r="N74" s="26"/>
-      <c r="O74" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P74" s="7" t="s">
+      <c r="O74" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P74" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q74" s="17" t="s">
@@ -8777,10 +8777,10 @@
       <c r="C75" s="14" t="s">
         <v>460</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D75" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E75" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F75" s="14">
@@ -8795,17 +8795,17 @@
       <c r="I75" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J75" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
+      <c r="J75" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
       <c r="M75" s="5"/>
       <c r="N75" s="26"/>
-      <c r="O75" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P75" s="7" t="s">
+      <c r="O75" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P75" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q75" s="17" t="s">
@@ -8823,10 +8823,10 @@
       <c r="C76" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="D76" s="9" t="s">
+      <c r="D76" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E76" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F76" s="14">
@@ -8841,17 +8841,17 @@
       <c r="I76" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J76" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K76" s="7"/>
-      <c r="L76" s="7"/>
+      <c r="J76" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
       <c r="M76" s="5"/>
       <c r="N76" s="26"/>
-      <c r="O76" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P76" s="7" t="s">
+      <c r="O76" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P76" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q76" s="17" t="s">
@@ -8869,10 +8869,10 @@
       <c r="C77" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="D77" s="9" t="s">
+      <c r="D77" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="E77" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F77" s="14">
@@ -8887,17 +8887,17 @@
       <c r="I77" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J77" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
+      <c r="J77" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
       <c r="M77" s="5"/>
       <c r="N77" s="26"/>
-      <c r="O77" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P77" s="7" t="s">
+      <c r="O77" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P77" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q77" s="17" t="s">
@@ -8915,10 +8915,10 @@
       <c r="C78" s="14" t="s">
         <v>473</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="D78" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E78" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F78" s="14">
@@ -8933,17 +8933,17 @@
       <c r="I78" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J78" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K78" s="7"/>
-      <c r="L78" s="7"/>
+      <c r="J78" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
       <c r="M78" s="5"/>
       <c r="N78" s="26"/>
-      <c r="O78" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P78" s="7" t="s">
+      <c r="O78" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P78" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q78" s="17" t="s">
@@ -8961,10 +8961,10 @@
       <c r="C79" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="D79" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E79" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F79" s="14">
@@ -8979,17 +8979,17 @@
       <c r="I79" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J79" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K79" s="7"/>
-      <c r="L79" s="7"/>
+      <c r="J79" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
       <c r="M79" s="5"/>
       <c r="N79" s="26"/>
-      <c r="O79" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P79" s="7" t="s">
+      <c r="O79" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P79" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q79" s="17" t="s">
@@ -9007,10 +9007,10 @@
       <c r="C80" s="14" t="s">
         <v>480</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="D80" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="E80" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F80" s="14">
@@ -9025,17 +9025,17 @@
       <c r="I80" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J80" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K80" s="7"/>
-      <c r="L80" s="7"/>
+      <c r="J80" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
       <c r="M80" s="5"/>
       <c r="N80" s="26"/>
-      <c r="O80" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P80" s="7" t="s">
+      <c r="O80" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P80" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q80" s="17" t="s">
@@ -9053,10 +9053,10 @@
       <c r="C81" s="14" t="s">
         <v>483</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D81" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="E81" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F81" s="14">
@@ -9071,17 +9071,17 @@
       <c r="I81" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J81" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K81" s="7"/>
-      <c r="L81" s="7"/>
+      <c r="J81" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
       <c r="M81" s="5"/>
       <c r="N81" s="26"/>
-      <c r="O81" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P81" s="7" t="s">
+      <c r="O81" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P81" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q81" s="17" t="s">
@@ -9099,10 +9099,10 @@
       <c r="C82" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="D82" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E82" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F82" s="14">
@@ -9117,17 +9117,17 @@
       <c r="I82" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J82" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K82" s="7"/>
-      <c r="L82" s="7"/>
+      <c r="J82" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10"/>
       <c r="M82" s="5"/>
       <c r="N82" s="26"/>
-      <c r="O82" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P82" s="7" t="s">
+      <c r="O82" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P82" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q82" s="17" t="s">
@@ -9145,10 +9145,10 @@
       <c r="C83" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="D83" s="9" t="s">
+      <c r="D83" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="E83" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F83" s="14">
@@ -9163,17 +9163,17 @@
       <c r="I83" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J83" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K83" s="7"/>
-      <c r="L83" s="7"/>
+      <c r="J83" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K83" s="10"/>
+      <c r="L83" s="10"/>
       <c r="M83" s="5"/>
       <c r="N83" s="26"/>
-      <c r="O83" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P83" s="7" t="s">
+      <c r="O83" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P83" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q83" s="17" t="s">
@@ -9191,10 +9191,10 @@
       <c r="C84" s="14" t="s">
         <v>494</v>
       </c>
-      <c r="D84" s="9" t="s">
+      <c r="D84" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E84" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F84" s="14">
@@ -9209,17 +9209,17 @@
       <c r="I84" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J84" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K84" s="7"/>
-      <c r="L84" s="7"/>
+      <c r="J84" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K84" s="10"/>
+      <c r="L84" s="10"/>
       <c r="M84" s="5"/>
       <c r="N84" s="26"/>
-      <c r="O84" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P84" s="7" t="s">
+      <c r="O84" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P84" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q84" s="17" t="s">
@@ -9237,10 +9237,10 @@
       <c r="C85" s="14" t="s">
         <v>498</v>
       </c>
-      <c r="D85" s="9" t="s">
+      <c r="D85" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="E85" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F85" s="14">
@@ -9255,17 +9255,17 @@
       <c r="I85" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J85" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K85" s="7"/>
-      <c r="L85" s="7"/>
+      <c r="J85" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
       <c r="M85" s="5"/>
       <c r="N85" s="26"/>
-      <c r="O85" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P85" s="7" t="s">
+      <c r="O85" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P85" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q85" s="17" t="s">
@@ -9283,10 +9283,10 @@
       <c r="C86" s="14" t="s">
         <v>502</v>
       </c>
-      <c r="D86" s="9" t="s">
+      <c r="D86" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E86" s="7" t="s">
+      <c r="E86" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F86" s="14">
@@ -9301,17 +9301,17 @@
       <c r="I86" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J86" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K86" s="7"/>
-      <c r="L86" s="7"/>
+      <c r="J86" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
       <c r="M86" s="5"/>
       <c r="N86" s="26"/>
-      <c r="O86" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P86" s="7" t="s">
+      <c r="O86" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P86" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q86" s="17" t="s">
@@ -9329,10 +9329,10 @@
       <c r="C87" s="14" t="s">
         <v>506</v>
       </c>
-      <c r="D87" s="9" t="s">
+      <c r="D87" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="E87" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F87" s="14">
@@ -9347,17 +9347,17 @@
       <c r="I87" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J87" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K87" s="7"/>
-      <c r="L87" s="7"/>
+      <c r="J87" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K87" s="10"/>
+      <c r="L87" s="10"/>
       <c r="M87" s="5"/>
       <c r="N87" s="26"/>
-      <c r="O87" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P87" s="7" t="s">
+      <c r="O87" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P87" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q87" s="17" t="s">
@@ -9375,10 +9375,10 @@
       <c r="C88" s="14" t="s">
         <v>510</v>
       </c>
-      <c r="D88" s="9" t="s">
+      <c r="D88" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E88" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F88" s="14">
@@ -9393,17 +9393,17 @@
       <c r="I88" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J88" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K88" s="7"/>
-      <c r="L88" s="7"/>
+      <c r="J88" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
       <c r="M88" s="5"/>
       <c r="N88" s="26"/>
-      <c r="O88" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P88" s="7" t="s">
+      <c r="O88" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P88" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q88" s="17" t="s">
@@ -9421,10 +9421,10 @@
       <c r="C89" s="14" t="s">
         <v>513</v>
       </c>
-      <c r="D89" s="9" t="s">
+      <c r="D89" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="E89" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F89" s="14">
@@ -9439,17 +9439,17 @@
       <c r="I89" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J89" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K89" s="7"/>
-      <c r="L89" s="7"/>
+      <c r="J89" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
       <c r="M89" s="5"/>
       <c r="N89" s="26"/>
-      <c r="O89" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P89" s="7" t="s">
+      <c r="O89" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P89" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q89" s="17" t="s">
@@ -9464,13 +9464,13 @@
       <c r="B90" s="30" t="s">
         <v>516</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C90" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="D90" s="9" t="s">
+      <c r="D90" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="E90" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F90" s="14">
@@ -9485,17 +9485,17 @@
       <c r="I90" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J90" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K90" s="7"/>
-      <c r="L90" s="7"/>
+      <c r="J90" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K90" s="10"/>
+      <c r="L90" s="10"/>
       <c r="M90" s="5"/>
       <c r="N90" s="26"/>
-      <c r="O90" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P90" s="7" t="s">
+      <c r="O90" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P90" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q90" s="17" t="s">
@@ -9513,10 +9513,10 @@
       <c r="C91" s="14" t="s">
         <v>520</v>
       </c>
-      <c r="D91" s="9" t="s">
+      <c r="D91" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E91" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F91" s="14">
@@ -9531,17 +9531,17 @@
       <c r="I91" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J91" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K91" s="7"/>
-      <c r="L91" s="7"/>
+      <c r="J91" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K91" s="10"/>
+      <c r="L91" s="10"/>
       <c r="M91" s="5"/>
       <c r="N91" s="26"/>
-      <c r="O91" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P91" s="7" t="s">
+      <c r="O91" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P91" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q91" s="17" t="s">
@@ -9559,10 +9559,10 @@
       <c r="C92" s="14" t="s">
         <v>524</v>
       </c>
-      <c r="D92" s="9" t="s">
+      <c r="D92" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="E92" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F92" s="14">
@@ -9577,17 +9577,17 @@
       <c r="I92" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J92" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K92" s="7"/>
-      <c r="L92" s="7"/>
+      <c r="J92" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K92" s="10"/>
+      <c r="L92" s="10"/>
       <c r="M92" s="5"/>
       <c r="N92" s="26"/>
-      <c r="O92" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P92" s="7" t="s">
+      <c r="O92" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P92" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q92" s="17" t="s">
@@ -9605,10 +9605,10 @@
       <c r="C93" s="14" t="s">
         <v>528</v>
       </c>
-      <c r="D93" s="9" t="s">
+      <c r="D93" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E93" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F93" s="14">
@@ -9623,17 +9623,17 @@
       <c r="I93" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J93" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K93" s="7"/>
-      <c r="L93" s="7"/>
+      <c r="J93" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K93" s="10"/>
+      <c r="L93" s="10"/>
       <c r="M93" s="5"/>
       <c r="N93" s="26"/>
-      <c r="O93" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P93" s="7" t="s">
+      <c r="O93" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P93" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q93" s="17" t="s">
@@ -9651,10 +9651,10 @@
       <c r="C94" s="14" t="s">
         <v>532</v>
       </c>
-      <c r="D94" s="9" t="s">
+      <c r="D94" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E94" s="7" t="s">
+      <c r="E94" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F94" s="14">
@@ -9669,17 +9669,17 @@
       <c r="I94" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J94" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K94" s="7"/>
-      <c r="L94" s="7"/>
+      <c r="J94" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K94" s="10"/>
+      <c r="L94" s="10"/>
       <c r="M94" s="5"/>
       <c r="N94" s="26"/>
-      <c r="O94" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P94" s="7" t="s">
+      <c r="O94" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P94" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q94" s="17" t="s">
@@ -9697,10 +9697,10 @@
       <c r="C95" s="14" t="s">
         <v>536</v>
       </c>
-      <c r="D95" s="9" t="s">
+      <c r="D95" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="E95" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F95" s="14">
@@ -9715,17 +9715,17 @@
       <c r="I95" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J95" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K95" s="7"/>
-      <c r="L95" s="7"/>
+      <c r="J95" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K95" s="10"/>
+      <c r="L95" s="10"/>
       <c r="M95" s="5"/>
       <c r="N95" s="26"/>
-      <c r="O95" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P95" s="7" t="s">
+      <c r="O95" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P95" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q95" s="17" t="s">
@@ -9743,10 +9743,10 @@
       <c r="C96" s="14" t="s">
         <v>540</v>
       </c>
-      <c r="D96" s="9" t="s">
+      <c r="D96" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="E96" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F96" s="14">
@@ -9761,17 +9761,17 @@
       <c r="I96" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J96" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K96" s="7"/>
-      <c r="L96" s="7"/>
+      <c r="J96" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K96" s="10"/>
+      <c r="L96" s="10"/>
       <c r="M96" s="5"/>
       <c r="N96" s="26"/>
-      <c r="O96" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P96" s="7" t="s">
+      <c r="O96" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P96" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q96" s="17" t="s">
@@ -9789,10 +9789,10 @@
       <c r="C97" s="14" t="s">
         <v>544</v>
       </c>
-      <c r="D97" s="9" t="s">
+      <c r="D97" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="E97" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F97" s="14">
@@ -9807,17 +9807,17 @@
       <c r="I97" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J97" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K97" s="7"/>
-      <c r="L97" s="7"/>
+      <c r="J97" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K97" s="10"/>
+      <c r="L97" s="10"/>
       <c r="M97" s="5"/>
       <c r="N97" s="26"/>
-      <c r="O97" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P97" s="7" t="s">
+      <c r="O97" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P97" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q97" s="17" t="s">
@@ -9835,10 +9835,10 @@
       <c r="C98" s="14" t="s">
         <v>548</v>
       </c>
-      <c r="D98" s="9" t="s">
+      <c r="D98" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="E98" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F98" s="14">
@@ -9853,17 +9853,17 @@
       <c r="I98" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J98" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K98" s="7"/>
-      <c r="L98" s="7"/>
+      <c r="J98" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K98" s="10"/>
+      <c r="L98" s="10"/>
       <c r="M98" s="5"/>
       <c r="N98" s="26"/>
-      <c r="O98" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P98" s="7" t="s">
+      <c r="O98" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P98" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q98" s="17" t="s">
@@ -9881,10 +9881,10 @@
       <c r="C99" s="14" t="s">
         <v>550</v>
       </c>
-      <c r="D99" s="9" t="s">
+      <c r="D99" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="E99" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F99" s="14">
@@ -9899,17 +9899,17 @@
       <c r="I99" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J99" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K99" s="7"/>
-      <c r="L99" s="7"/>
+      <c r="J99" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K99" s="10"/>
+      <c r="L99" s="10"/>
       <c r="M99" s="5"/>
       <c r="N99" s="26"/>
-      <c r="O99" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P99" s="7" t="s">
+      <c r="O99" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P99" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q99" s="17" t="s">
@@ -9927,10 +9927,10 @@
       <c r="C100" s="14" t="s">
         <v>554</v>
       </c>
-      <c r="D100" s="9" t="s">
+      <c r="D100" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="E100" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F100" s="14">
@@ -9945,17 +9945,17 @@
       <c r="I100" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J100" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K100" s="7"/>
-      <c r="L100" s="7"/>
+      <c r="J100" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K100" s="10"/>
+      <c r="L100" s="10"/>
       <c r="M100" s="5"/>
       <c r="N100" s="26"/>
-      <c r="O100" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P100" s="7" t="s">
+      <c r="O100" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P100" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q100" s="17" t="s">
@@ -9973,10 +9973,10 @@
       <c r="C101" s="14" t="s">
         <v>558</v>
       </c>
-      <c r="D101" s="9" t="s">
+      <c r="D101" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="E101" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F101" s="14">
@@ -9991,17 +9991,17 @@
       <c r="I101" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J101" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K101" s="7"/>
-      <c r="L101" s="7"/>
+      <c r="J101" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K101" s="10"/>
+      <c r="L101" s="10"/>
       <c r="M101" s="5"/>
       <c r="N101" s="26"/>
-      <c r="O101" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P101" s="7" t="s">
+      <c r="O101" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P101" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q101" s="17" t="s">
@@ -10019,10 +10019,10 @@
       <c r="C102" s="14" t="s">
         <v>562</v>
       </c>
-      <c r="D102" s="9" t="s">
+      <c r="D102" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="E102" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F102" s="14">
@@ -10037,17 +10037,17 @@
       <c r="I102" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J102" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K102" s="7"/>
-      <c r="L102" s="7"/>
+      <c r="J102" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K102" s="10"/>
+      <c r="L102" s="10"/>
       <c r="M102" s="5"/>
       <c r="N102" s="26"/>
-      <c r="O102" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P102" s="7" t="s">
+      <c r="O102" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P102" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q102" s="17" t="s">
@@ -10065,10 +10065,10 @@
       <c r="C103" s="14" t="s">
         <v>565</v>
       </c>
-      <c r="D103" s="9" t="s">
+      <c r="D103" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="E103" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F103" s="14">
@@ -10083,17 +10083,17 @@
       <c r="I103" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J103" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K103" s="7"/>
-      <c r="L103" s="7"/>
+      <c r="J103" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K103" s="10"/>
+      <c r="L103" s="10"/>
       <c r="M103" s="5"/>
       <c r="N103" s="26"/>
-      <c r="O103" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P103" s="7" t="s">
+      <c r="O103" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P103" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q103" s="17" t="s">
@@ -10111,10 +10111,10 @@
       <c r="C104" s="14" t="s">
         <v>569</v>
       </c>
-      <c r="D104" s="9" t="s">
+      <c r="D104" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="E104" s="7" t="s">
+      <c r="E104" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F104" s="14">
@@ -10129,17 +10129,17 @@
       <c r="I104" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J104" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K104" s="7"/>
-      <c r="L104" s="7"/>
+      <c r="J104" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K104" s="10"/>
+      <c r="L104" s="10"/>
       <c r="M104" s="5"/>
       <c r="N104" s="26"/>
-      <c r="O104" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P104" s="7" t="s">
+      <c r="O104" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P104" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q104" s="17" t="s">
@@ -10157,10 +10157,10 @@
       <c r="C105" s="14" t="s">
         <v>574</v>
       </c>
-      <c r="D105" s="9" t="s">
+      <c r="D105" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="E105" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F105" s="14">
@@ -10175,17 +10175,17 @@
       <c r="I105" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J105" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K105" s="7"/>
-      <c r="L105" s="7"/>
+      <c r="J105" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K105" s="10"/>
+      <c r="L105" s="10"/>
       <c r="M105" s="5"/>
       <c r="N105" s="26"/>
-      <c r="O105" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P105" s="7" t="s">
+      <c r="O105" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P105" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q105" s="17" t="s">
@@ -10203,10 +10203,10 @@
       <c r="C106" s="14" t="s">
         <v>578</v>
       </c>
-      <c r="D106" s="9" t="s">
+      <c r="D106" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E106" s="7" t="s">
+      <c r="E106" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F106" s="14">
@@ -10221,17 +10221,17 @@
       <c r="I106" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J106" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K106" s="7"/>
-      <c r="L106" s="7"/>
+      <c r="J106" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K106" s="10"/>
+      <c r="L106" s="10"/>
       <c r="M106" s="5"/>
       <c r="N106" s="26"/>
-      <c r="O106" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P106" s="7" t="s">
+      <c r="O106" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P106" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q106" s="17" t="s">
@@ -10249,10 +10249,10 @@
       <c r="C107" s="14" t="s">
         <v>582</v>
       </c>
-      <c r="D107" s="9" t="s">
+      <c r="D107" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E107" s="7" t="s">
+      <c r="E107" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F107" s="14">
@@ -10267,17 +10267,17 @@
       <c r="I107" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J107" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K107" s="7"/>
-      <c r="L107" s="7"/>
+      <c r="J107" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K107" s="10"/>
+      <c r="L107" s="10"/>
       <c r="M107" s="5"/>
       <c r="N107" s="26"/>
-      <c r="O107" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P107" s="7" t="s">
+      <c r="O107" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P107" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q107" s="17" t="s">
@@ -10295,10 +10295,10 @@
       <c r="C108" s="14" t="s">
         <v>586</v>
       </c>
-      <c r="D108" s="9" t="s">
+      <c r="D108" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E108" s="7" t="s">
+      <c r="E108" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F108" s="14">
@@ -10313,17 +10313,17 @@
       <c r="I108" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J108" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K108" s="7"/>
-      <c r="L108" s="7"/>
+      <c r="J108" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K108" s="10"/>
+      <c r="L108" s="10"/>
       <c r="M108" s="5"/>
       <c r="N108" s="26"/>
-      <c r="O108" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P108" s="7" t="s">
+      <c r="O108" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P108" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q108" s="17" t="s">
@@ -10341,10 +10341,10 @@
       <c r="C109" s="14" t="s">
         <v>590</v>
       </c>
-      <c r="D109" s="9" t="s">
+      <c r="D109" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E109" s="7" t="s">
+      <c r="E109" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F109" s="14">
@@ -10359,17 +10359,17 @@
       <c r="I109" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J109" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K109" s="7"/>
-      <c r="L109" s="7"/>
+      <c r="J109" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K109" s="10"/>
+      <c r="L109" s="10"/>
       <c r="M109" s="5"/>
       <c r="N109" s="26"/>
-      <c r="O109" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P109" s="7" t="s">
+      <c r="O109" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P109" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q109" s="17" t="s">
@@ -10387,10 +10387,10 @@
       <c r="C110" s="14" t="s">
         <v>594</v>
       </c>
-      <c r="D110" s="9" t="s">
+      <c r="D110" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E110" s="7" t="s">
+      <c r="E110" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F110" s="14">
@@ -10405,17 +10405,17 @@
       <c r="I110" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J110" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K110" s="7"/>
-      <c r="L110" s="7"/>
+      <c r="J110" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K110" s="10"/>
+      <c r="L110" s="10"/>
       <c r="M110" s="5"/>
       <c r="N110" s="26"/>
-      <c r="O110" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P110" s="7" t="s">
+      <c r="O110" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P110" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q110" s="17" t="s">
@@ -10433,10 +10433,10 @@
       <c r="C111" s="14" t="s">
         <v>597</v>
       </c>
-      <c r="D111" s="9" t="s">
+      <c r="D111" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E111" s="7" t="s">
+      <c r="E111" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F111" s="14">
@@ -10451,17 +10451,17 @@
       <c r="I111" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J111" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K111" s="7"/>
-      <c r="L111" s="7"/>
+      <c r="J111" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K111" s="10"/>
+      <c r="L111" s="10"/>
       <c r="M111" s="5"/>
       <c r="N111" s="26"/>
-      <c r="O111" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P111" s="7" t="s">
+      <c r="O111" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P111" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q111" s="17" t="s">
@@ -10479,10 +10479,10 @@
       <c r="C112" s="14" t="s">
         <v>600</v>
       </c>
-      <c r="D112" s="9" t="s">
+      <c r="D112" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E112" s="7" t="s">
+      <c r="E112" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F112" s="14">
@@ -10497,17 +10497,17 @@
       <c r="I112" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J112" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K112" s="7"/>
-      <c r="L112" s="7"/>
+      <c r="J112" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K112" s="10"/>
+      <c r="L112" s="10"/>
       <c r="M112" s="5"/>
       <c r="N112" s="26"/>
-      <c r="O112" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P112" s="7" t="s">
+      <c r="O112" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P112" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q112" s="17" t="s">
@@ -10525,10 +10525,10 @@
       <c r="C113" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="D113" s="9" t="s">
+      <c r="D113" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E113" s="7" t="s">
+      <c r="E113" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F113" s="14">
@@ -10543,17 +10543,17 @@
       <c r="I113" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J113" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K113" s="7"/>
-      <c r="L113" s="7"/>
+      <c r="J113" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K113" s="10"/>
+      <c r="L113" s="10"/>
       <c r="M113" s="5"/>
       <c r="N113" s="26"/>
-      <c r="O113" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P113" s="7" t="s">
+      <c r="O113" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P113" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q113" s="17" t="s">
@@ -10571,10 +10571,10 @@
       <c r="C114" s="14" t="s">
         <v>608</v>
       </c>
-      <c r="D114" s="9" t="s">
+      <c r="D114" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E114" s="7" t="s">
+      <c r="E114" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F114" s="14">
@@ -10589,17 +10589,17 @@
       <c r="I114" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J114" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K114" s="7"/>
-      <c r="L114" s="7"/>
+      <c r="J114" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K114" s="10"/>
+      <c r="L114" s="10"/>
       <c r="M114" s="5"/>
       <c r="N114" s="26"/>
-      <c r="O114" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P114" s="7" t="s">
+      <c r="O114" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P114" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q114" s="17" t="s">
@@ -10617,10 +10617,10 @@
       <c r="C115" s="14" t="s">
         <v>612</v>
       </c>
-      <c r="D115" s="9" t="s">
+      <c r="D115" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E115" s="7" t="s">
+      <c r="E115" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F115" s="14">
@@ -10635,17 +10635,17 @@
       <c r="I115" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J115" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K115" s="7"/>
-      <c r="L115" s="7"/>
+      <c r="J115" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K115" s="10"/>
+      <c r="L115" s="10"/>
       <c r="M115" s="5"/>
       <c r="N115" s="26"/>
-      <c r="O115" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P115" s="7" t="s">
+      <c r="O115" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P115" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q115" s="17" t="s">
@@ -10663,10 +10663,10 @@
       <c r="C116" s="14" t="s">
         <v>615</v>
       </c>
-      <c r="D116" s="9" t="s">
+      <c r="D116" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E116" s="7" t="s">
+      <c r="E116" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F116" s="14">
@@ -10681,17 +10681,17 @@
       <c r="I116" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J116" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K116" s="7"/>
-      <c r="L116" s="7"/>
+      <c r="J116" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K116" s="10"/>
+      <c r="L116" s="10"/>
       <c r="M116" s="5"/>
       <c r="N116" s="26"/>
-      <c r="O116" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P116" s="7" t="s">
+      <c r="O116" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P116" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q116" s="17" t="s">
@@ -10709,10 +10709,10 @@
       <c r="C117" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="D117" s="9" t="s">
+      <c r="D117" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E117" s="7" t="s">
+      <c r="E117" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F117" s="14">
@@ -10727,17 +10727,17 @@
       <c r="I117" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J117" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K117" s="7"/>
-      <c r="L117" s="7"/>
+      <c r="J117" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K117" s="10"/>
+      <c r="L117" s="10"/>
       <c r="M117" s="5"/>
       <c r="N117" s="26"/>
-      <c r="O117" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P117" s="7" t="s">
+      <c r="O117" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P117" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q117" s="17" t="s">
@@ -10755,10 +10755,10 @@
       <c r="C118" s="14" t="s">
         <v>623</v>
       </c>
-      <c r="D118" s="9" t="s">
+      <c r="D118" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E118" s="7" t="s">
+      <c r="E118" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F118" s="14">
@@ -10773,17 +10773,17 @@
       <c r="I118" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J118" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K118" s="7"/>
-      <c r="L118" s="7"/>
+      <c r="J118" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K118" s="10"/>
+      <c r="L118" s="10"/>
       <c r="M118" s="5"/>
       <c r="N118" s="26"/>
-      <c r="O118" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P118" s="7" t="s">
+      <c r="O118" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P118" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q118" s="17" t="s">
@@ -10801,10 +10801,10 @@
       <c r="C119" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="D119" s="9" t="s">
+      <c r="D119" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E119" s="7" t="s">
+      <c r="E119" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F119" s="14">
@@ -10819,17 +10819,17 @@
       <c r="I119" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J119" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K119" s="7"/>
-      <c r="L119" s="7"/>
+      <c r="J119" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K119" s="10"/>
+      <c r="L119" s="10"/>
       <c r="M119" s="5"/>
       <c r="N119" s="26"/>
-      <c r="O119" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P119" s="7" t="s">
+      <c r="O119" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P119" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q119" s="17" t="s">
@@ -10847,10 +10847,10 @@
       <c r="C120" s="14" t="s">
         <v>630</v>
       </c>
-      <c r="D120" s="9" t="s">
+      <c r="D120" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E120" s="7" t="s">
+      <c r="E120" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F120" s="14">
@@ -10865,17 +10865,17 @@
       <c r="I120" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J120" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K120" s="7"/>
-      <c r="L120" s="7"/>
+      <c r="J120" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K120" s="10"/>
+      <c r="L120" s="10"/>
       <c r="M120" s="5"/>
       <c r="N120" s="26"/>
-      <c r="O120" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P120" s="7" t="s">
+      <c r="O120" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P120" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q120" s="17" t="s">
@@ -10893,10 +10893,10 @@
       <c r="C121" s="14" t="s">
         <v>633</v>
       </c>
-      <c r="D121" s="9" t="s">
+      <c r="D121" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E121" s="7" t="s">
+      <c r="E121" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F121" s="14">
@@ -10911,17 +10911,17 @@
       <c r="I121" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J121" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K121" s="7"/>
-      <c r="L121" s="7"/>
+      <c r="J121" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K121" s="10"/>
+      <c r="L121" s="10"/>
       <c r="M121" s="5"/>
       <c r="N121" s="26"/>
-      <c r="O121" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P121" s="7" t="s">
+      <c r="O121" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P121" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q121" s="17" t="s">
@@ -10939,10 +10939,10 @@
       <c r="C122" s="14" t="s">
         <v>636</v>
       </c>
-      <c r="D122" s="9" t="s">
+      <c r="D122" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E122" s="7" t="s">
+      <c r="E122" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F122" s="14">
@@ -10957,17 +10957,17 @@
       <c r="I122" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J122" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K122" s="7"/>
-      <c r="L122" s="7"/>
+      <c r="J122" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K122" s="10"/>
+      <c r="L122" s="10"/>
       <c r="M122" s="5"/>
       <c r="N122" s="26"/>
-      <c r="O122" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P122" s="7" t="s">
+      <c r="O122" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P122" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q122" s="17" t="s">
@@ -10985,10 +10985,10 @@
       <c r="C123" s="14" t="s">
         <v>640</v>
       </c>
-      <c r="D123" s="9" t="s">
+      <c r="D123" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E123" s="7" t="s">
+      <c r="E123" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F123" s="14">
@@ -11003,17 +11003,17 @@
       <c r="I123" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J123" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K123" s="7"/>
-      <c r="L123" s="7"/>
+      <c r="J123" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K123" s="10"/>
+      <c r="L123" s="10"/>
       <c r="M123" s="5"/>
       <c r="N123" s="26"/>
-      <c r="O123" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P123" s="7" t="s">
+      <c r="O123" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P123" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q123" s="17" t="s">
@@ -11031,10 +11031,10 @@
       <c r="C124" s="14" t="s">
         <v>643</v>
       </c>
-      <c r="D124" s="9" t="s">
+      <c r="D124" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E124" s="7" t="s">
+      <c r="E124" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F124" s="14">
@@ -11049,17 +11049,17 @@
       <c r="I124" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J124" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K124" s="7"/>
-      <c r="L124" s="7"/>
+      <c r="J124" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K124" s="10"/>
+      <c r="L124" s="10"/>
       <c r="M124" s="5"/>
       <c r="N124" s="26"/>
-      <c r="O124" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P124" s="7" t="s">
+      <c r="O124" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P124" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q124" s="17" t="s">
@@ -11077,10 +11077,10 @@
       <c r="C125" s="14" t="s">
         <v>647</v>
       </c>
-      <c r="D125" s="9" t="s">
+      <c r="D125" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E125" s="7" t="s">
+      <c r="E125" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F125" s="14">
@@ -11095,17 +11095,17 @@
       <c r="I125" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J125" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K125" s="7"/>
-      <c r="L125" s="7"/>
+      <c r="J125" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K125" s="10"/>
+      <c r="L125" s="10"/>
       <c r="M125" s="5"/>
       <c r="N125" s="26"/>
-      <c r="O125" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P125" s="7" t="s">
+      <c r="O125" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P125" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q125" s="17" t="s">
@@ -11123,10 +11123,10 @@
       <c r="C126" s="14" t="s">
         <v>651</v>
       </c>
-      <c r="D126" s="9" t="s">
+      <c r="D126" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E126" s="7" t="s">
+      <c r="E126" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F126" s="14">
@@ -11141,17 +11141,17 @@
       <c r="I126" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J126" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K126" s="7"/>
-      <c r="L126" s="7"/>
+      <c r="J126" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K126" s="10"/>
+      <c r="L126" s="10"/>
       <c r="M126" s="5"/>
       <c r="N126" s="26"/>
-      <c r="O126" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P126" s="7" t="s">
+      <c r="O126" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P126" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q126" s="17" t="s">
@@ -11169,10 +11169,10 @@
       <c r="C127" s="14" t="s">
         <v>655</v>
       </c>
-      <c r="D127" s="9" t="s">
+      <c r="D127" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E127" s="7" t="s">
+      <c r="E127" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F127" s="14">
@@ -11187,17 +11187,17 @@
       <c r="I127" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J127" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K127" s="7"/>
-      <c r="L127" s="7"/>
+      <c r="J127" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K127" s="10"/>
+      <c r="L127" s="10"/>
       <c r="M127" s="5"/>
       <c r="N127" s="26"/>
-      <c r="O127" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P127" s="7" t="s">
+      <c r="O127" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P127" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q127" s="17" t="s">
@@ -11215,10 +11215,10 @@
       <c r="C128" s="14" t="s">
         <v>659</v>
       </c>
-      <c r="D128" s="9" t="s">
+      <c r="D128" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E128" s="7" t="s">
+      <c r="E128" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F128" s="14">
@@ -11233,17 +11233,17 @@
       <c r="I128" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J128" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K128" s="7"/>
-      <c r="L128" s="7"/>
+      <c r="J128" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K128" s="10"/>
+      <c r="L128" s="10"/>
       <c r="M128" s="5"/>
       <c r="N128" s="26"/>
-      <c r="O128" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P128" s="7" t="s">
+      <c r="O128" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P128" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q128" s="17" t="s">
@@ -11261,10 +11261,10 @@
       <c r="C129" s="14" t="s">
         <v>663</v>
       </c>
-      <c r="D129" s="9" t="s">
+      <c r="D129" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E129" s="7" t="s">
+      <c r="E129" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F129" s="14">
@@ -11279,17 +11279,17 @@
       <c r="I129" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J129" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K129" s="7"/>
-      <c r="L129" s="7"/>
+      <c r="J129" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K129" s="10"/>
+      <c r="L129" s="10"/>
       <c r="M129" s="5"/>
       <c r="N129" s="26"/>
-      <c r="O129" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P129" s="7" t="s">
+      <c r="O129" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P129" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q129" s="17" t="s">
@@ -11307,10 +11307,10 @@
       <c r="C130" s="14" t="s">
         <v>666</v>
       </c>
-      <c r="D130" s="9" t="s">
+      <c r="D130" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E130" s="7" t="s">
+      <c r="E130" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F130" s="14">
@@ -11325,17 +11325,17 @@
       <c r="I130" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J130" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K130" s="7"/>
-      <c r="L130" s="7"/>
+      <c r="J130" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K130" s="10"/>
+      <c r="L130" s="10"/>
       <c r="M130" s="5"/>
       <c r="N130" s="26"/>
-      <c r="O130" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P130" s="7" t="s">
+      <c r="O130" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P130" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q130" s="17" t="s">
@@ -11353,10 +11353,10 @@
       <c r="C131" s="14" t="s">
         <v>670</v>
       </c>
-      <c r="D131" s="9" t="s">
+      <c r="D131" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E131" s="7" t="s">
+      <c r="E131" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F131" s="14">
@@ -11371,17 +11371,17 @@
       <c r="I131" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J131" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K131" s="7"/>
-      <c r="L131" s="7"/>
+      <c r="J131" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K131" s="10"/>
+      <c r="L131" s="10"/>
       <c r="M131" s="5"/>
       <c r="N131" s="26"/>
-      <c r="O131" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P131" s="7" t="s">
+      <c r="O131" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P131" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q131" s="17" t="s">
@@ -11399,10 +11399,10 @@
       <c r="C132" s="14" t="s">
         <v>674</v>
       </c>
-      <c r="D132" s="9" t="s">
+      <c r="D132" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E132" s="7" t="s">
+      <c r="E132" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F132" s="14">
@@ -11417,17 +11417,17 @@
       <c r="I132" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J132" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K132" s="7"/>
-      <c r="L132" s="7"/>
+      <c r="J132" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K132" s="10"/>
+      <c r="L132" s="10"/>
       <c r="M132" s="5"/>
       <c r="N132" s="26"/>
-      <c r="O132" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P132" s="7" t="s">
+      <c r="O132" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P132" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q132" s="17" t="s">
@@ -11445,10 +11445,10 @@
       <c r="C133" s="14" t="s">
         <v>677</v>
       </c>
-      <c r="D133" s="9" t="s">
+      <c r="D133" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E133" s="7" t="s">
+      <c r="E133" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F133" s="14">
@@ -11463,17 +11463,17 @@
       <c r="I133" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J133" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K133" s="7"/>
-      <c r="L133" s="7"/>
+      <c r="J133" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K133" s="10"/>
+      <c r="L133" s="10"/>
       <c r="M133" s="5"/>
       <c r="N133" s="26"/>
-      <c r="O133" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P133" s="7" t="s">
+      <c r="O133" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P133" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q133" s="17" t="s">
@@ -11491,10 +11491,10 @@
       <c r="C134" s="14" t="s">
         <v>680</v>
       </c>
-      <c r="D134" s="9" t="s">
+      <c r="D134" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E134" s="7" t="s">
+      <c r="E134" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F134" s="14">
@@ -11509,17 +11509,17 @@
       <c r="I134" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J134" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K134" s="7"/>
-      <c r="L134" s="7"/>
+      <c r="J134" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K134" s="10"/>
+      <c r="L134" s="10"/>
       <c r="M134" s="5"/>
       <c r="N134" s="26"/>
-      <c r="O134" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P134" s="7" t="s">
+      <c r="O134" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P134" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q134" s="17" t="s">
@@ -11537,10 +11537,10 @@
       <c r="C135" s="14" t="s">
         <v>683</v>
       </c>
-      <c r="D135" s="9" t="s">
+      <c r="D135" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E135" s="7" t="s">
+      <c r="E135" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F135" s="14">
@@ -11555,17 +11555,17 @@
       <c r="I135" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J135" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K135" s="7"/>
-      <c r="L135" s="7"/>
+      <c r="J135" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K135" s="10"/>
+      <c r="L135" s="10"/>
       <c r="M135" s="5"/>
       <c r="N135" s="26"/>
-      <c r="O135" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P135" s="7" t="s">
+      <c r="O135" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P135" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q135" s="17" t="s">
@@ -11583,10 +11583,10 @@
       <c r="C136" s="14" t="s">
         <v>687</v>
       </c>
-      <c r="D136" s="9" t="s">
+      <c r="D136" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E136" s="7" t="s">
+      <c r="E136" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F136" s="14">
@@ -11601,17 +11601,17 @@
       <c r="I136" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J136" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K136" s="7"/>
-      <c r="L136" s="7"/>
+      <c r="J136" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K136" s="10"/>
+      <c r="L136" s="10"/>
       <c r="M136" s="5"/>
       <c r="N136" s="26"/>
-      <c r="O136" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P136" s="7" t="s">
+      <c r="O136" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P136" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q136" s="17" t="s">
@@ -11629,10 +11629,10 @@
       <c r="C137" s="14" t="s">
         <v>690</v>
       </c>
-      <c r="D137" s="9" t="s">
+      <c r="D137" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E137" s="7" t="s">
+      <c r="E137" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F137" s="14">
@@ -11647,17 +11647,17 @@
       <c r="I137" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J137" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K137" s="7"/>
-      <c r="L137" s="7"/>
+      <c r="J137" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K137" s="10"/>
+      <c r="L137" s="10"/>
       <c r="M137" s="5"/>
       <c r="N137" s="26"/>
-      <c r="O137" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P137" s="7" t="s">
+      <c r="O137" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P137" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q137" s="17" t="s">
@@ -11675,10 +11675,10 @@
       <c r="C138" s="14" t="s">
         <v>693</v>
       </c>
-      <c r="D138" s="9" t="s">
+      <c r="D138" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E138" s="7" t="s">
+      <c r="E138" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F138" s="14">
@@ -11693,17 +11693,17 @@
       <c r="I138" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J138" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K138" s="7"/>
-      <c r="L138" s="7"/>
+      <c r="J138" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K138" s="10"/>
+      <c r="L138" s="10"/>
       <c r="M138" s="5"/>
       <c r="N138" s="26"/>
-      <c r="O138" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P138" s="7" t="s">
+      <c r="O138" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P138" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q138" s="17" t="s">
@@ -11721,10 +11721,10 @@
       <c r="C139" s="14" t="s">
         <v>696</v>
       </c>
-      <c r="D139" s="9" t="s">
+      <c r="D139" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E139" s="7" t="s">
+      <c r="E139" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F139" s="14">
@@ -11739,17 +11739,17 @@
       <c r="I139" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J139" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K139" s="7"/>
-      <c r="L139" s="7"/>
+      <c r="J139" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K139" s="10"/>
+      <c r="L139" s="10"/>
       <c r="M139" s="5"/>
       <c r="N139" s="26"/>
-      <c r="O139" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P139" s="7" t="s">
+      <c r="O139" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P139" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q139" s="17" t="s">
@@ -11767,10 +11767,10 @@
       <c r="C140" s="14" t="s">
         <v>700</v>
       </c>
-      <c r="D140" s="9" t="s">
+      <c r="D140" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E140" s="7" t="s">
+      <c r="E140" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F140" s="14">
@@ -11785,17 +11785,17 @@
       <c r="I140" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J140" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K140" s="7"/>
-      <c r="L140" s="7"/>
+      <c r="J140" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K140" s="10"/>
+      <c r="L140" s="10"/>
       <c r="M140" s="5"/>
       <c r="N140" s="26"/>
-      <c r="O140" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P140" s="7" t="s">
+      <c r="O140" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P140" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q140" s="17" t="s">
@@ -11813,10 +11813,10 @@
       <c r="C141" s="14" t="s">
         <v>703</v>
       </c>
-      <c r="D141" s="9" t="s">
+      <c r="D141" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E141" s="7" t="s">
+      <c r="E141" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F141" s="14">
@@ -11831,17 +11831,17 @@
       <c r="I141" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J141" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K141" s="7"/>
-      <c r="L141" s="7"/>
+      <c r="J141" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K141" s="10"/>
+      <c r="L141" s="10"/>
       <c r="M141" s="5"/>
       <c r="N141" s="26"/>
-      <c r="O141" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P141" s="7" t="s">
+      <c r="O141" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P141" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q141" s="17" t="s">
@@ -11859,10 +11859,10 @@
       <c r="C142" s="14" t="s">
         <v>706</v>
       </c>
-      <c r="D142" s="9" t="s">
+      <c r="D142" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E142" s="7" t="s">
+      <c r="E142" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F142" s="14">
@@ -11877,17 +11877,17 @@
       <c r="I142" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J142" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K142" s="7"/>
-      <c r="L142" s="7"/>
+      <c r="J142" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K142" s="10"/>
+      <c r="L142" s="10"/>
       <c r="M142" s="5"/>
       <c r="N142" s="26"/>
-      <c r="O142" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P142" s="7" t="s">
+      <c r="O142" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P142" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q142" s="17" t="s">
@@ -11905,10 +11905,10 @@
       <c r="C143" s="14" t="s">
         <v>710</v>
       </c>
-      <c r="D143" s="9" t="s">
+      <c r="D143" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E143" s="7" t="s">
+      <c r="E143" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F143" s="14">
@@ -11923,17 +11923,17 @@
       <c r="I143" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J143" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K143" s="7"/>
-      <c r="L143" s="7"/>
+      <c r="J143" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K143" s="10"/>
+      <c r="L143" s="10"/>
       <c r="M143" s="5"/>
       <c r="N143" s="26"/>
-      <c r="O143" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P143" s="7" t="s">
+      <c r="O143" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P143" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q143" s="17" t="s">
@@ -11951,10 +11951,10 @@
       <c r="C144" s="14" t="s">
         <v>714</v>
       </c>
-      <c r="D144" s="9" t="s">
+      <c r="D144" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E144" s="7" t="s">
+      <c r="E144" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F144" s="14">
@@ -11969,17 +11969,17 @@
       <c r="I144" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J144" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K144" s="7"/>
-      <c r="L144" s="7"/>
+      <c r="J144" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K144" s="10"/>
+      <c r="L144" s="10"/>
       <c r="M144" s="5"/>
       <c r="N144" s="26"/>
-      <c r="O144" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P144" s="7" t="s">
+      <c r="O144" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P144" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q144" s="17" t="s">
@@ -11997,10 +11997,10 @@
       <c r="C145" s="14" t="s">
         <v>717</v>
       </c>
-      <c r="D145" s="9" t="s">
+      <c r="D145" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E145" s="7" t="s">
+      <c r="E145" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F145" s="14">
@@ -12015,17 +12015,17 @@
       <c r="I145" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J145" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K145" s="7"/>
-      <c r="L145" s="7"/>
+      <c r="J145" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K145" s="10"/>
+      <c r="L145" s="10"/>
       <c r="M145" s="5"/>
       <c r="N145" s="26"/>
-      <c r="O145" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P145" s="7" t="s">
+      <c r="O145" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P145" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q145" s="17" t="s">
@@ -12043,10 +12043,10 @@
       <c r="C146" s="14" t="s">
         <v>720</v>
       </c>
-      <c r="D146" s="9" t="s">
+      <c r="D146" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E146" s="7" t="s">
+      <c r="E146" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F146" s="14">
@@ -12061,17 +12061,17 @@
       <c r="I146" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J146" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K146" s="7"/>
-      <c r="L146" s="7"/>
+      <c r="J146" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K146" s="10"/>
+      <c r="L146" s="10"/>
       <c r="M146" s="5"/>
       <c r="N146" s="26"/>
-      <c r="O146" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P146" s="7" t="s">
+      <c r="O146" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P146" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q146" s="17" t="s">
@@ -12089,10 +12089,10 @@
       <c r="C147" s="14" t="s">
         <v>724</v>
       </c>
-      <c r="D147" s="9" t="s">
+      <c r="D147" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E147" s="7" t="s">
+      <c r="E147" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F147" s="14">
@@ -12107,17 +12107,17 @@
       <c r="I147" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J147" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K147" s="7"/>
-      <c r="L147" s="7"/>
+      <c r="J147" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K147" s="10"/>
+      <c r="L147" s="10"/>
       <c r="M147" s="5"/>
       <c r="N147" s="26"/>
-      <c r="O147" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P147" s="7" t="s">
+      <c r="O147" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P147" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q147" s="17" t="s">
@@ -12135,10 +12135,10 @@
       <c r="C148" s="14" t="s">
         <v>728</v>
       </c>
-      <c r="D148" s="9" t="s">
+      <c r="D148" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E148" s="7" t="s">
+      <c r="E148" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F148" s="14">
@@ -12153,17 +12153,17 @@
       <c r="I148" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J148" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K148" s="7"/>
-      <c r="L148" s="7"/>
+      <c r="J148" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K148" s="10"/>
+      <c r="L148" s="10"/>
       <c r="M148" s="5"/>
       <c r="N148" s="26"/>
-      <c r="O148" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P148" s="7" t="s">
+      <c r="O148" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P148" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q148" s="17" t="s">
@@ -12181,10 +12181,10 @@
       <c r="C149" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="D149" s="9" t="s">
+      <c r="D149" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E149" s="7" t="s">
+      <c r="E149" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F149" s="14">
@@ -12199,17 +12199,17 @@
       <c r="I149" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J149" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K149" s="7"/>
-      <c r="L149" s="7"/>
+      <c r="J149" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K149" s="10"/>
+      <c r="L149" s="10"/>
       <c r="M149" s="5"/>
       <c r="N149" s="26"/>
-      <c r="O149" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P149" s="7" t="s">
+      <c r="O149" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P149" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q149" s="17" t="s">
@@ -12227,10 +12227,10 @@
       <c r="C150" s="14" t="s">
         <v>734</v>
       </c>
-      <c r="D150" s="9" t="s">
+      <c r="D150" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E150" s="7" t="s">
+      <c r="E150" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F150" s="14">
@@ -12245,17 +12245,17 @@
       <c r="I150" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J150" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K150" s="7"/>
-      <c r="L150" s="7"/>
+      <c r="J150" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K150" s="10"/>
+      <c r="L150" s="10"/>
       <c r="M150" s="5"/>
       <c r="N150" s="26"/>
-      <c r="O150" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P150" s="7" t="s">
+      <c r="O150" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P150" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q150" s="17" t="s">
@@ -12273,10 +12273,10 @@
       <c r="C151" s="14" t="s">
         <v>738</v>
       </c>
-      <c r="D151" s="9" t="s">
+      <c r="D151" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E151" s="7" t="s">
+      <c r="E151" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F151" s="14">
@@ -12291,17 +12291,17 @@
       <c r="I151" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J151" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K151" s="7"/>
-      <c r="L151" s="7"/>
+      <c r="J151" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K151" s="10"/>
+      <c r="L151" s="10"/>
       <c r="M151" s="5"/>
       <c r="N151" s="26"/>
-      <c r="O151" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P151" s="7" t="s">
+      <c r="O151" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P151" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q151" s="17" t="s">
@@ -12319,10 +12319,10 @@
       <c r="C152" s="14" t="s">
         <v>741</v>
       </c>
-      <c r="D152" s="9" t="s">
+      <c r="D152" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E152" s="7" t="s">
+      <c r="E152" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F152" s="14">
@@ -12337,17 +12337,17 @@
       <c r="I152" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J152" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K152" s="7"/>
-      <c r="L152" s="7"/>
+      <c r="J152" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K152" s="10"/>
+      <c r="L152" s="10"/>
       <c r="M152" s="5"/>
       <c r="N152" s="26"/>
-      <c r="O152" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P152" s="7" t="s">
+      <c r="O152" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P152" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q152" s="17" t="s">
@@ -12365,10 +12365,10 @@
       <c r="C153" s="14" t="s">
         <v>745</v>
       </c>
-      <c r="D153" s="9" t="s">
+      <c r="D153" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E153" s="7" t="s">
+      <c r="E153" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F153" s="14">
@@ -12383,17 +12383,17 @@
       <c r="I153" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J153" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K153" s="7"/>
-      <c r="L153" s="7"/>
+      <c r="J153" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K153" s="10"/>
+      <c r="L153" s="10"/>
       <c r="M153" s="5"/>
       <c r="N153" s="26"/>
-      <c r="O153" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P153" s="7" t="s">
+      <c r="O153" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P153" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q153" s="17" t="s">
@@ -12411,10 +12411,10 @@
       <c r="C154" s="14" t="s">
         <v>749</v>
       </c>
-      <c r="D154" s="9" t="s">
+      <c r="D154" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E154" s="7" t="s">
+      <c r="E154" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F154" s="14">
@@ -12429,17 +12429,17 @@
       <c r="I154" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J154" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K154" s="7"/>
-      <c r="L154" s="7"/>
+      <c r="J154" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K154" s="10"/>
+      <c r="L154" s="10"/>
       <c r="M154" s="5"/>
       <c r="N154" s="26"/>
-      <c r="O154" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P154" s="7" t="s">
+      <c r="O154" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P154" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q154" s="17" t="s">
@@ -12457,10 +12457,10 @@
       <c r="C155" s="14" t="s">
         <v>753</v>
       </c>
-      <c r="D155" s="9" t="s">
+      <c r="D155" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E155" s="7" t="s">
+      <c r="E155" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F155" s="14">
@@ -12475,17 +12475,17 @@
       <c r="I155" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J155" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K155" s="7"/>
-      <c r="L155" s="7"/>
+      <c r="J155" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K155" s="10"/>
+      <c r="L155" s="10"/>
       <c r="M155" s="5"/>
       <c r="N155" s="26"/>
-      <c r="O155" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P155" s="7" t="s">
+      <c r="O155" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P155" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q155" s="17" t="s">
@@ -12503,10 +12503,10 @@
       <c r="C156" s="14" t="s">
         <v>756</v>
       </c>
-      <c r="D156" s="9" t="s">
+      <c r="D156" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E156" s="7" t="s">
+      <c r="E156" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F156" s="14">
@@ -12521,17 +12521,17 @@
       <c r="I156" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J156" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K156" s="7"/>
-      <c r="L156" s="7"/>
+      <c r="J156" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K156" s="10"/>
+      <c r="L156" s="10"/>
       <c r="M156" s="5"/>
       <c r="N156" s="26"/>
-      <c r="O156" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P156" s="7" t="s">
+      <c r="O156" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P156" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q156" s="17" t="s">
@@ -12549,10 +12549,10 @@
       <c r="C157" s="14" t="s">
         <v>759</v>
       </c>
-      <c r="D157" s="9" t="s">
+      <c r="D157" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E157" s="7" t="s">
+      <c r="E157" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F157" s="14">
@@ -12567,17 +12567,17 @@
       <c r="I157" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J157" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K157" s="7"/>
-      <c r="L157" s="7"/>
+      <c r="J157" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K157" s="10"/>
+      <c r="L157" s="10"/>
       <c r="M157" s="5"/>
       <c r="N157" s="26"/>
-      <c r="O157" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P157" s="7" t="s">
+      <c r="O157" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P157" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q157" s="17" t="s">
@@ -12595,10 +12595,10 @@
       <c r="C158" s="14" t="s">
         <v>762</v>
       </c>
-      <c r="D158" s="9" t="s">
+      <c r="D158" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E158" s="7" t="s">
+      <c r="E158" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F158" s="14">
@@ -12613,17 +12613,17 @@
       <c r="I158" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J158" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K158" s="7"/>
-      <c r="L158" s="7"/>
+      <c r="J158" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K158" s="10"/>
+      <c r="L158" s="10"/>
       <c r="M158" s="5"/>
       <c r="N158" s="26"/>
-      <c r="O158" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P158" s="7" t="s">
+      <c r="O158" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P158" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q158" s="17" t="s">
@@ -12641,10 +12641,10 @@
       <c r="C159" s="14" t="s">
         <v>766</v>
       </c>
-      <c r="D159" s="9" t="s">
+      <c r="D159" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E159" s="7" t="s">
+      <c r="E159" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F159" s="14">
@@ -12659,17 +12659,17 @@
       <c r="I159" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J159" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K159" s="7"/>
-      <c r="L159" s="7"/>
+      <c r="J159" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K159" s="10"/>
+      <c r="L159" s="10"/>
       <c r="M159" s="5"/>
       <c r="N159" s="26"/>
-      <c r="O159" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P159" s="7" t="s">
+      <c r="O159" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P159" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q159" s="17" t="s">
@@ -12687,16 +12687,16 @@
       <c r="C160" s="14" t="s">
         <v>769</v>
       </c>
-      <c r="D160" s="9" t="s">
+      <c r="D160" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E160" s="7" t="s">
+      <c r="E160" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F160" s="14">
         <v>28</v>
       </c>
-      <c r="G160" s="7" t="s">
+      <c r="G160" s="10" t="s">
         <v>770</v>
       </c>
       <c r="H160" s="17" t="b">
@@ -12705,17 +12705,17 @@
       <c r="I160" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="J160" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K160" s="7"/>
-      <c r="L160" s="7"/>
+      <c r="J160" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K160" s="10"/>
+      <c r="L160" s="10"/>
       <c r="M160" s="5"/>
       <c r="N160" s="26"/>
-      <c r="O160" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P160" s="7" t="s">
+      <c r="O160" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P160" s="10" t="s">
         <v>122</v>
       </c>
       <c r="Q160" s="17" t="s">
@@ -12733,16 +12733,16 @@
       <c r="C161" s="14" t="s">
         <v>773</v>
       </c>
-      <c r="D161" s="9" t="s">
+      <c r="D161" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E161" s="7" t="s">
+      <c r="E161" s="1